--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2803" documentId="8_{6E9563CF-F49F-40F4-A4B4-1887230ABF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{100ECE31-CAAD-41BA-A14D-C6EC05C249F9}"/>
+  <xr:revisionPtr revIDLastSave="3472" documentId="8_{6E9563CF-F49F-40F4-A4B4-1887230ABF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DACF45AE-E9F3-4D74-A8F7-4F3BF7CA7A65}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7270" xr2:uid="{4347C519-B6F4-4BE5-85E3-94D0FBA9924D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4347C519-B6F4-4BE5-85E3-94D0FBA9924D}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="219">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -664,19 +664,37 @@
     <t>Bedroom 2  apartment down right floor3</t>
   </si>
   <si>
-    <t>100 MHz</t>
-  </si>
-  <si>
-    <t>230 MHz</t>
-  </si>
-  <si>
-    <t>470 MHz</t>
-  </si>
-  <si>
     <t>950 MHz</t>
   </si>
   <si>
     <t>2150 MHz</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Best Outlet</t>
+  </si>
+  <si>
+    <t>Worst Outlet</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Variation in outlets</t>
+  </si>
+  <si>
+    <t>MATV (margin of 23 dB)</t>
+  </si>
+  <si>
+    <t>IF (margin of 30 dB)</t>
   </si>
 </sst>
 </file>
@@ -759,7 +777,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -874,8 +892,14 @@
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1170,12 +1194,100 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1183,15 +1295,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1205,7 +1324,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1214,28 +1333,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1244,73 +1348,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1319,7 +1361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1522,27 +1564,77 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1868,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555848AA-6603-4FF7-9150-EEA00320E63B}">
-  <dimension ref="A1:O276"/>
+  <dimension ref="A1:O286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B168" zoomScale="73" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I278" sqref="I278"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="73" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L286" sqref="L286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2220,8 +2312,8 @@
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="55" t="s">
         <v>60</v>
       </c>
@@ -2234,11 +2326,17 @@
       <c r="G18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="114" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="116" t="s">
+        <v>208</v>
+      </c>
+      <c r="M18" s="117" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="56" t="s">
         <v>148</v>
       </c>
@@ -2256,8 +2354,16 @@
         <f>(D19*K$6)+K$11+(E$19*K$5)+K$13</f>
         <v>16.684000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L19" s="60">
+        <f>(D19*L$6)+L$11+(E$19*L$5)+L$13</f>
+        <v>19.59</v>
+      </c>
+      <c r="M19" s="60">
+        <f>(D19*M$6)+M$11+(E$19*M$5)+M$13</f>
+        <v>22.924999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="57" t="s">
         <v>180</v>
       </c>
@@ -2272,8 +2378,16 @@
         <f>(D20*K$6)+K$11+(E$19*K$5)+K$13</f>
         <v>16.096</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L20" s="60">
+        <f>(D20*L$6)+L$11+(E$19*L$5)+L$13</f>
+        <v>18.96</v>
+      </c>
+      <c r="M20" s="60">
+        <f t="shared" ref="M20:M23" si="0">(D20*M$6)+M$11+(E$19*M$5)+M$13</f>
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="57" t="s">
         <v>196</v>
       </c>
@@ -2288,8 +2402,16 @@
         <f>(D21*K$6)+K$11+(E$19*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L21" s="60">
+        <f>(D21*L$6)+L$11+(E$19*L$5)+L$13</f>
+        <v>18.12</v>
+      </c>
+      <c r="M21" s="60">
+        <f t="shared" si="0"/>
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="57" t="s">
         <v>61</v>
       </c>
@@ -2304,8 +2426,16 @@
         <f>(D22*K$6)+K$11+(E$19*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L22" s="60">
+        <f t="shared" ref="L22:L23" si="1">(D22*L$6)+L$11+(E$19*L$5)+L$13</f>
+        <v>15.39</v>
+      </c>
+      <c r="M22" s="60">
+        <f t="shared" si="0"/>
+        <v>16.425000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="58" t="s">
         <v>179</v>
       </c>
@@ -2320,11 +2450,19 @@
         <f>(D23*K$6)+K$11+(E$19*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L23" s="60">
+        <f t="shared" si="1"/>
+        <v>18.54</v>
+      </c>
+      <c r="M23" s="60">
+        <f t="shared" si="0"/>
+        <v>21.299999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="54"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="56" t="s">
         <v>149</v>
       </c>
@@ -2338,12 +2476,20 @@
         <f>(D25*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.420999999999999</v>
       </c>
-      <c r="K25" s="60">
+      <c r="K25" s="118">
         <f>(D25*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>16.684000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L25" s="91">
+        <f>(D25*L$6)+L$11+(E$25*L$5)+L$13</f>
+        <v>19.59</v>
+      </c>
+      <c r="M25" s="92">
+        <f>(D25*M$6)+M$11+(E$25*M$5)+M$13</f>
+        <v>22.924999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="57" t="s">
         <v>181</v>
       </c>
@@ -2354,12 +2500,20 @@
         <f>(D26*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
-      <c r="K26" s="60">
+      <c r="K26" s="118">
         <f>(D26*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L26" s="93">
+        <f>(D26*L$6)+L$11+(E$25*L$5)+L$13</f>
+        <v>18.12</v>
+      </c>
+      <c r="M26" s="94">
+        <f t="shared" ref="M26:M29" si="2">(D26*M$6)+M$11+(E$25*M$5)+M$13</f>
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="57" t="s">
         <v>197</v>
       </c>
@@ -2370,12 +2524,20 @@
         <f>(D27*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
-      <c r="K27" s="60">
+      <c r="K27" s="118">
         <f>(D27*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L27" s="93">
+        <f t="shared" ref="L27:L29" si="3">(D27*L$6)+L$11+(E$25*L$5)+L$13</f>
+        <v>18.12</v>
+      </c>
+      <c r="M27" s="94">
+        <f t="shared" si="2"/>
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="57" t="s">
         <v>62</v>
       </c>
@@ -2386,12 +2548,20 @@
         <f>(D28*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>11.441000000000001</v>
       </c>
-      <c r="K28" s="60">
+      <c r="K28" s="118">
         <f>(D28*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L28" s="93">
+        <f t="shared" si="3"/>
+        <v>15.39</v>
+      </c>
+      <c r="M28" s="94">
+        <f t="shared" si="2"/>
+        <v>16.425000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="58" t="s">
         <v>178</v>
       </c>
@@ -2402,15 +2572,23 @@
         <f>(D29*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.176</v>
       </c>
-      <c r="K29" s="65">
+      <c r="K29" s="119">
         <f>(D29*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L29" s="95">
+        <f t="shared" si="3"/>
+        <v>18.54</v>
+      </c>
+      <c r="M29" s="96">
+        <f t="shared" si="2"/>
+        <v>21.299999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="54"/>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="56" t="s">
         <v>150</v>
       </c>
@@ -2421,15 +2599,23 @@
         <v>6</v>
       </c>
       <c r="G31" s="60">
-        <f t="shared" ref="G31:G36" si="0">(D31*G$6)+G$12+(E$31*G$5)+G$13</f>
+        <f t="shared" ref="G31:G36" si="4">(D31*G$6)+G$12+(E$31*G$5)+G$13</f>
         <v>13.98</v>
       </c>
-      <c r="K31" s="60">
-        <f t="shared" ref="K31:K36" si="1">(D31*K$6)+K$12+(E$31*K$5)+K$13</f>
+      <c r="K31" s="118">
+        <f>(D31*K$6)+K$12+(E$31*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L31" s="91">
+        <f>(D31*L$6)+L$12+(E$31*L$5)+L$13</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="M31" s="92">
+        <f>(D31*M$6)+M$12+(E$31*M$5)+M$13</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="57" t="s">
         <v>182</v>
       </c>
@@ -2437,15 +2623,23 @@
         <v>32</v>
       </c>
       <c r="G32" s="60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14.862</v>
       </c>
-      <c r="K32" s="60">
-        <f t="shared" si="1"/>
+      <c r="K32" s="118">
+        <f t="shared" ref="K32:K36" si="5">(D32*K$6)+K$12+(E$31*K$5)+K$13</f>
         <v>20.448</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L32" s="93">
+        <f t="shared" ref="L32:L36" si="6">(D32*L$6)+L$12+(E$31*L$5)+L$13</f>
+        <v>24.48</v>
+      </c>
+      <c r="M32" s="94">
+        <f t="shared" ref="M32:M36" si="7">(D32*M$6)+M$12+(E$31*M$5)+M$13</f>
+        <v>28.849999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="57" t="s">
         <v>199</v>
       </c>
@@ -2454,15 +2648,23 @@
       </c>
       <c r="E33" s="64"/>
       <c r="G33" s="60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13.931000000000001</v>
       </c>
-      <c r="K33" s="60">
-        <f t="shared" si="1"/>
+      <c r="K33" s="118">
+        <f t="shared" si="5"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L33" s="93">
+        <f t="shared" si="6"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M33" s="94">
+        <f t="shared" si="7"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="57" t="s">
         <v>198</v>
       </c>
@@ -2470,15 +2672,23 @@
         <v>34</v>
       </c>
       <c r="G34" s="60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14.96</v>
       </c>
-      <c r="K34" s="60">
-        <f t="shared" si="1"/>
+      <c r="K34" s="118">
+        <f t="shared" si="5"/>
         <v>20.840000000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L34" s="93">
+        <f t="shared" si="6"/>
+        <v>24.900000000000002</v>
+      </c>
+      <c r="M34" s="94">
+        <f t="shared" si="7"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="57" t="s">
         <v>63</v>
       </c>
@@ -2486,15 +2696,23 @@
         <v>13</v>
       </c>
       <c r="G35" s="60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13.931000000000001</v>
       </c>
-      <c r="K35" s="60">
-        <f t="shared" si="1"/>
+      <c r="K35" s="118">
+        <f t="shared" si="5"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L35" s="93">
+        <f t="shared" si="6"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M35" s="94">
+        <f t="shared" si="7"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="58" t="s">
         <v>177</v>
       </c>
@@ -2502,18 +2720,26 @@
         <v>4</v>
       </c>
       <c r="G36" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13.49</v>
       </c>
-      <c r="K36" s="65">
-        <f t="shared" si="1"/>
+      <c r="K36" s="119">
+        <f t="shared" si="5"/>
         <v>14.96</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L36" s="95">
+        <f t="shared" si="6"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M36" s="96">
+        <f t="shared" si="7"/>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="54"/>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="56" t="s">
         <v>151</v>
       </c>
@@ -2524,15 +2750,23 @@
         <v>6</v>
       </c>
       <c r="G38" s="60">
-        <f t="shared" ref="G38:G43" si="2">(D38*G$6)+G$12+(E$38*G$5)+G$13</f>
+        <f>(D38*G$6)+G$12+(E$38*G$5)+G$13</f>
         <v>13.98</v>
       </c>
       <c r="K38" s="60">
-        <f t="shared" ref="K38:K43" si="3">(D38*K$6)+K$12+(E$38*K$5)+K$13</f>
+        <f>(D38*K$6)+K$12+(E$38*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L38" s="60">
+        <f>(D38*L$6)+L$12+(E$38*L$5)+L$13</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="M38" s="60">
+        <f>(D38*M$6)+M$12+(E$38*M$5)+M$13</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="57" t="s">
         <v>183</v>
       </c>
@@ -2540,15 +2774,23 @@
         <v>32</v>
       </c>
       <c r="G39" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G39:G43" si="8">(D39*G$6)+G$12+(E$38*G$5)+G$13</f>
         <v>14.862</v>
       </c>
       <c r="K39" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K39:K43" si="9">(D39*K$6)+K$12+(E$38*K$5)+K$13</f>
         <v>20.448</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L39" s="60">
+        <f>(D39*L$6)+L$12+(E$38*L$5)+L$13</f>
+        <v>24.48</v>
+      </c>
+      <c r="M39" s="60">
+        <f t="shared" ref="M39:M43" si="10">(D39*M$6)+M$12+(E$38*M$5)+M$13</f>
+        <v>28.849999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="57" t="s">
         <v>200</v>
       </c>
@@ -2556,15 +2798,23 @@
         <v>13</v>
       </c>
       <c r="G40" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>13.931000000000001</v>
       </c>
       <c r="K40" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L40" s="60">
+        <f t="shared" ref="L40:L43" si="11">(D40*L$6)+L$12+(E$38*L$5)+L$13</f>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M40" s="60">
+        <f t="shared" si="10"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="57" t="s">
         <v>201</v>
       </c>
@@ -2572,15 +2822,23 @@
         <v>34</v>
       </c>
       <c r="G41" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>14.96</v>
       </c>
       <c r="K41" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20.840000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L41" s="60">
+        <f t="shared" si="11"/>
+        <v>24.900000000000002</v>
+      </c>
+      <c r="M41" s="60">
+        <f t="shared" si="10"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="57" t="s">
         <v>63</v>
       </c>
@@ -2588,15 +2846,23 @@
         <v>13</v>
       </c>
       <c r="G42" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>13.931000000000001</v>
       </c>
       <c r="K42" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L42" s="60">
+        <f t="shared" si="11"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M42" s="60">
+        <f t="shared" si="10"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="58" t="s">
         <v>176</v>
       </c>
@@ -2604,18 +2870,26 @@
         <v>4</v>
       </c>
       <c r="G43" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>13.49</v>
       </c>
       <c r="K43" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>14.96</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L43" s="60">
+        <f t="shared" si="11"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M43" s="60">
+        <f t="shared" si="10"/>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="54"/>
     </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="56" t="s">
         <v>152</v>
       </c>
@@ -2633,8 +2907,16 @@
         <f>(D45*K$6)+K$11+(E$45*K$5)+K$13</f>
         <v>16.684000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L45" s="60">
+        <f>(D45*L$6)+L$11+(E$45*L$5)+L$13</f>
+        <v>19.59</v>
+      </c>
+      <c r="M45" s="60">
+        <f>(D45*M$6)+M$11+(E$45*M$5)+M$13</f>
+        <v>22.924999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="57" t="s">
         <v>184</v>
       </c>
@@ -2649,8 +2931,16 @@
         <f>(D46*K$6)+K$11+(E$45*K$5)+K$13</f>
         <v>16.096</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L46" s="60">
+        <f t="shared" ref="L46:L49" si="12">(D46*L$6)+L$11+(E$45*L$5)+L$13</f>
+        <v>18.96</v>
+      </c>
+      <c r="M46" s="60">
+        <f t="shared" ref="M46:M49" si="13">(D46*M$6)+M$11+(E$45*M$5)+M$13</f>
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="57" t="s">
         <v>202</v>
       </c>
@@ -2665,8 +2955,16 @@
         <f>(D47*K$6)+K$11+(E$45*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L47" s="60">
+        <f t="shared" si="12"/>
+        <v>18.12</v>
+      </c>
+      <c r="M47" s="60">
+        <f t="shared" si="13"/>
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="57" t="s">
         <v>64</v>
       </c>
@@ -2681,8 +2979,16 @@
         <f>(D48*K$6)+K$11+(E$45*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L48" s="60">
+        <f t="shared" si="12"/>
+        <v>15.39</v>
+      </c>
+      <c r="M48" s="60">
+        <f t="shared" si="13"/>
+        <v>16.425000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="58" t="s">
         <v>175</v>
       </c>
@@ -2697,11 +3003,19 @@
         <f>(D49*K$6)+K$11+(E$45*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L49" s="60">
+        <f t="shared" si="12"/>
+        <v>18.54</v>
+      </c>
+      <c r="M49" s="60">
+        <f t="shared" si="13"/>
+        <v>21.299999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="54"/>
     </row>
-    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="56" t="s">
         <v>153</v>
       </c>
@@ -2719,8 +3033,16 @@
         <f>(D51*K$6)+K$11+(E$51*K$5)+K$13</f>
         <v>16.684000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L51" s="60">
+        <f>(D51*L$6)+L$11+(E$51*L$5)+L$13</f>
+        <v>19.59</v>
+      </c>
+      <c r="M51" s="60">
+        <f>(D51*M$6)+M$11+(E$51*M$5)+M$13</f>
+        <v>22.924999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="57" t="s">
         <v>185</v>
       </c>
@@ -2735,8 +3057,16 @@
         <f>(D52*K$6)+K$11+(E$51*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L52" s="60">
+        <f t="shared" ref="L52:L55" si="14">(D52*L$6)+L$11+(E$51*L$5)+L$13</f>
+        <v>18.12</v>
+      </c>
+      <c r="M52" s="60">
+        <f t="shared" ref="M52:M55" si="15">(D52*M$6)+M$11+(E$51*M$5)+M$13</f>
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="57" t="s">
         <v>203</v>
       </c>
@@ -2751,8 +3081,16 @@
         <f>(D53*K$6)+K$11+(E$51*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L53" s="60">
+        <f t="shared" si="14"/>
+        <v>18.12</v>
+      </c>
+      <c r="M53" s="60">
+        <f t="shared" si="15"/>
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="57" t="s">
         <v>65</v>
       </c>
@@ -2767,8 +3105,16 @@
         <f>(D54*K$6)+K$11+(E$51*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L54" s="60">
+        <f t="shared" si="14"/>
+        <v>15.39</v>
+      </c>
+      <c r="M54" s="60">
+        <f t="shared" si="15"/>
+        <v>16.425000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="58" t="s">
         <v>174</v>
       </c>
@@ -2783,11 +3129,19 @@
         <f>(D55*K$6)+K$11+(E$51*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L55" s="60">
+        <f t="shared" si="14"/>
+        <v>18.54</v>
+      </c>
+      <c r="M55" s="60">
+        <f t="shared" si="15"/>
+        <v>21.299999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="54"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="56" t="s">
         <v>154</v>
       </c>
@@ -2798,15 +3152,23 @@
         <v>6</v>
       </c>
       <c r="G57" s="60">
-        <f t="shared" ref="G57:G62" si="4">(D57*G$6)+G$12+(E$57*G$5)+G$13</f>
+        <f t="shared" ref="G57:G62" si="16">(D57*G$6)+G$12+(E$57*G$5)+G$13</f>
         <v>13.98</v>
       </c>
       <c r="K57" s="60">
-        <f t="shared" ref="K57:K62" si="5">(D57*K$6)+K$12+(E$57*K$5)+K$13</f>
+        <f t="shared" ref="K57:K62" si="17">(D57*K$6)+K$12+(E$57*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L57" s="60">
+        <f>(D57*L$6)+L$12+(E$57*L$5)+L$13</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="M57" s="60">
+        <f>(D57*M$6)+M$12+(E$57*M$5)+M$13</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="57" t="s">
         <v>186</v>
       </c>
@@ -2814,15 +3176,23 @@
         <v>32</v>
       </c>
       <c r="G58" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>14.862</v>
       </c>
       <c r="K58" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>20.448</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L58" s="60">
+        <f t="shared" ref="L58:L62" si="18">(D58*L$6)+L$12+(E$57*L$5)+L$13</f>
+        <v>24.48</v>
+      </c>
+      <c r="M58" s="60">
+        <f t="shared" ref="M58:M62" si="19">(D58*M$6)+M$12+(E$57*M$5)+M$13</f>
+        <v>28.849999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="57" t="s">
         <v>205</v>
       </c>
@@ -2830,15 +3200,23 @@
         <v>13</v>
       </c>
       <c r="G59" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>13.931000000000001</v>
       </c>
       <c r="K59" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L59" s="60">
+        <f t="shared" si="18"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M59" s="60">
+        <f t="shared" si="19"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="57" t="s">
         <v>204</v>
       </c>
@@ -2846,15 +3224,23 @@
         <v>34</v>
       </c>
       <c r="G60" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>14.96</v>
       </c>
       <c r="K60" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>20.840000000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L60" s="60">
+        <f t="shared" si="18"/>
+        <v>24.900000000000002</v>
+      </c>
+      <c r="M60" s="60">
+        <f t="shared" si="19"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="57" t="s">
         <v>66</v>
       </c>
@@ -2862,15 +3248,23 @@
         <v>13</v>
       </c>
       <c r="G61" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>13.931000000000001</v>
       </c>
       <c r="K61" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L61" s="60">
+        <f t="shared" si="18"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M61" s="60">
+        <f t="shared" si="19"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="58" t="s">
         <v>173</v>
       </c>
@@ -2878,18 +3272,26 @@
         <v>4</v>
       </c>
       <c r="G62" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>13.49</v>
       </c>
       <c r="K62" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>14.96</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L62" s="60">
+        <f t="shared" si="18"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M62" s="60">
+        <f t="shared" si="19"/>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="54"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="56" t="s">
         <v>155</v>
       </c>
@@ -2900,15 +3302,23 @@
         <v>6</v>
       </c>
       <c r="G64" s="60">
-        <f t="shared" ref="G64:G69" si="6">(D64*G$6)+G$12+(E$64*G$5)+G$13</f>
+        <f t="shared" ref="G64:G69" si="20">(D64*G$6)+G$12+(E$64*G$5)+G$13</f>
         <v>13.98</v>
       </c>
       <c r="K64" s="60">
-        <f t="shared" ref="K64:K69" si="7">(D64*K$6)+K$12+(E$64*K$5)+K$13</f>
+        <f t="shared" ref="K64:K69" si="21">(D64*K$6)+K$12+(E$64*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L64" s="60">
+        <f>(D64*L$6)+L$12+(E$64*L$5)+L$13</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="M64" s="60">
+        <f>(D64*M$6)+M$12+(E$64*M$5)+M$13</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="57" t="s">
         <v>187</v>
       </c>
@@ -2916,15 +3326,23 @@
         <v>32</v>
       </c>
       <c r="G65" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>14.862</v>
       </c>
       <c r="K65" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>20.448</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L65" s="60">
+        <f t="shared" ref="L65:L69" si="22">(D65*L$6)+L$12+(E$64*L$5)+L$13</f>
+        <v>24.48</v>
+      </c>
+      <c r="M65" s="60">
+        <f t="shared" ref="M65:M69" si="23">(D65*M$6)+M$12+(E$64*M$5)+M$13</f>
+        <v>28.849999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="57" t="s">
         <v>206</v>
       </c>
@@ -2932,15 +3350,23 @@
         <v>13</v>
       </c>
       <c r="G66" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>13.931000000000001</v>
       </c>
       <c r="K66" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L66" s="60">
+        <f t="shared" si="22"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M66" s="60">
+        <f t="shared" si="23"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="57" t="s">
         <v>207</v>
       </c>
@@ -2948,15 +3374,23 @@
         <v>32</v>
       </c>
       <c r="G67" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>14.862</v>
       </c>
       <c r="K67" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>20.448</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L67" s="60">
+        <f t="shared" si="22"/>
+        <v>24.48</v>
+      </c>
+      <c r="M67" s="60">
+        <f t="shared" si="23"/>
+        <v>28.849999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="57" t="s">
         <v>63</v>
       </c>
@@ -2964,15 +3398,23 @@
         <v>13</v>
       </c>
       <c r="G68" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>13.931000000000001</v>
       </c>
       <c r="K68" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L68" s="60">
+        <f t="shared" si="22"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M68" s="60">
+        <f t="shared" si="23"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="58" t="s">
         <v>172</v>
       </c>
@@ -2980,18 +3422,26 @@
         <v>4</v>
       </c>
       <c r="G69" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>13.49</v>
       </c>
       <c r="K69" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>14.96</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L69" s="60">
+        <f t="shared" si="22"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M69" s="60">
+        <f t="shared" si="23"/>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="54"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="56" t="s">
         <v>156</v>
       </c>
@@ -3009,8 +3459,16 @@
         <f>(D71*K$6)+K$11+(E$71*K$5)+K$13</f>
         <v>16.684000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L71" s="60">
+        <f>(D71*L$6)+L$11+(E$71*L$5)+L$13</f>
+        <v>19.59</v>
+      </c>
+      <c r="M71" s="60">
+        <f>(D71*M$6)+M$11+(E$71*M$5)+M$13</f>
+        <v>22.924999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="57" t="s">
         <v>188</v>
       </c>
@@ -3025,8 +3483,16 @@
         <f>(D72*K$6)+K$11+(E$71*K$5)+K$13</f>
         <v>16.096</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L72" s="60">
+        <f t="shared" ref="L72:L75" si="24">(D72*L$6)+L$11+(E$71*L$5)+L$13</f>
+        <v>18.96</v>
+      </c>
+      <c r="M72" s="60">
+        <f t="shared" ref="M72:M75" si="25">(D72*M$6)+M$11+(E$71*M$5)+M$13</f>
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="57" t="s">
         <v>74</v>
       </c>
@@ -3041,8 +3507,16 @@
         <f>(D73*K$6)+K$11+(E$71*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L73" s="60">
+        <f t="shared" si="24"/>
+        <v>18.12</v>
+      </c>
+      <c r="M73" s="60">
+        <f t="shared" si="25"/>
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="57" t="s">
         <v>75</v>
       </c>
@@ -3057,8 +3531,16 @@
         <f>(D74*K$6)+K$11+(E$71*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L74" s="60">
+        <f t="shared" si="24"/>
+        <v>15.39</v>
+      </c>
+      <c r="M74" s="60">
+        <f t="shared" si="25"/>
+        <v>16.425000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="58" t="s">
         <v>171</v>
       </c>
@@ -3073,11 +3555,19 @@
         <f>(D75*K$6)+K$11+(E$71*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L75" s="60">
+        <f t="shared" si="24"/>
+        <v>18.54</v>
+      </c>
+      <c r="M75" s="60">
+        <f t="shared" si="25"/>
+        <v>21.299999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="54"/>
     </row>
-    <row r="77" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="56" t="s">
         <v>157</v>
       </c>
@@ -3095,8 +3585,16 @@
         <f>(D77*K$6)+K$11+(E$77*K$5)+K$13</f>
         <v>16.684000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L77" s="60">
+        <f>(D77*L$6)+L$11+(E$77*L$5)+L$13</f>
+        <v>19.59</v>
+      </c>
+      <c r="M77" s="60">
+        <f>(D77*M$6)+M$11+(E$77*M$5)+M$13</f>
+        <v>22.924999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="57" t="s">
         <v>189</v>
       </c>
@@ -3111,8 +3609,16 @@
         <f>(D78*K$6)+K$11+(E$77*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L78" s="60">
+        <f t="shared" ref="L78:L81" si="26">(D78*L$6)+L$11+(E$77*L$5)+L$13</f>
+        <v>18.12</v>
+      </c>
+      <c r="M78" s="60">
+        <f t="shared" ref="M78:M81" si="27">(D78*M$6)+M$11+(E$77*M$5)+M$13</f>
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="57" t="s">
         <v>73</v>
       </c>
@@ -3127,8 +3633,16 @@
         <f>(D79*K$6)+K$11+(E$77*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L79" s="60">
+        <f t="shared" si="26"/>
+        <v>18.12</v>
+      </c>
+      <c r="M79" s="60">
+        <f t="shared" si="27"/>
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="57" t="s">
         <v>72</v>
       </c>
@@ -3143,8 +3657,16 @@
         <f>(D80*K$6)+K$11+(E$77*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L80" s="60">
+        <f t="shared" si="26"/>
+        <v>15.39</v>
+      </c>
+      <c r="M80" s="60">
+        <f t="shared" si="27"/>
+        <v>16.425000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="58" t="s">
         <v>170</v>
       </c>
@@ -3159,11 +3681,19 @@
         <f>(D81*K$6)+K$11+(E$77*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L81" s="60">
+        <f t="shared" si="26"/>
+        <v>18.54</v>
+      </c>
+      <c r="M81" s="60">
+        <f t="shared" si="27"/>
+        <v>21.299999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="54"/>
     </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="56" t="s">
         <v>158</v>
       </c>
@@ -3174,15 +3704,23 @@
         <v>6</v>
       </c>
       <c r="G83" s="60">
-        <f t="shared" ref="G83:G88" si="8">(D83*G$6)+G$12+(E$83*G$5)+G$13</f>
+        <f t="shared" ref="G83:G88" si="28">(D83*G$6)+G$12+(E$83*G$5)+G$13</f>
         <v>13.98</v>
       </c>
       <c r="K83" s="60">
-        <f t="shared" ref="K83:K88" si="9">(D83*K$6)+K$12+(E$83*K$5)+K$13</f>
+        <f t="shared" ref="K83:K88" si="29">(D83*K$6)+K$12+(E$83*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L83" s="60">
+        <f>(D83*L$6)+L$12+(E$83*L$5)+L$13</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="M83" s="60">
+        <f>(D83*M$6)+M$12+(E$83*M$5)+M$13</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="57" t="s">
         <v>190</v>
       </c>
@@ -3190,15 +3728,23 @@
         <v>32</v>
       </c>
       <c r="G84" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>14.862</v>
       </c>
       <c r="K84" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>20.448</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L84" s="60">
+        <f t="shared" ref="L84:L88" si="30">(D84*L$6)+L$12+(E$83*L$5)+L$13</f>
+        <v>24.48</v>
+      </c>
+      <c r="M84" s="60">
+        <f t="shared" ref="M84:M88" si="31">(D84*M$6)+M$12+(E$83*M$5)+M$13</f>
+        <v>28.849999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="57" t="s">
         <v>71</v>
       </c>
@@ -3210,19 +3756,26 @@
       <c r="E85" s="54"/>
       <c r="F85" s="54"/>
       <c r="G85" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>13.931000000000001</v>
       </c>
       <c r="H85" s="54"/>
       <c r="I85" s="54"/>
       <c r="J85" s="54"/>
       <c r="K85" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>16.724</v>
       </c>
-      <c r="L85" s="54"/>
-    </row>
-    <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L85" s="60">
+        <f t="shared" si="30"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M85" s="60">
+        <f t="shared" si="31"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="57" t="s">
         <v>70</v>
       </c>
@@ -3234,19 +3787,26 @@
       <c r="E86" s="54"/>
       <c r="F86" s="54"/>
       <c r="G86" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>14.96</v>
       </c>
       <c r="H86" s="54"/>
       <c r="I86" s="54"/>
       <c r="J86" s="54"/>
       <c r="K86" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>20.840000000000003</v>
       </c>
-      <c r="L86" s="54"/>
-    </row>
-    <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L86" s="60">
+        <f t="shared" si="30"/>
+        <v>24.900000000000002</v>
+      </c>
+      <c r="M86" s="60">
+        <f t="shared" si="31"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="57" t="s">
         <v>67</v>
       </c>
@@ -3258,19 +3818,26 @@
       <c r="E87" s="54"/>
       <c r="F87" s="54"/>
       <c r="G87" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>13.931000000000001</v>
       </c>
       <c r="H87" s="54"/>
       <c r="I87" s="54"/>
       <c r="J87" s="54"/>
       <c r="K87" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>16.724</v>
       </c>
-      <c r="L87" s="54"/>
-    </row>
-    <row r="88" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L87" s="60">
+        <f t="shared" si="30"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M87" s="60">
+        <f t="shared" si="31"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="58" t="s">
         <v>169</v>
       </c>
@@ -3282,19 +3849,26 @@
       <c r="E88" s="54"/>
       <c r="F88" s="54"/>
       <c r="G88" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>13.49</v>
       </c>
       <c r="H88" s="54"/>
       <c r="I88" s="54"/>
       <c r="J88" s="54"/>
       <c r="K88" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>14.96</v>
       </c>
-      <c r="L88" s="54"/>
-    </row>
-    <row r="89" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L88" s="60">
+        <f t="shared" si="30"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M88" s="60">
+        <f t="shared" si="31"/>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="54"/>
       <c r="B89" s="54"/>
       <c r="C89" s="54"/>
@@ -3308,7 +3882,7 @@
       <c r="K89" s="54"/>
       <c r="L89" s="54"/>
     </row>
-    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="56" t="s">
         <v>159</v>
       </c>
@@ -3322,19 +3896,26 @@
       </c>
       <c r="F90" s="54"/>
       <c r="G90" s="60">
-        <f t="shared" ref="G90:G95" si="10">(D90*G$6)+G$12+(E$90*G$5)+G$13</f>
+        <f t="shared" ref="G90:G95" si="32">(D90*G$6)+G$12+(E$90*G$5)+G$13</f>
         <v>13.98</v>
       </c>
       <c r="H90" s="54"/>
       <c r="I90" s="54"/>
       <c r="J90" s="54"/>
       <c r="K90" s="60">
-        <f t="shared" ref="K90:K95" si="11">(D90*K$6)+K$12+(E$90*K$5)+K$13</f>
+        <f t="shared" ref="K90:K95" si="33">(D90*K$6)+K$12+(E$90*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
-      <c r="L90" s="54"/>
-    </row>
-    <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L90" s="60">
+        <f>(D90*L$6)+L$12+(E$90*L$5)+L$13</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="M90" s="60">
+        <f>(D90*M$6)+M$12+(E$90*M$5)+M$13</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="57" t="s">
         <v>191</v>
       </c>
@@ -3346,19 +3927,26 @@
       <c r="E91" s="54"/>
       <c r="F91" s="54"/>
       <c r="G91" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="32"/>
         <v>14.862</v>
       </c>
       <c r="H91" s="54"/>
       <c r="I91" s="54"/>
       <c r="J91" s="54"/>
       <c r="K91" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>20.448</v>
       </c>
-      <c r="L91" s="54"/>
-    </row>
-    <row r="92" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L91" s="60">
+        <f t="shared" ref="L91:L95" si="34">(D91*L$6)+L$12+(E$90*L$5)+L$13</f>
+        <v>24.48</v>
+      </c>
+      <c r="M91" s="60">
+        <f t="shared" ref="M91:M95" si="35">(D91*M$6)+M$12+(E$90*M$5)+M$13</f>
+        <v>28.849999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="57" t="s">
         <v>69</v>
       </c>
@@ -3366,15 +3954,23 @@
         <v>13</v>
       </c>
       <c r="G92" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="32"/>
         <v>13.931000000000001</v>
       </c>
       <c r="K92" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L92" s="60">
+        <f t="shared" si="34"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M92" s="60">
+        <f t="shared" si="35"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="57" t="s">
         <v>68</v>
       </c>
@@ -3382,15 +3978,23 @@
         <v>32</v>
       </c>
       <c r="G93" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="32"/>
         <v>14.862</v>
       </c>
       <c r="K93" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>20.448</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L93" s="60">
+        <f t="shared" si="34"/>
+        <v>24.48</v>
+      </c>
+      <c r="M93" s="60">
+        <f t="shared" si="35"/>
+        <v>28.849999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="57" t="s">
         <v>67</v>
       </c>
@@ -3398,15 +4002,23 @@
         <v>13</v>
       </c>
       <c r="G94" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="32"/>
         <v>13.931000000000001</v>
       </c>
       <c r="K94" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L94" s="60">
+        <f t="shared" si="34"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M94" s="60">
+        <f t="shared" si="35"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="58" t="s">
         <v>168</v>
       </c>
@@ -3414,16 +4026,24 @@
         <v>4</v>
       </c>
       <c r="G95" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="32"/>
         <v>13.49</v>
       </c>
       <c r="K95" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>14.96</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="97" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L95" s="60">
+        <f t="shared" si="34"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M95" s="60">
+        <f t="shared" si="35"/>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="97" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="56" t="s">
         <v>160</v>
       </c>
@@ -3441,8 +4061,16 @@
         <f>(D97*K$6)+K$11+(E$97*K$5)+K$13</f>
         <v>16.684000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L97" s="60">
+        <f>(D97*L$6)+L$11+(E$97*L$5)+L$13</f>
+        <v>19.59</v>
+      </c>
+      <c r="M97" s="60">
+        <f>(D97*M$6)+M$11+(E$97*M$5)+M$13</f>
+        <v>22.924999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="57" t="s">
         <v>192</v>
       </c>
@@ -3457,8 +4085,16 @@
         <f>(D98*K$6)+K$11+(E$97*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L98" s="60">
+        <f t="shared" ref="L98:L101" si="36">(D98*L$6)+L$11+(E$97*L$5)+L$13</f>
+        <v>18.12</v>
+      </c>
+      <c r="M98" s="60">
+        <f t="shared" ref="M98:M101" si="37">(D98*M$6)+M$11+(E$97*M$5)+M$13</f>
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="57" t="s">
         <v>79</v>
       </c>
@@ -3473,8 +4109,16 @@
         <f>(D99*K$6)+K$11+(E$97*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L99" s="60">
+        <f t="shared" si="36"/>
+        <v>18.12</v>
+      </c>
+      <c r="M99" s="60">
+        <f t="shared" si="37"/>
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="57" t="s">
         <v>80</v>
       </c>
@@ -3489,8 +4133,16 @@
         <f>(D100*K$6)+K$11+(E$97*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L100" s="60">
+        <f t="shared" si="36"/>
+        <v>15.39</v>
+      </c>
+      <c r="M100" s="60">
+        <f t="shared" si="37"/>
+        <v>16.425000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="58" t="s">
         <v>167</v>
       </c>
@@ -3505,9 +4157,17 @@
         <f>(D101*K$6)+K$11+(E$97*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="103" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L101" s="60">
+        <f t="shared" si="36"/>
+        <v>18.54</v>
+      </c>
+      <c r="M101" s="60">
+        <f t="shared" si="37"/>
+        <v>21.299999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="103" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="56" t="s">
         <v>161</v>
       </c>
@@ -3525,8 +4185,16 @@
         <f>(D103*K$6)+K$11+(E$103*K$5)+K$13</f>
         <v>16.684000000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L103" s="60">
+        <f>(D103*L$6)+L$11+(E$103*L$5)+L$13</f>
+        <v>19.59</v>
+      </c>
+      <c r="M103" s="60">
+        <f>(D103*M$6)+M$11+(E$103*M$5)+M$13</f>
+        <v>22.924999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="57" t="s">
         <v>193</v>
       </c>
@@ -3541,8 +4209,16 @@
         <f>(D104*K$6)+K$11+(E$103*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L104" s="60">
+        <f t="shared" ref="L104:L107" si="38">(D104*L$6)+L$11+(E$103*L$5)+L$13</f>
+        <v>18.12</v>
+      </c>
+      <c r="M104" s="60">
+        <f t="shared" ref="M104:M107" si="39">(D104*M$6)+M$11+(E$103*M$5)+M$13</f>
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="57" t="s">
         <v>81</v>
       </c>
@@ -3557,8 +4233,16 @@
         <f>(D105*K$6)+K$11+(E$103*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L105" s="60">
+        <f t="shared" si="38"/>
+        <v>18.12</v>
+      </c>
+      <c r="M105" s="60">
+        <f t="shared" si="39"/>
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="57" t="s">
         <v>82</v>
       </c>
@@ -3573,8 +4257,16 @@
         <f>(D106*K$6)+K$11+(E$103*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L106" s="60">
+        <f t="shared" si="38"/>
+        <v>15.39</v>
+      </c>
+      <c r="M106" s="60">
+        <f t="shared" si="39"/>
+        <v>16.425000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="58" t="s">
         <v>166</v>
       </c>
@@ -3589,9 +4281,17 @@
         <f>(D107*K$6)+K$11+(E$103*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="109" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L107" s="60">
+        <f t="shared" si="38"/>
+        <v>18.54</v>
+      </c>
+      <c r="M107" s="60">
+        <f t="shared" si="39"/>
+        <v>21.299999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="109" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="56" t="s">
         <v>162</v>
       </c>
@@ -3602,15 +4302,23 @@
         <v>6</v>
       </c>
       <c r="G109" s="60">
-        <f t="shared" ref="G109:G114" si="12">(D109*G$6)+G$12+(E$109*G$5)+G$13</f>
+        <f t="shared" ref="G109:G114" si="40">(D109*G$6)+G$12+(E$109*G$5)+G$13</f>
         <v>13.98</v>
       </c>
       <c r="K109" s="60">
-        <f t="shared" ref="K109:K114" si="13">(D109*K$6)+K$12+(E$109*K$5)+K$13</f>
+        <f t="shared" ref="K109:K114" si="41">(D109*K$6)+K$12+(E$109*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L109" s="60">
+        <f>(D109*L$6)+L$12+(E$109*L$5)+L$13</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="M109" s="60">
+        <f>(D109*M$6)+M$12+(E$109*M$5)+M$13</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="57" t="s">
         <v>194</v>
       </c>
@@ -3618,15 +4326,23 @@
         <v>32</v>
       </c>
       <c r="G110" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>14.862</v>
       </c>
       <c r="K110" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>20.448</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L110" s="60">
+        <f t="shared" ref="L110:L114" si="42">(D110*L$6)+L$12+(E$109*L$5)+L$13</f>
+        <v>24.48</v>
+      </c>
+      <c r="M110" s="60">
+        <f t="shared" ref="M110:M114" si="43">(D110*M$6)+M$12+(E$109*M$5)+M$13</f>
+        <v>28.849999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="57" t="s">
         <v>83</v>
       </c>
@@ -3634,15 +4350,23 @@
         <v>13</v>
       </c>
       <c r="G111" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>13.931000000000001</v>
       </c>
       <c r="K111" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L111" s="60">
+        <f t="shared" si="42"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M111" s="60">
+        <f t="shared" si="43"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="57" t="s">
         <v>84</v>
       </c>
@@ -3650,15 +4374,23 @@
         <v>34</v>
       </c>
       <c r="G112" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>14.96</v>
       </c>
       <c r="K112" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>20.840000000000003</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L112" s="60">
+        <f t="shared" si="42"/>
+        <v>24.900000000000002</v>
+      </c>
+      <c r="M112" s="60">
+        <f t="shared" si="43"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="57" t="s">
         <v>85</v>
       </c>
@@ -3666,15 +4398,23 @@
         <v>13</v>
       </c>
       <c r="G113" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>13.931000000000001</v>
       </c>
       <c r="K113" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L113" s="60">
+        <f t="shared" si="42"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M113" s="60">
+        <f t="shared" si="43"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="58" t="s">
         <v>165</v>
       </c>
@@ -3682,16 +4422,24 @@
         <v>4</v>
       </c>
       <c r="G114" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>13.49</v>
       </c>
       <c r="K114" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>14.96</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="116" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L114" s="60">
+        <f t="shared" si="42"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M114" s="60">
+        <f t="shared" si="43"/>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="116" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="56" t="s">
         <v>163</v>
       </c>
@@ -3702,15 +4450,23 @@
         <v>6</v>
       </c>
       <c r="G116" s="60">
-        <f t="shared" ref="G116:G121" si="14">(D116*G$6)+G$12+(E$116*G$5)+G$13</f>
+        <f t="shared" ref="G116:G121" si="44">(D116*G$6)+G$12+(E$116*G$5)+G$13</f>
         <v>13.98</v>
       </c>
       <c r="K116" s="60">
-        <f t="shared" ref="K116:K121" si="15">(D116*K$6)+K$12+(E$116*K$5)+K$13</f>
+        <f t="shared" ref="K116:K121" si="45">(D116*K$6)+K$12+(E$116*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L116" s="60">
+        <f>(D116*L$6)+L$12+(E$116*L$5)+L$13</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="M116" s="60">
+        <f>(D116*M$6)+M$12+(E$116*M$5)+M$13</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="57" t="s">
         <v>195</v>
       </c>
@@ -3718,15 +4474,23 @@
         <v>32</v>
       </c>
       <c r="G117" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="44"/>
         <v>14.862</v>
       </c>
       <c r="K117" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="45"/>
         <v>20.448</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L117" s="60">
+        <f t="shared" ref="L117:L121" si="46">(D117*L$6)+L$12+(E$116*L$5)+L$13</f>
+        <v>24.48</v>
+      </c>
+      <c r="M117" s="60">
+        <f t="shared" ref="M117:M121" si="47">(D117*M$6)+M$12+(E$116*M$5)+M$13</f>
+        <v>28.849999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="57" t="s">
         <v>86</v>
       </c>
@@ -3734,15 +4498,23 @@
         <v>13</v>
       </c>
       <c r="G118" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="44"/>
         <v>13.931000000000001</v>
       </c>
       <c r="K118" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="45"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L118" s="60">
+        <f t="shared" si="46"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M118" s="60">
+        <f t="shared" si="47"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="57" t="s">
         <v>87</v>
       </c>
@@ -3750,15 +4522,23 @@
         <v>34</v>
       </c>
       <c r="G119" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="44"/>
         <v>14.96</v>
       </c>
       <c r="K119" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="45"/>
         <v>20.840000000000003</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L119" s="60">
+        <f t="shared" si="46"/>
+        <v>24.900000000000002</v>
+      </c>
+      <c r="M119" s="60">
+        <f t="shared" si="47"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="57" t="s">
         <v>85</v>
       </c>
@@ -3766,15 +4546,23 @@
         <v>13</v>
       </c>
       <c r="G120" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="44"/>
         <v>13.931000000000001</v>
       </c>
       <c r="K120" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="45"/>
         <v>16.724</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L120" s="60">
+        <f t="shared" si="46"/>
+        <v>20.490000000000002</v>
+      </c>
+      <c r="M120" s="60">
+        <f t="shared" si="47"/>
+        <v>22.675000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="58" t="s">
         <v>164</v>
       </c>
@@ -3782,16 +4570,24 @@
         <v>4</v>
       </c>
       <c r="G121" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="44"/>
         <v>13.49</v>
       </c>
       <c r="K121" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="45"/>
         <v>14.96</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="123" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L121" s="60">
+        <f t="shared" si="46"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M121" s="60">
+        <f t="shared" si="47"/>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="123" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="56" t="s">
         <v>88</v>
       </c>
@@ -3809,8 +4605,16 @@
         <f>(D123*K$6)+K$12+(E$123*K$5)+K$14</f>
         <v>18.939999999999998</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L123" s="89">
+        <f>(D123*L$6)+L$12+(E$123*L$5)+L$14</f>
+        <v>23.15</v>
+      </c>
+      <c r="M123" s="89">
+        <f>(D123*M$6)+M$12+(E$123*M$5)+M$14</f>
+        <v>24.875</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="57" t="s">
         <v>89</v>
       </c>
@@ -3828,8 +4632,16 @@
         <f>(D124*K$6)+K$12+(E$124*K$5)+K$14</f>
         <v>19.724</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L124" s="89">
+        <f t="shared" ref="L124:L125" si="48">(D124*L$6)+L$12+(E$123*L$5)+L$14</f>
+        <v>25.67</v>
+      </c>
+      <c r="M124" s="89">
+        <f t="shared" ref="M124:M125" si="49">(D124*M$6)+M$12+(E$123*M$5)+M$14</f>
+        <v>28.775000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="58" t="s">
         <v>90</v>
       </c>
@@ -3845,8 +4657,16 @@
         <f>(D125*K$6)+K$12+(E$124*K$5)+K$14</f>
         <v>20.312000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L125" s="68">
+        <f t="shared" si="48"/>
+        <v>26.3</v>
+      </c>
+      <c r="M125" s="68">
+        <f t="shared" si="49"/>
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -3859,7 +4679,7 @@
       <c r="K126"/>
       <c r="L126"/>
     </row>
-    <row r="127" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -3872,7 +4692,7 @@
       <c r="K127"/>
       <c r="L127"/>
     </row>
-    <row r="128" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -4440,23 +5260,23 @@
         <v>0.11099999999999999</v>
       </c>
       <c r="H149" s="22">
-        <f t="shared" ref="H149:L149" si="16">$C149*H$7</f>
+        <f t="shared" ref="H149:L149" si="50">$C149*H$7</f>
         <v>0.159</v>
       </c>
       <c r="I149" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="50"/>
         <v>0.24</v>
       </c>
       <c r="J149" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="50"/>
         <v>0.35699999999999998</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="50"/>
         <v>0.498</v>
       </c>
       <c r="L149" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="50"/>
         <v>0.52499999999999991</v>
       </c>
       <c r="M149" s="22">
@@ -4535,23 +5355,23 @@
         <v>0.11099999999999999</v>
       </c>
       <c r="H152" s="22">
-        <f t="shared" ref="H152:L152" si="17">$C152*H$7</f>
+        <f t="shared" ref="H152:L152" si="51">$C152*H$7</f>
         <v>0.159</v>
       </c>
       <c r="I152" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="51"/>
         <v>0.24</v>
       </c>
       <c r="J152" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="51"/>
         <v>0.35699999999999998</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="51"/>
         <v>0.498</v>
       </c>
       <c r="L152" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="51"/>
         <v>0.52499999999999991</v>
       </c>
       <c r="M152" s="22">
@@ -4631,23 +5451,23 @@
         <v>0.11099999999999999</v>
       </c>
       <c r="H155" s="22">
-        <f t="shared" ref="H155:L155" si="18">$C155*H$7</f>
+        <f t="shared" ref="H155:L155" si="52">$C155*H$7</f>
         <v>0.159</v>
       </c>
       <c r="I155" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="52"/>
         <v>0.24</v>
       </c>
       <c r="J155" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="52"/>
         <v>0.35699999999999998</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="52"/>
         <v>0.498</v>
       </c>
       <c r="L155" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="52"/>
         <v>0.52499999999999991</v>
       </c>
       <c r="M155" s="22">
@@ -4727,23 +5547,23 @@
         <v>0.11099999999999999</v>
       </c>
       <c r="H158" s="22">
-        <f t="shared" ref="H158:L158" si="19">$C158*H$7</f>
+        <f t="shared" ref="H158:L158" si="53">$C158*H$7</f>
         <v>0.159</v>
       </c>
       <c r="I158" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="53"/>
         <v>0.24</v>
       </c>
       <c r="J158" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="53"/>
         <v>0.35699999999999998</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="53"/>
         <v>0.498</v>
       </c>
       <c r="L158" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="53"/>
         <v>0.52499999999999991</v>
       </c>
       <c r="M158" s="22">
@@ -4823,23 +5643,23 @@
         <v>0.11099999999999999</v>
       </c>
       <c r="H161" s="22">
-        <f t="shared" ref="H161:L161" si="20">$C161*H$7</f>
+        <f t="shared" ref="H161:L161" si="54">$C161*H$7</f>
         <v>0.159</v>
       </c>
       <c r="I161" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="54"/>
         <v>0.24</v>
       </c>
       <c r="J161" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="54"/>
         <v>0.35699999999999998</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="54"/>
         <v>0.498</v>
       </c>
       <c r="L161" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="54"/>
         <v>0.52499999999999991</v>
       </c>
       <c r="M161" s="22">
@@ -4915,31 +5735,31 @@
         <v>3</v>
       </c>
       <c r="G164" s="22">
-        <f t="shared" ref="G164:M164" si="21">$C164*G$7</f>
+        <f t="shared" ref="G164:M164" si="55">$C164*G$7</f>
         <v>0.11099999999999999</v>
       </c>
       <c r="H164" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="55"/>
         <v>0.159</v>
       </c>
       <c r="I164" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="55"/>
         <v>0.24</v>
       </c>
       <c r="J164" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="55"/>
         <v>0.35699999999999998</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="55"/>
         <v>0.498</v>
       </c>
       <c r="L164" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="55"/>
         <v>0.52499999999999991</v>
       </c>
       <c r="M164" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="55"/>
         <v>0.82500000000000007</v>
       </c>
     </row>
@@ -4980,83 +5800,110 @@
       <c r="E169" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G169" s="92" t="s">
+      <c r="G169" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="H169" s="93" t="s">
+      <c r="K169" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L169" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="I169" s="93" t="s">
+      <c r="M169" s="115" t="s">
         <v>209</v>
       </c>
-      <c r="J169" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="K169" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="L169" s="93" t="s">
-        <v>211</v>
-      </c>
-      <c r="M169" s="94" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D170" s="36"/>
       <c r="E170" s="36"/>
-      <c r="G170" s="95"/>
-      <c r="H170" s="96"/>
-      <c r="I170" s="96"/>
-      <c r="J170" s="96"/>
-      <c r="K170" s="96"/>
-      <c r="L170" s="96"/>
-      <c r="M170" s="97"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G170" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G19</f>
+        <v>44.664999999999999</v>
+      </c>
+      <c r="K170" s="60">
+        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K19</f>
+        <v>50.475999999999999</v>
+      </c>
+      <c r="L170" s="60">
+        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L19</f>
+        <v>54.990000000000009</v>
+      </c>
+      <c r="M170" s="60">
+        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M19</f>
+        <v>59.524999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="57" t="s">
         <v>180</v>
       </c>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
-      <c r="G171" s="98"/>
-      <c r="H171" s="21"/>
-      <c r="I171" s="21"/>
-      <c r="J171" s="21"/>
-      <c r="K171" s="21"/>
-      <c r="L171" s="21"/>
-      <c r="M171" s="99"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G171" s="60">
+        <f t="shared" ref="G171:G174" si="56">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G20</f>
+        <v>44.518000000000001</v>
+      </c>
+      <c r="K171" s="60">
+        <f t="shared" ref="K171:K174" si="57">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K20</f>
+        <v>49.887999999999991</v>
+      </c>
+      <c r="L171" s="60">
+        <f t="shared" ref="L171:L174" si="58">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L20</f>
+        <v>54.360000000000007</v>
+      </c>
+      <c r="M171" s="60">
+        <f t="shared" ref="M171:M174" si="59">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M20</f>
+        <v>58.55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="57" t="s">
         <v>196</v>
       </c>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
-      <c r="G172" s="98"/>
-      <c r="H172" s="21"/>
-      <c r="I172" s="21"/>
-      <c r="J172" s="21"/>
-      <c r="K172" s="21"/>
-      <c r="L172" s="21"/>
-      <c r="M172" s="99"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G172" s="60">
+        <f t="shared" si="56"/>
+        <v>44.322000000000003</v>
+      </c>
+      <c r="K172" s="60">
+        <f t="shared" si="57"/>
+        <v>49.103999999999992</v>
+      </c>
+      <c r="L172" s="60">
+        <f t="shared" si="58"/>
+        <v>53.52000000000001</v>
+      </c>
+      <c r="M172" s="60">
+        <f t="shared" si="59"/>
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="57" t="s">
         <v>61</v>
       </c>
       <c r="D173" s="10"/>
       <c r="E173" s="10"/>
-      <c r="G173" s="98"/>
-      <c r="H173" s="21"/>
-      <c r="I173" s="21"/>
-      <c r="J173" s="21"/>
-      <c r="K173" s="21"/>
-      <c r="L173" s="21"/>
-      <c r="M173" s="99"/>
+      <c r="G173" s="60">
+        <f t="shared" si="56"/>
+        <v>43.685000000000002</v>
+      </c>
+      <c r="K173" s="60">
+        <f t="shared" si="57"/>
+        <v>46.555999999999997</v>
+      </c>
+      <c r="L173" s="60">
+        <f t="shared" si="58"/>
+        <v>50.790000000000006</v>
+      </c>
+      <c r="M173" s="60">
+        <f t="shared" si="59"/>
+        <v>53.025000000000006</v>
+      </c>
     </row>
     <row r="174" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="58" t="s">
@@ -5064,74 +5911,119 @@
       </c>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
-      <c r="G174" s="100"/>
-      <c r="H174" s="101"/>
-      <c r="I174" s="101"/>
-      <c r="J174" s="101"/>
-      <c r="K174" s="101"/>
-      <c r="L174" s="101"/>
-      <c r="M174" s="102"/>
+      <c r="G174" s="65">
+        <f t="shared" si="56"/>
+        <v>44.42</v>
+      </c>
+      <c r="K174" s="65">
+        <f t="shared" si="57"/>
+        <v>49.495999999999995</v>
+      </c>
+      <c r="L174" s="60">
+        <f t="shared" si="58"/>
+        <v>53.940000000000005</v>
+      </c>
+      <c r="M174" s="60">
+        <f t="shared" si="59"/>
+        <v>57.9</v>
+      </c>
     </row>
     <row r="175" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="54"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="56" t="s">
         <v>149</v>
       </c>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
-      <c r="G176" s="95"/>
-      <c r="H176" s="96"/>
-      <c r="I176" s="96"/>
-      <c r="J176" s="96"/>
-      <c r="K176" s="96"/>
-      <c r="L176" s="96"/>
-      <c r="M176" s="97"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G176" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G25</f>
+        <v>44.664999999999999</v>
+      </c>
+      <c r="K176" s="60">
+        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K25</f>
+        <v>50.475999999999999</v>
+      </c>
+      <c r="L176" s="60">
+        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L25</f>
+        <v>54.990000000000009</v>
+      </c>
+      <c r="M176" s="60">
+        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M25</f>
+        <v>59.524999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="57" t="s">
         <v>181</v>
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="10"/>
-      <c r="G177" s="98"/>
-      <c r="H177" s="21"/>
-      <c r="I177" s="21"/>
-      <c r="J177" s="21"/>
-      <c r="K177" s="21"/>
-      <c r="L177" s="21"/>
-      <c r="M177" s="99"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G177" s="60">
+        <f t="shared" ref="G177:G180" si="60">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G26</f>
+        <v>44.322000000000003</v>
+      </c>
+      <c r="K177" s="60">
+        <f t="shared" ref="K177:K180" si="61">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K26</f>
+        <v>49.103999999999992</v>
+      </c>
+      <c r="L177" s="60">
+        <f t="shared" ref="L177:L180" si="62">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L26</f>
+        <v>53.52000000000001</v>
+      </c>
+      <c r="M177" s="60">
+        <f t="shared" ref="M177:M180" si="63">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M26</f>
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="57" t="s">
         <v>197</v>
       </c>
       <c r="D178" s="10"/>
       <c r="E178" s="10"/>
-      <c r="G178" s="98"/>
-      <c r="H178" s="21"/>
-      <c r="I178" s="21"/>
-      <c r="J178" s="21"/>
-      <c r="K178" s="21"/>
-      <c r="L178" s="21"/>
-      <c r="M178" s="99"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G178" s="60">
+        <f t="shared" si="60"/>
+        <v>44.322000000000003</v>
+      </c>
+      <c r="K178" s="60">
+        <f t="shared" si="61"/>
+        <v>49.103999999999992</v>
+      </c>
+      <c r="L178" s="60">
+        <f t="shared" si="62"/>
+        <v>53.52000000000001</v>
+      </c>
+      <c r="M178" s="60">
+        <f t="shared" si="63"/>
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="57" t="s">
         <v>62</v>
       </c>
       <c r="D179" s="10"/>
       <c r="E179" s="10"/>
-      <c r="G179" s="98"/>
-      <c r="H179" s="21"/>
-      <c r="I179" s="21"/>
-      <c r="J179" s="21"/>
-      <c r="K179" s="21"/>
-      <c r="L179" s="21"/>
-      <c r="M179" s="99"/>
+      <c r="G179" s="60">
+        <f t="shared" si="60"/>
+        <v>43.685000000000002</v>
+      </c>
+      <c r="K179" s="60">
+        <f t="shared" si="61"/>
+        <v>46.555999999999997</v>
+      </c>
+      <c r="L179" s="60">
+        <f t="shared" si="62"/>
+        <v>50.790000000000006</v>
+      </c>
+      <c r="M179" s="60">
+        <f t="shared" si="63"/>
+        <v>53.025000000000006</v>
+      </c>
     </row>
     <row r="180" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="58" t="s">
@@ -5139,1034 +6031,1946 @@
       </c>
       <c r="D180" s="10"/>
       <c r="E180" s="10"/>
-      <c r="G180" s="100"/>
-      <c r="H180" s="101"/>
-      <c r="I180" s="101"/>
-      <c r="J180" s="101"/>
-      <c r="K180" s="101"/>
-      <c r="L180" s="101"/>
-      <c r="M180" s="102"/>
+      <c r="G180" s="65">
+        <f t="shared" si="60"/>
+        <v>44.42</v>
+      </c>
+      <c r="K180" s="65">
+        <f t="shared" si="61"/>
+        <v>49.495999999999995</v>
+      </c>
+      <c r="L180" s="60">
+        <f t="shared" si="62"/>
+        <v>53.940000000000005</v>
+      </c>
+      <c r="M180" s="60">
+        <f t="shared" si="63"/>
+        <v>57.9</v>
+      </c>
     </row>
     <row r="181" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="54"/>
       <c r="D181" s="10"/>
       <c r="E181" s="10"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="G182" s="95"/>
-      <c r="H182" s="96"/>
-      <c r="I182" s="96"/>
-      <c r="J182" s="96"/>
-      <c r="K182" s="96"/>
-      <c r="L182" s="96"/>
-      <c r="M182" s="97"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G182" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G31</f>
+        <v>46.224000000000004</v>
+      </c>
+      <c r="K182" s="60">
+        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K31</f>
+        <v>50.711999999999996</v>
+      </c>
+      <c r="L182" s="60">
+        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L31</f>
+        <v>56.100000000000009</v>
+      </c>
+      <c r="M182" s="60">
+        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M31</f>
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="G183" s="98"/>
-      <c r="H183" s="21"/>
-      <c r="I183" s="21"/>
-      <c r="J183" s="21"/>
-      <c r="K183" s="21"/>
-      <c r="L183" s="21"/>
-      <c r="M183" s="99"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G183" s="60">
+        <f t="shared" ref="G183:G187" si="64">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G32</f>
+        <v>47.106000000000002</v>
+      </c>
+      <c r="K183" s="60">
+        <f t="shared" ref="K183:K187" si="65">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K32</f>
+        <v>54.239999999999995</v>
+      </c>
+      <c r="L183" s="60">
+        <f t="shared" ref="L183:L187" si="66">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L32</f>
+        <v>59.88000000000001</v>
+      </c>
+      <c r="M183" s="60">
+        <f t="shared" ref="M183:M187" si="67">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M32</f>
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="G184" s="98"/>
-      <c r="H184" s="21"/>
-      <c r="I184" s="21"/>
-      <c r="J184" s="21"/>
-      <c r="K184" s="21"/>
-      <c r="L184" s="21"/>
-      <c r="M184" s="99"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G184" s="60">
+        <f t="shared" si="64"/>
+        <v>46.174999999999997</v>
+      </c>
+      <c r="K184" s="60">
+        <f t="shared" si="65"/>
+        <v>50.515999999999991</v>
+      </c>
+      <c r="L184" s="60">
+        <f t="shared" si="66"/>
+        <v>55.890000000000008</v>
+      </c>
+      <c r="M184" s="60">
+        <f t="shared" si="67"/>
+        <v>59.275000000000006</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="G185" s="98"/>
-      <c r="H185" s="21"/>
-      <c r="I185" s="21"/>
-      <c r="J185" s="21"/>
-      <c r="K185" s="21"/>
-      <c r="L185" s="21"/>
-      <c r="M185" s="99"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G185" s="60">
+        <f t="shared" si="64"/>
+        <v>47.204000000000001</v>
+      </c>
+      <c r="K185" s="60">
+        <f t="shared" si="65"/>
+        <v>54.631999999999998</v>
+      </c>
+      <c r="L185" s="60">
+        <f t="shared" si="66"/>
+        <v>60.300000000000011</v>
+      </c>
+      <c r="M185" s="60">
+        <f t="shared" si="67"/>
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="G186" s="98"/>
-      <c r="H186" s="21"/>
-      <c r="I186" s="21"/>
-      <c r="J186" s="21"/>
-      <c r="K186" s="21"/>
-      <c r="L186" s="21"/>
-      <c r="M186" s="99"/>
+      <c r="G186" s="60">
+        <f t="shared" si="64"/>
+        <v>46.174999999999997</v>
+      </c>
+      <c r="K186" s="60">
+        <f t="shared" si="65"/>
+        <v>50.515999999999991</v>
+      </c>
+      <c r="L186" s="60">
+        <f t="shared" si="66"/>
+        <v>55.890000000000008</v>
+      </c>
+      <c r="M186" s="60">
+        <f t="shared" si="67"/>
+        <v>59.275000000000006</v>
+      </c>
     </row>
     <row r="187" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="G187" s="100"/>
-      <c r="H187" s="101"/>
-      <c r="I187" s="101"/>
-      <c r="J187" s="101"/>
-      <c r="K187" s="101"/>
-      <c r="L187" s="101"/>
-      <c r="M187" s="102"/>
+      <c r="G187" s="65">
+        <f t="shared" si="64"/>
+        <v>45.734000000000002</v>
+      </c>
+      <c r="K187" s="65">
+        <f t="shared" si="65"/>
+        <v>48.751999999999995</v>
+      </c>
+      <c r="L187" s="60">
+        <f t="shared" si="66"/>
+        <v>54.000000000000007</v>
+      </c>
+      <c r="M187" s="60">
+        <f t="shared" si="67"/>
+        <v>56.35</v>
+      </c>
     </row>
     <row r="188" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="54"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="G189" s="95"/>
-      <c r="H189" s="96"/>
-      <c r="I189" s="96"/>
-      <c r="J189" s="96"/>
-      <c r="K189" s="96"/>
-      <c r="L189" s="96"/>
-      <c r="M189" s="97"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G189" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G38</f>
+        <v>46.224000000000004</v>
+      </c>
+      <c r="K189" s="60">
+        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K38</f>
+        <v>50.711999999999996</v>
+      </c>
+      <c r="L189" s="60">
+        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L38</f>
+        <v>56.100000000000009</v>
+      </c>
+      <c r="M189" s="60">
+        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M38</f>
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="G190" s="98"/>
-      <c r="H190" s="21"/>
-      <c r="I190" s="21"/>
-      <c r="J190" s="21"/>
-      <c r="K190" s="21"/>
-      <c r="L190" s="21"/>
-      <c r="M190" s="99"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G190" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G39</f>
+        <v>47.106000000000002</v>
+      </c>
+      <c r="K190" s="60">
+        <f t="shared" ref="K190:K194" si="68">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K39</f>
+        <v>54.239999999999995</v>
+      </c>
+      <c r="L190" s="60">
+        <f t="shared" ref="L190:L194" si="69">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L39</f>
+        <v>59.88000000000001</v>
+      </c>
+      <c r="M190" s="60">
+        <f t="shared" ref="M190:M194" si="70">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M39</f>
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="G191" s="98"/>
-      <c r="H191" s="21"/>
-      <c r="I191" s="21"/>
-      <c r="J191" s="21"/>
-      <c r="K191" s="21"/>
-      <c r="L191" s="21"/>
-      <c r="M191" s="99"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G191" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G40</f>
+        <v>46.174999999999997</v>
+      </c>
+      <c r="K191" s="60">
+        <f t="shared" si="68"/>
+        <v>50.515999999999991</v>
+      </c>
+      <c r="L191" s="60">
+        <f t="shared" si="69"/>
+        <v>55.890000000000008</v>
+      </c>
+      <c r="M191" s="60">
+        <f t="shared" si="70"/>
+        <v>59.275000000000006</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="G192" s="98"/>
-      <c r="H192" s="21"/>
-      <c r="I192" s="21"/>
-      <c r="J192" s="21"/>
-      <c r="K192" s="21"/>
-      <c r="L192" s="21"/>
-      <c r="M192" s="99"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G192" s="60">
+        <f t="shared" ref="G192:G194" si="71">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G41</f>
+        <v>47.204000000000001</v>
+      </c>
+      <c r="K192" s="60">
+        <f t="shared" si="68"/>
+        <v>54.631999999999998</v>
+      </c>
+      <c r="L192" s="60">
+        <f t="shared" si="69"/>
+        <v>60.300000000000011</v>
+      </c>
+      <c r="M192" s="60">
+        <f t="shared" si="70"/>
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="G193" s="98"/>
-      <c r="H193" s="21"/>
-      <c r="I193" s="21"/>
-      <c r="J193" s="21"/>
-      <c r="K193" s="21"/>
-      <c r="L193" s="21"/>
-      <c r="M193" s="99"/>
+      <c r="G193" s="60">
+        <f t="shared" si="71"/>
+        <v>46.174999999999997</v>
+      </c>
+      <c r="K193" s="60">
+        <f t="shared" si="68"/>
+        <v>50.515999999999991</v>
+      </c>
+      <c r="L193" s="60">
+        <f t="shared" si="69"/>
+        <v>55.890000000000008</v>
+      </c>
+      <c r="M193" s="60">
+        <f t="shared" si="70"/>
+        <v>59.275000000000006</v>
+      </c>
     </row>
     <row r="194" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="G194" s="100"/>
-      <c r="H194" s="101"/>
-      <c r="I194" s="101"/>
-      <c r="J194" s="101"/>
-      <c r="K194" s="101"/>
-      <c r="L194" s="101"/>
-      <c r="M194" s="102"/>
+      <c r="G194" s="65">
+        <f t="shared" si="71"/>
+        <v>45.734000000000002</v>
+      </c>
+      <c r="K194" s="65">
+        <f t="shared" si="68"/>
+        <v>48.751999999999995</v>
+      </c>
+      <c r="L194" s="60">
+        <f t="shared" si="69"/>
+        <v>54.000000000000007</v>
+      </c>
+      <c r="M194" s="60">
+        <f t="shared" si="70"/>
+        <v>56.35</v>
+      </c>
     </row>
     <row r="195" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="54"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G195" s="99"/>
+    </row>
+    <row r="196" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="G196" s="95"/>
-      <c r="H196" s="96"/>
-      <c r="I196" s="96"/>
-      <c r="J196" s="96"/>
-      <c r="K196" s="96"/>
-      <c r="L196" s="96"/>
-      <c r="M196" s="97"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G196" s="65">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G45</f>
+        <v>39.254000000000005</v>
+      </c>
+      <c r="K196" s="60">
+        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K45</f>
+        <v>44.677999999999997</v>
+      </c>
+      <c r="L196" s="60">
+        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L45</f>
+        <v>47.064999999999998</v>
+      </c>
+      <c r="M196" s="60">
+        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M45</f>
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="G197" s="98"/>
-      <c r="H197" s="21"/>
-      <c r="I197" s="21"/>
-      <c r="J197" s="21"/>
-      <c r="K197" s="21"/>
-      <c r="L197" s="21"/>
-      <c r="M197" s="99"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G197" s="65">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G46</f>
+        <v>39.106999999999999</v>
+      </c>
+      <c r="K197" s="60">
+        <f t="shared" ref="K197:K200" si="72">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K46</f>
+        <v>44.09</v>
+      </c>
+      <c r="L197" s="60">
+        <f t="shared" ref="L197:L200" si="73">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L46</f>
+        <v>46.435000000000002</v>
+      </c>
+      <c r="M197" s="60">
+        <f t="shared" ref="M197:M200" si="74">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M46</f>
+        <v>50.325000000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="G198" s="98"/>
-      <c r="H198" s="21"/>
-      <c r="I198" s="21"/>
-      <c r="J198" s="21"/>
-      <c r="K198" s="21"/>
-      <c r="L198" s="21"/>
-      <c r="M198" s="99"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G198" s="65">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G47</f>
+        <v>38.911000000000001</v>
+      </c>
+      <c r="K198" s="60">
+        <f t="shared" si="72"/>
+        <v>43.305999999999997</v>
+      </c>
+      <c r="L198" s="60">
+        <f t="shared" si="73"/>
+        <v>45.594999999999999</v>
+      </c>
+      <c r="M198" s="60">
+        <f t="shared" si="74"/>
+        <v>49.024999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="G199" s="98"/>
-      <c r="H199" s="21"/>
-      <c r="I199" s="21"/>
-      <c r="J199" s="21"/>
-      <c r="K199" s="21"/>
-      <c r="L199" s="21"/>
-      <c r="M199" s="99"/>
+      <c r="G199" s="65">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G48</f>
+        <v>38.274000000000001</v>
+      </c>
+      <c r="K199" s="60">
+        <f t="shared" si="72"/>
+        <v>40.757999999999996</v>
+      </c>
+      <c r="L199" s="60">
+        <f t="shared" si="73"/>
+        <v>42.865000000000002</v>
+      </c>
+      <c r="M199" s="60">
+        <f t="shared" si="74"/>
+        <v>44.8</v>
+      </c>
     </row>
     <row r="200" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="G200" s="100"/>
-      <c r="H200" s="101"/>
-      <c r="I200" s="101"/>
-      <c r="J200" s="101"/>
-      <c r="K200" s="101"/>
-      <c r="L200" s="101"/>
-      <c r="M200" s="102"/>
+      <c r="G200" s="65">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G49</f>
+        <v>39.009</v>
+      </c>
+      <c r="K200" s="65">
+        <f t="shared" si="72"/>
+        <v>43.698</v>
+      </c>
+      <c r="L200" s="60">
+        <f t="shared" si="73"/>
+        <v>46.015000000000001</v>
+      </c>
+      <c r="M200" s="60">
+        <f t="shared" si="74"/>
+        <v>49.674999999999997</v>
+      </c>
     </row>
     <row r="201" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="54"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="G202" s="95"/>
-      <c r="H202" s="96"/>
-      <c r="I202" s="96"/>
-      <c r="J202" s="96"/>
-      <c r="K202" s="96"/>
-      <c r="L202" s="96"/>
-      <c r="M202" s="97"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G202" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G51</f>
+        <v>39.254000000000005</v>
+      </c>
+      <c r="K202" s="60">
+        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K51</f>
+        <v>44.677999999999997</v>
+      </c>
+      <c r="L202" s="60">
+        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L51</f>
+        <v>47.064999999999998</v>
+      </c>
+      <c r="M202" s="60">
+        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M51</f>
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="G203" s="98"/>
-      <c r="H203" s="21"/>
-      <c r="I203" s="21"/>
-      <c r="J203" s="21"/>
-      <c r="K203" s="21"/>
-      <c r="L203" s="21"/>
-      <c r="M203" s="99"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G203" s="60">
+        <f t="shared" ref="G203:G206" si="75">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G52</f>
+        <v>38.911000000000001</v>
+      </c>
+      <c r="K203" s="60">
+        <f t="shared" ref="K203:K206" si="76">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K52</f>
+        <v>43.305999999999997</v>
+      </c>
+      <c r="L203" s="60">
+        <f t="shared" ref="L203:L206" si="77">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L52</f>
+        <v>45.594999999999999</v>
+      </c>
+      <c r="M203" s="60">
+        <f t="shared" ref="M203:M206" si="78">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M52</f>
+        <v>49.024999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="G204" s="98"/>
-      <c r="H204" s="21"/>
-      <c r="I204" s="21"/>
-      <c r="J204" s="21"/>
-      <c r="K204" s="21"/>
-      <c r="L204" s="21"/>
-      <c r="M204" s="99"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G204" s="60">
+        <f t="shared" si="75"/>
+        <v>38.911000000000001</v>
+      </c>
+      <c r="K204" s="60">
+        <f t="shared" si="76"/>
+        <v>43.305999999999997</v>
+      </c>
+      <c r="L204" s="60">
+        <f t="shared" si="77"/>
+        <v>45.594999999999999</v>
+      </c>
+      <c r="M204" s="60">
+        <f t="shared" si="78"/>
+        <v>49.024999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G205" s="98"/>
-      <c r="H205" s="21"/>
-      <c r="I205" s="21"/>
-      <c r="J205" s="21"/>
-      <c r="K205" s="21"/>
-      <c r="L205" s="21"/>
-      <c r="M205" s="99"/>
+      <c r="G205" s="60">
+        <f t="shared" si="75"/>
+        <v>38.274000000000001</v>
+      </c>
+      <c r="K205" s="60">
+        <f t="shared" si="76"/>
+        <v>40.757999999999996</v>
+      </c>
+      <c r="L205" s="60">
+        <f t="shared" si="77"/>
+        <v>42.865000000000002</v>
+      </c>
+      <c r="M205" s="60">
+        <f t="shared" si="78"/>
+        <v>44.8</v>
+      </c>
     </row>
     <row r="206" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="G206" s="100"/>
-      <c r="H206" s="101"/>
-      <c r="I206" s="101"/>
-      <c r="J206" s="101"/>
-      <c r="K206" s="101"/>
-      <c r="L206" s="101"/>
-      <c r="M206" s="102"/>
+      <c r="G206" s="65">
+        <f t="shared" si="75"/>
+        <v>39.009</v>
+      </c>
+      <c r="K206" s="65">
+        <f t="shared" si="76"/>
+        <v>43.698</v>
+      </c>
+      <c r="L206" s="60">
+        <f t="shared" si="77"/>
+        <v>46.015000000000001</v>
+      </c>
+      <c r="M206" s="60">
+        <f t="shared" si="78"/>
+        <v>49.674999999999997</v>
+      </c>
     </row>
     <row r="207" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="54"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="G208" s="95"/>
-      <c r="H208" s="96"/>
-      <c r="I208" s="96"/>
-      <c r="J208" s="96"/>
-      <c r="K208" s="96"/>
-      <c r="L208" s="96"/>
-      <c r="M208" s="97"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G208" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G57</f>
+        <v>40.813000000000002</v>
+      </c>
+      <c r="K208" s="60">
+        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K57</f>
+        <v>44.914000000000001</v>
+      </c>
+      <c r="L208" s="60">
+        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L57</f>
+        <v>48.175000000000004</v>
+      </c>
+      <c r="M208" s="60">
+        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M57</f>
+        <v>51.375</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="G209" s="98"/>
-      <c r="H209" s="21"/>
-      <c r="I209" s="21"/>
-      <c r="J209" s="21"/>
-      <c r="K209" s="21"/>
-      <c r="L209" s="21"/>
-      <c r="M209" s="99"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G209" s="60">
+        <f t="shared" ref="G209:G213" si="79">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G58</f>
+        <v>41.695</v>
+      </c>
+      <c r="K209" s="60">
+        <f t="shared" ref="K209:K213" si="80">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K58</f>
+        <v>48.442</v>
+      </c>
+      <c r="L209" s="60">
+        <f t="shared" ref="L209:L213" si="81">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L58</f>
+        <v>51.954999999999998</v>
+      </c>
+      <c r="M209" s="60">
+        <f t="shared" ref="M209:M213" si="82">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M58</f>
+        <v>57.224999999999994</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="G210" s="98"/>
-      <c r="H210" s="21"/>
-      <c r="I210" s="21"/>
-      <c r="J210" s="21"/>
-      <c r="K210" s="21"/>
-      <c r="L210" s="21"/>
-      <c r="M210" s="99"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G210" s="60">
+        <f t="shared" si="79"/>
+        <v>40.764000000000003</v>
+      </c>
+      <c r="K210" s="60">
+        <f t="shared" si="80"/>
+        <v>44.718000000000004</v>
+      </c>
+      <c r="L210" s="60">
+        <f t="shared" si="81"/>
+        <v>47.965000000000003</v>
+      </c>
+      <c r="M210" s="60">
+        <f t="shared" si="82"/>
+        <v>51.05</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="G211" s="98"/>
-      <c r="H211" s="21"/>
-      <c r="I211" s="21"/>
-      <c r="J211" s="21"/>
-      <c r="K211" s="21"/>
-      <c r="L211" s="21"/>
-      <c r="M211" s="99"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G211" s="60">
+        <f t="shared" si="79"/>
+        <v>41.793000000000006</v>
+      </c>
+      <c r="K211" s="60">
+        <f t="shared" si="80"/>
+        <v>48.834000000000003</v>
+      </c>
+      <c r="L211" s="60">
+        <f t="shared" si="81"/>
+        <v>52.375</v>
+      </c>
+      <c r="M211" s="60">
+        <f t="shared" si="82"/>
+        <v>57.875</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="G212" s="98"/>
-      <c r="H212" s="21"/>
-      <c r="I212" s="21"/>
-      <c r="J212" s="21"/>
-      <c r="K212" s="21"/>
-      <c r="L212" s="21"/>
-      <c r="M212" s="99"/>
+      <c r="G212" s="60">
+        <f t="shared" si="79"/>
+        <v>40.764000000000003</v>
+      </c>
+      <c r="K212" s="60">
+        <f t="shared" si="80"/>
+        <v>44.718000000000004</v>
+      </c>
+      <c r="L212" s="60">
+        <f t="shared" si="81"/>
+        <v>47.965000000000003</v>
+      </c>
+      <c r="M212" s="60">
+        <f t="shared" si="82"/>
+        <v>51.05</v>
+      </c>
     </row>
     <row r="213" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="G213" s="100"/>
-      <c r="H213" s="101"/>
-      <c r="I213" s="101"/>
-      <c r="J213" s="101"/>
-      <c r="K213" s="101"/>
-      <c r="L213" s="101"/>
-      <c r="M213" s="102"/>
+      <c r="G213" s="60">
+        <f t="shared" si="79"/>
+        <v>40.323</v>
+      </c>
+      <c r="K213" s="60">
+        <f t="shared" si="80"/>
+        <v>42.954000000000001</v>
+      </c>
+      <c r="L213" s="60">
+        <f t="shared" si="81"/>
+        <v>46.075000000000003</v>
+      </c>
+      <c r="M213" s="60">
+        <f t="shared" si="82"/>
+        <v>48.125</v>
+      </c>
     </row>
     <row r="214" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="54"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="G215" s="95"/>
-      <c r="H215" s="96"/>
-      <c r="I215" s="96"/>
-      <c r="J215" s="96"/>
-      <c r="K215" s="96"/>
-      <c r="L215" s="96"/>
-      <c r="M215" s="97"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G215" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G64</f>
+        <v>40.813000000000002</v>
+      </c>
+      <c r="K215" s="60">
+        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K64</f>
+        <v>44.914000000000001</v>
+      </c>
+      <c r="L215" s="60">
+        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L64</f>
+        <v>48.175000000000004</v>
+      </c>
+      <c r="M215" s="60">
+        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M64</f>
+        <v>51.375</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="G216" s="98"/>
-      <c r="H216" s="21"/>
-      <c r="I216" s="21"/>
-      <c r="J216" s="21"/>
-      <c r="K216" s="21"/>
-      <c r="L216" s="21"/>
-      <c r="M216" s="99"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G216" s="60">
+        <f t="shared" ref="G216:G220" si="83">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G65</f>
+        <v>41.695</v>
+      </c>
+      <c r="K216" s="60">
+        <f t="shared" ref="K216:K220" si="84">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K65</f>
+        <v>48.442</v>
+      </c>
+      <c r="L216" s="60">
+        <f t="shared" ref="L216:L220" si="85">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L65</f>
+        <v>51.954999999999998</v>
+      </c>
+      <c r="M216" s="60">
+        <f t="shared" ref="M216:M220" si="86">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M65</f>
+        <v>57.224999999999994</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G217" s="98"/>
-      <c r="H217" s="21"/>
-      <c r="I217" s="21"/>
-      <c r="J217" s="21"/>
-      <c r="K217" s="21"/>
-      <c r="L217" s="21"/>
-      <c r="M217" s="99"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G217" s="60">
+        <f t="shared" si="83"/>
+        <v>40.764000000000003</v>
+      </c>
+      <c r="K217" s="60">
+        <f t="shared" si="84"/>
+        <v>44.718000000000004</v>
+      </c>
+      <c r="L217" s="60">
+        <f t="shared" si="85"/>
+        <v>47.965000000000003</v>
+      </c>
+      <c r="M217" s="60">
+        <f t="shared" si="86"/>
+        <v>51.05</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G218" s="98"/>
-      <c r="H218" s="21"/>
-      <c r="I218" s="21"/>
-      <c r="J218" s="21"/>
-      <c r="K218" s="21"/>
-      <c r="L218" s="21"/>
-      <c r="M218" s="99"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G218" s="60">
+        <f t="shared" si="83"/>
+        <v>41.695</v>
+      </c>
+      <c r="K218" s="60">
+        <f t="shared" si="84"/>
+        <v>48.442</v>
+      </c>
+      <c r="L218" s="60">
+        <f t="shared" si="85"/>
+        <v>51.954999999999998</v>
+      </c>
+      <c r="M218" s="60">
+        <f t="shared" si="86"/>
+        <v>57.224999999999994</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G219" s="98"/>
-      <c r="H219" s="21"/>
-      <c r="I219" s="21"/>
-      <c r="J219" s="21"/>
-      <c r="K219" s="21"/>
-      <c r="L219" s="21"/>
-      <c r="M219" s="99"/>
+        <v>66</v>
+      </c>
+      <c r="G219" s="60">
+        <f t="shared" si="83"/>
+        <v>40.764000000000003</v>
+      </c>
+      <c r="K219" s="60">
+        <f t="shared" si="84"/>
+        <v>44.718000000000004</v>
+      </c>
+      <c r="L219" s="60">
+        <f t="shared" si="85"/>
+        <v>47.965000000000003</v>
+      </c>
+      <c r="M219" s="60">
+        <f t="shared" si="86"/>
+        <v>51.05</v>
+      </c>
     </row>
     <row r="220" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="G220" s="100"/>
-      <c r="H220" s="101"/>
-      <c r="I220" s="101"/>
-      <c r="J220" s="101"/>
-      <c r="K220" s="101"/>
-      <c r="L220" s="101"/>
-      <c r="M220" s="102"/>
+      <c r="G220" s="65">
+        <f t="shared" si="83"/>
+        <v>40.323</v>
+      </c>
+      <c r="K220" s="65">
+        <f t="shared" si="84"/>
+        <v>42.954000000000001</v>
+      </c>
+      <c r="L220" s="60">
+        <f t="shared" si="85"/>
+        <v>46.075000000000003</v>
+      </c>
+      <c r="M220" s="60">
+        <f t="shared" si="86"/>
+        <v>48.125</v>
+      </c>
     </row>
     <row r="221" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="54"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="G222" s="95"/>
-      <c r="H222" s="96"/>
-      <c r="I222" s="96"/>
-      <c r="J222" s="96"/>
-      <c r="K222" s="96"/>
-      <c r="L222" s="96"/>
-      <c r="M222" s="97"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G222" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G71</f>
+        <v>36.843000000000004</v>
+      </c>
+      <c r="K222" s="60">
+        <f>SUM(K$164:K$165)+K$147+K$149+K$151+$K71</f>
+        <v>41.879999999999995</v>
+      </c>
+      <c r="L222" s="60">
+        <f>SUM(L$164:L$165)+L$147+L$149+L$151+$L71</f>
+        <v>43.14</v>
+      </c>
+      <c r="M222" s="60">
+        <f>SUM(M$164:M$165)+M$147+M$149+M$151+$M71</f>
+        <v>47.074999999999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="G223" s="98"/>
-      <c r="H223" s="21"/>
-      <c r="I223" s="21"/>
-      <c r="J223" s="21"/>
-      <c r="K223" s="21"/>
-      <c r="L223" s="21"/>
-      <c r="M223" s="99"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G223" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G72</f>
+        <v>36.695999999999998</v>
+      </c>
+      <c r="K223" s="60">
+        <f t="shared" ref="K223:K226" si="87">SUM(K$164:K$165)+K$147+K$149+K$151+$K72</f>
+        <v>41.292000000000002</v>
+      </c>
+      <c r="L223" s="60">
+        <f t="shared" ref="L223:L226" si="88">SUM(L$164:L$165)+L$147+L$149+L$151+$L72</f>
+        <v>42.510000000000005</v>
+      </c>
+      <c r="M223" s="60">
+        <f t="shared" ref="M223:M226" si="89">SUM(M$164:M$165)+M$147+M$149+M$151+$M72</f>
+        <v>46.099999999999994</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="G224" s="98"/>
-      <c r="H224" s="21"/>
-      <c r="I224" s="21"/>
-      <c r="J224" s="21"/>
-      <c r="K224" s="21"/>
-      <c r="L224" s="21"/>
-      <c r="M224" s="99"/>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G224" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G73</f>
+        <v>36.5</v>
+      </c>
+      <c r="K224" s="60">
+        <f t="shared" si="87"/>
+        <v>40.507999999999996</v>
+      </c>
+      <c r="L224" s="60">
+        <f t="shared" si="88"/>
+        <v>41.67</v>
+      </c>
+      <c r="M224" s="60">
+        <f t="shared" si="89"/>
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="G225" s="98"/>
-      <c r="H225" s="21"/>
-      <c r="I225" s="21"/>
-      <c r="J225" s="21"/>
-      <c r="K225" s="21"/>
-      <c r="L225" s="21"/>
-      <c r="M225" s="99"/>
+      <c r="G225" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G74</f>
+        <v>35.863</v>
+      </c>
+      <c r="K225" s="60">
+        <f t="shared" si="87"/>
+        <v>37.959999999999994</v>
+      </c>
+      <c r="L225" s="60">
+        <f t="shared" si="88"/>
+        <v>38.94</v>
+      </c>
+      <c r="M225" s="60">
+        <f t="shared" si="89"/>
+        <v>40.575000000000003</v>
+      </c>
     </row>
     <row r="226" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="G226" s="100"/>
-      <c r="H226" s="101"/>
-      <c r="I226" s="101"/>
-      <c r="J226" s="101"/>
-      <c r="K226" s="101"/>
-      <c r="L226" s="101"/>
-      <c r="M226" s="102"/>
+      <c r="G226" s="65">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G75</f>
+        <v>36.597999999999999</v>
+      </c>
+      <c r="K226" s="65">
+        <f t="shared" si="87"/>
+        <v>40.9</v>
+      </c>
+      <c r="L226" s="60">
+        <f t="shared" si="88"/>
+        <v>42.09</v>
+      </c>
+      <c r="M226" s="60">
+        <f t="shared" si="89"/>
+        <v>45.449999999999996</v>
+      </c>
     </row>
     <row r="227" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="54"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="G228" s="95"/>
-      <c r="H228" s="96"/>
-      <c r="I228" s="96"/>
-      <c r="J228" s="96"/>
-      <c r="K228" s="96"/>
-      <c r="L228" s="96"/>
-      <c r="M228" s="97"/>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G228" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G77</f>
+        <v>36.843000000000004</v>
+      </c>
+      <c r="K228" s="60">
+        <f>SUM(K$164:K$165)+K$147+K$149+K$151+$K77</f>
+        <v>41.879999999999995</v>
+      </c>
+      <c r="L228" s="60">
+        <f>SUM(L$164:L$165)+L$147+L$149+L$151+$L77</f>
+        <v>43.14</v>
+      </c>
+      <c r="M228" s="60">
+        <f>SUM(M$164:M$165)+M$147+M$149+M$151+$M77</f>
+        <v>47.074999999999996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="G229" s="98"/>
-      <c r="H229" s="21"/>
-      <c r="I229" s="21"/>
-      <c r="J229" s="21"/>
-      <c r="K229" s="21"/>
-      <c r="L229" s="21"/>
-      <c r="M229" s="99"/>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G229" s="60">
+        <f t="shared" ref="G229:G232" si="90">SUM(G$164:G$165)+G$147+G$149+G$151+$G78</f>
+        <v>36.5</v>
+      </c>
+      <c r="K229" s="60">
+        <f t="shared" ref="K229:K232" si="91">SUM(K$164:K$165)+K$147+K$149+K$151+$K78</f>
+        <v>40.507999999999996</v>
+      </c>
+      <c r="L229" s="60">
+        <f t="shared" ref="L229:L232" si="92">SUM(L$164:L$165)+L$147+L$149+L$151+$L78</f>
+        <v>41.67</v>
+      </c>
+      <c r="M229" s="60">
+        <f t="shared" ref="M229:M232" si="93">SUM(M$164:M$165)+M$147+M$149+M$151+$M78</f>
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="G230" s="98"/>
-      <c r="H230" s="21"/>
-      <c r="I230" s="21"/>
-      <c r="J230" s="21"/>
-      <c r="K230" s="21"/>
-      <c r="L230" s="21"/>
-      <c r="M230" s="99"/>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G230" s="60">
+        <f t="shared" si="90"/>
+        <v>36.5</v>
+      </c>
+      <c r="K230" s="60">
+        <f t="shared" si="91"/>
+        <v>40.507999999999996</v>
+      </c>
+      <c r="L230" s="60">
+        <f t="shared" si="92"/>
+        <v>41.67</v>
+      </c>
+      <c r="M230" s="60">
+        <f t="shared" si="93"/>
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="G231" s="98"/>
-      <c r="H231" s="21"/>
-      <c r="I231" s="21"/>
-      <c r="J231" s="21"/>
-      <c r="K231" s="21"/>
-      <c r="L231" s="21"/>
-      <c r="M231" s="99"/>
+      <c r="G231" s="60">
+        <f t="shared" si="90"/>
+        <v>35.863</v>
+      </c>
+      <c r="K231" s="60">
+        <f t="shared" si="91"/>
+        <v>37.959999999999994</v>
+      </c>
+      <c r="L231" s="60">
+        <f t="shared" si="92"/>
+        <v>38.94</v>
+      </c>
+      <c r="M231" s="60">
+        <f t="shared" si="93"/>
+        <v>40.575000000000003</v>
+      </c>
     </row>
     <row r="232" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="G232" s="100"/>
-      <c r="H232" s="101"/>
-      <c r="I232" s="101"/>
-      <c r="J232" s="101"/>
-      <c r="K232" s="101"/>
-      <c r="L232" s="101"/>
-      <c r="M232" s="102"/>
+      <c r="G232" s="65">
+        <f t="shared" si="90"/>
+        <v>36.597999999999999</v>
+      </c>
+      <c r="K232" s="65">
+        <f t="shared" si="91"/>
+        <v>40.9</v>
+      </c>
+      <c r="L232" s="60">
+        <f t="shared" si="92"/>
+        <v>42.09</v>
+      </c>
+      <c r="M232" s="60">
+        <f t="shared" si="93"/>
+        <v>45.449999999999996</v>
+      </c>
     </row>
     <row r="233" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="54"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="G234" s="95"/>
-      <c r="H234" s="96"/>
-      <c r="I234" s="96"/>
-      <c r="J234" s="96"/>
-      <c r="K234" s="96"/>
-      <c r="L234" s="96"/>
-      <c r="M234" s="97"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G234" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G83</f>
+        <v>38.402000000000001</v>
+      </c>
+      <c r="K234" s="60">
+        <f>SUM(K$164:K$165)+K$147+K$149+K$151+$K83</f>
+        <v>42.116</v>
+      </c>
+      <c r="L234" s="60">
+        <f>SUM(L$164:L$165)+L$147+L$149+L$151+$L83</f>
+        <v>44.25</v>
+      </c>
+      <c r="M234" s="60">
+        <f>SUM(M$164:M$165)+M$147+M$149+M$151+$M83</f>
+        <v>47.15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G235" s="98"/>
-      <c r="H235" s="21"/>
-      <c r="I235" s="21"/>
-      <c r="J235" s="21"/>
-      <c r="K235" s="21"/>
-      <c r="L235" s="21"/>
-      <c r="M235" s="99"/>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G235" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G84</f>
+        <v>39.283999999999999</v>
+      </c>
+      <c r="K235" s="60">
+        <f t="shared" ref="K235:K239" si="94">SUM(K$164:K$165)+K$147+K$149+K$151+$K84</f>
+        <v>45.643999999999998</v>
+      </c>
+      <c r="L235" s="60">
+        <f t="shared" ref="L235:L239" si="95">SUM(L$164:L$165)+L$147+L$149+L$151+$L84</f>
+        <v>48.03</v>
+      </c>
+      <c r="M235" s="60">
+        <f t="shared" ref="M235:M239" si="96">SUM(M$164:M$165)+M$147+M$149+M$151+$M84</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="G236" s="98"/>
-      <c r="H236" s="21"/>
-      <c r="I236" s="21"/>
-      <c r="J236" s="21"/>
-      <c r="K236" s="21"/>
-      <c r="L236" s="21"/>
-      <c r="M236" s="99"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G236" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G85</f>
+        <v>38.353000000000002</v>
+      </c>
+      <c r="K236" s="60">
+        <f t="shared" si="94"/>
+        <v>41.92</v>
+      </c>
+      <c r="L236" s="60">
+        <f t="shared" si="95"/>
+        <v>44.040000000000006</v>
+      </c>
+      <c r="M236" s="60">
+        <f t="shared" si="96"/>
+        <v>46.825000000000003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G237" s="98"/>
-      <c r="H237" s="21"/>
-      <c r="I237" s="21"/>
-      <c r="J237" s="21"/>
-      <c r="K237" s="21"/>
-      <c r="L237" s="21"/>
-      <c r="M237" s="99"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G237" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G86</f>
+        <v>39.382000000000005</v>
+      </c>
+      <c r="K237" s="60">
+        <f t="shared" si="94"/>
+        <v>46.036000000000001</v>
+      </c>
+      <c r="L237" s="60">
+        <f t="shared" si="95"/>
+        <v>48.45</v>
+      </c>
+      <c r="M237" s="60">
+        <f t="shared" si="96"/>
+        <v>53.65</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="G238" s="98"/>
-      <c r="H238" s="21"/>
-      <c r="I238" s="21"/>
-      <c r="J238" s="21"/>
-      <c r="K238" s="21"/>
-      <c r="L238" s="21"/>
-      <c r="M238" s="99"/>
+      <c r="G238" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G87</f>
+        <v>38.353000000000002</v>
+      </c>
+      <c r="K238" s="60">
+        <f t="shared" si="94"/>
+        <v>41.92</v>
+      </c>
+      <c r="L238" s="60">
+        <f t="shared" si="95"/>
+        <v>44.040000000000006</v>
+      </c>
+      <c r="M238" s="60">
+        <f t="shared" si="96"/>
+        <v>46.825000000000003</v>
+      </c>
     </row>
     <row r="239" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="G239" s="100"/>
-      <c r="H239" s="101"/>
-      <c r="I239" s="101"/>
-      <c r="J239" s="101"/>
-      <c r="K239" s="101"/>
-      <c r="L239" s="101"/>
-      <c r="M239" s="102"/>
+      <c r="G239" s="65">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G88</f>
+        <v>37.911999999999999</v>
+      </c>
+      <c r="K239" s="65">
+        <f t="shared" si="94"/>
+        <v>40.155999999999999</v>
+      </c>
+      <c r="L239" s="60">
+        <f t="shared" si="95"/>
+        <v>42.150000000000006</v>
+      </c>
+      <c r="M239" s="60">
+        <f t="shared" si="96"/>
+        <v>43.9</v>
+      </c>
     </row>
     <row r="240" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="54"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="G241" s="95"/>
-      <c r="H241" s="96"/>
-      <c r="I241" s="96"/>
-      <c r="J241" s="96"/>
-      <c r="K241" s="96"/>
-      <c r="L241" s="96"/>
-      <c r="M241" s="97"/>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G241" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G90</f>
+        <v>38.402000000000001</v>
+      </c>
+      <c r="K241" s="60">
+        <f>SUM(K$164:K$165)+K$147+K$149+K$151+$K90</f>
+        <v>42.116</v>
+      </c>
+      <c r="L241" s="60">
+        <f>SUM(L$164:L$165)+L$147+L$149+L$151+$L90</f>
+        <v>44.25</v>
+      </c>
+      <c r="M241" s="60">
+        <f>SUM(M$164:M$165)+M$147+M$149+M$151+$M90</f>
+        <v>47.15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G242" s="98"/>
-      <c r="H242" s="21"/>
-      <c r="I242" s="21"/>
-      <c r="J242" s="21"/>
-      <c r="K242" s="21"/>
-      <c r="L242" s="21"/>
-      <c r="M242" s="99"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G242" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G91</f>
+        <v>39.283999999999999</v>
+      </c>
+      <c r="K242" s="60">
+        <f t="shared" ref="K242:K246" si="97">SUM(K$164:K$165)+K$147+K$149+K$151+$K91</f>
+        <v>45.643999999999998</v>
+      </c>
+      <c r="L242" s="60">
+        <f t="shared" ref="L242:L246" si="98">SUM(L$164:L$165)+L$147+L$149+L$151+$L91</f>
+        <v>48.03</v>
+      </c>
+      <c r="M242" s="60">
+        <f t="shared" ref="M242:M246" si="99">SUM(M$164:M$165)+M$147+M$149+M$151+$M91</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="G243" s="98"/>
-      <c r="H243" s="21"/>
-      <c r="I243" s="21"/>
-      <c r="J243" s="21"/>
-      <c r="K243" s="21"/>
-      <c r="L243" s="21"/>
-      <c r="M243" s="99"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G243" s="60">
+        <f t="shared" ref="G243:G246" si="100">SUM(G$164:G$165)+G$147+G$149+G$151+$G92</f>
+        <v>38.353000000000002</v>
+      </c>
+      <c r="K243" s="60">
+        <f t="shared" si="97"/>
+        <v>41.92</v>
+      </c>
+      <c r="L243" s="60">
+        <f t="shared" si="98"/>
+        <v>44.040000000000006</v>
+      </c>
+      <c r="M243" s="60">
+        <f t="shared" si="99"/>
+        <v>46.825000000000003</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="G244" s="98"/>
-      <c r="H244" s="21"/>
-      <c r="I244" s="21"/>
-      <c r="J244" s="21"/>
-      <c r="K244" s="21"/>
-      <c r="L244" s="21"/>
-      <c r="M244" s="99"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G244" s="60">
+        <f t="shared" si="100"/>
+        <v>39.283999999999999</v>
+      </c>
+      <c r="K244" s="60">
+        <f t="shared" si="97"/>
+        <v>45.643999999999998</v>
+      </c>
+      <c r="L244" s="60">
+        <f t="shared" si="98"/>
+        <v>48.03</v>
+      </c>
+      <c r="M244" s="60">
+        <f t="shared" si="99"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="G245" s="98"/>
-      <c r="H245" s="21"/>
-      <c r="I245" s="21"/>
-      <c r="J245" s="21"/>
-      <c r="K245" s="21"/>
-      <c r="L245" s="21"/>
-      <c r="M245" s="99"/>
+      <c r="G245" s="60">
+        <f t="shared" si="100"/>
+        <v>38.353000000000002</v>
+      </c>
+      <c r="K245" s="60">
+        <f t="shared" si="97"/>
+        <v>41.92</v>
+      </c>
+      <c r="L245" s="60">
+        <f t="shared" si="98"/>
+        <v>44.040000000000006</v>
+      </c>
+      <c r="M245" s="60">
+        <f t="shared" si="99"/>
+        <v>46.825000000000003</v>
+      </c>
     </row>
     <row r="246" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="G246" s="100"/>
-      <c r="H246" s="101"/>
-      <c r="I246" s="101"/>
-      <c r="J246" s="101"/>
-      <c r="K246" s="101"/>
-      <c r="L246" s="101"/>
-      <c r="M246" s="102"/>
+      <c r="G246" s="65">
+        <f t="shared" si="100"/>
+        <v>37.911999999999999</v>
+      </c>
+      <c r="K246" s="65">
+        <f t="shared" si="97"/>
+        <v>40.155999999999999</v>
+      </c>
+      <c r="L246" s="60">
+        <f t="shared" si="98"/>
+        <v>42.150000000000006</v>
+      </c>
+      <c r="M246" s="60">
+        <f t="shared" si="99"/>
+        <v>43.9</v>
+      </c>
     </row>
     <row r="247" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="54"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="G248" s="95"/>
-      <c r="H248" s="96"/>
-      <c r="I248" s="96"/>
-      <c r="J248" s="96"/>
-      <c r="K248" s="96"/>
-      <c r="L248" s="96"/>
-      <c r="M248" s="97"/>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G248" s="60">
+        <f>SUM(G$164:G$165)+G$148+$G97</f>
+        <v>28.231999999999999</v>
+      </c>
+      <c r="K248" s="60">
+        <f>SUM(K$164:K$165)+K$148+$K97</f>
+        <v>32.882000000000005</v>
+      </c>
+      <c r="L248" s="60">
+        <f>SUM(L$164:L$165)+L$148+$L97</f>
+        <v>33.615000000000002</v>
+      </c>
+      <c r="M248" s="60">
+        <f>SUM(M$164:M$165)+M$148+$M97</f>
+        <v>37.25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="G249" s="98"/>
-      <c r="H249" s="21"/>
-      <c r="I249" s="21"/>
-      <c r="J249" s="21"/>
-      <c r="K249" s="21"/>
-      <c r="L249" s="21"/>
-      <c r="M249" s="99"/>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G249" s="60">
+        <f t="shared" ref="G249:G251" si="101">SUM(G$164:G$165)+G$148+$G98</f>
+        <v>27.888999999999999</v>
+      </c>
+      <c r="K249" s="60">
+        <f t="shared" ref="K249:K252" si="102">SUM(K$164:K$165)+K$148+$K98</f>
+        <v>31.509999999999998</v>
+      </c>
+      <c r="L249" s="60">
+        <f t="shared" ref="L249:L252" si="103">SUM(L$164:L$165)+L$148+$L98</f>
+        <v>32.145000000000003</v>
+      </c>
+      <c r="M249" s="60">
+        <f t="shared" ref="M249:M252" si="104">SUM(M$164:M$165)+M$148+$M98</f>
+        <v>34.974999999999994</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="G250" s="98"/>
-      <c r="H250" s="21"/>
-      <c r="I250" s="21"/>
-      <c r="J250" s="21"/>
-      <c r="K250" s="21"/>
-      <c r="L250" s="21"/>
-      <c r="M250" s="99"/>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G250" s="60">
+        <f t="shared" si="101"/>
+        <v>27.888999999999999</v>
+      </c>
+      <c r="K250" s="60">
+        <f t="shared" si="102"/>
+        <v>31.509999999999998</v>
+      </c>
+      <c r="L250" s="60">
+        <f t="shared" si="103"/>
+        <v>32.145000000000003</v>
+      </c>
+      <c r="M250" s="60">
+        <f t="shared" si="104"/>
+        <v>34.974999999999994</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G251" s="98"/>
-      <c r="H251" s="21"/>
-      <c r="I251" s="21"/>
-      <c r="J251" s="21"/>
-      <c r="K251" s="21"/>
-      <c r="L251" s="21"/>
-      <c r="M251" s="99"/>
+      <c r="G251" s="60">
+        <f t="shared" si="101"/>
+        <v>27.252000000000002</v>
+      </c>
+      <c r="K251" s="60">
+        <f t="shared" si="102"/>
+        <v>28.962</v>
+      </c>
+      <c r="L251" s="60">
+        <f t="shared" si="103"/>
+        <v>29.414999999999999</v>
+      </c>
+      <c r="M251" s="60">
+        <f t="shared" si="104"/>
+        <v>30.75</v>
+      </c>
     </row>
     <row r="252" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="G252" s="100"/>
-      <c r="H252" s="101"/>
-      <c r="I252" s="101"/>
-      <c r="J252" s="101"/>
-      <c r="K252" s="101"/>
-      <c r="L252" s="101"/>
-      <c r="M252" s="102"/>
+      <c r="G252" s="65">
+        <f>SUM(G$164:G$165)+G$148+$G101</f>
+        <v>27.987000000000002</v>
+      </c>
+      <c r="K252" s="65">
+        <f t="shared" si="102"/>
+        <v>31.902000000000001</v>
+      </c>
+      <c r="L252" s="60">
+        <f t="shared" si="103"/>
+        <v>32.564999999999998</v>
+      </c>
+      <c r="M252" s="60">
+        <f t="shared" si="104"/>
+        <v>35.625</v>
+      </c>
     </row>
     <row r="253" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="54"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="G254" s="95"/>
-      <c r="H254" s="96"/>
-      <c r="I254" s="96"/>
-      <c r="J254" s="96"/>
-      <c r="K254" s="96"/>
-      <c r="L254" s="96"/>
-      <c r="M254" s="97"/>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G254" s="60">
+        <f>SUM(G$164:G$165)+G$148+$G103</f>
+        <v>28.231999999999999</v>
+      </c>
+      <c r="K254" s="60">
+        <f>SUM(K$164:K$165)+K$148+$K103</f>
+        <v>32.882000000000005</v>
+      </c>
+      <c r="L254" s="60">
+        <f>SUM(L$164:L$165)+L$148+$L103</f>
+        <v>33.615000000000002</v>
+      </c>
+      <c r="M254" s="60">
+        <f>SUM(M$164:M$165)+M$148+$M103</f>
+        <v>37.25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="G255" s="98"/>
-      <c r="H255" s="21"/>
-      <c r="I255" s="21"/>
-      <c r="J255" s="21"/>
-      <c r="K255" s="21"/>
-      <c r="L255" s="21"/>
-      <c r="M255" s="99"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G255" s="60">
+        <f t="shared" ref="G255:G258" si="105">SUM(G$164:G$165)+G$148+$G104</f>
+        <v>27.888999999999999</v>
+      </c>
+      <c r="K255" s="60">
+        <f t="shared" ref="K255:K258" si="106">SUM(K$164:K$165)+K$148+$K104</f>
+        <v>31.509999999999998</v>
+      </c>
+      <c r="L255" s="60">
+        <f t="shared" ref="L255:L258" si="107">SUM(L$164:L$165)+L$148+$L104</f>
+        <v>32.145000000000003</v>
+      </c>
+      <c r="M255" s="60">
+        <f t="shared" ref="M255:M258" si="108">SUM(M$164:M$165)+M$148+$M104</f>
+        <v>34.974999999999994</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="G256" s="98"/>
-      <c r="H256" s="21"/>
-      <c r="I256" s="21"/>
-      <c r="J256" s="21"/>
-      <c r="K256" s="21"/>
-      <c r="L256" s="21"/>
-      <c r="M256" s="99"/>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G256" s="60">
+        <f t="shared" si="105"/>
+        <v>27.888999999999999</v>
+      </c>
+      <c r="K256" s="60">
+        <f t="shared" si="106"/>
+        <v>31.509999999999998</v>
+      </c>
+      <c r="L256" s="60">
+        <f t="shared" si="107"/>
+        <v>32.145000000000003</v>
+      </c>
+      <c r="M256" s="60">
+        <f t="shared" si="108"/>
+        <v>34.974999999999994</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="G257" s="98"/>
-      <c r="H257" s="21"/>
-      <c r="I257" s="21"/>
-      <c r="J257" s="21"/>
-      <c r="K257" s="21"/>
-      <c r="L257" s="21"/>
-      <c r="M257" s="99"/>
+      <c r="G257" s="60">
+        <f t="shared" si="105"/>
+        <v>27.252000000000002</v>
+      </c>
+      <c r="K257" s="60">
+        <f t="shared" si="106"/>
+        <v>28.962</v>
+      </c>
+      <c r="L257" s="60">
+        <f t="shared" si="107"/>
+        <v>29.414999999999999</v>
+      </c>
+      <c r="M257" s="60">
+        <f t="shared" si="108"/>
+        <v>30.75</v>
+      </c>
     </row>
     <row r="258" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="G258" s="100"/>
-      <c r="H258" s="101"/>
-      <c r="I258" s="101"/>
-      <c r="J258" s="101"/>
-      <c r="K258" s="101"/>
-      <c r="L258" s="101"/>
-      <c r="M258" s="102"/>
+      <c r="G258" s="65">
+        <f t="shared" si="105"/>
+        <v>27.987000000000002</v>
+      </c>
+      <c r="K258" s="65">
+        <f t="shared" si="106"/>
+        <v>31.902000000000001</v>
+      </c>
+      <c r="L258" s="60">
+        <f t="shared" si="107"/>
+        <v>32.564999999999998</v>
+      </c>
+      <c r="M258" s="60">
+        <f t="shared" si="108"/>
+        <v>35.625</v>
+      </c>
     </row>
     <row r="259" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="54"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="G260" s="95"/>
-      <c r="H260" s="96"/>
-      <c r="I260" s="96"/>
-      <c r="J260" s="96"/>
-      <c r="K260" s="96"/>
-      <c r="L260" s="96"/>
-      <c r="M260" s="97"/>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G260" s="60">
+        <f>SUM(G$164:G$165)+G$148+$G109</f>
+        <v>29.791</v>
+      </c>
+      <c r="K260" s="60">
+        <f>SUM(K$164:K$165)+K$148+$K109</f>
+        <v>33.118000000000002</v>
+      </c>
+      <c r="L260" s="60">
+        <f>SUM(L$164:L$165)+L$148+$L109</f>
+        <v>34.725000000000001</v>
+      </c>
+      <c r="M260" s="60">
+        <f>SUM(M$164:M$165)+M$148+$M109</f>
+        <v>37.325000000000003</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="G261" s="98"/>
-      <c r="H261" s="21"/>
-      <c r="I261" s="21"/>
-      <c r="J261" s="21"/>
-      <c r="K261" s="21"/>
-      <c r="L261" s="21"/>
-      <c r="M261" s="99"/>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G261" s="60">
+        <f>SUM(G$164:G$165)+G$148+$G110</f>
+        <v>30.673000000000002</v>
+      </c>
+      <c r="K261" s="60">
+        <f t="shared" ref="K261:K265" si="109">SUM(K$164:K$165)+K$148+$K110</f>
+        <v>36.646000000000001</v>
+      </c>
+      <c r="L261" s="60">
+        <f t="shared" ref="L261:L265" si="110">SUM(L$164:L$165)+L$148+$L110</f>
+        <v>38.505000000000003</v>
+      </c>
+      <c r="M261" s="60">
+        <f t="shared" ref="M261:M265" si="111">SUM(M$164:M$165)+M$148+$M110</f>
+        <v>43.174999999999997</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G262" s="98"/>
-      <c r="H262" s="21"/>
-      <c r="I262" s="21"/>
-      <c r="J262" s="21"/>
-      <c r="K262" s="21"/>
-      <c r="L262" s="21"/>
-      <c r="M262" s="99"/>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G262" s="60">
+        <f t="shared" ref="G262:G265" si="112">SUM(G$164:G$165)+G$148+$G111</f>
+        <v>29.742000000000001</v>
+      </c>
+      <c r="K262" s="60">
+        <f t="shared" si="109"/>
+        <v>32.921999999999997</v>
+      </c>
+      <c r="L262" s="60">
+        <f t="shared" si="110"/>
+        <v>34.515000000000001</v>
+      </c>
+      <c r="M262" s="60">
+        <f t="shared" si="111"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G263" s="98"/>
-      <c r="H263" s="21"/>
-      <c r="I263" s="21"/>
-      <c r="J263" s="21"/>
-      <c r="K263" s="21"/>
-      <c r="L263" s="21"/>
-      <c r="M263" s="99"/>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G263" s="60">
+        <f t="shared" si="112"/>
+        <v>30.771000000000001</v>
+      </c>
+      <c r="K263" s="60">
+        <f t="shared" si="109"/>
+        <v>37.038000000000004</v>
+      </c>
+      <c r="L263" s="60">
+        <f t="shared" si="110"/>
+        <v>38.925000000000004</v>
+      </c>
+      <c r="M263" s="60">
+        <f t="shared" si="111"/>
+        <v>43.825000000000003</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="G264" s="98"/>
-      <c r="H264" s="21"/>
-      <c r="I264" s="21"/>
-      <c r="J264" s="21"/>
-      <c r="K264" s="21"/>
-      <c r="L264" s="21"/>
-      <c r="M264" s="99"/>
+      <c r="G264" s="60">
+        <f t="shared" si="112"/>
+        <v>29.742000000000001</v>
+      </c>
+      <c r="K264" s="60">
+        <f t="shared" si="109"/>
+        <v>32.921999999999997</v>
+      </c>
+      <c r="L264" s="60">
+        <f t="shared" si="110"/>
+        <v>34.515000000000001</v>
+      </c>
+      <c r="M264" s="60">
+        <f t="shared" si="111"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="265" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="G265" s="100"/>
-      <c r="H265" s="101"/>
-      <c r="I265" s="101"/>
-      <c r="J265" s="101"/>
-      <c r="K265" s="101"/>
-      <c r="L265" s="101"/>
-      <c r="M265" s="102"/>
+      <c r="G265" s="65">
+        <f t="shared" si="112"/>
+        <v>29.301000000000002</v>
+      </c>
+      <c r="K265" s="65">
+        <f t="shared" si="109"/>
+        <v>31.158000000000001</v>
+      </c>
+      <c r="L265" s="60">
+        <f t="shared" si="110"/>
+        <v>32.625</v>
+      </c>
+      <c r="M265" s="60">
+        <f t="shared" si="111"/>
+        <v>34.075000000000003</v>
+      </c>
     </row>
     <row r="266" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266" s="54"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="G267" s="95"/>
-      <c r="H267" s="96"/>
-      <c r="I267" s="96"/>
-      <c r="J267" s="96"/>
-      <c r="K267" s="96"/>
-      <c r="L267" s="96"/>
-      <c r="M267" s="97"/>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G267" s="60">
+        <f>SUM(G$164:G$165)+G$148+$G116</f>
+        <v>29.791</v>
+      </c>
+      <c r="K267" s="60">
+        <f>SUM(K$164:K$165)+K$148+$K116</f>
+        <v>33.118000000000002</v>
+      </c>
+      <c r="L267" s="60">
+        <f>SUM(L$164:L$165)+L$148+$L116</f>
+        <v>34.725000000000001</v>
+      </c>
+      <c r="M267" s="60">
+        <f>SUM(M$164:M$165)+M$148+$M116</f>
+        <v>37.325000000000003</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="G268" s="98"/>
-      <c r="H268" s="21"/>
-      <c r="I268" s="21"/>
-      <c r="J268" s="21"/>
-      <c r="K268" s="21"/>
-      <c r="L268" s="21"/>
-      <c r="M268" s="99"/>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G268" s="60">
+        <f>SUM(G$164:G$165)+G$148+$G117</f>
+        <v>30.673000000000002</v>
+      </c>
+      <c r="K268" s="60">
+        <f t="shared" ref="K268:K272" si="113">SUM(K$164:K$165)+K$148+$K117</f>
+        <v>36.646000000000001</v>
+      </c>
+      <c r="L268" s="60">
+        <f t="shared" ref="L268:L272" si="114">SUM(L$164:L$165)+L$148+$L117</f>
+        <v>38.505000000000003</v>
+      </c>
+      <c r="M268" s="60">
+        <f t="shared" ref="M268:M272" si="115">SUM(M$164:M$165)+M$148+$M117</f>
+        <v>43.174999999999997</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="G269" s="98"/>
-      <c r="H269" s="21"/>
-      <c r="I269" s="21"/>
-      <c r="J269" s="21"/>
-      <c r="K269" s="21"/>
-      <c r="L269" s="21"/>
-      <c r="M269" s="99"/>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G269" s="60">
+        <f>SUM(G$164:G$165)+G$148+$G118</f>
+        <v>29.742000000000001</v>
+      </c>
+      <c r="K269" s="60">
+        <f t="shared" si="113"/>
+        <v>32.921999999999997</v>
+      </c>
+      <c r="L269" s="60">
+        <f t="shared" si="114"/>
+        <v>34.515000000000001</v>
+      </c>
+      <c r="M269" s="60">
+        <f t="shared" si="115"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="G270" s="98"/>
-      <c r="H270" s="21"/>
-      <c r="I270" s="21"/>
-      <c r="J270" s="21"/>
-      <c r="K270" s="21"/>
-      <c r="L270" s="21"/>
-      <c r="M270" s="99"/>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G270" s="60">
+        <f>SUM(G$164:G$165)+G$148+$G119</f>
+        <v>30.771000000000001</v>
+      </c>
+      <c r="K270" s="60">
+        <f t="shared" si="113"/>
+        <v>37.038000000000004</v>
+      </c>
+      <c r="L270" s="60">
+        <f t="shared" si="114"/>
+        <v>38.925000000000004</v>
+      </c>
+      <c r="M270" s="60">
+        <f t="shared" si="115"/>
+        <v>43.825000000000003</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="G271" s="98"/>
-      <c r="H271" s="21"/>
-      <c r="I271" s="21"/>
-      <c r="J271" s="21"/>
-      <c r="K271" s="21"/>
-      <c r="L271" s="21"/>
-      <c r="M271" s="99"/>
+      <c r="G271" s="60">
+        <f>SUM(G$164:G$165)+G$148+$G120</f>
+        <v>29.742000000000001</v>
+      </c>
+      <c r="K271" s="60">
+        <f t="shared" si="113"/>
+        <v>32.921999999999997</v>
+      </c>
+      <c r="L271" s="60">
+        <f t="shared" si="114"/>
+        <v>34.515000000000001</v>
+      </c>
+      <c r="M271" s="60">
+        <f t="shared" si="115"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="272" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="G272" s="100"/>
-      <c r="H272" s="101"/>
-      <c r="I272" s="101"/>
-      <c r="J272" s="101"/>
-      <c r="K272" s="101"/>
-      <c r="L272" s="101"/>
-      <c r="M272" s="102"/>
+      <c r="G272" s="65">
+        <f>SUM(G$164:G$165)+G$148+$G121</f>
+        <v>29.301000000000002</v>
+      </c>
+      <c r="K272" s="65">
+        <f t="shared" si="113"/>
+        <v>31.158000000000001</v>
+      </c>
+      <c r="L272" s="60">
+        <f t="shared" si="114"/>
+        <v>32.625</v>
+      </c>
+      <c r="M272" s="60">
+        <f t="shared" si="115"/>
+        <v>34.075000000000003</v>
+      </c>
     </row>
     <row r="273" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="54"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="G274" s="95"/>
-      <c r="H274" s="96"/>
-      <c r="I274" s="96"/>
-      <c r="J274" s="96"/>
-      <c r="K274" s="96"/>
-      <c r="L274" s="96"/>
-      <c r="M274" s="97"/>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G274" s="60">
+        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$156+G$158+G$160+$G123</f>
+        <v>53.59</v>
+      </c>
+      <c r="K274" s="60">
+        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$156+K$158+K$160+$K123</f>
+        <v>59.72999999999999</v>
+      </c>
+      <c r="L274" s="60">
+        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$156+L$158+L$160+$L123</f>
+        <v>64.574999999999989</v>
+      </c>
+      <c r="M274" s="60">
+        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$156+M$158+M$160+$L123</f>
+        <v>66.074999999999989</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G275" s="98"/>
-      <c r="H275" s="21"/>
-      <c r="I275" s="21"/>
-      <c r="J275" s="21"/>
-      <c r="K275" s="21"/>
-      <c r="L275" s="21"/>
-      <c r="M275" s="99"/>
+      <c r="G275" s="60">
+        <f t="shared" ref="G275:G276" si="116">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$156+G$158+G$160+$G124</f>
+        <v>53.786000000000001</v>
+      </c>
+      <c r="K275" s="60">
+        <f t="shared" ref="K275:K276" si="117">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$156+K$158+K$160+$K124</f>
+        <v>60.513999999999996</v>
+      </c>
+      <c r="L275" s="60">
+        <f t="shared" ref="L275:M276" si="118">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$156+L$158+L$160+$L124</f>
+        <v>67.094999999999999</v>
+      </c>
+      <c r="M275" s="60">
+        <f t="shared" si="118"/>
+        <v>68.594999999999999</v>
+      </c>
     </row>
     <row r="276" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G276" s="100"/>
-      <c r="H276" s="101"/>
-      <c r="I276" s="101"/>
-      <c r="J276" s="101"/>
-      <c r="K276" s="101"/>
-      <c r="L276" s="101"/>
-      <c r="M276" s="102"/>
+      <c r="G276" s="65">
+        <f t="shared" si="116"/>
+        <v>53.933000000000007</v>
+      </c>
+      <c r="K276" s="65">
+        <f t="shared" si="117"/>
+        <v>61.10199999999999</v>
+      </c>
+      <c r="L276" s="60">
+        <f t="shared" si="118"/>
+        <v>67.724999999999994</v>
+      </c>
+      <c r="M276" s="60">
+        <f t="shared" si="118"/>
+        <v>69.224999999999994</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="278" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A278" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="G278" s="100">
+        <f>MIN(G170:G276)</f>
+        <v>27.252000000000002</v>
+      </c>
+      <c r="K278" s="100">
+        <f>MIN(K170:K276)</f>
+        <v>28.962</v>
+      </c>
+      <c r="L278" s="100">
+        <f>MIN(L170:L276)</f>
+        <v>29.414999999999999</v>
+      </c>
+      <c r="M278" s="100">
+        <f t="shared" ref="M278" si="119">MIN(M170:M276)</f>
+        <v>30.75</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A279" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="G279" s="100">
+        <f>MAX(G170:G276)</f>
+        <v>53.933000000000007</v>
+      </c>
+      <c r="K279" s="100">
+        <f>MAX(K170:K276)</f>
+        <v>61.10199999999999</v>
+      </c>
+      <c r="L279" s="100">
+        <f t="shared" ref="L279:M279" si="120">MAX(L170:L276)</f>
+        <v>67.724999999999994</v>
+      </c>
+      <c r="M279" s="100">
+        <f t="shared" si="120"/>
+        <v>69.224999999999994</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="282" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A282" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="C282" s="108" t="s">
+        <v>217</v>
+      </c>
+      <c r="D282" s="109"/>
+      <c r="E282" s="110"/>
+      <c r="G282" s="108" t="s">
+        <v>218</v>
+      </c>
+      <c r="H282" s="109"/>
+      <c r="I282" s="110"/>
+    </row>
+    <row r="283" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A283" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C283" s="104">
+        <v>47</v>
+      </c>
+      <c r="D283" s="105">
+        <v>862</v>
+      </c>
+      <c r="E283" s="106" t="s">
+        <v>215</v>
+      </c>
+      <c r="G283" s="112">
+        <v>950</v>
+      </c>
+      <c r="H283" s="113">
+        <v>2150</v>
+      </c>
+      <c r="I283" s="106" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A284" s="101" t="s">
+        <v>213</v>
+      </c>
+      <c r="C284" s="107">
+        <f>G278</f>
+        <v>27.252000000000002</v>
+      </c>
+      <c r="D284" s="107">
+        <f>K278</f>
+        <v>28.962</v>
+      </c>
+      <c r="E284" s="107">
+        <f>D284-C284</f>
+        <v>1.7099999999999973</v>
+      </c>
+      <c r="G284" s="21">
+        <f>L278</f>
+        <v>29.414999999999999</v>
+      </c>
+      <c r="H284" s="21">
+        <f>M278</f>
+        <v>30.75</v>
+      </c>
+      <c r="I284" s="21">
+        <f>H284-G284</f>
+        <v>1.3350000000000009</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A285" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C285" s="107">
+        <f>G279</f>
+        <v>53.933000000000007</v>
+      </c>
+      <c r="D285" s="107">
+        <f>K279</f>
+        <v>61.10199999999999</v>
+      </c>
+      <c r="E285" s="107">
+        <f>D285-C285</f>
+        <v>7.1689999999999827</v>
+      </c>
+      <c r="G285" s="21">
+        <f>L279</f>
+        <v>67.724999999999994</v>
+      </c>
+      <c r="H285" s="21">
+        <f>M279</f>
+        <v>69.224999999999994</v>
+      </c>
+      <c r="I285" s="21">
+        <f>H285-G285</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A286" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C286" s="107">
+        <f>C285-C284</f>
+        <v>26.681000000000004</v>
+      </c>
+      <c r="D286" s="107">
+        <f>D285-D284</f>
+        <v>32.139999999999986</v>
+      </c>
+      <c r="E286" s="111">
+        <f>D285-C284</f>
+        <v>33.849999999999987</v>
+      </c>
+      <c r="G286" s="21">
+        <f>G285-G284</f>
+        <v>38.309999999999995</v>
+      </c>
+      <c r="H286" s="21">
+        <f>H285-H284</f>
+        <v>38.474999999999994</v>
+      </c>
+      <c r="I286" s="120">
+        <f>H285-G284</f>
+        <v>39.809999999999995</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C282:E282"/>
+    <mergeCell ref="G282:I282"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6176,8 +7980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D52DB39-8578-429A-9498-50C656F3D0E2}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="B1" zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6598,10 +8402,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="91"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="81"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">

--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3472" documentId="8_{6E9563CF-F49F-40F4-A4B4-1887230ABF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DACF45AE-E9F3-4D74-A8F7-4F3BF7CA7A65}"/>
+  <xr:revisionPtr revIDLastSave="3737" documentId="8_{6E9563CF-F49F-40F4-A4B4-1887230ABF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0D68626-5CB1-4185-929B-312F97B121AD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4347C519-B6F4-4BE5-85E3-94D0FBA9924D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="305">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Floor 1</t>
   </si>
   <si>
-    <t>Ground Floor</t>
-  </si>
-  <si>
     <t>4-output tap 16dB</t>
   </si>
   <si>
@@ -695,6 +692,267 @@
   </si>
   <si>
     <t>IF (margin of 30 dB)</t>
+  </si>
+  <si>
+    <t>Gym 2 floor1</t>
+  </si>
+  <si>
+    <t>Gym 1 floor1</t>
+  </si>
+  <si>
+    <t>Reception floor 1</t>
+  </si>
+  <si>
+    <t>Kitchen apartment down CD floor5</t>
+  </si>
+  <si>
+    <t>Dormitorio 2 apartment down CD floor5</t>
+  </si>
+  <si>
+    <t>Dormitorio 1 apartment down CD floor5</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment down CD floor5</t>
+  </si>
+  <si>
+    <t>Living room apartment down CD floor5</t>
+  </si>
+  <si>
+    <t>Kitchen apartment up CD floor5</t>
+  </si>
+  <si>
+    <t>Dormitorio 2 apartment up CD floor5</t>
+  </si>
+  <si>
+    <t>Dormitorio 1 apartment up CD floor5</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment up CD floor5</t>
+  </si>
+  <si>
+    <t>Living room apartment up CD floor5</t>
+  </si>
+  <si>
+    <t>Kitchen apartment down AB floor5</t>
+  </si>
+  <si>
+    <t>Kitchen apartment down CD floor4</t>
+  </si>
+  <si>
+    <t>Dormitorio 2 apartment down CD floor4</t>
+  </si>
+  <si>
+    <t>Dormitorio 1 apartment down CD floor4</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment down CD floor4</t>
+  </si>
+  <si>
+    <t>Living room apartment down CD floor4</t>
+  </si>
+  <si>
+    <t>Kitchen apartment up CD floor4</t>
+  </si>
+  <si>
+    <t>Dormitorio 2 apartment up CD floor4</t>
+  </si>
+  <si>
+    <t>Dormitorio 1 apartment up CD floor4</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment up CD floor4</t>
+  </si>
+  <si>
+    <t>Living room apartment up CD floor4</t>
+  </si>
+  <si>
+    <t>Kitchen apartment down CD floor3</t>
+  </si>
+  <si>
+    <t>Bedroom 2  apartment down CD floor3</t>
+  </si>
+  <si>
+    <t>Bedroom 1 apartment down CD floor3</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment down CD floor3</t>
+  </si>
+  <si>
+    <t>Living room apartment down CD floor3</t>
+  </si>
+  <si>
+    <t>Kitchen apartment up CD floor3</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment up CD floor3</t>
+  </si>
+  <si>
+    <t>Bedroom 1 apartment up CD floor3</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment up CD floor3</t>
+  </si>
+  <si>
+    <t>Living room apartment up CD floor3</t>
+  </si>
+  <si>
+    <t>Kitchen apartment down CD floor2</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment down CD floor2</t>
+  </si>
+  <si>
+    <t>Bedroom 1 apartment down CD floor2</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment down CD floor2</t>
+  </si>
+  <si>
+    <t>Living room apartment down CD floor2</t>
+  </si>
+  <si>
+    <t>Kitchen apartment up CD floor2</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment up CD floor2</t>
+  </si>
+  <si>
+    <t>Bedroom 1 apartment up CD floor2</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment up CD floor2</t>
+  </si>
+  <si>
+    <t>Living room apartment up CD floor2</t>
+  </si>
+  <si>
+    <t>Dormitorio 2 apartment down AB floor5</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment down AB floor5</t>
+  </si>
+  <si>
+    <t>Living room apartment down AB floor5</t>
+  </si>
+  <si>
+    <t>Kitchen apartment up AB floor5</t>
+  </si>
+  <si>
+    <t>Dormitorio 2 apartment up AB floor5</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment up AB floor5</t>
+  </si>
+  <si>
+    <t>Living room apartment up AB floor5</t>
+  </si>
+  <si>
+    <t>Kitchen apartment down AB floor4</t>
+  </si>
+  <si>
+    <t>Dormitorio 2 apartment down AB floor4</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment down AB floor4</t>
+  </si>
+  <si>
+    <t>Living room apartment down AB floor4</t>
+  </si>
+  <si>
+    <t>Kitchen apartment up AB floor4</t>
+  </si>
+  <si>
+    <t>Cuarto del servicio apartment up AB floor4</t>
+  </si>
+  <si>
+    <t>Dormitorio 2 apartment up AB floor4</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment up AB floor4</t>
+  </si>
+  <si>
+    <t>Living room apartment up AB floor4</t>
+  </si>
+  <si>
+    <t>Kitchen apartment down AB floor3</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment down AB floor3</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment down AB floor3</t>
+  </si>
+  <si>
+    <t>Living room apartment down AB floor3</t>
+  </si>
+  <si>
+    <t>Kitchen apartment up AB floor3</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment up AB floor3</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment up AB floor3</t>
+  </si>
+  <si>
+    <t>Living room apartment up AB floor3</t>
+  </si>
+  <si>
+    <t>Kitchen apartment down AB floor2</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment down AB floor2</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment down AB floor2</t>
+  </si>
+  <si>
+    <t>Living room apartment down AB floor2</t>
+  </si>
+  <si>
+    <t>Kitchen apartment up AB floor2</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment up AB floor2</t>
+  </si>
+  <si>
+    <t>Main bedroom apartment up AB floor2</t>
+  </si>
+  <si>
+    <t>Living room apartment up AB floor2</t>
+  </si>
+  <si>
+    <t>Service room apartment up AB floor2</t>
+  </si>
+  <si>
+    <t>Service room  apartment down AB floor2</t>
+  </si>
+  <si>
+    <t>Service room  apartment up CD floor2</t>
+  </si>
+  <si>
+    <t>Service room apartment up AB floor3</t>
+  </si>
+  <si>
+    <t>Service room apartment down AB floor3</t>
+  </si>
+  <si>
+    <t>Service room apartment up CD floor3</t>
+  </si>
+  <si>
+    <t>Service room apartment down AB floor4</t>
+  </si>
+  <si>
+    <t>Service room apartment up CD floor4</t>
+  </si>
+  <si>
+    <t>Service room apartment up AB floor5</t>
+  </si>
+  <si>
+    <t>Service room apartment down AB floor5</t>
+  </si>
+  <si>
+    <t>Service room apartment up CD floor5</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1573,11 +1831,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1600,15 +1853,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1635,6 +1879,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1960,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555848AA-6603-4FF7-9150-EEA00320E63B}">
-  <dimension ref="A1:O286"/>
+  <dimension ref="A1:O283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="73" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L286" sqref="L286"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="73" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2178,7 +2435,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="51">
         <v>0.5</v>
@@ -2212,7 +2469,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="53">
         <v>0.5</v>
@@ -2278,7 +2535,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2315,30 +2572,30 @@
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="114" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="116" t="s">
+      <c r="L18" s="110" t="s">
+        <v>207</v>
+      </c>
+      <c r="M18" s="111" t="s">
         <v>208</v>
-      </c>
-      <c r="M18" s="117" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" s="60">
         <v>22</v>
@@ -2365,7 +2622,7 @@
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D20" s="61">
         <v>19</v>
@@ -2389,7 +2646,7 @@
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D21" s="61">
         <v>15</v>
@@ -2413,7 +2670,7 @@
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="61">
         <v>2</v>
@@ -2437,7 +2694,7 @@
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D23" s="62">
         <v>17</v>
@@ -2464,7 +2721,7 @@
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" s="60">
         <v>22</v>
@@ -2476,7 +2733,7 @@
         <f>(D25*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.420999999999999</v>
       </c>
-      <c r="K25" s="118">
+      <c r="K25" s="112">
         <f>(D25*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>16.684000000000001</v>
       </c>
@@ -2491,7 +2748,7 @@
     </row>
     <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D26" s="61">
         <v>15</v>
@@ -2500,7 +2757,7 @@
         <f>(D26*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
-      <c r="K26" s="118">
+      <c r="K26" s="112">
         <f>(D26*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
@@ -2515,7 +2772,7 @@
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D27" s="61">
         <v>15</v>
@@ -2524,7 +2781,7 @@
         <f>(D27*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
-      <c r="K27" s="118">
+      <c r="K27" s="112">
         <f>(D27*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
@@ -2539,7 +2796,7 @@
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="61">
         <v>2</v>
@@ -2548,7 +2805,7 @@
         <f>(D28*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>11.441000000000001</v>
       </c>
-      <c r="K28" s="118">
+      <c r="K28" s="112">
         <f>(D28*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
@@ -2563,7 +2820,7 @@
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D29" s="62">
         <v>17</v>
@@ -2572,7 +2829,7 @@
         <f>(D29*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.176</v>
       </c>
-      <c r="K29" s="119">
+      <c r="K29" s="113">
         <f>(D29*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
@@ -2590,7 +2847,7 @@
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" s="60">
         <v>14</v>
@@ -2602,7 +2859,7 @@
         <f t="shared" ref="G31:G36" si="4">(D31*G$6)+G$12+(E$31*G$5)+G$13</f>
         <v>13.98</v>
       </c>
-      <c r="K31" s="118">
+      <c r="K31" s="112">
         <f>(D31*K$6)+K$12+(E$31*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
@@ -2617,7 +2874,7 @@
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D32" s="61">
         <v>32</v>
@@ -2626,7 +2883,7 @@
         <f t="shared" si="4"/>
         <v>14.862</v>
       </c>
-      <c r="K32" s="118">
+      <c r="K32" s="112">
         <f t="shared" ref="K32:K36" si="5">(D32*K$6)+K$12+(E$31*K$5)+K$13</f>
         <v>20.448</v>
       </c>
@@ -2641,7 +2898,7 @@
     </row>
     <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D33" s="61">
         <v>13</v>
@@ -2651,7 +2908,7 @@
         <f t="shared" si="4"/>
         <v>13.931000000000001</v>
       </c>
-      <c r="K33" s="118">
+      <c r="K33" s="112">
         <f t="shared" si="5"/>
         <v>16.724</v>
       </c>
@@ -2666,7 +2923,7 @@
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D34" s="61">
         <v>34</v>
@@ -2675,7 +2932,7 @@
         <f t="shared" si="4"/>
         <v>14.96</v>
       </c>
-      <c r="K34" s="118">
+      <c r="K34" s="112">
         <f t="shared" si="5"/>
         <v>20.840000000000003</v>
       </c>
@@ -2690,7 +2947,7 @@
     </row>
     <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="63">
         <v>13</v>
@@ -2699,7 +2956,7 @@
         <f t="shared" si="4"/>
         <v>13.931000000000001</v>
       </c>
-      <c r="K35" s="118">
+      <c r="K35" s="112">
         <f t="shared" si="5"/>
         <v>16.724</v>
       </c>
@@ -2714,7 +2971,7 @@
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D36" s="62">
         <v>4</v>
@@ -2723,7 +2980,7 @@
         <f t="shared" si="4"/>
         <v>13.49</v>
       </c>
-      <c r="K36" s="119">
+      <c r="K36" s="113">
         <f t="shared" si="5"/>
         <v>14.96</v>
       </c>
@@ -2741,7 +2998,7 @@
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="60">
         <v>14</v>
@@ -2768,7 +3025,7 @@
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D39" s="61">
         <v>32</v>
@@ -2792,7 +3049,7 @@
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D40" s="61">
         <v>13</v>
@@ -2816,7 +3073,7 @@
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D41" s="61">
         <v>34</v>
@@ -2840,7 +3097,7 @@
     </row>
     <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="63">
         <v>13</v>
@@ -2864,7 +3121,7 @@
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D43" s="62">
         <v>4</v>
@@ -2891,7 +3148,7 @@
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D45" s="60">
         <v>22</v>
@@ -2918,7 +3175,7 @@
     </row>
     <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D46" s="61">
         <v>19</v>
@@ -2942,7 +3199,7 @@
     </row>
     <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D47" s="61">
         <v>15</v>
@@ -2966,7 +3223,7 @@
     </row>
     <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="61">
         <v>2</v>
@@ -2990,7 +3247,7 @@
     </row>
     <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49" s="62">
         <v>17</v>
@@ -3017,7 +3274,7 @@
     </row>
     <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="60">
         <v>22</v>
@@ -3044,7 +3301,7 @@
     </row>
     <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D52" s="61">
         <v>15</v>
@@ -3068,7 +3325,7 @@
     </row>
     <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D53" s="61">
         <v>15</v>
@@ -3092,7 +3349,7 @@
     </row>
     <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" s="61">
         <v>2</v>
@@ -3116,7 +3373,7 @@
     </row>
     <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D55" s="62">
         <v>17</v>
@@ -3143,7 +3400,7 @@
     </row>
     <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D57" s="60">
         <v>14</v>
@@ -3170,7 +3427,7 @@
     </row>
     <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D58" s="61">
         <v>32</v>
@@ -3194,7 +3451,7 @@
     </row>
     <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D59" s="61">
         <v>13</v>
@@ -3218,7 +3475,7 @@
     </row>
     <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D60" s="61">
         <v>34</v>
@@ -3242,7 +3499,7 @@
     </row>
     <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D61" s="63">
         <v>13</v>
@@ -3266,7 +3523,7 @@
     </row>
     <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D62" s="62">
         <v>4</v>
@@ -3293,7 +3550,7 @@
     </row>
     <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D64" s="60">
         <v>14</v>
@@ -3320,7 +3577,7 @@
     </row>
     <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="61">
         <v>32</v>
@@ -3344,7 +3601,7 @@
     </row>
     <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D66" s="61">
         <v>13</v>
@@ -3368,7 +3625,7 @@
     </row>
     <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D67" s="61">
         <v>32</v>
@@ -3392,7 +3649,7 @@
     </row>
     <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D68" s="63">
         <v>13</v>
@@ -3416,7 +3673,7 @@
     </row>
     <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D69" s="62">
         <v>4</v>
@@ -3443,7 +3700,7 @@
     </row>
     <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D71" s="60">
         <v>22</v>
@@ -3470,7 +3727,7 @@
     </row>
     <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D72" s="61">
         <v>19</v>
@@ -3494,7 +3751,7 @@
     </row>
     <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D73" s="61">
         <v>15</v>
@@ -3518,7 +3775,7 @@
     </row>
     <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="61">
         <v>2</v>
@@ -3542,7 +3799,7 @@
     </row>
     <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D75" s="62">
         <v>17</v>
@@ -3569,7 +3826,7 @@
     </row>
     <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D77" s="60">
         <v>22</v>
@@ -3596,7 +3853,7 @@
     </row>
     <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D78" s="61">
         <v>15</v>
@@ -3620,7 +3877,7 @@
     </row>
     <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D79" s="61">
         <v>15</v>
@@ -3644,7 +3901,7 @@
     </row>
     <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D80" s="61">
         <v>2</v>
@@ -3668,7 +3925,7 @@
     </row>
     <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D81" s="62">
         <v>17</v>
@@ -3695,7 +3952,7 @@
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D83" s="60">
         <v>14</v>
@@ -3722,7 +3979,7 @@
     </row>
     <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D84" s="61">
         <v>32</v>
@@ -3746,7 +4003,7 @@
     </row>
     <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B85" s="54"/>
       <c r="C85" s="54"/>
@@ -3777,7 +4034,7 @@
     </row>
     <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B86" s="54"/>
       <c r="C86" s="54"/>
@@ -3808,7 +4065,7 @@
     </row>
     <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B87" s="54"/>
       <c r="C87" s="54"/>
@@ -3839,7 +4096,7 @@
     </row>
     <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B88" s="54"/>
       <c r="C88" s="54"/>
@@ -3884,7 +4141,7 @@
     </row>
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B90" s="54"/>
       <c r="C90" s="54"/>
@@ -3917,7 +4174,7 @@
     </row>
     <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B91" s="54"/>
       <c r="C91" s="54"/>
@@ -3948,7 +4205,7 @@
     </row>
     <row r="92" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D92" s="61">
         <v>13</v>
@@ -3972,7 +4229,7 @@
     </row>
     <row r="93" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D93" s="61">
         <v>32</v>
@@ -3996,7 +4253,7 @@
     </row>
     <row r="94" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D94" s="63">
         <v>13</v>
@@ -4020,7 +4277,7 @@
     </row>
     <row r="95" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D95" s="62">
         <v>4</v>
@@ -4045,7 +4302,7 @@
     <row r="96" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="97" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D97" s="60">
         <v>22</v>
@@ -4072,7 +4329,7 @@
     </row>
     <row r="98" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D98" s="61">
         <v>15</v>
@@ -4096,7 +4353,7 @@
     </row>
     <row r="99" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D99" s="61">
         <v>15</v>
@@ -4120,7 +4377,7 @@
     </row>
     <row r="100" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D100" s="61">
         <v>2</v>
@@ -4144,7 +4401,7 @@
     </row>
     <row r="101" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D101" s="62">
         <v>17</v>
@@ -4169,7 +4426,7 @@
     <row r="102" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="103" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D103" s="60">
         <v>22</v>
@@ -4196,7 +4453,7 @@
     </row>
     <row r="104" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D104" s="61">
         <v>15</v>
@@ -4220,7 +4477,7 @@
     </row>
     <row r="105" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D105" s="61">
         <v>15</v>
@@ -4244,7 +4501,7 @@
     </row>
     <row r="106" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D106" s="61">
         <v>2</v>
@@ -4268,7 +4525,7 @@
     </row>
     <row r="107" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D107" s="62">
         <v>17</v>
@@ -4293,7 +4550,7 @@
     <row r="108" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="109" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D109" s="60">
         <v>14</v>
@@ -4320,7 +4577,7 @@
     </row>
     <row r="110" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D110" s="61">
         <v>32</v>
@@ -4344,7 +4601,7 @@
     </row>
     <row r="111" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D111" s="61">
         <v>13</v>
@@ -4368,7 +4625,7 @@
     </row>
     <row r="112" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D112" s="61">
         <v>34</v>
@@ -4392,7 +4649,7 @@
     </row>
     <row r="113" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D113" s="63">
         <v>13</v>
@@ -4416,7 +4673,7 @@
     </row>
     <row r="114" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D114" s="70">
         <v>4</v>
@@ -4441,7 +4698,7 @@
     <row r="115" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="116" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D116" s="60">
         <v>14</v>
@@ -4468,7 +4725,7 @@
     </row>
     <row r="117" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D117" s="61">
         <v>32</v>
@@ -4492,7 +4749,7 @@
     </row>
     <row r="118" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D118" s="61">
         <v>13</v>
@@ -4516,7 +4773,7 @@
     </row>
     <row r="119" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D119" s="61">
         <v>34</v>
@@ -4540,7 +4797,7 @@
     </row>
     <row r="120" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D120" s="63">
         <v>13</v>
@@ -4564,7 +4821,7 @@
     </row>
     <row r="121" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D121" s="62">
         <v>4</v>
@@ -4589,7 +4846,7 @@
     <row r="122" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="123" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D123" s="67">
         <v>2</v>
@@ -4616,7 +4873,7 @@
     </row>
     <row r="124" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D124" s="69">
         <v>14</v>
@@ -4643,7 +4900,7 @@
     </row>
     <row r="125" spans="1:13" s="54" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D125" s="70">
         <v>17</v>
@@ -4765,7 +5022,7 @@
         <v>20</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C131"/>
       <c r="D131" s="24">
@@ -4800,7 +5057,7 @@
     <row r="132" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="25"/>
       <c r="B132" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C132"/>
       <c r="D132" s="24">
@@ -4834,10 +5091,10 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D133" s="24">
         <v>0.5</v>
@@ -4870,7 +5127,7 @@
     <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="39"/>
       <c r="B134" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D134" s="24">
         <v>0.5</v>
@@ -4902,10 +5159,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" s="37" t="s">
         <v>40</v>
-      </c>
-      <c r="B135" s="37" t="s">
-        <v>41</v>
       </c>
       <c r="D135" s="24">
         <v>0.5</v>
@@ -4938,7 +5195,7 @@
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="41"/>
       <c r="B136" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D136" s="24">
         <v>0.5</v>
@@ -4970,10 +5227,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B137" s="37" t="s">
         <v>43</v>
-      </c>
-      <c r="B137" s="37" t="s">
-        <v>44</v>
       </c>
       <c r="D137" s="24">
         <v>0.5</v>
@@ -5006,7 +5263,7 @@
     <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="41"/>
       <c r="B138" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D138" s="24">
         <v>0.5</v>
@@ -5041,7 +5298,7 @@
         <v>24</v>
       </c>
       <c r="B139" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D139" s="24">
         <v>0.6</v>
@@ -5109,7 +5366,7 @@
         <v>27</v>
       </c>
       <c r="B141" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D141" s="24">
         <v>0.4</v>
@@ -5191,13 +5448,13 @@
     </row>
     <row r="147" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B147" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G147" s="22">
         <v>4.5</v>
@@ -5224,7 +5481,7 @@
     <row r="148" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="50"/>
       <c r="B148" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G148" s="22">
         <v>12</v>
@@ -5286,10 +5543,10 @@
     </row>
     <row r="150" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B150" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D150" s="32" t="s">
         <v>30</v>
@@ -5319,7 +5576,7 @@
     <row r="151" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="26"/>
       <c r="B151" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G151" s="22">
         <v>16</v>
@@ -5381,10 +5638,10 @@
     </row>
     <row r="153" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D153" s="32" t="s">
         <v>31</v>
@@ -5414,7 +5671,7 @@
     <row r="154" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="50"/>
       <c r="B154" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D154" s="33"/>
       <c r="G154" s="22">
@@ -5477,10 +5734,10 @@
     </row>
     <row r="156" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B156" s="37" t="s">
         <v>40</v>
-      </c>
-      <c r="B156" s="37" t="s">
-        <v>41</v>
       </c>
       <c r="D156" s="32" t="s">
         <v>32</v>
@@ -5510,7 +5767,7 @@
     <row r="157" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="35"/>
       <c r="B157" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D157" s="33"/>
       <c r="G157" s="22">
@@ -5573,77 +5830,77 @@
     </row>
     <row r="159" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="49" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B159" s="37" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D159" s="32" t="s">
         <v>33</v>
       </c>
       <c r="G159" s="22">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H159" s="22">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="I159" s="22">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="J159" s="22">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="K159" s="22">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="L159" s="22">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M159" s="22">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="35"/>
+      <c r="A160" s="50"/>
       <c r="B160" s="37" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D160" s="33"/>
       <c r="G160" s="22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H160" s="22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I160" s="22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J160" s="22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K160" s="22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L160" s="22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M160" s="22">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="34" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C161" s="22">
         <v>3</v>
       </c>
       <c r="G161" s="22">
-        <f>$C161*G$7</f>
+        <f t="shared" ref="G161:M161" si="54">$C161*G$7</f>
         <v>0.11099999999999999</v>
       </c>
       <c r="H161" s="22">
-        <f t="shared" ref="H161:L161" si="54">$C161*H$7</f>
+        <f t="shared" si="54"/>
         <v>0.159</v>
       </c>
       <c r="I161" s="22">
@@ -5663,2313 +5920,2216 @@
         <v>0.52499999999999991</v>
       </c>
       <c r="M161" s="22">
-        <f>$C161*M$7</f>
+        <f t="shared" si="54"/>
         <v>0.82500000000000007</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B162" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D162" s="32" t="s">
-        <v>34</v>
+      <c r="A162" s="87" t="s">
+        <v>16</v>
       </c>
       <c r="G162" s="22">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H162" s="22">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="I162" s="22">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="J162" s="22">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="K162" s="22">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="L162" s="22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M162" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="50"/>
-      <c r="B163" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D163" s="33"/>
-      <c r="G163" s="22">
-        <v>25</v>
-      </c>
-      <c r="H163" s="22">
-        <v>25</v>
-      </c>
-      <c r="I163" s="22">
-        <v>25</v>
-      </c>
-      <c r="J163" s="22">
-        <v>25</v>
-      </c>
-      <c r="K163" s="22">
-        <v>25</v>
-      </c>
-      <c r="L163" s="22">
-        <v>25</v>
-      </c>
-      <c r="M163" s="22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C164" s="22">
-        <v>3</v>
-      </c>
-      <c r="G164" s="22">
-        <f t="shared" ref="G164:M164" si="55">$C164*G$7</f>
-        <v>0.11099999999999999</v>
-      </c>
-      <c r="H164" s="22">
-        <f t="shared" si="55"/>
-        <v>0.159</v>
-      </c>
-      <c r="I164" s="22">
-        <f t="shared" si="55"/>
-        <v>0.24</v>
-      </c>
-      <c r="J164" s="22">
-        <f t="shared" si="55"/>
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="K164" s="22">
-        <f t="shared" si="55"/>
-        <v>0.498</v>
-      </c>
-      <c r="L164" s="22">
-        <f t="shared" si="55"/>
-        <v>0.52499999999999991</v>
-      </c>
-      <c r="M164" s="22">
-        <f t="shared" si="55"/>
-        <v>0.82500000000000007</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" s="22">
-        <v>3.7</v>
-      </c>
-      <c r="H165" s="22">
-        <v>3.7</v>
-      </c>
-      <c r="I165" s="22">
-        <v>3.7</v>
-      </c>
-      <c r="J165" s="22">
-        <v>3.7</v>
-      </c>
-      <c r="K165" s="22">
-        <v>3.7</v>
-      </c>
-      <c r="L165" s="22">
         <v>1.5</v>
       </c>
-      <c r="M165" s="22">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    </row>
+    <row r="165" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="166" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="K166" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L166" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="M166" s="109" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="D167" s="36"/>
+      <c r="E167" s="36"/>
+      <c r="G167" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G19</f>
+        <v>44.664999999999999</v>
+      </c>
+      <c r="K167" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K19</f>
+        <v>50.475999999999999</v>
+      </c>
+      <c r="L167" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L19</f>
+        <v>54.990000000000009</v>
+      </c>
+      <c r="M167" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M19</f>
+        <v>59.524999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="G168" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G20</f>
+        <v>44.518000000000001</v>
+      </c>
+      <c r="K168" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K20</f>
+        <v>49.887999999999991</v>
+      </c>
+      <c r="L168" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L20</f>
+        <v>54.360000000000007</v>
+      </c>
+      <c r="M168" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M20</f>
+        <v>58.55</v>
+      </c>
+    </row>
     <row r="169" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D169" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E169" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G169" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="K169" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L169" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="M169" s="115" t="s">
-        <v>209</v>
+      <c r="A169" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="G169" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G21</f>
+        <v>44.322000000000003</v>
+      </c>
+      <c r="K169" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K21</f>
+        <v>49.103999999999992</v>
+      </c>
+      <c r="L169" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L21</f>
+        <v>53.52000000000001</v>
+      </c>
+      <c r="M169" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M21</f>
+        <v>57.25</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="D170" s="36"/>
-      <c r="E170" s="36"/>
+      <c r="A170" s="57" t="s">
+        <v>294</v>
+      </c>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
       <c r="G170" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G19</f>
-        <v>44.664999999999999</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G22</f>
+        <v>43.685000000000002</v>
       </c>
       <c r="K170" s="60">
-        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K19</f>
-        <v>50.475999999999999</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K22</f>
+        <v>46.555999999999997</v>
       </c>
       <c r="L170" s="60">
-        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L19</f>
-        <v>54.990000000000009</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L22</f>
+        <v>50.790000000000006</v>
       </c>
       <c r="M170" s="60">
-        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M19</f>
-        <v>59.524999999999999</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M22</f>
+        <v>53.025000000000006</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="57" t="s">
-        <v>180</v>
+      <c r="A171" s="58" t="s">
+        <v>290</v>
       </c>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
-      <c r="G171" s="60">
-        <f t="shared" ref="G171:G174" si="56">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G20</f>
-        <v>44.518000000000001</v>
-      </c>
-      <c r="K171" s="60">
-        <f t="shared" ref="K171:K174" si="57">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K20</f>
-        <v>49.887999999999991</v>
+      <c r="G171" s="65">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G23</f>
+        <v>44.42</v>
+      </c>
+      <c r="K171" s="65">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K23</f>
+        <v>49.495999999999995</v>
       </c>
       <c r="L171" s="60">
-        <f t="shared" ref="L171:L174" si="58">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L20</f>
-        <v>54.360000000000007</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L23</f>
+        <v>53.940000000000005</v>
       </c>
       <c r="M171" s="60">
-        <f t="shared" ref="M171:M174" si="59">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M20</f>
-        <v>58.55</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M23</f>
+        <v>57.9</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="57" t="s">
-        <v>196</v>
-      </c>
+      <c r="A172" s="54"/>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
-      <c r="G172" s="60">
-        <f t="shared" si="56"/>
-        <v>44.322000000000003</v>
-      </c>
-      <c r="K172" s="60">
-        <f t="shared" si="57"/>
-        <v>49.103999999999992</v>
-      </c>
-      <c r="L172" s="60">
-        <f t="shared" si="58"/>
-        <v>53.52000000000001</v>
-      </c>
-      <c r="M172" s="60">
-        <f t="shared" si="59"/>
-        <v>57.25</v>
-      </c>
     </row>
     <row r="173" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="57" t="s">
-        <v>61</v>
+      <c r="A173" s="56" t="s">
+        <v>289</v>
       </c>
       <c r="D173" s="10"/>
       <c r="E173" s="10"/>
       <c r="G173" s="60">
-        <f t="shared" si="56"/>
-        <v>43.685000000000002</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G25</f>
+        <v>44.664999999999999</v>
       </c>
       <c r="K173" s="60">
-        <f t="shared" si="57"/>
-        <v>46.555999999999997</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K25</f>
+        <v>50.475999999999999</v>
       </c>
       <c r="L173" s="60">
-        <f t="shared" si="58"/>
-        <v>50.790000000000006</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L25</f>
+        <v>54.990000000000009</v>
       </c>
       <c r="M173" s="60">
-        <f t="shared" si="59"/>
-        <v>53.025000000000006</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M25</f>
+        <v>59.524999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="58" t="s">
-        <v>179</v>
+      <c r="A174" s="57" t="s">
+        <v>288</v>
       </c>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
-      <c r="G174" s="65">
-        <f t="shared" si="56"/>
-        <v>44.42</v>
-      </c>
-      <c r="K174" s="65">
-        <f t="shared" si="57"/>
-        <v>49.495999999999995</v>
+      <c r="G174" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G26</f>
+        <v>44.322000000000003</v>
+      </c>
+      <c r="K174" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K26</f>
+        <v>49.103999999999992</v>
       </c>
       <c r="L174" s="60">
-        <f t="shared" si="58"/>
-        <v>53.940000000000005</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L26</f>
+        <v>53.52000000000001</v>
       </c>
       <c r="M174" s="60">
-        <f t="shared" si="59"/>
-        <v>57.9</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M26</f>
+        <v>57.25</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="54"/>
+      <c r="A175" s="57" t="s">
+        <v>287</v>
+      </c>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
+      <c r="G175" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G27</f>
+        <v>44.322000000000003</v>
+      </c>
+      <c r="K175" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K27</f>
+        <v>49.103999999999992</v>
+      </c>
+      <c r="L175" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L27</f>
+        <v>53.52000000000001</v>
+      </c>
+      <c r="M175" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M27</f>
+        <v>57.25</v>
+      </c>
     </row>
     <row r="176" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="56" t="s">
-        <v>149</v>
+      <c r="A176" s="57" t="s">
+        <v>295</v>
       </c>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
       <c r="G176" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G25</f>
-        <v>44.664999999999999</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G28</f>
+        <v>43.685000000000002</v>
       </c>
       <c r="K176" s="60">
-        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K25</f>
-        <v>50.475999999999999</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K28</f>
+        <v>46.555999999999997</v>
       </c>
       <c r="L176" s="60">
-        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L25</f>
-        <v>54.990000000000009</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L28</f>
+        <v>50.790000000000006</v>
       </c>
       <c r="M176" s="60">
-        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M25</f>
-        <v>59.524999999999999</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M28</f>
+        <v>53.025000000000006</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="57" t="s">
-        <v>181</v>
+      <c r="A177" s="58" t="s">
+        <v>286</v>
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="10"/>
-      <c r="G177" s="60">
-        <f t="shared" ref="G177:G180" si="60">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G26</f>
-        <v>44.322000000000003</v>
-      </c>
-      <c r="K177" s="60">
-        <f t="shared" ref="K177:K180" si="61">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K26</f>
-        <v>49.103999999999992</v>
+      <c r="G177" s="65">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G29</f>
+        <v>44.42</v>
+      </c>
+      <c r="K177" s="65">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K29</f>
+        <v>49.495999999999995</v>
       </c>
       <c r="L177" s="60">
-        <f t="shared" ref="L177:L180" si="62">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L26</f>
-        <v>53.52000000000001</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L29</f>
+        <v>53.940000000000005</v>
       </c>
       <c r="M177" s="60">
-        <f t="shared" ref="M177:M180" si="63">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M26</f>
-        <v>57.25</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M29</f>
+        <v>57.9</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="57" t="s">
-        <v>197</v>
-      </c>
+      <c r="A178" s="54"/>
       <c r="D178" s="10"/>
       <c r="E178" s="10"/>
-      <c r="G178" s="60">
-        <f t="shared" si="60"/>
-        <v>44.322000000000003</v>
-      </c>
-      <c r="K178" s="60">
-        <f t="shared" si="61"/>
-        <v>49.103999999999992</v>
-      </c>
-      <c r="L178" s="60">
-        <f t="shared" si="62"/>
-        <v>53.52000000000001</v>
-      </c>
-      <c r="M178" s="60">
-        <f t="shared" si="63"/>
-        <v>57.25</v>
-      </c>
     </row>
     <row r="179" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="D179" s="10"/>
-      <c r="E179" s="10"/>
+      <c r="A179" s="56" t="s">
+        <v>261</v>
+      </c>
       <c r="G179" s="60">
-        <f t="shared" si="60"/>
-        <v>43.685000000000002</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G31</f>
+        <v>46.224000000000004</v>
       </c>
       <c r="K179" s="60">
-        <f t="shared" si="61"/>
-        <v>46.555999999999997</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K31</f>
+        <v>50.711999999999996</v>
       </c>
       <c r="L179" s="60">
-        <f t="shared" si="62"/>
-        <v>50.790000000000006</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L31</f>
+        <v>56.100000000000009</v>
       </c>
       <c r="M179" s="60">
-        <f t="shared" si="63"/>
-        <v>53.025000000000006</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M31</f>
+        <v>59.6</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
-      <c r="G180" s="65">
-        <f t="shared" si="60"/>
-        <v>44.42</v>
-      </c>
-      <c r="K180" s="65">
-        <f t="shared" si="61"/>
-        <v>49.495999999999995</v>
+      <c r="A180" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="G180" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G32</f>
+        <v>47.106000000000002</v>
+      </c>
+      <c r="K180" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K32</f>
+        <v>54.239999999999995</v>
       </c>
       <c r="L180" s="60">
-        <f t="shared" si="62"/>
-        <v>53.940000000000005</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L32</f>
+        <v>59.88000000000001</v>
       </c>
       <c r="M180" s="60">
-        <f t="shared" si="63"/>
-        <v>57.9</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M32</f>
+        <v>65.45</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="54"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
+      <c r="A181" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="G181" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G33</f>
+        <v>46.174999999999997</v>
+      </c>
+      <c r="K181" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K33</f>
+        <v>50.515999999999991</v>
+      </c>
+      <c r="L181" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L33</f>
+        <v>55.890000000000008</v>
+      </c>
+      <c r="M181" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M33</f>
+        <v>59.275000000000006</v>
+      </c>
     </row>
     <row r="182" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="56" t="s">
-        <v>150</v>
+      <c r="A182" s="57" t="s">
+        <v>258</v>
       </c>
       <c r="G182" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G31</f>
-        <v>46.224000000000004</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G34</f>
+        <v>47.204000000000001</v>
       </c>
       <c r="K182" s="60">
-        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K31</f>
-        <v>50.711999999999996</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K34</f>
+        <v>54.631999999999998</v>
       </c>
       <c r="L182" s="60">
-        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L31</f>
-        <v>56.100000000000009</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L34</f>
+        <v>60.300000000000011</v>
       </c>
       <c r="M182" s="60">
-        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M31</f>
-        <v>59.6</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M34</f>
+        <v>66.099999999999994</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="57" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="G183" s="60">
-        <f t="shared" ref="G183:G187" si="64">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G32</f>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G35</f>
+        <v>46.174999999999997</v>
+      </c>
+      <c r="K183" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K35</f>
+        <v>50.515999999999991</v>
+      </c>
+      <c r="L183" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L35</f>
+        <v>55.890000000000008</v>
+      </c>
+      <c r="M183" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M35</f>
+        <v>59.275000000000006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="G184" s="65">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G36</f>
+        <v>45.734000000000002</v>
+      </c>
+      <c r="K184" s="65">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K36</f>
+        <v>48.751999999999995</v>
+      </c>
+      <c r="L184" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L36</f>
+        <v>54.000000000000007</v>
+      </c>
+      <c r="M184" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M36</f>
+        <v>56.35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="54"/>
+    </row>
+    <row r="186" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="G186" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G38</f>
+        <v>46.224000000000004</v>
+      </c>
+      <c r="K186" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K38</f>
+        <v>50.711999999999996</v>
+      </c>
+      <c r="L186" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L38</f>
+        <v>56.100000000000009</v>
+      </c>
+      <c r="M186" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M38</f>
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="G187" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G39</f>
         <v>47.106000000000002</v>
       </c>
-      <c r="K183" s="60">
-        <f t="shared" ref="K183:K187" si="65">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K32</f>
+      <c r="K187" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K39</f>
         <v>54.239999999999995</v>
       </c>
-      <c r="L183" s="60">
-        <f t="shared" ref="L183:L187" si="66">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L32</f>
+      <c r="L187" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L39</f>
         <v>59.88000000000001</v>
       </c>
-      <c r="M183" s="60">
-        <f t="shared" ref="M183:M187" si="67">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M32</f>
+      <c r="M187" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M39</f>
         <v>65.45</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="G184" s="60">
-        <f t="shared" si="64"/>
+    <row r="188" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="G188" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G40</f>
         <v>46.174999999999997</v>
       </c>
-      <c r="K184" s="60">
-        <f t="shared" si="65"/>
+      <c r="K188" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K40</f>
         <v>50.515999999999991</v>
       </c>
-      <c r="L184" s="60">
-        <f t="shared" si="66"/>
+      <c r="L188" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L40</f>
         <v>55.890000000000008</v>
       </c>
-      <c r="M184" s="60">
-        <f t="shared" si="67"/>
+      <c r="M188" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M40</f>
         <v>59.275000000000006</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="G185" s="60">
-        <f t="shared" si="64"/>
+    <row r="189" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="G189" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G41</f>
         <v>47.204000000000001</v>
       </c>
-      <c r="K185" s="60">
-        <f t="shared" si="65"/>
+      <c r="K189" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K41</f>
         <v>54.631999999999998</v>
       </c>
-      <c r="L185" s="60">
-        <f t="shared" si="66"/>
+      <c r="L189" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L41</f>
         <v>60.300000000000011</v>
       </c>
-      <c r="M185" s="60">
-        <f t="shared" si="67"/>
+      <c r="M189" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M41</f>
         <v>66.099999999999994</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G186" s="60">
-        <f t="shared" si="64"/>
-        <v>46.174999999999997</v>
-      </c>
-      <c r="K186" s="60">
-        <f t="shared" si="65"/>
-        <v>50.515999999999991</v>
-      </c>
-      <c r="L186" s="60">
-        <f t="shared" si="66"/>
-        <v>55.890000000000008</v>
-      </c>
-      <c r="M186" s="60">
-        <f t="shared" si="67"/>
-        <v>59.275000000000006</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="G187" s="65">
-        <f t="shared" si="64"/>
-        <v>45.734000000000002</v>
-      </c>
-      <c r="K187" s="65">
-        <f t="shared" si="65"/>
-        <v>48.751999999999995</v>
-      </c>
-      <c r="L187" s="60">
-        <f t="shared" si="66"/>
-        <v>54.000000000000007</v>
-      </c>
-      <c r="M187" s="60">
-        <f t="shared" si="67"/>
-        <v>56.35</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="54"/>
-    </row>
-    <row r="189" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="G189" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G38</f>
-        <v>46.224000000000004</v>
-      </c>
-      <c r="K189" s="60">
-        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K38</f>
-        <v>50.711999999999996</v>
-      </c>
-      <c r="L189" s="60">
-        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L38</f>
-        <v>56.100000000000009</v>
-      </c>
-      <c r="M189" s="60">
-        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M38</f>
-        <v>59.6</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="57" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="G190" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G39</f>
-        <v>47.106000000000002</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G42</f>
+        <v>46.174999999999997</v>
       </c>
       <c r="K190" s="60">
-        <f t="shared" ref="K190:K194" si="68">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K39</f>
-        <v>54.239999999999995</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K42</f>
+        <v>50.515999999999991</v>
       </c>
       <c r="L190" s="60">
-        <f t="shared" ref="L190:L194" si="69">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L39</f>
-        <v>59.88000000000001</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L42</f>
+        <v>55.890000000000008</v>
       </c>
       <c r="M190" s="60">
-        <f t="shared" ref="M190:M194" si="70">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M39</f>
-        <v>65.45</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M42</f>
+        <v>59.275000000000006</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="G191" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G40</f>
-        <v>46.174999999999997</v>
-      </c>
-      <c r="K191" s="60">
-        <f t="shared" si="68"/>
-        <v>50.515999999999991</v>
+      <c r="A191" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="G191" s="65">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G43</f>
+        <v>45.734000000000002</v>
+      </c>
+      <c r="K191" s="65">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$157+$K43</f>
+        <v>48.751999999999995</v>
       </c>
       <c r="L191" s="60">
-        <f t="shared" si="69"/>
-        <v>55.890000000000008</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$157+$L43</f>
+        <v>54.000000000000007</v>
       </c>
       <c r="M191" s="60">
-        <f t="shared" si="70"/>
-        <v>59.275000000000006</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M43</f>
+        <v>56.35</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A192" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="G192" s="60">
-        <f t="shared" ref="G192:G194" si="71">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G41</f>
-        <v>47.204000000000001</v>
-      </c>
-      <c r="K192" s="60">
-        <f t="shared" si="68"/>
-        <v>54.631999999999998</v>
-      </c>
-      <c r="L192" s="60">
-        <f t="shared" si="69"/>
-        <v>60.300000000000011</v>
-      </c>
-      <c r="M192" s="60">
-        <f t="shared" si="70"/>
-        <v>66.099999999999994</v>
-      </c>
+      <c r="A192" s="54"/>
     </row>
     <row r="193" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G193" s="60">
-        <f t="shared" si="71"/>
-        <v>46.174999999999997</v>
+      <c r="A193" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="G193" s="65">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G45</f>
+        <v>39.254000000000005</v>
       </c>
       <c r="K193" s="60">
-        <f t="shared" si="68"/>
-        <v>50.515999999999991</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K45</f>
+        <v>44.677999999999997</v>
       </c>
       <c r="L193" s="60">
-        <f t="shared" si="69"/>
-        <v>55.890000000000008</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L45</f>
+        <v>47.064999999999998</v>
       </c>
       <c r="M193" s="60">
-        <f t="shared" si="70"/>
-        <v>59.275000000000006</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M45</f>
+        <v>51.3</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="58" t="s">
-        <v>176</v>
+      <c r="A194" s="57" t="s">
+        <v>284</v>
       </c>
       <c r="G194" s="65">
-        <f t="shared" si="71"/>
-        <v>45.734000000000002</v>
-      </c>
-      <c r="K194" s="65">
-        <f t="shared" si="68"/>
-        <v>48.751999999999995</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G46</f>
+        <v>39.106999999999999</v>
+      </c>
+      <c r="K194" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K46</f>
+        <v>44.09</v>
       </c>
       <c r="L194" s="60">
-        <f t="shared" si="69"/>
-        <v>54.000000000000007</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L46</f>
+        <v>46.435000000000002</v>
       </c>
       <c r="M194" s="60">
-        <f t="shared" si="70"/>
-        <v>56.35</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M46</f>
+        <v>50.325000000000003</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="54"/>
-      <c r="G195" s="99"/>
+      <c r="A195" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="G195" s="65">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G47</f>
+        <v>38.911000000000001</v>
+      </c>
+      <c r="K195" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K47</f>
+        <v>43.305999999999997</v>
+      </c>
+      <c r="L195" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L47</f>
+        <v>45.594999999999999</v>
+      </c>
+      <c r="M195" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M47</f>
+        <v>49.024999999999999</v>
+      </c>
     </row>
     <row r="196" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="56" t="s">
-        <v>152</v>
+      <c r="A196" s="57" t="s">
+        <v>297</v>
       </c>
       <c r="G196" s="65">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G45</f>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G48</f>
+        <v>38.274000000000001</v>
+      </c>
+      <c r="K196" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K48</f>
+        <v>40.757999999999996</v>
+      </c>
+      <c r="L196" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L48</f>
+        <v>42.865000000000002</v>
+      </c>
+      <c r="M196" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M48</f>
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="G197" s="65">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G49</f>
+        <v>39.009</v>
+      </c>
+      <c r="K197" s="65">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K49</f>
+        <v>43.698</v>
+      </c>
+      <c r="L197" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L49</f>
+        <v>46.015000000000001</v>
+      </c>
+      <c r="M197" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M49</f>
+        <v>49.674999999999997</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="54"/>
+    </row>
+    <row r="199" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="G199" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G51</f>
         <v>39.254000000000005</v>
       </c>
-      <c r="K196" s="60">
-        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K45</f>
+      <c r="K199" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K51</f>
         <v>44.677999999999997</v>
       </c>
-      <c r="L196" s="60">
-        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L45</f>
+      <c r="L199" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L51</f>
         <v>47.064999999999998</v>
       </c>
-      <c r="M196" s="60">
-        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M45</f>
+      <c r="M199" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M51</f>
         <v>51.3</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="G197" s="65">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G46</f>
-        <v>39.106999999999999</v>
-      </c>
-      <c r="K197" s="60">
-        <f t="shared" ref="K197:K200" si="72">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K46</f>
-        <v>44.09</v>
-      </c>
-      <c r="L197" s="60">
-        <f t="shared" ref="L197:L200" si="73">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L46</f>
-        <v>46.435000000000002</v>
-      </c>
-      <c r="M197" s="60">
-        <f t="shared" ref="M197:M200" si="74">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M46</f>
-        <v>50.325000000000003</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="G198" s="65">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G47</f>
+    <row r="200" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="G200" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G52</f>
         <v>38.911000000000001</v>
       </c>
-      <c r="K198" s="60">
-        <f t="shared" si="72"/>
+      <c r="K200" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K52</f>
         <v>43.305999999999997</v>
       </c>
-      <c r="L198" s="60">
-        <f t="shared" si="73"/>
+      <c r="L200" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L52</f>
         <v>45.594999999999999</v>
       </c>
-      <c r="M198" s="60">
-        <f t="shared" si="74"/>
+      <c r="M200" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M52</f>
         <v>49.024999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="G199" s="65">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G48</f>
+    <row r="201" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="G201" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G53</f>
+        <v>38.911000000000001</v>
+      </c>
+      <c r="K201" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K53</f>
+        <v>43.305999999999997</v>
+      </c>
+      <c r="L201" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L53</f>
+        <v>45.594999999999999</v>
+      </c>
+      <c r="M201" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M53</f>
+        <v>49.024999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="G202" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G54</f>
         <v>38.274000000000001</v>
       </c>
-      <c r="K199" s="60">
-        <f t="shared" si="72"/>
+      <c r="K202" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K54</f>
         <v>40.757999999999996</v>
       </c>
-      <c r="L199" s="60">
-        <f t="shared" si="73"/>
+      <c r="L202" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L54</f>
         <v>42.865000000000002</v>
       </c>
-      <c r="M199" s="60">
-        <f t="shared" si="74"/>
+      <c r="M202" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M54</f>
         <v>44.8</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="G200" s="65">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G49</f>
+    <row r="203" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A203" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="G203" s="65">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G55</f>
         <v>39.009</v>
       </c>
-      <c r="K200" s="65">
-        <f t="shared" si="72"/>
+      <c r="K203" s="65">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K55</f>
         <v>43.698</v>
       </c>
-      <c r="L200" s="60">
-        <f t="shared" si="73"/>
+      <c r="L203" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L55</f>
         <v>46.015000000000001</v>
       </c>
-      <c r="M200" s="60">
-        <f t="shared" si="74"/>
+      <c r="M203" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M55</f>
         <v>49.674999999999997</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="54"/>
-    </row>
-    <row r="202" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="G202" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G51</f>
-        <v>39.254000000000005</v>
-      </c>
-      <c r="K202" s="60">
-        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K51</f>
-        <v>44.677999999999997</v>
-      </c>
-      <c r="L202" s="60">
-        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L51</f>
-        <v>47.064999999999998</v>
-      </c>
-      <c r="M202" s="60">
-        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M51</f>
-        <v>51.3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="G203" s="60">
-        <f t="shared" ref="G203:G206" si="75">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G52</f>
-        <v>38.911000000000001</v>
-      </c>
-      <c r="K203" s="60">
-        <f t="shared" ref="K203:K206" si="76">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K52</f>
-        <v>43.305999999999997</v>
-      </c>
-      <c r="L203" s="60">
-        <f t="shared" ref="L203:L206" si="77">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L52</f>
-        <v>45.594999999999999</v>
-      </c>
-      <c r="M203" s="60">
-        <f t="shared" ref="M203:M206" si="78">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M52</f>
-        <v>49.024999999999999</v>
-      </c>
-    </row>
     <row r="204" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="G204" s="60">
-        <f t="shared" si="75"/>
-        <v>38.911000000000001</v>
-      </c>
-      <c r="K204" s="60">
-        <f t="shared" si="76"/>
-        <v>43.305999999999997</v>
-      </c>
-      <c r="L204" s="60">
-        <f t="shared" si="77"/>
-        <v>45.594999999999999</v>
-      </c>
-      <c r="M204" s="60">
-        <f t="shared" si="78"/>
-        <v>49.024999999999999</v>
-      </c>
+      <c r="A204" s="54"/>
     </row>
     <row r="205" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="57" t="s">
-        <v>65</v>
+      <c r="A205" s="56" t="s">
+        <v>251</v>
       </c>
       <c r="G205" s="60">
-        <f t="shared" si="75"/>
-        <v>38.274000000000001</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G57</f>
+        <v>40.813000000000002</v>
       </c>
       <c r="K205" s="60">
-        <f t="shared" si="76"/>
-        <v>40.757999999999996</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K57</f>
+        <v>44.914000000000001</v>
       </c>
       <c r="L205" s="60">
-        <f t="shared" si="77"/>
-        <v>42.865000000000002</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L57</f>
+        <v>48.175000000000004</v>
       </c>
       <c r="M205" s="60">
-        <f t="shared" si="78"/>
-        <v>44.8</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M57</f>
+        <v>51.375</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G206" s="65">
-        <f t="shared" si="75"/>
-        <v>39.009</v>
-      </c>
-      <c r="K206" s="65">
-        <f t="shared" si="76"/>
-        <v>43.698</v>
+      <c r="A206" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="G206" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G58</f>
+        <v>41.695</v>
+      </c>
+      <c r="K206" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K58</f>
+        <v>48.442</v>
       </c>
       <c r="L206" s="60">
-        <f t="shared" si="77"/>
-        <v>46.015000000000001</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L58</f>
+        <v>51.954999999999998</v>
       </c>
       <c r="M206" s="60">
-        <f t="shared" si="78"/>
-        <v>49.674999999999997</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M58</f>
+        <v>57.224999999999994</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="54"/>
+      <c r="A207" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="G207" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G59</f>
+        <v>40.764000000000003</v>
+      </c>
+      <c r="K207" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K59</f>
+        <v>44.718000000000004</v>
+      </c>
+      <c r="L207" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L59</f>
+        <v>47.965000000000003</v>
+      </c>
+      <c r="M207" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M59</f>
+        <v>51.05</v>
+      </c>
     </row>
     <row r="208" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="56" t="s">
-        <v>154</v>
+      <c r="A208" s="57" t="s">
+        <v>248</v>
       </c>
       <c r="G208" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G57</f>
-        <v>40.813000000000002</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G60</f>
+        <v>41.793000000000006</v>
       </c>
       <c r="K208" s="60">
-        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K57</f>
-        <v>44.914000000000001</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K60</f>
+        <v>48.834000000000003</v>
       </c>
       <c r="L208" s="60">
-        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L57</f>
-        <v>48.175000000000004</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L60</f>
+        <v>52.375</v>
       </c>
       <c r="M208" s="60">
-        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M57</f>
-        <v>51.375</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M60</f>
+        <v>57.875</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="57" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="G209" s="60">
-        <f t="shared" ref="G209:G213" si="79">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G58</f>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G61</f>
+        <v>40.764000000000003</v>
+      </c>
+      <c r="K209" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K61</f>
+        <v>44.718000000000004</v>
+      </c>
+      <c r="L209" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L61</f>
+        <v>47.965000000000003</v>
+      </c>
+      <c r="M209" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M61</f>
+        <v>51.05</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="G210" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G62</f>
+        <v>40.323</v>
+      </c>
+      <c r="K210" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K62</f>
+        <v>42.954000000000001</v>
+      </c>
+      <c r="L210" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L62</f>
+        <v>46.075000000000003</v>
+      </c>
+      <c r="M210" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M62</f>
+        <v>48.125</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A211" s="54"/>
+    </row>
+    <row r="212" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A212" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G212" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G64</f>
+        <v>40.813000000000002</v>
+      </c>
+      <c r="K212" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K64</f>
+        <v>44.914000000000001</v>
+      </c>
+      <c r="L212" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L64</f>
+        <v>48.175000000000004</v>
+      </c>
+      <c r="M212" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M64</f>
+        <v>51.375</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="G213" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G65</f>
         <v>41.695</v>
       </c>
-      <c r="K209" s="60">
-        <f t="shared" ref="K209:K213" si="80">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K58</f>
+      <c r="K213" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K65</f>
         <v>48.442</v>
       </c>
-      <c r="L209" s="60">
-        <f t="shared" ref="L209:L213" si="81">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L58</f>
+      <c r="L213" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L65</f>
         <v>51.954999999999998</v>
       </c>
-      <c r="M209" s="60">
-        <f t="shared" ref="M209:M213" si="82">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M58</f>
+      <c r="M213" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M65</f>
         <v>57.224999999999994</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="G210" s="60">
-        <f t="shared" si="79"/>
+    <row r="214" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="G214" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G66</f>
         <v>40.764000000000003</v>
       </c>
-      <c r="K210" s="60">
-        <f t="shared" si="80"/>
+      <c r="K214" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K66</f>
         <v>44.718000000000004</v>
       </c>
-      <c r="L210" s="60">
-        <f t="shared" si="81"/>
+      <c r="L214" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L66</f>
         <v>47.965000000000003</v>
       </c>
-      <c r="M210" s="60">
-        <f t="shared" si="82"/>
+      <c r="M214" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M66</f>
         <v>51.05</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="G211" s="60">
-        <f t="shared" si="79"/>
-        <v>41.793000000000006</v>
-      </c>
-      <c r="K211" s="60">
-        <f t="shared" si="80"/>
-        <v>48.834000000000003</v>
-      </c>
-      <c r="L211" s="60">
-        <f t="shared" si="81"/>
-        <v>52.375</v>
-      </c>
-      <c r="M211" s="60">
-        <f t="shared" si="82"/>
-        <v>57.875</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="G212" s="60">
-        <f t="shared" si="79"/>
-        <v>40.764000000000003</v>
-      </c>
-      <c r="K212" s="60">
-        <f t="shared" si="80"/>
-        <v>44.718000000000004</v>
-      </c>
-      <c r="L212" s="60">
-        <f t="shared" si="81"/>
-        <v>47.965000000000003</v>
-      </c>
-      <c r="M212" s="60">
-        <f t="shared" si="82"/>
-        <v>51.05</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="G213" s="60">
-        <f t="shared" si="79"/>
-        <v>40.323</v>
-      </c>
-      <c r="K213" s="60">
-        <f t="shared" si="80"/>
-        <v>42.954000000000001</v>
-      </c>
-      <c r="L213" s="60">
-        <f t="shared" si="81"/>
-        <v>46.075000000000003</v>
-      </c>
-      <c r="M213" s="60">
-        <f t="shared" si="82"/>
-        <v>48.125</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="54"/>
-    </row>
     <row r="215" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="56" t="s">
-        <v>155</v>
+      <c r="A215" s="57" t="s">
+        <v>243</v>
       </c>
       <c r="G215" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G64</f>
-        <v>40.813000000000002</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G67</f>
+        <v>41.695</v>
       </c>
       <c r="K215" s="60">
-        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K64</f>
-        <v>44.914000000000001</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K67</f>
+        <v>48.442</v>
       </c>
       <c r="L215" s="60">
-        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L64</f>
-        <v>48.175000000000004</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L67</f>
+        <v>51.954999999999998</v>
       </c>
       <c r="M215" s="60">
-        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M64</f>
-        <v>51.375</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M67</f>
+        <v>57.224999999999994</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="57" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="G216" s="60">
-        <f t="shared" ref="G216:G220" si="83">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$154+$G65</f>
-        <v>41.695</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G68</f>
+        <v>40.764000000000003</v>
       </c>
       <c r="K216" s="60">
-        <f t="shared" ref="K216:K220" si="84">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$154+$K65</f>
-        <v>48.442</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K68</f>
+        <v>44.718000000000004</v>
       </c>
       <c r="L216" s="60">
-        <f t="shared" ref="L216:L220" si="85">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$154+$L65</f>
-        <v>51.954999999999998</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L68</f>
+        <v>47.965000000000003</v>
       </c>
       <c r="M216" s="60">
-        <f t="shared" ref="M216:M220" si="86">SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$154+$M65</f>
-        <v>57.224999999999994</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M68</f>
+        <v>51.05</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="G217" s="60">
-        <f t="shared" si="83"/>
-        <v>40.764000000000003</v>
-      </c>
-      <c r="K217" s="60">
-        <f t="shared" si="84"/>
-        <v>44.718000000000004</v>
+      <c r="A217" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="G217" s="65">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G69</f>
+        <v>40.323</v>
+      </c>
+      <c r="K217" s="65">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$154+$K69</f>
+        <v>42.954000000000001</v>
       </c>
       <c r="L217" s="60">
-        <f t="shared" si="85"/>
-        <v>47.965000000000003</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$154+$L69</f>
+        <v>46.075000000000003</v>
       </c>
       <c r="M217" s="60">
-        <f t="shared" si="86"/>
-        <v>51.05</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M69</f>
+        <v>48.125</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="G218" s="60">
-        <f t="shared" si="83"/>
-        <v>41.695</v>
-      </c>
-      <c r="K218" s="60">
-        <f t="shared" si="84"/>
-        <v>48.442</v>
-      </c>
-      <c r="L218" s="60">
-        <f t="shared" si="85"/>
-        <v>51.954999999999998</v>
-      </c>
-      <c r="M218" s="60">
-        <f t="shared" si="86"/>
-        <v>57.224999999999994</v>
-      </c>
+      <c r="A218" s="54"/>
     </row>
     <row r="219" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="57" t="s">
-        <v>66</v>
+      <c r="A219" s="56" t="s">
+        <v>277</v>
       </c>
       <c r="G219" s="60">
-        <f t="shared" si="83"/>
-        <v>40.764000000000003</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G71</f>
+        <v>36.843000000000004</v>
       </c>
       <c r="K219" s="60">
-        <f t="shared" si="84"/>
-        <v>44.718000000000004</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K71</f>
+        <v>41.879999999999995</v>
       </c>
       <c r="L219" s="60">
-        <f t="shared" si="85"/>
-        <v>47.965000000000003</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L71</f>
+        <v>43.14</v>
       </c>
       <c r="M219" s="60">
-        <f t="shared" si="86"/>
-        <v>51.05</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M71</f>
+        <v>47.074999999999996</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="G220" s="65">
-        <f t="shared" si="83"/>
-        <v>40.323</v>
-      </c>
-      <c r="K220" s="65">
-        <f t="shared" si="84"/>
-        <v>42.954000000000001</v>
+      <c r="A220" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="G220" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G72</f>
+        <v>36.695999999999998</v>
+      </c>
+      <c r="K220" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K72</f>
+        <v>41.292000000000002</v>
       </c>
       <c r="L220" s="60">
-        <f t="shared" si="85"/>
-        <v>46.075000000000003</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L72</f>
+        <v>42.510000000000005</v>
       </c>
       <c r="M220" s="60">
-        <f t="shared" si="86"/>
-        <v>48.125</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M72</f>
+        <v>46.099999999999994</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="54"/>
+      <c r="A221" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="G221" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G73</f>
+        <v>36.5</v>
+      </c>
+      <c r="K221" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K73</f>
+        <v>40.507999999999996</v>
+      </c>
+      <c r="L221" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L73</f>
+        <v>41.67</v>
+      </c>
+      <c r="M221" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M73</f>
+        <v>44.8</v>
+      </c>
     </row>
     <row r="222" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="56" t="s">
-        <v>156</v>
+      <c r="A222" s="57" t="s">
+        <v>274</v>
       </c>
       <c r="G222" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G71</f>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G74</f>
+        <v>35.863</v>
+      </c>
+      <c r="K222" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K74</f>
+        <v>37.959999999999994</v>
+      </c>
+      <c r="L222" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L74</f>
+        <v>38.94</v>
+      </c>
+      <c r="M222" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M74</f>
+        <v>40.575000000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A223" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="G223" s="65">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G75</f>
+        <v>36.597999999999999</v>
+      </c>
+      <c r="K223" s="65">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K75</f>
+        <v>40.9</v>
+      </c>
+      <c r="L223" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L75</f>
+        <v>42.09</v>
+      </c>
+      <c r="M223" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M75</f>
+        <v>45.449999999999996</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A224" s="54"/>
+    </row>
+    <row r="225" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="G225" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G77</f>
         <v>36.843000000000004</v>
       </c>
-      <c r="K222" s="60">
-        <f>SUM(K$164:K$165)+K$147+K$149+K$151+$K71</f>
+      <c r="K225" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K77</f>
         <v>41.879999999999995</v>
       </c>
-      <c r="L222" s="60">
-        <f>SUM(L$164:L$165)+L$147+L$149+L$151+$L71</f>
+      <c r="L225" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L77</f>
         <v>43.14</v>
       </c>
-      <c r="M222" s="60">
-        <f>SUM(M$164:M$165)+M$147+M$149+M$151+$M71</f>
+      <c r="M225" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M77</f>
         <v>47.074999999999996</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="G223" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G72</f>
-        <v>36.695999999999998</v>
-      </c>
-      <c r="K223" s="60">
-        <f t="shared" ref="K223:K226" si="87">SUM(K$164:K$165)+K$147+K$149+K$151+$K72</f>
-        <v>41.292000000000002</v>
-      </c>
-      <c r="L223" s="60">
-        <f t="shared" ref="L223:L226" si="88">SUM(L$164:L$165)+L$147+L$149+L$151+$L72</f>
-        <v>42.510000000000005</v>
-      </c>
-      <c r="M223" s="60">
-        <f t="shared" ref="M223:M226" si="89">SUM(M$164:M$165)+M$147+M$149+M$151+$M72</f>
-        <v>46.099999999999994</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G224" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G73</f>
+    <row r="226" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A226" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="G226" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G78</f>
         <v>36.5</v>
       </c>
-      <c r="K224" s="60">
-        <f t="shared" si="87"/>
+      <c r="K226" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K78</f>
         <v>40.507999999999996</v>
       </c>
-      <c r="L224" s="60">
-        <f t="shared" si="88"/>
+      <c r="L226" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L78</f>
         <v>41.67</v>
       </c>
-      <c r="M224" s="60">
-        <f t="shared" si="89"/>
+      <c r="M226" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M78</f>
         <v>44.8</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G225" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G74</f>
+    <row r="227" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="G227" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G79</f>
+        <v>36.5</v>
+      </c>
+      <c r="K227" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K79</f>
+        <v>40.507999999999996</v>
+      </c>
+      <c r="L227" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L79</f>
+        <v>41.67</v>
+      </c>
+      <c r="M227" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M79</f>
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="G228" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G80</f>
         <v>35.863</v>
       </c>
-      <c r="K225" s="60">
-        <f t="shared" si="87"/>
+      <c r="K228" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K80</f>
         <v>37.959999999999994</v>
       </c>
-      <c r="L225" s="60">
-        <f t="shared" si="88"/>
+      <c r="L228" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L80</f>
         <v>38.94</v>
       </c>
-      <c r="M225" s="60">
-        <f t="shared" si="89"/>
+      <c r="M228" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M80</f>
         <v>40.575000000000003</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="G226" s="65">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G75</f>
+    <row r="229" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A229" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="G229" s="65">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G81</f>
         <v>36.597999999999999</v>
       </c>
-      <c r="K226" s="65">
-        <f t="shared" si="87"/>
+      <c r="K229" s="65">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K81</f>
         <v>40.9</v>
       </c>
-      <c r="L226" s="60">
-        <f t="shared" si="88"/>
+      <c r="L229" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L81</f>
         <v>42.09</v>
       </c>
-      <c r="M226" s="60">
-        <f t="shared" si="89"/>
+      <c r="M229" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M81</f>
         <v>45.449999999999996</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="54"/>
-    </row>
-    <row r="228" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="G228" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G77</f>
-        <v>36.843000000000004</v>
-      </c>
-      <c r="K228" s="60">
-        <f>SUM(K$164:K$165)+K$147+K$149+K$151+$K77</f>
-        <v>41.879999999999995</v>
-      </c>
-      <c r="L228" s="60">
-        <f>SUM(L$164:L$165)+L$147+L$149+L$151+$L77</f>
-        <v>43.14</v>
-      </c>
-      <c r="M228" s="60">
-        <f>SUM(M$164:M$165)+M$147+M$149+M$151+$M77</f>
-        <v>47.074999999999996</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="G229" s="60">
-        <f t="shared" ref="G229:G232" si="90">SUM(G$164:G$165)+G$147+G$149+G$151+$G78</f>
-        <v>36.5</v>
-      </c>
-      <c r="K229" s="60">
-        <f t="shared" ref="K229:K232" si="91">SUM(K$164:K$165)+K$147+K$149+K$151+$K78</f>
-        <v>40.507999999999996</v>
-      </c>
-      <c r="L229" s="60">
-        <f t="shared" ref="L229:L232" si="92">SUM(L$164:L$165)+L$147+L$149+L$151+$L78</f>
-        <v>41.67</v>
-      </c>
-      <c r="M229" s="60">
-        <f t="shared" ref="M229:M232" si="93">SUM(M$164:M$165)+M$147+M$149+M$151+$M78</f>
-        <v>44.8</v>
-      </c>
-    </row>
     <row r="230" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="G230" s="60">
-        <f t="shared" si="90"/>
-        <v>36.5</v>
-      </c>
-      <c r="K230" s="60">
-        <f t="shared" si="91"/>
-        <v>40.507999999999996</v>
-      </c>
-      <c r="L230" s="60">
-        <f t="shared" si="92"/>
-        <v>41.67</v>
-      </c>
-      <c r="M230" s="60">
-        <f t="shared" si="93"/>
-        <v>44.8</v>
-      </c>
+      <c r="A230" s="54"/>
     </row>
     <row r="231" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="57" t="s">
-        <v>72</v>
+      <c r="A231" s="56" t="s">
+        <v>241</v>
       </c>
       <c r="G231" s="60">
-        <f t="shared" si="90"/>
-        <v>35.863</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G83</f>
+        <v>38.402000000000001</v>
       </c>
       <c r="K231" s="60">
-        <f t="shared" si="91"/>
-        <v>37.959999999999994</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K83</f>
+        <v>42.116</v>
       </c>
       <c r="L231" s="60">
-        <f t="shared" si="92"/>
-        <v>38.94</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L83</f>
+        <v>44.25</v>
       </c>
       <c r="M231" s="60">
-        <f t="shared" si="93"/>
-        <v>40.575000000000003</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M83</f>
+        <v>47.15</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="G232" s="65">
-        <f t="shared" si="90"/>
-        <v>36.597999999999999</v>
-      </c>
-      <c r="K232" s="65">
-        <f t="shared" si="91"/>
-        <v>40.9</v>
+      <c r="A232" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="G232" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G84</f>
+        <v>39.283999999999999</v>
+      </c>
+      <c r="K232" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K84</f>
+        <v>45.643999999999998</v>
       </c>
       <c r="L232" s="60">
-        <f t="shared" si="92"/>
-        <v>42.09</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L84</f>
+        <v>48.03</v>
       </c>
       <c r="M232" s="60">
-        <f t="shared" si="93"/>
-        <v>45.449999999999996</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M84</f>
+        <v>53</v>
       </c>
     </row>
     <row r="233" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="54"/>
+      <c r="A233" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="G233" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G85</f>
+        <v>38.353000000000002</v>
+      </c>
+      <c r="K233" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K85</f>
+        <v>41.92</v>
+      </c>
+      <c r="L233" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L85</f>
+        <v>44.040000000000006</v>
+      </c>
+      <c r="M233" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M85</f>
+        <v>46.825000000000003</v>
+      </c>
     </row>
     <row r="234" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="56" t="s">
-        <v>158</v>
+      <c r="A234" s="57" t="s">
+        <v>238</v>
       </c>
       <c r="G234" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G83</f>
-        <v>38.402000000000001</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G86</f>
+        <v>39.382000000000005</v>
       </c>
       <c r="K234" s="60">
-        <f>SUM(K$164:K$165)+K$147+K$149+K$151+$K83</f>
-        <v>42.116</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K86</f>
+        <v>46.036000000000001</v>
       </c>
       <c r="L234" s="60">
-        <f>SUM(L$164:L$165)+L$147+L$149+L$151+$L83</f>
-        <v>44.25</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L86</f>
+        <v>48.45</v>
       </c>
       <c r="M234" s="60">
-        <f>SUM(M$164:M$165)+M$147+M$149+M$151+$M83</f>
-        <v>47.15</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M86</f>
+        <v>53.65</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="57" t="s">
-        <v>190</v>
+        <v>301</v>
       </c>
       <c r="G235" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G84</f>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G87</f>
+        <v>38.353000000000002</v>
+      </c>
+      <c r="K235" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K87</f>
+        <v>41.92</v>
+      </c>
+      <c r="L235" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L87</f>
+        <v>44.040000000000006</v>
+      </c>
+      <c r="M235" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M87</f>
+        <v>46.825000000000003</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A236" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="G236" s="65">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G88</f>
+        <v>37.911999999999999</v>
+      </c>
+      <c r="K236" s="65">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K88</f>
+        <v>40.155999999999999</v>
+      </c>
+      <c r="L236" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L88</f>
+        <v>42.150000000000006</v>
+      </c>
+      <c r="M236" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M88</f>
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A237" s="54"/>
+    </row>
+    <row r="238" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A238" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G238" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G90</f>
+        <v>38.402000000000001</v>
+      </c>
+      <c r="K238" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K90</f>
+        <v>42.116</v>
+      </c>
+      <c r="L238" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L90</f>
+        <v>44.25</v>
+      </c>
+      <c r="M238" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M90</f>
+        <v>47.15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A239" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="G239" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G91</f>
         <v>39.283999999999999</v>
       </c>
-      <c r="K235" s="60">
-        <f t="shared" ref="K235:K239" si="94">SUM(K$164:K$165)+K$147+K$149+K$151+$K84</f>
+      <c r="K239" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K91</f>
         <v>45.643999999999998</v>
       </c>
-      <c r="L235" s="60">
-        <f t="shared" ref="L235:L239" si="95">SUM(L$164:L$165)+L$147+L$149+L$151+$L84</f>
+      <c r="L239" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L91</f>
         <v>48.03</v>
       </c>
-      <c r="M235" s="60">
-        <f t="shared" ref="M235:M239" si="96">SUM(M$164:M$165)+M$147+M$149+M$151+$M84</f>
+      <c r="M239" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M91</f>
         <v>53</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="G236" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G85</f>
+    <row r="240" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A240" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="G240" s="60">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G92</f>
         <v>38.353000000000002</v>
       </c>
-      <c r="K236" s="60">
-        <f t="shared" si="94"/>
+      <c r="K240" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K92</f>
         <v>41.92</v>
       </c>
-      <c r="L236" s="60">
-        <f t="shared" si="95"/>
+      <c r="L240" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L92</f>
         <v>44.040000000000006</v>
       </c>
-      <c r="M236" s="60">
-        <f t="shared" si="96"/>
+      <c r="M240" s="60">
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M92</f>
         <v>46.825000000000003</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G237" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G86</f>
-        <v>39.382000000000005</v>
-      </c>
-      <c r="K237" s="60">
-        <f t="shared" si="94"/>
-        <v>46.036000000000001</v>
-      </c>
-      <c r="L237" s="60">
-        <f t="shared" si="95"/>
-        <v>48.45</v>
-      </c>
-      <c r="M237" s="60">
-        <f t="shared" si="96"/>
-        <v>53.65</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G238" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G87</f>
-        <v>38.353000000000002</v>
-      </c>
-      <c r="K238" s="60">
-        <f t="shared" si="94"/>
-        <v>41.92</v>
-      </c>
-      <c r="L238" s="60">
-        <f t="shared" si="95"/>
-        <v>44.040000000000006</v>
-      </c>
-      <c r="M238" s="60">
-        <f t="shared" si="96"/>
-        <v>46.825000000000003</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="G239" s="65">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G88</f>
-        <v>37.911999999999999</v>
-      </c>
-      <c r="K239" s="65">
-        <f t="shared" si="94"/>
-        <v>40.155999999999999</v>
-      </c>
-      <c r="L239" s="60">
-        <f t="shared" si="95"/>
-        <v>42.150000000000006</v>
-      </c>
-      <c r="M239" s="60">
-        <f t="shared" si="96"/>
-        <v>43.9</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="54"/>
-    </row>
     <row r="241" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="56" t="s">
-        <v>159</v>
+      <c r="A241" s="57" t="s">
+        <v>233</v>
       </c>
       <c r="G241" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G90</f>
-        <v>38.402000000000001</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G93</f>
+        <v>39.283999999999999</v>
       </c>
       <c r="K241" s="60">
-        <f>SUM(K$164:K$165)+K$147+K$149+K$151+$K90</f>
-        <v>42.116</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K93</f>
+        <v>45.643999999999998</v>
       </c>
       <c r="L241" s="60">
-        <f>SUM(L$164:L$165)+L$147+L$149+L$151+$L90</f>
-        <v>44.25</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L93</f>
+        <v>48.03</v>
       </c>
       <c r="M241" s="60">
-        <f>SUM(M$164:M$165)+M$147+M$149+M$151+$M90</f>
-        <v>47.15</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M93</f>
+        <v>53</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="57" t="s">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="G242" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$151+$G91</f>
-        <v>39.283999999999999</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G94</f>
+        <v>38.353000000000002</v>
       </c>
       <c r="K242" s="60">
-        <f t="shared" ref="K242:K246" si="97">SUM(K$164:K$165)+K$147+K$149+K$151+$K91</f>
-        <v>45.643999999999998</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K94</f>
+        <v>41.92</v>
       </c>
       <c r="L242" s="60">
-        <f t="shared" ref="L242:L246" si="98">SUM(L$164:L$165)+L$147+L$149+L$151+$L91</f>
-        <v>48.03</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L94</f>
+        <v>44.040000000000006</v>
       </c>
       <c r="M242" s="60">
-        <f t="shared" ref="M242:M246" si="99">SUM(M$164:M$165)+M$147+M$149+M$151+$M91</f>
-        <v>53</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M94</f>
+        <v>46.825000000000003</v>
       </c>
     </row>
     <row r="243" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G243" s="60">
-        <f t="shared" ref="G243:G246" si="100">SUM(G$164:G$165)+G$147+G$149+G$151+$G92</f>
-        <v>38.353000000000002</v>
-      </c>
-      <c r="K243" s="60">
-        <f t="shared" si="97"/>
-        <v>41.92</v>
+      <c r="A243" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="G243" s="65">
+        <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G95</f>
+        <v>37.911999999999999</v>
+      </c>
+      <c r="K243" s="65">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$151+$K95</f>
+        <v>40.155999999999999</v>
       </c>
       <c r="L243" s="60">
-        <f t="shared" si="98"/>
-        <v>44.040000000000006</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$151+$L95</f>
+        <v>42.150000000000006</v>
       </c>
       <c r="M243" s="60">
-        <f t="shared" si="99"/>
-        <v>46.825000000000003</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M95</f>
+        <v>43.9</v>
       </c>
     </row>
     <row r="244" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G244" s="60">
-        <f t="shared" si="100"/>
-        <v>39.283999999999999</v>
-      </c>
-      <c r="K244" s="60">
-        <f t="shared" si="97"/>
-        <v>45.643999999999998</v>
-      </c>
-      <c r="L244" s="60">
-        <f t="shared" si="98"/>
-        <v>48.03</v>
-      </c>
-      <c r="M244" s="60">
-        <f t="shared" si="99"/>
-        <v>53</v>
-      </c>
+      <c r="A244" s="54"/>
     </row>
     <row r="245" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="57" t="s">
-        <v>67</v>
+      <c r="A245" s="56" t="s">
+        <v>268</v>
       </c>
       <c r="G245" s="60">
-        <f t="shared" si="100"/>
-        <v>38.353000000000002</v>
+        <f>SUM(G$161:G$162)+G$148+$G97</f>
+        <v>28.231999999999999</v>
       </c>
       <c r="K245" s="60">
-        <f t="shared" si="97"/>
-        <v>41.92</v>
+        <f>SUM(K$161:K$162)+K$148+$K97</f>
+        <v>32.882000000000005</v>
       </c>
       <c r="L245" s="60">
-        <f t="shared" si="98"/>
-        <v>44.040000000000006</v>
+        <f>SUM(L$161:L$162)+L$148+$L97</f>
+        <v>33.615000000000002</v>
       </c>
       <c r="M245" s="60">
-        <f t="shared" si="99"/>
-        <v>46.825000000000003</v>
+        <f>SUM(M$161:M$162)+M$148+$M97</f>
+        <v>37.25</v>
       </c>
     </row>
     <row r="246" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="G246" s="65">
-        <f t="shared" si="100"/>
-        <v>37.911999999999999</v>
-      </c>
-      <c r="K246" s="65">
-        <f t="shared" si="97"/>
-        <v>40.155999999999999</v>
+      <c r="A246" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="G246" s="60">
+        <f>SUM(G$161:G$162)+G$148+$G98</f>
+        <v>27.888999999999999</v>
+      </c>
+      <c r="K246" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K98</f>
+        <v>31.509999999999998</v>
       </c>
       <c r="L246" s="60">
-        <f t="shared" si="98"/>
-        <v>42.150000000000006</v>
+        <f>SUM(L$161:L$162)+L$148+$L98</f>
+        <v>32.145000000000003</v>
       </c>
       <c r="M246" s="60">
-        <f t="shared" si="99"/>
-        <v>43.9</v>
+        <f>SUM(M$161:M$162)+M$148+$M98</f>
+        <v>34.974999999999994</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="54"/>
+      <c r="A247" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="G247" s="60">
+        <f>SUM(G$161:G$162)+G$148+$G99</f>
+        <v>27.888999999999999</v>
+      </c>
+      <c r="K247" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K99</f>
+        <v>31.509999999999998</v>
+      </c>
+      <c r="L247" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L99</f>
+        <v>32.145000000000003</v>
+      </c>
+      <c r="M247" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M99</f>
+        <v>34.974999999999994</v>
+      </c>
     </row>
     <row r="248" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="56" t="s">
-        <v>160</v>
+      <c r="A248" s="57" t="s">
+        <v>302</v>
       </c>
       <c r="G248" s="60">
-        <f>SUM(G$164:G$165)+G$148+$G97</f>
+        <f>SUM(G$161:G$162)+G$148+$G100</f>
+        <v>27.252000000000002</v>
+      </c>
+      <c r="K248" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K100</f>
+        <v>28.962</v>
+      </c>
+      <c r="L248" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L100</f>
+        <v>29.414999999999999</v>
+      </c>
+      <c r="M248" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M100</f>
+        <v>30.75</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="G249" s="65">
+        <f>SUM(G$161:G$162)+G$148+$G101</f>
+        <v>27.987000000000002</v>
+      </c>
+      <c r="K249" s="65">
+        <f>SUM(K$161:K$162)+K$148+$K101</f>
+        <v>31.902000000000001</v>
+      </c>
+      <c r="L249" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L101</f>
+        <v>32.564999999999998</v>
+      </c>
+      <c r="M249" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M101</f>
+        <v>35.625</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A250" s="54"/>
+    </row>
+    <row r="251" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A251" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="G251" s="60">
+        <f>SUM(G$161:G$162)+G$148+$G103</f>
         <v>28.231999999999999</v>
       </c>
-      <c r="K248" s="60">
-        <f>SUM(K$164:K$165)+K$148+$K97</f>
+      <c r="K251" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K103</f>
         <v>32.882000000000005</v>
       </c>
-      <c r="L248" s="60">
-        <f>SUM(L$164:L$165)+L$148+$L97</f>
+      <c r="L251" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L103</f>
         <v>33.615000000000002</v>
       </c>
-      <c r="M248" s="60">
-        <f>SUM(M$164:M$165)+M$148+$M97</f>
+      <c r="M251" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M103</f>
         <v>37.25</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="G249" s="60">
-        <f t="shared" ref="G249:G251" si="101">SUM(G$164:G$165)+G$148+$G98</f>
+    <row r="252" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A252" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="G252" s="60">
+        <f>SUM(G$161:G$162)+G$148+$G104</f>
         <v>27.888999999999999</v>
       </c>
-      <c r="K249" s="60">
-        <f t="shared" ref="K249:K252" si="102">SUM(K$164:K$165)+K$148+$K98</f>
+      <c r="K252" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K104</f>
         <v>31.509999999999998</v>
       </c>
-      <c r="L249" s="60">
-        <f t="shared" ref="L249:L252" si="103">SUM(L$164:L$165)+L$148+$L98</f>
+      <c r="L252" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L104</f>
         <v>32.145000000000003</v>
       </c>
-      <c r="M249" s="60">
-        <f t="shared" ref="M249:M252" si="104">SUM(M$164:M$165)+M$148+$M98</f>
+      <c r="M252" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M104</f>
         <v>34.974999999999994</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="G250" s="60">
-        <f t="shared" si="101"/>
+    <row r="253" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="G253" s="60">
+        <f>SUM(G$161:G$162)+G$148+$G105</f>
         <v>27.888999999999999</v>
       </c>
-      <c r="K250" s="60">
-        <f t="shared" si="102"/>
+      <c r="K253" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K105</f>
         <v>31.509999999999998</v>
       </c>
-      <c r="L250" s="60">
-        <f t="shared" si="103"/>
+      <c r="L253" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L105</f>
         <v>32.145000000000003</v>
       </c>
-      <c r="M250" s="60">
-        <f t="shared" si="104"/>
+      <c r="M253" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M105</f>
         <v>34.974999999999994</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G251" s="60">
-        <f t="shared" si="101"/>
+    <row r="254" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A254" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="G254" s="60">
+        <f>SUM(G$161:G$162)+G$148+$G106</f>
         <v>27.252000000000002</v>
       </c>
-      <c r="K251" s="60">
-        <f t="shared" si="102"/>
+      <c r="K254" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K106</f>
         <v>28.962</v>
       </c>
-      <c r="L251" s="60">
-        <f t="shared" si="103"/>
+      <c r="L254" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L106</f>
         <v>29.414999999999999</v>
       </c>
-      <c r="M251" s="60">
-        <f t="shared" si="104"/>
+      <c r="M254" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M106</f>
         <v>30.75</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="G252" s="65">
-        <f>SUM(G$164:G$165)+G$148+$G101</f>
+    <row r="255" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="G255" s="65">
+        <f>SUM(G$161:G$162)+G$148+$G107</f>
         <v>27.987000000000002</v>
       </c>
-      <c r="K252" s="65">
-        <f t="shared" si="102"/>
+      <c r="K255" s="65">
+        <f>SUM(K$161:K$162)+K$148+$K107</f>
         <v>31.902000000000001</v>
       </c>
-      <c r="L252" s="60">
-        <f t="shared" si="103"/>
+      <c r="L255" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L107</f>
         <v>32.564999999999998</v>
       </c>
-      <c r="M252" s="60">
-        <f t="shared" si="104"/>
+      <c r="M255" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M107</f>
         <v>35.625</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="54"/>
-    </row>
-    <row r="254" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="G254" s="60">
-        <f>SUM(G$164:G$165)+G$148+$G103</f>
-        <v>28.231999999999999</v>
-      </c>
-      <c r="K254" s="60">
-        <f>SUM(K$164:K$165)+K$148+$K103</f>
-        <v>32.882000000000005</v>
-      </c>
-      <c r="L254" s="60">
-        <f>SUM(L$164:L$165)+L$148+$L103</f>
-        <v>33.615000000000002</v>
-      </c>
-      <c r="M254" s="60">
-        <f>SUM(M$164:M$165)+M$148+$M103</f>
-        <v>37.25</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="G255" s="60">
-        <f t="shared" ref="G255:G258" si="105">SUM(G$164:G$165)+G$148+$G104</f>
-        <v>27.888999999999999</v>
-      </c>
-      <c r="K255" s="60">
-        <f t="shared" ref="K255:K258" si="106">SUM(K$164:K$165)+K$148+$K104</f>
-        <v>31.509999999999998</v>
-      </c>
-      <c r="L255" s="60">
-        <f t="shared" ref="L255:L258" si="107">SUM(L$164:L$165)+L$148+$L104</f>
-        <v>32.145000000000003</v>
-      </c>
-      <c r="M255" s="60">
-        <f t="shared" ref="M255:M258" si="108">SUM(M$164:M$165)+M$148+$M104</f>
-        <v>34.974999999999994</v>
-      </c>
-    </row>
     <row r="256" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="G256" s="60">
-        <f t="shared" si="105"/>
-        <v>27.888999999999999</v>
-      </c>
-      <c r="K256" s="60">
-        <f t="shared" si="106"/>
-        <v>31.509999999999998</v>
-      </c>
-      <c r="L256" s="60">
-        <f t="shared" si="107"/>
-        <v>32.145000000000003</v>
-      </c>
-      <c r="M256" s="60">
-        <f t="shared" si="108"/>
-        <v>34.974999999999994</v>
-      </c>
+      <c r="A256" s="54"/>
     </row>
     <row r="257" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="57" t="s">
-        <v>82</v>
+      <c r="A257" s="56" t="s">
+        <v>230</v>
       </c>
       <c r="G257" s="60">
-        <f t="shared" si="105"/>
-        <v>27.252000000000002</v>
+        <f>SUM(G$161:G$162)+G$148+$G109</f>
+        <v>29.791</v>
       </c>
       <c r="K257" s="60">
-        <f t="shared" si="106"/>
-        <v>28.962</v>
+        <f>SUM(K$161:K$162)+K$148+$K109</f>
+        <v>33.118000000000002</v>
       </c>
       <c r="L257" s="60">
-        <f t="shared" si="107"/>
-        <v>29.414999999999999</v>
+        <f>SUM(L$161:L$162)+L$148+$L109</f>
+        <v>34.725000000000001</v>
       </c>
       <c r="M257" s="60">
-        <f t="shared" si="108"/>
-        <v>30.75</v>
+        <f>SUM(M$161:M$162)+M$148+$M109</f>
+        <v>37.325000000000003</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="G258" s="65">
-        <f t="shared" si="105"/>
-        <v>27.987000000000002</v>
-      </c>
-      <c r="K258" s="65">
-        <f t="shared" si="106"/>
-        <v>31.902000000000001</v>
+      <c r="A258" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="G258" s="60">
+        <f>SUM(G$161:G$162)+G$148+$G110</f>
+        <v>30.673000000000002</v>
+      </c>
+      <c r="K258" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K110</f>
+        <v>36.646000000000001</v>
       </c>
       <c r="L258" s="60">
-        <f t="shared" si="107"/>
-        <v>32.564999999999998</v>
+        <f>SUM(L$161:L$162)+L$148+$L110</f>
+        <v>38.505000000000003</v>
       </c>
       <c r="M258" s="60">
-        <f t="shared" si="108"/>
-        <v>35.625</v>
+        <f>SUM(M$161:M$162)+M$148+$M110</f>
+        <v>43.174999999999997</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="54"/>
+      <c r="A259" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="G259" s="60">
+        <f>SUM(G$161:G$162)+G$148+$G111</f>
+        <v>29.742000000000001</v>
+      </c>
+      <c r="K259" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K111</f>
+        <v>32.921999999999997</v>
+      </c>
+      <c r="L259" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L111</f>
+        <v>34.515000000000001</v>
+      </c>
+      <c r="M259" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M111</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="260" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="56" t="s">
-        <v>162</v>
+      <c r="A260" s="57" t="s">
+        <v>227</v>
       </c>
       <c r="G260" s="60">
-        <f>SUM(G$164:G$165)+G$148+$G109</f>
-        <v>29.791</v>
+        <f>SUM(G$161:G$162)+G$148+$G112</f>
+        <v>30.771000000000001</v>
       </c>
       <c r="K260" s="60">
-        <f>SUM(K$164:K$165)+K$148+$K109</f>
-        <v>33.118000000000002</v>
+        <f>SUM(K$161:K$162)+K$148+$K112</f>
+        <v>37.038000000000004</v>
       </c>
       <c r="L260" s="60">
-        <f>SUM(L$164:L$165)+L$148+$L109</f>
-        <v>34.725000000000001</v>
+        <f>SUM(L$161:L$162)+L$148+$L112</f>
+        <v>38.925000000000004</v>
       </c>
       <c r="M260" s="60">
-        <f>SUM(M$164:M$165)+M$148+$M109</f>
-        <v>37.325000000000003</v>
+        <f>SUM(M$161:M$162)+M$148+$M112</f>
+        <v>43.825000000000003</v>
       </c>
     </row>
     <row r="261" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="57" t="s">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="G261" s="60">
-        <f>SUM(G$164:G$165)+G$148+$G110</f>
+        <f>SUM(G$161:G$162)+G$148+$G113</f>
+        <v>29.742000000000001</v>
+      </c>
+      <c r="K261" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K113</f>
+        <v>32.921999999999997</v>
+      </c>
+      <c r="L261" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L113</f>
+        <v>34.515000000000001</v>
+      </c>
+      <c r="M261" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M113</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A262" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="G262" s="65">
+        <f>SUM(G$161:G$162)+G$148+$G114</f>
+        <v>29.301000000000002</v>
+      </c>
+      <c r="K262" s="65">
+        <f>SUM(K$161:K$162)+K$148+$K114</f>
+        <v>31.158000000000001</v>
+      </c>
+      <c r="L262" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L114</f>
+        <v>32.625</v>
+      </c>
+      <c r="M262" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M114</f>
+        <v>34.075000000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A263" s="54"/>
+    </row>
+    <row r="264" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A264" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="G264" s="60">
+        <f>SUM(G$161:G$162)+G$148+$G116</f>
+        <v>29.791</v>
+      </c>
+      <c r="K264" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K116</f>
+        <v>33.118000000000002</v>
+      </c>
+      <c r="L264" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L116</f>
+        <v>34.725000000000001</v>
+      </c>
+      <c r="M264" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M116</f>
+        <v>37.325000000000003</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A265" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="G265" s="60">
+        <f>SUM(G$161:G$162)+G$148+$G117</f>
         <v>30.673000000000002</v>
       </c>
-      <c r="K261" s="60">
-        <f t="shared" ref="K261:K265" si="109">SUM(K$164:K$165)+K$148+$K110</f>
+      <c r="K265" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K117</f>
         <v>36.646000000000001</v>
       </c>
-      <c r="L261" s="60">
-        <f t="shared" ref="L261:L265" si="110">SUM(L$164:L$165)+L$148+$L110</f>
+      <c r="L265" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L117</f>
         <v>38.505000000000003</v>
       </c>
-      <c r="M261" s="60">
-        <f t="shared" ref="M261:M265" si="111">SUM(M$164:M$165)+M$148+$M110</f>
+      <c r="M265" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M117</f>
         <v>43.174999999999997</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="G262" s="60">
-        <f t="shared" ref="G262:G265" si="112">SUM(G$164:G$165)+G$148+$G111</f>
+    <row r="266" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A266" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="G266" s="60">
+        <f>SUM(G$161:G$162)+G$148+$G118</f>
         <v>29.742000000000001</v>
       </c>
-      <c r="K262" s="60">
-        <f t="shared" si="109"/>
+      <c r="K266" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K118</f>
         <v>32.921999999999997</v>
       </c>
-      <c r="L262" s="60">
-        <f t="shared" si="110"/>
+      <c r="L266" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L118</f>
         <v>34.515000000000001</v>
       </c>
-      <c r="M262" s="60">
-        <f t="shared" si="111"/>
+      <c r="M266" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M118</f>
         <v>37</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="G263" s="60">
-        <f t="shared" si="112"/>
+    <row r="267" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A267" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="G267" s="60">
+        <f>SUM(G$161:G$162)+G$148+$G119</f>
         <v>30.771000000000001</v>
       </c>
-      <c r="K263" s="60">
-        <f t="shared" si="109"/>
+      <c r="K267" s="60">
+        <f>SUM(K$161:K$162)+K$148+$K119</f>
         <v>37.038000000000004</v>
       </c>
-      <c r="L263" s="60">
-        <f t="shared" si="110"/>
+      <c r="L267" s="60">
+        <f>SUM(L$161:L$162)+L$148+$L119</f>
         <v>38.925000000000004</v>
       </c>
-      <c r="M263" s="60">
-        <f t="shared" si="111"/>
+      <c r="M267" s="60">
+        <f>SUM(M$161:M$162)+M$148+$M119</f>
         <v>43.825000000000003</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G264" s="60">
-        <f t="shared" si="112"/>
-        <v>29.742000000000001</v>
-      </c>
-      <c r="K264" s="60">
-        <f t="shared" si="109"/>
-        <v>32.921999999999997</v>
-      </c>
-      <c r="L264" s="60">
-        <f t="shared" si="110"/>
-        <v>34.515000000000001</v>
-      </c>
-      <c r="M264" s="60">
-        <f t="shared" si="111"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="G265" s="65">
-        <f t="shared" si="112"/>
-        <v>29.301000000000002</v>
-      </c>
-      <c r="K265" s="65">
-        <f t="shared" si="109"/>
-        <v>31.158000000000001</v>
-      </c>
-      <c r="L265" s="60">
-        <f t="shared" si="110"/>
-        <v>32.625</v>
-      </c>
-      <c r="M265" s="60">
-        <f t="shared" si="111"/>
-        <v>34.075000000000003</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="54"/>
-    </row>
-    <row r="267" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="G267" s="60">
-        <f>SUM(G$164:G$165)+G$148+$G116</f>
-        <v>29.791</v>
-      </c>
-      <c r="K267" s="60">
-        <f>SUM(K$164:K$165)+K$148+$K116</f>
-        <v>33.118000000000002</v>
-      </c>
-      <c r="L267" s="60">
-        <f>SUM(L$164:L$165)+L$148+$L116</f>
-        <v>34.725000000000001</v>
-      </c>
-      <c r="M267" s="60">
-        <f>SUM(M$164:M$165)+M$148+$M116</f>
-        <v>37.325000000000003</v>
       </c>
     </row>
     <row r="268" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="57" t="s">
-        <v>195</v>
+        <v>304</v>
       </c>
       <c r="G268" s="60">
-        <f>SUM(G$164:G$165)+G$148+$G117</f>
-        <v>30.673000000000002</v>
+        <f>SUM(G$161:G$162)+G$148+$G120</f>
+        <v>29.742000000000001</v>
       </c>
       <c r="K268" s="60">
-        <f t="shared" ref="K268:K272" si="113">SUM(K$164:K$165)+K$148+$K117</f>
-        <v>36.646000000000001</v>
+        <f>SUM(K$161:K$162)+K$148+$K120</f>
+        <v>32.921999999999997</v>
       </c>
       <c r="L268" s="60">
-        <f t="shared" ref="L268:L272" si="114">SUM(L$164:L$165)+L$148+$L117</f>
-        <v>38.505000000000003</v>
+        <f>SUM(L$161:L$162)+L$148+$L120</f>
+        <v>34.515000000000001</v>
       </c>
       <c r="M268" s="60">
-        <f t="shared" ref="M268:M272" si="115">SUM(M$164:M$165)+M$148+$M117</f>
-        <v>43.174999999999997</v>
+        <f>SUM(M$161:M$162)+M$148+$M120</f>
+        <v>37</v>
       </c>
     </row>
     <row r="269" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="G269" s="60">
-        <f>SUM(G$164:G$165)+G$148+$G118</f>
-        <v>29.742000000000001</v>
-      </c>
-      <c r="K269" s="60">
-        <f t="shared" si="113"/>
-        <v>32.921999999999997</v>
+      <c r="A269" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="G269" s="65">
+        <f>SUM(G$161:G$162)+G$148+$G121</f>
+        <v>29.301000000000002</v>
+      </c>
+      <c r="K269" s="65">
+        <f>SUM(K$161:K$162)+K$148+$K121</f>
+        <v>31.158000000000001</v>
       </c>
       <c r="L269" s="60">
-        <f t="shared" si="114"/>
-        <v>34.515000000000001</v>
+        <f>SUM(L$161:L$162)+L$148+$L121</f>
+        <v>32.625</v>
       </c>
       <c r="M269" s="60">
-        <f t="shared" si="115"/>
-        <v>37</v>
+        <f>SUM(M$161:M$162)+M$148+$M121</f>
+        <v>34.075000000000003</v>
       </c>
     </row>
     <row r="270" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="G270" s="60">
-        <f>SUM(G$164:G$165)+G$148+$G119</f>
-        <v>30.771000000000001</v>
-      </c>
-      <c r="K270" s="60">
-        <f t="shared" si="113"/>
-        <v>37.038000000000004</v>
-      </c>
-      <c r="L270" s="60">
-        <f t="shared" si="114"/>
-        <v>38.925000000000004</v>
-      </c>
-      <c r="M270" s="60">
-        <f t="shared" si="115"/>
-        <v>43.825000000000003</v>
-      </c>
+      <c r="A270" s="54"/>
     </row>
     <row r="271" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="57" t="s">
-        <v>85</v>
+      <c r="A271" s="56" t="s">
+        <v>220</v>
       </c>
       <c r="G271" s="60">
-        <f>SUM(G$164:G$165)+G$148+$G120</f>
-        <v>29.742000000000001</v>
+        <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$156+$G158+$G160+$G123</f>
+        <v>54.59</v>
       </c>
       <c r="K271" s="60">
-        <f t="shared" si="113"/>
-        <v>32.921999999999997</v>
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$156+$K158+$K160+$K123</f>
+        <v>60.72999999999999</v>
       </c>
       <c r="L271" s="60">
-        <f t="shared" si="114"/>
-        <v>34.515000000000001</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$156+$L158+$L160+$K123</f>
+        <v>61.364999999999995</v>
       </c>
       <c r="M271" s="60">
-        <f t="shared" si="115"/>
-        <v>37</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$156+$M158+$M160+$K123</f>
+        <v>62.864999999999995</v>
       </c>
     </row>
     <row r="272" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="G272" s="65">
-        <f>SUM(G$164:G$165)+G$148+$G121</f>
-        <v>29.301000000000002</v>
-      </c>
-      <c r="K272" s="65">
-        <f t="shared" si="113"/>
-        <v>31.158000000000001</v>
+      <c r="A272" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="G272" s="60">
+        <f t="shared" ref="G272:G273" si="55">SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$156+$G159+$G161+$G124</f>
+        <v>30.686000000000003</v>
+      </c>
+      <c r="K272" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$156+$K159+$K161+$K124</f>
+        <v>37.413999999999994</v>
       </c>
       <c r="L272" s="60">
-        <f t="shared" si="114"/>
-        <v>32.625</v>
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$156+$L159+$L161+$K124</f>
+        <v>39.249000000000002</v>
       </c>
       <c r="M272" s="60">
-        <f t="shared" si="115"/>
-        <v>34.075000000000003</v>
+        <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$156+$K159+$M161+$K124</f>
+        <v>39.548999999999999</v>
       </c>
     </row>
     <row r="273" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="54"/>
-    </row>
-    <row r="274" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A274" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="G274" s="60">
-        <f>SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$156+G$158+G$160+$G123</f>
-        <v>53.59</v>
-      </c>
-      <c r="K274" s="60">
-        <f>SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$156+K$158+K$160+$K123</f>
-        <v>59.72999999999999</v>
-      </c>
-      <c r="L274" s="60">
-        <f>SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$156+L$158+L$160+$L123</f>
-        <v>64.574999999999989</v>
-      </c>
-      <c r="M274" s="60">
-        <f>SUM(M$164:M$165)+M$147+M$149+M$150+M$152+M$153+M$155+M$156+M$158+M$160+$L123</f>
-        <v>66.074999999999989</v>
-      </c>
-    </row>
+      <c r="A273" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="G273" s="60">
+        <f t="shared" si="55"/>
+        <v>58.522000000000006</v>
+      </c>
+      <c r="K273" s="60">
+        <f>SUM(K$161:K$162)+K$147+K$149+K$150+K$152+K$153+K$155+K$156+$K160+$K162+$K125</f>
+        <v>65.304000000000002</v>
+      </c>
+      <c r="L273" s="60">
+        <f>SUM(L$161:L$162)+L$147+L$149+L$150+L$152+L$153+L$155+L$156+$L160+$L162+$K125</f>
+        <v>63.712000000000003</v>
+      </c>
+      <c r="M273" s="60">
+        <f t="shared" ref="M273" si="56">SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$156+$K160+$K162+$K125</f>
+        <v>67.112000000000009</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="275" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A275" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="G275" s="60">
-        <f t="shared" ref="G275:G276" si="116">SUM(G$164:G$165)+G$147+G$149+G$150+G$152+G$153+G$155+G$156+G$158+G$160+$G124</f>
-        <v>53.786000000000001</v>
-      </c>
-      <c r="K275" s="60">
-        <f t="shared" ref="K275:K276" si="117">SUM(K$164:K$165)+K$147+K$149+K$150+K$152+K$153+K$155+K$156+K$158+K$160+$K124</f>
-        <v>60.513999999999996</v>
-      </c>
-      <c r="L275" s="60">
-        <f t="shared" ref="L275:M276" si="118">SUM(L$164:L$165)+L$147+L$149+L$150+L$152+L$153+L$155+L$156+L$158+L$160+$L124</f>
-        <v>67.094999999999999</v>
-      </c>
-      <c r="M275" s="60">
-        <f t="shared" si="118"/>
-        <v>68.594999999999999</v>
+      <c r="A275" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="G275" s="97">
+        <f>MIN(G167:G273)</f>
+        <v>27.252000000000002</v>
+      </c>
+      <c r="K275" s="97">
+        <f>MIN(K167:K273)</f>
+        <v>28.962</v>
+      </c>
+      <c r="L275" s="97">
+        <f>MIN(L167:L273)</f>
+        <v>29.414999999999999</v>
+      </c>
+      <c r="M275" s="97">
+        <f t="shared" ref="M275" si="57">MIN(M167:M273)</f>
+        <v>30.75</v>
       </c>
     </row>
     <row r="276" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="G276" s="65">
-        <f t="shared" si="116"/>
-        <v>53.933000000000007</v>
-      </c>
-      <c r="K276" s="65">
-        <f t="shared" si="117"/>
-        <v>61.10199999999999</v>
-      </c>
-      <c r="L276" s="60">
-        <f t="shared" si="118"/>
-        <v>67.724999999999994</v>
-      </c>
-      <c r="M276" s="60">
-        <f t="shared" si="118"/>
-        <v>69.224999999999994</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="278" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="G278" s="100">
-        <f>MIN(G170:G276)</f>
+      <c r="G276" s="97">
+        <f>MAX(G167:G273)</f>
+        <v>58.522000000000006</v>
+      </c>
+      <c r="K276" s="97">
+        <f>MAX(K167:K273)</f>
+        <v>65.304000000000002</v>
+      </c>
+      <c r="L276" s="97">
+        <f t="shared" ref="L276:M276" si="58">MAX(L167:L273)</f>
+        <v>63.712000000000003</v>
+      </c>
+      <c r="M276" s="97">
+        <f t="shared" si="58"/>
+        <v>67.112000000000009</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="279" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A279" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="C279" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="D279" s="116"/>
+      <c r="E279" s="117"/>
+      <c r="G279" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="H279" s="116"/>
+      <c r="I279" s="117"/>
+    </row>
+    <row r="280" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A280" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C280" s="101">
+        <v>47</v>
+      </c>
+      <c r="D280" s="102">
+        <v>862</v>
+      </c>
+      <c r="E280" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="G280" s="106">
+        <v>950</v>
+      </c>
+      <c r="H280" s="107">
+        <v>2150</v>
+      </c>
+      <c r="I280" s="103" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A281" s="98" t="s">
+        <v>212</v>
+      </c>
+      <c r="C281" s="104">
+        <f>G275</f>
         <v>27.252000000000002</v>
       </c>
-      <c r="K278" s="100">
-        <f>MIN(K170:K276)</f>
+      <c r="D281" s="104">
+        <f>K275</f>
         <v>28.962</v>
       </c>
-      <c r="L278" s="100">
-        <f>MIN(L170:L276)</f>
+      <c r="E281" s="104">
+        <f>D281-C281</f>
+        <v>1.7099999999999973</v>
+      </c>
+      <c r="G281" s="21">
+        <f>L275</f>
         <v>29.414999999999999</v>
       </c>
-      <c r="M278" s="100">
-        <f t="shared" ref="M278" si="119">MIN(M170:M276)</f>
+      <c r="H281" s="21">
+        <f>M275</f>
         <v>30.75</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="G279" s="100">
-        <f>MAX(G170:G276)</f>
-        <v>53.933000000000007</v>
-      </c>
-      <c r="K279" s="100">
-        <f>MAX(K170:K276)</f>
-        <v>61.10199999999999</v>
-      </c>
-      <c r="L279" s="100">
-        <f t="shared" ref="L279:M279" si="120">MAX(L170:L276)</f>
-        <v>67.724999999999994</v>
-      </c>
-      <c r="M279" s="100">
-        <f t="shared" si="120"/>
-        <v>69.224999999999994</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="I281" s="21">
+        <f>H281-G281</f>
+        <v>1.3350000000000009</v>
+      </c>
+    </row>
     <row r="282" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A282" s="102" t="s">
-        <v>212</v>
-      </c>
-      <c r="C282" s="108" t="s">
-        <v>217</v>
-      </c>
-      <c r="D282" s="109"/>
-      <c r="E282" s="110"/>
-      <c r="G282" s="108" t="s">
-        <v>218</v>
-      </c>
-      <c r="H282" s="109"/>
-      <c r="I282" s="110"/>
+      <c r="A282" s="97" t="s">
+        <v>213</v>
+      </c>
+      <c r="C282" s="104">
+        <f>G276</f>
+        <v>58.522000000000006</v>
+      </c>
+      <c r="D282" s="104">
+        <f>K276</f>
+        <v>65.304000000000002</v>
+      </c>
+      <c r="E282" s="104">
+        <f>D282-C282</f>
+        <v>6.7819999999999965</v>
+      </c>
+      <c r="G282" s="21">
+        <f>L276</f>
+        <v>63.712000000000003</v>
+      </c>
+      <c r="H282" s="21">
+        <f>M276</f>
+        <v>67.112000000000009</v>
+      </c>
+      <c r="I282" s="21">
+        <f>H282-G282</f>
+        <v>3.4000000000000057</v>
+      </c>
     </row>
     <row r="283" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A283" s="103" t="s">
-        <v>216</v>
+      <c r="A283" s="97" t="s">
+        <v>214</v>
       </c>
       <c r="C283" s="104">
-        <v>47</v>
-      </c>
-      <c r="D283" s="105">
-        <v>862</v>
-      </c>
-      <c r="E283" s="106" t="s">
-        <v>215</v>
-      </c>
-      <c r="G283" s="112">
-        <v>950</v>
-      </c>
-      <c r="H283" s="113">
-        <v>2150</v>
-      </c>
-      <c r="I283" s="106" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A284" s="101" t="s">
-        <v>213</v>
-      </c>
-      <c r="C284" s="107">
-        <f>G278</f>
-        <v>27.252000000000002</v>
-      </c>
-      <c r="D284" s="107">
-        <f>K278</f>
-        <v>28.962</v>
-      </c>
-      <c r="E284" s="107">
-        <f>D284-C284</f>
-        <v>1.7099999999999973</v>
-      </c>
-      <c r="G284" s="21">
-        <f>L278</f>
-        <v>29.414999999999999</v>
-      </c>
-      <c r="H284" s="21">
-        <f>M278</f>
-        <v>30.75</v>
-      </c>
-      <c r="I284" s="21">
-        <f>H284-G284</f>
-        <v>1.3350000000000009</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A285" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="C285" s="107">
-        <f>G279</f>
-        <v>53.933000000000007</v>
-      </c>
-      <c r="D285" s="107">
-        <f>K279</f>
-        <v>61.10199999999999</v>
-      </c>
-      <c r="E285" s="107">
-        <f>D285-C285</f>
-        <v>7.1689999999999827</v>
-      </c>
-      <c r="G285" s="21">
-        <f>L279</f>
-        <v>67.724999999999994</v>
-      </c>
-      <c r="H285" s="21">
-        <f>M279</f>
-        <v>69.224999999999994</v>
-      </c>
-      <c r="I285" s="21">
-        <f>H285-G285</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A286" s="100" t="s">
-        <v>215</v>
-      </c>
-      <c r="C286" s="107">
-        <f>C285-C284</f>
-        <v>26.681000000000004</v>
-      </c>
-      <c r="D286" s="107">
-        <f>D285-D284</f>
-        <v>32.139999999999986</v>
-      </c>
-      <c r="E286" s="111">
-        <f>D285-C284</f>
-        <v>33.849999999999987</v>
-      </c>
-      <c r="G286" s="21">
-        <f>G285-G284</f>
-        <v>38.309999999999995</v>
-      </c>
-      <c r="H286" s="21">
-        <f>H285-H284</f>
-        <v>38.474999999999994</v>
-      </c>
-      <c r="I286" s="120">
-        <f>H285-G284</f>
-        <v>39.809999999999995</v>
+        <f>C282-C281</f>
+        <v>31.270000000000003</v>
+      </c>
+      <c r="D283" s="104">
+        <f>D282-D281</f>
+        <v>36.341999999999999</v>
+      </c>
+      <c r="E283" s="105">
+        <f>D282-C281</f>
+        <v>38.052</v>
+      </c>
+      <c r="G283" s="21">
+        <f>G282-G281</f>
+        <v>34.297000000000004</v>
+      </c>
+      <c r="H283" s="21">
+        <f>H282-H281</f>
+        <v>36.362000000000009</v>
+      </c>
+      <c r="I283" s="114">
+        <f>H282-G281</f>
+        <v>37.69700000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C282:E282"/>
-    <mergeCell ref="G282:I282"/>
+    <mergeCell ref="C279:E279"/>
+    <mergeCell ref="G279:I279"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7991,49 +8151,49 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
       <c r="F1" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="47" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="47" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
@@ -8075,7 +8235,7 @@
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8085,7 +8245,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2">
         <v>0.05</v>
@@ -8126,12 +8286,12 @@
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -8148,7 +8308,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -8165,7 +8325,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -8221,27 +8381,27 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="D1" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="E1" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="F1" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="G1" s="76" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="77">
         <v>2.5</v>
@@ -8261,7 +8421,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="77">
         <v>2.5</v>
@@ -8281,7 +8441,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="77">
         <v>3</v>
@@ -8301,7 +8461,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="78">
         <v>3</v>
@@ -8321,7 +8481,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="77">
         <v>3</v>
@@ -8341,7 +8501,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="77">
         <v>0.75</v>
@@ -8361,21 +8521,21 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="D10" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="79" t="s">
-        <v>116</v>
-      </c>
       <c r="E10" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="77">
         <v>0.25</v>
@@ -8389,7 +8549,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="77">
         <v>0.35</v>
@@ -8402,38 +8562,38 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E15" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="98"/>
+      <c r="E15" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="119"/>
       <c r="G15" s="81"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="D16" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="E16" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="F16" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="79" t="s">
-        <v>124</v>
-      </c>
       <c r="G16" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="77">
         <v>1</v>
@@ -8450,10 +8610,10 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="77">
         <v>2</v>
@@ -8470,10 +8630,10 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="79" t="s">
         <v>126</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>127</v>
       </c>
       <c r="D19" s="77">
         <v>13</v>
@@ -8490,10 +8650,10 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="79" t="s">
         <v>128</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>129</v>
       </c>
       <c r="D20" s="78">
         <v>15</v>
@@ -8510,7 +8670,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C21" s="79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="77">
         <v>17</v>
@@ -8527,7 +8687,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C22" s="79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="77">
         <v>19</v>
@@ -8544,10 +8704,10 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C23" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="77" t="s">
         <v>132</v>
-      </c>
-      <c r="D23" s="77" t="s">
-        <v>133</v>
       </c>
       <c r="E23" s="77">
         <v>140</v>
@@ -8561,32 +8721,32 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="D27" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="E27" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="79" t="s">
+      <c r="F27" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="79" t="s">
-        <v>139</v>
-      </c>
       <c r="G27" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="82">
         <v>0.6</v>
@@ -8606,7 +8766,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="82">
         <v>0.65</v>
@@ -8626,7 +8786,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="83">
         <v>0.8</v>
@@ -8646,7 +8806,7 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="82">
         <v>0.9</v>
@@ -8666,7 +8826,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="82">
         <v>1</v>
@@ -8686,7 +8846,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="82">
         <v>1.1000000000000001</v>
@@ -8706,7 +8866,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="82">
         <v>1.25</v>
@@ -8726,7 +8886,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="82">
         <v>1.8</v>
@@ -8746,7 +8906,7 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" s="77">
         <v>3</v>
@@ -8754,7 +8914,7 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" s="77">
         <v>6</v>
@@ -8762,15 +8922,15 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F40" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="85" t="s">
         <v>144</v>
-      </c>
-      <c r="G40" s="85" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F41" s="86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G41" s="85">
         <v>800</v>

--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crisb\OneDrive - UPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4231" documentId="8_{6E9563CF-F49F-40F4-A4B4-1887230ABF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B60B83D8-44BC-404C-B192-345433790CC3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCABF17B-4915-49D3-973F-BDBDC320AE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4347C519-B6F4-4BE5-85E3-94D0FBA9924D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4347C519-B6F4-4BE5-85E3-94D0FBA9924D}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="276">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -552,12 +552,6 @@
     <t>Variation in outlets</t>
   </si>
   <si>
-    <t>MATV (margin of 23 dB)</t>
-  </si>
-  <si>
-    <t>IF (margin of 30 dB)</t>
-  </si>
-  <si>
     <t>Gym 2 floor1</t>
   </si>
   <si>
@@ -829,6 +823,48 @@
   </si>
   <si>
     <t>Network planicity</t>
+  </si>
+  <si>
+    <t>Z-MODULE AMPLIFIERS (HEADEND)</t>
+  </si>
+  <si>
+    <t>Maximum gain (dB)</t>
+  </si>
+  <si>
+    <t>Margin of reduction in gain of amplifier (dB)</t>
+  </si>
+  <si>
+    <t>Noise Figure (dB)</t>
+  </si>
+  <si>
+    <t>Smax amplifier IMD2- 35dB (dBuV)</t>
+  </si>
+  <si>
+    <t>Reference S/I (dB)</t>
+  </si>
+  <si>
+    <t>MAST AMPLIFIER</t>
+  </si>
+  <si>
+    <t>Smax amplifier IMD-35 dB (dBuV)</t>
+  </si>
+  <si>
+    <t>FIELDSTRENGTH MEASUREMENTS</t>
+  </si>
+  <si>
+    <t>Vrec (dBuV)</t>
+  </si>
+  <si>
+    <t>Ganancia antena (dBi)</t>
+  </si>
+  <si>
+    <t>Einc(dBuV/m)</t>
+  </si>
+  <si>
+    <t>Emin(dBuV/m)</t>
+  </si>
+  <si>
+    <t>Distribuited?</t>
   </si>
 </sst>
 </file>
@@ -899,7 +935,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -984,8 +1020,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1252,26 +1300,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1348,7 +1376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1548,36 +1576,21 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1596,14 +1609,35 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1626,10 +1660,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1931,13 +1961,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555848AA-6603-4FF7-9150-EEA00320E63B}">
   <dimension ref="A1:O288"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A294" sqref="A294"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.1796875" customWidth="1"/>
+    <col min="1" max="1" width="56.90625" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" customWidth="1"/>
     <col min="3" max="3" width="21.36328125" customWidth="1"/>
     <col min="4" max="4" width="16.54296875" customWidth="1"/>
@@ -2299,13 +2329,13 @@
       <c r="G18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="89" t="s">
+      <c r="K18" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="91" t="s">
+      <c r="L18" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="M18" s="92" t="s">
+      <c r="M18" s="90" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2335,11 +2365,11 @@
         <f>(D19*M$6)+M$11+(E$19*M$5)+M$13</f>
         <v>22.924999999999997</v>
       </c>
-      <c r="N19" s="104">
+      <c r="N19" s="99">
         <f>($D19*N$6)+C$11+(E$19*N$5)+C$13</f>
         <v>5.7629999999999999</v>
       </c>
-      <c r="O19" s="104">
+      <c r="O19" s="99">
         <f>($D19*O$6)+D$11+(E$19*O$5)+D$13</f>
         <v>5.335</v>
       </c>
@@ -2367,11 +2397,11 @@
         <f t="shared" ref="M20:M23" si="0">(D20*M$6)+M$11+(E$19*M$5)+M$13</f>
         <v>21.95</v>
       </c>
-      <c r="N20" s="104">
+      <c r="N20" s="99">
         <f>($D20*N$6)+C$11+(E$19*N$5)+C$13</f>
         <v>5.3219999999999992</v>
       </c>
-      <c r="O20" s="104">
+      <c r="O20" s="99">
         <f>($D20*O$6)+D$11+(E$19*O$5)+D$13</f>
         <v>4.99</v>
       </c>
@@ -2399,11 +2429,11 @@
         <f t="shared" si="0"/>
         <v>20.65</v>
       </c>
-      <c r="N21" s="104">
+      <c r="N21" s="99">
         <f>($D21*N$6)+C$11+(E$19*N$5)+C$13</f>
         <v>4.734</v>
       </c>
-      <c r="O21" s="104">
+      <c r="O21" s="99">
         <f>($D21*O$6)+D$11+(E$19*O$5)+D$13</f>
         <v>4.53</v>
       </c>
@@ -2431,11 +2461,11 @@
         <f t="shared" si="0"/>
         <v>16.425000000000001</v>
       </c>
-      <c r="N22" s="104">
+      <c r="N22" s="99">
         <f>($D22*N$6)+C$11+(E$19*N$5)+C$13</f>
         <v>2.823</v>
       </c>
-      <c r="O22" s="104">
+      <c r="O22" s="99">
         <f t="shared" ref="O22:O23" si="2">($D22*O$6)+D$11+(E$19*O$5)+D$13</f>
         <v>3.0350000000000001</v>
       </c>
@@ -2463,19 +2493,19 @@
         <f t="shared" si="0"/>
         <v>21.299999999999997</v>
       </c>
-      <c r="N23" s="104">
+      <c r="N23" s="99">
         <f>($D23*N$6)+C$11+(E$19*N$5)+C$13</f>
         <v>5.0279999999999996</v>
       </c>
-      <c r="O23" s="104">
+      <c r="O23" s="99">
         <f t="shared" si="2"/>
         <v>4.76</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="52"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="54" t="s">
@@ -2491,23 +2521,23 @@
         <f>(D25*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.420999999999999</v>
       </c>
-      <c r="K25" s="93">
+      <c r="K25" s="91">
         <f>(D25*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>16.684000000000001</v>
       </c>
-      <c r="L25" s="93">
+      <c r="L25" s="91">
         <f>(D25*L$6)+L$11+(E$25*L$5)+L$13</f>
         <v>19.59</v>
       </c>
-      <c r="M25" s="93">
+      <c r="M25" s="91">
         <f>(D25*M$6)+M$11+(E$25*M$5)+M$13</f>
         <v>22.924999999999997</v>
       </c>
-      <c r="N25" s="104">
+      <c r="N25" s="99">
         <f>($D25*N$6)+C$11+(E$25*N$5)+C$13</f>
         <v>5.7629999999999999</v>
       </c>
-      <c r="O25" s="104">
+      <c r="O25" s="99">
         <f>($D25*O$6)+D$11+(E$25*O$5)+D$13</f>
         <v>5.335</v>
       </c>
@@ -2523,23 +2553,23 @@
         <f>(D26*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
-      <c r="K26" s="93">
+      <c r="K26" s="91">
         <f>(D26*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-      <c r="L26" s="93">
+      <c r="L26" s="91">
         <f>(D26*L$6)+L$11+(E$25*L$5)+L$13</f>
         <v>18.12</v>
       </c>
-      <c r="M26" s="93">
+      <c r="M26" s="91">
         <f t="shared" ref="M26:M29" si="3">(D26*M$6)+M$11+(E$25*M$5)+M$13</f>
         <v>20.65</v>
       </c>
-      <c r="N26" s="104">
+      <c r="N26" s="99">
         <f t="shared" ref="N26:N29" si="4">($D26*N$6)+C$11+(E$25*N$5)+C$13</f>
         <v>4.734</v>
       </c>
-      <c r="O26" s="104">
+      <c r="O26" s="99">
         <f t="shared" ref="O26:O29" si="5">($D26*O$6)+D$11+(E$25*O$5)+D$13</f>
         <v>4.53</v>
       </c>
@@ -2555,23 +2585,23 @@
         <f>(D27*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
-      <c r="K27" s="93">
+      <c r="K27" s="91">
         <f>(D27*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
-      <c r="L27" s="93">
+      <c r="L27" s="91">
         <f t="shared" ref="L27:L29" si="6">(D27*L$6)+L$11+(E$25*L$5)+L$13</f>
         <v>18.12</v>
       </c>
-      <c r="M27" s="93">
+      <c r="M27" s="91">
         <f t="shared" si="3"/>
         <v>20.65</v>
       </c>
-      <c r="N27" s="104">
+      <c r="N27" s="99">
         <f t="shared" si="4"/>
         <v>4.734</v>
       </c>
-      <c r="O27" s="104">
+      <c r="O27" s="99">
         <f t="shared" si="5"/>
         <v>4.53</v>
       </c>
@@ -2587,23 +2617,23 @@
         <f>(D28*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>11.441000000000001</v>
       </c>
-      <c r="K28" s="93">
+      <c r="K28" s="91">
         <f>(D28*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
-      <c r="L28" s="93">
+      <c r="L28" s="91">
         <f t="shared" si="6"/>
         <v>15.39</v>
       </c>
-      <c r="M28" s="93">
+      <c r="M28" s="91">
         <f t="shared" si="3"/>
         <v>16.425000000000001</v>
       </c>
-      <c r="N28" s="104">
+      <c r="N28" s="99">
         <f t="shared" si="4"/>
         <v>2.823</v>
       </c>
-      <c r="O28" s="104">
+      <c r="O28" s="99">
         <f t="shared" si="5"/>
         <v>3.0350000000000001</v>
       </c>
@@ -2619,31 +2649,31 @@
         <f>(D29*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.176</v>
       </c>
-      <c r="K29" s="94">
+      <c r="K29" s="92">
         <f>(D29*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
-      <c r="L29" s="94">
+      <c r="L29" s="92">
         <f t="shared" si="6"/>
         <v>18.54</v>
       </c>
-      <c r="M29" s="94">
+      <c r="M29" s="92">
         <f t="shared" si="3"/>
         <v>21.299999999999997</v>
       </c>
-      <c r="N29" s="104">
+      <c r="N29" s="99">
         <f t="shared" si="4"/>
         <v>5.0279999999999996</v>
       </c>
-      <c r="O29" s="104">
+      <c r="O29" s="99">
         <f t="shared" si="5"/>
         <v>4.76</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="52"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
     </row>
     <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="54" t="s">
@@ -2659,23 +2689,23 @@
         <f t="shared" ref="G31:G36" si="7">(D31*G$6)+G$12+(E$31*G$5)+G$13</f>
         <v>13.98</v>
       </c>
-      <c r="K31" s="93">
+      <c r="K31" s="91">
         <f>(D31*K$6)+K$12+(E$31*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
-      <c r="L31" s="93">
+      <c r="L31" s="91">
         <f>(D31*L$6)+L$12+(E$31*L$5)+L$13</f>
         <v>20.700000000000003</v>
       </c>
-      <c r="M31" s="93">
+      <c r="M31" s="91">
         <f>(D31*M$6)+M$12+(E$31*M$5)+M$13</f>
         <v>23</v>
       </c>
-      <c r="N31" s="104">
+      <c r="N31" s="99">
         <f>($D31*N$6)+C$12+(E$31*N$5)+C$13</f>
         <v>4.4399999999999995</v>
       </c>
-      <c r="O31" s="104">
+      <c r="O31" s="99">
         <f>($D31*O$6)+D$12+(E$31*O$5)+D$13</f>
         <v>4.3000000000000007</v>
       </c>
@@ -2691,23 +2721,23 @@
         <f t="shared" si="7"/>
         <v>14.862</v>
       </c>
-      <c r="K32" s="93">
+      <c r="K32" s="91">
         <f t="shared" ref="K32:K36" si="8">(D32*K$6)+K$12+(E$31*K$5)+K$13</f>
         <v>20.448</v>
       </c>
-      <c r="L32" s="93">
+      <c r="L32" s="91">
         <f t="shared" ref="L32:L36" si="9">(D32*L$6)+L$12+(E$31*L$5)+L$13</f>
         <v>24.48</v>
       </c>
-      <c r="M32" s="93">
+      <c r="M32" s="91">
         <f t="shared" ref="M32:M36" si="10">(D32*M$6)+M$12+(E$31*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
-      <c r="N32" s="104">
+      <c r="N32" s="99">
         <f>($D32*N$6)+C$12+(E$31*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
-      <c r="O32" s="104">
+      <c r="O32" s="99">
         <f>($D32*O$6)+D$12+(E$31*O$5)+D$13</f>
         <v>6.37</v>
       </c>
@@ -2724,23 +2754,23 @@
         <f t="shared" si="7"/>
         <v>13.931000000000001</v>
       </c>
-      <c r="K33" s="93">
+      <c r="K33" s="91">
         <f t="shared" si="8"/>
         <v>16.724</v>
       </c>
-      <c r="L33" s="93">
+      <c r="L33" s="91">
         <f t="shared" si="9"/>
         <v>20.490000000000002</v>
       </c>
-      <c r="M33" s="93">
+      <c r="M33" s="91">
         <f t="shared" si="10"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N33" s="104">
+      <c r="N33" s="99">
         <f>($D33*N$6)+C$12+(E$31*N$5)+C$13</f>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O33" s="104">
+      <c r="O33" s="99">
         <f t="shared" ref="O33:O36" si="11">($D33*O$6)+D$12+(E$31*O$5)+D$13</f>
         <v>4.1850000000000005</v>
       </c>
@@ -2756,23 +2786,23 @@
         <f t="shared" si="7"/>
         <v>14.96</v>
       </c>
-      <c r="K34" s="93">
+      <c r="K34" s="91">
         <f t="shared" si="8"/>
         <v>20.840000000000003</v>
       </c>
-      <c r="L34" s="93">
+      <c r="L34" s="91">
         <f t="shared" si="9"/>
         <v>24.900000000000002</v>
       </c>
-      <c r="M34" s="93">
+      <c r="M34" s="91">
         <f t="shared" si="10"/>
         <v>29.5</v>
       </c>
-      <c r="N34" s="104">
+      <c r="N34" s="99">
         <f>($D34*N$6)+C$12+(E$31*N$5)+C$13</f>
         <v>7.379999999999999</v>
       </c>
-      <c r="O34" s="104">
+      <c r="O34" s="99">
         <f t="shared" si="11"/>
         <v>6.6000000000000005</v>
       </c>
@@ -2788,23 +2818,23 @@
         <f t="shared" si="7"/>
         <v>13.931000000000001</v>
       </c>
-      <c r="K35" s="93">
+      <c r="K35" s="91">
         <f t="shared" si="8"/>
         <v>16.724</v>
       </c>
-      <c r="L35" s="93">
+      <c r="L35" s="91">
         <f t="shared" si="9"/>
         <v>20.490000000000002</v>
       </c>
-      <c r="M35" s="93">
+      <c r="M35" s="91">
         <f t="shared" si="10"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N35" s="104">
+      <c r="N35" s="99">
         <f>($D35*N$6)+C$12+(E$31*N$5)+C$13</f>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O35" s="104">
+      <c r="O35" s="99">
         <f t="shared" si="11"/>
         <v>4.1850000000000005</v>
       </c>
@@ -2820,31 +2850,31 @@
         <f t="shared" si="7"/>
         <v>13.49</v>
       </c>
-      <c r="K36" s="94">
+      <c r="K36" s="92">
         <f t="shared" si="8"/>
         <v>14.96</v>
       </c>
-      <c r="L36" s="94">
+      <c r="L36" s="92">
         <f t="shared" si="9"/>
         <v>18.600000000000001</v>
       </c>
-      <c r="M36" s="94">
+      <c r="M36" s="92">
         <f t="shared" si="10"/>
         <v>19.75</v>
       </c>
-      <c r="N36" s="104">
+      <c r="N36" s="99">
         <f t="shared" ref="N36" si="12">($D36*N$6)+C$12+(E$31*N$5)+C$13</f>
         <v>2.9699999999999998</v>
       </c>
-      <c r="O36" s="104">
+      <c r="O36" s="99">
         <f t="shared" si="11"/>
         <v>3.15</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="52"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="99"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="54" t="s">
@@ -2872,11 +2902,11 @@
         <f>(D38*M$6)+M$12+(E$38*M$5)+M$13</f>
         <v>23</v>
       </c>
-      <c r="N38" s="104">
+      <c r="N38" s="99">
         <f>($D38*N$6)+C$12+(E$38*N$5)+C$13</f>
         <v>4.4399999999999995</v>
       </c>
-      <c r="O38" s="104">
+      <c r="O38" s="99">
         <f>($D38*O$6)+D$12+(E$38*O$5)+D$13</f>
         <v>4.3000000000000007</v>
       </c>
@@ -2904,11 +2934,11 @@
         <f t="shared" ref="M39:M43" si="15">(D39*M$6)+M$12+(E$38*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
-      <c r="N39" s="104">
+      <c r="N39" s="99">
         <f>($D39*N$6)+C$12+(E$38*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
-      <c r="O39" s="104">
+      <c r="O39" s="99">
         <f t="shared" ref="O39:O43" si="16">($D39*O$6)+D$12+(E$38*O$5)+D$13</f>
         <v>6.37</v>
       </c>
@@ -2936,11 +2966,11 @@
         <f t="shared" si="15"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N40" s="104">
+      <c r="N40" s="99">
         <f>($D40*N$6)+C$12+(E$38*N$5)+C$13</f>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O40" s="104">
+      <c r="O40" s="99">
         <f t="shared" si="16"/>
         <v>4.1850000000000005</v>
       </c>
@@ -2968,11 +2998,11 @@
         <f t="shared" si="15"/>
         <v>29.5</v>
       </c>
-      <c r="N41" s="104">
+      <c r="N41" s="99">
         <f t="shared" ref="N41:N43" si="18">($D41*N$6)+C$12+(E$38*N$5)+C$13</f>
         <v>7.379999999999999</v>
       </c>
-      <c r="O41" s="104">
+      <c r="O41" s="99">
         <f t="shared" si="16"/>
         <v>6.6000000000000005</v>
       </c>
@@ -3000,11 +3030,11 @@
         <f t="shared" si="15"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N42" s="104">
+      <c r="N42" s="99">
         <f t="shared" si="18"/>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O42" s="104">
+      <c r="O42" s="99">
         <f t="shared" si="16"/>
         <v>4.1850000000000005</v>
       </c>
@@ -3032,19 +3062,19 @@
         <f t="shared" si="15"/>
         <v>19.75</v>
       </c>
-      <c r="N43" s="104">
+      <c r="N43" s="99">
         <f t="shared" si="18"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="O43" s="104">
+      <c r="O43" s="99">
         <f t="shared" si="16"/>
         <v>3.15</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="52"/>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94"/>
     </row>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="54" t="s">
@@ -3072,11 +3102,11 @@
         <f>(D45*M$6)+M$11+(E$45*M$5)+M$13</f>
         <v>22.924999999999997</v>
       </c>
-      <c r="N45" s="104">
+      <c r="N45" s="99">
         <f>($D45*N$6)+C$11+(E$45*N$5)+C$13</f>
         <v>5.7629999999999999</v>
       </c>
-      <c r="O45" s="104">
+      <c r="O45" s="99">
         <f>($D45*O$6)+D$11+(E$45*O$5)+D$13</f>
         <v>5.335</v>
       </c>
@@ -3104,11 +3134,11 @@
         <f t="shared" ref="M46:M49" si="20">(D46*M$6)+M$11+(E$45*M$5)+M$13</f>
         <v>21.95</v>
       </c>
-      <c r="N46" s="104">
+      <c r="N46" s="99">
         <f t="shared" ref="N46:N48" si="21">($D46*N$6)+C$11+(E$45*N$5)+C$13</f>
         <v>5.3219999999999992</v>
       </c>
-      <c r="O46" s="104">
+      <c r="O46" s="99">
         <f t="shared" ref="O46:O49" si="22">($D46*O$6)+D$11+(E$45*O$5)+D$13</f>
         <v>4.99</v>
       </c>
@@ -3136,11 +3166,11 @@
         <f t="shared" si="20"/>
         <v>20.65</v>
       </c>
-      <c r="N47" s="104">
+      <c r="N47" s="99">
         <f t="shared" si="21"/>
         <v>4.734</v>
       </c>
-      <c r="O47" s="104">
+      <c r="O47" s="99">
         <f t="shared" si="22"/>
         <v>4.53</v>
       </c>
@@ -3168,11 +3198,11 @@
         <f t="shared" si="20"/>
         <v>16.425000000000001</v>
       </c>
-      <c r="N48" s="104">
+      <c r="N48" s="99">
         <f t="shared" si="21"/>
         <v>2.823</v>
       </c>
-      <c r="O48" s="104">
+      <c r="O48" s="99">
         <f t="shared" si="22"/>
         <v>3.0350000000000001</v>
       </c>
@@ -3200,19 +3230,19 @@
         <f t="shared" si="20"/>
         <v>21.299999999999997</v>
       </c>
-      <c r="N49" s="104">
+      <c r="N49" s="99">
         <f>($D49*N$6)+C$11+(E$45*N$5)+C$13</f>
         <v>5.0279999999999996</v>
       </c>
-      <c r="O49" s="104">
+      <c r="O49" s="99">
         <f t="shared" si="22"/>
         <v>4.76</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="52"/>
-      <c r="N50" s="99"/>
-      <c r="O50" s="99"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="94"/>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="54" t="s">
@@ -3240,11 +3270,11 @@
         <f>(D51*M$6)+M$11+(E$51*M$5)+M$13</f>
         <v>22.924999999999997</v>
       </c>
-      <c r="N51" s="104">
+      <c r="N51" s="99">
         <f>($D51*N$6)+C$11+(E$51*N$5)+C$13</f>
         <v>5.7629999999999999</v>
       </c>
-      <c r="O51" s="104">
+      <c r="O51" s="99">
         <f>($D51*O$6)+D$11+(E$51*O$5)+D$13</f>
         <v>5.335</v>
       </c>
@@ -3272,11 +3302,11 @@
         <f t="shared" ref="M52:M55" si="24">(D52*M$6)+M$11+(E$51*M$5)+M$13</f>
         <v>20.65</v>
       </c>
-      <c r="N52" s="104">
+      <c r="N52" s="99">
         <f t="shared" ref="N52:N55" si="25">($D52*N$6)+C$11+(E$51*N$5)+C$13</f>
         <v>4.734</v>
       </c>
-      <c r="O52" s="104">
+      <c r="O52" s="99">
         <f t="shared" ref="O52:O55" si="26">($D52*O$6)+D$11+(E$51*O$5)+D$13</f>
         <v>4.53</v>
       </c>
@@ -3304,11 +3334,11 @@
         <f t="shared" si="24"/>
         <v>20.65</v>
       </c>
-      <c r="N53" s="104">
+      <c r="N53" s="99">
         <f t="shared" si="25"/>
         <v>4.734</v>
       </c>
-      <c r="O53" s="104">
+      <c r="O53" s="99">
         <f t="shared" si="26"/>
         <v>4.53</v>
       </c>
@@ -3336,11 +3366,11 @@
         <f t="shared" si="24"/>
         <v>16.425000000000001</v>
       </c>
-      <c r="N54" s="104">
+      <c r="N54" s="99">
         <f t="shared" si="25"/>
         <v>2.823</v>
       </c>
-      <c r="O54" s="104">
+      <c r="O54" s="99">
         <f t="shared" si="26"/>
         <v>3.0350000000000001</v>
       </c>
@@ -3368,19 +3398,19 @@
         <f t="shared" si="24"/>
         <v>21.299999999999997</v>
       </c>
-      <c r="N55" s="104">
+      <c r="N55" s="99">
         <f t="shared" si="25"/>
         <v>5.0279999999999996</v>
       </c>
-      <c r="O55" s="104">
+      <c r="O55" s="99">
         <f t="shared" si="26"/>
         <v>4.76</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="52"/>
-      <c r="N56" s="99"/>
-      <c r="O56" s="99"/>
+      <c r="N56" s="94"/>
+      <c r="O56" s="94"/>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="54" t="s">
@@ -3408,11 +3438,11 @@
         <f>(D57*M$6)+M$12+(E$57*M$5)+M$13</f>
         <v>23</v>
       </c>
-      <c r="N57" s="104">
+      <c r="N57" s="99">
         <f>($D57*N$6)+C$12+(E$57*N$5)+C$13</f>
         <v>4.4399999999999995</v>
       </c>
-      <c r="O57" s="104">
+      <c r="O57" s="99">
         <f>($D57*O$6)+D$12+(E$57*O$5)+D$13</f>
         <v>4.3000000000000007</v>
       </c>
@@ -3440,11 +3470,11 @@
         <f t="shared" ref="M58:M62" si="30">(D58*M$6)+M$12+(E$57*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
-      <c r="N58" s="104">
+      <c r="N58" s="99">
         <f t="shared" ref="N58:N62" si="31">($D58*N$6)+C$12+(E$57*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
-      <c r="O58" s="104">
+      <c r="O58" s="99">
         <f t="shared" ref="O58:O62" si="32">($D58*O$6)+D$12+(E$57*O$5)+D$13</f>
         <v>6.37</v>
       </c>
@@ -3472,11 +3502,11 @@
         <f t="shared" si="30"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N59" s="104">
+      <c r="N59" s="99">
         <f t="shared" si="31"/>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O59" s="104">
+      <c r="O59" s="99">
         <f t="shared" si="32"/>
         <v>4.1850000000000005</v>
       </c>
@@ -3504,11 +3534,11 @@
         <f t="shared" si="30"/>
         <v>29.5</v>
       </c>
-      <c r="N60" s="104">
+      <c r="N60" s="99">
         <f t="shared" si="31"/>
         <v>7.379999999999999</v>
       </c>
-      <c r="O60" s="104">
+      <c r="O60" s="99">
         <f>($D60*O$6)+D$12+(E$57*O$5)+D$13</f>
         <v>6.6000000000000005</v>
       </c>
@@ -3536,11 +3566,11 @@
         <f t="shared" si="30"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N61" s="104">
+      <c r="N61" s="99">
         <f t="shared" si="31"/>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O61" s="104">
+      <c r="O61" s="99">
         <f t="shared" si="32"/>
         <v>4.1850000000000005</v>
       </c>
@@ -3568,19 +3598,19 @@
         <f t="shared" si="30"/>
         <v>19.75</v>
       </c>
-      <c r="N62" s="104">
+      <c r="N62" s="99">
         <f t="shared" si="31"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="O62" s="104">
+      <c r="O62" s="99">
         <f t="shared" si="32"/>
         <v>3.15</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="52"/>
-      <c r="N63" s="99"/>
-      <c r="O63" s="99"/>
+      <c r="N63" s="94"/>
+      <c r="O63" s="94"/>
     </row>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="54" t="s">
@@ -3608,11 +3638,11 @@
         <f>(D64*M$6)+M$12+(E$64*M$5)+M$13</f>
         <v>23</v>
       </c>
-      <c r="N64" s="104">
+      <c r="N64" s="99">
         <f>($D64*N$6)+C$12+(E$64*N$5)+C$13</f>
         <v>4.4399999999999995</v>
       </c>
-      <c r="O64" s="104">
+      <c r="O64" s="99">
         <f>($D64*O$6)+D$12+(E$64*O$5)+D$13</f>
         <v>4.3000000000000007</v>
       </c>
@@ -3640,11 +3670,11 @@
         <f t="shared" ref="M65:M69" si="36">(D65*M$6)+M$12+(E$64*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
-      <c r="N65" s="104">
+      <c r="N65" s="99">
         <f t="shared" ref="N65:N69" si="37">($D65*N$6)+C$12+(E$64*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
-      <c r="O65" s="104">
+      <c r="O65" s="99">
         <f t="shared" ref="O65:O69" si="38">($D65*O$6)+D$12+(E$64*O$5)+D$13</f>
         <v>6.37</v>
       </c>
@@ -3672,11 +3702,11 @@
         <f t="shared" si="36"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N66" s="104">
+      <c r="N66" s="99">
         <f t="shared" si="37"/>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O66" s="104">
+      <c r="O66" s="99">
         <f t="shared" si="38"/>
         <v>4.1850000000000005</v>
       </c>
@@ -3704,11 +3734,11 @@
         <f t="shared" si="36"/>
         <v>28.849999999999998</v>
       </c>
-      <c r="N67" s="104">
+      <c r="N67" s="99">
         <f t="shared" si="37"/>
         <v>7.0859999999999994</v>
       </c>
-      <c r="O67" s="104">
+      <c r="O67" s="99">
         <f t="shared" si="38"/>
         <v>6.37</v>
       </c>
@@ -3736,11 +3766,11 @@
         <f t="shared" si="36"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N68" s="104">
+      <c r="N68" s="99">
         <f t="shared" si="37"/>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O68" s="104">
+      <c r="O68" s="99">
         <f t="shared" si="38"/>
         <v>4.1850000000000005</v>
       </c>
@@ -3768,19 +3798,19 @@
         <f t="shared" si="36"/>
         <v>19.75</v>
       </c>
-      <c r="N69" s="104">
+      <c r="N69" s="99">
         <f t="shared" si="37"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="O69" s="104">
+      <c r="O69" s="99">
         <f t="shared" si="38"/>
         <v>3.15</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="52"/>
-      <c r="N70" s="99"/>
-      <c r="O70" s="99"/>
+      <c r="N70" s="94"/>
+      <c r="O70" s="94"/>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="54" t="s">
@@ -3808,11 +3838,11 @@
         <f>(D71*M$6)+M$11+(E$71*M$5)+M$13</f>
         <v>22.924999999999997</v>
       </c>
-      <c r="N71" s="104">
+      <c r="N71" s="99">
         <f>($D71*N$6)+C$11+(E$71*N$5)+C$13</f>
         <v>5.7629999999999999</v>
       </c>
-      <c r="O71" s="104">
+      <c r="O71" s="99">
         <f>($D71*O$6)+D$11+(E$71*O$5)+D$13</f>
         <v>5.335</v>
       </c>
@@ -3840,11 +3870,11 @@
         <f t="shared" ref="M72:M75" si="40">(D72*M$6)+M$11+(E$71*M$5)+M$13</f>
         <v>21.95</v>
       </c>
-      <c r="N72" s="104">
+      <c r="N72" s="99">
         <f t="shared" ref="N72:N75" si="41">($D72*N$6)+C$11+(E$71*N$5)+C$13</f>
         <v>5.3219999999999992</v>
       </c>
-      <c r="O72" s="104">
+      <c r="O72" s="99">
         <f t="shared" ref="O72:O75" si="42">($D72*O$6)+D$11+(E$71*O$5)+D$13</f>
         <v>4.99</v>
       </c>
@@ -3872,11 +3902,11 @@
         <f t="shared" si="40"/>
         <v>20.65</v>
       </c>
-      <c r="N73" s="104">
+      <c r="N73" s="99">
         <f t="shared" si="41"/>
         <v>4.734</v>
       </c>
-      <c r="O73" s="104">
+      <c r="O73" s="99">
         <f t="shared" si="42"/>
         <v>4.53</v>
       </c>
@@ -3904,11 +3934,11 @@
         <f t="shared" si="40"/>
         <v>16.425000000000001</v>
       </c>
-      <c r="N74" s="104">
+      <c r="N74" s="99">
         <f t="shared" si="41"/>
         <v>2.823</v>
       </c>
-      <c r="O74" s="104">
+      <c r="O74" s="99">
         <f t="shared" si="42"/>
         <v>3.0350000000000001</v>
       </c>
@@ -3936,19 +3966,19 @@
         <f t="shared" si="40"/>
         <v>21.299999999999997</v>
       </c>
-      <c r="N75" s="104">
+      <c r="N75" s="99">
         <f t="shared" si="41"/>
         <v>5.0279999999999996</v>
       </c>
-      <c r="O75" s="104">
+      <c r="O75" s="99">
         <f t="shared" si="42"/>
         <v>4.76</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="52"/>
-      <c r="N76" s="99"/>
-      <c r="O76" s="99"/>
+      <c r="N76" s="94"/>
+      <c r="O76" s="94"/>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="54" t="s">
@@ -3976,11 +4006,11 @@
         <f>(D77*M$6)+M$11+(E$77*M$5)+M$13</f>
         <v>22.924999999999997</v>
       </c>
-      <c r="N77" s="104">
+      <c r="N77" s="99">
         <f>($D77*N$6)+C$11+(E$77*N$5)+C$13</f>
         <v>5.7629999999999999</v>
       </c>
-      <c r="O77" s="104">
+      <c r="O77" s="99">
         <f>($D77*O$6)+D$11+(E$77*O$5)+D$13</f>
         <v>5.335</v>
       </c>
@@ -4008,11 +4038,11 @@
         <f t="shared" ref="M78:M81" si="44">(D78*M$6)+M$11+(E$77*M$5)+M$13</f>
         <v>20.65</v>
       </c>
-      <c r="N78" s="104">
+      <c r="N78" s="99">
         <f t="shared" ref="N78:N81" si="45">($D78*N$6)+C$11+(E$77*N$5)+C$13</f>
         <v>4.734</v>
       </c>
-      <c r="O78" s="104">
+      <c r="O78" s="99">
         <f t="shared" ref="O78:O81" si="46">($D78*O$6)+D$11+(E$77*O$5)+D$13</f>
         <v>4.53</v>
       </c>
@@ -4040,11 +4070,11 @@
         <f t="shared" si="44"/>
         <v>20.65</v>
       </c>
-      <c r="N79" s="104">
+      <c r="N79" s="99">
         <f t="shared" si="45"/>
         <v>4.734</v>
       </c>
-      <c r="O79" s="104">
+      <c r="O79" s="99">
         <f t="shared" si="46"/>
         <v>4.53</v>
       </c>
@@ -4072,11 +4102,11 @@
         <f t="shared" si="44"/>
         <v>16.425000000000001</v>
       </c>
-      <c r="N80" s="104">
+      <c r="N80" s="99">
         <f t="shared" si="45"/>
         <v>2.823</v>
       </c>
-      <c r="O80" s="104">
+      <c r="O80" s="99">
         <f t="shared" si="46"/>
         <v>3.0350000000000001</v>
       </c>
@@ -4104,19 +4134,19 @@
         <f t="shared" si="44"/>
         <v>21.299999999999997</v>
       </c>
-      <c r="N81" s="104">
+      <c r="N81" s="99">
         <f t="shared" si="45"/>
         <v>5.0279999999999996</v>
       </c>
-      <c r="O81" s="104">
+      <c r="O81" s="99">
         <f t="shared" si="46"/>
         <v>4.76</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="52"/>
-      <c r="N82" s="99"/>
-      <c r="O82" s="99"/>
+      <c r="N82" s="94"/>
+      <c r="O82" s="94"/>
     </row>
     <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="54" t="s">
@@ -4144,11 +4174,11 @@
         <f>(D83*M$6)+M$12+(E$83*M$5)+M$13</f>
         <v>23</v>
       </c>
-      <c r="N83" s="104">
+      <c r="N83" s="99">
         <f>($D83*N$6)+C$12+(E$83*N$5)+C$13</f>
         <v>4.4399999999999995</v>
       </c>
-      <c r="O83" s="104">
+      <c r="O83" s="99">
         <f>($D83*O$6)+D$12+(E$83*O$5)+D$13</f>
         <v>4.3000000000000007</v>
       </c>
@@ -4176,11 +4206,11 @@
         <f t="shared" ref="M84:M88" si="50">(D84*M$6)+M$12+(E$83*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
-      <c r="N84" s="104">
+      <c r="N84" s="99">
         <f t="shared" ref="N84:N88" si="51">($D84*N$6)+C$12+(E$83*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
-      <c r="O84" s="104">
+      <c r="O84" s="99">
         <f t="shared" ref="O84:O87" si="52">($D84*O$6)+D$12+(E$83*O$5)+D$13</f>
         <v>6.37</v>
       </c>
@@ -4215,11 +4245,11 @@
         <f t="shared" si="50"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N85" s="104">
+      <c r="N85" s="99">
         <f t="shared" si="51"/>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O85" s="104">
+      <c r="O85" s="99">
         <f t="shared" si="52"/>
         <v>4.1850000000000005</v>
       </c>
@@ -4254,11 +4284,11 @@
         <f t="shared" si="50"/>
         <v>29.5</v>
       </c>
-      <c r="N86" s="104">
+      <c r="N86" s="99">
         <f t="shared" si="51"/>
         <v>7.379999999999999</v>
       </c>
-      <c r="O86" s="104">
+      <c r="O86" s="99">
         <f t="shared" si="52"/>
         <v>6.6000000000000005</v>
       </c>
@@ -4293,11 +4323,11 @@
         <f t="shared" si="50"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N87" s="104">
+      <c r="N87" s="99">
         <f t="shared" si="51"/>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O87" s="104">
+      <c r="O87" s="99">
         <f t="shared" si="52"/>
         <v>4.1850000000000005</v>
       </c>
@@ -4332,11 +4362,11 @@
         <f t="shared" si="50"/>
         <v>19.75</v>
       </c>
-      <c r="N88" s="104">
+      <c r="N88" s="99">
         <f t="shared" si="51"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="O88" s="104">
+      <c r="O88" s="99">
         <f>($D88*O$6)+D$12+(E$83*O$5)+D$13</f>
         <v>3.15</v>
       </c>
@@ -4354,8 +4384,8 @@
       <c r="J89" s="52"/>
       <c r="K89" s="52"/>
       <c r="L89" s="52"/>
-      <c r="N89" s="99"/>
-      <c r="O89" s="99"/>
+      <c r="N89" s="94"/>
+      <c r="O89" s="94"/>
     </row>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="54" t="s">
@@ -4389,11 +4419,11 @@
         <f>(D90*M$6)+M$12+(E$90*M$5)+M$13</f>
         <v>23</v>
       </c>
-      <c r="N90" s="104">
+      <c r="N90" s="99">
         <f>($D90*N$6)+C$12+(E$90*N$5)+C$13</f>
         <v>4.4399999999999995</v>
       </c>
-      <c r="O90" s="104">
+      <c r="O90" s="99">
         <f>($D90*O$6)+D$12+(E$90*O$5)+D$13</f>
         <v>4.3000000000000007</v>
       </c>
@@ -4428,11 +4458,11 @@
         <f t="shared" ref="M91:M95" si="56">(D91*M$6)+M$12+(E$90*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
-      <c r="N91" s="104">
+      <c r="N91" s="99">
         <f t="shared" ref="N91:N95" si="57">($D91*N$6)+C$12+(E$90*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
-      <c r="O91" s="104">
+      <c r="O91" s="99">
         <f t="shared" ref="O91:O95" si="58">($D91*O$6)+D$12+(E$90*O$5)+D$13</f>
         <v>6.37</v>
       </c>
@@ -4460,11 +4490,11 @@
         <f t="shared" si="56"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N92" s="104">
+      <c r="N92" s="99">
         <f t="shared" si="57"/>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O92" s="104">
+      <c r="O92" s="99">
         <f t="shared" si="58"/>
         <v>4.1850000000000005</v>
       </c>
@@ -4492,11 +4522,11 @@
         <f t="shared" si="56"/>
         <v>28.849999999999998</v>
       </c>
-      <c r="N93" s="104">
+      <c r="N93" s="99">
         <f t="shared" si="57"/>
         <v>7.0859999999999994</v>
       </c>
-      <c r="O93" s="104">
+      <c r="O93" s="99">
         <f t="shared" si="58"/>
         <v>6.37</v>
       </c>
@@ -4524,11 +4554,11 @@
         <f t="shared" si="56"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N94" s="104">
+      <c r="N94" s="99">
         <f t="shared" si="57"/>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O94" s="104">
+      <c r="O94" s="99">
         <f t="shared" si="58"/>
         <v>4.1850000000000005</v>
       </c>
@@ -4556,18 +4586,18 @@
         <f t="shared" si="56"/>
         <v>19.75</v>
       </c>
-      <c r="N95" s="104">
+      <c r="N95" s="99">
         <f t="shared" si="57"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="O95" s="104">
+      <c r="O95" s="99">
         <f t="shared" si="58"/>
         <v>3.15</v>
       </c>
     </row>
     <row r="96" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N96" s="100"/>
-      <c r="O96" s="100"/>
+      <c r="N96" s="95"/>
+      <c r="O96" s="95"/>
     </row>
     <row r="97" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="54" t="s">
@@ -4595,11 +4625,11 @@
         <f>(D97*M$6)+M$11+(E$97*M$5)+M$13</f>
         <v>22.924999999999997</v>
       </c>
-      <c r="N97" s="104">
+      <c r="N97" s="99">
         <f>($D97*N$6)+C$11+(E$97*N$5)+C$13</f>
         <v>5.7629999999999999</v>
       </c>
-      <c r="O97" s="104">
+      <c r="O97" s="99">
         <f>($D97*O$6)+D$11+(E$97*O$5)+D$13</f>
         <v>5.335</v>
       </c>
@@ -4627,11 +4657,11 @@
         <f t="shared" ref="M98:M101" si="60">(D98*M$6)+M$11+(E$97*M$5)+M$13</f>
         <v>20.65</v>
       </c>
-      <c r="N98" s="104">
+      <c r="N98" s="99">
         <f t="shared" ref="N98:N101" si="61">($D98*N$6)+C$11+(E$97*N$5)+C$13</f>
         <v>4.734</v>
       </c>
-      <c r="O98" s="104">
+      <c r="O98" s="99">
         <f t="shared" ref="O98:O101" si="62">($D98*O$6)+D$11+(E$97*O$5)+D$13</f>
         <v>4.53</v>
       </c>
@@ -4659,11 +4689,11 @@
         <f t="shared" si="60"/>
         <v>20.65</v>
       </c>
-      <c r="N99" s="104">
+      <c r="N99" s="99">
         <f t="shared" si="61"/>
         <v>4.734</v>
       </c>
-      <c r="O99" s="104">
+      <c r="O99" s="99">
         <f t="shared" si="62"/>
         <v>4.53</v>
       </c>
@@ -4691,11 +4721,11 @@
         <f t="shared" si="60"/>
         <v>16.425000000000001</v>
       </c>
-      <c r="N100" s="104">
+      <c r="N100" s="99">
         <f t="shared" si="61"/>
         <v>2.823</v>
       </c>
-      <c r="O100" s="104">
+      <c r="O100" s="99">
         <f t="shared" si="62"/>
         <v>3.0350000000000001</v>
       </c>
@@ -4723,18 +4753,18 @@
         <f t="shared" si="60"/>
         <v>21.299999999999997</v>
       </c>
-      <c r="N101" s="104">
+      <c r="N101" s="99">
         <f t="shared" si="61"/>
         <v>5.0279999999999996</v>
       </c>
-      <c r="O101" s="104">
+      <c r="O101" s="99">
         <f t="shared" si="62"/>
         <v>4.76</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N102" s="100"/>
-      <c r="O102" s="100"/>
+      <c r="N102" s="95"/>
+      <c r="O102" s="95"/>
     </row>
     <row r="103" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="54" t="s">
@@ -4762,11 +4792,11 @@
         <f>(D103*M$6)+M$11+(E$103*M$5)+M$13</f>
         <v>22.924999999999997</v>
       </c>
-      <c r="N103" s="104">
+      <c r="N103" s="99">
         <f>($D103*N$6)+C$11+(E$103*N$5)+C$13</f>
         <v>5.7629999999999999</v>
       </c>
-      <c r="O103" s="104">
+      <c r="O103" s="99">
         <f>($D103*O$6)+D$11+(E$103*O$5)+D$13</f>
         <v>5.335</v>
       </c>
@@ -4794,11 +4824,11 @@
         <f t="shared" ref="M104:M107" si="64">(D104*M$6)+M$11+(E$103*M$5)+M$13</f>
         <v>20.65</v>
       </c>
-      <c r="N104" s="104">
+      <c r="N104" s="99">
         <f t="shared" ref="N104:N107" si="65">($D104*N$6)+C$11+(E$103*N$5)+C$13</f>
         <v>4.734</v>
       </c>
-      <c r="O104" s="104">
+      <c r="O104" s="99">
         <f t="shared" ref="O104:O107" si="66">($D104*O$6)+D$11+(E$103*O$5)+D$13</f>
         <v>4.53</v>
       </c>
@@ -4826,11 +4856,11 @@
         <f t="shared" si="64"/>
         <v>20.65</v>
       </c>
-      <c r="N105" s="104">
+      <c r="N105" s="99">
         <f t="shared" si="65"/>
         <v>4.734</v>
       </c>
-      <c r="O105" s="104">
+      <c r="O105" s="99">
         <f t="shared" si="66"/>
         <v>4.53</v>
       </c>
@@ -4858,11 +4888,11 @@
         <f t="shared" si="64"/>
         <v>16.425000000000001</v>
       </c>
-      <c r="N106" s="104">
+      <c r="N106" s="99">
         <f t="shared" si="65"/>
         <v>2.823</v>
       </c>
-      <c r="O106" s="104">
+      <c r="O106" s="99">
         <f t="shared" si="66"/>
         <v>3.0350000000000001</v>
       </c>
@@ -4890,18 +4920,18 @@
         <f t="shared" si="64"/>
         <v>21.299999999999997</v>
       </c>
-      <c r="N107" s="104">
+      <c r="N107" s="99">
         <f t="shared" si="65"/>
         <v>5.0279999999999996</v>
       </c>
-      <c r="O107" s="104">
+      <c r="O107" s="99">
         <f t="shared" si="66"/>
         <v>4.76</v>
       </c>
     </row>
     <row r="108" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N108" s="100"/>
-      <c r="O108" s="100"/>
+      <c r="N108" s="95"/>
+      <c r="O108" s="95"/>
     </row>
     <row r="109" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="54" t="s">
@@ -4929,11 +4959,11 @@
         <f>(D109*M$6)+M$12+(E$109*M$5)+M$13</f>
         <v>23</v>
       </c>
-      <c r="N109" s="104">
+      <c r="N109" s="99">
         <f>($D109*N$6)+C$12+(E$109*N$5)+C$13</f>
         <v>4.4399999999999995</v>
       </c>
-      <c r="O109" s="104">
+      <c r="O109" s="99">
         <f>($D109*O$6)+D$12+(E$109*O$5)+D$13</f>
         <v>4.3000000000000007</v>
       </c>
@@ -4961,11 +4991,11 @@
         <f t="shared" ref="M110:M114" si="70">(D110*M$6)+M$12+(E$109*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
-      <c r="N110" s="104">
+      <c r="N110" s="99">
         <f t="shared" ref="N110:N114" si="71">($D110*N$6)+C$12+(E$109*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
-      <c r="O110" s="104">
+      <c r="O110" s="99">
         <f t="shared" ref="O110:O114" si="72">($D110*O$6)+D$12+(E$109*O$5)+D$13</f>
         <v>6.37</v>
       </c>
@@ -4993,11 +5023,11 @@
         <f t="shared" si="70"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N111" s="104">
+      <c r="N111" s="99">
         <f t="shared" si="71"/>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O111" s="104">
+      <c r="O111" s="99">
         <f t="shared" si="72"/>
         <v>4.1850000000000005</v>
       </c>
@@ -5025,11 +5055,11 @@
         <f t="shared" si="70"/>
         <v>29.5</v>
       </c>
-      <c r="N112" s="104">
+      <c r="N112" s="99">
         <f t="shared" si="71"/>
         <v>7.379999999999999</v>
       </c>
-      <c r="O112" s="104">
+      <c r="O112" s="99">
         <f t="shared" si="72"/>
         <v>6.6000000000000005</v>
       </c>
@@ -5057,11 +5087,11 @@
         <f t="shared" si="70"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N113" s="104">
+      <c r="N113" s="99">
         <f t="shared" si="71"/>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O113" s="104">
+      <c r="O113" s="99">
         <f t="shared" si="72"/>
         <v>4.1850000000000005</v>
       </c>
@@ -5089,18 +5119,18 @@
         <f t="shared" si="70"/>
         <v>19.75</v>
       </c>
-      <c r="N114" s="104">
+      <c r="N114" s="99">
         <f t="shared" si="71"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="O114" s="104">
+      <c r="O114" s="99">
         <f t="shared" si="72"/>
         <v>3.15</v>
       </c>
     </row>
     <row r="115" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N115" s="100"/>
-      <c r="O115" s="100"/>
+      <c r="N115" s="95"/>
+      <c r="O115" s="95"/>
     </row>
     <row r="116" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="54" t="s">
@@ -5128,11 +5158,11 @@
         <f>(D116*M$6)+M$12+(E$116*M$5)+M$13</f>
         <v>23</v>
       </c>
-      <c r="N116" s="104">
+      <c r="N116" s="99">
         <f>($D116*N$6)+C$12+(E$116*N$5)+C$13</f>
         <v>4.4399999999999995</v>
       </c>
-      <c r="O116" s="104">
+      <c r="O116" s="99">
         <f>($D116*O$6)+D$12+(E$116*O$5)+D$13</f>
         <v>4.3000000000000007</v>
       </c>
@@ -5160,11 +5190,11 @@
         <f t="shared" ref="M117:M121" si="76">(D117*M$6)+M$12+(E$116*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
-      <c r="N117" s="104">
+      <c r="N117" s="99">
         <f t="shared" ref="N117:N121" si="77">($D117*N$6)+C$12+(E$116*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
-      <c r="O117" s="104">
+      <c r="O117" s="99">
         <f t="shared" ref="O117:O121" si="78">($D117*O$6)+D$12+(E$116*O$5)+D$13</f>
         <v>6.37</v>
       </c>
@@ -5192,11 +5222,11 @@
         <f t="shared" si="76"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N118" s="104">
+      <c r="N118" s="99">
         <f t="shared" si="77"/>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O118" s="104">
+      <c r="O118" s="99">
         <f t="shared" si="78"/>
         <v>4.1850000000000005</v>
       </c>
@@ -5224,11 +5254,11 @@
         <f t="shared" si="76"/>
         <v>29.5</v>
       </c>
-      <c r="N119" s="104">
+      <c r="N119" s="99">
         <f t="shared" si="77"/>
         <v>7.379999999999999</v>
       </c>
-      <c r="O119" s="104">
+      <c r="O119" s="99">
         <f t="shared" si="78"/>
         <v>6.6000000000000005</v>
       </c>
@@ -5256,11 +5286,11 @@
         <f t="shared" si="76"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="N120" s="104">
+      <c r="N120" s="99">
         <f t="shared" si="77"/>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O120" s="104">
+      <c r="O120" s="99">
         <f t="shared" si="78"/>
         <v>4.1850000000000005</v>
       </c>
@@ -5288,18 +5318,18 @@
         <f t="shared" si="76"/>
         <v>19.75</v>
       </c>
-      <c r="N121" s="104">
+      <c r="N121" s="99">
         <f t="shared" si="77"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="O121" s="104">
+      <c r="O121" s="99">
         <f t="shared" si="78"/>
         <v>3.15</v>
       </c>
     </row>
     <row r="122" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N122" s="100"/>
-      <c r="O122" s="100"/>
+      <c r="N122" s="95"/>
+      <c r="O122" s="95"/>
     </row>
     <row r="123" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="54" t="s">
@@ -5323,15 +5353,15 @@
         <f>(D123*L$6)+L$12+(E$123*L$5)+L$14</f>
         <v>23.15</v>
       </c>
-      <c r="M123" s="101">
+      <c r="M123" s="96">
         <f>(D123*M$6)+M$12+(E$123*M$5)+M$14</f>
         <v>24.875</v>
       </c>
-      <c r="N123" s="104">
+      <c r="N123" s="99">
         <f>($D123*N$6)+C$14+(E$123*N$5)+C$13</f>
         <v>3.7050000000000001</v>
       </c>
-      <c r="O123" s="104">
+      <c r="O123" s="99">
         <f>($D123*O$6)+D$14+(E$123*O$5)+D$13</f>
         <v>3.7250000000000001</v>
       </c>
@@ -5358,15 +5388,15 @@
         <f t="shared" ref="L124:L125" si="79">(D124*L$6)+L$12+(E$123*L$5)+L$14</f>
         <v>25.67</v>
       </c>
-      <c r="M124" s="101">
+      <c r="M124" s="96">
         <f t="shared" ref="M124:M125" si="80">(D124*M$6)+M$12+(E$123*M$5)+M$14</f>
         <v>28.775000000000002</v>
       </c>
-      <c r="N124" s="104">
+      <c r="N124" s="99">
         <f>($D124*N$6)+C$14+(E$124*N$5)+C$13</f>
         <v>4.2929999999999993</v>
       </c>
-      <c r="O124" s="104">
+      <c r="O124" s="99">
         <f>($D124*O$6)+D$14+(E$124*O$5)+D$13</f>
         <v>4.1850000000000005</v>
       </c>
@@ -5391,15 +5421,15 @@
         <f t="shared" si="79"/>
         <v>26.3</v>
       </c>
-      <c r="M125" s="102">
+      <c r="M125" s="97">
         <f t="shared" si="80"/>
         <v>29.75</v>
       </c>
-      <c r="N125" s="104">
+      <c r="N125" s="99">
         <f>($D125*N$6)+C$14+(E$124*N$5)+C$13</f>
         <v>4.734</v>
       </c>
-      <c r="O125" s="104">
+      <c r="O125" s="99">
         <f>($D125*O$6)+D$14+(E$124*O$5)+D$13</f>
         <v>4.53</v>
       </c>
@@ -5449,10 +5479,10 @@
       </c>
       <c r="B129"/>
       <c r="C129"/>
-      <c r="D129" s="105" t="s">
+      <c r="D129" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="106" t="s">
+      <c r="E129" s="101" t="s">
         <v>9</v>
       </c>
       <c r="F129"/>
@@ -5469,10 +5499,10 @@
       </c>
       <c r="B130"/>
       <c r="C130"/>
-      <c r="D130" s="103">
+      <c r="D130" s="98">
         <v>0.6</v>
       </c>
-      <c r="E130" s="103">
+      <c r="E130" s="98">
         <v>1</v>
       </c>
       <c r="F130"/>
@@ -5963,7 +5993,7 @@
       <c r="L147" s="22">
         <v>5</v>
       </c>
-      <c r="M147" s="107">
+      <c r="M147" s="102">
         <v>5</v>
       </c>
       <c r="N147" s="23">
@@ -5996,7 +6026,7 @@
       <c r="L148" s="22">
         <v>12</v>
       </c>
-      <c r="M148" s="107">
+      <c r="M148" s="102">
         <v>12</v>
       </c>
       <c r="N148" s="23">
@@ -6037,7 +6067,7 @@
         <f t="shared" si="81"/>
         <v>0.52499999999999991</v>
       </c>
-      <c r="M149" s="107">
+      <c r="M149" s="102">
         <f>$C149*M$7</f>
         <v>0.82500000000000007</v>
       </c>
@@ -6078,7 +6108,7 @@
       <c r="L150" s="22">
         <v>3.4</v>
       </c>
-      <c r="M150" s="107">
+      <c r="M150" s="102">
         <v>3.4</v>
       </c>
       <c r="N150" s="23">
@@ -6111,7 +6141,7 @@
       <c r="L151" s="22">
         <v>16</v>
       </c>
-      <c r="M151" s="107">
+      <c r="M151" s="102">
         <v>16</v>
       </c>
       <c r="N151" s="23">
@@ -6152,7 +6182,7 @@
         <f t="shared" si="82"/>
         <v>0.52499999999999991</v>
       </c>
-      <c r="M152" s="107">
+      <c r="M152" s="102">
         <f>$C152*M$7</f>
         <v>0.82500000000000007</v>
       </c>
@@ -6193,7 +6223,7 @@
       <c r="L153" s="22">
         <v>3.4</v>
       </c>
-      <c r="M153" s="107">
+      <c r="M153" s="102">
         <v>3.4</v>
       </c>
       <c r="N153" s="23">
@@ -6227,7 +6257,7 @@
       <c r="L154" s="22">
         <v>16</v>
       </c>
-      <c r="M154" s="107">
+      <c r="M154" s="102">
         <v>16</v>
       </c>
       <c r="N154" s="23">
@@ -6268,7 +6298,7 @@
         <f t="shared" si="83"/>
         <v>0.52499999999999991</v>
       </c>
-      <c r="M155" s="107">
+      <c r="M155" s="102">
         <f>$C155*M$7</f>
         <v>0.82500000000000007</v>
       </c>
@@ -6309,7 +6339,7 @@
       <c r="L156" s="22">
         <v>1.5</v>
       </c>
-      <c r="M156" s="107">
+      <c r="M156" s="102">
         <v>1.5</v>
       </c>
       <c r="N156" s="23">
@@ -6343,7 +6373,7 @@
       <c r="L157" s="22">
         <v>20</v>
       </c>
-      <c r="M157" s="107">
+      <c r="M157" s="102">
         <v>20</v>
       </c>
       <c r="N157" s="23">
@@ -6384,7 +6414,7 @@
         <f t="shared" si="84"/>
         <v>0.52499999999999991</v>
       </c>
-      <c r="M158" s="107">
+      <c r="M158" s="102">
         <f>$C158*M$7</f>
         <v>0.82500000000000007</v>
       </c>
@@ -6425,7 +6455,7 @@
       <c r="L159" s="22">
         <v>2.1</v>
       </c>
-      <c r="M159" s="107">
+      <c r="M159" s="102">
         <v>2.1</v>
       </c>
       <c r="N159" s="23">
@@ -6459,7 +6489,7 @@
       <c r="L160" s="22">
         <v>25</v>
       </c>
-      <c r="M160" s="107">
+      <c r="M160" s="102">
         <v>25</v>
       </c>
       <c r="N160" s="23">
@@ -6500,7 +6530,7 @@
         <f t="shared" si="85"/>
         <v>0.52499999999999991</v>
       </c>
-      <c r="M161" s="107">
+      <c r="M161" s="102">
         <f t="shared" si="85"/>
         <v>0.82500000000000007</v>
       </c>
@@ -6535,7 +6565,7 @@
       <c r="L162" s="22">
         <v>1.5</v>
       </c>
-      <c r="M162" s="107">
+      <c r="M162" s="102">
         <v>1.5</v>
       </c>
       <c r="N162" s="23">
@@ -6561,7 +6591,7 @@
       <c r="L166" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="M166" s="90" t="s">
+      <c r="M166" s="88" t="s">
         <v>163</v>
       </c>
       <c r="N166" s="18" t="s">
@@ -6573,7 +6603,7 @@
     </row>
     <row r="167" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G167" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G19</f>
@@ -6591,18 +6621,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M19</f>
         <v>59.524999999999999</v>
       </c>
-      <c r="N167" s="108">
+      <c r="N167" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N19</f>
         <v>9.9109999999999996</v>
       </c>
-      <c r="O167" s="108">
+      <c r="O167" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O19</f>
         <v>9.5350000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G168" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G20</f>
@@ -6620,18 +6650,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M20</f>
         <v>58.55</v>
       </c>
-      <c r="N168" s="108">
+      <c r="N168" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N20</f>
         <v>9.4699999999999989</v>
       </c>
-      <c r="O168" s="108">
+      <c r="O168" s="103">
         <f t="shared" ref="O168:O171" si="86">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O20</f>
         <v>9.1900000000000013</v>
       </c>
     </row>
     <row r="169" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G169" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G21</f>
@@ -6649,18 +6679,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M21</f>
         <v>57.25</v>
       </c>
-      <c r="N169" s="108">
+      <c r="N169" s="103">
         <f t="shared" ref="N169:N171" si="87">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N21</f>
         <v>8.8819999999999997</v>
       </c>
-      <c r="O169" s="108">
+      <c r="O169" s="103">
         <f t="shared" si="86"/>
         <v>8.73</v>
       </c>
     </row>
     <row r="170" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G170" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G22</f>
@@ -6678,18 +6708,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M22</f>
         <v>53.025000000000006</v>
       </c>
-      <c r="N170" s="108">
+      <c r="N170" s="103">
         <f t="shared" si="87"/>
         <v>6.9710000000000001</v>
       </c>
-      <c r="O170" s="108">
+      <c r="O170" s="103">
         <f t="shared" si="86"/>
         <v>7.2350000000000003</v>
       </c>
     </row>
     <row r="171" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="56" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G171" s="63">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G23</f>
@@ -6707,11 +6737,11 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M23</f>
         <v>57.9</v>
       </c>
-      <c r="N171" s="108">
+      <c r="N171" s="103">
         <f t="shared" si="87"/>
         <v>9.1759999999999984</v>
       </c>
-      <c r="O171" s="108">
+      <c r="O171" s="103">
         <f t="shared" si="86"/>
         <v>8.9600000000000009</v>
       </c>
@@ -6721,7 +6751,7 @@
     </row>
     <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="54" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G173" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G25</f>
@@ -6739,18 +6769,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M25</f>
         <v>59.524999999999999</v>
       </c>
-      <c r="N173" s="108">
+      <c r="N173" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N25</f>
         <v>9.9109999999999996</v>
       </c>
-      <c r="O173" s="108">
+      <c r="O173" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O25</f>
         <v>9.5350000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="55" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G174" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G26</f>
@@ -6768,18 +6798,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M26</f>
         <v>57.25</v>
       </c>
-      <c r="N174" s="108">
+      <c r="N174" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N26</f>
         <v>8.8819999999999997</v>
       </c>
-      <c r="O174" s="108">
+      <c r="O174" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O26</f>
         <v>8.73</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G175" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G27</f>
@@ -6797,18 +6827,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M27</f>
         <v>57.25</v>
       </c>
-      <c r="N175" s="108">
+      <c r="N175" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N27</f>
         <v>8.8819999999999997</v>
       </c>
-      <c r="O175" s="108">
+      <c r="O175" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O27</f>
         <v>8.73</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G176" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G28</f>
@@ -6826,18 +6856,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M28</f>
         <v>53.025000000000006</v>
       </c>
-      <c r="N176" s="108">
+      <c r="N176" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N28</f>
         <v>6.9710000000000001</v>
       </c>
-      <c r="O176" s="108">
+      <c r="O176" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O28</f>
         <v>7.2350000000000003</v>
       </c>
     </row>
     <row r="177" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="56" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G177" s="63">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G29</f>
@@ -6855,11 +6885,11 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M29</f>
         <v>57.9</v>
       </c>
-      <c r="N177" s="108">
+      <c r="N177" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N29</f>
         <v>9.1759999999999984</v>
       </c>
-      <c r="O177" s="108">
+      <c r="O177" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O29</f>
         <v>8.9600000000000009</v>
       </c>
@@ -6869,7 +6899,7 @@
     </row>
     <row r="179" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G179" s="58">
         <f t="shared" ref="G179:G184" si="88">SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G31</f>
@@ -6884,21 +6914,21 @@
         <v>56.100000000000009</v>
       </c>
       <c r="M179" s="58">
-        <f t="shared" ref="M179:N184" si="91">SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M31</f>
+        <f t="shared" ref="M179:M184" si="91">SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M31</f>
         <v>59.6</v>
       </c>
-      <c r="N179" s="108">
+      <c r="N179" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N31</f>
         <v>8.5879999999999992</v>
       </c>
-      <c r="O179" s="108">
+      <c r="O179" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O31</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="180" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G180" s="58">
         <f t="shared" si="88"/>
@@ -6916,18 +6946,18 @@
         <f t="shared" si="91"/>
         <v>65.45</v>
       </c>
-      <c r="N180" s="108">
+      <c r="N180" s="103">
         <f t="shared" ref="N180:N184" si="92">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N32</f>
         <v>11.233999999999998</v>
       </c>
-      <c r="O180" s="108">
+      <c r="O180" s="103">
         <f t="shared" ref="O180:O184" si="93">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O32</f>
         <v>10.57</v>
       </c>
     </row>
     <row r="181" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G181" s="58">
         <f t="shared" si="88"/>
@@ -6945,18 +6975,18 @@
         <f t="shared" si="91"/>
         <v>59.275000000000006</v>
       </c>
-      <c r="N181" s="108">
+      <c r="N181" s="103">
         <f t="shared" si="92"/>
         <v>8.4409999999999989</v>
       </c>
-      <c r="O181" s="108">
+      <c r="O181" s="103">
         <f t="shared" si="93"/>
         <v>8.3850000000000016</v>
       </c>
     </row>
     <row r="182" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G182" s="58">
         <f t="shared" si="88"/>
@@ -6974,18 +7004,18 @@
         <f t="shared" si="91"/>
         <v>66.099999999999994</v>
       </c>
-      <c r="N182" s="108">
+      <c r="N182" s="103">
         <f t="shared" si="92"/>
         <v>11.527999999999999</v>
       </c>
-      <c r="O182" s="108">
+      <c r="O182" s="103">
         <f t="shared" si="93"/>
         <v>10.8</v>
       </c>
     </row>
     <row r="183" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="55" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G183" s="58">
         <f t="shared" si="88"/>
@@ -7003,18 +7033,18 @@
         <f t="shared" si="91"/>
         <v>59.275000000000006</v>
       </c>
-      <c r="N183" s="108">
+      <c r="N183" s="103">
         <f t="shared" si="92"/>
         <v>8.4409999999999989</v>
       </c>
-      <c r="O183" s="108">
+      <c r="O183" s="103">
         <f t="shared" si="93"/>
         <v>8.3850000000000016</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G184" s="63">
         <f t="shared" si="88"/>
@@ -7032,11 +7062,11 @@
         <f t="shared" si="91"/>
         <v>56.35</v>
       </c>
-      <c r="N184" s="108">
+      <c r="N184" s="103">
         <f t="shared" si="92"/>
         <v>7.1179999999999994</v>
       </c>
-      <c r="O184" s="108">
+      <c r="O184" s="103">
         <f t="shared" si="93"/>
         <v>7.35</v>
       </c>
@@ -7046,7 +7076,7 @@
     </row>
     <row r="186" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G186" s="58">
         <f t="shared" ref="G186:G191" si="94">SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$157+$G38</f>
@@ -7061,21 +7091,21 @@
         <v>56.100000000000009</v>
       </c>
       <c r="M186" s="58">
-        <f t="shared" ref="M186:N191" si="97">SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M38</f>
+        <f t="shared" ref="M186:M191" si="97">SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$157+$M38</f>
         <v>59.6</v>
       </c>
-      <c r="N186" s="108">
+      <c r="N186" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N38</f>
         <v>8.5879999999999992</v>
       </c>
-      <c r="O186" s="108">
+      <c r="O186" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O38</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="55" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G187" s="58">
         <f t="shared" si="94"/>
@@ -7093,18 +7123,18 @@
         <f t="shared" si="97"/>
         <v>65.45</v>
       </c>
-      <c r="N187" s="108">
+      <c r="N187" s="103">
         <f t="shared" ref="N187:N191" si="98">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N39</f>
         <v>11.233999999999998</v>
       </c>
-      <c r="O187" s="108">
+      <c r="O187" s="103">
         <f t="shared" ref="O187:O191" si="99">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O39</f>
         <v>10.57</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G188" s="58">
         <f t="shared" si="94"/>
@@ -7122,18 +7152,18 @@
         <f t="shared" si="97"/>
         <v>59.275000000000006</v>
       </c>
-      <c r="N188" s="108">
+      <c r="N188" s="103">
         <f t="shared" si="98"/>
         <v>8.4409999999999989</v>
       </c>
-      <c r="O188" s="108">
+      <c r="O188" s="103">
         <f t="shared" si="99"/>
         <v>8.3850000000000016</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G189" s="58">
         <f t="shared" si="94"/>
@@ -7151,18 +7181,18 @@
         <f t="shared" si="97"/>
         <v>66.099999999999994</v>
       </c>
-      <c r="N189" s="108">
+      <c r="N189" s="103">
         <f t="shared" si="98"/>
         <v>11.527999999999999</v>
       </c>
-      <c r="O189" s="108">
+      <c r="O189" s="103">
         <f t="shared" si="99"/>
         <v>10.8</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="55" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G190" s="58">
         <f t="shared" si="94"/>
@@ -7180,18 +7210,18 @@
         <f t="shared" si="97"/>
         <v>59.275000000000006</v>
       </c>
-      <c r="N190" s="108">
+      <c r="N190" s="103">
         <f t="shared" si="98"/>
         <v>8.4409999999999989</v>
       </c>
-      <c r="O190" s="108">
+      <c r="O190" s="103">
         <f t="shared" si="99"/>
         <v>8.3850000000000016</v>
       </c>
     </row>
     <row r="191" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G191" s="63">
         <f t="shared" si="94"/>
@@ -7209,11 +7239,11 @@
         <f t="shared" si="97"/>
         <v>56.35</v>
       </c>
-      <c r="N191" s="108">
+      <c r="N191" s="103">
         <f t="shared" si="98"/>
         <v>7.1179999999999994</v>
       </c>
-      <c r="O191" s="108">
+      <c r="O191" s="103">
         <f t="shared" si="99"/>
         <v>7.35</v>
       </c>
@@ -7223,7 +7253,7 @@
     </row>
     <row r="193" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="54" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G193" s="63">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G45</f>
@@ -7241,18 +7271,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M45</f>
         <v>51.3</v>
       </c>
-      <c r="N193" s="108">
+      <c r="N193" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N45</f>
         <v>9.0240000000000009</v>
       </c>
-      <c r="O193" s="108">
+      <c r="O193" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O45</f>
         <v>8.7349999999999994</v>
       </c>
     </row>
     <row r="194" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G194" s="63">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G46</f>
@@ -7270,18 +7300,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M46</f>
         <v>50.325000000000003</v>
       </c>
-      <c r="N194" s="108">
+      <c r="N194" s="103">
         <f t="shared" ref="N194:N197" si="100">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N46</f>
         <v>8.5829999999999984</v>
       </c>
-      <c r="O194" s="108">
+      <c r="O194" s="103">
         <f t="shared" ref="O194:O197" si="101">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O46</f>
         <v>8.39</v>
       </c>
     </row>
     <row r="195" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G195" s="63">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G47</f>
@@ -7299,18 +7329,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M47</f>
         <v>49.024999999999999</v>
       </c>
-      <c r="N195" s="108">
+      <c r="N195" s="103">
         <f t="shared" si="100"/>
         <v>7.9950000000000001</v>
       </c>
-      <c r="O195" s="108">
+      <c r="O195" s="103">
         <f t="shared" si="101"/>
         <v>7.9300000000000006</v>
       </c>
     </row>
     <row r="196" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="55" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G196" s="63">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G48</f>
@@ -7328,18 +7358,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M48</f>
         <v>44.8</v>
       </c>
-      <c r="N196" s="108">
+      <c r="N196" s="103">
         <f t="shared" si="100"/>
         <v>6.0839999999999996</v>
       </c>
-      <c r="O196" s="108">
+      <c r="O196" s="103">
         <f t="shared" si="101"/>
         <v>6.4350000000000005</v>
       </c>
     </row>
     <row r="197" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G197" s="63">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G49</f>
@@ -7357,11 +7387,11 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M49</f>
         <v>49.674999999999997</v>
       </c>
-      <c r="N197" s="108">
+      <c r="N197" s="103">
         <f t="shared" si="100"/>
         <v>8.2889999999999997</v>
       </c>
-      <c r="O197" s="108">
+      <c r="O197" s="103">
         <f t="shared" si="101"/>
         <v>8.16</v>
       </c>
@@ -7371,7 +7401,7 @@
     </row>
     <row r="199" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G199" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G51</f>
@@ -7389,18 +7419,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M51</f>
         <v>51.3</v>
       </c>
-      <c r="N199" s="108">
+      <c r="N199" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N51</f>
         <v>9.0240000000000009</v>
       </c>
-      <c r="O199" s="108">
+      <c r="O199" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O51</f>
         <v>8.7349999999999994</v>
       </c>
     </row>
     <row r="200" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G200" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G52</f>
@@ -7418,18 +7448,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M52</f>
         <v>49.024999999999999</v>
       </c>
-      <c r="N200" s="108">
+      <c r="N200" s="103">
         <f t="shared" ref="N200:N203" si="102">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N52</f>
         <v>7.9950000000000001</v>
       </c>
-      <c r="O200" s="108">
+      <c r="O200" s="103">
         <f t="shared" ref="O200:O203" si="103">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O52</f>
         <v>7.9300000000000006</v>
       </c>
     </row>
     <row r="201" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G201" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G53</f>
@@ -7447,18 +7477,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M53</f>
         <v>49.024999999999999</v>
       </c>
-      <c r="N201" s="108">
+      <c r="N201" s="103">
         <f t="shared" si="102"/>
         <v>7.9950000000000001</v>
       </c>
-      <c r="O201" s="108">
+      <c r="O201" s="103">
         <f t="shared" si="103"/>
         <v>7.9300000000000006</v>
       </c>
     </row>
     <row r="202" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G202" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G54</f>
@@ -7476,18 +7506,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M54</f>
         <v>44.8</v>
       </c>
-      <c r="N202" s="108">
+      <c r="N202" s="103">
         <f t="shared" si="102"/>
         <v>6.0839999999999996</v>
       </c>
-      <c r="O202" s="108">
+      <c r="O202" s="103">
         <f t="shared" si="103"/>
         <v>6.4350000000000005</v>
       </c>
     </row>
     <row r="203" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G203" s="63">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G55</f>
@@ -7505,11 +7535,11 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M55</f>
         <v>49.674999999999997</v>
       </c>
-      <c r="N203" s="108">
+      <c r="N203" s="103">
         <f t="shared" si="102"/>
         <v>8.2889999999999997</v>
       </c>
-      <c r="O203" s="108">
+      <c r="O203" s="103">
         <f t="shared" si="103"/>
         <v>8.16</v>
       </c>
@@ -7519,7 +7549,7 @@
     </row>
     <row r="205" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="54" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G205" s="58">
         <f t="shared" ref="G205:G210" si="104">SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G57</f>
@@ -7534,21 +7564,21 @@
         <v>48.175000000000004</v>
       </c>
       <c r="M205" s="58">
-        <f t="shared" ref="M205:N210" si="107">SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M57</f>
+        <f t="shared" ref="M205:M210" si="107">SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M57</f>
         <v>51.375</v>
       </c>
-      <c r="N205" s="108">
+      <c r="N205" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N57</f>
         <v>7.7009999999999996</v>
       </c>
-      <c r="O205" s="108">
+      <c r="O205" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O57</f>
         <v>7.7000000000000011</v>
       </c>
     </row>
     <row r="206" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G206" s="58">
         <f t="shared" si="104"/>
@@ -7566,18 +7596,18 @@
         <f t="shared" si="107"/>
         <v>57.224999999999994</v>
       </c>
-      <c r="N206" s="108">
+      <c r="N206" s="103">
         <f t="shared" ref="N206:N210" si="108">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N58</f>
         <v>10.347</v>
       </c>
-      <c r="O206" s="108">
+      <c r="O206" s="103">
         <f t="shared" ref="O206:O210" si="109">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O58</f>
         <v>9.77</v>
       </c>
     </row>
     <row r="207" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G207" s="58">
         <f t="shared" si="104"/>
@@ -7595,18 +7625,18 @@
         <f t="shared" si="107"/>
         <v>51.05</v>
       </c>
-      <c r="N207" s="108">
+      <c r="N207" s="103">
         <f t="shared" si="108"/>
         <v>7.5539999999999994</v>
       </c>
-      <c r="O207" s="108">
+      <c r="O207" s="103">
         <f t="shared" si="109"/>
         <v>7.5850000000000009</v>
       </c>
     </row>
     <row r="208" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="55" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G208" s="58">
         <f t="shared" si="104"/>
@@ -7624,18 +7654,18 @@
         <f t="shared" si="107"/>
         <v>57.875</v>
       </c>
-      <c r="N208" s="108">
+      <c r="N208" s="103">
         <f t="shared" si="108"/>
         <v>10.640999999999998</v>
       </c>
-      <c r="O208" s="108">
+      <c r="O208" s="103">
         <f t="shared" si="109"/>
         <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G209" s="58">
         <f t="shared" si="104"/>
@@ -7653,18 +7683,18 @@
         <f t="shared" si="107"/>
         <v>51.05</v>
       </c>
-      <c r="N209" s="108">
+      <c r="N209" s="103">
         <f t="shared" si="108"/>
         <v>7.5539999999999994</v>
       </c>
-      <c r="O209" s="108">
+      <c r="O209" s="103">
         <f t="shared" si="109"/>
         <v>7.5850000000000009</v>
       </c>
     </row>
     <row r="210" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G210" s="58">
         <f t="shared" si="104"/>
@@ -7682,11 +7712,11 @@
         <f t="shared" si="107"/>
         <v>48.125</v>
       </c>
-      <c r="N210" s="108">
+      <c r="N210" s="103">
         <f t="shared" si="108"/>
         <v>6.2309999999999999</v>
       </c>
-      <c r="O210" s="108">
+      <c r="O210" s="103">
         <f t="shared" si="109"/>
         <v>6.5500000000000007</v>
       </c>
@@ -7696,7 +7726,7 @@
     </row>
     <row r="212" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G212" s="58">
         <f t="shared" ref="G212:G217" si="110">SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$154+$G64</f>
@@ -7711,21 +7741,21 @@
         <v>48.175000000000004</v>
       </c>
       <c r="M212" s="58">
-        <f t="shared" ref="M212:N217" si="113">SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M64</f>
+        <f t="shared" ref="M212:M217" si="113">SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$154+$M64</f>
         <v>51.375</v>
       </c>
-      <c r="N212" s="108">
+      <c r="N212" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N64</f>
         <v>7.7009999999999996</v>
       </c>
-      <c r="O212" s="108">
+      <c r="O212" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O64</f>
         <v>7.7000000000000011</v>
       </c>
     </row>
     <row r="213" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G213" s="58">
         <f t="shared" si="110"/>
@@ -7743,18 +7773,18 @@
         <f t="shared" si="113"/>
         <v>57.224999999999994</v>
       </c>
-      <c r="N213" s="108">
+      <c r="N213" s="103">
         <f t="shared" ref="N213:N217" si="114">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N65</f>
         <v>10.347</v>
       </c>
-      <c r="O213" s="108">
+      <c r="O213" s="103">
         <f t="shared" ref="O213:O217" si="115">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O65</f>
         <v>9.77</v>
       </c>
     </row>
     <row r="214" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G214" s="58">
         <f t="shared" si="110"/>
@@ -7772,18 +7802,18 @@
         <f t="shared" si="113"/>
         <v>51.05</v>
       </c>
-      <c r="N214" s="108">
+      <c r="N214" s="103">
         <f t="shared" si="114"/>
         <v>7.5539999999999994</v>
       </c>
-      <c r="O214" s="108">
+      <c r="O214" s="103">
         <f t="shared" si="115"/>
         <v>7.5850000000000009</v>
       </c>
     </row>
     <row r="215" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G215" s="58">
         <f t="shared" si="110"/>
@@ -7801,18 +7831,18 @@
         <f t="shared" si="113"/>
         <v>57.224999999999994</v>
       </c>
-      <c r="N215" s="108">
+      <c r="N215" s="103">
         <f t="shared" si="114"/>
         <v>10.347</v>
       </c>
-      <c r="O215" s="108">
+      <c r="O215" s="103">
         <f t="shared" si="115"/>
         <v>9.77</v>
       </c>
     </row>
     <row r="216" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G216" s="58">
         <f t="shared" si="110"/>
@@ -7830,18 +7860,18 @@
         <f t="shared" si="113"/>
         <v>51.05</v>
       </c>
-      <c r="N216" s="108">
+      <c r="N216" s="103">
         <f t="shared" si="114"/>
         <v>7.5539999999999994</v>
       </c>
-      <c r="O216" s="108">
+      <c r="O216" s="103">
         <f t="shared" si="115"/>
         <v>7.5850000000000009</v>
       </c>
     </row>
     <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="56" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G217" s="63">
         <f t="shared" si="110"/>
@@ -7859,11 +7889,11 @@
         <f t="shared" si="113"/>
         <v>48.125</v>
       </c>
-      <c r="N217" s="108">
+      <c r="N217" s="103">
         <f t="shared" si="114"/>
         <v>6.2309999999999999</v>
       </c>
-      <c r="O217" s="108">
+      <c r="O217" s="103">
         <f t="shared" si="115"/>
         <v>6.5500000000000007</v>
       </c>
@@ -7873,7 +7903,7 @@
     </row>
     <row r="219" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G219" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G71</f>
@@ -7891,18 +7921,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M71</f>
         <v>47.074999999999996</v>
       </c>
-      <c r="N219" s="108">
+      <c r="N219" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N71</f>
         <v>8.1370000000000005</v>
       </c>
-      <c r="O219" s="108">
+      <c r="O219" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O71</f>
         <v>7.9350000000000005</v>
       </c>
     </row>
     <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G220" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G72</f>
@@ -7920,18 +7950,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M72</f>
         <v>46.099999999999994</v>
       </c>
-      <c r="N220" s="108">
+      <c r="N220" s="103">
         <f t="shared" ref="N220:N223" si="116">SUM(N$161:N$162)+N$147+N$149+N$151+$N72</f>
         <v>7.6959999999999997</v>
       </c>
-      <c r="O220" s="108">
+      <c r="O220" s="103">
         <f t="shared" ref="O220:O223" si="117">SUM(O$161:O$162)+O$147+O$149+O$151+$O72</f>
         <v>7.59</v>
       </c>
     </row>
     <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G221" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G73</f>
@@ -7949,18 +7979,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M73</f>
         <v>44.8</v>
       </c>
-      <c r="N221" s="108">
+      <c r="N221" s="103">
         <f t="shared" si="116"/>
         <v>7.1080000000000005</v>
       </c>
-      <c r="O221" s="108">
+      <c r="O221" s="103">
         <f t="shared" si="117"/>
         <v>7.1300000000000008</v>
       </c>
     </row>
     <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G222" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G74</f>
@@ -7978,18 +8008,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M74</f>
         <v>40.575000000000003</v>
       </c>
-      <c r="N222" s="108">
+      <c r="N222" s="103">
         <f t="shared" si="116"/>
         <v>5.1970000000000001</v>
       </c>
-      <c r="O222" s="108">
+      <c r="O222" s="103">
         <f t="shared" si="117"/>
         <v>5.6349999999999998</v>
       </c>
     </row>
     <row r="223" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G223" s="63">
         <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G75</f>
@@ -8007,11 +8037,11 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M75</f>
         <v>45.449999999999996</v>
       </c>
-      <c r="N223" s="108">
+      <c r="N223" s="103">
         <f t="shared" si="116"/>
         <v>7.4019999999999992</v>
       </c>
-      <c r="O223" s="108">
+      <c r="O223" s="103">
         <f t="shared" si="117"/>
         <v>7.3599999999999994</v>
       </c>
@@ -8021,7 +8051,7 @@
     </row>
     <row r="225" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G225" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G77</f>
@@ -8039,18 +8069,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M77</f>
         <v>47.074999999999996</v>
       </c>
-      <c r="N225" s="108">
+      <c r="N225" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N77</f>
         <v>8.1370000000000005</v>
       </c>
-      <c r="O225" s="108">
+      <c r="O225" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O77</f>
         <v>7.9350000000000005</v>
       </c>
     </row>
     <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G226" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G78</f>
@@ -8068,18 +8098,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M78</f>
         <v>44.8</v>
       </c>
-      <c r="N226" s="108">
+      <c r="N226" s="103">
         <f t="shared" ref="N226:N229" si="118">SUM(N$161:N$162)+N$147+N$149+N$151+$N78</f>
         <v>7.1080000000000005</v>
       </c>
-      <c r="O226" s="108">
+      <c r="O226" s="103">
         <f t="shared" ref="O226:O229" si="119">SUM(O$161:O$162)+O$147+O$149+O$151+$O78</f>
         <v>7.1300000000000008</v>
       </c>
     </row>
     <row r="227" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="55" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G227" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G79</f>
@@ -8097,18 +8127,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M79</f>
         <v>44.8</v>
       </c>
-      <c r="N227" s="108">
+      <c r="N227" s="103">
         <f t="shared" si="118"/>
         <v>7.1080000000000005</v>
       </c>
-      <c r="O227" s="108">
+      <c r="O227" s="103">
         <f t="shared" si="119"/>
         <v>7.1300000000000008</v>
       </c>
     </row>
     <row r="228" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G228" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G80</f>
@@ -8126,18 +8156,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M80</f>
         <v>40.575000000000003</v>
       </c>
-      <c r="N228" s="108">
+      <c r="N228" s="103">
         <f t="shared" si="118"/>
         <v>5.1970000000000001</v>
       </c>
-      <c r="O228" s="108">
+      <c r="O228" s="103">
         <f t="shared" si="119"/>
         <v>5.6349999999999998</v>
       </c>
     </row>
     <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G229" s="63">
         <f>SUM(G$161:G$162)+G$147+G$149+G$151+$G81</f>
@@ -8155,11 +8185,11 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$151+$M81</f>
         <v>45.449999999999996</v>
       </c>
-      <c r="N229" s="108">
+      <c r="N229" s="103">
         <f t="shared" si="118"/>
         <v>7.4019999999999992</v>
       </c>
-      <c r="O229" s="108">
+      <c r="O229" s="103">
         <f t="shared" si="119"/>
         <v>7.3599999999999994</v>
       </c>
@@ -8169,7 +8199,7 @@
     </row>
     <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="54" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G231" s="58">
         <f t="shared" ref="G231:G236" si="120">SUM(G$161:G$162)+G$147+G$149+G$151+$G83</f>
@@ -8184,21 +8214,21 @@
         <v>44.25</v>
       </c>
       <c r="M231" s="58">
-        <f t="shared" ref="M231:N236" si="123">SUM(M$161:M$162)+M$147+M$149+M$151+$M83</f>
+        <f t="shared" ref="M231:M236" si="123">SUM(M$161:M$162)+M$147+M$149+M$151+$M83</f>
         <v>47.15</v>
       </c>
-      <c r="N231" s="108">
+      <c r="N231" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N83</f>
         <v>6.8140000000000001</v>
       </c>
-      <c r="O231" s="108">
+      <c r="O231" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O83</f>
         <v>6.9</v>
       </c>
     </row>
     <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G232" s="58">
         <f t="shared" si="120"/>
@@ -8216,18 +8246,18 @@
         <f t="shared" si="123"/>
         <v>53</v>
       </c>
-      <c r="N232" s="108">
+      <c r="N232" s="103">
         <f t="shared" ref="N232:N236" si="124">SUM(N$161:N$162)+N$147+N$149+N$151+$N84</f>
         <v>9.4599999999999991</v>
       </c>
-      <c r="O232" s="108">
+      <c r="O232" s="103">
         <f t="shared" ref="O232:O236" si="125">SUM(O$161:O$162)+O$147+O$149+O$151+$O84</f>
         <v>8.9700000000000006</v>
       </c>
     </row>
     <row r="233" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G233" s="58">
         <f t="shared" si="120"/>
@@ -8245,18 +8275,18 @@
         <f t="shared" si="123"/>
         <v>46.825000000000003</v>
       </c>
-      <c r="N233" s="108">
+      <c r="N233" s="103">
         <f t="shared" si="124"/>
         <v>6.6669999999999998</v>
       </c>
-      <c r="O233" s="108">
+      <c r="O233" s="103">
         <f t="shared" si="125"/>
         <v>6.7850000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G234" s="58">
         <f t="shared" si="120"/>
@@ -8274,18 +8304,18 @@
         <f t="shared" si="123"/>
         <v>53.65</v>
       </c>
-      <c r="N234" s="108">
+      <c r="N234" s="103">
         <f t="shared" si="124"/>
         <v>9.7539999999999996</v>
       </c>
-      <c r="O234" s="108">
+      <c r="O234" s="103">
         <f t="shared" si="125"/>
         <v>9.2000000000000011</v>
       </c>
     </row>
     <row r="235" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G235" s="58">
         <f t="shared" si="120"/>
@@ -8303,18 +8333,18 @@
         <f t="shared" si="123"/>
         <v>46.825000000000003</v>
       </c>
-      <c r="N235" s="108">
+      <c r="N235" s="103">
         <f t="shared" si="124"/>
         <v>6.6669999999999998</v>
       </c>
-      <c r="O235" s="108">
+      <c r="O235" s="103">
         <f t="shared" si="125"/>
         <v>6.7850000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G236" s="63">
         <f t="shared" si="120"/>
@@ -8332,11 +8362,11 @@
         <f t="shared" si="123"/>
         <v>43.9</v>
       </c>
-      <c r="N236" s="108">
+      <c r="N236" s="103">
         <f t="shared" si="124"/>
         <v>5.3439999999999994</v>
       </c>
-      <c r="O236" s="108">
+      <c r="O236" s="103">
         <f t="shared" si="125"/>
         <v>5.75</v>
       </c>
@@ -8346,7 +8376,7 @@
     </row>
     <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G238" s="58">
         <f t="shared" ref="G238:G243" si="126">SUM(G$161:G$162)+G$147+G$149+G$151+$G90</f>
@@ -8361,21 +8391,21 @@
         <v>44.25</v>
       </c>
       <c r="M238" s="58">
-        <f t="shared" ref="M238:N243" si="129">SUM(M$161:M$162)+M$147+M$149+M$151+$M90</f>
+        <f t="shared" ref="M238:M243" si="129">SUM(M$161:M$162)+M$147+M$149+M$151+$M90</f>
         <v>47.15</v>
       </c>
-      <c r="N238" s="108">
+      <c r="N238" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N90</f>
         <v>6.8140000000000001</v>
       </c>
-      <c r="O238" s="108">
+      <c r="O238" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O90</f>
         <v>6.9</v>
       </c>
     </row>
     <row r="239" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G239" s="58">
         <f t="shared" si="126"/>
@@ -8393,18 +8423,18 @@
         <f t="shared" si="129"/>
         <v>53</v>
       </c>
-      <c r="N239" s="108">
+      <c r="N239" s="103">
         <f t="shared" ref="N239:N243" si="130">SUM(N$161:N$162)+N$147+N$149+N$151+$N91</f>
         <v>9.4599999999999991</v>
       </c>
-      <c r="O239" s="108">
+      <c r="O239" s="103">
         <f t="shared" ref="O239:O243" si="131">SUM(O$161:O$162)+O$147+O$149+O$151+$O91</f>
         <v>8.9700000000000006</v>
       </c>
     </row>
     <row r="240" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G240" s="58">
         <f t="shared" si="126"/>
@@ -8422,18 +8452,18 @@
         <f t="shared" si="129"/>
         <v>46.825000000000003</v>
       </c>
-      <c r="N240" s="108">
+      <c r="N240" s="103">
         <f t="shared" si="130"/>
         <v>6.6669999999999998</v>
       </c>
-      <c r="O240" s="108">
+      <c r="O240" s="103">
         <f t="shared" si="131"/>
         <v>6.7850000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G241" s="58">
         <f t="shared" si="126"/>
@@ -8451,18 +8481,18 @@
         <f t="shared" si="129"/>
         <v>53</v>
       </c>
-      <c r="N241" s="108">
+      <c r="N241" s="103">
         <f t="shared" si="130"/>
         <v>9.4599999999999991</v>
       </c>
-      <c r="O241" s="108">
+      <c r="O241" s="103">
         <f t="shared" si="131"/>
         <v>8.9700000000000006</v>
       </c>
     </row>
     <row r="242" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G242" s="58">
         <f t="shared" si="126"/>
@@ -8480,18 +8510,18 @@
         <f t="shared" si="129"/>
         <v>46.825000000000003</v>
       </c>
-      <c r="N242" s="108">
+      <c r="N242" s="103">
         <f t="shared" si="130"/>
         <v>6.6669999999999998</v>
       </c>
-      <c r="O242" s="108">
+      <c r="O242" s="103">
         <f t="shared" si="131"/>
         <v>6.7850000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G243" s="63">
         <f t="shared" si="126"/>
@@ -8509,11 +8539,11 @@
         <f t="shared" si="129"/>
         <v>43.9</v>
       </c>
-      <c r="N243" s="108">
+      <c r="N243" s="103">
         <f t="shared" si="130"/>
         <v>5.3439999999999994</v>
       </c>
-      <c r="O243" s="108">
+      <c r="O243" s="103">
         <f t="shared" si="131"/>
         <v>5.75</v>
       </c>
@@ -8523,7 +8553,7 @@
     </row>
     <row r="245" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="54" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G245" s="58">
         <f>SUM(G$161:G$162)+G$148+$G97</f>
@@ -8541,18 +8571,18 @@
         <f>SUM(M$161:M$162)+M$148+$M97</f>
         <v>37.25</v>
       </c>
-      <c r="N245" s="108">
+      <c r="N245" s="103">
         <f>SUM(N$161:N$162)+N$148+$N97</f>
         <v>7.25</v>
       </c>
-      <c r="O245" s="108">
+      <c r="O245" s="103">
         <f>SUM(O$161:O$162)+O$148+$O97</f>
         <v>7.1349999999999998</v>
       </c>
     </row>
     <row r="246" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="55" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G246" s="58">
         <f>SUM(G$161:G$162)+G$148+$G98</f>
@@ -8570,18 +8600,18 @@
         <f>SUM(M$161:M$162)+M$148+$M98</f>
         <v>34.974999999999994</v>
       </c>
-      <c r="N246" s="108">
+      <c r="N246" s="103">
         <f t="shared" ref="N246:N249" si="132">SUM(N$161:N$162)+N$148+$N98</f>
         <v>6.2210000000000001</v>
       </c>
-      <c r="O246" s="108">
+      <c r="O246" s="103">
         <f t="shared" ref="O246:O249" si="133">SUM(O$161:O$162)+O$148+$O98</f>
         <v>6.33</v>
       </c>
     </row>
     <row r="247" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G247" s="58">
         <f>SUM(G$161:G$162)+G$148+$G99</f>
@@ -8599,18 +8629,18 @@
         <f>SUM(M$161:M$162)+M$148+$M99</f>
         <v>34.974999999999994</v>
       </c>
-      <c r="N247" s="108">
+      <c r="N247" s="103">
         <f t="shared" si="132"/>
         <v>6.2210000000000001</v>
       </c>
-      <c r="O247" s="108">
+      <c r="O247" s="103">
         <f t="shared" si="133"/>
         <v>6.33</v>
       </c>
     </row>
     <row r="248" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G248" s="58">
         <f>SUM(G$161:G$162)+G$148+$G100</f>
@@ -8628,18 +8658,18 @@
         <f>SUM(M$161:M$162)+M$148+$M100</f>
         <v>30.75</v>
       </c>
-      <c r="N248" s="108">
+      <c r="N248" s="103">
         <f t="shared" si="132"/>
         <v>4.3100000000000005</v>
       </c>
-      <c r="O248" s="108">
+      <c r="O248" s="103">
         <f t="shared" si="133"/>
         <v>4.835</v>
       </c>
     </row>
     <row r="249" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G249" s="63">
         <f>SUM(G$161:G$162)+G$148+$G101</f>
@@ -8657,11 +8687,11 @@
         <f>SUM(M$161:M$162)+M$148+$M101</f>
         <v>35.625</v>
       </c>
-      <c r="N249" s="108">
+      <c r="N249" s="103">
         <f t="shared" si="132"/>
         <v>6.5149999999999997</v>
       </c>
-      <c r="O249" s="108">
+      <c r="O249" s="103">
         <f t="shared" si="133"/>
         <v>6.56</v>
       </c>
@@ -8671,7 +8701,7 @@
     </row>
     <row r="251" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G251" s="58">
         <f>SUM(G$161:G$162)+G$148+$G103</f>
@@ -8689,18 +8719,18 @@
         <f>SUM(M$161:M$162)+M$148+$M103</f>
         <v>37.25</v>
       </c>
-      <c r="N251" s="108">
+      <c r="N251" s="103">
         <f>SUM(N$161:N$162)+N$148+$N103</f>
         <v>7.25</v>
       </c>
-      <c r="O251" s="108">
+      <c r="O251" s="103">
         <f>SUM(O$161:O$162)+O$148+$O103</f>
         <v>7.1349999999999998</v>
       </c>
     </row>
     <row r="252" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G252" s="58">
         <f>SUM(G$161:G$162)+G$148+$G104</f>
@@ -8718,18 +8748,18 @@
         <f>SUM(M$161:M$162)+M$148+$M104</f>
         <v>34.974999999999994</v>
       </c>
-      <c r="N252" s="108">
+      <c r="N252" s="103">
         <f t="shared" ref="N252:N255" si="134">SUM(N$161:N$162)+N$148+$N104</f>
         <v>6.2210000000000001</v>
       </c>
-      <c r="O252" s="108">
+      <c r="O252" s="103">
         <f t="shared" ref="O252:O255" si="135">SUM(O$161:O$162)+O$148+$O104</f>
         <v>6.33</v>
       </c>
     </row>
     <row r="253" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G253" s="58">
         <f>SUM(G$161:G$162)+G$148+$G105</f>
@@ -8747,18 +8777,18 @@
         <f>SUM(M$161:M$162)+M$148+$M105</f>
         <v>34.974999999999994</v>
       </c>
-      <c r="N253" s="108">
+      <c r="N253" s="103">
         <f t="shared" si="134"/>
         <v>6.2210000000000001</v>
       </c>
-      <c r="O253" s="108">
+      <c r="O253" s="103">
         <f t="shared" si="135"/>
         <v>6.33</v>
       </c>
     </row>
     <row r="254" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G254" s="58">
         <f>SUM(G$161:G$162)+G$148+$G106</f>
@@ -8776,18 +8806,18 @@
         <f>SUM(M$161:M$162)+M$148+$M106</f>
         <v>30.75</v>
       </c>
-      <c r="N254" s="108">
+      <c r="N254" s="103">
         <f t="shared" si="134"/>
         <v>4.3100000000000005</v>
       </c>
-      <c r="O254" s="108">
+      <c r="O254" s="103">
         <f t="shared" si="135"/>
         <v>4.835</v>
       </c>
     </row>
     <row r="255" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="56" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G255" s="63">
         <f>SUM(G$161:G$162)+G$148+$G107</f>
@@ -8805,11 +8835,11 @@
         <f>SUM(M$161:M$162)+M$148+$M107</f>
         <v>35.625</v>
       </c>
-      <c r="N255" s="108">
+      <c r="N255" s="103">
         <f t="shared" si="134"/>
         <v>6.5149999999999997</v>
       </c>
-      <c r="O255" s="108">
+      <c r="O255" s="103">
         <f t="shared" si="135"/>
         <v>6.56</v>
       </c>
@@ -8819,7 +8849,7 @@
     </row>
     <row r="257" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G257" s="58">
         <f t="shared" ref="G257:G262" si="136">SUM(G$161:G$162)+G$148+$G109</f>
@@ -8834,21 +8864,21 @@
         <v>34.725000000000001</v>
       </c>
       <c r="M257" s="58">
-        <f t="shared" ref="M257:N262" si="139">SUM(M$161:M$162)+M$148+$M109</f>
+        <f t="shared" ref="M257:M262" si="139">SUM(M$161:M$162)+M$148+$M109</f>
         <v>37.325000000000003</v>
       </c>
-      <c r="N257" s="108">
+      <c r="N257" s="103">
         <f>SUM(N$161:N$162)+N$148+$N109</f>
         <v>5.9269999999999996</v>
       </c>
-      <c r="O257" s="108">
+      <c r="O257" s="103">
         <f>SUM(O$161:O$162)+O$148+$O109</f>
         <v>6.1000000000000005</v>
       </c>
     </row>
     <row r="258" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G258" s="58">
         <f t="shared" si="136"/>
@@ -8866,18 +8896,18 @@
         <f t="shared" si="139"/>
         <v>43.174999999999997</v>
       </c>
-      <c r="N258" s="108">
+      <c r="N258" s="103">
         <f t="shared" ref="N258:N262" si="140">SUM(N$161:N$162)+N$148+$N110</f>
         <v>8.5730000000000004</v>
       </c>
-      <c r="O258" s="108">
+      <c r="O258" s="103">
         <f t="shared" ref="O258:O262" si="141">SUM(O$161:O$162)+O$148+$O110</f>
         <v>8.17</v>
       </c>
     </row>
     <row r="259" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G259" s="58">
         <f t="shared" si="136"/>
@@ -8895,18 +8925,18 @@
         <f t="shared" si="139"/>
         <v>37</v>
       </c>
-      <c r="N259" s="108">
+      <c r="N259" s="103">
         <f t="shared" si="140"/>
         <v>5.7799999999999994</v>
       </c>
-      <c r="O259" s="108">
+      <c r="O259" s="103">
         <f t="shared" si="141"/>
         <v>5.9850000000000003</v>
       </c>
     </row>
     <row r="260" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G260" s="58">
         <f t="shared" si="136"/>
@@ -8924,18 +8954,18 @@
         <f t="shared" si="139"/>
         <v>43.825000000000003</v>
       </c>
-      <c r="N260" s="108">
+      <c r="N260" s="103">
         <f t="shared" si="140"/>
         <v>8.8669999999999991</v>
       </c>
-      <c r="O260" s="108">
+      <c r="O260" s="103">
         <f t="shared" si="141"/>
         <v>8.4</v>
       </c>
     </row>
     <row r="261" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="55" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G261" s="58">
         <f t="shared" si="136"/>
@@ -8953,18 +8983,18 @@
         <f t="shared" si="139"/>
         <v>37</v>
       </c>
-      <c r="N261" s="108">
+      <c r="N261" s="103">
         <f t="shared" si="140"/>
         <v>5.7799999999999994</v>
       </c>
-      <c r="O261" s="108">
+      <c r="O261" s="103">
         <f t="shared" si="141"/>
         <v>5.9850000000000003</v>
       </c>
     </row>
     <row r="262" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G262" s="63">
         <f t="shared" si="136"/>
@@ -8982,11 +9012,11 @@
         <f t="shared" si="139"/>
         <v>34.075000000000003</v>
       </c>
-      <c r="N262" s="108">
+      <c r="N262" s="103">
         <f t="shared" si="140"/>
         <v>4.4569999999999999</v>
       </c>
-      <c r="O262" s="108">
+      <c r="O262" s="103">
         <f t="shared" si="141"/>
         <v>4.95</v>
       </c>
@@ -8996,7 +9026,7 @@
     </row>
     <row r="264" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="54" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G264" s="58">
         <f t="shared" ref="G264:G269" si="142">SUM(G$161:G$162)+G$148+$G116</f>
@@ -9011,21 +9041,21 @@
         <v>34.725000000000001</v>
       </c>
       <c r="M264" s="58">
-        <f t="shared" ref="M264:N269" si="145">SUM(M$161:M$162)+M$148+$M116</f>
+        <f t="shared" ref="M264:M269" si="145">SUM(M$161:M$162)+M$148+$M116</f>
         <v>37.325000000000003</v>
       </c>
-      <c r="N264" s="108">
+      <c r="N264" s="103">
         <f>SUM(N$161:N$162)+N$148+$N116</f>
         <v>5.9269999999999996</v>
       </c>
-      <c r="O264" s="108">
+      <c r="O264" s="103">
         <f>SUM(O$161:O$162)+O$148+$O116</f>
         <v>6.1000000000000005</v>
       </c>
     </row>
     <row r="265" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G265" s="58">
         <f t="shared" si="142"/>
@@ -9043,18 +9073,18 @@
         <f t="shared" si="145"/>
         <v>43.174999999999997</v>
       </c>
-      <c r="N265" s="108">
+      <c r="N265" s="103">
         <f t="shared" ref="N265:N269" si="146">SUM(N$161:N$162)+N$148+$N117</f>
         <v>8.5730000000000004</v>
       </c>
-      <c r="O265" s="108">
+      <c r="O265" s="103">
         <f t="shared" ref="O265:O269" si="147">SUM(O$161:O$162)+O$148+$O117</f>
         <v>8.17</v>
       </c>
     </row>
     <row r="266" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266" s="55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G266" s="58">
         <f t="shared" si="142"/>
@@ -9072,18 +9102,18 @@
         <f t="shared" si="145"/>
         <v>37</v>
       </c>
-      <c r="N266" s="108">
+      <c r="N266" s="103">
         <f t="shared" si="146"/>
         <v>5.7799999999999994</v>
       </c>
-      <c r="O266" s="108">
+      <c r="O266" s="103">
         <f t="shared" si="147"/>
         <v>5.9850000000000003</v>
       </c>
     </row>
     <row r="267" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="55" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G267" s="58">
         <f t="shared" si="142"/>
@@ -9101,18 +9131,18 @@
         <f t="shared" si="145"/>
         <v>43.825000000000003</v>
       </c>
-      <c r="N267" s="108">
+      <c r="N267" s="103">
         <f t="shared" si="146"/>
         <v>8.8669999999999991</v>
       </c>
-      <c r="O267" s="108">
+      <c r="O267" s="103">
         <f t="shared" si="147"/>
         <v>8.4</v>
       </c>
     </row>
     <row r="268" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="55" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G268" s="58">
         <f t="shared" si="142"/>
@@ -9130,18 +9160,18 @@
         <f>SUM(M$161:M$162)+M$148+$M120</f>
         <v>37</v>
       </c>
-      <c r="N268" s="108">
+      <c r="N268" s="103">
         <f t="shared" si="146"/>
         <v>5.7799999999999994</v>
       </c>
-      <c r="O268" s="108">
+      <c r="O268" s="103">
         <f t="shared" si="147"/>
         <v>5.9850000000000003</v>
       </c>
     </row>
     <row r="269" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G269" s="63">
         <f t="shared" si="142"/>
@@ -9159,11 +9189,11 @@
         <f t="shared" si="145"/>
         <v>34.075000000000003</v>
       </c>
-      <c r="N269" s="108">
+      <c r="N269" s="103">
         <f t="shared" si="146"/>
         <v>4.4569999999999999</v>
       </c>
-      <c r="O269" s="108">
+      <c r="O269" s="103">
         <f t="shared" si="147"/>
         <v>4.95</v>
       </c>
@@ -9173,7 +9203,7 @@
     </row>
     <row r="271" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G271" s="58">
         <f>SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$156+$G158+$G160+$G123</f>
@@ -9191,18 +9221,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$156+$M158+$M160+$M123</f>
         <v>68.8</v>
       </c>
-      <c r="N271" s="108">
+      <c r="N271" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$156+$N158+$N160+$N123</f>
         <v>9.24</v>
       </c>
-      <c r="O271" s="108">
+      <c r="O271" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$156+$O158+$O160+$O123</f>
         <v>9.625</v>
       </c>
     </row>
     <row r="272" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G272" s="58">
         <f t="shared" ref="G272:G273" si="148">SUM(G$161:G$162)+G$147+G$149+G$150+G$152+G$153+G$155+G$156+$G159+$G161+$G124</f>
@@ -9220,18 +9250,18 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$156+$N159+$M161+$M124</f>
         <v>48.1</v>
       </c>
-      <c r="N272" s="108">
+      <c r="N272" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$156+$N159+$N161+$N124</f>
         <v>9.2279999999999998</v>
       </c>
-      <c r="O272" s="108">
+      <c r="O272" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$156+$O159+$O161+$O124</f>
         <v>9.2850000000000001</v>
       </c>
     </row>
     <row r="273" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G273" s="58">
         <f t="shared" si="148"/>
@@ -9249,11 +9279,11 @@
         <f>SUM(M$161:M$162)+M$147+M$149+M$150+M$152+M$153+M$155+M$156+$M160+$M125</f>
         <v>72.849999999999994</v>
       </c>
-      <c r="N273" s="108">
+      <c r="N273" s="103">
         <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$156+$N160+$N125</f>
         <v>9.8819999999999997</v>
       </c>
-      <c r="O273" s="108">
+      <c r="O273" s="103">
         <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$156+$O160+$O125</f>
         <v>10.129999999999999</v>
       </c>
@@ -9276,7 +9306,7 @@
         <v>29.414999999999999</v>
       </c>
       <c r="M275" s="78">
-        <f t="shared" ref="M275:N275" si="149">MIN(M167:M273)</f>
+        <f t="shared" ref="M275" si="149">MIN(M167:M273)</f>
         <v>30.75</v>
       </c>
       <c r="N275" s="18">
@@ -9301,7 +9331,7 @@
         <v>65.304000000000002</v>
       </c>
       <c r="L276" s="78">
-        <f t="shared" ref="L276:N276" si="150">MAX(L167:L273)</f>
+        <f t="shared" ref="L276:M276" si="150">MAX(L167:L273)</f>
         <v>69.7</v>
       </c>
       <c r="M276" s="78">
@@ -9322,16 +9352,6 @@
       <c r="A279" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="C279" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D279" s="97"/>
-      <c r="E279" s="98"/>
-      <c r="G279" s="96" t="s">
-        <v>172</v>
-      </c>
-      <c r="H279" s="97"/>
-      <c r="I279" s="98"/>
     </row>
     <row r="280" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280" s="81" t="s">
@@ -9346,10 +9366,10 @@
       <c r="E280" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="G280" s="87">
+      <c r="G280" s="106">
         <v>950</v>
       </c>
-      <c r="H280" s="88">
+      <c r="H280" s="107">
         <v>2150</v>
       </c>
       <c r="I280" s="84" t="s">
@@ -9372,11 +9392,11 @@
         <f>D281-C281</f>
         <v>1.7099999999999973</v>
       </c>
-      <c r="G281" s="21">
+      <c r="G281" s="105">
         <f>L275</f>
         <v>29.414999999999999</v>
       </c>
-      <c r="H281" s="21">
+      <c r="H281" s="105">
         <f>M275</f>
         <v>30.75</v>
       </c>
@@ -9438,7 +9458,7 @@
         <f>H282-H281</f>
         <v>42.099999999999994</v>
       </c>
-      <c r="I283" s="95">
+      <c r="I283" s="93">
         <f>H282-G281</f>
         <v>43.434999999999995</v>
       </c>
@@ -9446,15 +9466,15 @@
     <row r="285" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="286" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C286" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D286" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="287" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C287" s="85">
         <f>N276</f>
@@ -9467,17 +9487,13 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C288" s="86" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D288" s="86" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C279:E279"/>
-    <mergeCell ref="G279:I279"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9485,15 +9501,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D52DB39-8578-429A-9498-50C656F3D0E2}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A4" zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.453125" customWidth="1"/>
+    <col min="1" max="1" width="38.81640625" customWidth="1"/>
+    <col min="9" max="16" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -9643,62 +9660,580 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>8</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
       <c r="H10" s="2">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K10" s="2">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="L10" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10" s="2">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="N10" s="2">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="O10" s="2">
         <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="104" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="2">
+        <v>40</v>
+      </c>
+      <c r="G14" s="2">
+        <v>48</v>
+      </c>
+      <c r="H14" s="2">
+        <v>50</v>
+      </c>
+      <c r="I14" s="2">
+        <v>50</v>
+      </c>
+      <c r="J14" s="2">
+        <v>50</v>
+      </c>
+      <c r="K14" s="2">
+        <v>50</v>
+      </c>
+      <c r="L14" s="2">
+        <v>50</v>
+      </c>
+      <c r="M14" s="2">
+        <v>50</v>
+      </c>
+      <c r="N14" s="2">
+        <v>50</v>
+      </c>
+      <c r="O14" s="2">
+        <v>50</v>
+      </c>
+      <c r="P14" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="2">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2">
+        <v>35</v>
+      </c>
+      <c r="H15" s="2">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
+        <v>30</v>
+      </c>
+      <c r="L15" s="2">
+        <v>30</v>
+      </c>
+      <c r="M15" s="2">
+        <v>30</v>
+      </c>
+      <c r="N15" s="2">
+        <v>30</v>
+      </c>
+      <c r="O15" s="2">
+        <v>30</v>
+      </c>
+      <c r="P15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2">
+        <v>9</v>
+      </c>
+      <c r="I16" s="2">
+        <v>9</v>
+      </c>
+      <c r="J16" s="2">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2">
+        <v>9</v>
+      </c>
+      <c r="L16" s="2">
+        <v>9</v>
+      </c>
+      <c r="M16" s="2">
+        <v>9</v>
+      </c>
+      <c r="N16" s="2">
+        <v>9</v>
+      </c>
+      <c r="O16" s="2">
+        <v>9</v>
+      </c>
+      <c r="P16" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="2">
+        <v>110</v>
+      </c>
+      <c r="G17" s="2">
+        <v>110</v>
+      </c>
+      <c r="H17" s="2">
+        <v>110</v>
+      </c>
+      <c r="I17" s="2">
+        <v>110</v>
+      </c>
+      <c r="J17" s="2">
+        <v>110</v>
+      </c>
+      <c r="K17" s="2">
+        <v>110</v>
+      </c>
+      <c r="L17" s="2">
+        <v>110</v>
+      </c>
+      <c r="M17" s="2">
+        <v>110</v>
+      </c>
+      <c r="N17" s="2">
+        <v>110</v>
+      </c>
+      <c r="O17" s="2">
+        <v>110</v>
+      </c>
+      <c r="P17" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="2">
+        <v>35</v>
+      </c>
+      <c r="G18" s="2">
+        <v>35</v>
+      </c>
+      <c r="H18" s="2">
+        <v>35</v>
+      </c>
+      <c r="I18" s="2">
+        <v>35</v>
+      </c>
+      <c r="J18" s="2">
+        <v>35</v>
+      </c>
+      <c r="K18" s="2">
+        <v>35</v>
+      </c>
+      <c r="L18" s="2">
+        <v>35</v>
+      </c>
+      <c r="M18" s="2">
+        <v>35</v>
+      </c>
+      <c r="N18" s="2">
+        <v>35</v>
+      </c>
+      <c r="O18" s="2">
+        <v>35</v>
+      </c>
+      <c r="P18" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="104" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H22" s="2">
+        <v>28</v>
+      </c>
+      <c r="I22" s="2">
+        <v>28</v>
+      </c>
+      <c r="J22" s="2">
+        <v>28</v>
+      </c>
+      <c r="K22" s="2">
+        <v>28</v>
+      </c>
+      <c r="L22" s="2">
+        <v>28</v>
+      </c>
+      <c r="M22" s="2">
+        <v>28</v>
+      </c>
+      <c r="N22" s="2">
+        <v>28</v>
+      </c>
+      <c r="O22" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H23" s="2">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2">
+        <v>20</v>
+      </c>
+      <c r="J23" s="2">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2">
+        <v>20</v>
+      </c>
+      <c r="L23" s="2">
+        <v>20</v>
+      </c>
+      <c r="M23" s="2">
+        <v>20</v>
+      </c>
+      <c r="N23" s="2">
+        <v>20</v>
+      </c>
+      <c r="O23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="J24" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L24" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="M24" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="N24" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="O24" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="H25" s="2">
+        <v>106</v>
+      </c>
+      <c r="I25" s="2">
+        <v>106</v>
+      </c>
+      <c r="J25" s="2">
+        <v>106</v>
+      </c>
+      <c r="K25" s="2">
+        <v>106</v>
+      </c>
+      <c r="L25" s="2">
+        <v>106</v>
+      </c>
+      <c r="M25" s="2">
+        <v>106</v>
+      </c>
+      <c r="N25" s="2">
+        <v>106</v>
+      </c>
+      <c r="O25" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="H26" s="2">
+        <v>35</v>
+      </c>
+      <c r="I26" s="2">
+        <v>35</v>
+      </c>
+      <c r="J26" s="2">
+        <v>35</v>
+      </c>
+      <c r="K26" s="2">
+        <v>35</v>
+      </c>
+      <c r="L26" s="2">
+        <v>35</v>
+      </c>
+      <c r="M26" s="2">
+        <v>35</v>
+      </c>
+      <c r="N26" s="2">
+        <v>35</v>
+      </c>
+      <c r="O26" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="108" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="110" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" s="109">
+        <v>70</v>
+      </c>
+      <c r="G30" s="109">
+        <v>58</v>
+      </c>
+      <c r="H30" s="109">
+        <v>50</v>
+      </c>
+      <c r="I30" s="109">
+        <v>50</v>
+      </c>
+      <c r="J30" s="109">
+        <v>50</v>
+      </c>
+      <c r="K30" s="109">
+        <v>50</v>
+      </c>
+      <c r="L30" s="109">
+        <v>50</v>
+      </c>
+      <c r="M30" s="109">
+        <v>50</v>
+      </c>
+      <c r="N30" s="109">
+        <v>50</v>
+      </c>
+      <c r="O30" s="109">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="109">
+        <v>1</v>
+      </c>
+      <c r="G31" s="109">
+        <v>8</v>
+      </c>
+      <c r="H31" s="109">
+        <v>15</v>
+      </c>
+      <c r="I31" s="109">
+        <v>15</v>
+      </c>
+      <c r="J31" s="109">
+        <v>15</v>
+      </c>
+      <c r="K31" s="109">
+        <v>15</v>
+      </c>
+      <c r="L31" s="109">
+        <v>15</v>
+      </c>
+      <c r="M31" s="109">
+        <v>15</v>
+      </c>
+      <c r="N31" s="109">
+        <v>15</v>
+      </c>
+      <c r="O31" s="109">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="110" t="s">
+        <v>273</v>
+      </c>
+      <c r="F32" s="109">
+        <f>F30-F31-31.54+20*LOG(F2)</f>
+        <v>77.460000000000008</v>
+      </c>
+      <c r="G32" s="111">
+        <f>G30-G31-31.54+20*LOG(G2)</f>
+        <v>64.904385894678384</v>
+      </c>
+      <c r="H32" s="111">
+        <f t="shared" ref="G32:P32" si="0">H30-H31-31.54+20*LOG(H2)</f>
+        <v>57.120940764776996</v>
+      </c>
+      <c r="I32" s="111">
+        <f t="shared" si="0"/>
+        <v>57.679262379905516</v>
+      </c>
+      <c r="J32" s="111">
+        <f t="shared" si="0"/>
+        <v>57.94551739201578</v>
+      </c>
+      <c r="K32" s="111">
+        <f t="shared" si="0"/>
+        <v>58.57749711344983</v>
+      </c>
+      <c r="L32" s="111">
+        <f t="shared" si="0"/>
+        <v>59.391486664208593</v>
+      </c>
+      <c r="M32" s="111">
+        <f t="shared" si="0"/>
+        <v>59.718267132857115</v>
+      </c>
+      <c r="N32" s="111">
+        <f t="shared" si="0"/>
+        <v>60.0331979307064</v>
+      </c>
+      <c r="O32" s="111">
+        <f t="shared" si="0"/>
+        <v>61.189814503449639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="110" t="s">
+        <v>274</v>
+      </c>
+      <c r="F33" s="109">
+        <v>66</v>
+      </c>
+      <c r="G33" s="109">
+        <v>58</v>
+      </c>
+      <c r="H33" s="109">
+        <v>56.66</v>
+      </c>
+      <c r="I33" s="109">
+        <v>57.22</v>
+      </c>
+      <c r="J33" s="109">
+        <v>57.49</v>
+      </c>
+      <c r="K33" s="109">
+        <v>58.12</v>
+      </c>
+      <c r="L33" s="109">
+        <v>58.93</v>
+      </c>
+      <c r="M33" s="109">
+        <v>59.26</v>
+      </c>
+      <c r="N33" s="109">
+        <v>59.57</v>
+      </c>
+      <c r="O33" s="109">
+        <v>60.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="110" t="s">
+        <v>275</v>
+      </c>
+      <c r="F34" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="H34" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="I34" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="K34" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="L34" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="M34" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="N34" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" s="112" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/6-1/ITSIT/Trabajo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="11_AA5C2796D14A585BA2449CEF5E30AD8D88D2DDCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE7FBE07-E5D4-4D92-ACA9-0CA65F00F29F}"/>
+  <xr:revisionPtr revIDLastSave="695" documentId="11_AA5C2796D14A585BA2449CEF5E30AD8D88D2DDCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{776C1050-FA1C-4FD6-A824-12D7802EBF2C}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="321">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -904,9 +904,6 @@
     <t>PREGUNTAR LO DE LOS CANALES 28 y 29 si se ponen juntos o se puede dejar asi</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>HEADEND LOSSES</t>
   </si>
   <si>
@@ -920,6 +917,90 @@
   </si>
   <si>
     <t>Amplificador input level, Sin (dBuV)</t>
+  </si>
+  <si>
+    <t>Preguntar que tipo de cable es este para buscar los valores que corresponden</t>
+  </si>
+  <si>
+    <t>Preguntar si los valores de Outdoor cable length son estos (Me tienen que decir Josepe estos valores a que altura estan las antenas estas)</t>
+  </si>
+  <si>
+    <t>AMPLIFIER GAIN</t>
+  </si>
+  <si>
+    <t>WITHOUT MAST AMPLIFIER</t>
+  </si>
+  <si>
+    <t>Required gain of Z-module amplifier, GT(dB)</t>
+  </si>
+  <si>
+    <t>Gain without mast amplifier?</t>
+  </si>
+  <si>
+    <t>WITH MAST AMPLIFIER</t>
+  </si>
+  <si>
+    <t>Adjusted gain of Z-module amplifier, Gamp(dB)</t>
+  </si>
+  <si>
+    <t>Adjusted gain of mast amplifier, Gpre(dB)</t>
+  </si>
+  <si>
+    <t>Gain with mast amplifier?</t>
+  </si>
+  <si>
+    <t>REVISAR ESTO</t>
+  </si>
+  <si>
+    <t>NOISE PARAMETERS</t>
+  </si>
+  <si>
+    <t>Noise equivalent bandwitdth (MHz)</t>
+  </si>
+  <si>
+    <t>Source noise temperature (satelite antenna)</t>
+  </si>
+  <si>
+    <t>Noise level (dBuV)</t>
+  </si>
+  <si>
+    <t>Minimum C/N (dB)</t>
+  </si>
+  <si>
+    <t>THERMAL NOISE</t>
+  </si>
+  <si>
+    <t>Equivalent noise figure Feq(dB)</t>
+  </si>
+  <si>
+    <t>C/N at outlet (dB)</t>
+  </si>
+  <si>
+    <t>C/N without mast amplifier?</t>
+  </si>
+  <si>
+    <t>C/N with mast amplifier?</t>
+  </si>
+  <si>
+    <t>PREGUNTAR SI LA FORMULA ESTA BIEN</t>
+  </si>
+  <si>
+    <t>REVISAR</t>
+  </si>
+  <si>
+    <t>S/I without mast amplifier (dB)</t>
+  </si>
+  <si>
+    <t>S/I without mast amplifier?</t>
+  </si>
+  <si>
+    <t>Output level of mast amplifier, Spre(dBuV)</t>
+  </si>
+  <si>
+    <t>S/I with mast amplifier (dB)</t>
+  </si>
+  <si>
+    <t>S/I with mast amplifier?</t>
   </si>
 </sst>
 </file>
@@ -929,7 +1010,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1817,10 +1898,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1834,7 +1915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2163,21 +2244,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2190,7 +2256,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2224,8 +2289,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2251,7 +2316,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2259,9 +2323,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2273,6 +2334,36 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2601,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O308"/>
   <sheetViews>
-    <sheetView topLeftCell="B288" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G299" sqref="G299"/>
+    <sheetView topLeftCell="D260" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2612,8 +2703,8 @@
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12201,16 +12292,16 @@
       <c r="A280" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C280" s="136" t="s">
+      <c r="C280" s="186" t="s">
         <v>198</v>
       </c>
-      <c r="D280" s="137"/>
-      <c r="E280" s="138"/>
-      <c r="G280" s="136" t="s">
+      <c r="D280" s="187"/>
+      <c r="E280" s="188"/>
+      <c r="G280" s="186" t="s">
         <v>199</v>
       </c>
-      <c r="H280" s="137"/>
-      <c r="I280" s="138"/>
+      <c r="H280" s="187"/>
+      <c r="I280" s="188"/>
     </row>
     <row r="281" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="81" t="s">
@@ -12324,10 +12415,10 @@
     </row>
     <row r="286" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="287" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C287" s="146" t="s">
+      <c r="C287" s="140" t="s">
         <v>252</v>
       </c>
-      <c r="D287" s="146" t="s">
+      <c r="D287" s="140" t="s">
         <v>253</v>
       </c>
     </row>
@@ -12364,24 +12455,24 @@
       </c>
     </row>
     <row r="293" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C293" s="147" t="s">
+      <c r="C293" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="D293" s="148" t="s">
+      <c r="D293" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="E293" s="148" t="s">
+      <c r="E293" s="142" t="s">
         <v>255</v>
       </c>
-      <c r="F293" s="149" t="s">
+      <c r="F293" s="143" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="143" t="s">
+      <c r="A294" s="138" t="s">
         <v>256</v>
       </c>
-      <c r="C294" s="150">
+      <c r="C294" s="144">
         <v>40</v>
       </c>
       <c r="D294" s="115">
@@ -12390,71 +12481,71 @@
       <c r="E294" s="115">
         <v>47</v>
       </c>
-      <c r="F294" s="151">
+      <c r="F294" s="145">
         <v>47</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="144" t="s">
+      <c r="A295" s="139" t="s">
         <v>257</v>
       </c>
-      <c r="C295" s="152">
+      <c r="C295" s="146">
         <v>70</v>
       </c>
-      <c r="D295" s="153">
+      <c r="D295" s="147">
         <v>70</v>
       </c>
-      <c r="E295" s="153">
+      <c r="E295" s="147">
         <v>70</v>
       </c>
-      <c r="F295" s="154">
+      <c r="F295" s="148">
         <v>70</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="297" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="146" t="s">
+      <c r="A297" s="140" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="143" t="s">
+      <c r="A298" s="138" t="s">
         <v>259</v>
       </c>
-      <c r="C298" s="155">
+      <c r="C298" s="149">
         <f>MAX(H167:H273)+C294</f>
         <v>84.808999999999997</v>
       </c>
-      <c r="D298" s="156">
+      <c r="D298" s="150">
         <f>MAX(I167:I273)+D294</f>
         <v>75.03</v>
       </c>
-      <c r="E298" s="156">
+      <c r="E298" s="150">
         <f>MAX(K167:K273)+E294</f>
         <v>96.51</v>
       </c>
-      <c r="F298" s="157">
+      <c r="F298" s="151">
         <f>MAX(M167:M273)+F294</f>
         <v>104.52500000000001</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="144" t="s">
+      <c r="A299" s="139" t="s">
         <v>260</v>
       </c>
-      <c r="C299" s="158">
+      <c r="C299" s="152">
         <f>MIN(H167:H273)+C295</f>
         <v>104.16200000000001</v>
       </c>
-      <c r="D299" s="159">
+      <c r="D299" s="153">
         <f>MIN(I167:I273)+D295</f>
         <v>104.675</v>
       </c>
-      <c r="E299" s="159">
+      <c r="E299" s="153">
         <f>MIN(K167:K273)+E295</f>
         <v>106.358</v>
       </c>
-      <c r="F299" s="160">
+      <c r="F299" s="154">
         <f>MIN(M167:M273)+F295</f>
         <v>105.26300000000001</v>
       </c>
@@ -12464,19 +12555,19 @@
       <c r="A301" s="135" t="s">
         <v>261</v>
       </c>
-      <c r="C301" s="161">
+      <c r="C301" s="155">
         <f>0.25*C298+0.75*C299</f>
         <v>99.32374999999999</v>
       </c>
-      <c r="D301" s="162">
+      <c r="D301" s="156">
         <f>0.25*D298+0.75*D299</f>
         <v>97.263749999999987</v>
       </c>
-      <c r="E301" s="156">
+      <c r="E301" s="150">
         <f>0.25*E298+0.75*E299</f>
         <v>103.896</v>
       </c>
-      <c r="F301" s="157">
+      <c r="F301" s="151">
         <f>0.25*F298+0.75*F299</f>
         <v>105.07849999999999</v>
       </c>
@@ -12485,7 +12576,7 @@
       <c r="A302" s="135" t="s">
         <v>262</v>
       </c>
-      <c r="C302" s="167">
+      <c r="C302" s="161">
         <v>97</v>
       </c>
       <c r="D302" s="21">
@@ -12494,24 +12585,24 @@
       <c r="E302" s="21">
         <v>101</v>
       </c>
-      <c r="F302" s="170">
+      <c r="F302" s="164">
         <v>110</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="145" t="s">
+      <c r="A303" t="s">
         <v>263</v>
       </c>
-      <c r="C303" s="166" t="s">
+      <c r="C303" s="160" t="s">
         <v>267</v>
       </c>
-      <c r="D303" s="168" t="s">
+      <c r="D303" s="162" t="s">
         <v>268</v>
       </c>
-      <c r="E303" s="168" t="s">
+      <c r="E303" s="162" t="s">
         <v>269</v>
       </c>
-      <c r="F303" s="169" t="s">
+      <c r="F303" s="163" t="s">
         <v>270</v>
       </c>
     </row>
@@ -12526,12 +12617,12 @@
       </c>
     </row>
     <row r="306" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="146" t="s">
+      <c r="A306" s="140" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="143" t="s">
+      <c r="A307" s="138" t="s">
         <v>77</v>
       </c>
       <c r="C307" s="58">
@@ -12540,7 +12631,7 @@
       </c>
     </row>
     <row r="308" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="144" t="s">
+      <c r="A308" s="139" t="s">
         <v>78</v>
       </c>
       <c r="C308" s="60">
@@ -12564,15 +12655,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1"/>
     <col min="9" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12611,7 +12702,7 @@
       <c r="N1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="141" t="s">
+      <c r="O1" s="136" t="s">
         <v>69</v>
       </c>
       <c r="P1" s="45" t="s">
@@ -12653,7 +12744,7 @@
       <c r="N2" s="44">
         <v>650</v>
       </c>
-      <c r="O2" s="142">
+      <c r="O2" s="137">
         <v>674</v>
       </c>
       <c r="P2" s="46">
@@ -12702,10 +12793,13 @@
         <v>0.11</v>
       </c>
       <c r="O5" s="2">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="P5" s="2">
         <v>0.23</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12778,7 +12872,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>287</v>
       </c>
     </row>
@@ -13325,75 +13419,75 @@
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="147" t="s">
+      <c r="C39" s="141" t="s">
         <v>278</v>
       </c>
-      <c r="D39" s="149" t="s">
+      <c r="D39" s="143" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="146" t="s">
+      <c r="A40" s="140" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="143" t="s">
+      <c r="A41" s="138" t="s">
         <v>275</v>
       </c>
-      <c r="F41" s="183">
+      <c r="F41" s="176">
         <f>Network!C302</f>
         <v>97</v>
       </c>
-      <c r="G41" s="184">
+      <c r="G41" s="177">
         <f>Network!D302</f>
         <v>95</v>
       </c>
-      <c r="H41" s="185">
+      <c r="H41" s="178">
         <f>Network!E302</f>
         <v>101</v>
       </c>
-      <c r="I41" s="185">
+      <c r="I41" s="178">
         <f>Network!E302</f>
         <v>101</v>
       </c>
-      <c r="J41" s="185">
+      <c r="J41" s="178">
         <f>Network!E302</f>
         <v>101</v>
       </c>
-      <c r="K41" s="185">
+      <c r="K41" s="178">
         <f>Network!E302</f>
         <v>101</v>
       </c>
-      <c r="L41" s="185">
+      <c r="L41" s="178">
         <f>Network!E302</f>
         <v>101</v>
       </c>
-      <c r="M41" s="185">
+      <c r="M41" s="178">
         <f>Network!E302</f>
         <v>101</v>
       </c>
-      <c r="N41" s="185">
+      <c r="N41" s="178">
         <f>Network!E302</f>
         <v>101</v>
       </c>
-      <c r="O41" s="185">
+      <c r="O41" s="178">
         <f>Network!E302</f>
         <v>101</v>
       </c>
-      <c r="P41" s="186">
+      <c r="P41" s="179">
         <f>Network!F302</f>
         <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="172" t="s">
+      <c r="A42" s="166" t="s">
         <v>276</v>
       </c>
-      <c r="F42" s="167">
+      <c r="F42" s="161">
         <v>8</v>
       </c>
-      <c r="G42" s="181">
+      <c r="G42" s="174">
         <v>7</v>
       </c>
       <c r="H42" s="21">
@@ -13420,25 +13514,25 @@
       <c r="O42" s="21">
         <v>0</v>
       </c>
-      <c r="P42" s="170">
+      <c r="P42" s="164">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="166" t="s">
         <v>277</v>
       </c>
-      <c r="C43" s="164">
+      <c r="C43" s="158">
         <v>0.3</v>
       </c>
-      <c r="D43" s="165">
+      <c r="D43" s="159">
         <v>0.5</v>
       </c>
-      <c r="F43" s="167">
+      <c r="F43" s="161">
         <f>F42*C43</f>
         <v>2.4</v>
       </c>
-      <c r="G43" s="181">
+      <c r="G43" s="174">
         <f>G42*C43</f>
         <v>2.1</v>
       </c>
@@ -13474,300 +13568,1261 @@
         <f>O42*D43</f>
         <v>0</v>
       </c>
-      <c r="P43" s="170">
+      <c r="P43" s="164">
         <f>P42*D43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="178" t="s">
+      <c r="A44" s="172" t="s">
         <v>280</v>
       </c>
-      <c r="F44" s="191">
-        <f>F41+F43</f>
+      <c r="F44" s="183">
+        <f t="shared" ref="F44:P44" si="1">F41+F43</f>
         <v>99.4</v>
       </c>
-      <c r="G44" s="192">
-        <f>G41+G43</f>
+      <c r="G44" s="184">
+        <f t="shared" si="1"/>
         <v>97.1</v>
       </c>
       <c r="H44" s="90">
-        <f>H41+H43</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="I44" s="90">
-        <f>I41+I43</f>
+        <f t="shared" si="1"/>
         <v>103.5</v>
       </c>
       <c r="J44" s="90">
-        <f>J41+J43</f>
+        <f t="shared" si="1"/>
         <v>103.5</v>
       </c>
       <c r="K44" s="90">
-        <f>K41+K43</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="L44" s="90">
-        <f>L41+L43</f>
+        <f t="shared" si="1"/>
         <v>102.5</v>
       </c>
       <c r="M44" s="90">
-        <f>M41+M43</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="N44" s="90">
-        <f>N41+N43</f>
+        <f t="shared" si="1"/>
         <v>101.5</v>
       </c>
       <c r="O44" s="90">
-        <f>O41+O43</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="P44" s="193">
-        <f>P41+P43</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="172" t="s">
-        <v>281</v>
-      </c>
-      <c r="F45" s="179">
-        <f>F19-F81</f>
-        <v>99.032015015757835</v>
-      </c>
-      <c r="G45" s="182">
-        <f t="shared" ref="G45:P45" si="1">G19-G81</f>
-        <v>101.17931555708239</v>
-      </c>
-      <c r="H45" s="174">
+      <c r="P44" s="185">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="I45" s="174">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="166" t="s">
+        <v>281</v>
+      </c>
+      <c r="F45" s="173">
+        <f>F19-F87</f>
+        <v>99.032015015757835</v>
+      </c>
+      <c r="G45" s="175">
+        <f t="shared" ref="G45:P45" si="2">G19-G87</f>
+        <v>101.17931555708239</v>
+      </c>
+      <c r="H45" s="168">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="J45" s="174">
-        <f t="shared" si="1"/>
+      <c r="I45" s="168">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K45" s="174">
-        <f t="shared" si="1"/>
+      <c r="J45" s="168">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="L45" s="174">
-        <f t="shared" si="1"/>
+      <c r="K45" s="168">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="M45" s="174">
-        <f t="shared" si="1"/>
+      <c r="L45" s="168">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="N45" s="174">
-        <f t="shared" si="1"/>
+      <c r="M45" s="168">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="O45" s="174">
-        <f t="shared" si="1"/>
+      <c r="N45" s="168">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="P45" s="180">
-        <f t="shared" si="1"/>
+      <c r="O45" s="168">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="P45" s="171">
+        <f t="shared" si="2"/>
         <v>113.03201501575784</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="144" t="s">
+      <c r="A46" s="139" t="s">
         <v>282</v>
       </c>
-      <c r="F46" s="187" t="s">
-        <v>288</v>
-      </c>
-      <c r="G46" s="188" t="s">
-        <v>171</v>
-      </c>
-      <c r="H46" s="189" t="s">
-        <v>171</v>
-      </c>
-      <c r="I46" s="189" t="s">
-        <v>171</v>
-      </c>
-      <c r="J46" s="189" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="189" t="s">
-        <v>171</v>
-      </c>
-      <c r="L46" s="189" t="s">
-        <v>171</v>
-      </c>
-      <c r="M46" s="189" t="s">
-        <v>171</v>
-      </c>
-      <c r="N46" s="189" t="s">
-        <v>171</v>
-      </c>
-      <c r="O46" s="189" t="s">
-        <v>171</v>
-      </c>
-      <c r="P46" s="190" t="s">
-        <v>171</v>
+      <c r="F46" s="180" t="str">
+        <f>IF(F44&lt;=(F19-F87),"OK","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G46" s="181" t="str">
+        <f>IF(G44&lt;=(G19-G87),"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="H46" s="181" t="str">
+        <f>IF(H44&lt;=(H19-H87),"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="I46" s="181" t="str">
+        <f>IF(I44&lt;=(I19-I87),"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="J46" s="181" t="str">
+        <f>IF(J44&lt;=(J19-J87),"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="K46" s="181" t="str">
+        <f>IF(K44&lt;=(K19-K87),"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="L46" s="181" t="str">
+        <f>IF(L44&lt;=(L19-L87),"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="M46" s="181" t="str">
+        <f>IF(M44&lt;=(M19-M87),"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="N46" s="181" t="str">
+        <f>IF(N44&lt;=(N19-N87),"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="O46" s="191" t="str">
+        <f>IF(O44&lt;=(O19-O87),"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="P46" s="182" t="str">
+        <f>IF(P44&lt;=(P19-P87),"OK","NO")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="146" t="s">
+      <c r="A48" s="140" t="s">
+        <v>288</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="165" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="171" t="s">
+      <c r="F49" s="149">
+        <v>6</v>
+      </c>
+      <c r="G49" s="150">
+        <v>8</v>
+      </c>
+      <c r="H49" s="150">
+        <v>8</v>
+      </c>
+      <c r="I49" s="150">
+        <v>8</v>
+      </c>
+      <c r="J49" s="150">
+        <v>8</v>
+      </c>
+      <c r="K49" s="150">
+        <v>8</v>
+      </c>
+      <c r="L49" s="150">
+        <v>8</v>
+      </c>
+      <c r="M49" s="150">
+        <v>8</v>
+      </c>
+      <c r="N49" s="150">
+        <v>8</v>
+      </c>
+      <c r="O49" s="151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="166" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="172" t="s">
+      <c r="F50" s="161">
+        <f>F5*F49</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G50" s="21">
+        <f>G5*G49</f>
+        <v>0.48</v>
+      </c>
+      <c r="H50" s="21">
+        <f>H5*H49</f>
+        <v>0.8</v>
+      </c>
+      <c r="I50" s="21">
+        <f t="shared" ref="I50:N50" si="3">I5*I49</f>
+        <v>0.8</v>
+      </c>
+      <c r="J50" s="21">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="K50" s="21">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="L50" s="21">
+        <f t="shared" si="3"/>
+        <v>0.88</v>
+      </c>
+      <c r="M50" s="21">
+        <f t="shared" si="3"/>
+        <v>0.88</v>
+      </c>
+      <c r="N50" s="21">
+        <f t="shared" si="3"/>
+        <v>0.88</v>
+      </c>
+      <c r="O50" s="164">
+        <f>O5*O49</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="166" t="s">
+        <v>276</v>
+      </c>
+      <c r="F51" s="161">
+        <v>8</v>
+      </c>
+      <c r="G51" s="21">
+        <v>7</v>
+      </c>
+      <c r="H51" s="21">
+        <v>6</v>
+      </c>
+      <c r="I51" s="21">
+        <v>5</v>
+      </c>
+      <c r="J51" s="21">
+        <v>5</v>
+      </c>
+      <c r="K51" s="21">
+        <v>4</v>
+      </c>
+      <c r="L51" s="21">
+        <v>3</v>
+      </c>
+      <c r="M51" s="21">
+        <v>2</v>
+      </c>
+      <c r="N51" s="21">
+        <v>1</v>
+      </c>
+      <c r="O51" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="166" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="158">
+        <v>0.3</v>
+      </c>
+      <c r="D52" s="159">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="161">
+        <f>C52*F51</f>
+        <v>2.4</v>
+      </c>
+      <c r="G52" s="21">
+        <f>C52*G51</f>
+        <v>2.1</v>
+      </c>
+      <c r="H52" s="21">
+        <f>H51*D52</f>
+        <v>3</v>
+      </c>
+      <c r="I52" s="21">
+        <f>D52*I51</f>
+        <v>2.5</v>
+      </c>
+      <c r="J52" s="21">
+        <f>D52*J51</f>
+        <v>2.5</v>
+      </c>
+      <c r="K52" s="21">
+        <f>D52*K51</f>
+        <v>2</v>
+      </c>
+      <c r="L52" s="21">
+        <f>D52*L51</f>
+        <v>1.5</v>
+      </c>
+      <c r="M52" s="21">
+        <f>D52*M51</f>
+        <v>1</v>
+      </c>
+      <c r="N52" s="21">
+        <f>D52*N51</f>
+        <v>0.5</v>
+      </c>
+      <c r="O52" s="164">
+        <f>D52*O51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="166" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="172" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="172" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="172" t="s">
+      <c r="F53" s="161">
+        <f>F52+F50</f>
+        <v>2.7</v>
+      </c>
+      <c r="G53" s="21">
+        <f>G52+G50</f>
+        <v>2.58</v>
+      </c>
+      <c r="H53" s="21">
+        <f>H52+H50</f>
+        <v>3.8</v>
+      </c>
+      <c r="I53" s="21">
+        <f>I52+I50</f>
+        <v>3.3</v>
+      </c>
+      <c r="J53" s="21">
+        <f>J52+J50</f>
+        <v>3.3</v>
+      </c>
+      <c r="K53" s="21">
+        <f>K52+K50</f>
+        <v>2.8</v>
+      </c>
+      <c r="L53" s="21">
+        <f>L52+L50</f>
+        <v>2.38</v>
+      </c>
+      <c r="M53" s="21">
+        <f>M52+M50</f>
+        <v>1.88</v>
+      </c>
+      <c r="N53" s="21">
+        <f>N52+N50</f>
+        <v>1.38</v>
+      </c>
+      <c r="O53" s="164">
+        <f>O52+O50</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="167" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="173" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="146" t="s">
+      <c r="F54" s="152">
+        <f>F32-F53</f>
+        <v>67.3</v>
+      </c>
+      <c r="G54" s="153">
+        <f>G32-G53</f>
+        <v>55.42</v>
+      </c>
+      <c r="H54" s="153">
+        <f>H32-H53</f>
+        <v>46.2</v>
+      </c>
+      <c r="I54" s="153">
+        <f>I32-I53</f>
+        <v>46.7</v>
+      </c>
+      <c r="J54" s="153">
+        <f>J32-J53</f>
+        <v>46.7</v>
+      </c>
+      <c r="K54" s="153">
+        <f>K32-K53</f>
+        <v>47.2</v>
+      </c>
+      <c r="L54" s="153">
+        <f>L32-L53</f>
+        <v>47.62</v>
+      </c>
+      <c r="M54" s="153">
+        <f>M32-M53</f>
+        <v>48.12</v>
+      </c>
+      <c r="N54" s="153">
+        <f>N32-N53</f>
+        <v>48.62</v>
+      </c>
+      <c r="O54" s="154">
+        <f>O32-O53</f>
+        <v>49.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="140" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="165" t="s">
+        <v>297</v>
+      </c>
+      <c r="F58" s="192">
+        <f>F44-(F32-F53)</f>
+        <v>32.100000000000009</v>
+      </c>
+      <c r="G58" s="193">
+        <f>G44-(G32-G53)</f>
+        <v>41.679999999999993</v>
+      </c>
+      <c r="H58" s="193">
+        <f>H44-(H32-H53)</f>
+        <v>57.8</v>
+      </c>
+      <c r="I58" s="193">
+        <f>I44-(I32-I53)</f>
+        <v>56.8</v>
+      </c>
+      <c r="J58" s="193">
+        <f>J44-(J32-J53)</f>
+        <v>56.8</v>
+      </c>
+      <c r="K58" s="193">
+        <f t="shared" ref="K58:O58" si="4">K44-(K32-K53)</f>
+        <v>55.8</v>
+      </c>
+      <c r="L58" s="193">
+        <f t="shared" si="4"/>
+        <v>54.88</v>
+      </c>
+      <c r="M58" s="193">
+        <f t="shared" si="4"/>
+        <v>53.88</v>
+      </c>
+      <c r="N58" s="193">
+        <f t="shared" si="4"/>
+        <v>52.88</v>
+      </c>
+      <c r="O58" s="194">
+        <f t="shared" si="4"/>
+        <v>51.88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="167" t="s">
+        <v>298</v>
+      </c>
+      <c r="F59" s="180" t="str">
+        <f>IF(AND(F16&gt;F58,(F16-F17)&lt;F58),"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="G59" s="181" t="str">
+        <f t="shared" ref="G59:O59" si="5">IF(AND(G16&gt;G58,(G16-G17)&lt;G58),"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="H59" s="181" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="I59" s="181" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="J59" s="181" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="K59" s="181" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="L59" s="181" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="M59" s="181" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="N59" s="181" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="O59" s="182" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="140" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="165" t="s">
+        <v>300</v>
+      </c>
+      <c r="F62" s="149">
+        <f>IF(F58-F24&gt;F16-F17,F58-F24,F16-F17)</f>
+        <v>32.100000000000009</v>
+      </c>
+      <c r="G62" s="150">
+        <f t="shared" ref="G62:O62" si="6">IF(G58-G24&gt;G16-G17,G58-G24,G16-G17)</f>
+        <v>41.679999999999993</v>
+      </c>
+      <c r="H62" s="150">
+        <f t="shared" si="6"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="I62" s="150">
+        <f>IF(I58-I24&gt;I16-I17,I58-I24,I16-I17)</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="J62" s="150">
+        <f t="shared" si="6"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="K62" s="150">
+        <f t="shared" si="6"/>
+        <v>27.799999999999997</v>
+      </c>
+      <c r="L62" s="150">
+        <f t="shared" si="6"/>
+        <v>26.880000000000003</v>
+      </c>
+      <c r="M62" s="150">
+        <f t="shared" si="6"/>
+        <v>25.880000000000003</v>
+      </c>
+      <c r="N62" s="150">
+        <f t="shared" si="6"/>
+        <v>24.880000000000003</v>
+      </c>
+      <c r="O62" s="151">
+        <f t="shared" si="6"/>
+        <v>23.880000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="166" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="161">
+        <f>F58-F62</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="21">
+        <f t="shared" ref="G63:O63" si="7">G58-G62</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="21">
+        <f>H58-H62</f>
+        <v>28</v>
+      </c>
+      <c r="I63" s="21">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="J63" s="21">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="K63" s="21">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="L63" s="21">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="M63" s="21">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="N63" s="21">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="O63" s="164">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="167" t="s">
+        <v>302</v>
+      </c>
+      <c r="F64" s="180" t="str">
+        <f>IF(AND(F16&gt;F62,(F16-F17)&lt;F62),"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="G64" s="181" t="str">
+        <f t="shared" ref="G64:O64" si="8">IF(AND(G16&gt;G62,(G16-G17)&lt;G62),"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="H64" s="181" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+      <c r="I64" s="181" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+      <c r="J64" s="181" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+      <c r="K64" s="181" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+      <c r="L64" s="181" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+      <c r="M64" s="181" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+      <c r="N64" s="181" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+      <c r="O64" s="182" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="195" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="166" t="s">
+        <v>305</v>
+      </c>
+      <c r="F67" s="149">
+        <v>0.15</v>
+      </c>
+      <c r="G67" s="150">
+        <v>1.536</v>
+      </c>
+      <c r="H67" s="150">
+        <v>8</v>
+      </c>
+      <c r="I67" s="150">
+        <v>8</v>
+      </c>
+      <c r="J67" s="150">
+        <v>8</v>
+      </c>
+      <c r="K67" s="150">
+        <v>8</v>
+      </c>
+      <c r="L67" s="150">
+        <v>8</v>
+      </c>
+      <c r="M67" s="150">
+        <v>8</v>
+      </c>
+      <c r="N67" s="150">
+        <v>8</v>
+      </c>
+      <c r="O67" s="151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="166" t="s">
+        <v>306</v>
+      </c>
+      <c r="F68" s="161">
+        <v>290</v>
+      </c>
+      <c r="G68" s="21">
+        <v>290</v>
+      </c>
+      <c r="H68" s="21">
+        <v>290</v>
+      </c>
+      <c r="I68" s="21">
+        <v>290</v>
+      </c>
+      <c r="J68" s="21">
+        <v>290</v>
+      </c>
+      <c r="K68" s="21">
+        <v>290</v>
+      </c>
+      <c r="L68" s="21">
+        <v>290</v>
+      </c>
+      <c r="M68" s="21">
+        <v>290</v>
+      </c>
+      <c r="N68" s="21">
+        <v>290</v>
+      </c>
+      <c r="O68" s="164">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="166" t="s">
+        <v>307</v>
+      </c>
+      <c r="F69" s="161">
+        <v>-13</v>
+      </c>
+      <c r="G69" s="21">
+        <v>-3</v>
+      </c>
+      <c r="H69" s="21">
+        <v>4</v>
+      </c>
+      <c r="I69" s="21">
+        <v>4</v>
+      </c>
+      <c r="J69" s="21">
+        <v>4</v>
+      </c>
+      <c r="K69" s="21">
+        <v>4</v>
+      </c>
+      <c r="L69" s="21">
+        <v>4</v>
+      </c>
+      <c r="M69" s="21">
+        <v>4</v>
+      </c>
+      <c r="N69" s="21">
+        <v>4</v>
+      </c>
+      <c r="O69" s="164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="167" t="s">
+        <v>308</v>
+      </c>
+      <c r="F70" s="152">
+        <v>38</v>
+      </c>
+      <c r="G70" s="153">
+        <v>18</v>
+      </c>
+      <c r="H70" s="153">
+        <v>25</v>
+      </c>
+      <c r="I70" s="153">
+        <v>25</v>
+      </c>
+      <c r="J70" s="153">
+        <v>25</v>
+      </c>
+      <c r="K70" s="153">
+        <v>25</v>
+      </c>
+      <c r="L70" s="153">
+        <v>25</v>
+      </c>
+      <c r="M70" s="153">
+        <v>25</v>
+      </c>
+      <c r="N70" s="153">
+        <v>25</v>
+      </c>
+      <c r="O70" s="154">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="196" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="197" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="166" t="s">
+        <v>310</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F74" s="149">
+        <f>10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
+        <v>18.760497143477163</v>
+      </c>
+      <c r="G74" s="150">
+        <f>10*LOG10(10^((G18+G53)/10)+10^((G53-G58)/10)*(10^((G43+Network!I277)/10)-1))</f>
+        <v>13.16833294530084</v>
+      </c>
+      <c r="H74" s="150">
+        <f>10*LOG10(10^((H18+H53)/10)+10^((H53-H58)/10)*(10^((H43+Network!J277)/10)-1))</f>
+        <v>12.873754086854778</v>
+      </c>
+      <c r="I74" s="150">
+        <f>10*LOG10(10^((I18+I53)/10)+10^((I53-I58)/10)*(10^((I43+Network!J277)/10)-1))</f>
+        <v>12.382668184740464</v>
+      </c>
+      <c r="J74" s="150">
+        <f>10*LOG10(10^((J18+J53)/10)+10^((J53-J58)/10)*(10^((J43+Network!J277)/10)-1))</f>
+        <v>12.382668184740464</v>
+      </c>
+      <c r="K74" s="150">
+        <f>10*LOG10(10^((K18+K53)/10)+10^((K53-K58)/10)*(10^((K43+Network!J277)/10)-1))</f>
+        <v>11.892648202220018</v>
+      </c>
+      <c r="L74" s="150">
+        <f>10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((L43+Network!J277)/10)-1))</f>
+        <v>11.481945853076247</v>
+      </c>
+      <c r="M74" s="150">
+        <f>10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((M43+Network!K277)/10)-1))</f>
+        <v>11.124620043324962</v>
+      </c>
+      <c r="N74" s="150">
+        <f>10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((N43+Network!K277)/10)-1))</f>
+        <v>10.653546318599503</v>
+      </c>
+      <c r="O74" s="151">
+        <f>10*LOG10(10^((O18+O53)/10)+10^((O53-O58)/10)*(10^((O43+Network!K277)/10)-1))</f>
+        <v>10.185774337262743</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="166" t="s">
+        <v>311</v>
+      </c>
+      <c r="F75" s="183">
+        <f>F32-F69-10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
+        <v>64.239502856522833</v>
+      </c>
+      <c r="G75" s="90">
+        <f>G32-G69-10*LOG10(10^((G18+G53)/10)+10^((G53-G58)/10)*(10^((G43+Network!I277)/10)-1))</f>
+        <v>47.83166705469916</v>
+      </c>
+      <c r="H75" s="90">
+        <f>H32-H69-10*LOG10(10^((H18+H53)/10)+10^((H53-H58)/10)*(10^((H43+Network!J277)/10)-1))</f>
+        <v>33.126245913145226</v>
+      </c>
+      <c r="I75" s="90">
+        <f>I32-I69-10*LOG10(10^((I18+I53)/10)+10^((I53-I58)/10)*(10^((I43+Network!J277)/10)-1))</f>
+        <v>33.617331815259533</v>
+      </c>
+      <c r="J75" s="90">
+        <f>J32-J69-10*LOG10(10^((J18+J53)/10)+10^((J53-J58)/10)*(10^((J43+Network!J277)/10)-1))</f>
+        <v>33.617331815259533</v>
+      </c>
+      <c r="K75" s="90">
+        <f>K32-K69-10*LOG10(10^((K18+K53)/10)+10^((K53-K58)/10)*(10^((K43+Network!J277)/10)-1))</f>
+        <v>34.107351797779984</v>
+      </c>
+      <c r="L75" s="90">
+        <f>L32-L69-10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((L43+Network!J277)/10)-1))</f>
+        <v>34.518054146923753</v>
+      </c>
+      <c r="M75" s="90">
+        <f>M32-M69-10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((K43+Network!O277)/10)-1))</f>
+        <v>35.119959601026046</v>
+      </c>
+      <c r="N75" s="90">
+        <f>N32-N69-10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((K43+Network!P277)/10)-1))</f>
+        <v>35.619998352365812</v>
+      </c>
+      <c r="O75" s="185">
+        <f>O32-O69-10*LOG10(10^((O18+O53)/10)+10^((O53-O58)/10)*(10^((K43+Network!Q277)/10)-1))</f>
+        <v>36.119997925751548</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="167" t="s">
+        <v>312</v>
+      </c>
+      <c r="F76" s="180" t="str">
+        <f>IF(F75&gt;=F70,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="G76" s="181" t="str">
+        <f t="shared" ref="G76:O76" si="9">IF(G75&gt;=G70,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="H76" s="181" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+      <c r="I76" s="181" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+      <c r="J76" s="181" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+      <c r="K76" s="181" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+      <c r="L76" s="181" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+      <c r="M76" s="181" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+      <c r="N76" s="181" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+      <c r="O76" s="182" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="195" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="166" t="s">
+        <v>310</v>
+      </c>
+      <c r="F79" s="149">
+        <f>10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
+        <v>18.760497143477167</v>
+      </c>
+      <c r="G79" s="150">
+        <f>10*LOG10(10^(G26/10)+(10^(G53/10)-1)/10^(G63/10)+(10^(G18/10)-1)*10^(G53/10)/10^(G63/10)+10^((G53-G62-G63)/10)*(10^((G43+Network!I277)/10)-1))</f>
+        <v>13.16833294530084</v>
+      </c>
+      <c r="H79" s="150">
+        <f>10*LOG10(10^(H26/10)+(10^(H53/10)-1)/10^(H63/10)+(10^(H18/10)-1)*10^(H53/10)/10^(H63/10)+10^((H53-H62-H63)/10)*(10^((H43+Network!J277)/10)-1))</f>
+        <v>6.8320999204318209</v>
+      </c>
+      <c r="I79" s="150">
+        <f>10*LOG10(10^(I26/10)+(10^(I53/10)-1)/10^(I63/10)+(10^(I18/10)-1)*10^(I53/10)/10^(I63/10)+10^((I53-I62-I63)/10)*(10^((I43+Network!J277)/10)-1))</f>
+        <v>6.8291404634264445</v>
+      </c>
+      <c r="J79" s="150">
+        <f>10*LOG10(10^(J26/10)+(10^(J53/10)-1)/10^(J63/10)+(10^(J18/10)-1)*10^(J53/10)/10^(J63/10)+10^((J53-J62-J63)/10)*(10^((J43+Network!J277)/10)-1))</f>
+        <v>6.8291404634264445</v>
+      </c>
+      <c r="K79" s="150">
+        <f>10*LOG10(10^(K26/10)+(10^(K53/10)-1)/10^(K63/10)+(10^(K18/10)-1)*10^(K53/10)/10^(K63/10)+10^((K53-K62-K63)/10)*(10^((K43+Network!J277)/10)-1))</f>
+        <v>6.8265010427752344</v>
+      </c>
+      <c r="L79" s="150">
+        <f>10*LOG10(10^(L26/10)+(10^(L53/10)-1)/10^(L63/10)+(10^(L18/10)-1)*10^(L53/10)/10^(L63/10)+10^((L53-L62-L63)/10)*(10^((L43+Network!J277)/10)-1))</f>
+        <v>6.8245058343871996</v>
+      </c>
+      <c r="M79" s="150">
+        <f>10*LOG10(10^(M26/10)+(10^(M53/10)-1)/10^(M63/10)+(10^(M18/10)-1)*10^(M53/10)/10^(M63/10)+10^((M53-M62-M63)/10)*(10^((M43+Network!K277)/10)-1))</f>
+        <v>7.1552128873363943</v>
+      </c>
+      <c r="N79" s="150">
+        <f>10*LOG10(10^(N26/10)+(10^(N53/10)-1)/10^(N63/10)+(10^(N18/10)-1)*10^(N53/10)/10^(N63/10)+10^((N53-N62-N63)/10)*(10^((N43+Network!K277)/10)-1))</f>
+        <v>7.1534471129647628</v>
+      </c>
+      <c r="O79" s="151">
+        <f>10*LOG10(10^(O26/10)+(10^(O53/10)-1)/10^(O63/10)+(10^(O18/10)-1)*10^(O53/10)/10^(O63/10)+10^((O53-O62-O63)/10)*(10^((O43+Network!K277)/10)-1))</f>
+        <v>7.1518726109406714</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="166" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80" s="183">
+        <f>F32-F69-10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
+        <v>64.239502856522833</v>
+      </c>
+      <c r="G80" s="90">
+        <f>G32-G69-10*LOG10(10^(G26/10)+(10^(G53/10)-1)/10^(G63/10)+(10^(G18/10)-1)*10^(G53/10)/10^(G63/10)+10^((G53-G62-G63)/10)*(10^((G43+Network!I277)/10)-1))</f>
+        <v>47.83166705469916</v>
+      </c>
+      <c r="H80" s="90">
+        <f>H32-H69-10*LOG10(10^(H26/10)+(10^(H53/10)-1)/10^(H63/10)+(10^(H18/10)-1)*10^(H53/10)/10^(H63/10)+10^((H53-H62-H63)/10)*(10^((H43+Network!J277)/10)-1))</f>
+        <v>39.167900079568177</v>
+      </c>
+      <c r="I80" s="90">
+        <f>I32-I69-10*LOG10(10^(I26/10)+(10^(I53/10)-1)/10^(I63/10)+(10^(I18/10)-1)*10^(I53/10)/10^(I63/10)+10^((I53-I62-I63)/10)*(10^((I43+Network!J277)/10)-1))</f>
+        <v>39.170859536573559</v>
+      </c>
+      <c r="J80" s="90">
+        <f>J32-J69-10*LOG10(10^(J26/10)+(10^(J53/10)-1)/10^(J63/10)+(10^(J18/10)-1)*10^(J53/10)/10^(J63/10)+10^((J53-J62-J63)/10)*(10^((J43+Network!J277)/10)-1))</f>
+        <v>39.170859536573559</v>
+      </c>
+      <c r="K80" s="90">
+        <f>K32-K69-10*LOG10(10^(K26/10)+(10^(K53/10)-1)/10^(K63/10)+(10^(K18/10)-1)*10^(K53/10)/10^(K63/10)+10^((K53-K62-K63)/10)*(10^((K43+Network!J277)/10)-1))</f>
+        <v>39.173498957224766</v>
+      </c>
+      <c r="L80" s="90">
+        <f>L32-L69-10*LOG10(10^(L26/10)+(10^(L53/10)-1)/10^(L63/10)+(10^(L18/10)-1)*10^(L53/10)/10^(L63/10)+10^((L53-L62-L63)/10)*(10^((L43+Network!J277)/10)-1))</f>
+        <v>39.175494165612804</v>
+      </c>
+      <c r="M80" s="90">
+        <f>M32-M69-10*LOG10(10^(M26/10)+(10^(M53/10)-1)/10^(M63/10)+(10^(M18/10)-1)*10^(M53/10)/10^(M63/10)+10^((M53-M62-M63)/10)*(10^((M43+Network!K277)/10)-1))</f>
+        <v>38.844787112663603</v>
+      </c>
+      <c r="N80" s="90">
+        <f>N32-N69-10*LOG10(10^(N26/10)+(10^(N53/10)-1)/10^(N63/10)+(10^(N18/10)-1)*10^(N53/10)/10^(N63/10)+10^((N53-N62-N63)/10)*(10^((N43+Network!K277)/10)-1))</f>
+        <v>38.846552887035237</v>
+      </c>
+      <c r="O80" s="185">
+        <f>O32-O69-10*LOG10(10^(O26/10)+(10^(O53/10)-1)/10^(O63/10)+(10^(O18/10)-1)*10^(O53/10)/10^(O63/10)+10^((O53-O62-O63)/10)*(10^((O43+Network!K277)/10)-1))</f>
+        <v>38.848127389059329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="167" t="s">
+        <v>313</v>
+      </c>
+      <c r="F81" s="180" t="str">
+        <f>IF(F80&gt;=F70,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="G81" s="181" t="str">
+        <f t="shared" ref="G81:O81" si="10">IF(G80&gt;=G70,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="H81" s="181" t="str">
+        <f t="shared" si="10"/>
+        <v>OK</v>
+      </c>
+      <c r="I81" s="181" t="str">
+        <f t="shared" si="10"/>
+        <v>OK</v>
+      </c>
+      <c r="J81" s="181" t="str">
+        <f t="shared" si="10"/>
+        <v>OK</v>
+      </c>
+      <c r="K81" s="181" t="str">
+        <f t="shared" si="10"/>
+        <v>OK</v>
+      </c>
+      <c r="L81" s="181" t="str">
+        <f t="shared" si="10"/>
+        <v>OK</v>
+      </c>
+      <c r="M81" s="181" t="str">
+        <f t="shared" si="10"/>
+        <v>OK</v>
+      </c>
+      <c r="N81" s="181" t="str">
+        <f t="shared" si="10"/>
+        <v>OK</v>
+      </c>
+      <c r="O81" s="182" t="str">
+        <f t="shared" si="10"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="85" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="140" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" s="171" t="s">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" s="165" t="s">
         <v>284</v>
       </c>
-      <c r="F80" s="155">
+      <c r="F86" s="149">
         <v>30</v>
       </c>
-      <c r="G80" s="156">
+      <c r="G86" s="150">
         <v>16</v>
       </c>
-      <c r="H80" s="156">
+      <c r="H86" s="150">
         <v>1</v>
       </c>
-      <c r="I80" s="156">
+      <c r="I86" s="150">
         <v>2</v>
       </c>
-      <c r="J80" s="156">
+      <c r="J86" s="150">
         <v>2</v>
       </c>
-      <c r="K80" s="156">
+      <c r="K86" s="150">
         <v>1</v>
       </c>
-      <c r="L80" s="156">
+      <c r="L86" s="150">
         <v>1</v>
       </c>
-      <c r="M80" s="156">
+      <c r="M86" s="150">
         <v>1</v>
       </c>
-      <c r="N80" s="156">
+      <c r="N86" s="150">
         <v>1</v>
       </c>
-      <c r="O80" s="156">
+      <c r="O86" s="150">
         <v>1</v>
       </c>
-      <c r="P80" s="157">
+      <c r="P86" s="151">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="172" t="s">
+    <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="166" t="s">
         <v>285</v>
       </c>
-      <c r="F81" s="175">
-        <f>7.5*LOG10((F80-1))</f>
+      <c r="F87" s="169">
+        <f>7.5*LOG10((F86-1))</f>
         <v>10.96798498424217</v>
       </c>
-      <c r="G81" s="176">
-        <f>7.5*LOG10(G80-1)</f>
+      <c r="G87" s="170">
+        <f>7.5*LOG10(G86-1)</f>
         <v>8.8206844429176101</v>
       </c>
-      <c r="H81" s="163">
+      <c r="H87" s="157">
         <v>0</v>
       </c>
-      <c r="I81" s="163">
-        <f>7.5*LOG10(I80-1)</f>
+      <c r="I87" s="157">
+        <f>7.5*LOG10(I86-1)</f>
         <v>0</v>
       </c>
-      <c r="J81" s="163">
-        <f>7.5*LOG10(J80-1)</f>
+      <c r="J87" s="157">
+        <f>7.5*LOG10(J86-1)</f>
         <v>0</v>
       </c>
-      <c r="K81" s="163">
+      <c r="K87" s="157">
         <v>0</v>
       </c>
-      <c r="L81" s="163">
+      <c r="L87" s="157">
         <v>0</v>
       </c>
-      <c r="M81" s="163">
+      <c r="M87" s="157">
         <v>0</v>
       </c>
-      <c r="N81" s="163">
+      <c r="N87" s="157">
         <v>0</v>
       </c>
-      <c r="O81" s="163">
+      <c r="O87" s="157">
         <v>0</v>
       </c>
-      <c r="P81" s="177">
-        <f t="shared" ref="K81:P81" si="2">7.5*LOG10(P80-1)</f>
+      <c r="P87" s="171">
+        <f t="shared" ref="P87" si="11">7.5*LOG10(P86-1)</f>
         <v>10.96798498424217</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="173" t="s">
+    <row r="88" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="167" t="s">
         <v>286</v>
       </c>
-      <c r="H82" s="158">
+      <c r="H88" s="152">
         <v>30</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I88" s="153">
         <v>30</v>
       </c>
-      <c r="J82" s="159">
+      <c r="J88" s="153">
         <v>30</v>
       </c>
-      <c r="K82" s="159">
+      <c r="K88" s="153">
         <v>30</v>
       </c>
-      <c r="L82" s="159">
+      <c r="L88" s="153">
         <v>30</v>
       </c>
-      <c r="M82" s="159">
+      <c r="M88" s="153">
         <v>30</v>
       </c>
-      <c r="N82" s="159">
+      <c r="N88" s="153">
         <v>30</v>
       </c>
-      <c r="O82" s="159">
+      <c r="O88" s="153">
         <v>30</v>
       </c>
-      <c r="P82" s="160">
+      <c r="P88" s="154">
         <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" s="195" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="172" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="139" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="195" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="166" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="172" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="139" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -13787,16 +14842,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="189" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="140"/>
+      <c r="C2" s="190"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="118"/>

--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/6-1/ITSIT/Trabajo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="695" documentId="11_AA5C2796D14A585BA2449CEF5E30AD8D88D2DDCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{776C1050-FA1C-4FD6-A824-12D7802EBF2C}"/>
+  <xr:revisionPtr revIDLastSave="745" documentId="11_AA5C2796D14A585BA2449CEF5E30AD8D88D2DDCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791C70DE-19BB-4459-A970-F2EAEFC92140}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="321">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -2334,6 +2334,18 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2349,21 +2361,9 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2696,18 +2696,18 @@
       <selection activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2748,13 +2748,13 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2894,8 +2894,8 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>74</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>65</v>
       </c>
@@ -3038,16 +3038,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
         <v>58</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="54" t="s">
         <v>159</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
         <v>158</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
         <v>157</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
         <v>187</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>156</v>
       </c>
@@ -3302,12 +3302,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="N24" s="91"/>
       <c r="O24" s="91"/>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="54" t="s">
         <v>155</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
         <v>154</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="55" t="s">
         <v>153</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
         <v>188</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56" t="s">
         <v>152</v>
       </c>
@@ -3530,12 +3530,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="52"/>
       <c r="N30" s="91"/>
       <c r="O30" s="91"/>
     </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="54" t="s">
         <v>127</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
         <v>126</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="55" t="s">
         <v>125</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55" t="s">
         <v>124</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="55" t="s">
         <v>194</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56" t="s">
         <v>123</v>
       </c>
@@ -3803,12 +3803,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="52"/>
       <c r="N37" s="91"/>
       <c r="O37" s="91"/>
     </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="54" t="s">
         <v>122</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="55" t="s">
         <v>121</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="55" t="s">
         <v>120</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55" t="s">
         <v>119</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="55" t="s">
         <v>194</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56" t="s">
         <v>118</v>
       </c>
@@ -4075,12 +4075,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="52"/>
       <c r="N44" s="91"/>
       <c r="O44" s="91"/>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="54" t="s">
         <v>151</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="55" t="s">
         <v>150</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="55" t="s">
         <v>149</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="55" t="s">
         <v>189</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="56" t="s">
         <v>148</v>
       </c>
@@ -4303,12 +4303,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="52"/>
       <c r="N50" s="91"/>
       <c r="O50" s="91"/>
     </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="54" t="s">
         <v>147</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="55" t="s">
         <v>146</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="55" t="s">
         <v>145</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="55" t="s">
         <v>190</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="56" t="s">
         <v>144</v>
       </c>
@@ -4531,12 +4531,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="52"/>
       <c r="N56" s="91"/>
       <c r="O56" s="91"/>
     </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="54" t="s">
         <v>117</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="55" t="s">
         <v>116</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="55" t="s">
         <v>115</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="55" t="s">
         <v>114</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="55" t="s">
         <v>195</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="56" t="s">
         <v>113</v>
       </c>
@@ -4803,12 +4803,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="52"/>
       <c r="N63" s="91"/>
       <c r="O63" s="91"/>
     </row>
-    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="54" t="s">
         <v>112</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="55" t="s">
         <v>111</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55" t="s">
         <v>110</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="55" t="s">
         <v>109</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="55" t="s">
         <v>194</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="56" t="s">
         <v>108</v>
       </c>
@@ -5075,12 +5075,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="52"/>
       <c r="N70" s="91"/>
       <c r="O70" s="91"/>
     </row>
-    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="54" t="s">
         <v>143</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="55" t="s">
         <v>142</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="55" t="s">
         <v>141</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="55" t="s">
         <v>140</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="56" t="s">
         <v>139</v>
       </c>
@@ -5303,12 +5303,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="52"/>
       <c r="N76" s="91"/>
       <c r="O76" s="91"/>
     </row>
-    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="54" t="s">
         <v>138</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="55" t="s">
         <v>137</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55" t="s">
         <v>136</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="55" t="s">
         <v>191</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="56" t="s">
         <v>135</v>
       </c>
@@ -5531,12 +5531,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="52"/>
       <c r="N82" s="91"/>
       <c r="O82" s="91"/>
     </row>
-    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="54" t="s">
         <v>107</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="55" t="s">
         <v>106</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="55" t="s">
         <v>105</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="55" t="s">
         <v>104</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="55" t="s">
         <v>196</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="56" t="s">
         <v>103</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="52"/>
       <c r="B89" s="52"/>
       <c r="C89" s="52"/>
@@ -5835,7 +5835,7 @@
       <c r="N89" s="91"/>
       <c r="O89" s="91"/>
     </row>
-    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="54" t="s">
         <v>102</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="55" t="s">
         <v>101</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="55" t="s">
         <v>100</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="55" t="s">
         <v>99</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="55" t="s">
         <v>196</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="56" t="s">
         <v>98</v>
       </c>
@@ -6109,11 +6109,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N96" s="92"/>
       <c r="O96" s="92"/>
     </row>
-    <row r="97" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="54" t="s">
         <v>134</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55" t="s">
         <v>133</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="55" t="s">
         <v>132</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="55" t="s">
         <v>192</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="56" t="s">
         <v>131</v>
       </c>
@@ -6336,11 +6336,11 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N102" s="92"/>
       <c r="O102" s="92"/>
     </row>
-    <row r="103" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="54" t="s">
         <v>130</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="55" t="s">
         <v>129</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="55" t="s">
         <v>128</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="55" t="s">
         <v>193</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="56" t="s">
         <v>97</v>
       </c>
@@ -6563,11 +6563,11 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N108" s="92"/>
       <c r="O108" s="92"/>
     </row>
-    <row r="109" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="54" t="s">
         <v>96</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="55" t="s">
         <v>95</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="55" t="s">
         <v>94</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="55" t="s">
         <v>93</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="55" t="s">
         <v>197</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="56" t="s">
         <v>92</v>
       </c>
@@ -6834,11 +6834,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="115" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N115" s="92"/>
       <c r="O115" s="92"/>
     </row>
-    <row r="116" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="54" t="s">
         <v>91</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="117" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="55" t="s">
         <v>90</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="55" t="s">
         <v>89</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="55" t="s">
         <v>88</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="55" t="s">
         <v>197</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="56" t="s">
         <v>87</v>
       </c>
@@ -7105,11 +7105,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N122" s="92"/>
       <c r="O122" s="92"/>
     </row>
-    <row r="123" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="54" t="s">
         <v>62</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="55" t="s">
         <v>63</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="56" t="s">
         <v>64</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="126" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -7261,7 +7261,7 @@
       <c r="K126"/>
       <c r="L126"/>
     </row>
-    <row r="127" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -7274,7 +7274,7 @@
       <c r="K127"/>
       <c r="L127"/>
     </row>
-    <row r="128" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -7287,7 +7287,7 @@
       <c r="K128"/>
       <c r="L128"/>
     </row>
-    <row r="129" spans="1:13" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="64" t="s">
         <v>10</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="K129"/>
       <c r="L129"/>
     </row>
-    <row r="130" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="26" t="s">
         <v>13</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>20</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="24"/>
       <c r="B132" s="22" t="s">
         <v>36</v>
@@ -7414,7 +7414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
         <v>34</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="37"/>
       <c r="B134" s="35" t="s">
         <v>38</v>
@@ -7482,7 +7482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="38" t="s">
         <v>39</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="39"/>
       <c r="B136" s="35" t="s">
         <v>41</v>
@@ -7550,7 +7550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="38" t="s">
         <v>42</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="39"/>
       <c r="B138" s="35" t="s">
         <v>44</v>
@@ -7618,7 +7618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="38" t="s">
         <v>24</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="35" t="s">
         <v>14</v>
@@ -7686,7 +7686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="38" t="s">
         <v>27</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="39"/>
       <c r="B142" s="35" t="s">
         <v>26</v>
@@ -7754,8 +7754,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="145" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
         <v>15</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="33" t="s">
         <v>29</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="47" t="s">
         <v>56</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="48"/>
       <c r="B148" s="35" t="s">
         <v>36</v>
@@ -7850,7 +7850,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="33" t="s">
         <v>29</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="47" t="s">
         <v>34</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="25"/>
       <c r="B151" s="35" t="s">
         <v>38</v>
@@ -7965,7 +7965,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="33" t="s">
         <v>29</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="47" t="s">
         <v>34</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="48"/>
       <c r="B154" s="35" t="s">
         <v>38</v>
@@ -8081,7 +8081,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
         <v>29</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="47" t="s">
         <v>39</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="34"/>
       <c r="B157" s="35" t="s">
         <v>41</v>
@@ -8197,7 +8197,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="33" t="s">
         <v>29</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
         <v>27</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="48"/>
       <c r="B160" s="35" t="s">
         <v>26</v>
@@ -8313,7 +8313,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="33" t="s">
         <v>17</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="74" t="s">
         <v>16</v>
       </c>
@@ -8391,8 +8391,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="166" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="13" t="s">
         <v>19</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="54" t="s">
         <v>86</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>9.625</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="55" t="s">
         <v>85</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>9.2850000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="56" t="s">
         <v>84</v>
       </c>
@@ -8547,8 +8547,8 @@
         <v>10.129999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="171" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="54" t="s">
         <v>159</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>9.5350000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="55" t="s">
         <v>158</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>9.1900000000000013</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="55" t="s">
         <v>157</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="55" t="s">
         <v>160</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>7.2350000000000003</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="56" t="s">
         <v>156</v>
       </c>
@@ -8753,10 +8753,10 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="52"/>
     </row>
-    <row r="177" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="54" t="s">
         <v>155</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>9.5350000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="55" t="s">
         <v>154</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="55" t="s">
         <v>153</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="55" t="s">
         <v>161</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>7.2350000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="56" t="s">
         <v>152</v>
       </c>
@@ -8961,10 +8961,10 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="52"/>
     </row>
-    <row r="183" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="54" t="s">
         <v>127</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="55" t="s">
         <v>126</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="55" t="s">
         <v>125</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="55" t="s">
         <v>124</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="55" t="s">
         <v>162</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="56" t="s">
         <v>123</v>
       </c>
@@ -9210,10 +9210,10 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="52"/>
     </row>
-    <row r="190" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="54" t="s">
         <v>122</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="55" t="s">
         <v>121</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="55" t="s">
         <v>120</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="55" t="s">
         <v>119</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="55" t="s">
         <v>162</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="56" t="s">
         <v>118</v>
       </c>
@@ -9459,10 +9459,10 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="52"/>
     </row>
-    <row r="197" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="54" t="s">
         <v>151</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>8.7349999999999994</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="55" t="s">
         <v>150</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>8.39</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="55" t="s">
         <v>149</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>7.9300000000000006</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="55" t="s">
         <v>163</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>6.4350000000000005</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="56" t="s">
         <v>148</v>
       </c>
@@ -9667,10 +9667,10 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="52"/>
     </row>
-    <row r="203" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="54" t="s">
         <v>147</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>8.7349999999999994</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="55" t="s">
         <v>146</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>7.9300000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="55" t="s">
         <v>145</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>7.9300000000000006</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="55" t="s">
         <v>164</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>6.4350000000000005</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="56" t="s">
         <v>144</v>
       </c>
@@ -9875,10 +9875,10 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="52"/>
     </row>
-    <row r="209" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="54" t="s">
         <v>117</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="55" t="s">
         <v>116</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>9.77</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="55" t="s">
         <v>115</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="55" t="s">
         <v>114</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="55" t="s">
         <v>165</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="56" t="s">
         <v>113</v>
       </c>
@@ -10124,10 +10124,10 @@
         <v>6.5500000000000007</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="52"/>
     </row>
-    <row r="216" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="54" t="s">
         <v>112</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="55" t="s">
         <v>111</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>9.77</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="55" t="s">
         <v>110</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="55" t="s">
         <v>109</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>9.77</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="55" t="s">
         <v>165</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="56" t="s">
         <v>108</v>
       </c>
@@ -10373,10 +10373,10 @@
         <v>6.5500000000000007</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="52"/>
     </row>
-    <row r="223" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="54" t="s">
         <v>143</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>7.9350000000000005</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="55" t="s">
         <v>142</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>7.59</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="55" t="s">
         <v>141</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>7.1300000000000008</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="55" t="s">
         <v>140</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>5.6349999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="56" t="s">
         <v>139</v>
       </c>
@@ -10581,10 +10581,10 @@
         <v>7.3599999999999994</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="52"/>
     </row>
-    <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="54" t="s">
         <v>138</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>7.9350000000000005</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="55" t="s">
         <v>137</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>7.1300000000000008</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="55" t="s">
         <v>136</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>7.1300000000000008</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="55" t="s">
         <v>166</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>5.6349999999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="56" t="s">
         <v>135</v>
       </c>
@@ -10789,10 +10789,10 @@
         <v>7.3599999999999994</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="52"/>
     </row>
-    <row r="235" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="54" t="s">
         <v>107</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="55" t="s">
         <v>106</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="55" t="s">
         <v>105</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="55" t="s">
         <v>104</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="55" t="s">
         <v>167</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="56" t="s">
         <v>103</v>
       </c>
@@ -11038,10 +11038,10 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="52"/>
     </row>
-    <row r="242" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="54" t="s">
         <v>102</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="55" t="s">
         <v>101</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="55" t="s">
         <v>100</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="55" t="s">
         <v>99</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="55" t="s">
         <v>167</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="56" t="s">
         <v>98</v>
       </c>
@@ -11287,10 +11287,10 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="52"/>
     </row>
-    <row r="249" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="54" t="s">
         <v>134</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>7.1349999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="55" t="s">
         <v>133</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="55" t="s">
         <v>132</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="55" t="s">
         <v>168</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>4.835</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="56" t="s">
         <v>131</v>
       </c>
@@ -11495,10 +11495,10 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="52"/>
     </row>
-    <row r="255" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="54" t="s">
         <v>130</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>7.1349999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="55" t="s">
         <v>129</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="55" t="s">
         <v>128</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="55" t="s">
         <v>169</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>4.835</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="56" t="s">
         <v>97</v>
       </c>
@@ -11703,10 +11703,10 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="52"/>
     </row>
-    <row r="261" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="54" t="s">
         <v>96</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>6.1000000000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="55" t="s">
         <v>95</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="55" t="s">
         <v>94</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="55" t="s">
         <v>93</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="55" t="s">
         <v>170</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="56" t="s">
         <v>92</v>
       </c>
@@ -11952,10 +11952,10 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="52"/>
     </row>
-    <row r="268" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="54" t="s">
         <v>91</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>6.1000000000000005</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="55" t="s">
         <v>90</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="55" t="s">
         <v>89</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="55" t="s">
         <v>88</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="55" t="s">
         <v>170</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="56" t="s">
         <v>87</v>
       </c>
@@ -12201,11 +12201,11 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="52"/>
     </row>
-    <row r="275" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="276" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="276" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="54" t="s">
         <v>77</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>4.835</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="56" t="s">
         <v>78</v>
       </c>
@@ -12287,23 +12287,23 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="280" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="280" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C280" s="186" t="s">
+      <c r="C280" s="190" t="s">
         <v>198</v>
       </c>
-      <c r="D280" s="187"/>
-      <c r="E280" s="188"/>
-      <c r="G280" s="186" t="s">
+      <c r="D280" s="191"/>
+      <c r="E280" s="192"/>
+      <c r="G280" s="190" t="s">
         <v>199</v>
       </c>
-      <c r="H280" s="187"/>
-      <c r="I280" s="188"/>
-    </row>
-    <row r="281" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H280" s="191"/>
+      <c r="I280" s="192"/>
+    </row>
+    <row r="281" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="81" t="s">
         <v>83</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="79" t="s">
         <v>80</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>2.8019999999999996</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="78" t="s">
         <v>81</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>4.2000000000000028</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="78" t="s">
         <v>82</v>
       </c>
@@ -12413,8 +12413,8 @@
         <v>19.460000000000008</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="287" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="287" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C287" s="140" t="s">
         <v>252</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="114" t="s">
         <v>172</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C289" s="83" t="s">
         <v>171</v>
       </c>
@@ -12443,18 +12443,18 @@
         <v>171</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="291" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="291" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="114" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="78" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C293" s="141" t="s">
         <v>49</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="138" t="s">
         <v>256</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="139" t="s">
         <v>257</v>
       </c>
@@ -12502,13 +12502,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="297" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="297" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="140" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="138" t="s">
         <v>259</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>104.52500000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="139" t="s">
         <v>260</v>
       </c>
@@ -12550,8 +12550,8 @@
         <v>105.26300000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="135" t="s">
         <v>261</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>105.07849999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="135" t="s">
         <v>262</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>263</v>
       </c>
@@ -12606,22 +12606,22 @@
         <v>270</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="140" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="138" t="s">
         <v>77</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>51.489999999999995</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="139" t="s">
         <v>78</v>
       </c>
@@ -12657,17 +12657,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1"/>
-    <col min="9" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="9" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>47</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>48</v>
       </c>
@@ -12751,17 +12751,17 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>53</v>
       </c>
@@ -12802,15 +12802,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>71</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>73</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>203</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>204</v>
       </c>
@@ -12871,18 +12871,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H13" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="101" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>174</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>175</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>176</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>177</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>178</v>
       </c>
@@ -13075,13 +13075,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="101" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>174</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>175</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>176</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>180</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>178</v>
       </c>
@@ -13226,13 +13226,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="105" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="107" t="s">
         <v>182</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="107" t="s">
         <v>183</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="107" t="s">
         <v>184</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>60.0331979307064</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="107" t="s">
         <v>185</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>60.73</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
         <v>186</v>
       </c>
@@ -13417,8 +13417,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="141" t="s">
         <v>278</v>
       </c>
@@ -13426,12 +13426,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="140" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="138" t="s">
         <v>275</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="166" t="s">
         <v>276</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="166" t="s">
         <v>277</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="172" t="s">
         <v>280</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="166" t="s">
         <v>281</v>
       </c>
@@ -13671,57 +13671,57 @@
         <v>113.03201501575784</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="139" t="s">
         <v>282</v>
       </c>
       <c r="F46" s="180" t="str">
-        <f>IF(F44&lt;=(F19-F87),"OK","NO")</f>
+        <f t="shared" ref="F46:P46" si="3">IF(F44&lt;=(F19-F87),"OK","NO")</f>
         <v>NO</v>
       </c>
       <c r="G46" s="181" t="str">
-        <f>IF(G44&lt;=(G19-G87),"OK","NO")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="H46" s="181" t="str">
-        <f>IF(H44&lt;=(H19-H87),"OK","NO")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="I46" s="181" t="str">
-        <f>IF(I44&lt;=(I19-I87),"OK","NO")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="J46" s="181" t="str">
-        <f>IF(J44&lt;=(J19-J87),"OK","NO")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="K46" s="181" t="str">
-        <f>IF(K44&lt;=(K19-K87),"OK","NO")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="L46" s="181" t="str">
-        <f>IF(L44&lt;=(L19-L87),"OK","NO")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="M46" s="181" t="str">
-        <f>IF(M44&lt;=(M19-M87),"OK","NO")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="N46" s="181" t="str">
-        <f>IF(N44&lt;=(N19-N87),"OK","NO")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="O46" s="191" t="str">
-        <f>IF(O44&lt;=(O19-O87),"OK","NO")</f>
+      <c r="O46" s="186" t="str">
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="P46" s="182" t="str">
-        <f>IF(P44&lt;=(P19-P87),"OK","NO")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="140" t="s">
         <v>288</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="165" t="s">
         <v>289</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="166" t="s">
         <v>290</v>
       </c>
@@ -13781,27 +13781,27 @@
         <v>0.8</v>
       </c>
       <c r="I50" s="21">
-        <f t="shared" ref="I50:N50" si="3">I5*I49</f>
+        <f t="shared" ref="I50:N50" si="4">I5*I49</f>
         <v>0.8</v>
       </c>
       <c r="J50" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="K50" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="L50" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
       <c r="M50" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
       <c r="N50" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
       <c r="O50" s="164">
@@ -13809,7 +13809,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="166" t="s">
         <v>276</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="166" t="s">
         <v>277</v>
       </c>
@@ -13895,153 +13895,153 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="166" t="s">
         <v>291</v>
       </c>
       <c r="F53" s="161">
-        <f>F52+F50</f>
+        <f t="shared" ref="F53:O53" si="5">F52+F50</f>
         <v>2.7</v>
       </c>
       <c r="G53" s="21">
-        <f>G52+G50</f>
+        <f t="shared" si="5"/>
         <v>2.58</v>
       </c>
       <c r="H53" s="21">
-        <f>H52+H50</f>
+        <f t="shared" si="5"/>
         <v>3.8</v>
       </c>
       <c r="I53" s="21">
-        <f>I52+I50</f>
+        <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
       <c r="J53" s="21">
-        <f>J52+J50</f>
+        <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
       <c r="K53" s="21">
-        <f>K52+K50</f>
+        <f t="shared" si="5"/>
         <v>2.8</v>
       </c>
       <c r="L53" s="21">
-        <f>L52+L50</f>
+        <f t="shared" si="5"/>
         <v>2.38</v>
       </c>
       <c r="M53" s="21">
-        <f>M52+M50</f>
+        <f t="shared" si="5"/>
         <v>1.88</v>
       </c>
       <c r="N53" s="21">
-        <f>N52+N50</f>
+        <f t="shared" si="5"/>
         <v>1.38</v>
       </c>
       <c r="O53" s="164">
-        <f>O52+O50</f>
+        <f t="shared" si="5"/>
         <v>0.88</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="167" t="s">
         <v>292</v>
       </c>
       <c r="F54" s="152">
-        <f>F32-F53</f>
+        <f t="shared" ref="F54:O54" si="6">F32-F53</f>
         <v>67.3</v>
       </c>
       <c r="G54" s="153">
-        <f>G32-G53</f>
+        <f t="shared" si="6"/>
         <v>55.42</v>
       </c>
       <c r="H54" s="153">
-        <f>H32-H53</f>
+        <f t="shared" si="6"/>
         <v>46.2</v>
       </c>
       <c r="I54" s="153">
-        <f>I32-I53</f>
+        <f t="shared" si="6"/>
         <v>46.7</v>
       </c>
       <c r="J54" s="153">
-        <f>J32-J53</f>
+        <f t="shared" si="6"/>
         <v>46.7</v>
       </c>
       <c r="K54" s="153">
-        <f>K32-K53</f>
+        <f t="shared" si="6"/>
         <v>47.2</v>
       </c>
       <c r="L54" s="153">
-        <f>L32-L53</f>
+        <f t="shared" si="6"/>
         <v>47.62</v>
       </c>
       <c r="M54" s="153">
-        <f>M32-M53</f>
+        <f t="shared" si="6"/>
         <v>48.12</v>
       </c>
       <c r="N54" s="153">
-        <f>N32-N53</f>
+        <f t="shared" si="6"/>
         <v>48.62</v>
       </c>
       <c r="O54" s="154">
-        <f>O32-O53</f>
+        <f t="shared" si="6"/>
         <v>49.12</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="140" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="165" t="s">
         <v>297</v>
       </c>
-      <c r="F58" s="192">
+      <c r="F58" s="149">
         <f>F44-(F32-F53)</f>
         <v>32.100000000000009</v>
       </c>
-      <c r="G58" s="193">
+      <c r="G58" s="150">
         <f>G44-(G32-G53)</f>
         <v>41.679999999999993</v>
       </c>
-      <c r="H58" s="193">
+      <c r="H58" s="150">
         <f>H44-(H32-H53)</f>
         <v>57.8</v>
       </c>
-      <c r="I58" s="193">
+      <c r="I58" s="150">
         <f>I44-(I32-I53)</f>
         <v>56.8</v>
       </c>
-      <c r="J58" s="193">
+      <c r="J58" s="150">
         <f>J44-(J32-J53)</f>
         <v>56.8</v>
       </c>
-      <c r="K58" s="193">
-        <f t="shared" ref="K58:O58" si="4">K44-(K32-K53)</f>
+      <c r="K58" s="150">
+        <f t="shared" ref="K58:O58" si="7">K44-(K32-K53)</f>
         <v>55.8</v>
       </c>
-      <c r="L58" s="193">
-        <f t="shared" si="4"/>
+      <c r="L58" s="150">
+        <f t="shared" si="7"/>
         <v>54.88</v>
       </c>
-      <c r="M58" s="193">
-        <f t="shared" si="4"/>
+      <c r="M58" s="150">
+        <f t="shared" si="7"/>
         <v>53.88</v>
       </c>
-      <c r="N58" s="193">
-        <f t="shared" si="4"/>
+      <c r="N58" s="150">
+        <f t="shared" si="7"/>
         <v>52.88</v>
       </c>
-      <c r="O58" s="194">
-        <f t="shared" si="4"/>
+      <c r="O58" s="151">
+        <f t="shared" si="7"/>
         <v>51.88</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="167" t="s">
         <v>298</v>
       </c>
@@ -14050,49 +14050,49 @@
         <v>OK</v>
       </c>
       <c r="G59" s="181" t="str">
-        <f t="shared" ref="G59:O59" si="5">IF(AND(G16&gt;G58,(G16-G17)&lt;G58),"OK","NO")</f>
+        <f t="shared" ref="G59:O59" si="8">IF(AND(G16&gt;G58,(G16-G17)&lt;G58),"OK","NO")</f>
         <v>OK</v>
       </c>
       <c r="H59" s="181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>NO</v>
       </c>
       <c r="I59" s="181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>NO</v>
       </c>
       <c r="J59" s="181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>NO</v>
       </c>
       <c r="K59" s="181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>NO</v>
       </c>
       <c r="L59" s="181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>NO</v>
       </c>
       <c r="M59" s="181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>NO</v>
       </c>
       <c r="N59" s="181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>NO</v>
       </c>
       <c r="O59" s="182" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>NO</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="140" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="165" t="s">
         <v>300</v>
       </c>
@@ -14101,11 +14101,11 @@
         <v>32.100000000000009</v>
       </c>
       <c r="G62" s="150">
-        <f t="shared" ref="G62:O62" si="6">IF(G58-G24&gt;G16-G17,G58-G24,G16-G17)</f>
+        <f t="shared" ref="G62:O62" si="9">IF(G58-G24&gt;G16-G17,G58-G24,G16-G17)</f>
         <v>41.679999999999993</v>
       </c>
       <c r="H62" s="150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>29.799999999999997</v>
       </c>
       <c r="I62" s="150">
@@ -14113,31 +14113,31 @@
         <v>28.799999999999997</v>
       </c>
       <c r="J62" s="150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28.799999999999997</v>
       </c>
       <c r="K62" s="150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>27.799999999999997</v>
       </c>
       <c r="L62" s="150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26.880000000000003</v>
       </c>
       <c r="M62" s="150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25.880000000000003</v>
       </c>
       <c r="N62" s="150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.880000000000003</v>
       </c>
       <c r="O62" s="151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23.880000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="166" t="s">
         <v>301</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="21">
-        <f t="shared" ref="G63:O63" si="7">G58-G62</f>
+        <f t="shared" ref="G63:O63" si="10">G58-G62</f>
         <v>0</v>
       </c>
       <c r="H63" s="21">
@@ -14154,38 +14154,38 @@
         <v>28</v>
       </c>
       <c r="I63" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="J63" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="K63" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="L63" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="M63" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="N63" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="O63" s="164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="167" t="s">
         <v>302</v>
       </c>
@@ -14194,49 +14194,49 @@
         <v>OK</v>
       </c>
       <c r="G64" s="181" t="str">
-        <f t="shared" ref="G64:O64" si="8">IF(AND(G16&gt;G62,(G16-G17)&lt;G62),"OK","NO")</f>
+        <f t="shared" ref="G64:O64" si="11">IF(AND(G16&gt;G62,(G16-G17)&lt;G62),"OK","NO")</f>
         <v>OK</v>
       </c>
       <c r="H64" s="181" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="I64" s="181" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="J64" s="181" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="K64" s="181" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="L64" s="181" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="M64" s="181" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="N64" s="181" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="O64" s="182" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="195" t="s">
+    <row r="65" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="187" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="166" t="s">
         <v>305</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="166" t="s">
         <v>306</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="166" t="s">
         <v>307</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="167" t="s">
         <v>308</v>
       </c>
@@ -14376,18 +14376,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72" s="196" t="s">
+    <row r="71" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="188" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="197" t="s">
+    <row r="73" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="189" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="166" t="s">
         <v>310</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>10.185774337262743</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="166" t="s">
         <v>311</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>36.119997925751548</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="167" t="s">
         <v>312</v>
       </c>
@@ -14489,49 +14489,49 @@
         <v>OK</v>
       </c>
       <c r="G76" s="181" t="str">
-        <f t="shared" ref="G76:O76" si="9">IF(G75&gt;=G70,"OK","NO")</f>
+        <f t="shared" ref="G76:O76" si="12">IF(G75&gt;=G70,"OK","NO")</f>
         <v>OK</v>
       </c>
       <c r="H76" s="181" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
       <c r="I76" s="181" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
       <c r="J76" s="181" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
       <c r="K76" s="181" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
       <c r="L76" s="181" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
       <c r="M76" s="181" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
       <c r="N76" s="181" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
       <c r="O76" s="182" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="195" t="s">
+    <row r="77" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="187" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="166" t="s">
         <v>310</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="166" t="s">
         <v>311</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>38.848127389059329</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="167" t="s">
         <v>313</v>
       </c>
@@ -14633,49 +14633,49 @@
         <v>OK</v>
       </c>
       <c r="G81" s="181" t="str">
-        <f t="shared" ref="G81:O81" si="10">IF(G80&gt;=G70,"OK","NO")</f>
+        <f t="shared" ref="G81:O81" si="13">IF(G80&gt;=G70,"OK","NO")</f>
         <v>OK</v>
       </c>
       <c r="H81" s="181" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="I81" s="181" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="J81" s="181" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="K81" s="181" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="L81" s="181" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="M81" s="181" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="N81" s="181" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="O81" s="182" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="140" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="165" t="s">
         <v>284</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="166" t="s">
         <v>285</v>
       </c>
@@ -14752,11 +14752,11 @@
         <v>0</v>
       </c>
       <c r="P87" s="171">
-        <f t="shared" ref="P87" si="11">7.5*LOG10(P86-1)</f>
+        <f t="shared" ref="P87" si="14">7.5*LOG10(P86-1)</f>
         <v>10.96798498424217</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="167" t="s">
         <v>286</v>
       </c>
@@ -14788,41 +14788,204 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90" s="195" t="s">
+    <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="187" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="172" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H91" s="176">
+        <f>H28+2*(H27-H87-H44)</f>
+        <v>39</v>
+      </c>
+      <c r="I91" s="178">
+        <f t="shared" ref="I91:O91" si="15">I28+2*(I27-H87-I44)</f>
+        <v>40</v>
+      </c>
+      <c r="J91" s="178">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="K91" s="178">
+        <f t="shared" si="15"/>
+        <v>41</v>
+      </c>
+      <c r="L91" s="178">
+        <f t="shared" si="15"/>
+        <v>42</v>
+      </c>
+      <c r="M91" s="178">
+        <f t="shared" si="15"/>
+        <v>43</v>
+      </c>
+      <c r="N91" s="178">
+        <f t="shared" si="15"/>
+        <v>44</v>
+      </c>
+      <c r="O91" s="179">
+        <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="139" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94" s="195" t="s">
+      <c r="H92" s="180" t="str">
+        <f>IF(H91&gt;=H88,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="I92" s="181" t="str">
+        <f t="shared" ref="I92:O92" si="16">IF(I91&gt;=I88,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="J92" s="181" t="str">
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="K92" s="181" t="str">
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="L92" s="181" t="str">
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="M92" s="181" t="str">
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="N92" s="181" t="str">
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="O92" s="182" t="str">
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="187" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="166" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H95" s="149">
+        <f>H32+H63</f>
+        <v>78</v>
+      </c>
+      <c r="I95" s="150">
+        <f t="shared" ref="I95:O95" si="17">I32+I63</f>
+        <v>78</v>
+      </c>
+      <c r="J95" s="150">
+        <f t="shared" si="17"/>
+        <v>78</v>
+      </c>
+      <c r="K95" s="150">
+        <f t="shared" si="17"/>
+        <v>78</v>
+      </c>
+      <c r="L95" s="150">
+        <f t="shared" si="17"/>
+        <v>78</v>
+      </c>
+      <c r="M95" s="150">
+        <f t="shared" si="17"/>
+        <v>78</v>
+      </c>
+      <c r="N95" s="150">
+        <f t="shared" si="17"/>
+        <v>78</v>
+      </c>
+      <c r="O95" s="151">
+        <f t="shared" si="17"/>
+        <v>78</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="172" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H96" s="196">
+        <f>-20*LOG10(10^(-H91/20)+10^(-(H28+2*(H27-7.5*LOG10(SUM(H86:O86)-1)-H32-H63))/20))</f>
+        <v>38.887363993059452</v>
+      </c>
+      <c r="I96" s="195">
+        <f>-20*LOG10(10^(-I91/20)+10^(-(I28+2*(I27-7.5*LOG10(SUM(H86:O86)-1)-I32-I63))/20))</f>
+        <v>39.873719771667787</v>
+      </c>
+      <c r="J96" s="195">
+        <f>-20*LOG10(10^(-J91/20)+10^(-(J28+2*(J27-7.5*LOG10(SUM(H86:O86)-1)-J32-J63))/20))</f>
+        <v>39.873719771667787</v>
+      </c>
+      <c r="K96" s="195">
+        <f>-20*LOG10(10^(-K91/20)+10^(-(K28+2*(K27-7.5*LOG10(SUM(H86:O86)-1)-K32-K63))/20))</f>
+        <v>40.858436175609853</v>
+      </c>
+      <c r="L96" s="195">
+        <f>-20*LOG10(10^(-L91/20)+10^(-(L28+2*(L27-7.5*LOG10(SUM(H86:O86)-1)-L32-L63))/20))</f>
+        <v>41.841319653175255</v>
+      </c>
+      <c r="M96" s="195">
+        <f>-20*LOG10(10^(-M91/20)+10^(-(M28+2*(M27-7.5*LOG10(SUM(H86:O86)-1)-M32-M63))/20))</f>
+        <v>42.822154668419266</v>
+      </c>
+      <c r="N96" s="195">
+        <f>-20*LOG10(10^(-N91/20)+10^(-(N28+2*(N27-7.5*LOG10(SUM(H86:O86)-1)-N32-N63))/20))</f>
+        <v>43.800701423044323</v>
+      </c>
+      <c r="O96" s="197">
+        <f>-20*LOG10(10^(-O91/20)+10^(-(O28+2*(O27-7.5*LOG10(SUM(H86:O86)-1)-O32-O63))/20))</f>
+        <v>44.776693397722497</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="139" t="s">
         <v>320</v>
+      </c>
+      <c r="H97" s="180" t="str">
+        <f>IF(H96&gt;=H88,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="I97" s="181" t="str">
+        <f t="shared" ref="I97:O97" si="18">IF(I96&gt;=I88,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+      <c r="J97" s="181" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="K97" s="181" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="L97" s="181" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="M97" s="181" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="N97" s="181" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="O97" s="182" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
       </c>
     </row>
   </sheetData>
@@ -14839,21 +15002,21 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="193" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="190"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="194"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="118"/>
       <c r="B3" s="119" t="s">
         <v>206</v>
@@ -14862,7 +15025,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
         <v>208</v>
       </c>
@@ -14873,7 +15036,7 @@
         <v>39.49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
         <v>209</v>
       </c>
@@ -14884,7 +15047,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="122" t="s">
         <v>210</v>
       </c>
@@ -14897,7 +15060,7 @@
         <v>-19.559999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="122" t="s">
         <v>211</v>
       </c>
@@ -14908,7 +15071,7 @@
         <v>43.35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="122" t="s">
         <v>212</v>
       </c>
@@ -14919,7 +15082,7 @@
         <v>6378.16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="122" t="s">
         <v>213</v>
       </c>
@@ -14930,7 +15093,7 @@
         <v>35786.300000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="122" t="s">
         <v>214</v>
       </c>
@@ -14941,7 +15104,7 @@
         <v>37780.794999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="122" t="s">
         <v>215</v>
       </c>
@@ -14952,7 +15115,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="122" t="s">
         <v>216</v>
       </c>
@@ -14963,12 +15126,12 @@
         <v>150.81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="124"/>
       <c r="B13" s="124"/>
       <c r="C13" s="124"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="119" t="s">
         <v>217</v>
       </c>
@@ -14979,7 +15142,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="119" t="s">
         <v>218</v>
       </c>
@@ -14992,12 +15155,12 @@
         <v>-18.147397727373288</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="125"/>
       <c r="B16" s="126"/>
       <c r="C16" s="126"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>219</v>
       </c>
@@ -15010,7 +15173,7 @@
         <v>14.22414374543391</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="119" t="s">
         <v>220</v>
       </c>
@@ -15023,7 +15186,7 @@
         <v>20.852602272626712</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="119" t="s">
         <v>221</v>
       </c>
@@ -15034,7 +15197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="119" t="s">
         <v>222</v>
       </c>
@@ -15045,7 +15208,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="119" t="s">
         <v>223</v>
       </c>
@@ -15058,7 +15221,7 @@
         <v>54.665645956735368</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="119" t="s">
         <v>224</v>
       </c>
@@ -15071,7 +15234,7 @@
         <v>4.8763553571844795</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="119" t="s">
         <v>225</v>
       </c>
@@ -15084,7 +15247,7 @@
         <v>15.976246915442232</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="119" t="s">
         <v>226</v>
       </c>
@@ -15097,12 +15260,12 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="127"/>
       <c r="B25" s="124"/>
       <c r="C25" s="124"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="119" t="s">
         <v>227</v>
       </c>
@@ -15113,7 +15276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="130" t="s">
         <v>228</v>
       </c>
@@ -15124,7 +15287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="130" t="s">
         <v>229</v>
       </c>
@@ -15135,7 +15298,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="130" t="s">
         <v>230</v>
       </c>
@@ -15148,7 +15311,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="130" t="s">
         <v>231</v>
       </c>
@@ -15161,7 +15324,7 @@
         <v>115.96798498424216</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="130" t="s">
         <v>232</v>
       </c>
@@ -15172,7 +15335,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="128" t="s">
         <v>240</v>
       </c>
@@ -15183,7 +15346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="128" t="s">
         <v>233</v>
       </c>
@@ -15194,7 +15357,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="128" t="s">
         <v>239</v>
       </c>
@@ -15205,7 +15368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="128" t="s">
         <v>238</v>
       </c>
@@ -15216,7 +15379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="128" t="s">
         <v>234</v>
       </c>
@@ -15227,7 +15390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="128" t="s">
         <v>235</v>
       </c>
@@ -15238,7 +15401,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="128" t="s">
         <v>236</v>
       </c>
@@ -15249,7 +15412,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="128" t="s">
         <v>241</v>
       </c>
@@ -15262,7 +15425,7 @@
         <v>206.09562554132461</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="128" t="s">
         <v>242</v>
       </c>
@@ -15273,7 +15436,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="128" t="s">
         <v>249</v>
       </c>
@@ -15284,7 +15447,7 @@
         <v>1.3800000000000001E-23</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="128" t="s">
         <v>243</v>
       </c>
@@ -15297,7 +15460,7 @@
         <v>100.72029093246357</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="128" t="s">
         <v>244</v>
       </c>
@@ -15310,7 +15473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="128" t="s">
         <v>237</v>
       </c>
@@ -15323,7 +15486,7 @@
         <v>-134.25640177870341</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="128" t="s">
         <v>245</v>
       </c>
@@ -15336,7 +15499,7 @@
         <v>39.939223762621197</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="128" t="s">
         <v>246</v>
       </c>
@@ -15349,7 +15512,7 @@
         <v>2.3529411764705882E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="128"/>
       <c r="B50" s="133">
         <f>B48*POWER(10,(B47/20))</f>
@@ -15360,7 +15523,7 @@
         <v>2.3365348234310672</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="128" t="s">
         <v>247</v>
       </c>
@@ -15373,7 +15536,7 @@
         <v>0.8889418761785618</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="128" t="s">
         <v>248</v>
       </c>

--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/6-1/ITSIT/Trabajo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="745" documentId="11_AA5C2796D14A585BA2449CEF5E30AD8D88D2DDCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791C70DE-19BB-4459-A970-F2EAEFC92140}"/>
+  <xr:revisionPtr revIDLastSave="859" documentId="11_AA5C2796D14A585BA2449CEF5E30AD8D88D2DDCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52BF5A66-8E80-4E21-8951-A3AA84092000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="316">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -781,9 +781,6 @@
     <t>lambda (m)</t>
   </si>
   <si>
-    <t>D (dB)</t>
-  </si>
-  <si>
     <t>G/T (dB)</t>
   </si>
   <si>
@@ -832,12 +829,6 @@
     <t>Maximun Sc</t>
   </si>
   <si>
-    <t xml:space="preserve">C28 (MPE4) </t>
-  </si>
-  <si>
-    <t>C29</t>
-  </si>
-  <si>
     <t>C31 (RGE2)</t>
   </si>
   <si>
@@ -853,15 +844,6 @@
     <t>Sc max =110</t>
   </si>
   <si>
-    <t>Los valores de Maximum Sc son valores establecidos o hay que calcularlo</t>
-  </si>
-  <si>
-    <t>con la ecuación de la diapo 32?</t>
-  </si>
-  <si>
-    <t>ATTENUATION BAT</t>
-  </si>
-  <si>
     <t>OUTLET LEVELS</t>
   </si>
   <si>
@@ -901,9 +883,6 @@
     <t>Minimum C/I (dB)</t>
   </si>
   <si>
-    <t>PREGUNTAR LO DE LOS CANALES 28 y 29 si se ponen juntos o se puede dejar asi</t>
-  </si>
-  <si>
     <t>HEADEND LOSSES</t>
   </si>
   <si>
@@ -949,9 +928,6 @@
     <t>Gain with mast amplifier?</t>
   </si>
   <si>
-    <t>REVISAR ESTO</t>
-  </si>
-  <si>
     <t>NOISE PARAMETERS</t>
   </si>
   <si>
@@ -982,12 +958,6 @@
     <t>C/N with mast amplifier?</t>
   </si>
   <si>
-    <t>PREGUNTAR SI LA FORMULA ESTA BIEN</t>
-  </si>
-  <si>
-    <t>REVISAR</t>
-  </si>
-  <si>
     <t>S/I without mast amplifier (dB)</t>
   </si>
   <si>
@@ -1001,6 +971,21 @@
   </si>
   <si>
     <t>S/I with mast amplifier?</t>
+  </si>
+  <si>
+    <t>Worst outlet</t>
+  </si>
+  <si>
+    <t>Best outlet</t>
+  </si>
+  <si>
+    <t>ATTENUATION OUTLET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28-C29 (MPE4) </t>
+  </si>
+  <si>
+    <t>D (cm)</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1910,12 +1895,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2243,7 +2274,6 @@
     <xf numFmtId="164" fontId="0" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2294,10 +2324,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2346,6 +2373,9 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2361,9 +2391,24 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2692,22 +2737,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O308"/>
   <sheetViews>
-    <sheetView topLeftCell="D260" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F178" sqref="F178"/>
+    <sheetView topLeftCell="A290" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G308" sqref="G308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="56.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2739,7 +2784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2748,13 +2793,13 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
@@ -2789,7 +2834,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2824,7 +2869,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2859,7 +2904,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2894,8 +2939,8 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
@@ -2906,7 +2951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -2940,7 +2985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>74</v>
       </c>
@@ -2974,7 +3019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
@@ -3006,7 +3051,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>65</v>
       </c>
@@ -3038,16 +3083,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
         <v>58</v>
       </c>
@@ -3079,7 +3124,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="54" t="s">
         <v>159</v>
       </c>
@@ -3126,7 +3171,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55" t="s">
         <v>158</v>
       </c>
@@ -3170,7 +3215,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="55" t="s">
         <v>157</v>
       </c>
@@ -3214,7 +3259,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="55" t="s">
         <v>187</v>
       </c>
@@ -3258,7 +3303,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="56" t="s">
         <v>156</v>
       </c>
@@ -3302,12 +3347,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="52"/>
       <c r="N24" s="91"/>
       <c r="O24" s="91"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="54" t="s">
         <v>155</v>
       </c>
@@ -3354,7 +3399,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="55" t="s">
         <v>154</v>
       </c>
@@ -3398,7 +3443,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="55" t="s">
         <v>153</v>
       </c>
@@ -3442,7 +3487,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="55" t="s">
         <v>188</v>
       </c>
@@ -3486,7 +3531,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
         <v>152</v>
       </c>
@@ -3530,12 +3575,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="52"/>
       <c r="N30" s="91"/>
       <c r="O30" s="91"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="54" t="s">
         <v>127</v>
       </c>
@@ -3582,7 +3627,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55" t="s">
         <v>126</v>
       </c>
@@ -3626,7 +3671,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="55" t="s">
         <v>125</v>
       </c>
@@ -3671,7 +3716,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="55" t="s">
         <v>124</v>
       </c>
@@ -3715,7 +3760,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="55" t="s">
         <v>194</v>
       </c>
@@ -3759,7 +3804,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="56" t="s">
         <v>123</v>
       </c>
@@ -3803,12 +3848,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="52"/>
       <c r="N37" s="91"/>
       <c r="O37" s="91"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="54" t="s">
         <v>122</v>
       </c>
@@ -3855,7 +3900,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="55" t="s">
         <v>121</v>
       </c>
@@ -3899,7 +3944,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="55" t="s">
         <v>120</v>
       </c>
@@ -3943,7 +3988,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="55" t="s">
         <v>119</v>
       </c>
@@ -3987,7 +4032,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="55" t="s">
         <v>194</v>
       </c>
@@ -4031,7 +4076,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="56" t="s">
         <v>118</v>
       </c>
@@ -4075,12 +4120,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="52"/>
       <c r="N44" s="91"/>
       <c r="O44" s="91"/>
     </row>
-    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="54" t="s">
         <v>151</v>
       </c>
@@ -4127,7 +4172,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="55" t="s">
         <v>150</v>
       </c>
@@ -4171,7 +4216,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="55" t="s">
         <v>149</v>
       </c>
@@ -4215,7 +4260,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="55" t="s">
         <v>189</v>
       </c>
@@ -4259,7 +4304,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="56" t="s">
         <v>148</v>
       </c>
@@ -4303,12 +4348,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="52"/>
       <c r="N50" s="91"/>
       <c r="O50" s="91"/>
     </row>
-    <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="54" t="s">
         <v>147</v>
       </c>
@@ -4355,7 +4400,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="55" t="s">
         <v>146</v>
       </c>
@@ -4399,7 +4444,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="55" t="s">
         <v>145</v>
       </c>
@@ -4443,7 +4488,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
         <v>190</v>
       </c>
@@ -4487,7 +4532,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="56" t="s">
         <v>144</v>
       </c>
@@ -4531,12 +4576,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="52"/>
       <c r="N56" s="91"/>
       <c r="O56" s="91"/>
     </row>
-    <row r="57" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="54" t="s">
         <v>117</v>
       </c>
@@ -4583,7 +4628,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
         <v>116</v>
       </c>
@@ -4627,7 +4672,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="55" t="s">
         <v>115</v>
       </c>
@@ -4671,7 +4716,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="55" t="s">
         <v>114</v>
       </c>
@@ -4715,7 +4760,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="55" t="s">
         <v>195</v>
       </c>
@@ -4759,7 +4804,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="56" t="s">
         <v>113</v>
       </c>
@@ -4803,12 +4848,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="52"/>
       <c r="N63" s="91"/>
       <c r="O63" s="91"/>
     </row>
-    <row r="64" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="54" t="s">
         <v>112</v>
       </c>
@@ -4855,7 +4900,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
         <v>111</v>
       </c>
@@ -4899,7 +4944,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="55" t="s">
         <v>110</v>
       </c>
@@ -4943,7 +4988,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="55" t="s">
         <v>109</v>
       </c>
@@ -4987,7 +5032,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="55" t="s">
         <v>194</v>
       </c>
@@ -5031,7 +5076,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
         <v>108</v>
       </c>
@@ -5075,12 +5120,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="52"/>
       <c r="N70" s="91"/>
       <c r="O70" s="91"/>
     </row>
-    <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="54" t="s">
         <v>143</v>
       </c>
@@ -5127,7 +5172,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="55" t="s">
         <v>142</v>
       </c>
@@ -5171,7 +5216,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="55" t="s">
         <v>141</v>
       </c>
@@ -5215,7 +5260,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="55" t="s">
         <v>140</v>
       </c>
@@ -5259,7 +5304,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
         <v>139</v>
       </c>
@@ -5303,12 +5348,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="52"/>
       <c r="N76" s="91"/>
       <c r="O76" s="91"/>
     </row>
-    <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="54" t="s">
         <v>138</v>
       </c>
@@ -5355,7 +5400,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="55" t="s">
         <v>137</v>
       </c>
@@ -5399,7 +5444,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="55" t="s">
         <v>136</v>
       </c>
@@ -5443,7 +5488,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="55" t="s">
         <v>191</v>
       </c>
@@ -5487,7 +5532,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="56" t="s">
         <v>135</v>
       </c>
@@ -5531,12 +5576,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="52"/>
       <c r="N82" s="91"/>
       <c r="O82" s="91"/>
     </row>
-    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="54" t="s">
         <v>107</v>
       </c>
@@ -5583,7 +5628,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="55" t="s">
         <v>106</v>
       </c>
@@ -5627,7 +5672,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="55" t="s">
         <v>105</v>
       </c>
@@ -5675,7 +5720,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="55" t="s">
         <v>104</v>
       </c>
@@ -5723,7 +5768,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="55" t="s">
         <v>196</v>
       </c>
@@ -5771,7 +5816,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="56" t="s">
         <v>103</v>
       </c>
@@ -5819,7 +5864,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="52"/>
       <c r="B89" s="52"/>
       <c r="C89" s="52"/>
@@ -5835,7 +5880,7 @@
       <c r="N89" s="91"/>
       <c r="O89" s="91"/>
     </row>
-    <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="54" t="s">
         <v>102</v>
       </c>
@@ -5885,7 +5930,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="55" t="s">
         <v>101</v>
       </c>
@@ -5933,7 +5978,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="55" t="s">
         <v>100</v>
       </c>
@@ -5977,7 +6022,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="55" t="s">
         <v>99</v>
       </c>
@@ -6021,7 +6066,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="55" t="s">
         <v>196</v>
       </c>
@@ -6065,7 +6110,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="56" t="s">
         <v>98</v>
       </c>
@@ -6109,11 +6154,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N96" s="92"/>
       <c r="O96" s="92"/>
     </row>
-    <row r="97" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="54" t="s">
         <v>134</v>
       </c>
@@ -6160,7 +6205,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="55" t="s">
         <v>133</v>
       </c>
@@ -6204,7 +6249,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="55" t="s">
         <v>132</v>
       </c>
@@ -6248,7 +6293,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="55" t="s">
         <v>192</v>
       </c>
@@ -6292,7 +6337,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="56" t="s">
         <v>131</v>
       </c>
@@ -6336,11 +6381,11 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N102" s="92"/>
       <c r="O102" s="92"/>
     </row>
-    <row r="103" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="54" t="s">
         <v>130</v>
       </c>
@@ -6387,7 +6432,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="55" t="s">
         <v>129</v>
       </c>
@@ -6431,7 +6476,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="55" t="s">
         <v>128</v>
       </c>
@@ -6475,7 +6520,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="55" t="s">
         <v>193</v>
       </c>
@@ -6519,7 +6564,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="56" t="s">
         <v>97</v>
       </c>
@@ -6563,11 +6608,11 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N108" s="92"/>
       <c r="O108" s="92"/>
     </row>
-    <row r="109" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="54" t="s">
         <v>96</v>
       </c>
@@ -6614,7 +6659,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="55" t="s">
         <v>95</v>
       </c>
@@ -6658,7 +6703,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="55" t="s">
         <v>94</v>
       </c>
@@ -6702,7 +6747,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="55" t="s">
         <v>93</v>
       </c>
@@ -6746,7 +6791,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="55" t="s">
         <v>197</v>
       </c>
@@ -6790,7 +6835,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="56" t="s">
         <v>92</v>
       </c>
@@ -6834,11 +6879,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="115" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N115" s="92"/>
       <c r="O115" s="92"/>
     </row>
-    <row r="116" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="54" t="s">
         <v>91</v>
       </c>
@@ -6885,7 +6930,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="117" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="55" t="s">
         <v>90</v>
       </c>
@@ -6929,7 +6974,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="55" t="s">
         <v>89</v>
       </c>
@@ -6973,7 +7018,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="55" t="s">
         <v>88</v>
       </c>
@@ -7017,7 +7062,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="55" t="s">
         <v>197</v>
       </c>
@@ -7061,7 +7106,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="56" t="s">
         <v>87</v>
       </c>
@@ -7105,11 +7150,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N122" s="92"/>
       <c r="O122" s="92"/>
     </row>
-    <row r="123" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="54" t="s">
         <v>62</v>
       </c>
@@ -7156,7 +7201,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="55" t="s">
         <v>63</v>
       </c>
@@ -7203,7 +7248,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="56" t="s">
         <v>64</v>
       </c>
@@ -7248,7 +7293,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="126" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -7261,7 +7306,7 @@
       <c r="K126"/>
       <c r="L126"/>
     </row>
-    <row r="127" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -7274,7 +7319,7 @@
       <c r="K127"/>
       <c r="L127"/>
     </row>
-    <row r="128" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -7287,7 +7332,7 @@
       <c r="K128"/>
       <c r="L128"/>
     </row>
-    <row r="129" spans="1:13" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="64" t="s">
         <v>10</v>
       </c>
@@ -7307,7 +7352,7 @@
       <c r="K129"/>
       <c r="L129"/>
     </row>
-    <row r="130" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="26" t="s">
         <v>13</v>
       </c>
@@ -7342,7 +7387,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="27" t="s">
         <v>20</v>
       </c>
@@ -7379,7 +7424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="24"/>
       <c r="B132" s="22" t="s">
         <v>36</v>
@@ -7414,7 +7459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="36" t="s">
         <v>34</v>
       </c>
@@ -7449,7 +7494,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="37"/>
       <c r="B134" s="35" t="s">
         <v>38</v>
@@ -7482,7 +7527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="38" t="s">
         <v>39</v>
       </c>
@@ -7517,7 +7562,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="39"/>
       <c r="B136" s="35" t="s">
         <v>41</v>
@@ -7550,7 +7595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="38" t="s">
         <v>42</v>
       </c>
@@ -7585,7 +7630,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="39"/>
       <c r="B138" s="35" t="s">
         <v>44</v>
@@ -7618,7 +7663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="38" t="s">
         <v>24</v>
       </c>
@@ -7653,7 +7698,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="39"/>
       <c r="B140" s="35" t="s">
         <v>14</v>
@@ -7686,7 +7731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="38" t="s">
         <v>27</v>
       </c>
@@ -7721,7 +7766,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="39"/>
       <c r="B142" s="35" t="s">
         <v>26</v>
@@ -7754,8 +7799,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="145" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
         <v>15</v>
       </c>
@@ -7763,7 +7808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="33" t="s">
         <v>29</v>
       </c>
@@ -7779,7 +7824,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="47" t="s">
         <v>56</v>
       </c>
@@ -7817,7 +7862,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="48"/>
       <c r="B148" s="35" t="s">
         <v>36</v>
@@ -7850,7 +7895,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="33" t="s">
         <v>29</v>
       </c>
@@ -7894,7 +7939,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="47" t="s">
         <v>34</v>
       </c>
@@ -7932,7 +7977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="25"/>
       <c r="B151" s="35" t="s">
         <v>38</v>
@@ -7965,7 +8010,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="33" t="s">
         <v>29</v>
       </c>
@@ -8009,7 +8054,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="47" t="s">
         <v>34</v>
       </c>
@@ -8047,7 +8092,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="48"/>
       <c r="B154" s="35" t="s">
         <v>38</v>
@@ -8081,7 +8126,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="33" t="s">
         <v>29</v>
       </c>
@@ -8125,7 +8170,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="47" t="s">
         <v>39</v>
       </c>
@@ -8163,7 +8208,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="34"/>
       <c r="B157" s="35" t="s">
         <v>41</v>
@@ -8197,7 +8242,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="33" t="s">
         <v>29</v>
       </c>
@@ -8241,7 +8286,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="47" t="s">
         <v>27</v>
       </c>
@@ -8279,7 +8324,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="48"/>
       <c r="B160" s="35" t="s">
         <v>26</v>
@@ -8313,7 +8358,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="33" t="s">
         <v>17</v>
       </c>
@@ -8357,7 +8402,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="74" t="s">
         <v>16</v>
       </c>
@@ -8391,8 +8436,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="166" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="13" t="s">
         <v>19</v>
       </c>
@@ -8424,7 +8469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="54" t="s">
         <v>86</v>
       </c>
@@ -8465,7 +8510,7 @@
         <v>9.625</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="55" t="s">
         <v>85</v>
       </c>
@@ -8506,7 +8551,7 @@
         <v>9.2850000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="56" t="s">
         <v>84</v>
       </c>
@@ -8547,8 +8592,8 @@
         <v>10.129999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="171" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="171" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="54" t="s">
         <v>159</v>
       </c>
@@ -8589,7 +8634,7 @@
         <v>9.5350000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="55" t="s">
         <v>158</v>
       </c>
@@ -8630,7 +8675,7 @@
         <v>9.1900000000000013</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="55" t="s">
         <v>157</v>
       </c>
@@ -8671,7 +8716,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="55" t="s">
         <v>160</v>
       </c>
@@ -8712,7 +8757,7 @@
         <v>7.2350000000000003</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="56" t="s">
         <v>156</v>
       </c>
@@ -8753,10 +8798,10 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="52"/>
     </row>
-    <row r="177" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="54" t="s">
         <v>155</v>
       </c>
@@ -8797,7 +8842,7 @@
         <v>9.5350000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="55" t="s">
         <v>154</v>
       </c>
@@ -8838,7 +8883,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="55" t="s">
         <v>153</v>
       </c>
@@ -8879,7 +8924,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="55" t="s">
         <v>161</v>
       </c>
@@ -8920,7 +8965,7 @@
         <v>7.2350000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="56" t="s">
         <v>152</v>
       </c>
@@ -8961,10 +9006,10 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="52"/>
     </row>
-    <row r="183" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="54" t="s">
         <v>127</v>
       </c>
@@ -9005,7 +9050,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="55" t="s">
         <v>126</v>
       </c>
@@ -9046,7 +9091,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="55" t="s">
         <v>125</v>
       </c>
@@ -9087,7 +9132,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="55" t="s">
         <v>124</v>
       </c>
@@ -9128,7 +9173,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="55" t="s">
         <v>162</v>
       </c>
@@ -9169,7 +9214,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="56" t="s">
         <v>123</v>
       </c>
@@ -9210,10 +9255,10 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="52"/>
     </row>
-    <row r="190" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="54" t="s">
         <v>122</v>
       </c>
@@ -9254,7 +9299,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="55" t="s">
         <v>121</v>
       </c>
@@ -9295,7 +9340,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="55" t="s">
         <v>120</v>
       </c>
@@ -9336,7 +9381,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="55" t="s">
         <v>119</v>
       </c>
@@ -9377,7 +9422,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="55" t="s">
         <v>162</v>
       </c>
@@ -9418,7 +9463,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="56" t="s">
         <v>118</v>
       </c>
@@ -9459,10 +9504,10 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="52"/>
     </row>
-    <row r="197" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="54" t="s">
         <v>151</v>
       </c>
@@ -9503,7 +9548,7 @@
         <v>8.7349999999999994</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="55" t="s">
         <v>150</v>
       </c>
@@ -9544,7 +9589,7 @@
         <v>8.39</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="55" t="s">
         <v>149</v>
       </c>
@@ -9585,7 +9630,7 @@
         <v>7.9300000000000006</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="55" t="s">
         <v>163</v>
       </c>
@@ -9626,7 +9671,7 @@
         <v>6.4350000000000005</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="56" t="s">
         <v>148</v>
       </c>
@@ -9667,10 +9712,10 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="52"/>
     </row>
-    <row r="203" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="54" t="s">
         <v>147</v>
       </c>
@@ -9711,7 +9756,7 @@
         <v>8.7349999999999994</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="55" t="s">
         <v>146</v>
       </c>
@@ -9752,7 +9797,7 @@
         <v>7.9300000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="55" t="s">
         <v>145</v>
       </c>
@@ -9793,7 +9838,7 @@
         <v>7.9300000000000006</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="55" t="s">
         <v>164</v>
       </c>
@@ -9834,7 +9879,7 @@
         <v>6.4350000000000005</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="56" t="s">
         <v>144</v>
       </c>
@@ -9875,10 +9920,10 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="52"/>
     </row>
-    <row r="209" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="54" t="s">
         <v>117</v>
       </c>
@@ -9919,7 +9964,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="55" t="s">
         <v>116</v>
       </c>
@@ -9960,7 +10005,7 @@
         <v>9.77</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="55" t="s">
         <v>115</v>
       </c>
@@ -10001,7 +10046,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="55" t="s">
         <v>114</v>
       </c>
@@ -10042,7 +10087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="55" t="s">
         <v>165</v>
       </c>
@@ -10083,7 +10128,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="56" t="s">
         <v>113</v>
       </c>
@@ -10124,10 +10169,10 @@
         <v>6.5500000000000007</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="52"/>
     </row>
-    <row r="216" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="54" t="s">
         <v>112</v>
       </c>
@@ -10168,7 +10213,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="55" t="s">
         <v>111</v>
       </c>
@@ -10209,7 +10254,7 @@
         <v>9.77</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="55" t="s">
         <v>110</v>
       </c>
@@ -10250,7 +10295,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="55" t="s">
         <v>109</v>
       </c>
@@ -10291,7 +10336,7 @@
         <v>9.77</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="55" t="s">
         <v>165</v>
       </c>
@@ -10332,7 +10377,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="56" t="s">
         <v>108</v>
       </c>
@@ -10373,10 +10418,10 @@
         <v>6.5500000000000007</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="52"/>
     </row>
-    <row r="223" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="54" t="s">
         <v>143</v>
       </c>
@@ -10417,7 +10462,7 @@
         <v>7.9350000000000005</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="55" t="s">
         <v>142</v>
       </c>
@@ -10458,7 +10503,7 @@
         <v>7.59</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="55" t="s">
         <v>141</v>
       </c>
@@ -10499,7 +10544,7 @@
         <v>7.1300000000000008</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="55" t="s">
         <v>140</v>
       </c>
@@ -10540,7 +10585,7 @@
         <v>5.6349999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="56" t="s">
         <v>139</v>
       </c>
@@ -10581,10 +10626,10 @@
         <v>7.3599999999999994</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="52"/>
     </row>
-    <row r="229" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="54" t="s">
         <v>138</v>
       </c>
@@ -10625,7 +10670,7 @@
         <v>7.9350000000000005</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="55" t="s">
         <v>137</v>
       </c>
@@ -10666,7 +10711,7 @@
         <v>7.1300000000000008</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="55" t="s">
         <v>136</v>
       </c>
@@ -10707,7 +10752,7 @@
         <v>7.1300000000000008</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="55" t="s">
         <v>166</v>
       </c>
@@ -10748,7 +10793,7 @@
         <v>5.6349999999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="56" t="s">
         <v>135</v>
       </c>
@@ -10789,10 +10834,10 @@
         <v>7.3599999999999994</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="52"/>
     </row>
-    <row r="235" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="54" t="s">
         <v>107</v>
       </c>
@@ -10833,7 +10878,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="55" t="s">
         <v>106</v>
       </c>
@@ -10874,7 +10919,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="55" t="s">
         <v>105</v>
       </c>
@@ -10915,7 +10960,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="55" t="s">
         <v>104</v>
       </c>
@@ -10956,7 +11001,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="55" t="s">
         <v>167</v>
       </c>
@@ -10997,7 +11042,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="56" t="s">
         <v>103</v>
       </c>
@@ -11038,10 +11083,10 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="52"/>
     </row>
-    <row r="242" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="54" t="s">
         <v>102</v>
       </c>
@@ -11082,7 +11127,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="55" t="s">
         <v>101</v>
       </c>
@@ -11123,7 +11168,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="55" t="s">
         <v>100</v>
       </c>
@@ -11164,7 +11209,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="55" t="s">
         <v>99</v>
       </c>
@@ -11205,7 +11250,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="55" t="s">
         <v>167</v>
       </c>
@@ -11246,7 +11291,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="56" t="s">
         <v>98</v>
       </c>
@@ -11287,10 +11332,10 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="52"/>
     </row>
-    <row r="249" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="54" t="s">
         <v>134</v>
       </c>
@@ -11331,7 +11376,7 @@
         <v>7.1349999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="55" t="s">
         <v>133</v>
       </c>
@@ -11372,7 +11417,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="55" t="s">
         <v>132</v>
       </c>
@@ -11413,7 +11458,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="55" t="s">
         <v>168</v>
       </c>
@@ -11454,7 +11499,7 @@
         <v>4.835</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="56" t="s">
         <v>131</v>
       </c>
@@ -11495,10 +11540,10 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="52"/>
     </row>
-    <row r="255" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="54" t="s">
         <v>130</v>
       </c>
@@ -11539,7 +11584,7 @@
         <v>7.1349999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="55" t="s">
         <v>129</v>
       </c>
@@ -11580,7 +11625,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="55" t="s">
         <v>128</v>
       </c>
@@ -11621,7 +11666,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="55" t="s">
         <v>169</v>
       </c>
@@ -11662,7 +11707,7 @@
         <v>4.835</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="56" t="s">
         <v>97</v>
       </c>
@@ -11703,10 +11748,10 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="52"/>
     </row>
-    <row r="261" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="54" t="s">
         <v>96</v>
       </c>
@@ -11747,7 +11792,7 @@
         <v>6.1000000000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="55" t="s">
         <v>95</v>
       </c>
@@ -11788,7 +11833,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="55" t="s">
         <v>94</v>
       </c>
@@ -11829,7 +11874,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="55" t="s">
         <v>93</v>
       </c>
@@ -11870,7 +11915,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="55" t="s">
         <v>170</v>
       </c>
@@ -11911,7 +11956,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="56" t="s">
         <v>92</v>
       </c>
@@ -11952,10 +11997,10 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="52"/>
     </row>
-    <row r="268" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="54" t="s">
         <v>91</v>
       </c>
@@ -11996,7 +12041,7 @@
         <v>6.1000000000000005</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="55" t="s">
         <v>90</v>
       </c>
@@ -12037,7 +12082,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="55" t="s">
         <v>89</v>
       </c>
@@ -12078,7 +12123,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="55" t="s">
         <v>88</v>
       </c>
@@ -12119,7 +12164,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="55" t="s">
         <v>170</v>
       </c>
@@ -12160,7 +12205,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="56" t="s">
         <v>87</v>
       </c>
@@ -12201,11 +12246,11 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="52"/>
     </row>
-    <row r="275" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="276" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="276" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="54" t="s">
         <v>77</v>
       </c>
@@ -12246,7 +12291,7 @@
         <v>4.835</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="56" t="s">
         <v>78</v>
       </c>
@@ -12287,23 +12332,23 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="280" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="280" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C280" s="190" t="s">
+      <c r="C280" s="189" t="s">
         <v>198</v>
       </c>
-      <c r="D280" s="191"/>
-      <c r="E280" s="192"/>
-      <c r="G280" s="190" t="s">
+      <c r="D280" s="190"/>
+      <c r="E280" s="191"/>
+      <c r="G280" s="189" t="s">
         <v>199</v>
       </c>
-      <c r="H280" s="191"/>
-      <c r="I280" s="192"/>
-    </row>
-    <row r="281" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H280" s="190"/>
+      <c r="I280" s="191"/>
+    </row>
+    <row r="281" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="81" t="s">
         <v>83</v>
       </c>
@@ -12326,7 +12371,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="79" t="s">
         <v>80</v>
       </c>
@@ -12355,7 +12400,7 @@
         <v>2.8019999999999996</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="78" t="s">
         <v>81</v>
       </c>
@@ -12384,7 +12429,7 @@
         <v>4.2000000000000028</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="78" t="s">
         <v>82</v>
       </c>
@@ -12413,29 +12458,29 @@
         <v>19.460000000000008</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="287" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C287" s="140" t="s">
+    <row r="286" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="287" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C287" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="D287" s="114" t="s">
         <v>252</v>
       </c>
-      <c r="D287" s="140" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="C288" s="82">
+      <c r="C288" s="115">
         <f>N277</f>
         <v>11.527999999999999</v>
       </c>
-      <c r="D288" s="82">
+      <c r="D288" s="115">
         <f>O277</f>
         <v>10.8</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C289" s="83" t="s">
         <v>171</v>
       </c>
@@ -12443,36 +12488,36 @@
         <v>171</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="291" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="291" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="114" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="78" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C293" s="140" t="s">
+        <v>49</v>
+      </c>
+      <c r="D293" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="E293" s="141" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="78" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C293" s="141" t="s">
-        <v>49</v>
-      </c>
-      <c r="D293" s="142" t="s">
-        <v>50</v>
-      </c>
-      <c r="E293" s="142" t="s">
+      <c r="F293" s="142" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="F293" s="143" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="138" t="s">
-        <v>256</v>
-      </c>
-      <c r="C294" s="144">
+      <c r="C294" s="143">
         <v>40</v>
       </c>
       <c r="D294" s="115">
@@ -12481,162 +12526,167 @@
       <c r="E294" s="115">
         <v>47</v>
       </c>
-      <c r="F294" s="145">
+      <c r="F294" s="144">
         <v>47</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="139" t="s">
+    <row r="295" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="138" t="s">
+        <v>256</v>
+      </c>
+      <c r="C295" s="145">
+        <v>70</v>
+      </c>
+      <c r="D295" s="146">
+        <v>70</v>
+      </c>
+      <c r="E295" s="146">
+        <v>70</v>
+      </c>
+      <c r="F295" s="147">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="297" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="139" t="s">
         <v>257</v>
       </c>
-      <c r="C295" s="146">
-        <v>70</v>
-      </c>
-      <c r="D295" s="147">
-        <v>70</v>
-      </c>
-      <c r="E295" s="147">
-        <v>70</v>
-      </c>
-      <c r="F295" s="148">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="297" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="140" t="s">
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="137" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="138" t="s">
-        <v>259</v>
-      </c>
-      <c r="C298" s="149">
+      <c r="C298" s="148">
         <f>MAX(H167:H273)+C294</f>
         <v>84.808999999999997</v>
       </c>
-      <c r="D298" s="150">
+      <c r="D298" s="149">
         <f>MAX(I167:I273)+D294</f>
         <v>75.03</v>
       </c>
-      <c r="E298" s="150">
+      <c r="E298" s="149">
         <f>MAX(K167:K273)+E294</f>
         <v>96.51</v>
       </c>
-      <c r="F298" s="151">
+      <c r="F298" s="150">
         <f>MAX(M167:M273)+F294</f>
         <v>104.52500000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="139" t="s">
-        <v>260</v>
-      </c>
-      <c r="C299" s="152">
+    <row r="299" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="C299" s="151">
         <f>MIN(H167:H273)+C295</f>
         <v>104.16200000000001</v>
       </c>
-      <c r="D299" s="153">
+      <c r="D299" s="152">
         <f>MIN(I167:I273)+D295</f>
         <v>104.675</v>
       </c>
-      <c r="E299" s="153">
+      <c r="E299" s="152">
         <f>MIN(K167:K273)+E295</f>
         <v>106.358</v>
       </c>
-      <c r="F299" s="154">
+      <c r="F299" s="153">
         <f>MIN(M167:M273)+F295</f>
         <v>105.26300000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="135" t="s">
-        <v>261</v>
-      </c>
-      <c r="C301" s="155">
+    <row r="300" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="301" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="C301" s="154">
         <f>0.25*C298+0.75*C299</f>
         <v>99.32374999999999</v>
       </c>
-      <c r="D301" s="156">
+      <c r="D301" s="155">
         <f>0.25*D298+0.75*D299</f>
         <v>97.263749999999987</v>
       </c>
-      <c r="E301" s="150">
+      <c r="E301" s="149">
         <f>0.25*E298+0.75*E299</f>
         <v>103.896</v>
       </c>
-      <c r="F301" s="151">
+      <c r="F301" s="150">
         <f>0.25*F298+0.75*F299</f>
         <v>105.07849999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="135" t="s">
+    <row r="302" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C302" s="159">
+        <v>100</v>
+      </c>
+      <c r="D302" s="21">
+        <v>98</v>
+      </c>
+      <c r="E302" s="21">
+        <v>104</v>
+      </c>
+      <c r="F302" s="160">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="C302" s="161">
-        <v>97</v>
-      </c>
-      <c r="D302" s="21">
-        <v>95</v>
-      </c>
-      <c r="E302" s="21">
-        <v>101</v>
-      </c>
-      <c r="F302" s="164">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>263</v>
-      </c>
-      <c r="C303" s="160" t="s">
+      <c r="C303" s="194" t="s">
+        <v>264</v>
+      </c>
+      <c r="D303" s="195" t="s">
+        <v>265</v>
+      </c>
+      <c r="E303" s="195" t="s">
+        <v>266</v>
+      </c>
+      <c r="F303" s="196" t="s">
         <v>267</v>
       </c>
-      <c r="D303" s="162" t="s">
-        <v>268</v>
-      </c>
-      <c r="E303" s="162" t="s">
-        <v>269</v>
-      </c>
-      <c r="F303" s="163" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="140" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="138" t="s">
-        <v>77</v>
-      </c>
-      <c r="C307" s="58">
+    </row>
+    <row r="305" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="139" t="s">
+        <v>313</v>
+      </c>
+      <c r="C306" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="D306" s="104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="137" t="s">
+        <v>311</v>
+      </c>
+      <c r="C307" s="197">
         <f>E302-MAX(G277:K277)</f>
-        <v>51.489999999999995</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="139" t="s">
-        <v>78</v>
+        <v>54.489999999999995</v>
+      </c>
+      <c r="D307" s="63">
+        <f>F302-MAX(L277:M277)</f>
+        <v>47.474999999999994</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="138" t="s">
+        <v>312</v>
       </c>
       <c r="C308" s="60">
         <f>E302-MIN(G276:K276)</f>
-        <v>67.126000000000005</v>
+        <v>70.126000000000005</v>
+      </c>
+      <c r="D308" s="63">
+        <f>F302-MIN(L277:M277)</f>
+        <v>51.674999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -12655,19 +12705,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1"/>
-    <col min="9" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>47</v>
       </c>
@@ -12685,31 +12736,28 @@
         <v>54</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="136" t="s">
+      <c r="N1" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="O1" s="45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>48</v>
       </c>
@@ -12730,38 +12778,35 @@
         <v>530</v>
       </c>
       <c r="J2" s="44">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="K2" s="44">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="L2" s="44">
-        <v>570</v>
+        <v>626</v>
       </c>
       <c r="M2" s="44">
-        <v>626</v>
-      </c>
-      <c r="N2" s="44">
         <v>650</v>
       </c>
-      <c r="O2" s="137">
+      <c r="N2" s="136">
         <v>674</v>
       </c>
-      <c r="P2" s="46">
+      <c r="O2" s="46">
         <v>2150</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
         <v>53</v>
       </c>
@@ -12781,7 +12826,7 @@
         <v>0.1</v>
       </c>
       <c r="K5" s="2">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="L5" s="2">
         <v>0.11</v>
@@ -12793,24 +12838,21 @@
         <v>0.11</v>
       </c>
       <c r="O5" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="P5" s="2">
         <v>0.23</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
         <v>71</v>
       </c>
@@ -12818,7 +12860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -12826,7 +12868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>73</v>
       </c>
@@ -12851,38 +12893,33 @@
       <c r="N10" s="2">
         <v>15</v>
       </c>
-      <c r="O10" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="P11" s="2">
+      <c r="O11" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="P12" s="2">
+      <c r="O12" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H13" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="101" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>174</v>
       </c>
@@ -12916,14 +12953,11 @@
       <c r="O16" s="2">
         <v>50</v>
       </c>
-      <c r="P16" s="2">
-        <v>50</v>
-      </c>
-      <c r="R16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>175</v>
       </c>
@@ -12955,13 +12989,10 @@
         <v>30</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
-      </c>
-      <c r="P17" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>176</v>
       </c>
@@ -12995,11 +13026,8 @@
       <c r="O18" s="2">
         <v>9</v>
       </c>
-      <c r="P18" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>177</v>
       </c>
@@ -13031,13 +13059,10 @@
         <v>110</v>
       </c>
       <c r="O19" s="2">
-        <v>110</v>
-      </c>
-      <c r="P19" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>178</v>
       </c>
@@ -13071,17 +13096,14 @@
       <c r="O20" s="2">
         <v>35</v>
       </c>
-      <c r="P20" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="101" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>174</v>
       </c>
@@ -13106,11 +13128,8 @@
       <c r="N24" s="2">
         <v>28</v>
       </c>
-      <c r="O24" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>175</v>
       </c>
@@ -13135,11 +13154,8 @@
       <c r="N25" s="2">
         <v>20</v>
       </c>
-      <c r="O25" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>176</v>
       </c>
@@ -13164,11 +13180,8 @@
       <c r="N26" s="2">
         <v>6.5</v>
       </c>
-      <c r="O26" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>180</v>
       </c>
@@ -13193,11 +13206,8 @@
       <c r="N27" s="2">
         <v>106</v>
       </c>
-      <c r="O27" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>178</v>
       </c>
@@ -13222,17 +13232,14 @@
       <c r="N28" s="2">
         <v>35</v>
       </c>
-      <c r="O28" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="105" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="107" t="s">
         <v>182</v>
       </c>
@@ -13263,11 +13270,8 @@
       <c r="N32" s="106">
         <v>50</v>
       </c>
-      <c r="O32" s="106">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="107" t="s">
         <v>183</v>
       </c>
@@ -13298,16 +13302,15 @@
       <c r="N33" s="106">
         <v>15</v>
       </c>
-      <c r="O33" s="106">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O33" s="199"/>
+      <c r="P33" s="205"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="107" t="s">
         <v>184</v>
       </c>
       <c r="F34" s="106">
-        <f t="shared" ref="F34:O34" si="0">F32-F33-31.54+20*LOG(F2)</f>
+        <f t="shared" ref="F34:N34" si="0">F32-F33-31.54+20*LOG(F2)</f>
         <v>77.460000000000008</v>
       </c>
       <c r="G34" s="108">
@@ -13324,30 +13327,26 @@
       </c>
       <c r="J34" s="108">
         <f t="shared" si="0"/>
-        <v>58.075645513327785</v>
+        <v>58.330195294568597</v>
       </c>
       <c r="K34" s="108">
         <f t="shared" si="0"/>
-        <v>58.330195294568597</v>
+        <v>58.57749711344983</v>
       </c>
       <c r="L34" s="108">
         <f t="shared" si="0"/>
-        <v>58.57749711344983</v>
+        <v>59.391486664208593</v>
       </c>
       <c r="M34" s="108">
         <f t="shared" si="0"/>
-        <v>59.391486664208593</v>
+        <v>59.718267132857115</v>
       </c>
       <c r="N34" s="108">
         <f t="shared" si="0"/>
-        <v>59.718267132857115</v>
-      </c>
-      <c r="O34" s="108">
-        <f t="shared" si="0"/>
         <v>60.0331979307064</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="107" t="s">
         <v>185</v>
       </c>
@@ -13364,25 +13363,22 @@
         <v>57.22</v>
       </c>
       <c r="J35" s="106">
-        <v>57.49</v>
+        <v>58.12</v>
       </c>
       <c r="K35" s="106">
-        <v>58.12</v>
+        <v>58.93</v>
       </c>
       <c r="L35" s="106">
-        <v>58.93</v>
+        <v>59.26</v>
       </c>
       <c r="M35" s="106">
-        <v>59.26</v>
+        <v>59.57</v>
       </c>
       <c r="N35" s="106">
-        <v>59.57</v>
-      </c>
-      <c r="O35" s="106">
         <v>60.73</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="109" t="s">
         <v>186</v>
       </c>
@@ -13413,81 +13409,74 @@
       <c r="N36" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="O36" s="109" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="141" t="s">
-        <v>278</v>
-      </c>
-      <c r="D39" s="143" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="140" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="138" t="s">
-        <v>275</v>
-      </c>
-      <c r="F41" s="176">
+    </row>
+    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="140" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="142" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="139" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="137" t="s">
+        <v>269</v>
+      </c>
+      <c r="F41" s="172">
         <f>Network!C302</f>
-        <v>97</v>
-      </c>
-      <c r="G41" s="177">
+        <v>100</v>
+      </c>
+      <c r="G41" s="173">
         <f>Network!D302</f>
-        <v>95</v>
-      </c>
-      <c r="H41" s="178">
+        <v>98</v>
+      </c>
+      <c r="H41" s="174">
         <f>Network!E302</f>
-        <v>101</v>
-      </c>
-      <c r="I41" s="178">
+        <v>104</v>
+      </c>
+      <c r="I41" s="174">
         <f>Network!E302</f>
-        <v>101</v>
-      </c>
-      <c r="J41" s="178">
+        <v>104</v>
+      </c>
+      <c r="J41" s="174">
         <f>Network!E302</f>
-        <v>101</v>
-      </c>
-      <c r="K41" s="178">
+        <v>104</v>
+      </c>
+      <c r="K41" s="174">
         <f>Network!E302</f>
-        <v>101</v>
-      </c>
-      <c r="L41" s="178">
+        <v>104</v>
+      </c>
+      <c r="L41" s="174">
         <f>Network!E302</f>
-        <v>101</v>
-      </c>
-      <c r="M41" s="178">
+        <v>104</v>
+      </c>
+      <c r="M41" s="174">
         <f>Network!E302</f>
-        <v>101</v>
-      </c>
-      <c r="N41" s="178">
+        <v>104</v>
+      </c>
+      <c r="N41" s="174">
         <f>Network!E302</f>
-        <v>101</v>
-      </c>
-      <c r="O41" s="178">
-        <f>Network!E302</f>
-        <v>101</v>
-      </c>
-      <c r="P41" s="179">
+        <v>104</v>
+      </c>
+      <c r="O41" s="175">
         <f>Network!F302</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="166" t="s">
-        <v>276</v>
-      </c>
-      <c r="F42" s="161">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" s="159">
         <v>8</v>
       </c>
-      <c r="G42" s="174">
+      <c r="G42" s="170">
         <v>7</v>
       </c>
       <c r="H42" s="21">
@@ -13497,42 +13486,39 @@
         <v>5</v>
       </c>
       <c r="J42" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K42" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L42" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M42" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" s="21">
-        <v>1</v>
-      </c>
-      <c r="O42" s="21">
         <v>0</v>
       </c>
-      <c r="P42" s="164">
+      <c r="O42" s="160">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="166" t="s">
-        <v>277</v>
-      </c>
-      <c r="C43" s="158">
+    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="162" t="s">
+        <v>271</v>
+      </c>
+      <c r="C43" s="157">
         <v>0.3</v>
       </c>
-      <c r="D43" s="159">
+      <c r="D43" s="158">
         <v>0.5</v>
       </c>
-      <c r="F43" s="161">
+      <c r="F43" s="159">
         <f>F42*C43</f>
         <v>2.4</v>
       </c>
-      <c r="G43" s="174">
+      <c r="G43" s="170">
         <f>G42*C43</f>
         <v>2.1</v>
       </c>
@@ -13546,229 +13532,210 @@
       </c>
       <c r="J43" s="21">
         <f>J42*D43</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K43" s="21">
         <f>K42*D43</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L43" s="21">
         <f>L42*D43</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M43" s="21">
         <f>M42*D43</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N43" s="21">
         <f>N42*D43</f>
-        <v>0.5</v>
-      </c>
-      <c r="O43" s="21">
+        <v>0</v>
+      </c>
+      <c r="O43" s="160">
         <f>O42*D43</f>
         <v>0</v>
       </c>
-      <c r="P43" s="164">
-        <f>P42*D43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="172" t="s">
-        <v>280</v>
-      </c>
-      <c r="F44" s="183">
-        <f t="shared" ref="F44:P44" si="1">F41+F43</f>
-        <v>99.4</v>
-      </c>
-      <c r="G44" s="184">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="168" t="s">
+        <v>274</v>
+      </c>
+      <c r="F44" s="179">
+        <f t="shared" ref="F44:O44" si="1">F41+F43</f>
+        <v>102.4</v>
+      </c>
+      <c r="G44" s="180">
         <f t="shared" si="1"/>
-        <v>97.1</v>
+        <v>100.1</v>
       </c>
       <c r="H44" s="90">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I44" s="90">
         <f t="shared" si="1"/>
-        <v>103.5</v>
+        <v>106.5</v>
       </c>
       <c r="J44" s="90">
         <f t="shared" si="1"/>
-        <v>103.5</v>
+        <v>106</v>
       </c>
       <c r="K44" s="90">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>105.5</v>
       </c>
       <c r="L44" s="90">
         <f t="shared" si="1"/>
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="M44" s="90">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>104.5</v>
       </c>
       <c r="N44" s="90">
         <f t="shared" si="1"/>
-        <v>101.5</v>
-      </c>
-      <c r="O44" s="90">
+        <v>104</v>
+      </c>
+      <c r="O44" s="181">
         <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="P44" s="185">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
-        <v>281</v>
-      </c>
-      <c r="F45" s="173">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="162" t="s">
+        <v>275</v>
+      </c>
+      <c r="F45" s="169">
         <f>F19-F87</f>
         <v>99.032015015757835</v>
       </c>
-      <c r="G45" s="175">
-        <f t="shared" ref="G45:P45" si="2">G19-G87</f>
+      <c r="G45" s="171">
+        <f t="shared" ref="G45:O45" si="2">G19-G87</f>
         <v>101.17931555708239</v>
       </c>
-      <c r="H45" s="168">
+      <c r="H45" s="164">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="I45" s="168">
+      <c r="I45" s="164">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="J45" s="168">
+      <c r="J45" s="164">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K45" s="168">
+      <c r="K45" s="164">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="L45" s="168">
+      <c r="L45" s="164">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="M45" s="168">
+      <c r="M45" s="164">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="N45" s="168">
+      <c r="N45" s="164">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="O45" s="168">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="P45" s="171">
+      <c r="O45" s="167">
         <f t="shared" si="2"/>
         <v>113.03201501575784</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="139" t="s">
-        <v>282</v>
-      </c>
-      <c r="F46" s="180" t="str">
-        <f t="shared" ref="F46:P46" si="3">IF(F44&lt;=(F19-F87),"OK","NO")</f>
+    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="138" t="s">
+        <v>276</v>
+      </c>
+      <c r="F46" s="176" t="str">
+        <f t="shared" ref="F46:O46" si="3">IF(F44&lt;=(F19-F87),"OK","NO")</f>
         <v>NO</v>
       </c>
-      <c r="G46" s="181" t="str">
+      <c r="G46" s="177" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="H46" s="181" t="str">
+      <c r="H46" s="177" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="I46" s="181" t="str">
+      <c r="I46" s="177" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="J46" s="181" t="str">
+      <c r="J46" s="177" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="K46" s="181" t="str">
+      <c r="K46" s="177" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="L46" s="181" t="str">
+      <c r="L46" s="177" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="M46" s="181" t="str">
+      <c r="M46" s="177" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="N46" s="181" t="str">
+      <c r="N46" s="182" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="O46" s="186" t="str">
+      <c r="O46" s="178" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="P46" s="182" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="140" t="s">
-        <v>288</v>
+    </row>
+    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="139" t="s">
+        <v>281</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="165" t="s">
-        <v>289</v>
-      </c>
-      <c r="F49" s="149">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="161" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" s="148">
         <v>6</v>
       </c>
-      <c r="G49" s="150">
+      <c r="G49" s="149">
         <v>8</v>
       </c>
-      <c r="H49" s="150">
+      <c r="H49" s="149">
         <v>8</v>
       </c>
-      <c r="I49" s="150">
+      <c r="I49" s="149">
         <v>8</v>
       </c>
-      <c r="J49" s="150">
+      <c r="J49" s="149">
         <v>8</v>
       </c>
-      <c r="K49" s="150">
+      <c r="K49" s="149">
         <v>8</v>
       </c>
-      <c r="L49" s="150">
+      <c r="L49" s="149">
         <v>8</v>
       </c>
-      <c r="M49" s="150">
+      <c r="M49" s="149">
         <v>8</v>
       </c>
       <c r="N49" s="150">
         <v>8</v>
       </c>
-      <c r="O49" s="151">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="166" t="s">
-        <v>290</v>
-      </c>
-      <c r="F50" s="161">
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="162" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" s="159">
         <f>F5*F49</f>
         <v>0.30000000000000004</v>
       </c>
@@ -13781,7 +13748,7 @@
         <v>0.8</v>
       </c>
       <c r="I50" s="21">
-        <f t="shared" ref="I50:N50" si="4">I5*I49</f>
+        <f t="shared" ref="I50:M50" si="4">I5*I49</f>
         <v>0.8</v>
       </c>
       <c r="J50" s="21">
@@ -13790,7 +13757,7 @@
       </c>
       <c r="K50" s="21">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="L50" s="21">
         <f t="shared" si="4"/>
@@ -13800,20 +13767,16 @@
         <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
-      <c r="N50" s="21">
-        <f t="shared" si="4"/>
+      <c r="N50" s="160">
+        <f>N5*N49</f>
         <v>0.88</v>
       </c>
-      <c r="O50" s="164">
-        <f>O5*O49</f>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="166" t="s">
-        <v>276</v>
-      </c>
-      <c r="F51" s="161">
+    </row>
+    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" s="159">
         <v>8</v>
       </c>
       <c r="G51" s="21">
@@ -13826,35 +13789,32 @@
         <v>5</v>
       </c>
       <c r="J51" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K51" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L51" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M51" s="21">
-        <v>2</v>
-      </c>
-      <c r="N51" s="21">
         <v>1</v>
       </c>
-      <c r="O51" s="164">
+      <c r="N51" s="160">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="166" t="s">
-        <v>277</v>
-      </c>
-      <c r="C52" s="158">
+    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="162" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" s="157">
         <v>0.3</v>
       </c>
-      <c r="D52" s="159">
+      <c r="D52" s="158">
         <v>0.5</v>
       </c>
-      <c r="F52" s="161">
+      <c r="F52" s="159">
         <f>C52*F51</f>
         <v>2.4</v>
       </c>
@@ -13872,35 +13832,31 @@
       </c>
       <c r="J52" s="21">
         <f>D52*J51</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K52" s="21">
         <f>D52*K51</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L52" s="21">
         <f>D52*L51</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M52" s="21">
         <f>D52*M51</f>
-        <v>1</v>
-      </c>
-      <c r="N52" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="N52" s="160">
         <f>D52*N51</f>
-        <v>0.5</v>
-      </c>
-      <c r="O52" s="164">
-        <f>D52*O51</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="166" t="s">
-        <v>291</v>
-      </c>
-      <c r="F53" s="161">
-        <f t="shared" ref="F53:O53" si="5">F52+F50</f>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="162" t="s">
+        <v>284</v>
+      </c>
+      <c r="F53" s="159">
+        <f t="shared" ref="F53:N53" si="5">F52+F50</f>
         <v>2.7</v>
       </c>
       <c r="G53" s="21">
@@ -13917,236 +13873,216 @@
       </c>
       <c r="J53" s="21">
         <f t="shared" si="5"/>
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="K53" s="21">
         <f t="shared" si="5"/>
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="L53" s="21">
         <f t="shared" si="5"/>
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="M53" s="21">
         <f t="shared" si="5"/>
-        <v>1.88</v>
-      </c>
-      <c r="N53" s="21">
-        <f t="shared" si="5"/>
         <v>1.38</v>
       </c>
-      <c r="O53" s="164">
+      <c r="N53" s="160">
         <f t="shared" si="5"/>
         <v>0.88</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="167" t="s">
-        <v>292</v>
-      </c>
-      <c r="F54" s="152">
-        <f t="shared" ref="F54:O54" si="6">F32-F53</f>
+    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="163" t="s">
+        <v>285</v>
+      </c>
+      <c r="F54" s="151">
+        <f t="shared" ref="F54:N54" si="6">F32-F53</f>
         <v>67.3</v>
       </c>
-      <c r="G54" s="153">
+      <c r="G54" s="152">
         <f t="shared" si="6"/>
         <v>55.42</v>
       </c>
-      <c r="H54" s="153">
+      <c r="H54" s="152">
         <f t="shared" si="6"/>
         <v>46.2</v>
       </c>
-      <c r="I54" s="153">
+      <c r="I54" s="152">
         <f t="shared" si="6"/>
         <v>46.7</v>
       </c>
-      <c r="J54" s="153">
-        <f t="shared" si="6"/>
-        <v>46.7</v>
-      </c>
-      <c r="K54" s="153">
+      <c r="J54" s="152">
         <f t="shared" si="6"/>
         <v>47.2</v>
       </c>
-      <c r="L54" s="153">
+      <c r="K54" s="152">
         <f t="shared" si="6"/>
         <v>47.62</v>
       </c>
-      <c r="M54" s="153">
+      <c r="L54" s="152">
         <f t="shared" si="6"/>
         <v>48.12</v>
       </c>
+      <c r="M54" s="152">
+        <f t="shared" si="6"/>
+        <v>48.62</v>
+      </c>
       <c r="N54" s="153">
         <f t="shared" si="6"/>
-        <v>48.62</v>
-      </c>
-      <c r="O54" s="154">
-        <f t="shared" si="6"/>
         <v>49.12</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="140" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="165" t="s">
-        <v>297</v>
-      </c>
-      <c r="F58" s="149">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="139" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="161" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" s="148">
         <f>F44-(F32-F53)</f>
-        <v>32.100000000000009</v>
-      </c>
-      <c r="G58" s="150">
+        <v>35.100000000000009</v>
+      </c>
+      <c r="G58" s="149">
         <f>G44-(G32-G53)</f>
-        <v>41.679999999999993</v>
-      </c>
-      <c r="H58" s="150">
+        <v>44.679999999999993</v>
+      </c>
+      <c r="H58" s="149">
         <f>H44-(H32-H53)</f>
-        <v>57.8</v>
-      </c>
-      <c r="I58" s="150">
+        <v>60.8</v>
+      </c>
+      <c r="I58" s="149">
         <f>I44-(I32-I53)</f>
-        <v>56.8</v>
-      </c>
-      <c r="J58" s="150">
-        <f>J44-(J32-J53)</f>
-        <v>56.8</v>
-      </c>
-      <c r="K58" s="150">
-        <f t="shared" ref="K58:O58" si="7">K44-(K32-K53)</f>
-        <v>55.8</v>
-      </c>
-      <c r="L58" s="150">
+        <v>59.8</v>
+      </c>
+      <c r="J58" s="149">
+        <f t="shared" ref="J58:N58" si="7">J44-(J32-J53)</f>
+        <v>58.8</v>
+      </c>
+      <c r="K58" s="149">
+        <f t="shared" si="7"/>
+        <v>57.88</v>
+      </c>
+      <c r="L58" s="149">
+        <f t="shared" si="7"/>
+        <v>56.88</v>
+      </c>
+      <c r="M58" s="149">
+        <f t="shared" si="7"/>
+        <v>55.88</v>
+      </c>
+      <c r="N58" s="150">
         <f t="shared" si="7"/>
         <v>54.88</v>
       </c>
-      <c r="M58" s="150">
-        <f t="shared" si="7"/>
-        <v>53.88</v>
-      </c>
-      <c r="N58" s="150">
-        <f t="shared" si="7"/>
-        <v>52.88</v>
-      </c>
-      <c r="O58" s="151">
-        <f t="shared" si="7"/>
-        <v>51.88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="167" t="s">
-        <v>298</v>
-      </c>
-      <c r="F59" s="180" t="str">
+    </row>
+    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="163" t="s">
+        <v>291</v>
+      </c>
+      <c r="F59" s="176" t="str">
         <f>IF(AND(F16&gt;F58,(F16-F17)&lt;F58),"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="G59" s="181" t="str">
-        <f t="shared" ref="G59:O59" si="8">IF(AND(G16&gt;G58,(G16-G17)&lt;G58),"OK","NO")</f>
+      <c r="G59" s="177" t="str">
+        <f t="shared" ref="G59:N59" si="8">IF(AND(G16&gt;G58,(G16-G17)&lt;G58),"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="H59" s="181" t="str">
+      <c r="H59" s="177" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="I59" s="181" t="str">
+      <c r="I59" s="177" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="J59" s="181" t="str">
+      <c r="J59" s="177" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="K59" s="181" t="str">
+      <c r="K59" s="177" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="L59" s="181" t="str">
+      <c r="L59" s="177" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="M59" s="181" t="str">
+      <c r="M59" s="177" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="N59" s="181" t="str">
+      <c r="N59" s="178" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="O59" s="182" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="140" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="165" t="s">
-        <v>300</v>
-      </c>
-      <c r="F62" s="149">
+    </row>
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="139" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="161" t="s">
+        <v>293</v>
+      </c>
+      <c r="F62" s="148">
         <f>IF(F58-F24&gt;F16-F17,F58-F24,F16-F17)</f>
-        <v>32.100000000000009</v>
-      </c>
-      <c r="G62" s="150">
-        <f t="shared" ref="G62:O62" si="9">IF(G58-G24&gt;G16-G17,G58-G24,G16-G17)</f>
-        <v>41.679999999999993</v>
-      </c>
-      <c r="H62" s="150">
+        <v>35.100000000000009</v>
+      </c>
+      <c r="G62" s="149">
+        <f t="shared" ref="G62:N62" si="9">IF(G58-G24&gt;G16-G17,G58-G24,G16-G17)</f>
+        <v>44.679999999999993</v>
+      </c>
+      <c r="H62" s="149">
         <f t="shared" si="9"/>
-        <v>29.799999999999997</v>
-      </c>
-      <c r="I62" s="150">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I62" s="149">
         <f>IF(I58-I24&gt;I16-I17,I58-I24,I16-I17)</f>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="J62" s="150">
+        <v>31.799999999999997</v>
+      </c>
+      <c r="J62" s="149">
         <f t="shared" si="9"/>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="K62" s="150">
+        <v>30.799999999999997</v>
+      </c>
+      <c r="K62" s="149">
         <f t="shared" si="9"/>
-        <v>27.799999999999997</v>
-      </c>
-      <c r="L62" s="150">
+        <v>29.880000000000003</v>
+      </c>
+      <c r="L62" s="149">
+        <f t="shared" si="9"/>
+        <v>28.880000000000003</v>
+      </c>
+      <c r="M62" s="149">
+        <f t="shared" si="9"/>
+        <v>27.880000000000003</v>
+      </c>
+      <c r="N62" s="150">
         <f t="shared" si="9"/>
         <v>26.880000000000003</v>
       </c>
-      <c r="M62" s="150">
-        <f t="shared" si="9"/>
-        <v>25.880000000000003</v>
-      </c>
-      <c r="N62" s="150">
-        <f t="shared" si="9"/>
-        <v>24.880000000000003</v>
-      </c>
-      <c r="O62" s="151">
-        <f t="shared" si="9"/>
-        <v>23.880000000000003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="166" t="s">
-        <v>301</v>
-      </c>
-      <c r="F63" s="161">
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="162" t="s">
+        <v>294</v>
+      </c>
+      <c r="F63" s="159">
         <f>F58-F62</f>
         <v>0</v>
       </c>
       <c r="G63" s="21">
-        <f t="shared" ref="G63:O63" si="10">G58-G62</f>
+        <f t="shared" ref="G63:N63" si="10">G58-G62</f>
         <v>0</v>
       </c>
       <c r="H63" s="21">
@@ -14154,11 +14090,11 @@
         <v>28</v>
       </c>
       <c r="I63" s="21">
-        <f t="shared" si="10"/>
+        <f>I58-I62</f>
         <v>28</v>
       </c>
       <c r="J63" s="21">
-        <f t="shared" si="10"/>
+        <f>J58-J62</f>
         <v>28</v>
       </c>
       <c r="K63" s="21">
@@ -14173,109 +14109,96 @@
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="N63" s="21">
+      <c r="N63" s="160">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="O63" s="164">
-        <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="167" t="s">
-        <v>302</v>
-      </c>
-      <c r="F64" s="180" t="str">
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="163" t="s">
+        <v>295</v>
+      </c>
+      <c r="F64" s="176" t="str">
         <f>IF(AND(F16&gt;F62,(F16-F17)&lt;F62),"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="G64" s="181" t="str">
-        <f t="shared" ref="G64:O64" si="11">IF(AND(G16&gt;G62,(G16-G17)&lt;G62),"OK","NO")</f>
+      <c r="G64" s="177" t="str">
+        <f t="shared" ref="G64:N64" si="11">IF(AND(G16&gt;G62,(G16-G17)&lt;G62),"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="H64" s="181" t="str">
+      <c r="H64" s="177" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="I64" s="181" t="str">
+      <c r="I64" s="177" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="J64" s="181" t="str">
+      <c r="J64" s="177" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="K64" s="181" t="str">
+      <c r="K64" s="177" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="L64" s="181" t="str">
+      <c r="L64" s="177" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="M64" s="181" t="str">
+      <c r="M64" s="177" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="N64" s="181" t="str">
+      <c r="N64" s="178" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="O64" s="182" t="str">
-        <f t="shared" si="11"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="187" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
-        <v>305</v>
-      </c>
-      <c r="F67" s="149">
+    </row>
+    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="183" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="162" t="s">
+        <v>297</v>
+      </c>
+      <c r="F67" s="148">
         <v>0.15</v>
       </c>
-      <c r="G67" s="150">
+      <c r="G67" s="149">
         <v>1.536</v>
       </c>
-      <c r="H67" s="150">
+      <c r="H67" s="149">
         <v>8</v>
       </c>
-      <c r="I67" s="150">
+      <c r="I67" s="149">
         <v>8</v>
       </c>
-      <c r="J67" s="150">
+      <c r="J67" s="149">
         <v>8</v>
       </c>
-      <c r="K67" s="150">
+      <c r="K67" s="149">
         <v>8</v>
       </c>
-      <c r="L67" s="150">
+      <c r="L67" s="149">
         <v>8</v>
       </c>
-      <c r="M67" s="150">
+      <c r="M67" s="149">
         <v>8</v>
       </c>
       <c r="N67" s="150">
         <v>8</v>
       </c>
-      <c r="O67" s="151">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="166" t="s">
-        <v>306</v>
-      </c>
-      <c r="F68" s="161">
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="162" t="s">
+        <v>298</v>
+      </c>
+      <c r="F68" s="159">
         <v>290</v>
       </c>
       <c r="G68" s="21">
@@ -14299,18 +14222,15 @@
       <c r="M68" s="21">
         <v>290</v>
       </c>
-      <c r="N68" s="21">
+      <c r="N68" s="160">
         <v>290</v>
       </c>
-      <c r="O68" s="164">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="166" t="s">
-        <v>307</v>
-      </c>
-      <c r="F69" s="161">
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="162" t="s">
+        <v>299</v>
+      </c>
+      <c r="F69" s="159">
         <v>-13</v>
       </c>
       <c r="G69" s="21">
@@ -14334,657 +14254,603 @@
       <c r="M69" s="21">
         <v>4</v>
       </c>
-      <c r="N69" s="21">
+      <c r="N69" s="160">
         <v>4</v>
       </c>
-      <c r="O69" s="164">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="167" t="s">
-        <v>308</v>
-      </c>
-      <c r="F70" s="152">
+    </row>
+    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="163" t="s">
+        <v>300</v>
+      </c>
+      <c r="F70" s="151">
         <v>38</v>
       </c>
-      <c r="G70" s="153">
+      <c r="G70" s="152">
         <v>18</v>
       </c>
-      <c r="H70" s="153">
+      <c r="H70" s="152">
         <v>25</v>
       </c>
-      <c r="I70" s="153">
+      <c r="I70" s="152">
         <v>25</v>
       </c>
-      <c r="J70" s="153">
+      <c r="J70" s="152">
         <v>25</v>
       </c>
-      <c r="K70" s="153">
+      <c r="K70" s="152">
         <v>25</v>
       </c>
-      <c r="L70" s="153">
+      <c r="L70" s="152">
         <v>25</v>
       </c>
-      <c r="M70" s="153">
+      <c r="M70" s="152">
         <v>25</v>
       </c>
       <c r="N70" s="153">
         <v>25</v>
       </c>
-      <c r="O70" s="154">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="188" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="189" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F74" s="149">
+    </row>
+    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="184" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="185" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="162" t="s">
+        <v>302</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="F74" s="148">
         <f>10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>18.760497143477163</v>
-      </c>
-      <c r="G74" s="150">
+        <v>16.537205707170102</v>
+      </c>
+      <c r="G74" s="149">
         <f>10*LOG10(10^((G18+G53)/10)+10^((G53-G58)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>13.16833294530084</v>
-      </c>
-      <c r="H74" s="150">
+        <v>12.448242010510427</v>
+      </c>
+      <c r="H74" s="149">
         <f>10*LOG10(10^((H18+H53)/10)+10^((H53-H58)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>12.873754086854778</v>
-      </c>
-      <c r="I74" s="150">
+        <v>12.837121168044634</v>
+      </c>
+      <c r="I74" s="149">
         <f>10*LOG10(10^((I18+I53)/10)+10^((I53-I58)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>12.382668184740464</v>
-      </c>
-      <c r="J74" s="150">
+        <v>12.341628930936814</v>
+      </c>
+      <c r="J74" s="149">
         <f>10*LOG10(10^((J18+J53)/10)+10^((J53-J58)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>12.382668184740464</v>
-      </c>
-      <c r="K74" s="150">
+        <v>11.846681144362297</v>
+      </c>
+      <c r="K74" s="149">
         <f>10*LOG10(10^((K18+K53)/10)+10^((K53-K58)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>11.892648202220018</v>
-      </c>
-      <c r="L74" s="150">
-        <f>10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((L43+Network!J277)/10)-1))</f>
-        <v>11.481945853076247</v>
-      </c>
-      <c r="M74" s="150">
+        <v>11.431393079318745</v>
+      </c>
+      <c r="L74" s="149">
+        <f>10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((L43+Network!K277)/10)-1))</f>
+        <v>11.004322432591573</v>
+      </c>
+      <c r="M74" s="149">
         <f>10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((M43+Network!K277)/10)-1))</f>
-        <v>11.124620043324962</v>
+        <v>10.51925115842595</v>
       </c>
       <c r="N74" s="150">
         <f>10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((N43+Network!K277)/10)-1))</f>
-        <v>10.653546318599503</v>
-      </c>
-      <c r="O74" s="151">
-        <f>10*LOG10(10^((O18+O53)/10)+10^((O53-O58)/10)*(10^((O43+Network!K277)/10)-1))</f>
-        <v>10.185774337262743</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="166" t="s">
-        <v>311</v>
-      </c>
-      <c r="F75" s="183">
+        <v>10.035940560689802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="162" t="s">
+        <v>303</v>
+      </c>
+      <c r="F75" s="179">
         <f>F32-F69-10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>64.239502856522833</v>
+        <v>66.462794292829898</v>
       </c>
       <c r="G75" s="90">
         <f>G32-G69-10*LOG10(10^((G18+G53)/10)+10^((G53-G58)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>47.83166705469916</v>
+        <v>48.551757989489573</v>
       </c>
       <c r="H75" s="90">
         <f>H32-H69-10*LOG10(10^((H18+H53)/10)+10^((H53-H58)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>33.126245913145226</v>
+        <v>33.162878831955368</v>
       </c>
       <c r="I75" s="90">
         <f>I32-I69-10*LOG10(10^((I18+I53)/10)+10^((I53-I58)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>33.617331815259533</v>
+        <v>33.658371069063186</v>
       </c>
       <c r="J75" s="90">
         <f>J32-J69-10*LOG10(10^((J18+J53)/10)+10^((J53-J58)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>33.617331815259533</v>
+        <v>34.153318855637707</v>
       </c>
       <c r="K75" s="90">
         <f>K32-K69-10*LOG10(10^((K18+K53)/10)+10^((K53-K58)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>34.107351797779984</v>
+        <v>34.568606920681255</v>
       </c>
       <c r="L75" s="90">
-        <f>L32-L69-10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((L43+Network!J277)/10)-1))</f>
-        <v>34.518054146923753</v>
+        <f>L32-L69-10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((J43+Network!O277)/10)-1))</f>
+        <v>35.119979752503028</v>
       </c>
       <c r="M75" s="90">
-        <f>M32-M69-10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((K43+Network!O277)/10)-1))</f>
-        <v>35.119959601026046</v>
-      </c>
-      <c r="N75" s="90">
-        <f>N32-N69-10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((K43+Network!P277)/10)-1))</f>
-        <v>35.619998352365812</v>
-      </c>
-      <c r="O75" s="185">
-        <f>O32-O69-10*LOG10(10^((O18+O53)/10)+10^((O53-O58)/10)*(10^((K43+Network!Q277)/10)-1))</f>
-        <v>36.119997925751548</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="167" t="s">
-        <v>312</v>
-      </c>
-      <c r="F76" s="180" t="str">
+        <f>M32-M69-10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((J43+Network!P277)/10)-1))</f>
+        <v>35.619999174226699</v>
+      </c>
+      <c r="N75" s="181">
+        <f>N32-N69-10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((J43+Network!Q277)/10)-1))</f>
+        <v>36.119998960413028</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="163" t="s">
+        <v>304</v>
+      </c>
+      <c r="F76" s="176" t="str">
         <f>IF(F75&gt;=F70,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="G76" s="181" t="str">
-        <f t="shared" ref="G76:O76" si="12">IF(G75&gt;=G70,"OK","NO")</f>
+      <c r="G76" s="177" t="str">
+        <f t="shared" ref="G76:N76" si="12">IF(G75&gt;=G70,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="H76" s="181" t="str">
+      <c r="H76" s="177" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="I76" s="181" t="str">
+      <c r="I76" s="177" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="J76" s="181" t="str">
+      <c r="J76" s="177" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="K76" s="181" t="str">
+      <c r="K76" s="177" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="L76" s="181" t="str">
+      <c r="L76" s="177" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="M76" s="181" t="str">
+      <c r="M76" s="177" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="N76" s="181" t="str">
+      <c r="N76" s="178" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="O76" s="182" t="str">
-        <f t="shared" si="12"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="187" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="F79" s="149">
+    </row>
+    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="183" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="162" t="s">
+        <v>302</v>
+      </c>
+      <c r="F79" s="148">
         <f>10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>18.760497143477167</v>
-      </c>
-      <c r="G79" s="150">
+        <v>16.537205707170102</v>
+      </c>
+      <c r="G79" s="149">
         <f>10*LOG10(10^(G26/10)+(10^(G53/10)-1)/10^(G63/10)+(10^(G18/10)-1)*10^(G53/10)/10^(G63/10)+10^((G53-G62-G63)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>13.16833294530084</v>
-      </c>
-      <c r="H79" s="150">
+        <v>12.448242010510429</v>
+      </c>
+      <c r="H79" s="149">
         <f>10*LOG10(10^(H26/10)+(10^(H53/10)-1)/10^(H63/10)+(10^(H18/10)-1)*10^(H53/10)/10^(H63/10)+10^((H53-H62-H63)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>6.8320999204318209</v>
-      </c>
-      <c r="I79" s="150">
+        <v>6.6829431135643471</v>
+      </c>
+      <c r="I79" s="149">
         <f>10*LOG10(10^(I26/10)+(10^(I53/10)-1)/10^(I63/10)+(10^(I18/10)-1)*10^(I53/10)/10^(I63/10)+10^((I53-I62-I63)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>6.8291404634264445</v>
-      </c>
-      <c r="J79" s="150">
+        <v>6.6798804391014315</v>
+      </c>
+      <c r="J79" s="149">
         <f>10*LOG10(10^(J26/10)+(10^(J53/10)-1)/10^(J63/10)+(10^(J18/10)-1)*10^(J53/10)/10^(J63/10)+10^((J53-J62-J63)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>6.8291404634264445</v>
-      </c>
-      <c r="K79" s="150">
+        <v>6.6771489537078939</v>
+      </c>
+      <c r="K79" s="149">
         <f>10*LOG10(10^(K26/10)+(10^(K53/10)-1)/10^(K63/10)+(10^(K18/10)-1)*10^(K53/10)/10^(K63/10)+10^((K53-K62-K63)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>6.8265010427752344</v>
-      </c>
-      <c r="L79" s="150">
-        <f>10*LOG10(10^(L26/10)+(10^(L53/10)-1)/10^(L63/10)+(10^(L18/10)-1)*10^(L53/10)/10^(L63/10)+10^((L53-L62-L63)/10)*(10^((L43+Network!J277)/10)-1))</f>
-        <v>6.8245058343871996</v>
-      </c>
-      <c r="M79" s="150">
+        <v>6.6750842057365247</v>
+      </c>
+      <c r="L79" s="149">
+        <f>10*LOG10(10^(L26/10)+(10^(L53/10)-1)/10^(L63/10)+(10^(L18/10)-1)*10^(L53/10)/10^(L63/10)+10^((L53-L62-L63)/10)*(10^((L43+Network!K277)/10)-1))</f>
+        <v>6.8487120708452345</v>
+      </c>
+      <c r="M79" s="149">
         <f>10*LOG10(10^(M26/10)+(10^(M53/10)-1)/10^(M63/10)+(10^(M18/10)-1)*10^(M53/10)/10^(M63/10)+10^((M53-M62-M63)/10)*(10^((M43+Network!K277)/10)-1))</f>
-        <v>7.1552128873363943</v>
+        <v>6.8468174917760871</v>
       </c>
       <c r="N79" s="150">
         <f>10*LOG10(10^(N26/10)+(10^(N53/10)-1)/10^(N63/10)+(10^(N18/10)-1)*10^(N53/10)/10^(N63/10)+10^((N53-N62-N63)/10)*(10^((N43+Network!K277)/10)-1))</f>
-        <v>7.1534471129647628</v>
-      </c>
-      <c r="O79" s="151">
-        <f>10*LOG10(10^(O26/10)+(10^(O53/10)-1)/10^(O63/10)+(10^(O18/10)-1)*10^(O53/10)/10^(O63/10)+10^((O53-O62-O63)/10)*(10^((O43+Network!K277)/10)-1))</f>
-        <v>7.1518726109406714</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="166" t="s">
-        <v>311</v>
-      </c>
-      <c r="F80" s="183">
+        <v>6.8451281695987118</v>
+      </c>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="162" t="s">
+        <v>303</v>
+      </c>
+      <c r="F80" s="179">
         <f>F32-F69-10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>64.239502856522833</v>
+        <v>66.462794292829898</v>
       </c>
       <c r="G80" s="90">
         <f>G32-G69-10*LOG10(10^(G26/10)+(10^(G53/10)-1)/10^(G63/10)+(10^(G18/10)-1)*10^(G53/10)/10^(G63/10)+10^((G53-G62-G63)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>47.83166705469916</v>
+        <v>48.551757989489573</v>
       </c>
       <c r="H80" s="90">
         <f>H32-H69-10*LOG10(10^(H26/10)+(10^(H53/10)-1)/10^(H63/10)+(10^(H18/10)-1)*10^(H53/10)/10^(H63/10)+10^((H53-H62-H63)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>39.167900079568177</v>
+        <v>39.317056886435651</v>
       </c>
       <c r="I80" s="90">
         <f>I32-I69-10*LOG10(10^(I26/10)+(10^(I53/10)-1)/10^(I63/10)+(10^(I18/10)-1)*10^(I53/10)/10^(I63/10)+10^((I53-I62-I63)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>39.170859536573559</v>
+        <v>39.320119560898569</v>
       </c>
       <c r="J80" s="90">
         <f>J32-J69-10*LOG10(10^(J26/10)+(10^(J53/10)-1)/10^(J63/10)+(10^(J18/10)-1)*10^(J53/10)/10^(J63/10)+10^((J53-J62-J63)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>39.170859536573559</v>
+        <v>39.322851046292108</v>
       </c>
       <c r="K80" s="90">
         <f>K32-K69-10*LOG10(10^(K26/10)+(10^(K53/10)-1)/10^(K63/10)+(10^(K18/10)-1)*10^(K53/10)/10^(K63/10)+10^((K53-K62-K63)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>39.173498957224766</v>
+        <v>39.324915794263475</v>
       </c>
       <c r="L80" s="90">
-        <f>L32-L69-10*LOG10(10^(L26/10)+(10^(L53/10)-1)/10^(L63/10)+(10^(L18/10)-1)*10^(L53/10)/10^(L63/10)+10^((L53-L62-L63)/10)*(10^((L43+Network!J277)/10)-1))</f>
-        <v>39.175494165612804</v>
+        <f>L32-L69-10*LOG10(10^(L26/10)+(10^(L53/10)-1)/10^(L63/10)+(10^(L18/10)-1)*10^(L53/10)/10^(L63/10)+10^((L53-L62-L63)/10)*(10^((L43+Network!K277)/10)-1))</f>
+        <v>39.151287929154762</v>
       </c>
       <c r="M80" s="90">
         <f>M32-M69-10*LOG10(10^(M26/10)+(10^(M53/10)-1)/10^(M63/10)+(10^(M18/10)-1)*10^(M53/10)/10^(M63/10)+10^((M53-M62-M63)/10)*(10^((M43+Network!K277)/10)-1))</f>
-        <v>38.844787112663603</v>
-      </c>
-      <c r="N80" s="90">
+        <v>39.153182508223914</v>
+      </c>
+      <c r="N80" s="181">
         <f>N32-N69-10*LOG10(10^(N26/10)+(10^(N53/10)-1)/10^(N63/10)+(10^(N18/10)-1)*10^(N53/10)/10^(N63/10)+10^((N53-N62-N63)/10)*(10^((N43+Network!K277)/10)-1))</f>
-        <v>38.846552887035237</v>
-      </c>
-      <c r="O80" s="185">
-        <f>O32-O69-10*LOG10(10^(O26/10)+(10^(O53/10)-1)/10^(O63/10)+(10^(O18/10)-1)*10^(O53/10)/10^(O63/10)+10^((O53-O62-O63)/10)*(10^((O43+Network!K277)/10)-1))</f>
-        <v>38.848127389059329</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="167" t="s">
-        <v>313</v>
-      </c>
-      <c r="F81" s="180" t="str">
+        <v>39.154871830401291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="163" t="s">
+        <v>305</v>
+      </c>
+      <c r="F81" s="176" t="str">
         <f>IF(F80&gt;=F70,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="G81" s="181" t="str">
-        <f t="shared" ref="G81:O81" si="13">IF(G80&gt;=G70,"OK","NO")</f>
+      <c r="G81" s="177" t="str">
+        <f t="shared" ref="G81:N81" si="13">IF(G80&gt;=G70,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="H81" s="181" t="str">
+      <c r="H81" s="177" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="I81" s="181" t="str">
+      <c r="I81" s="177" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="J81" s="181" t="str">
+      <c r="J81" s="177" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="K81" s="181" t="str">
+      <c r="K81" s="177" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="L81" s="181" t="str">
+      <c r="L81" s="177" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="M81" s="181" t="str">
+      <c r="M81" s="177" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="N81" s="181" t="str">
+      <c r="N81" s="178" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="O81" s="182" t="str">
-        <f t="shared" si="13"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="140" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="165" t="s">
-        <v>284</v>
-      </c>
-      <c r="F86" s="149">
+    </row>
+    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="161" t="s">
+        <v>278</v>
+      </c>
+      <c r="F86" s="148">
         <v>30</v>
       </c>
-      <c r="G86" s="150">
+      <c r="G86" s="149">
         <v>16</v>
       </c>
-      <c r="H86" s="150">
+      <c r="H86" s="149">
         <v>1</v>
       </c>
-      <c r="I86" s="150">
+      <c r="I86" s="149">
         <v>2</v>
       </c>
-      <c r="J86" s="150">
-        <v>2</v>
-      </c>
-      <c r="K86" s="150">
+      <c r="J86" s="149">
         <v>1</v>
       </c>
-      <c r="L86" s="150">
+      <c r="K86" s="149">
         <v>1</v>
       </c>
-      <c r="M86" s="150">
+      <c r="L86" s="149">
         <v>1</v>
       </c>
-      <c r="N86" s="150">
+      <c r="M86" s="149">
         <v>1</v>
       </c>
+      <c r="N86" s="149">
+        <v>1</v>
+      </c>
       <c r="O86" s="150">
-        <v>1</v>
-      </c>
-      <c r="P86" s="151">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="166" t="s">
-        <v>285</v>
-      </c>
-      <c r="F87" s="169">
+    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="162" t="s">
+        <v>279</v>
+      </c>
+      <c r="F87" s="165">
         <f>7.5*LOG10((F86-1))</f>
         <v>10.96798498424217</v>
       </c>
-      <c r="G87" s="170">
+      <c r="G87" s="166">
         <f>7.5*LOG10(G86-1)</f>
         <v>8.8206844429176101</v>
       </c>
-      <c r="H87" s="157">
+      <c r="H87" s="156">
         <v>0</v>
       </c>
-      <c r="I87" s="157">
+      <c r="I87" s="156">
         <f>7.5*LOG10(I86-1)</f>
         <v>0</v>
       </c>
-      <c r="J87" s="157">
-        <f>7.5*LOG10(J86-1)</f>
+      <c r="J87" s="156">
         <v>0</v>
       </c>
-      <c r="K87" s="157">
+      <c r="K87" s="156">
         <v>0</v>
       </c>
-      <c r="L87" s="157">
+      <c r="L87" s="156">
         <v>0</v>
       </c>
-      <c r="M87" s="157">
+      <c r="M87" s="156">
         <v>0</v>
       </c>
-      <c r="N87" s="157">
+      <c r="N87" s="156">
         <v>0</v>
       </c>
-      <c r="O87" s="157">
-        <v>0</v>
-      </c>
-      <c r="P87" s="171">
-        <f t="shared" ref="P87" si="14">7.5*LOG10(P86-1)</f>
+      <c r="O87" s="167">
+        <f>7.5*LOG10(O86-1)</f>
         <v>10.96798498424217</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="167" t="s">
-        <v>286</v>
-      </c>
-      <c r="H88" s="152">
+    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="163" t="s">
+        <v>280</v>
+      </c>
+      <c r="H88" s="151">
         <v>30</v>
       </c>
-      <c r="I88" s="153">
+      <c r="I88" s="152">
         <v>30</v>
       </c>
-      <c r="J88" s="153">
+      <c r="J88" s="152">
         <v>30</v>
       </c>
-      <c r="K88" s="153">
+      <c r="K88" s="152">
         <v>30</v>
       </c>
-      <c r="L88" s="153">
+      <c r="L88" s="152">
         <v>30</v>
       </c>
-      <c r="M88" s="153">
+      <c r="M88" s="152">
         <v>30</v>
       </c>
-      <c r="N88" s="153">
+      <c r="N88" s="152">
         <v>30</v>
       </c>
       <c r="O88" s="153">
-        <v>30</v>
-      </c>
-      <c r="P88" s="154">
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="187" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="172" t="s">
-        <v>316</v>
-      </c>
-      <c r="H91" s="176">
+    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="183" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="168" t="s">
+        <v>306</v>
+      </c>
+      <c r="H91" s="172">
         <f>H28+2*(H27-H87-H44)</f>
+        <v>33</v>
+      </c>
+      <c r="I91" s="174">
+        <f t="shared" ref="I91:L91" si="14">I28+2*(I27-H87-I44)</f>
+        <v>34</v>
+      </c>
+      <c r="J91" s="174">
+        <f>J28+2*(J27-J87-J44)</f>
+        <v>35</v>
+      </c>
+      <c r="K91" s="174">
+        <f>K28+2*(K27-K87-K44)</f>
+        <v>36</v>
+      </c>
+      <c r="L91" s="174">
+        <f>L28+2*(L27-L87-L44)</f>
+        <v>37</v>
+      </c>
+      <c r="M91" s="174">
+        <f>M28+2*(M27-M87-M44)</f>
+        <v>38</v>
+      </c>
+      <c r="N91" s="198">
+        <f>N28+2*(N27-N87-N44)</f>
         <v>39</v>
       </c>
-      <c r="I91" s="178">
-        <f t="shared" ref="I91:O91" si="15">I28+2*(I27-H87-I44)</f>
-        <v>40</v>
-      </c>
-      <c r="J91" s="178">
-        <f t="shared" si="15"/>
-        <v>40</v>
-      </c>
-      <c r="K91" s="178">
-        <f t="shared" si="15"/>
-        <v>41</v>
-      </c>
-      <c r="L91" s="178">
-        <f t="shared" si="15"/>
-        <v>42</v>
-      </c>
-      <c r="M91" s="178">
-        <f t="shared" si="15"/>
-        <v>43</v>
-      </c>
-      <c r="N91" s="178">
-        <f t="shared" si="15"/>
-        <v>44</v>
-      </c>
-      <c r="O91" s="179">
-        <f t="shared" si="15"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="139" t="s">
-        <v>317</v>
-      </c>
-      <c r="H92" s="180" t="str">
+      <c r="O91" s="175">
+        <f>O20+2*(O19-O87-O44)</f>
+        <v>51.064030031515671</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="138" t="s">
+        <v>307</v>
+      </c>
+      <c r="H92" s="176" t="str">
         <f>IF(H91&gt;=H88,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="I92" s="181" t="str">
-        <f t="shared" ref="I92:O92" si="16">IF(I91&gt;=I88,"OK","NO")</f>
+      <c r="I92" s="177" t="str">
+        <f t="shared" ref="I92:O92" si="15">IF(I91&gt;=I88,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="J92" s="181" t="str">
-        <f t="shared" si="16"/>
+      <c r="J92" s="177" t="str">
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="K92" s="181" t="str">
-        <f t="shared" si="16"/>
+      <c r="K92" s="177" t="str">
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="L92" s="181" t="str">
-        <f t="shared" si="16"/>
+      <c r="L92" s="177" t="str">
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="M92" s="181" t="str">
-        <f t="shared" si="16"/>
+      <c r="M92" s="177" t="str">
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="N92" s="181" t="str">
-        <f t="shared" si="16"/>
+      <c r="N92" s="182" t="str">
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="O92" s="182" t="str">
-        <f t="shared" si="16"/>
+      <c r="O92" s="178" t="str">
+        <f>IF(O91&gt;=O88,"OK","NO")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="187" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="166" t="s">
-        <v>318</v>
-      </c>
-      <c r="H95" s="149">
+    <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O93" s="200"/>
+    </row>
+    <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="O94" s="200"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="162" t="s">
+        <v>308</v>
+      </c>
+      <c r="H95" s="148">
         <f>H32+H63</f>
         <v>78</v>
       </c>
-      <c r="I95" s="150">
-        <f t="shared" ref="I95:O95" si="17">I32+I63</f>
+      <c r="I95" s="149">
+        <f t="shared" ref="I95:O95" si="16">I32+I63</f>
         <v>78</v>
       </c>
-      <c r="J95" s="150">
-        <f t="shared" si="17"/>
+      <c r="J95" s="149">
+        <f t="shared" si="16"/>
         <v>78</v>
       </c>
-      <c r="K95" s="150">
-        <f t="shared" si="17"/>
+      <c r="K95" s="149">
+        <f t="shared" si="16"/>
         <v>78</v>
       </c>
-      <c r="L95" s="150">
-        <f t="shared" si="17"/>
+      <c r="L95" s="149">
+        <f t="shared" si="16"/>
         <v>78</v>
       </c>
-      <c r="M95" s="150">
-        <f t="shared" si="17"/>
+      <c r="M95" s="201">
+        <f>M32+M63</f>
         <v>78</v>
       </c>
       <c r="N95" s="150">
-        <f t="shared" si="17"/>
+        <f>N32+N63</f>
         <v>78</v>
       </c>
-      <c r="O95" s="151">
-        <f t="shared" si="17"/>
-        <v>78</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="172" t="s">
-        <v>319</v>
-      </c>
-      <c r="H96" s="196">
-        <f>-20*LOG10(10^(-H91/20)+10^(-(H28+2*(H27-7.5*LOG10(SUM(H86:O86)-1)-H32-H63))/20))</f>
-        <v>38.887363993059452</v>
-      </c>
-      <c r="I96" s="195">
-        <f>-20*LOG10(10^(-I91/20)+10^(-(I28+2*(I27-7.5*LOG10(SUM(H86:O86)-1)-I32-I63))/20))</f>
-        <v>39.873719771667787</v>
-      </c>
-      <c r="J96" s="195">
-        <f>-20*LOG10(10^(-J91/20)+10^(-(J28+2*(J27-7.5*LOG10(SUM(H86:O86)-1)-J32-J63))/20))</f>
-        <v>39.873719771667787</v>
-      </c>
-      <c r="K96" s="195">
-        <f>-20*LOG10(10^(-K91/20)+10^(-(K28+2*(K27-7.5*LOG10(SUM(H86:O86)-1)-K32-K63))/20))</f>
-        <v>40.858436175609853</v>
-      </c>
-      <c r="L96" s="195">
-        <f>-20*LOG10(10^(-L91/20)+10^(-(L28+2*(L27-7.5*LOG10(SUM(H86:O86)-1)-L32-L63))/20))</f>
-        <v>41.841319653175255</v>
-      </c>
-      <c r="M96" s="195">
-        <f>-20*LOG10(10^(-M91/20)+10^(-(M28+2*(M27-7.5*LOG10(SUM(H86:O86)-1)-M32-M63))/20))</f>
-        <v>42.822154668419266</v>
-      </c>
-      <c r="N96" s="195">
-        <f>-20*LOG10(10^(-N91/20)+10^(-(N28+2*(N27-7.5*LOG10(SUM(H86:O86)-1)-N32-N63))/20))</f>
-        <v>43.800701423044323</v>
-      </c>
-      <c r="O96" s="197">
-        <f>-20*LOG10(10^(-O91/20)+10^(-(O28+2*(O27-7.5*LOG10(SUM(H86:O86)-1)-O32-O63))/20))</f>
-        <v>44.776693397722497</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="139" t="s">
-        <v>320</v>
-      </c>
-      <c r="H97" s="180" t="str">
+      <c r="O95" s="203"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="168" t="s">
+        <v>309</v>
+      </c>
+      <c r="H96" s="187">
+        <f>-20*LOG10(10^(-H91/20)+10^(-(H28+2*(H27-7.5*LOG10(SUM(H86:N86)-1)-H32-H63))/20))</f>
+        <v>32.953068544611554</v>
+      </c>
+      <c r="I96" s="186">
+        <f>-20*LOG10(10^(-I91/20)+10^(-(I28+2*(I27-7.5*LOG10(SUM(H86:N86)-1)-I32-I63))/20))</f>
+        <v>33.947359360533518</v>
+      </c>
+      <c r="J96" s="186">
+        <f>-20*LOG10(10^(-J91/20)+10^(-(J28+2*(J27-7.5*LOG10(SUM(I86:O86)-1)-J32-J63))/20))</f>
+        <v>34.799999274861314</v>
+      </c>
+      <c r="K96" s="186">
+        <f>-20*LOG10(10^(-K91/20)+10^(-(K28+2*(K27-7.5*LOG10(SUM(H86:N86)-1)-K32-K63))/20))</f>
+        <v>35.933781198644489</v>
+      </c>
+      <c r="L96" s="186">
+        <f>-20*LOG10(10^(-L91/20)+10^(-(L28+2*(L27-7.5*LOG10(SUM(H86:N86)-1)-L32-L63))/20))</f>
+        <v>36.925735731532804</v>
+      </c>
+      <c r="M96" s="202">
+        <f>-20*LOG10(10^(-M91/20)+10^(-(M28+2*(M27-7.5*LOG10(SUM(H86:N86)-1)-M32-M63))/20))</f>
+        <v>37.916717431794545</v>
+      </c>
+      <c r="N96" s="188">
+        <f>-20*LOG10(10^(-N91/20)+10^(-(N28+2*(N27-7.5*LOG10(SUM(H86:N86)-1)-N32-N63))/20))</f>
+        <v>38.906609867464191</v>
+      </c>
+      <c r="O96" s="204"/>
+    </row>
+    <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="138" t="s">
+        <v>310</v>
+      </c>
+      <c r="H97" s="176" t="str">
         <f>IF(H96&gt;=H88,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="I97" s="181" t="str">
-        <f t="shared" ref="I97:O97" si="18">IF(I96&gt;=I88,"OK","NO")</f>
+      <c r="I97" s="177" t="str">
+        <f t="shared" ref="I97:N97" si="17">IF(I96&gt;=I88,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="J97" s="181" t="str">
-        <f t="shared" si="18"/>
+      <c r="J97" s="177" t="str">
+        <f t="shared" si="17"/>
         <v>OK</v>
       </c>
-      <c r="K97" s="181" t="str">
-        <f t="shared" si="18"/>
+      <c r="K97" s="177" t="str">
+        <f t="shared" si="17"/>
         <v>OK</v>
       </c>
-      <c r="L97" s="181" t="str">
-        <f t="shared" si="18"/>
+      <c r="L97" s="177" t="str">
+        <f t="shared" si="17"/>
         <v>OK</v>
       </c>
-      <c r="M97" s="181" t="str">
-        <f t="shared" si="18"/>
+      <c r="M97" s="182" t="str">
+        <f t="shared" si="17"/>
         <v>OK</v>
       </c>
-      <c r="N97" s="181" t="str">
-        <f t="shared" si="18"/>
-        <v>OK</v>
-      </c>
-      <c r="O97" s="182" t="str">
-        <f t="shared" si="18"/>
+      <c r="N97" s="178" t="str">
+        <f t="shared" si="17"/>
         <v>OK</v>
       </c>
     </row>
@@ -14998,25 +14864,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A34" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="192" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="194"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="193"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="118"/>
       <c r="B3" s="119" t="s">
         <v>206</v>
@@ -15025,7 +14891,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="120" t="s">
         <v>208</v>
       </c>
@@ -15036,7 +14902,7 @@
         <v>39.49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="122" t="s">
         <v>209</v>
       </c>
@@ -15047,7 +14913,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="122" t="s">
         <v>210</v>
       </c>
@@ -15060,7 +14926,7 @@
         <v>-19.559999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="122" t="s">
         <v>211</v>
       </c>
@@ -15071,7 +14937,7 @@
         <v>43.35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="122" t="s">
         <v>212</v>
       </c>
@@ -15082,7 +14948,7 @@
         <v>6378.16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="122" t="s">
         <v>213</v>
       </c>
@@ -15093,7 +14959,7 @@
         <v>35786.300000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="122" t="s">
         <v>214</v>
       </c>
@@ -15104,7 +14970,7 @@
         <v>37780.794999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="122" t="s">
         <v>215</v>
       </c>
@@ -15115,7 +14981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="122" t="s">
         <v>216</v>
       </c>
@@ -15126,12 +14992,12 @@
         <v>150.81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="124"/>
       <c r="B13" s="124"/>
       <c r="C13" s="124"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="119" t="s">
         <v>217</v>
       </c>
@@ -15142,7 +15008,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="119" t="s">
         <v>218</v>
       </c>
@@ -15155,12 +15021,12 @@
         <v>-18.147397727373288</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
       <c r="B16" s="126"/>
       <c r="C16" s="126"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="119" t="s">
         <v>219</v>
       </c>
@@ -15173,7 +15039,7 @@
         <v>14.22414374543391</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="119" t="s">
         <v>220</v>
       </c>
@@ -15186,7 +15052,7 @@
         <v>20.852602272626712</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="119" t="s">
         <v>221</v>
       </c>
@@ -15197,7 +15063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="119" t="s">
         <v>222</v>
       </c>
@@ -15208,7 +15074,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="119" t="s">
         <v>223</v>
       </c>
@@ -15221,7 +15087,7 @@
         <v>54.665645956735368</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="119" t="s">
         <v>224</v>
       </c>
@@ -15234,7 +15100,7 @@
         <v>4.8763553571844795</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="119" t="s">
         <v>225</v>
       </c>
@@ -15247,7 +15113,7 @@
         <v>15.976246915442232</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="119" t="s">
         <v>226</v>
       </c>
@@ -15260,12 +15126,12 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="127"/>
       <c r="B25" s="124"/>
       <c r="C25" s="124"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="119" t="s">
         <v>227</v>
       </c>
@@ -15276,7 +15142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="130" t="s">
         <v>228</v>
       </c>
@@ -15287,7 +15153,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="130" t="s">
         <v>229</v>
       </c>
@@ -15298,7 +15164,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="130" t="s">
         <v>230</v>
       </c>
@@ -15311,7 +15177,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="130" t="s">
         <v>231</v>
       </c>
@@ -15324,7 +15190,7 @@
         <v>115.96798498424216</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="130" t="s">
         <v>232</v>
       </c>
@@ -15335,7 +15201,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="128" t="s">
         <v>240</v>
       </c>
@@ -15346,7 +15212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="128" t="s">
         <v>233</v>
       </c>
@@ -15357,7 +15223,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="128" t="s">
         <v>239</v>
       </c>
@@ -15368,7 +15234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="128" t="s">
         <v>238</v>
       </c>
@@ -15379,7 +15245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="128" t="s">
         <v>234</v>
       </c>
@@ -15390,7 +15256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="128" t="s">
         <v>235</v>
       </c>
@@ -15401,7 +15267,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="128" t="s">
         <v>236</v>
       </c>
@@ -15412,7 +15278,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="128" t="s">
         <v>241</v>
       </c>
@@ -15425,7 +15291,7 @@
         <v>206.09562554132461</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="128" t="s">
         <v>242</v>
       </c>
@@ -15436,9 +15302,9 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="128" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B43" s="133">
         <v>1.3800000000000001E-23</v>
@@ -15447,7 +15313,7 @@
         <v>1.3800000000000001E-23</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="128" t="s">
         <v>243</v>
       </c>
@@ -15460,7 +15326,7 @@
         <v>100.72029093246357</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="128" t="s">
         <v>244</v>
       </c>
@@ -15473,7 +15339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="128" t="s">
         <v>237</v>
       </c>
@@ -15486,7 +15352,7 @@
         <v>-134.25640177870341</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="128" t="s">
         <v>245</v>
       </c>
@@ -15499,7 +15365,7 @@
         <v>39.939223762621197</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="128" t="s">
         <v>246</v>
       </c>
@@ -15512,7 +15378,7 @@
         <v>2.3529411764705882E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="128"/>
       <c r="B50" s="133">
         <f>B48*POWER(10,(B47/20))</f>
@@ -15523,9 +15389,9 @@
         <v>2.3365348234310672</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="128" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="B51" s="133">
         <f>B50/(PI()*SQRT(B35))</f>
@@ -15536,9 +15402,9 @@
         <v>0.8889418761785618</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="128" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B52" s="133">
         <f>B47-10*LOG10(B44)</f>

--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/6-1/ITSIT/Trabajo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="859" documentId="11_AA5C2796D14A585BA2449CEF5E30AD8D88D2DDCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52BF5A66-8E80-4E21-8951-A3AA84092000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="2760" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
     <sheet name="Antenna + Headend" sheetId="2" r:id="rId2"/>
     <sheet name="Satellite" sheetId="3" r:id="rId3"/>
+    <sheet name="Mast + Tower" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="345">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -670,75 +670,6 @@
     <t>Longitud</t>
   </si>
   <si>
-    <t>phi</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>Radio Tierra (km)</t>
-  </si>
-  <si>
-    <t>Altura satélite (km)</t>
-  </si>
-  <si>
-    <t>d(km)</t>
-  </si>
-  <si>
-    <t>Elevación</t>
-  </si>
-  <si>
-    <t>Azimut</t>
-  </si>
-  <si>
-    <t>PIRE</t>
-  </si>
-  <si>
-    <t>Vrec_0dBi</t>
-  </si>
-  <si>
-    <t>C/Nout</t>
-  </si>
-  <si>
-    <t>Cin</t>
-  </si>
-  <si>
-    <t>Gpar</t>
-  </si>
-  <si>
-    <t>Ts</t>
-  </si>
-  <si>
-    <t>Te,sis</t>
-  </si>
-  <si>
-    <t>Nin</t>
-  </si>
-  <si>
-    <t>C/Nin</t>
-  </si>
-  <si>
-    <t>Beq</t>
-  </si>
-  <si>
-    <t>C/I(Samp)</t>
-  </si>
-  <si>
-    <t>C/I(Smax)</t>
-  </si>
-  <si>
-    <t>Samp</t>
-  </si>
-  <si>
-    <t>Smax30ch</t>
-  </si>
-  <si>
-    <t>Smax2ch</t>
-  </si>
-  <si>
-    <t>Amp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Offset </t>
   </si>
   <si>
@@ -985,17 +916,175 @@
     <t xml:space="preserve">C28-C29 (MPE4) </t>
   </si>
   <si>
-    <t>D (cm)</t>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>RadioTierra</t>
+  </si>
+  <si>
+    <t>DistGeosta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elevacion </t>
+  </si>
+  <si>
+    <t>Azimuth</t>
+  </si>
+  <si>
+    <t>dist sat-ant</t>
+  </si>
+  <si>
+    <t>Phi</t>
+  </si>
+  <si>
+    <t>Velocidad viento (m/s)</t>
+  </si>
+  <si>
+    <t>Gravedad (m/s2)</t>
+  </si>
+  <si>
+    <t>Area efectiva incidente (m2)</t>
+  </si>
+  <si>
+    <t>Presion Viento (N/m2)</t>
+  </si>
+  <si>
+    <t>Carga Viento (N)</t>
+  </si>
+  <si>
+    <t>altura_mastil (m)</t>
+  </si>
+  <si>
+    <t>coeficiente_viento</t>
+  </si>
+  <si>
+    <t>area_efectiva_viento (m2)</t>
+  </si>
+  <si>
+    <t>AREA EFECTIVA VIENTO EN MASTIL</t>
+  </si>
+  <si>
+    <t>MOMENTO FLECTOR INSTALACION</t>
+  </si>
+  <si>
+    <t>Carga_viento_TDT (N)</t>
+  </si>
+  <si>
+    <t>Distancia_suelo_TDT (m)</t>
+  </si>
+  <si>
+    <t>Carga_viento_DAB (N)</t>
+  </si>
+  <si>
+    <t>Distancia_suelo_DAB (m)</t>
+  </si>
+  <si>
+    <t>Distancia_suelo_FM (m)</t>
+  </si>
+  <si>
+    <t>Carga_viento_SAT1 (N)</t>
+  </si>
+  <si>
+    <t>Distancia_suelo_SAT1 (m)</t>
+  </si>
+  <si>
+    <t>Carga_viento_FM (N)</t>
+  </si>
+  <si>
+    <t>Momento_antenas (N*m)</t>
+  </si>
+  <si>
+    <t>Momento_mastil</t>
+  </si>
+  <si>
+    <t>Momento_total</t>
+  </si>
+  <si>
+    <t>Inecuacion</t>
+  </si>
+  <si>
+    <t>Torre Serie 180</t>
+  </si>
+  <si>
+    <t>Tramo superior</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Es mayor la de antenas, no sirve</t>
+  </si>
+  <si>
+    <t>Mástil</t>
+  </si>
+  <si>
+    <t>EJEMPLO PDF</t>
+  </si>
+  <si>
+    <t>grosor_mastil (m)</t>
+  </si>
+  <si>
+    <t>Area efectiva viento(m2)</t>
+  </si>
+  <si>
+    <t>Momento antena (Nm)</t>
+  </si>
+  <si>
+    <t>carga_viento (N)</t>
+  </si>
+  <si>
+    <t>https://www.televes.com/es/g-041-base-fija-de-atornillar-empotrar.html</t>
+  </si>
+  <si>
+    <t>https://www.televes.com/es/3032-tramo-superior-zinc-rpr.html</t>
+  </si>
+  <si>
+    <t>https://www.televes.com/es/3010-mastil-3m-x-o-45mm-x-espesor-2mm.html</t>
+  </si>
+  <si>
+    <t>Fuerzas laterales (igual a carga_viento)</t>
+  </si>
+  <si>
+    <t>Fuerza total (en sentido opuesto)</t>
+  </si>
+  <si>
+    <t>Carga viento al propio mastil tambien suma</t>
+  </si>
+  <si>
+    <t>Fuerzas verticales (según diapositivas he aproximado los pesos de cada antena)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Pin (dBW)</t>
+  </si>
+  <si>
+    <t>Vin (uV)</t>
+  </si>
+  <si>
+    <t>Vin_log (dBuV)</t>
+  </si>
+  <si>
+    <t>G_IF</t>
+  </si>
+  <si>
+    <t>D (m)</t>
+  </si>
+  <si>
+    <t>C/N</t>
+  </si>
+  <si>
+    <t>Prx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1185,12 +1274,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1575,46 +1664,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2223,46 +2272,10 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2292,40 +2305,40 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2336,32 +2349,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2374,8 +2387,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2391,24 +2422,32 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2734,10 +2773,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O308"/>
   <sheetViews>
-    <sheetView topLeftCell="A290" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G308" sqref="G308"/>
     </sheetView>
   </sheetViews>
@@ -12461,10 +12500,10 @@
     <row r="286" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="287" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C287" s="114" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="D287" s="114" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="288" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12491,33 +12530,33 @@
     <row r="290" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="291" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="114" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="78" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C293" s="140" t="s">
+      <c r="C293" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D293" s="141" t="s">
+      <c r="D293" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="E293" s="141" t="s">
-        <v>254</v>
-      </c>
-      <c r="F293" s="142" t="s">
+      <c r="E293" s="129" t="s">
+        <v>231</v>
+      </c>
+      <c r="F293" s="130" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="137" t="s">
-        <v>255</v>
-      </c>
-      <c r="C294" s="143">
+      <c r="A294" s="125" t="s">
+        <v>232</v>
+      </c>
+      <c r="C294" s="131">
         <v>40</v>
       </c>
       <c r="D294" s="115">
@@ -12526,71 +12565,71 @@
       <c r="E294" s="115">
         <v>47</v>
       </c>
-      <c r="F294" s="144">
+      <c r="F294" s="132">
         <v>47</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="138" t="s">
-        <v>256</v>
-      </c>
-      <c r="C295" s="145">
+      <c r="A295" s="126" t="s">
+        <v>233</v>
+      </c>
+      <c r="C295" s="133">
         <v>70</v>
       </c>
-      <c r="D295" s="146">
+      <c r="D295" s="134">
         <v>70</v>
       </c>
-      <c r="E295" s="146">
+      <c r="E295" s="134">
         <v>70</v>
       </c>
-      <c r="F295" s="147">
+      <c r="F295" s="135">
         <v>70</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="297" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="139" t="s">
-        <v>257</v>
+      <c r="A297" s="127" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C298" s="148">
+      <c r="A298" s="125" t="s">
+        <v>235</v>
+      </c>
+      <c r="C298" s="136">
         <f>MAX(H167:H273)+C294</f>
         <v>84.808999999999997</v>
       </c>
-      <c r="D298" s="149">
+      <c r="D298" s="137">
         <f>MAX(I167:I273)+D294</f>
         <v>75.03</v>
       </c>
-      <c r="E298" s="149">
+      <c r="E298" s="137">
         <f>MAX(K167:K273)+E294</f>
         <v>96.51</v>
       </c>
-      <c r="F298" s="150">
+      <c r="F298" s="138">
         <f>MAX(M167:M273)+F294</f>
         <v>104.52500000000001</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="138" t="s">
-        <v>259</v>
-      </c>
-      <c r="C299" s="151">
+      <c r="A299" s="126" t="s">
+        <v>236</v>
+      </c>
+      <c r="C299" s="139">
         <f>MIN(H167:H273)+C295</f>
         <v>104.16200000000001</v>
       </c>
-      <c r="D299" s="152">
+      <c r="D299" s="140">
         <f>MIN(I167:I273)+D295</f>
         <v>104.675</v>
       </c>
-      <c r="E299" s="152">
+      <c r="E299" s="140">
         <f>MIN(K167:K273)+E295</f>
         <v>106.358</v>
       </c>
-      <c r="F299" s="153">
+      <c r="F299" s="141">
         <f>MIN(M167:M273)+F295</f>
         <v>105.26300000000001</v>
       </c>
@@ -12598,30 +12637,30 @@
     <row r="300" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="301" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="C301" s="154">
+        <v>237</v>
+      </c>
+      <c r="C301" s="142">
         <f>0.25*C298+0.75*C299</f>
         <v>99.32374999999999</v>
       </c>
-      <c r="D301" s="155">
+      <c r="D301" s="143">
         <f>0.25*D298+0.75*D299</f>
         <v>97.263749999999987</v>
       </c>
-      <c r="E301" s="149">
+      <c r="E301" s="137">
         <f>0.25*E298+0.75*E299</f>
         <v>103.896</v>
       </c>
-      <c r="F301" s="150">
+      <c r="F301" s="138">
         <f>0.25*F298+0.75*F299</f>
         <v>105.07849999999999</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="C302" s="159">
+        <v>238</v>
+      </c>
+      <c r="C302" s="147">
         <v>100</v>
       </c>
       <c r="D302" s="21">
@@ -12630,44 +12669,44 @@
       <c r="E302" s="21">
         <v>104</v>
       </c>
-      <c r="F302" s="160">
+      <c r="F302" s="148">
         <v>105</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="78" t="s">
-        <v>262</v>
-      </c>
-      <c r="C303" s="194" t="s">
-        <v>264</v>
-      </c>
-      <c r="D303" s="195" t="s">
-        <v>265</v>
-      </c>
-      <c r="E303" s="195" t="s">
-        <v>266</v>
-      </c>
-      <c r="F303" s="196" t="s">
-        <v>267</v>
+        <v>239</v>
+      </c>
+      <c r="C303" s="177" t="s">
+        <v>241</v>
+      </c>
+      <c r="D303" s="178" t="s">
+        <v>242</v>
+      </c>
+      <c r="E303" s="178" t="s">
+        <v>243</v>
+      </c>
+      <c r="F303" s="179" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="139" t="s">
-        <v>313</v>
+      <c r="A306" s="127" t="s">
+        <v>290</v>
       </c>
       <c r="C306" s="114" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="D306" s="104" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="137" t="s">
-        <v>311</v>
-      </c>
-      <c r="C307" s="197">
+      <c r="A307" s="125" t="s">
+        <v>288</v>
+      </c>
+      <c r="C307" s="180">
         <f>E302-MAX(G277:K277)</f>
         <v>54.489999999999995</v>
       </c>
@@ -12677,8 +12716,8 @@
       </c>
     </row>
     <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="138" t="s">
-        <v>312</v>
+      <c r="A308" s="126" t="s">
+        <v>289</v>
       </c>
       <c r="C308" s="60">
         <f>E302-MIN(G276:K276)</f>
@@ -12704,11 +12743,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12736,10 +12775,10 @@
         <v>54</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="K1" s="42" t="s">
         <v>66</v>
@@ -12750,7 +12789,7 @@
       <c r="M1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="135" t="s">
+      <c r="N1" s="123" t="s">
         <v>69</v>
       </c>
       <c r="O1" s="45" t="s">
@@ -12789,7 +12828,7 @@
       <c r="M2" s="44">
         <v>650</v>
       </c>
-      <c r="N2" s="136">
+      <c r="N2" s="124">
         <v>674</v>
       </c>
       <c r="O2" s="46">
@@ -12841,7 +12880,7 @@
         <v>0.23</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12954,7 +12993,7 @@
         <v>50</v>
       </c>
       <c r="Q16" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -13302,8 +13341,8 @@
       <c r="N33" s="106">
         <v>15</v>
       </c>
-      <c r="O33" s="199"/>
-      <c r="P33" s="205"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="188"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="107" t="s">
@@ -13412,71 +13451,71 @@
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="140" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="142" t="s">
-        <v>273</v>
+      <c r="C39" s="128" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" s="130" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="139" t="s">
-        <v>250</v>
+      <c r="A40" s="127" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="137" t="s">
-        <v>269</v>
-      </c>
-      <c r="F41" s="172">
+      <c r="A41" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F41" s="160">
         <f>Network!C302</f>
         <v>100</v>
       </c>
-      <c r="G41" s="173">
+      <c r="G41" s="161">
         <f>Network!D302</f>
         <v>98</v>
       </c>
-      <c r="H41" s="174">
+      <c r="H41" s="162">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="I41" s="174">
+      <c r="I41" s="162">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="J41" s="174">
+      <c r="J41" s="162">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="K41" s="174">
+      <c r="K41" s="162">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="L41" s="174">
+      <c r="L41" s="162">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="M41" s="174">
+      <c r="M41" s="162">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="N41" s="174">
+      <c r="N41" s="162">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="O41" s="175">
+      <c r="O41" s="163">
         <f>Network!F302</f>
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="162" t="s">
-        <v>270</v>
-      </c>
-      <c r="F42" s="159">
+      <c r="A42" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="F42" s="147">
         <v>8</v>
       </c>
-      <c r="G42" s="170">
+      <c r="G42" s="158">
         <v>7</v>
       </c>
       <c r="H42" s="21">
@@ -13500,25 +13539,25 @@
       <c r="N42" s="21">
         <v>0</v>
       </c>
-      <c r="O42" s="160">
+      <c r="O42" s="148">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="162" t="s">
-        <v>271</v>
-      </c>
-      <c r="C43" s="157">
+      <c r="A43" s="150" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="145">
         <v>0.3</v>
       </c>
-      <c r="D43" s="158">
+      <c r="D43" s="146">
         <v>0.5</v>
       </c>
-      <c r="F43" s="159">
+      <c r="F43" s="147">
         <f>F42*C43</f>
         <v>2.4</v>
       </c>
-      <c r="G43" s="170">
+      <c r="G43" s="158">
         <f>G42*C43</f>
         <v>2.1</v>
       </c>
@@ -13550,20 +13589,20 @@
         <f>N42*D43</f>
         <v>0</v>
       </c>
-      <c r="O43" s="160">
+      <c r="O43" s="148">
         <f>O42*D43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="168" t="s">
-        <v>274</v>
-      </c>
-      <c r="F44" s="179">
+      <c r="A44" s="156" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" s="167">
         <f t="shared" ref="F44:O44" si="1">F41+F43</f>
         <v>102.4</v>
       </c>
-      <c r="G44" s="180">
+      <c r="G44" s="168">
         <f t="shared" si="1"/>
         <v>100.1</v>
       </c>
@@ -13595,147 +13634,147 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="O44" s="181">
+      <c r="O44" s="169">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="162" t="s">
-        <v>275</v>
-      </c>
-      <c r="F45" s="169">
+      <c r="A45" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="F45" s="157">
         <f>F19-F87</f>
         <v>99.032015015757835</v>
       </c>
-      <c r="G45" s="171">
+      <c r="G45" s="159">
         <f t="shared" ref="G45:O45" si="2">G19-G87</f>
         <v>101.17931555708239</v>
       </c>
-      <c r="H45" s="164">
+      <c r="H45" s="152">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="I45" s="164">
+      <c r="I45" s="152">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="J45" s="164">
+      <c r="J45" s="152">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K45" s="164">
+      <c r="K45" s="152">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="L45" s="164">
+      <c r="L45" s="152">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="M45" s="164">
+      <c r="M45" s="152">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="N45" s="164">
+      <c r="N45" s="152">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="O45" s="167">
+      <c r="O45" s="155">
         <f t="shared" si="2"/>
         <v>113.03201501575784</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="138" t="s">
-        <v>276</v>
-      </c>
-      <c r="F46" s="176" t="str">
+      <c r="A46" s="126" t="s">
+        <v>253</v>
+      </c>
+      <c r="F46" s="164" t="str">
         <f t="shared" ref="F46:O46" si="3">IF(F44&lt;=(F19-F87),"OK","NO")</f>
         <v>NO</v>
       </c>
-      <c r="G46" s="177" t="str">
+      <c r="G46" s="165" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="H46" s="177" t="str">
+      <c r="H46" s="165" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="I46" s="177" t="str">
+      <c r="I46" s="165" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="J46" s="177" t="str">
+      <c r="J46" s="165" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="K46" s="177" t="str">
+      <c r="K46" s="165" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="L46" s="177" t="str">
+      <c r="L46" s="165" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="M46" s="177" t="str">
+      <c r="M46" s="165" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="N46" s="182" t="str">
+      <c r="N46" s="170" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="O46" s="178" t="str">
+      <c r="O46" s="166" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="139" t="s">
-        <v>281</v>
+      <c r="A48" s="127" t="s">
+        <v>258</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="161" t="s">
-        <v>282</v>
-      </c>
-      <c r="F49" s="148">
+      <c r="A49" s="149" t="s">
+        <v>259</v>
+      </c>
+      <c r="F49" s="136">
         <v>6</v>
       </c>
-      <c r="G49" s="149">
+      <c r="G49" s="137">
         <v>8</v>
       </c>
-      <c r="H49" s="149">
+      <c r="H49" s="137">
         <v>8</v>
       </c>
-      <c r="I49" s="149">
+      <c r="I49" s="137">
         <v>8</v>
       </c>
-      <c r="J49" s="149">
+      <c r="J49" s="137">
         <v>8</v>
       </c>
-      <c r="K49" s="149">
+      <c r="K49" s="137">
         <v>8</v>
       </c>
-      <c r="L49" s="149">
+      <c r="L49" s="137">
         <v>8</v>
       </c>
-      <c r="M49" s="149">
+      <c r="M49" s="137">
         <v>8</v>
       </c>
-      <c r="N49" s="150">
+      <c r="N49" s="138">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="162" t="s">
-        <v>283</v>
-      </c>
-      <c r="F50" s="159">
+      <c r="A50" s="150" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" s="147">
         <f>F5*F49</f>
         <v>0.30000000000000004</v>
       </c>
@@ -13767,16 +13806,16 @@
         <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
-      <c r="N50" s="160">
+      <c r="N50" s="148">
         <f>N5*N49</f>
         <v>0.88</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="162" t="s">
-        <v>270</v>
-      </c>
-      <c r="F51" s="159">
+      <c r="A51" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" s="147">
         <v>8</v>
       </c>
       <c r="G51" s="21">
@@ -13800,21 +13839,21 @@
       <c r="M51" s="21">
         <v>1</v>
       </c>
-      <c r="N51" s="160">
+      <c r="N51" s="148">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="162" t="s">
-        <v>271</v>
-      </c>
-      <c r="C52" s="157">
+      <c r="A52" s="150" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="145">
         <v>0.3</v>
       </c>
-      <c r="D52" s="158">
+      <c r="D52" s="146">
         <v>0.5</v>
       </c>
-      <c r="F52" s="159">
+      <c r="F52" s="147">
         <f>C52*F51</f>
         <v>2.4</v>
       </c>
@@ -13846,16 +13885,16 @@
         <f>D52*M51</f>
         <v>0.5</v>
       </c>
-      <c r="N52" s="160">
+      <c r="N52" s="148">
         <f>D52*N51</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="162" t="s">
-        <v>284</v>
-      </c>
-      <c r="F53" s="159">
+      <c r="A53" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="F53" s="147">
         <f t="shared" ref="F53:N53" si="5">F52+F50</f>
         <v>2.7</v>
       </c>
@@ -13887,48 +13926,48 @@
         <f t="shared" si="5"/>
         <v>1.38</v>
       </c>
-      <c r="N53" s="160">
+      <c r="N53" s="148">
         <f t="shared" si="5"/>
         <v>0.88</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="163" t="s">
-        <v>285</v>
-      </c>
-      <c r="F54" s="151">
+      <c r="A54" s="151" t="s">
+        <v>262</v>
+      </c>
+      <c r="F54" s="139">
         <f t="shared" ref="F54:N54" si="6">F32-F53</f>
         <v>67.3</v>
       </c>
-      <c r="G54" s="152">
+      <c r="G54" s="140">
         <f t="shared" si="6"/>
         <v>55.42</v>
       </c>
-      <c r="H54" s="152">
+      <c r="H54" s="140">
         <f t="shared" si="6"/>
         <v>46.2</v>
       </c>
-      <c r="I54" s="152">
+      <c r="I54" s="140">
         <f t="shared" si="6"/>
         <v>46.7</v>
       </c>
-      <c r="J54" s="152">
+      <c r="J54" s="140">
         <f t="shared" si="6"/>
         <v>47.2</v>
       </c>
-      <c r="K54" s="152">
+      <c r="K54" s="140">
         <f t="shared" si="6"/>
         <v>47.62</v>
       </c>
-      <c r="L54" s="152">
+      <c r="L54" s="140">
         <f t="shared" si="6"/>
         <v>48.12</v>
       </c>
-      <c r="M54" s="152">
+      <c r="M54" s="140">
         <f t="shared" si="6"/>
         <v>48.62</v>
       </c>
-      <c r="N54" s="153">
+      <c r="N54" s="141">
         <f t="shared" si="6"/>
         <v>49.12</v>
       </c>
@@ -13936,148 +13975,148 @@
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="139" t="s">
-        <v>289</v>
+      <c r="A57" s="127" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="161" t="s">
-        <v>290</v>
-      </c>
-      <c r="F58" s="148">
+      <c r="A58" s="149" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" s="136">
         <f>F44-(F32-F53)</f>
         <v>35.100000000000009</v>
       </c>
-      <c r="G58" s="149">
+      <c r="G58" s="137">
         <f>G44-(G32-G53)</f>
         <v>44.679999999999993</v>
       </c>
-      <c r="H58" s="149">
+      <c r="H58" s="137">
         <f>H44-(H32-H53)</f>
         <v>60.8</v>
       </c>
-      <c r="I58" s="149">
+      <c r="I58" s="137">
         <f>I44-(I32-I53)</f>
         <v>59.8</v>
       </c>
-      <c r="J58" s="149">
+      <c r="J58" s="137">
         <f t="shared" ref="J58:N58" si="7">J44-(J32-J53)</f>
         <v>58.8</v>
       </c>
-      <c r="K58" s="149">
+      <c r="K58" s="137">
         <f t="shared" si="7"/>
         <v>57.88</v>
       </c>
-      <c r="L58" s="149">
+      <c r="L58" s="137">
         <f t="shared" si="7"/>
         <v>56.88</v>
       </c>
-      <c r="M58" s="149">
+      <c r="M58" s="137">
         <f t="shared" si="7"/>
         <v>55.88</v>
       </c>
-      <c r="N58" s="150">
+      <c r="N58" s="138">
         <f t="shared" si="7"/>
         <v>54.88</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="163" t="s">
-        <v>291</v>
-      </c>
-      <c r="F59" s="176" t="str">
+      <c r="A59" s="151" t="s">
+        <v>268</v>
+      </c>
+      <c r="F59" s="164" t="str">
         <f>IF(AND(F16&gt;F58,(F16-F17)&lt;F58),"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="G59" s="177" t="str">
+      <c r="G59" s="165" t="str">
         <f t="shared" ref="G59:N59" si="8">IF(AND(G16&gt;G58,(G16-G17)&lt;G58),"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="H59" s="177" t="str">
+      <c r="H59" s="165" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="I59" s="177" t="str">
+      <c r="I59" s="165" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="J59" s="177" t="str">
+      <c r="J59" s="165" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="K59" s="177" t="str">
+      <c r="K59" s="165" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="L59" s="177" t="str">
+      <c r="L59" s="165" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="M59" s="177" t="str">
+      <c r="M59" s="165" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="N59" s="178" t="str">
+      <c r="N59" s="166" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="139" t="s">
-        <v>292</v>
+      <c r="A61" s="127" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="161" t="s">
-        <v>293</v>
-      </c>
-      <c r="F62" s="148">
+      <c r="A62" s="149" t="s">
+        <v>270</v>
+      </c>
+      <c r="F62" s="136">
         <f>IF(F58-F24&gt;F16-F17,F58-F24,F16-F17)</f>
         <v>35.100000000000009</v>
       </c>
-      <c r="G62" s="149">
+      <c r="G62" s="137">
         <f t="shared" ref="G62:N62" si="9">IF(G58-G24&gt;G16-G17,G58-G24,G16-G17)</f>
         <v>44.679999999999993</v>
       </c>
-      <c r="H62" s="149">
+      <c r="H62" s="137">
         <f t="shared" si="9"/>
         <v>32.799999999999997</v>
       </c>
-      <c r="I62" s="149">
+      <c r="I62" s="137">
         <f>IF(I58-I24&gt;I16-I17,I58-I24,I16-I17)</f>
         <v>31.799999999999997</v>
       </c>
-      <c r="J62" s="149">
+      <c r="J62" s="137">
         <f t="shared" si="9"/>
         <v>30.799999999999997</v>
       </c>
-      <c r="K62" s="149">
+      <c r="K62" s="137">
         <f t="shared" si="9"/>
         <v>29.880000000000003</v>
       </c>
-      <c r="L62" s="149">
+      <c r="L62" s="137">
         <f t="shared" si="9"/>
         <v>28.880000000000003</v>
       </c>
-      <c r="M62" s="149">
+      <c r="M62" s="137">
         <f t="shared" si="9"/>
         <v>27.880000000000003</v>
       </c>
-      <c r="N62" s="150">
+      <c r="N62" s="138">
         <f t="shared" si="9"/>
         <v>26.880000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="162" t="s">
-        <v>294</v>
-      </c>
-      <c r="F63" s="159">
+      <c r="A63" s="150" t="s">
+        <v>271</v>
+      </c>
+      <c r="F63" s="147">
         <f>F58-F62</f>
         <v>0</v>
       </c>
@@ -14109,96 +14148,96 @@
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="N63" s="160">
+      <c r="N63" s="148">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="163" t="s">
-        <v>295</v>
-      </c>
-      <c r="F64" s="176" t="str">
+      <c r="A64" s="151" t="s">
+        <v>272</v>
+      </c>
+      <c r="F64" s="164" t="str">
         <f>IF(AND(F16&gt;F62,(F16-F17)&lt;F62),"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="G64" s="177" t="str">
+      <c r="G64" s="165" t="str">
         <f t="shared" ref="G64:N64" si="11">IF(AND(G16&gt;G62,(G16-G17)&lt;G62),"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="H64" s="177" t="str">
+      <c r="H64" s="165" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="I64" s="177" t="str">
+      <c r="I64" s="165" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="J64" s="177" t="str">
+      <c r="J64" s="165" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="K64" s="177" t="str">
+      <c r="K64" s="165" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="L64" s="177" t="str">
+      <c r="L64" s="165" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="M64" s="177" t="str">
+      <c r="M64" s="165" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="N64" s="178" t="str">
+      <c r="N64" s="166" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="183" t="s">
-        <v>296</v>
+      <c r="A66" s="171" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="162" t="s">
-        <v>297</v>
-      </c>
-      <c r="F67" s="148">
+      <c r="A67" s="150" t="s">
+        <v>274</v>
+      </c>
+      <c r="F67" s="136">
         <v>0.15</v>
       </c>
-      <c r="G67" s="149">
+      <c r="G67" s="137">
         <v>1.536</v>
       </c>
-      <c r="H67" s="149">
+      <c r="H67" s="137">
         <v>8</v>
       </c>
-      <c r="I67" s="149">
+      <c r="I67" s="137">
         <v>8</v>
       </c>
-      <c r="J67" s="149">
+      <c r="J67" s="137">
         <v>8</v>
       </c>
-      <c r="K67" s="149">
+      <c r="K67" s="137">
         <v>8</v>
       </c>
-      <c r="L67" s="149">
+      <c r="L67" s="137">
         <v>8</v>
       </c>
-      <c r="M67" s="149">
+      <c r="M67" s="137">
         <v>8</v>
       </c>
-      <c r="N67" s="150">
+      <c r="N67" s="138">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>298</v>
-      </c>
-      <c r="F68" s="159">
+      <c r="A68" s="150" t="s">
+        <v>275</v>
+      </c>
+      <c r="F68" s="147">
         <v>290</v>
       </c>
       <c r="G68" s="21">
@@ -14222,15 +14261,15 @@
       <c r="M68" s="21">
         <v>290</v>
       </c>
-      <c r="N68" s="160">
+      <c r="N68" s="148">
         <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="162" t="s">
-        <v>299</v>
-      </c>
-      <c r="F69" s="159">
+      <c r="A69" s="150" t="s">
+        <v>276</v>
+      </c>
+      <c r="F69" s="147">
         <v>-13</v>
       </c>
       <c r="G69" s="21">
@@ -14254,100 +14293,100 @@
       <c r="M69" s="21">
         <v>4</v>
       </c>
-      <c r="N69" s="160">
+      <c r="N69" s="148">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="163" t="s">
-        <v>300</v>
-      </c>
-      <c r="F70" s="151">
+      <c r="A70" s="151" t="s">
+        <v>277</v>
+      </c>
+      <c r="F70" s="139">
         <v>38</v>
       </c>
-      <c r="G70" s="152">
+      <c r="G70" s="140">
         <v>18</v>
       </c>
-      <c r="H70" s="152">
+      <c r="H70" s="140">
         <v>25</v>
       </c>
-      <c r="I70" s="152">
+      <c r="I70" s="140">
         <v>25</v>
       </c>
-      <c r="J70" s="152">
+      <c r="J70" s="140">
         <v>25</v>
       </c>
-      <c r="K70" s="152">
+      <c r="K70" s="140">
         <v>25</v>
       </c>
-      <c r="L70" s="152">
+      <c r="L70" s="140">
         <v>25</v>
       </c>
-      <c r="M70" s="152">
+      <c r="M70" s="140">
         <v>25</v>
       </c>
-      <c r="N70" s="153">
+      <c r="N70" s="141">
         <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="184" t="s">
-        <v>301</v>
+      <c r="A72" s="172" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="185" t="s">
-        <v>289</v>
+      <c r="A73" s="173" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="162" t="s">
-        <v>302</v>
+      <c r="A74" s="150" t="s">
+        <v>279</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="F74" s="148">
+      <c r="F74" s="136">
         <f>10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
         <v>16.537205707170102</v>
       </c>
-      <c r="G74" s="149">
+      <c r="G74" s="137">
         <f>10*LOG10(10^((G18+G53)/10)+10^((G53-G58)/10)*(10^((G43+Network!I277)/10)-1))</f>
         <v>12.448242010510427</v>
       </c>
-      <c r="H74" s="149">
+      <c r="H74" s="137">
         <f>10*LOG10(10^((H18+H53)/10)+10^((H53-H58)/10)*(10^((H43+Network!J277)/10)-1))</f>
         <v>12.837121168044634</v>
       </c>
-      <c r="I74" s="149">
+      <c r="I74" s="137">
         <f>10*LOG10(10^((I18+I53)/10)+10^((I53-I58)/10)*(10^((I43+Network!J277)/10)-1))</f>
         <v>12.341628930936814</v>
       </c>
-      <c r="J74" s="149">
+      <c r="J74" s="137">
         <f>10*LOG10(10^((J18+J53)/10)+10^((J53-J58)/10)*(10^((J43+Network!J277)/10)-1))</f>
         <v>11.846681144362297</v>
       </c>
-      <c r="K74" s="149">
+      <c r="K74" s="137">
         <f>10*LOG10(10^((K18+K53)/10)+10^((K53-K58)/10)*(10^((K43+Network!J277)/10)-1))</f>
         <v>11.431393079318745</v>
       </c>
-      <c r="L74" s="149">
+      <c r="L74" s="137">
         <f>10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((L43+Network!K277)/10)-1))</f>
         <v>11.004322432591573</v>
       </c>
-      <c r="M74" s="149">
+      <c r="M74" s="137">
         <f>10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((M43+Network!K277)/10)-1))</f>
         <v>10.51925115842595</v>
       </c>
-      <c r="N74" s="150">
+      <c r="N74" s="138">
         <f>10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((N43+Network!K277)/10)-1))</f>
         <v>10.035940560689802</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="162" t="s">
-        <v>303</v>
-      </c>
-      <c r="F75" s="179">
+      <c r="A75" s="150" t="s">
+        <v>280</v>
+      </c>
+      <c r="F75" s="167">
         <f>F32-F69-10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
         <v>66.462794292829898</v>
       </c>
@@ -14379,105 +14418,105 @@
         <f>M32-M69-10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((J43+Network!P277)/10)-1))</f>
         <v>35.619999174226699</v>
       </c>
-      <c r="N75" s="181">
+      <c r="N75" s="169">
         <f>N32-N69-10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((J43+Network!Q277)/10)-1))</f>
         <v>36.119998960413028</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="163" t="s">
-        <v>304</v>
-      </c>
-      <c r="F76" s="176" t="str">
+      <c r="A76" s="151" t="s">
+        <v>281</v>
+      </c>
+      <c r="F76" s="164" t="str">
         <f>IF(F75&gt;=F70,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="G76" s="177" t="str">
+      <c r="G76" s="165" t="str">
         <f t="shared" ref="G76:N76" si="12">IF(G75&gt;=G70,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="H76" s="177" t="str">
+      <c r="H76" s="165" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="I76" s="177" t="str">
+      <c r="I76" s="165" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="J76" s="177" t="str">
+      <c r="J76" s="165" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="K76" s="177" t="str">
+      <c r="K76" s="165" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="L76" s="177" t="str">
+      <c r="L76" s="165" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="M76" s="177" t="str">
+      <c r="M76" s="165" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="N76" s="178" t="str">
+      <c r="N76" s="166" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="183" t="s">
-        <v>292</v>
+      <c r="A78" s="171" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>302</v>
-      </c>
-      <c r="F79" s="148">
+      <c r="A79" s="150" t="s">
+        <v>279</v>
+      </c>
+      <c r="F79" s="136">
         <f>10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
         <v>16.537205707170102</v>
       </c>
-      <c r="G79" s="149">
+      <c r="G79" s="137">
         <f>10*LOG10(10^(G26/10)+(10^(G53/10)-1)/10^(G63/10)+(10^(G18/10)-1)*10^(G53/10)/10^(G63/10)+10^((G53-G62-G63)/10)*(10^((G43+Network!I277)/10)-1))</f>
         <v>12.448242010510429</v>
       </c>
-      <c r="H79" s="149">
+      <c r="H79" s="137">
         <f>10*LOG10(10^(H26/10)+(10^(H53/10)-1)/10^(H63/10)+(10^(H18/10)-1)*10^(H53/10)/10^(H63/10)+10^((H53-H62-H63)/10)*(10^((H43+Network!J277)/10)-1))</f>
         <v>6.6829431135643471</v>
       </c>
-      <c r="I79" s="149">
+      <c r="I79" s="137">
         <f>10*LOG10(10^(I26/10)+(10^(I53/10)-1)/10^(I63/10)+(10^(I18/10)-1)*10^(I53/10)/10^(I63/10)+10^((I53-I62-I63)/10)*(10^((I43+Network!J277)/10)-1))</f>
         <v>6.6798804391014315</v>
       </c>
-      <c r="J79" s="149">
+      <c r="J79" s="137">
         <f>10*LOG10(10^(J26/10)+(10^(J53/10)-1)/10^(J63/10)+(10^(J18/10)-1)*10^(J53/10)/10^(J63/10)+10^((J53-J62-J63)/10)*(10^((J43+Network!J277)/10)-1))</f>
         <v>6.6771489537078939</v>
       </c>
-      <c r="K79" s="149">
+      <c r="K79" s="137">
         <f>10*LOG10(10^(K26/10)+(10^(K53/10)-1)/10^(K63/10)+(10^(K18/10)-1)*10^(K53/10)/10^(K63/10)+10^((K53-K62-K63)/10)*(10^((K43+Network!J277)/10)-1))</f>
         <v>6.6750842057365247</v>
       </c>
-      <c r="L79" s="149">
+      <c r="L79" s="137">
         <f>10*LOG10(10^(L26/10)+(10^(L53/10)-1)/10^(L63/10)+(10^(L18/10)-1)*10^(L53/10)/10^(L63/10)+10^((L53-L62-L63)/10)*(10^((L43+Network!K277)/10)-1))</f>
         <v>6.8487120708452345</v>
       </c>
-      <c r="M79" s="149">
+      <c r="M79" s="137">
         <f>10*LOG10(10^(M26/10)+(10^(M53/10)-1)/10^(M63/10)+(10^(M18/10)-1)*10^(M53/10)/10^(M63/10)+10^((M53-M62-M63)/10)*(10^((M43+Network!K277)/10)-1))</f>
         <v>6.8468174917760871</v>
       </c>
-      <c r="N79" s="150">
+      <c r="N79" s="138">
         <f>10*LOG10(10^(N26/10)+(10^(N53/10)-1)/10^(N63/10)+(10^(N18/10)-1)*10^(N53/10)/10^(N63/10)+10^((N53-N62-N63)/10)*(10^((N43+Network!K277)/10)-1))</f>
         <v>6.8451281695987118</v>
       </c>
       <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="162" t="s">
-        <v>303</v>
-      </c>
-      <c r="F80" s="179">
+      <c r="A80" s="150" t="s">
+        <v>280</v>
+      </c>
+      <c r="F80" s="167">
         <f>F32-F69-10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
         <v>66.462794292829898</v>
       </c>
@@ -14509,347 +14548,347 @@
         <f>M32-M69-10*LOG10(10^(M26/10)+(10^(M53/10)-1)/10^(M63/10)+(10^(M18/10)-1)*10^(M53/10)/10^(M63/10)+10^((M53-M62-M63)/10)*(10^((M43+Network!K277)/10)-1))</f>
         <v>39.153182508223914</v>
       </c>
-      <c r="N80" s="181">
+      <c r="N80" s="169">
         <f>N32-N69-10*LOG10(10^(N26/10)+(10^(N53/10)-1)/10^(N63/10)+(10^(N18/10)-1)*10^(N53/10)/10^(N63/10)+10^((N53-N62-N63)/10)*(10^((N43+Network!K277)/10)-1))</f>
         <v>39.154871830401291</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="163" t="s">
-        <v>305</v>
-      </c>
-      <c r="F81" s="176" t="str">
+      <c r="A81" s="151" t="s">
+        <v>282</v>
+      </c>
+      <c r="F81" s="164" t="str">
         <f>IF(F80&gt;=F70,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="G81" s="177" t="str">
+      <c r="G81" s="165" t="str">
         <f t="shared" ref="G81:N81" si="13">IF(G80&gt;=G70,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="H81" s="177" t="str">
+      <c r="H81" s="165" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="I81" s="177" t="str">
+      <c r="I81" s="165" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="J81" s="177" t="str">
+      <c r="J81" s="165" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="K81" s="177" t="str">
+      <c r="K81" s="165" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="L81" s="177" t="str">
+      <c r="L81" s="165" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="M81" s="177" t="str">
+      <c r="M81" s="165" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="N81" s="178" t="str">
+      <c r="N81" s="166" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="139" t="s">
-        <v>277</v>
+      <c r="A85" s="127" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="161" t="s">
-        <v>278</v>
-      </c>
-      <c r="F86" s="148">
+      <c r="A86" s="149" t="s">
+        <v>255</v>
+      </c>
+      <c r="F86" s="136">
         <v>30</v>
       </c>
-      <c r="G86" s="149">
+      <c r="G86" s="137">
         <v>16</v>
       </c>
-      <c r="H86" s="149">
+      <c r="H86" s="137">
         <v>1</v>
       </c>
-      <c r="I86" s="149">
+      <c r="I86" s="137">
         <v>2</v>
       </c>
-      <c r="J86" s="149">
+      <c r="J86" s="137">
         <v>1</v>
       </c>
-      <c r="K86" s="149">
+      <c r="K86" s="137">
         <v>1</v>
       </c>
-      <c r="L86" s="149">
+      <c r="L86" s="137">
         <v>1</v>
       </c>
-      <c r="M86" s="149">
+      <c r="M86" s="137">
         <v>1</v>
       </c>
-      <c r="N86" s="149">
+      <c r="N86" s="137">
         <v>1</v>
       </c>
-      <c r="O86" s="150">
+      <c r="O86" s="138">
         <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="162" t="s">
-        <v>279</v>
-      </c>
-      <c r="F87" s="165">
+      <c r="A87" s="150" t="s">
+        <v>256</v>
+      </c>
+      <c r="F87" s="153">
         <f>7.5*LOG10((F86-1))</f>
         <v>10.96798498424217</v>
       </c>
-      <c r="G87" s="166">
+      <c r="G87" s="154">
         <f>7.5*LOG10(G86-1)</f>
         <v>8.8206844429176101</v>
       </c>
-      <c r="H87" s="156">
+      <c r="H87" s="144">
         <v>0</v>
       </c>
-      <c r="I87" s="156">
+      <c r="I87" s="144">
         <f>7.5*LOG10(I86-1)</f>
         <v>0</v>
       </c>
-      <c r="J87" s="156">
+      <c r="J87" s="144">
         <v>0</v>
       </c>
-      <c r="K87" s="156">
+      <c r="K87" s="144">
         <v>0</v>
       </c>
-      <c r="L87" s="156">
+      <c r="L87" s="144">
         <v>0</v>
       </c>
-      <c r="M87" s="156">
+      <c r="M87" s="144">
         <v>0</v>
       </c>
-      <c r="N87" s="156">
+      <c r="N87" s="144">
         <v>0</v>
       </c>
-      <c r="O87" s="167">
+      <c r="O87" s="155">
         <f>7.5*LOG10(O86-1)</f>
         <v>10.96798498424217</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="163" t="s">
-        <v>280</v>
-      </c>
-      <c r="H88" s="151">
+      <c r="A88" s="151" t="s">
+        <v>257</v>
+      </c>
+      <c r="H88" s="139">
         <v>30</v>
       </c>
-      <c r="I88" s="152">
+      <c r="I88" s="140">
         <v>30</v>
       </c>
-      <c r="J88" s="152">
+      <c r="J88" s="140">
         <v>30</v>
       </c>
-      <c r="K88" s="152">
+      <c r="K88" s="140">
         <v>30</v>
       </c>
-      <c r="L88" s="152">
+      <c r="L88" s="140">
         <v>30</v>
       </c>
-      <c r="M88" s="152">
+      <c r="M88" s="140">
         <v>30</v>
       </c>
-      <c r="N88" s="152">
+      <c r="N88" s="140">
         <v>30</v>
       </c>
-      <c r="O88" s="153">
+      <c r="O88" s="141">
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="183" t="s">
-        <v>289</v>
+      <c r="A90" s="171" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="168" t="s">
-        <v>306</v>
-      </c>
-      <c r="H91" s="172">
+      <c r="A91" s="156" t="s">
+        <v>283</v>
+      </c>
+      <c r="H91" s="160">
         <f>H28+2*(H27-H87-H44)</f>
         <v>33</v>
       </c>
-      <c r="I91" s="174">
-        <f t="shared" ref="I91:L91" si="14">I28+2*(I27-H87-I44)</f>
+      <c r="I91" s="162">
+        <f t="shared" ref="I91" si="14">I28+2*(I27-H87-I44)</f>
         <v>34</v>
       </c>
-      <c r="J91" s="174">
+      <c r="J91" s="162">
         <f>J28+2*(J27-J87-J44)</f>
         <v>35</v>
       </c>
-      <c r="K91" s="174">
+      <c r="K91" s="162">
         <f>K28+2*(K27-K87-K44)</f>
         <v>36</v>
       </c>
-      <c r="L91" s="174">
+      <c r="L91" s="162">
         <f>L28+2*(L27-L87-L44)</f>
         <v>37</v>
       </c>
-      <c r="M91" s="174">
+      <c r="M91" s="162">
         <f>M28+2*(M27-M87-M44)</f>
         <v>38</v>
       </c>
-      <c r="N91" s="198">
+      <c r="N91" s="181">
         <f>N28+2*(N27-N87-N44)</f>
         <v>39</v>
       </c>
-      <c r="O91" s="175">
+      <c r="O91" s="163">
         <f>O20+2*(O19-O87-O44)</f>
         <v>51.064030031515671</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="138" t="s">
-        <v>307</v>
-      </c>
-      <c r="H92" s="176" t="str">
+      <c r="A92" s="126" t="s">
+        <v>284</v>
+      </c>
+      <c r="H92" s="164" t="str">
         <f>IF(H91&gt;=H88,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="I92" s="177" t="str">
-        <f t="shared" ref="I92:O92" si="15">IF(I91&gt;=I88,"OK","NO")</f>
+      <c r="I92" s="165" t="str">
+        <f t="shared" ref="I92:N92" si="15">IF(I91&gt;=I88,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="J92" s="177" t="str">
+      <c r="J92" s="165" t="str">
         <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="K92" s="177" t="str">
+      <c r="K92" s="165" t="str">
         <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="L92" s="177" t="str">
+      <c r="L92" s="165" t="str">
         <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="M92" s="177" t="str">
+      <c r="M92" s="165" t="str">
         <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="N92" s="182" t="str">
+      <c r="N92" s="170" t="str">
         <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="O92" s="178" t="str">
+      <c r="O92" s="166" t="str">
         <f>IF(O91&gt;=O88,"OK","NO")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O93" s="200"/>
+      <c r="O93" s="183"/>
     </row>
     <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="183" t="s">
-        <v>292</v>
-      </c>
-      <c r="O94" s="200"/>
+      <c r="A94" s="171" t="s">
+        <v>269</v>
+      </c>
+      <c r="O94" s="183"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="162" t="s">
-        <v>308</v>
-      </c>
-      <c r="H95" s="148">
+      <c r="A95" s="150" t="s">
+        <v>285</v>
+      </c>
+      <c r="H95" s="136">
         <f>H32+H63</f>
         <v>78</v>
       </c>
-      <c r="I95" s="149">
-        <f t="shared" ref="I95:O95" si="16">I32+I63</f>
+      <c r="I95" s="137">
+        <f t="shared" ref="I95:L95" si="16">I32+I63</f>
         <v>78</v>
       </c>
-      <c r="J95" s="149">
+      <c r="J95" s="137">
         <f t="shared" si="16"/>
         <v>78</v>
       </c>
-      <c r="K95" s="149">
+      <c r="K95" s="137">
         <f t="shared" si="16"/>
         <v>78</v>
       </c>
-      <c r="L95" s="149">
+      <c r="L95" s="137">
         <f t="shared" si="16"/>
         <v>78</v>
       </c>
-      <c r="M95" s="201">
+      <c r="M95" s="184">
         <f>M32+M63</f>
         <v>78</v>
       </c>
-      <c r="N95" s="150">
+      <c r="N95" s="138">
         <f>N32+N63</f>
         <v>78</v>
       </c>
-      <c r="O95" s="203"/>
+      <c r="O95" s="186"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="168" t="s">
-        <v>309</v>
-      </c>
-      <c r="H96" s="187">
+      <c r="A96" s="156" t="s">
+        <v>286</v>
+      </c>
+      <c r="H96" s="175">
         <f>-20*LOG10(10^(-H91/20)+10^(-(H28+2*(H27-7.5*LOG10(SUM(H86:N86)-1)-H32-H63))/20))</f>
         <v>32.953068544611554</v>
       </c>
-      <c r="I96" s="186">
+      <c r="I96" s="174">
         <f>-20*LOG10(10^(-I91/20)+10^(-(I28+2*(I27-7.5*LOG10(SUM(H86:N86)-1)-I32-I63))/20))</f>
         <v>33.947359360533518</v>
       </c>
-      <c r="J96" s="186">
+      <c r="J96" s="174">
         <f>-20*LOG10(10^(-J91/20)+10^(-(J28+2*(J27-7.5*LOG10(SUM(I86:O86)-1)-J32-J63))/20))</f>
         <v>34.799999274861314</v>
       </c>
-      <c r="K96" s="186">
+      <c r="K96" s="174">
         <f>-20*LOG10(10^(-K91/20)+10^(-(K28+2*(K27-7.5*LOG10(SUM(H86:N86)-1)-K32-K63))/20))</f>
         <v>35.933781198644489</v>
       </c>
-      <c r="L96" s="186">
+      <c r="L96" s="174">
         <f>-20*LOG10(10^(-L91/20)+10^(-(L28+2*(L27-7.5*LOG10(SUM(H86:N86)-1)-L32-L63))/20))</f>
         <v>36.925735731532804</v>
       </c>
-      <c r="M96" s="202">
+      <c r="M96" s="185">
         <f>-20*LOG10(10^(-M91/20)+10^(-(M28+2*(M27-7.5*LOG10(SUM(H86:N86)-1)-M32-M63))/20))</f>
         <v>37.916717431794545</v>
       </c>
-      <c r="N96" s="188">
+      <c r="N96" s="176">
         <f>-20*LOG10(10^(-N91/20)+10^(-(N28+2*(N27-7.5*LOG10(SUM(H86:N86)-1)-N32-N63))/20))</f>
         <v>38.906609867464191</v>
       </c>
-      <c r="O96" s="204"/>
+      <c r="O96" s="187"/>
     </row>
     <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="138" t="s">
-        <v>310</v>
-      </c>
-      <c r="H97" s="176" t="str">
+      <c r="A97" s="126" t="s">
+        <v>287</v>
+      </c>
+      <c r="H97" s="164" t="str">
         <f>IF(H96&gt;=H88,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="I97" s="177" t="str">
+      <c r="I97" s="165" t="str">
         <f t="shared" ref="I97:N97" si="17">IF(I96&gt;=I88,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="J97" s="177" t="str">
+      <c r="J97" s="165" t="str">
         <f t="shared" si="17"/>
         <v>OK</v>
       </c>
-      <c r="K97" s="177" t="str">
+      <c r="K97" s="165" t="str">
         <f t="shared" si="17"/>
         <v>OK</v>
       </c>
-      <c r="L97" s="177" t="str">
+      <c r="L97" s="165" t="str">
         <f t="shared" si="17"/>
         <v>OK</v>
       </c>
-      <c r="M97" s="182" t="str">
+      <c r="M97" s="170" t="str">
         <f t="shared" si="17"/>
         <v>OK</v>
       </c>
-      <c r="N97" s="178" t="str">
+      <c r="N97" s="166" t="str">
         <f t="shared" si="17"/>
         <v>OK</v>
       </c>
@@ -14861,11 +14900,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14875,544 +14914,441 @@
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="192" t="s">
         <v>205</v>
       </c>
       <c r="C2" s="193"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="118"/>
-      <c r="B3" s="119" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="197"/>
+      <c r="B3" s="198" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="198" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="119" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="121">
+      <c r="B4" s="199">
         <v>39.49</v>
       </c>
-      <c r="C4" s="121">
+      <c r="C4" s="199">
         <v>39.49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="122" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="123">
+      <c r="B5" s="199">
         <v>30</v>
       </c>
-      <c r="C5" s="123">
+      <c r="C5" s="199">
         <v>19.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="122" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="199">
+        <f>30-0.36</f>
+        <v>29.64</v>
+      </c>
+      <c r="C6" s="199">
+        <f>-C5-0.36</f>
+        <v>-19.559999999999999</v>
+      </c>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="119" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="200">
+        <f>DEGREES(ACOS(COS(RADIANS(B6))*COS(RADIANS(B4))))</f>
+        <v>47.874722541842957</v>
+      </c>
+      <c r="C7" s="200">
+        <f>DEGREES(ACOS(COS(RADIANS(C6))*COS(RADIANS(C4))))</f>
+        <v>43.347844323707463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="119" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="199">
+        <v>6378.16</v>
+      </c>
+      <c r="C8" s="199">
+        <v>6378.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="119" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="199">
+        <v>35786.300000000003</v>
+      </c>
+      <c r="C9" s="199">
+        <v>35786.300000000003</v>
+      </c>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="119" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="201">
+        <f>DEGREES(ATAN((COS(RADIANS(B7))-B8/(B9+B8))/SIN(RADIANS(B7))))</f>
+        <v>35.008051729265496</v>
+      </c>
+      <c r="C10" s="201">
+        <f>DEGREES(ATAN((COS(RADIANS(C7))-B8/(B9+B8))/SIN(RADIANS(C7))))</f>
+        <v>39.997625557419383</v>
+      </c>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="119" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="200">
+        <f>180 + DEGREES(ATAN(TAN(RADIANS(B6))/SIN(RADIANS(B4))))</f>
+        <v>221.82020731856079</v>
+      </c>
+      <c r="C11" s="200">
+        <f>180 + DEGREES(ATAN(TAN(RADIANS(C6))/SIN(RADIANS(C4))))</f>
+        <v>150.80819109153012</v>
+      </c>
+      <c r="F11" s="194"/>
+      <c r="G11" s="195"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="119" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="200">
+        <f>B9*SQRT(1+((2*B8*(B8+B9))/POWER(B9,2)*(1-COS(RADIANS(B7)))))</f>
+        <v>38180.475101277909</v>
+      </c>
+      <c r="C12" s="202">
+        <f>C9*SQRT(1+((2*C8*(C8+C9))/POWER(C9,2)*(1-COS(RADIANS(C7)))))</f>
+        <v>37780.795202936883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="118"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="119" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="120">
+        <v>54</v>
+      </c>
+      <c r="C15" s="120">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="123">
-        <f>B5-0.36</f>
-        <v>29.64</v>
-      </c>
-      <c r="C6" s="123">
-        <f>-0.36-19.2</f>
-        <v>-19.559999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="122" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="121">
-        <v>47.88</v>
-      </c>
-      <c r="C7" s="121">
-        <v>43.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="122" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="121">
-        <v>6378.16</v>
-      </c>
-      <c r="C8" s="121">
-        <v>6378.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="122" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="121">
-        <v>35786.300000000003</v>
-      </c>
-      <c r="C9" s="121">
-        <v>35786.300000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="122" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="121">
-        <v>38180.474999999999</v>
-      </c>
-      <c r="C10" s="121">
-        <v>37780.794999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="122" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="121">
-        <v>35</v>
-      </c>
-      <c r="C11" s="121">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="122" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="121">
-        <v>221.82</v>
-      </c>
-      <c r="C12" s="121">
-        <v>150.81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="124"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="119" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="121">
-        <v>54</v>
-      </c>
-      <c r="C14" s="121">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="119" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" s="121">
-        <f>B14-20*LOG10((4*PI()*B10*10^3)/((3*10^8)/(12.75*10^9)))-1.8+138.75</f>
-        <v>-15.238802423677953</v>
-      </c>
-      <c r="C15" s="121">
-        <f>C14-20*LOG10((4*PI()*C10*10^3)/((3*10^8)/(12.75*10^9)))-1.8+138.75</f>
-        <v>-18.147397727373288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="125"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
+      <c r="B16" s="120">
+        <v>0.7</v>
+      </c>
+      <c r="C16" s="120">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="119" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="121">
-        <f>B23-10*LOG10(1+(B21/B20))</f>
-        <v>17.132739049129246</v>
-      </c>
-      <c r="C17" s="121">
-        <f>C23-10*LOG10(1+(C21/C20))</f>
-        <v>14.22414374543391</v>
+        <v>216</v>
+      </c>
+      <c r="B17" s="120">
+        <v>50</v>
+      </c>
+      <c r="C17" s="120">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="119" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="121">
-        <f>B15+B19</f>
-        <v>23.761197576322047</v>
-      </c>
-      <c r="C18" s="121">
-        <f>C15+C19</f>
-        <v>20.852602272626712</v>
+        <v>215</v>
+      </c>
+      <c r="B18" s="120">
+        <v>3</v>
+      </c>
+      <c r="C18" s="120">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="119" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="121">
-        <v>39</v>
-      </c>
-      <c r="C19" s="121">
-        <v>39</v>
+        <v>211</v>
+      </c>
+      <c r="B19" s="120">
+        <v>27</v>
+      </c>
+      <c r="C19" s="120">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="121">
-        <v>110</v>
-      </c>
-      <c r="C20" s="121">
-        <v>110</v>
+        <v>212</v>
+      </c>
+      <c r="B20" s="120">
+        <v>0.7</v>
+      </c>
+      <c r="C20" s="120">
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" s="121">
-        <f>290*(10^(0.75/10)-1)</f>
-        <v>54.665645956735368</v>
-      </c>
-      <c r="C21" s="121">
-        <f>290*(10^(0.75/10)-1)</f>
-        <v>54.665645956735368</v>
+        <v>213</v>
+      </c>
+      <c r="B21" s="120">
+        <v>12.75</v>
+      </c>
+      <c r="C21" s="120">
+        <v>12.75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="119" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="121">
-        <f>10*LOG10((1.38*10^(-23))*B20*B24)+138.75</f>
-        <v>4.8763553571844795</v>
-      </c>
-      <c r="C22" s="121">
-        <f>10*LOG10((1.38*10^(-23))*C20*C24)+138.75</f>
-        <v>4.8763553571844795</v>
+        <v>218</v>
+      </c>
+      <c r="B22" s="120">
+        <f>92.44+20*LOG10(B21)+20*LOG10(B12)</f>
+        <v>206.18703026066953</v>
+      </c>
+      <c r="C22" s="120">
+        <f>92.44+20*LOG10(C21)+20*LOG10(C12)</f>
+        <v>206.09562558798024</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="119" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" s="121">
-        <f>B18-B22</f>
-        <v>18.884842219137568</v>
-      </c>
-      <c r="C23" s="121">
-        <f>C18-C22</f>
-        <v>15.976246915442232</v>
+        <v>219</v>
+      </c>
+      <c r="B23" s="120">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C23" s="120">
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="119" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" s="121">
-        <f>27*1000000</f>
-        <v>27000000</v>
+        <v>1.3800000000000001E-23</v>
       </c>
       <c r="C24" s="121">
-        <f>27*1000000</f>
-        <v>27000000</v>
+        <v>1.3800000000000001E-23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="127"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
+      <c r="A25" s="119" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="120">
+        <f>B17+290*(POWER(10,B20/10)-1)</f>
+        <v>100.72029093246357</v>
+      </c>
+      <c r="C25" s="120">
+        <f>C17+290*(POWER(10,C20/10)-1)</f>
+        <v>100.72029093246357</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="119" t="s">
-        <v>227</v>
-      </c>
-      <c r="B26" s="129">
-        <v>25</v>
-      </c>
-      <c r="C26" s="129">
-        <v>25</v>
+        <v>221</v>
+      </c>
+      <c r="B26" s="122">
+        <f>11+B18</f>
+        <v>14</v>
+      </c>
+      <c r="C26" s="120">
+        <f>11+C18</f>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="130" t="s">
-        <v>228</v>
-      </c>
-      <c r="B27" s="131">
-        <v>35</v>
-      </c>
-      <c r="C27" s="131">
-        <v>35</v>
+      <c r="A27" s="119" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="121">
+        <f>10*LOG10(B24*B25*B19*1000000)</f>
+        <v>-134.25640177870341</v>
+      </c>
+      <c r="C27" s="121">
+        <f>10*LOG10(C24*C25*C19*1000000)</f>
+        <v>-134.25640177870341</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="130" t="s">
-        <v>229</v>
-      </c>
-      <c r="B28" s="131">
-        <v>110</v>
-      </c>
-      <c r="C28" s="131">
-        <v>110</v>
+      <c r="A28" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="121">
+        <f>B26-B15+B22+B23+B27</f>
+        <v>37.030628481966119</v>
+      </c>
+      <c r="C28" s="121">
+        <f>C26-C15+C22+C23+C27</f>
+        <v>39.939223809276825</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="130" t="s">
-        <v>230</v>
-      </c>
-      <c r="B29" s="131">
-        <f>B28+(B26-B27)/2</f>
-        <v>105</v>
-      </c>
-      <c r="C29" s="131">
-        <f>C28+(C26-C27)/2</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="130" t="s">
-        <v>231</v>
-      </c>
-      <c r="B30" s="131">
-        <f>B29+7.5*LOG10(30-1)</f>
-        <v>115.96798498424216</v>
-      </c>
-      <c r="C30" s="131">
-        <f>C29+7.5*LOG10(30-1)</f>
-        <v>115.96798498424216</v>
+      <c r="A29" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" s="120">
+        <f>300000000/(B21*1000000000)</f>
+        <v>2.3529411764705882E-2</v>
+      </c>
+      <c r="C29" s="120">
+        <f>300000000/(C21*1000000000)</f>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="130" t="s">
-        <v>232</v>
-      </c>
-      <c r="B31" s="131">
-        <v>118.5</v>
-      </c>
-      <c r="C31" s="131">
-        <v>118.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="128" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="132">
-        <v>54</v>
-      </c>
-      <c r="C34" s="132">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="128" t="s">
-        <v>233</v>
-      </c>
-      <c r="B35" s="132">
-        <v>0.7</v>
-      </c>
-      <c r="C35" s="132">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="128" t="s">
-        <v>239</v>
-      </c>
-      <c r="B36" s="132">
-        <v>50</v>
-      </c>
-      <c r="C36" s="132">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="128" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" s="132">
-        <v>3</v>
-      </c>
-      <c r="C37" s="132">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="128" t="s">
-        <v>234</v>
-      </c>
-      <c r="B38" s="132">
-        <v>27</v>
-      </c>
-      <c r="C38" s="132">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="128" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" s="132">
-        <v>0.7</v>
-      </c>
-      <c r="C39" s="132">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="128" t="s">
-        <v>236</v>
-      </c>
-      <c r="B40" s="132">
-        <v>12.75</v>
-      </c>
-      <c r="C40" s="132">
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="128" t="s">
-        <v>241</v>
-      </c>
-      <c r="B41" s="132">
-        <f>92.44+20*LOG10(B40)+20*LOG10(B10)</f>
-        <v>206.18703023762927</v>
-      </c>
-      <c r="C41" s="132">
-        <f>92.44+20*LOG10(C40)+20*LOG10(C10)</f>
-        <v>206.09562554132461</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="128" t="s">
-        <v>242</v>
-      </c>
-      <c r="B42" s="132">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C42" s="132">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="128" t="s">
-        <v>248</v>
-      </c>
-      <c r="B43" s="133">
-        <v>1.3800000000000001E-23</v>
-      </c>
-      <c r="C43" s="133">
-        <v>1.3800000000000001E-23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="128" t="s">
-        <v>243</v>
-      </c>
-      <c r="B44" s="132">
-        <f>B36+290*(POWER(10,B39/10)-1)</f>
-        <v>100.72029093246357</v>
-      </c>
-      <c r="C44" s="132">
-        <f>C36+290*(POWER(10,C39/10)-1)</f>
-        <v>100.72029093246357</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="128" t="s">
-        <v>244</v>
-      </c>
-      <c r="B45" s="134">
-        <f>11+B37</f>
+      <c r="A31" s="119"/>
+      <c r="B31" s="121">
+        <f>B29*POWER(10,(B28/20))</f>
+        <v>1.6716389969050396</v>
+      </c>
+      <c r="C31" s="121">
+        <f>C29*POWER(10,(C28/20))</f>
+        <v>2.3365348359815972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="119" t="s">
+        <v>342</v>
+      </c>
+      <c r="B32" s="121">
+        <f>B31/(PI()*SQRT(B16))</f>
+        <v>0.63598020936830035</v>
+      </c>
+      <c r="C32" s="121">
+        <f>C31/(PI()*SQRT(C16))</f>
+        <v>0.88894188095344961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="119" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" s="121">
+        <f>B28-10*LOG10(B25)</f>
+        <v>16.999458766271765</v>
+      </c>
+      <c r="C33" s="121">
+        <f>C28-10*LOG10(C25)</f>
+        <v>19.908054093582471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="204" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" s="205">
+        <f>B15-B23-B22+B28</f>
+        <v>-120.25640177870341</v>
+      </c>
+      <c r="C34" s="205">
+        <f>C15-C23-C22+C28</f>
+        <v>-120.25640177870341</v>
+      </c>
+      <c r="D34" s="203"/>
+      <c r="E34" s="203"/>
+      <c r="F34" s="203"/>
+      <c r="G34" s="203">
+        <f>(G13-G21-G22+G30)-G29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>343</v>
+      </c>
+      <c r="B35" s="203">
+        <f>(B15-B23-B22+B28)-B27</f>
         <v>14</v>
       </c>
-      <c r="C45" s="132">
-        <f>11+C37</f>
+      <c r="C35" s="203">
+        <f>(C15-C23-C22+C28)-C27</f>
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="128" t="s">
-        <v>237</v>
-      </c>
-      <c r="B46" s="133">
-        <f>10*LOG10(B43*B44*B38*1000000)</f>
-        <v>-134.25640177870341</v>
-      </c>
-      <c r="C46" s="133">
-        <f>10*LOG10(C43*C44*C38*1000000)</f>
-        <v>-134.25640177870341</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="128" t="s">
-        <v>245</v>
-      </c>
-      <c r="B47" s="133">
-        <f>B45-B34+B41+B42+B46</f>
-        <v>37.030628458925861</v>
-      </c>
-      <c r="C47" s="133">
-        <f>C45-C34+C41+C42+C46</f>
-        <v>39.939223762621197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="128" t="s">
-        <v>246</v>
-      </c>
-      <c r="B48" s="132">
-        <f>300000000/(B40*1000000000)</f>
-        <v>2.3529411764705882E-2</v>
-      </c>
-      <c r="C48" s="132">
-        <f>300000000/(C40*1000000000)</f>
-        <v>2.3529411764705882E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="128"/>
-      <c r="B50" s="133">
-        <f>B48*POWER(10,(B47/20))</f>
-        <v>1.671638992470837</v>
-      </c>
-      <c r="C50" s="133">
-        <f>C48*POWER(10,(C47/20))</f>
-        <v>2.3365348234310672</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="128" t="s">
-        <v>315</v>
-      </c>
-      <c r="B51" s="133">
-        <f>B50/(PI()*SQRT(B35))</f>
-        <v>0.63598020768129437</v>
-      </c>
-      <c r="C51" s="133">
-        <f>C50/(PI()*SQRT(C35))</f>
-        <v>0.8889418761785618</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="128" t="s">
-        <v>247</v>
-      </c>
-      <c r="B52" s="133">
-        <f>B47-10*LOG10(B44)</f>
-        <v>16.999458743231507</v>
-      </c>
-      <c r="C52" s="133">
-        <f>C47-10*LOG10(C44)</f>
-        <v>19.908054046926843</v>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36">
+        <f>B34+60-(29.6*0.2)</f>
+        <v>-66.176401778703408</v>
+      </c>
+      <c r="C36">
+        <f>C34+60-(29.6*0.2)</f>
+        <v>-66.176401778703408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37">
+        <f>SQRT(POWER(10,(B36/10))*75)*1000000</f>
+        <v>4253.1484633272221</v>
+      </c>
+      <c r="C37">
+        <f>SQRT(POWER(10,(C36/10))*75)*1000000</f>
+        <v>4253.1484633272221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>340</v>
+      </c>
+      <c r="B38">
+        <f>20*LOG10(B37)</f>
+        <v>72.574210855213593</v>
+      </c>
+      <c r="C38">
+        <f>20*LOG10(C37)</f>
+        <v>72.574210855213593</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40">
+        <f>123-B38</f>
+        <v>50.425789144786407</v>
+      </c>
+      <c r="C40">
+        <f>123-C38</f>
+        <v>50.425789144786407</v>
       </c>
     </row>
   </sheetData>
@@ -15420,5 +15356,428 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2">
+        <f>B3*B6</f>
+        <v>523.20000000000005</v>
+      </c>
+      <c r="E2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3">
+        <f>((B4)^2/16)*B5</f>
+        <v>799.52256944444457</v>
+      </c>
+      <c r="E3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4">
+        <f>130*(1000/3600)</f>
+        <v>36.111111111111114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6">
+        <f>523.2/B3</f>
+        <v>0.65439053254437862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12">
+        <f>B9*B10*B11</f>
+        <v>0.189</v>
+      </c>
+      <c r="E12">
+        <f>E9*E10*E11</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13">
+        <f>800*B12</f>
+        <v>151.19999999999999</v>
+      </c>
+      <c r="E13">
+        <f>800*E12</f>
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" t="s">
+        <v>328</v>
+      </c>
+      <c r="H16" t="s">
+        <v>333</v>
+      </c>
+      <c r="K16" t="s">
+        <v>336</v>
+      </c>
+      <c r="L16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <f>B17*B18</f>
+        <v>558</v>
+      </c>
+      <c r="E17">
+        <v>93</v>
+      </c>
+      <c r="F17">
+        <f>E17*E18</f>
+        <v>558</v>
+      </c>
+      <c r="H17">
+        <v>93</v>
+      </c>
+      <c r="K17">
+        <f>2*B5</f>
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19">
+        <v>36.5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C23" si="0">B19*B20</f>
+        <v>146</v>
+      </c>
+      <c r="E19">
+        <v>36.5</v>
+      </c>
+      <c r="F19">
+        <f>E19*E20</f>
+        <v>146</v>
+      </c>
+      <c r="H19">
+        <v>36.5</v>
+      </c>
+      <c r="K19">
+        <f>1.5*B5</f>
+        <v>14.715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <f>B21*B22</f>
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <f>E21*E22</f>
+        <v>54</v>
+      </c>
+      <c r="H21">
+        <v>27</v>
+      </c>
+      <c r="K21">
+        <f>1.2*B5</f>
+        <v>11.772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23">
+        <v>523.20000000000005</v>
+      </c>
+      <c r="C23">
+        <f>B23*B24</f>
+        <v>261.60000000000002</v>
+      </c>
+      <c r="E23">
+        <v>523.20000000000005</v>
+      </c>
+      <c r="F23">
+        <f>E23*E24</f>
+        <v>261.60000000000002</v>
+      </c>
+      <c r="H23">
+        <v>523.20000000000005</v>
+      </c>
+      <c r="K23">
+        <f>5*9.81</f>
+        <v>49.050000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="H24">
+        <f>E13</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="I24" t="s">
+        <v>335</v>
+      </c>
+      <c r="K24">
+        <f>2*B5</f>
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f>2.5*B5</f>
+        <v>24.525000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26">
+        <f>SUM(C17,C19,C21,C23)</f>
+        <v>1019.6</v>
+      </c>
+      <c r="E26">
+        <f>SUM(F17,F21,F19,F23)</f>
+        <v>1019.6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>334</v>
+      </c>
+      <c r="I26">
+        <f>-SUM(H17,H19,H21,H23,H24)</f>
+        <v>-755.30000000000007</v>
+      </c>
+      <c r="K26">
+        <f>-SUM(K24,K25,K23,K21,K19,K17)</f>
+        <v>-139.30200000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27">
+        <f>0.045*280*((B10)^2-(3)^2)</f>
+        <v>340.2</v>
+      </c>
+      <c r="E27">
+        <f>(0.045*280*((E10)^2))*6</f>
+        <v>680.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28">
+        <f>B26+B27</f>
+        <v>1359.8</v>
+      </c>
+      <c r="E28">
+        <f>E26+E27</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B29">
+        <f>B28-355</f>
+        <v>1004.8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29">
+        <f>E28-355</f>
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>332</v>
+      </c>
+      <c r="E33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/6-1/ITSIT/Trabajo/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_9F969C7D01730002509DB1C2D8DF9BE1D3ADC0FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33D6F5FC-D604-4C69-81D5-FDBAEFC00409}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="2760" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Satellite" sheetId="3" r:id="rId3"/>
     <sheet name="Mast + Tower" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="342">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -829,12 +830,6 @@
     <t>Amplificador input level, Sin (dBuV)</t>
   </si>
   <si>
-    <t>Preguntar que tipo de cable es este para buscar los valores que corresponden</t>
-  </si>
-  <si>
-    <t>Preguntar si los valores de Outdoor cable length son estos (Me tienen que decir Josepe estos valores a que altura estan las antenas estas)</t>
-  </si>
-  <si>
     <t>AMPLIFIER GAIN</t>
   </si>
   <si>
@@ -1049,9 +1044,6 @@
   </si>
   <si>
     <t>Fuerzas verticales (según diapositivas he aproximado los pesos de cada antena)</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>Pin (dBW)</t>
@@ -1078,13 +1070,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1995,7 +1987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2400,13 +2392,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2422,32 +2435,6 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2773,10 +2760,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O308"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G308" sqref="G308"/>
     </sheetView>
   </sheetViews>
@@ -12376,16 +12363,16 @@
       <c r="A280" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C280" s="189" t="s">
+      <c r="C280" s="198" t="s">
         <v>198</v>
       </c>
-      <c r="D280" s="190"/>
-      <c r="E280" s="191"/>
-      <c r="G280" s="189" t="s">
+      <c r="D280" s="199"/>
+      <c r="E280" s="200"/>
+      <c r="G280" s="198" t="s">
         <v>199</v>
       </c>
-      <c r="H280" s="190"/>
-      <c r="I280" s="191"/>
+      <c r="H280" s="199"/>
+      <c r="I280" s="200"/>
     </row>
     <row r="281" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="81" t="s">
@@ -12693,7 +12680,7 @@
     <row r="305" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="127" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C306" s="114" t="s">
         <v>231</v>
@@ -12704,7 +12691,7 @@
     </row>
     <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="125" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C307" s="180">
         <f>E302-MAX(G277:K277)</f>
@@ -12717,7 +12704,7 @@
     </row>
     <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="126" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C308" s="60">
         <f>E302-MIN(G276:K276)</f>
@@ -12743,11 +12730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="76" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12775,7 +12762,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J1" s="42" t="s">
         <v>240</v>
@@ -12879,9 +12866,7 @@
       <c r="O5" s="2">
         <v>0.23</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
@@ -13342,7 +13327,7 @@
         <v>15</v>
       </c>
       <c r="O33" s="182"/>
-      <c r="P33" s="188"/>
+      <c r="P33" s="186"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="107" t="s">
@@ -13734,40 +13719,46 @@
       <c r="A48" s="127" t="s">
         <v>258</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>264</v>
-      </c>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="149" t="s">
         <v>259</v>
       </c>
       <c r="F49" s="136">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G49" s="137">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B20</f>
+        <v>22</v>
       </c>
       <c r="H49" s="137">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
       </c>
       <c r="I49" s="137">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
       </c>
       <c r="J49" s="137">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
       </c>
       <c r="K49" s="137">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
       </c>
       <c r="L49" s="137">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
       </c>
       <c r="M49" s="137">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
       </c>
       <c r="N49" s="138">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -13776,39 +13767,39 @@
       </c>
       <c r="F50" s="147">
         <f>F5*F49</f>
-        <v>0.30000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G50" s="21">
         <f>G5*G49</f>
-        <v>0.48</v>
+        <v>1.3199999999999998</v>
       </c>
       <c r="H50" s="21">
         <f>H5*H49</f>
-        <v>0.8</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="I50" s="21">
         <f t="shared" ref="I50:M50" si="4">I5*I49</f>
-        <v>0.8</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="J50" s="21">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K50" s="21">
         <f t="shared" si="4"/>
-        <v>0.88</v>
+        <v>2.64</v>
       </c>
       <c r="L50" s="21">
         <f t="shared" si="4"/>
-        <v>0.88</v>
+        <v>2.64</v>
       </c>
       <c r="M50" s="21">
         <f t="shared" si="4"/>
-        <v>0.88</v>
+        <v>2.64</v>
       </c>
       <c r="N50" s="148">
         <f>N5*N49</f>
-        <v>0.88</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13896,39 +13887,39 @@
       </c>
       <c r="F53" s="147">
         <f t="shared" ref="F53:N53" si="5">F52+F50</f>
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="G53" s="21">
         <f t="shared" si="5"/>
-        <v>2.58</v>
+        <v>3.42</v>
       </c>
       <c r="H53" s="21">
         <f t="shared" si="5"/>
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="I53" s="21">
         <f t="shared" si="5"/>
-        <v>3.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J53" s="21">
         <f t="shared" si="5"/>
-        <v>2.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K53" s="21">
         <f t="shared" si="5"/>
-        <v>2.38</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="L53" s="21">
         <f t="shared" si="5"/>
-        <v>1.88</v>
+        <v>3.64</v>
       </c>
       <c r="M53" s="21">
         <f t="shared" si="5"/>
-        <v>1.38</v>
+        <v>3.14</v>
       </c>
       <c r="N53" s="148">
         <f t="shared" si="5"/>
-        <v>0.88</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13937,96 +13928,96 @@
       </c>
       <c r="F54" s="139">
         <f t="shared" ref="F54:N54" si="6">F32-F53</f>
-        <v>67.3</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="G54" s="140">
         <f t="shared" si="6"/>
-        <v>55.42</v>
+        <v>54.58</v>
       </c>
       <c r="H54" s="140">
         <f t="shared" si="6"/>
-        <v>46.2</v>
+        <v>44.6</v>
       </c>
       <c r="I54" s="140">
         <f t="shared" si="6"/>
-        <v>46.7</v>
+        <v>45.1</v>
       </c>
       <c r="J54" s="140">
         <f t="shared" si="6"/>
-        <v>47.2</v>
+        <v>45.6</v>
       </c>
       <c r="K54" s="140">
         <f t="shared" si="6"/>
-        <v>47.62</v>
+        <v>45.86</v>
       </c>
       <c r="L54" s="140">
         <f t="shared" si="6"/>
-        <v>48.12</v>
+        <v>46.36</v>
       </c>
       <c r="M54" s="140">
         <f t="shared" si="6"/>
-        <v>48.62</v>
+        <v>46.86</v>
       </c>
       <c r="N54" s="141">
         <f t="shared" si="6"/>
-        <v>49.12</v>
+        <v>47.36</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="127" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="149" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F58" s="136">
         <f>F44-(F32-F53)</f>
-        <v>35.100000000000009</v>
+        <v>35.800000000000011</v>
       </c>
       <c r="G58" s="137">
         <f>G44-(G32-G53)</f>
-        <v>44.679999999999993</v>
+        <v>45.519999999999996</v>
       </c>
       <c r="H58" s="137">
         <f>H44-(H32-H53)</f>
-        <v>60.8</v>
+        <v>62.4</v>
       </c>
       <c r="I58" s="137">
         <f>I44-(I32-I53)</f>
-        <v>59.8</v>
+        <v>61.4</v>
       </c>
       <c r="J58" s="137">
         <f t="shared" ref="J58:N58" si="7">J44-(J32-J53)</f>
-        <v>58.8</v>
+        <v>60.4</v>
       </c>
       <c r="K58" s="137">
         <f t="shared" si="7"/>
-        <v>57.88</v>
+        <v>59.64</v>
       </c>
       <c r="L58" s="137">
         <f t="shared" si="7"/>
-        <v>56.88</v>
+        <v>58.64</v>
       </c>
       <c r="M58" s="137">
         <f t="shared" si="7"/>
-        <v>55.88</v>
+        <v>57.64</v>
       </c>
       <c r="N58" s="138">
         <f t="shared" si="7"/>
-        <v>54.88</v>
+        <v>56.64</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="151" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F59" s="164" t="str">
         <f>IF(AND(F16&gt;F58,(F16-F17)&lt;F58),"OK","NO")</f>
@@ -14068,53 +14059,53 @@
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="127" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="149" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F62" s="136">
         <f>IF(F58-F24&gt;F16-F17,F58-F24,F16-F17)</f>
-        <v>35.100000000000009</v>
+        <v>35.800000000000011</v>
       </c>
       <c r="G62" s="137">
         <f t="shared" ref="G62:N62" si="9">IF(G58-G24&gt;G16-G17,G58-G24,G16-G17)</f>
-        <v>44.679999999999993</v>
+        <v>45.519999999999996</v>
       </c>
       <c r="H62" s="137">
         <f t="shared" si="9"/>
-        <v>32.799999999999997</v>
+        <v>34.4</v>
       </c>
       <c r="I62" s="137">
         <f>IF(I58-I24&gt;I16-I17,I58-I24,I16-I17)</f>
-        <v>31.799999999999997</v>
+        <v>33.4</v>
       </c>
       <c r="J62" s="137">
         <f t="shared" si="9"/>
-        <v>30.799999999999997</v>
+        <v>32.4</v>
       </c>
       <c r="K62" s="137">
         <f t="shared" si="9"/>
-        <v>29.880000000000003</v>
+        <v>31.64</v>
       </c>
       <c r="L62" s="137">
         <f t="shared" si="9"/>
-        <v>28.880000000000003</v>
+        <v>30.64</v>
       </c>
       <c r="M62" s="137">
         <f t="shared" si="9"/>
-        <v>27.880000000000003</v>
+        <v>29.64</v>
       </c>
       <c r="N62" s="138">
         <f t="shared" si="9"/>
-        <v>26.880000000000003</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="150" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F63" s="147">
         <f>F58-F62</f>
@@ -14156,7 +14147,7 @@
     </row>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="151" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F64" s="164" t="str">
         <f>IF(AND(F16&gt;F62,(F16-F17)&lt;F62),"OK","NO")</f>
@@ -14198,12 +14189,12 @@
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="171" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="150" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F67" s="136">
         <v>0.15</v>
@@ -14235,7 +14226,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="150" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F68" s="147">
         <v>290</v>
@@ -14267,7 +14258,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="150" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F69" s="147">
         <v>-13</v>
@@ -14299,7 +14290,7 @@
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="151" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F70" s="139">
         <v>38</v>
@@ -14332,100 +14323,100 @@
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="172" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="173" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="150" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B74" s="1"/>
       <c r="F74" s="136">
         <f>10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>16.537205707170102</v>
+        <v>16.779680899642923</v>
       </c>
       <c r="G74" s="137">
         <f>10*LOG10(10^((G18+G53)/10)+10^((G53-G58)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>12.448242010510427</v>
+        <v>13.147592929371502</v>
       </c>
       <c r="H74" s="137">
         <f>10*LOG10(10^((H18+H53)/10)+10^((H53-H58)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>12.837121168044634</v>
+        <v>14.425715360153408</v>
       </c>
       <c r="I74" s="137">
         <f>10*LOG10(10^((I18+I53)/10)+10^((I53-I58)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>12.341628930936814</v>
+        <v>13.928842668311461</v>
       </c>
       <c r="J74" s="137">
         <f>10*LOG10(10^((J18+J53)/10)+10^((J53-J58)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>11.846681144362297</v>
+        <v>13.432348875919986</v>
       </c>
       <c r="K74" s="137">
         <f>10*LOG10(10^((K18+K53)/10)+10^((K53-K58)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>11.431393079318745</v>
+        <v>13.174336724245999</v>
       </c>
       <c r="L74" s="137">
         <f>10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((L43+Network!K277)/10)-1))</f>
-        <v>11.004322432591573</v>
+        <v>12.723293121364554</v>
       </c>
       <c r="M74" s="137">
         <f>10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((M43+Network!K277)/10)-1))</f>
-        <v>10.51925115842595</v>
+        <v>12.233347830022003</v>
       </c>
       <c r="N74" s="138">
         <f>10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((N43+Network!K277)/10)-1))</f>
-        <v>10.035940560689802</v>
+        <v>11.744601729619896</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="150" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F75" s="167">
         <f>F32-F69-10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>66.462794292829898</v>
+        <v>66.220319100357074</v>
       </c>
       <c r="G75" s="90">
         <f>G32-G69-10*LOG10(10^((G18+G53)/10)+10^((G53-G58)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>48.551757989489573</v>
+        <v>47.852407070628502</v>
       </c>
       <c r="H75" s="90">
         <f>H32-H69-10*LOG10(10^((H18+H53)/10)+10^((H53-H58)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>33.162878831955368</v>
+        <v>31.574284639846592</v>
       </c>
       <c r="I75" s="90">
         <f>I32-I69-10*LOG10(10^((I18+I53)/10)+10^((I53-I58)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>33.658371069063186</v>
+        <v>32.071157331688539</v>
       </c>
       <c r="J75" s="90">
         <f>J32-J69-10*LOG10(10^((J18+J53)/10)+10^((J53-J58)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>34.153318855637707</v>
+        <v>32.567651124080015</v>
       </c>
       <c r="K75" s="90">
         <f>K32-K69-10*LOG10(10^((K18+K53)/10)+10^((K53-K58)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>34.568606920681255</v>
+        <v>32.825663275754003</v>
       </c>
       <c r="L75" s="90">
         <f>L32-L69-10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((J43+Network!O277)/10)-1))</f>
-        <v>35.119979752503028</v>
+        <v>33.35998649882147</v>
       </c>
       <c r="M75" s="90">
         <f>M32-M69-10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((J43+Network!P277)/10)-1))</f>
-        <v>35.619999174226699</v>
+        <v>33.859999449368757</v>
       </c>
       <c r="N75" s="169">
         <f>N32-N69-10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((J43+Network!Q277)/10)-1))</f>
-        <v>36.119998960413028</v>
+        <v>34.35999930679634</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="151" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F76" s="164" t="str">
         <f>IF(F75&gt;=F70,"OK","NO")</f>
@@ -14467,95 +14458,95 @@
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="171" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="150" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F79" s="136">
         <f>10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>16.537205707170102</v>
+        <v>16.779680899642923</v>
       </c>
       <c r="G79" s="137">
         <f>10*LOG10(10^(G26/10)+(10^(G53/10)-1)/10^(G63/10)+(10^(G18/10)-1)*10^(G53/10)/10^(G63/10)+10^((G53-G62-G63)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>12.448242010510429</v>
+        <v>13.147592929371502</v>
       </c>
       <c r="H79" s="137">
         <f>10*LOG10(10^(H26/10)+(10^(H53/10)-1)/10^(H63/10)+(10^(H18/10)-1)*10^(H53/10)/10^(H63/10)+10^((H53-H62-H63)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>6.6829431135643471</v>
+        <v>6.6954645101141157</v>
       </c>
       <c r="I79" s="137">
         <f>10*LOG10(10^(I26/10)+(10^(I53/10)-1)/10^(I63/10)+(10^(I18/10)-1)*10^(I53/10)/10^(I63/10)+10^((I53-I62-I63)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>6.6798804391014315</v>
+        <v>6.6910497575131398</v>
       </c>
       <c r="J79" s="137">
         <f>10*LOG10(10^(J26/10)+(10^(J53/10)-1)/10^(J63/10)+(10^(J18/10)-1)*10^(J53/10)/10^(J63/10)+10^((J53-J62-J63)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>6.6771489537078939</v>
+        <v>6.6871112669985608</v>
       </c>
       <c r="K79" s="137">
         <f>10*LOG10(10^(K26/10)+(10^(K53/10)-1)/10^(K63/10)+(10^(K18/10)-1)*10^(K53/10)/10^(K63/10)+10^((K53-K62-K63)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>6.6750842057365247</v>
+        <v>6.6852341688357919</v>
       </c>
       <c r="L79" s="137">
         <f>10*LOG10(10^(L26/10)+(10^(L53/10)-1)/10^(L63/10)+(10^(L18/10)-1)*10^(L53/10)/10^(L63/10)+10^((L53-L62-L63)/10)*(10^((L43+Network!K277)/10)-1))</f>
-        <v>6.8487120708452345</v>
+        <v>6.8574051682622006</v>
       </c>
       <c r="M79" s="137">
         <f>10*LOG10(10^(M26/10)+(10^(M53/10)-1)/10^(M63/10)+(10^(M18/10)-1)*10^(M53/10)/10^(M63/10)+10^((M53-M62-M63)/10)*(10^((M43+Network!K277)/10)-1))</f>
-        <v>6.8468174917760871</v>
+        <v>6.8545694438043423</v>
       </c>
       <c r="N79" s="138">
         <f>10*LOG10(10^(N26/10)+(10^(N53/10)-1)/10^(N63/10)+(10^(N18/10)-1)*10^(N53/10)/10^(N63/10)+10^((N53-N62-N63)/10)*(10^((N43+Network!K277)/10)-1))</f>
-        <v>6.8451281695987118</v>
+        <v>6.8520404604457941</v>
       </c>
       <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="150" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F80" s="167">
         <f>F32-F69-10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>66.462794292829898</v>
+        <v>66.220319100357074</v>
       </c>
       <c r="G80" s="90">
         <f>G32-G69-10*LOG10(10^(G26/10)+(10^(G53/10)-1)/10^(G63/10)+(10^(G18/10)-1)*10^(G53/10)/10^(G63/10)+10^((G53-G62-G63)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>48.551757989489573</v>
+        <v>47.852407070628502</v>
       </c>
       <c r="H80" s="90">
         <f>H32-H69-10*LOG10(10^(H26/10)+(10^(H53/10)-1)/10^(H63/10)+(10^(H18/10)-1)*10^(H53/10)/10^(H63/10)+10^((H53-H62-H63)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>39.317056886435651</v>
+        <v>39.304535489885886</v>
       </c>
       <c r="I80" s="90">
         <f>I32-I69-10*LOG10(10^(I26/10)+(10^(I53/10)-1)/10^(I63/10)+(10^(I18/10)-1)*10^(I53/10)/10^(I63/10)+10^((I53-I62-I63)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>39.320119560898569</v>
+        <v>39.308950242486858</v>
       </c>
       <c r="J80" s="90">
         <f>J32-J69-10*LOG10(10^(J26/10)+(10^(J53/10)-1)/10^(J63/10)+(10^(J18/10)-1)*10^(J53/10)/10^(J63/10)+10^((J53-J62-J63)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>39.322851046292108</v>
+        <v>39.312888733001436</v>
       </c>
       <c r="K80" s="90">
         <f>K32-K69-10*LOG10(10^(K26/10)+(10^(K53/10)-1)/10^(K63/10)+(10^(K18/10)-1)*10^(K53/10)/10^(K63/10)+10^((K53-K62-K63)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>39.324915794263475</v>
+        <v>39.314765831164209</v>
       </c>
       <c r="L80" s="90">
         <f>L32-L69-10*LOG10(10^(L26/10)+(10^(L53/10)-1)/10^(L63/10)+(10^(L18/10)-1)*10^(L53/10)/10^(L63/10)+10^((L53-L62-L63)/10)*(10^((L43+Network!K277)/10)-1))</f>
-        <v>39.151287929154762</v>
+        <v>39.142594831737796</v>
       </c>
       <c r="M80" s="90">
         <f>M32-M69-10*LOG10(10^(M26/10)+(10^(M53/10)-1)/10^(M63/10)+(10^(M18/10)-1)*10^(M53/10)/10^(M63/10)+10^((M53-M62-M63)/10)*(10^((M43+Network!K277)/10)-1))</f>
-        <v>39.153182508223914</v>
+        <v>39.145430556195656</v>
       </c>
       <c r="N80" s="169">
         <f>N32-N69-10*LOG10(10^(N26/10)+(10^(N53/10)-1)/10^(N63/10)+(10^(N18/10)-1)*10^(N53/10)/10^(N63/10)+10^((N53-N62-N63)/10)*(10^((N43+Network!K277)/10)-1))</f>
-        <v>39.154871830401291</v>
+        <v>39.147959539554208</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="151" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F81" s="164" t="str">
         <f>IF(F80&gt;=F70,"OK","NO")</f>
@@ -14706,12 +14697,12 @@
     <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="171" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="156" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H91" s="160">
         <f>H28+2*(H27-H87-H44)</f>
@@ -14748,7 +14739,7 @@
     </row>
     <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="126" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H92" s="164" t="str">
         <f>IF(H91&gt;=H88,"OK","NO")</f>
@@ -14783,18 +14774,15 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O93" s="183"/>
-    </row>
+    <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="171" t="s">
-        <v>269</v>
-      </c>
-      <c r="O94" s="183"/>
+        <v>267</v>
+      </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="150" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H95" s="136">
         <f>H32+H63</f>
@@ -14816,7 +14804,7 @@
         <f t="shared" si="16"/>
         <v>78</v>
       </c>
-      <c r="M95" s="184">
+      <c r="M95" s="183">
         <f>M32+M63</f>
         <v>78</v>
       </c>
@@ -14824,11 +14812,10 @@
         <f>N32+N63</f>
         <v>78</v>
       </c>
-      <c r="O95" s="186"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="156" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H96" s="175">
         <f>-20*LOG10(10^(-H91/20)+10^(-(H28+2*(H27-7.5*LOG10(SUM(H86:N86)-1)-H32-H63))/20))</f>
@@ -14839,8 +14826,8 @@
         <v>33.947359360533518</v>
       </c>
       <c r="J96" s="174">
-        <f>-20*LOG10(10^(-J91/20)+10^(-(J28+2*(J27-7.5*LOG10(SUM(I86:O86)-1)-J32-J63))/20))</f>
-        <v>34.799999274861314</v>
+        <f>-20*LOG10(10^(-J91/20)+10^(-(J28+2*(J27-7.5*LOG10(SUM(H86:N86)-1)-J32-J63))/20))</f>
+        <v>34.940958014846672</v>
       </c>
       <c r="K96" s="174">
         <f>-20*LOG10(10^(-K91/20)+10^(-(K28+2*(K27-7.5*LOG10(SUM(H86:N86)-1)-K32-K63))/20))</f>
@@ -14850,7 +14837,7 @@
         <f>-20*LOG10(10^(-L91/20)+10^(-(L28+2*(L27-7.5*LOG10(SUM(H86:N86)-1)-L32-L63))/20))</f>
         <v>36.925735731532804</v>
       </c>
-      <c r="M96" s="185">
+      <c r="M96" s="184">
         <f>-20*LOG10(10^(-M91/20)+10^(-(M28+2*(M27-7.5*LOG10(SUM(H86:N86)-1)-M32-M63))/20))</f>
         <v>37.916717431794545</v>
       </c>
@@ -14858,11 +14845,11 @@
         <f>-20*LOG10(10^(-N91/20)+10^(-(N28+2*(N27-7.5*LOG10(SUM(H86:N86)-1)-N32-N63))/20))</f>
         <v>38.906609867464191</v>
       </c>
-      <c r="O96" s="187"/>
+      <c r="O96" s="185"/>
     </row>
     <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="126" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H97" s="164" t="str">
         <f>IF(H96&gt;=H88,"OK","NO")</f>
@@ -14900,10 +14887,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -14916,17 +14903,17 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="201" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="193"/>
+      <c r="C2" s="202"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="197"/>
-      <c r="B3" s="198" t="s">
+      <c r="A3" s="118"/>
+      <c r="B3" s="190" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="198" t="s">
+      <c r="C3" s="190" t="s">
         <v>207</v>
       </c>
     </row>
@@ -14934,10 +14921,10 @@
       <c r="A4" s="119" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="199">
+      <c r="B4" s="191">
         <v>39.49</v>
       </c>
-      <c r="C4" s="199">
+      <c r="C4" s="191">
         <v>39.49</v>
       </c>
     </row>
@@ -14945,104 +14932,104 @@
       <c r="A5" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="199">
+      <c r="B5" s="191">
         <v>30</v>
       </c>
-      <c r="C5" s="199">
+      <c r="C5" s="191">
         <v>19.2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="119" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="199">
+        <v>296</v>
+      </c>
+      <c r="B6" s="191">
         <f>30-0.36</f>
         <v>29.64</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="191">
         <f>-C5-0.36</f>
         <v>-19.559999999999999</v>
       </c>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="119" t="s">
-        <v>292</v>
-      </c>
-      <c r="B7" s="200">
+        <v>290</v>
+      </c>
+      <c r="B7" s="192">
         <f>DEGREES(ACOS(COS(RADIANS(B6))*COS(RADIANS(B4))))</f>
         <v>47.874722541842957</v>
       </c>
-      <c r="C7" s="200">
+      <c r="C7" s="192">
         <f>DEGREES(ACOS(COS(RADIANS(C6))*COS(RADIANS(C4))))</f>
         <v>43.347844323707463</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="119" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="199">
+        <v>291</v>
+      </c>
+      <c r="B8" s="191">
         <v>6378.16</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="191">
         <v>6378.16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="119" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="199">
+        <v>292</v>
+      </c>
+      <c r="B9" s="191">
         <v>35786.300000000003</v>
       </c>
-      <c r="C9" s="199">
+      <c r="C9" s="191">
         <v>35786.300000000003</v>
       </c>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="119" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="201">
+        <v>293</v>
+      </c>
+      <c r="B10" s="193">
         <f>DEGREES(ATAN((COS(RADIANS(B7))-B8/(B9+B8))/SIN(RADIANS(B7))))</f>
         <v>35.008051729265496</v>
       </c>
-      <c r="C10" s="201">
+      <c r="C10" s="193">
         <f>DEGREES(ATAN((COS(RADIANS(C7))-B8/(B9+B8))/SIN(RADIANS(C7))))</f>
         <v>39.997625557419383</v>
       </c>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="119" t="s">
-        <v>296</v>
-      </c>
-      <c r="B11" s="200">
+        <v>294</v>
+      </c>
+      <c r="B11" s="192">
         <f>180 + DEGREES(ATAN(TAN(RADIANS(B6))/SIN(RADIANS(B4))))</f>
         <v>221.82020731856079</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="192">
         <f>180 + DEGREES(ATAN(TAN(RADIANS(C6))/SIN(RADIANS(C4))))</f>
         <v>150.80819109153012</v>
       </c>
-      <c r="F11" s="194"/>
-      <c r="G11" s="195"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="188"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="119" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" s="200">
+        <v>295</v>
+      </c>
+      <c r="B12" s="192">
         <f>B9*SQRT(1+((2*B8*(B8+B9))/POWER(B9,2)*(1-COS(RADIANS(B7)))))</f>
         <v>38180.475101277909</v>
       </c>
-      <c r="C12" s="202">
+      <c r="C12" s="194">
         <f>C9*SQRT(1+((2*C8*(C8+C9))/POWER(C9,2)*(1-COS(RADIANS(C7)))))</f>
         <v>37780.795202936883</v>
       </c>
@@ -15242,7 +15229,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="119" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B32" s="121">
         <f>B31/(PI()*SQRT(B16))</f>
@@ -15267,41 +15254,41 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="204" t="s">
-        <v>344</v>
-      </c>
-      <c r="B34" s="205">
+      <c r="A34" s="196" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34" s="197">
         <f>B15-B23-B22+B28</f>
         <v>-120.25640177870341</v>
       </c>
-      <c r="C34" s="205">
+      <c r="C34" s="197">
         <f>C15-C23-C22+C28</f>
         <v>-120.25640177870341</v>
       </c>
-      <c r="D34" s="203"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="203"/>
-      <c r="G34" s="203">
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195">
         <f>(G13-G21-G22+G30)-G29</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>343</v>
-      </c>
-      <c r="B35" s="203">
+        <v>340</v>
+      </c>
+      <c r="B35" s="195">
         <f>(B15-B23-B22+B28)-B27</f>
         <v>14</v>
       </c>
-      <c r="C35" s="203">
+      <c r="C35" s="195">
         <f>(C15-C23-C22+C28)-C27</f>
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B36">
         <f>B34+60-(29.6*0.2)</f>
@@ -15314,7 +15301,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B37">
         <f>SQRT(POWER(10,(B36/10))*75)*1000000</f>
@@ -15327,7 +15314,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B38">
         <f>20*LOG10(B37)</f>
@@ -15340,7 +15327,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B40">
         <f>123-B38</f>
@@ -15361,99 +15348,101 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A6" zoomScale="126" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B2">
         <f>B3*B6</f>
         <v>523.20000000000005</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B3">
         <f>((B4)^2/16)*B5</f>
         <v>799.52256944444457</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B4">
         <f>130*(1000/3600)</f>
         <v>36.111111111111114</v>
       </c>
       <c r="E4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F4">
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B5">
         <v>9.81</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B6">
         <f>523.2/B3</f>
         <v>0.65439053254437862</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B9">
         <v>4.4999999999999998E-2</v>
@@ -15462,9 +15451,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -15473,9 +15462,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -15484,9 +15473,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B12">
         <f>B9*B10*B11</f>
@@ -15497,9 +15486,9 @@
         <v>9.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B13">
         <f>800*B12</f>
@@ -15510,32 +15499,29 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K16" t="s">
-        <v>336</v>
-      </c>
-      <c r="L16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B17">
         <v>93</v>
@@ -15561,7 +15547,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -15572,13 +15558,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B19">
         <v>36.5</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C23" si="0">B19*B20</f>
+        <f t="shared" ref="C19" si="0">B19*B20</f>
         <v>146</v>
       </c>
       <c r="E19">
@@ -15598,7 +15584,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -15609,7 +15595,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B21">
         <v>27</v>
@@ -15635,7 +15621,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -15646,7 +15632,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B23">
         <v>523.20000000000005</v>
@@ -15672,7 +15658,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B24">
         <v>0.5</v>
@@ -15685,7 +15671,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="I24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K24">
         <f>2*B5</f>
@@ -15700,7 +15686,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B26">
         <f>SUM(C17,C19,C21,C23)</f>
@@ -15711,7 +15697,7 @@
         <v>1019.6</v>
       </c>
       <c r="H26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I26">
         <f>-SUM(H17,H19,H21,H23,H24)</f>
@@ -15724,7 +15710,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B27">
         <f>0.045*280*((B10)^2-(3)^2)</f>
@@ -15737,7 +15723,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B28">
         <f>B26+B27</f>
@@ -15750,14 +15736,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B29">
         <f>B28-355</f>
         <v>1004.8</v>
       </c>
       <c r="C29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E29">
         <f>E28-355</f>
@@ -15766,15 +15752,15 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E33" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/6-1/ITSIT/Trabajo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Máster UPV\2º curso\ITSIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_9F969C7D01730002509DB1C2D8DF9BE1D3ADC0FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33D6F5FC-D604-4C69-81D5-FDBAEFC00409}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="2760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Satellite" sheetId="3" r:id="rId3"/>
     <sheet name="Mast + Tower" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="349">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -686,15 +685,6 @@
     <t>ThermalNoise(dBW)</t>
   </si>
   <si>
-    <t>Margen (dB)</t>
-  </si>
-  <si>
-    <t>Temp ambiente (K)</t>
-  </si>
-  <si>
-    <t>PIRE (dBW)</t>
-  </si>
-  <si>
     <t>L_fs (dB)</t>
   </si>
   <si>
@@ -707,9 +697,6 @@
     <t>C/N (dB) DVB-S</t>
   </si>
   <si>
-    <t>Gain dish antenna (dB)</t>
-  </si>
-  <si>
     <t>lambda (m)</t>
   </si>
   <si>
@@ -830,6 +817,12 @@
     <t>Amplificador input level, Sin (dBuV)</t>
   </si>
   <si>
+    <t>Preguntar que tipo de cable es este para buscar los valores que corresponden</t>
+  </si>
+  <si>
+    <t>Preguntar si los valores de Outdoor cable length son estos (Me tienen que decir Josepe estos valores a que altura estan las antenas estas)</t>
+  </si>
+  <si>
     <t>AMPLIFIER GAIN</t>
   </si>
   <si>
@@ -959,9 +952,6 @@
     <t>AREA EFECTIVA VIENTO EN MASTIL</t>
   </si>
   <si>
-    <t>MOMENTO FLECTOR INSTALACION</t>
-  </si>
-  <si>
     <t>Carga_viento_TDT (N)</t>
   </si>
   <si>
@@ -986,27 +976,12 @@
     <t>Carga_viento_FM (N)</t>
   </si>
   <si>
-    <t>Momento_antenas (N*m)</t>
-  </si>
-  <si>
-    <t>Momento_mastil</t>
-  </si>
-  <si>
-    <t>Momento_total</t>
-  </si>
-  <si>
-    <t>Inecuacion</t>
-  </si>
-  <si>
     <t>Torre Serie 180</t>
   </si>
   <si>
     <t>Tramo superior</t>
   </si>
   <si>
-    <t xml:space="preserve"> Es mayor la de antenas, no sirve</t>
-  </si>
-  <si>
     <t>Mástil</t>
   </si>
   <si>
@@ -1034,18 +1009,6 @@
     <t>https://www.televes.com/es/3010-mastil-3m-x-o-45mm-x-espesor-2mm.html</t>
   </si>
   <si>
-    <t>Fuerzas laterales (igual a carga_viento)</t>
-  </si>
-  <si>
-    <t>Fuerza total (en sentido opuesto)</t>
-  </si>
-  <si>
-    <t>Carga viento al propio mastil tambien suma</t>
-  </si>
-  <si>
-    <t>Fuerzas verticales (según diapositivas he aproximado los pesos de cada antena)</t>
-  </si>
-  <si>
     <t>Pin (dBW)</t>
   </si>
   <si>
@@ -1055,28 +1018,82 @@
     <t>Vin_log (dBuV)</t>
   </si>
   <si>
-    <t>G_IF</t>
-  </si>
-  <si>
     <t>D (m)</t>
   </si>
   <si>
-    <t>C/N</t>
-  </si>
-  <si>
-    <t>Prx</t>
+    <t>Prx (dBW)</t>
+  </si>
+  <si>
+    <t>C/N (dB)</t>
+  </si>
+  <si>
+    <t>G_IF (dB)</t>
+  </si>
+  <si>
+    <t>Momentos antenas (Nm)</t>
+  </si>
+  <si>
+    <t>Ma&gt;Mtotal-Mmastil</t>
+  </si>
+  <si>
+    <t>Ma&lt;Mtotal-Mmastil</t>
+  </si>
+  <si>
+    <t>MOMENTO FLECTOR  MASTIL</t>
+  </si>
+  <si>
+    <t>AREA EFECTIVA EN TORRE-MASTIL</t>
+  </si>
+  <si>
+    <t>Gain dish antenna(dB)</t>
+  </si>
+  <si>
+    <t>Temp (K)</t>
+  </si>
+  <si>
+    <t>Margin (dB)</t>
+  </si>
+  <si>
+    <t>EIRP (dBW)</t>
+  </si>
+  <si>
+    <t>MOMENTO FLECTOR TORRETA-MASTIL*</t>
+  </si>
+  <si>
+    <t>F_horizontal</t>
+  </si>
+  <si>
+    <t>F_vertical</t>
+  </si>
+  <si>
+    <t>Distancia_suelo_cargas (m)</t>
+  </si>
+  <si>
+    <t>Momento_antenas (Nm)</t>
+  </si>
+  <si>
+    <t>Momento_mastil (Nm)</t>
+  </si>
+  <si>
+    <t>Momento_total (Nm)</t>
+  </si>
+  <si>
+    <t>Inecuacion (Nm)</t>
+  </si>
+  <si>
+    <t>Fuerzas laterales (N)</t>
+  </si>
+  <si>
+    <t>Fuerzas verticales (N)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1149,13 +1166,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,8 +1287,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1982,12 +2017,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2276,9 +2359,6 @@
     <xf numFmtId="11" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2392,14 +2472,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2416,10 +2501,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2435,9 +2516,85 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2760,25 +2917,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O308"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G308" sqref="G308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="56.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2810,7 +2967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2819,13 +2976,13 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
@@ -2860,7 +3017,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2895,7 +3052,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2930,7 +3087,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2965,8 +3122,8 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
@@ -2977,7 +3134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -3011,7 +3168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>74</v>
       </c>
@@ -3045,7 +3202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
@@ -3077,7 +3234,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>65</v>
       </c>
@@ -3109,16 +3266,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="53" t="s">
         <v>58</v>
       </c>
@@ -3150,7 +3307,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="54" t="s">
         <v>159</v>
       </c>
@@ -3197,7 +3354,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="55" t="s">
         <v>158</v>
       </c>
@@ -3241,7 +3398,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="55" t="s">
         <v>157</v>
       </c>
@@ -3285,7 +3442,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="55" t="s">
         <v>187</v>
       </c>
@@ -3329,7 +3486,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="56" t="s">
         <v>156</v>
       </c>
@@ -3373,12 +3530,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="52"/>
       <c r="N24" s="91"/>
       <c r="O24" s="91"/>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="54" t="s">
         <v>155</v>
       </c>
@@ -3425,7 +3582,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="55" t="s">
         <v>154</v>
       </c>
@@ -3469,7 +3626,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="55" t="s">
         <v>153</v>
       </c>
@@ -3513,7 +3670,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="55" t="s">
         <v>188</v>
       </c>
@@ -3557,7 +3714,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="56" t="s">
         <v>152</v>
       </c>
@@ -3601,12 +3758,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="52"/>
       <c r="N30" s="91"/>
       <c r="O30" s="91"/>
     </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="54" t="s">
         <v>127</v>
       </c>
@@ -3653,7 +3810,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="55" t="s">
         <v>126</v>
       </c>
@@ -3697,7 +3854,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="55" t="s">
         <v>125</v>
       </c>
@@ -3742,7 +3899,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="55" t="s">
         <v>124</v>
       </c>
@@ -3786,7 +3943,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="55" t="s">
         <v>194</v>
       </c>
@@ -3830,7 +3987,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="56" t="s">
         <v>123</v>
       </c>
@@ -3874,12 +4031,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="52"/>
       <c r="N37" s="91"/>
       <c r="O37" s="91"/>
     </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="54" t="s">
         <v>122</v>
       </c>
@@ -3926,7 +4083,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="55" t="s">
         <v>121</v>
       </c>
@@ -3970,7 +4127,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="55" t="s">
         <v>120</v>
       </c>
@@ -4014,7 +4171,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="55" t="s">
         <v>119</v>
       </c>
@@ -4058,7 +4215,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="55" t="s">
         <v>194</v>
       </c>
@@ -4102,7 +4259,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="56" t="s">
         <v>118</v>
       </c>
@@ -4146,12 +4303,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="52"/>
       <c r="N44" s="91"/>
       <c r="O44" s="91"/>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="54" t="s">
         <v>151</v>
       </c>
@@ -4198,7 +4355,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="55" t="s">
         <v>150</v>
       </c>
@@ -4242,7 +4399,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="55" t="s">
         <v>149</v>
       </c>
@@ -4286,7 +4443,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="55" t="s">
         <v>189</v>
       </c>
@@ -4330,7 +4487,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="56" t="s">
         <v>148</v>
       </c>
@@ -4374,12 +4531,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="52"/>
       <c r="N50" s="91"/>
       <c r="O50" s="91"/>
     </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="54" t="s">
         <v>147</v>
       </c>
@@ -4426,7 +4583,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="55" t="s">
         <v>146</v>
       </c>
@@ -4470,7 +4627,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="55" t="s">
         <v>145</v>
       </c>
@@ -4514,7 +4671,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="55" t="s">
         <v>190</v>
       </c>
@@ -4558,7 +4715,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="56" t="s">
         <v>144</v>
       </c>
@@ -4602,12 +4759,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="52"/>
       <c r="N56" s="91"/>
       <c r="O56" s="91"/>
     </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="54" t="s">
         <v>117</v>
       </c>
@@ -4654,7 +4811,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="55" t="s">
         <v>116</v>
       </c>
@@ -4698,7 +4855,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="55" t="s">
         <v>115</v>
       </c>
@@ -4742,7 +4899,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="55" t="s">
         <v>114</v>
       </c>
@@ -4786,7 +4943,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="55" t="s">
         <v>195</v>
       </c>
@@ -4830,7 +4987,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="56" t="s">
         <v>113</v>
       </c>
@@ -4874,12 +5031,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="52"/>
       <c r="N63" s="91"/>
       <c r="O63" s="91"/>
     </row>
-    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="54" t="s">
         <v>112</v>
       </c>
@@ -4926,7 +5083,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="55" t="s">
         <v>111</v>
       </c>
@@ -4970,7 +5127,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="55" t="s">
         <v>110</v>
       </c>
@@ -5014,7 +5171,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="55" t="s">
         <v>109</v>
       </c>
@@ -5058,7 +5215,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="55" t="s">
         <v>194</v>
       </c>
@@ -5102,7 +5259,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="56" t="s">
         <v>108</v>
       </c>
@@ -5146,12 +5303,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="52"/>
       <c r="N70" s="91"/>
       <c r="O70" s="91"/>
     </row>
-    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="54" t="s">
         <v>143</v>
       </c>
@@ -5198,7 +5355,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="55" t="s">
         <v>142</v>
       </c>
@@ -5242,7 +5399,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="55" t="s">
         <v>141</v>
       </c>
@@ -5286,7 +5443,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="55" t="s">
         <v>140</v>
       </c>
@@ -5330,7 +5487,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="56" t="s">
         <v>139</v>
       </c>
@@ -5374,12 +5531,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="52"/>
       <c r="N76" s="91"/>
       <c r="O76" s="91"/>
     </row>
-    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="54" t="s">
         <v>138</v>
       </c>
@@ -5426,7 +5583,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="55" t="s">
         <v>137</v>
       </c>
@@ -5470,7 +5627,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="55" t="s">
         <v>136</v>
       </c>
@@ -5514,7 +5671,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="55" t="s">
         <v>191</v>
       </c>
@@ -5558,7 +5715,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="56" t="s">
         <v>135</v>
       </c>
@@ -5602,12 +5759,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="52"/>
       <c r="N82" s="91"/>
       <c r="O82" s="91"/>
     </row>
-    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="54" t="s">
         <v>107</v>
       </c>
@@ -5654,7 +5811,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="55" t="s">
         <v>106</v>
       </c>
@@ -5698,7 +5855,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="55" t="s">
         <v>105</v>
       </c>
@@ -5746,7 +5903,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="55" t="s">
         <v>104</v>
       </c>
@@ -5794,7 +5951,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="55" t="s">
         <v>196</v>
       </c>
@@ -5842,7 +5999,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="56" t="s">
         <v>103</v>
       </c>
@@ -5890,7 +6047,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="52"/>
       <c r="B89" s="52"/>
       <c r="C89" s="52"/>
@@ -5906,7 +6063,7 @@
       <c r="N89" s="91"/>
       <c r="O89" s="91"/>
     </row>
-    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="54" t="s">
         <v>102</v>
       </c>
@@ -5956,7 +6113,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="55" t="s">
         <v>101</v>
       </c>
@@ -6004,7 +6161,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="55" t="s">
         <v>100</v>
       </c>
@@ -6048,7 +6205,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="55" t="s">
         <v>99</v>
       </c>
@@ -6092,7 +6249,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="55" t="s">
         <v>196</v>
       </c>
@@ -6136,7 +6293,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="56" t="s">
         <v>98</v>
       </c>
@@ -6180,11 +6337,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N96" s="92"/>
       <c r="O96" s="92"/>
     </row>
-    <row r="97" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="54" t="s">
         <v>134</v>
       </c>
@@ -6231,7 +6388,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="55" t="s">
         <v>133</v>
       </c>
@@ -6275,7 +6432,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="55" t="s">
         <v>132</v>
       </c>
@@ -6319,7 +6476,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="55" t="s">
         <v>192</v>
       </c>
@@ -6363,7 +6520,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="56" t="s">
         <v>131</v>
       </c>
@@ -6407,11 +6564,11 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N102" s="92"/>
       <c r="O102" s="92"/>
     </row>
-    <row r="103" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="54" t="s">
         <v>130</v>
       </c>
@@ -6458,7 +6615,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="55" t="s">
         <v>129</v>
       </c>
@@ -6502,7 +6659,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="55" t="s">
         <v>128</v>
       </c>
@@ -6546,7 +6703,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="55" t="s">
         <v>193</v>
       </c>
@@ -6590,7 +6747,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="56" t="s">
         <v>97</v>
       </c>
@@ -6634,11 +6791,11 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N108" s="92"/>
       <c r="O108" s="92"/>
     </row>
-    <row r="109" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="54" t="s">
         <v>96</v>
       </c>
@@ -6685,7 +6842,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="55" t="s">
         <v>95</v>
       </c>
@@ -6729,7 +6886,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="55" t="s">
         <v>94</v>
       </c>
@@ -6773,7 +6930,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="55" t="s">
         <v>93</v>
       </c>
@@ -6817,7 +6974,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="55" t="s">
         <v>197</v>
       </c>
@@ -6861,7 +7018,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="56" t="s">
         <v>92</v>
       </c>
@@ -6905,11 +7062,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="115" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N115" s="92"/>
       <c r="O115" s="92"/>
     </row>
-    <row r="116" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="54" t="s">
         <v>91</v>
       </c>
@@ -6956,7 +7113,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="117" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="55" t="s">
         <v>90</v>
       </c>
@@ -7000,7 +7157,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="55" t="s">
         <v>89</v>
       </c>
@@ -7044,7 +7201,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="55" t="s">
         <v>88</v>
       </c>
@@ -7088,7 +7245,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="55" t="s">
         <v>197</v>
       </c>
@@ -7132,7 +7289,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="56" t="s">
         <v>87</v>
       </c>
@@ -7176,11 +7333,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N122" s="92"/>
       <c r="O122" s="92"/>
     </row>
-    <row r="123" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="54" t="s">
         <v>62</v>
       </c>
@@ -7227,7 +7384,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="55" t="s">
         <v>63</v>
       </c>
@@ -7274,7 +7431,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="56" t="s">
         <v>64</v>
       </c>
@@ -7319,7 +7476,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="126" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -7332,7 +7489,7 @@
       <c r="K126"/>
       <c r="L126"/>
     </row>
-    <row r="127" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -7345,7 +7502,7 @@
       <c r="K127"/>
       <c r="L127"/>
     </row>
-    <row r="128" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -7358,7 +7515,7 @@
       <c r="K128"/>
       <c r="L128"/>
     </row>
-    <row r="129" spans="1:13" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="64" t="s">
         <v>10</v>
       </c>
@@ -7378,7 +7535,7 @@
       <c r="K129"/>
       <c r="L129"/>
     </row>
-    <row r="130" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="26" t="s">
         <v>13</v>
       </c>
@@ -7413,7 +7570,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="27" t="s">
         <v>20</v>
       </c>
@@ -7450,7 +7607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="24"/>
       <c r="B132" s="22" t="s">
         <v>36</v>
@@ -7485,7 +7642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="36" t="s">
         <v>34</v>
       </c>
@@ -7520,7 +7677,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="37"/>
       <c r="B134" s="35" t="s">
         <v>38</v>
@@ -7553,7 +7710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="38" t="s">
         <v>39</v>
       </c>
@@ -7588,7 +7745,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="39"/>
       <c r="B136" s="35" t="s">
         <v>41</v>
@@ -7621,7 +7778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="38" t="s">
         <v>42</v>
       </c>
@@ -7656,7 +7813,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="39"/>
       <c r="B138" s="35" t="s">
         <v>44</v>
@@ -7689,7 +7846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="38" t="s">
         <v>24</v>
       </c>
@@ -7724,7 +7881,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="39"/>
       <c r="B140" s="35" t="s">
         <v>14</v>
@@ -7757,7 +7914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="38" t="s">
         <v>27</v>
       </c>
@@ -7792,7 +7949,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="39"/>
       <c r="B142" s="35" t="s">
         <v>26</v>
@@ -7825,8 +7982,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="145" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="145" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="12" t="s">
         <v>15</v>
       </c>
@@ -7834,7 +7991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="33" t="s">
         <v>29</v>
       </c>
@@ -7850,7 +8007,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="47" t="s">
         <v>56</v>
       </c>
@@ -7888,7 +8045,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="48"/>
       <c r="B148" s="35" t="s">
         <v>36</v>
@@ -7921,7 +8078,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="33" t="s">
         <v>29</v>
       </c>
@@ -7965,7 +8122,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="47" t="s">
         <v>34</v>
       </c>
@@ -8003,7 +8160,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="25"/>
       <c r="B151" s="35" t="s">
         <v>38</v>
@@ -8036,7 +8193,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="33" t="s">
         <v>29</v>
       </c>
@@ -8080,7 +8237,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="47" t="s">
         <v>34</v>
       </c>
@@ -8118,7 +8275,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="48"/>
       <c r="B154" s="35" t="s">
         <v>38</v>
@@ -8152,7 +8309,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="33" t="s">
         <v>29</v>
       </c>
@@ -8196,7 +8353,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="47" t="s">
         <v>39</v>
       </c>
@@ -8234,7 +8391,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="34"/>
       <c r="B157" s="35" t="s">
         <v>41</v>
@@ -8268,7 +8425,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="33" t="s">
         <v>29</v>
       </c>
@@ -8312,7 +8469,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="47" t="s">
         <v>27</v>
       </c>
@@ -8350,7 +8507,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="48"/>
       <c r="B160" s="35" t="s">
         <v>26</v>
@@ -8384,7 +8541,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="33" t="s">
         <v>17</v>
       </c>
@@ -8428,7 +8585,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="74" t="s">
         <v>16</v>
       </c>
@@ -8462,8 +8619,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="166" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="166" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="13" t="s">
         <v>19</v>
       </c>
@@ -8495,7 +8652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="54" t="s">
         <v>86</v>
       </c>
@@ -8536,7 +8693,7 @@
         <v>9.625</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="55" t="s">
         <v>85</v>
       </c>
@@ -8577,7 +8734,7 @@
         <v>9.2850000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="56" t="s">
         <v>84</v>
       </c>
@@ -8618,8 +8775,8 @@
         <v>10.129999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="171" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="171" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="54" t="s">
         <v>159</v>
       </c>
@@ -8660,7 +8817,7 @@
         <v>9.5350000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="55" t="s">
         <v>158</v>
       </c>
@@ -8701,7 +8858,7 @@
         <v>9.1900000000000013</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="55" t="s">
         <v>157</v>
       </c>
@@ -8742,7 +8899,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="55" t="s">
         <v>160</v>
       </c>
@@ -8783,7 +8940,7 @@
         <v>7.2350000000000003</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="56" t="s">
         <v>156</v>
       </c>
@@ -8824,10 +8981,10 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="52"/>
     </row>
-    <row r="177" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="54" t="s">
         <v>155</v>
       </c>
@@ -8868,7 +9025,7 @@
         <v>9.5350000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="55" t="s">
         <v>154</v>
       </c>
@@ -8909,7 +9066,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="55" t="s">
         <v>153</v>
       </c>
@@ -8950,7 +9107,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="55" t="s">
         <v>161</v>
       </c>
@@ -8991,7 +9148,7 @@
         <v>7.2350000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="56" t="s">
         <v>152</v>
       </c>
@@ -9032,10 +9189,10 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="52"/>
     </row>
-    <row r="183" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="54" t="s">
         <v>127</v>
       </c>
@@ -9076,7 +9233,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="55" t="s">
         <v>126</v>
       </c>
@@ -9117,7 +9274,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="55" t="s">
         <v>125</v>
       </c>
@@ -9158,7 +9315,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="55" t="s">
         <v>124</v>
       </c>
@@ -9199,7 +9356,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="55" t="s">
         <v>162</v>
       </c>
@@ -9240,7 +9397,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="56" t="s">
         <v>123</v>
       </c>
@@ -9281,10 +9438,10 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="52"/>
     </row>
-    <row r="190" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="54" t="s">
         <v>122</v>
       </c>
@@ -9325,7 +9482,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="55" t="s">
         <v>121</v>
       </c>
@@ -9366,7 +9523,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="55" t="s">
         <v>120</v>
       </c>
@@ -9407,7 +9564,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="55" t="s">
         <v>119</v>
       </c>
@@ -9448,7 +9605,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="55" t="s">
         <v>162</v>
       </c>
@@ -9489,7 +9646,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="56" t="s">
         <v>118</v>
       </c>
@@ -9530,10 +9687,10 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="52"/>
     </row>
-    <row r="197" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="54" t="s">
         <v>151</v>
       </c>
@@ -9574,7 +9731,7 @@
         <v>8.7349999999999994</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="55" t="s">
         <v>150</v>
       </c>
@@ -9615,7 +9772,7 @@
         <v>8.39</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="55" t="s">
         <v>149</v>
       </c>
@@ -9656,7 +9813,7 @@
         <v>7.9300000000000006</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="55" t="s">
         <v>163</v>
       </c>
@@ -9697,7 +9854,7 @@
         <v>6.4350000000000005</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="56" t="s">
         <v>148</v>
       </c>
@@ -9738,10 +9895,10 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="52"/>
     </row>
-    <row r="203" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="54" t="s">
         <v>147</v>
       </c>
@@ -9782,7 +9939,7 @@
         <v>8.7349999999999994</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="55" t="s">
         <v>146</v>
       </c>
@@ -9823,7 +9980,7 @@
         <v>7.9300000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="55" t="s">
         <v>145</v>
       </c>
@@ -9864,7 +10021,7 @@
         <v>7.9300000000000006</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="55" t="s">
         <v>164</v>
       </c>
@@ -9905,7 +10062,7 @@
         <v>6.4350000000000005</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="56" t="s">
         <v>144</v>
       </c>
@@ -9946,10 +10103,10 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="52"/>
     </row>
-    <row r="209" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="54" t="s">
         <v>117</v>
       </c>
@@ -9990,7 +10147,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="55" t="s">
         <v>116</v>
       </c>
@@ -10031,7 +10188,7 @@
         <v>9.77</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="55" t="s">
         <v>115</v>
       </c>
@@ -10072,7 +10229,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="55" t="s">
         <v>114</v>
       </c>
@@ -10113,7 +10270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="55" t="s">
         <v>165</v>
       </c>
@@ -10154,7 +10311,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="56" t="s">
         <v>113</v>
       </c>
@@ -10195,10 +10352,10 @@
         <v>6.5500000000000007</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="52"/>
     </row>
-    <row r="216" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="54" t="s">
         <v>112</v>
       </c>
@@ -10239,7 +10396,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="55" t="s">
         <v>111</v>
       </c>
@@ -10280,7 +10437,7 @@
         <v>9.77</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="55" t="s">
         <v>110</v>
       </c>
@@ -10321,7 +10478,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="55" t="s">
         <v>109</v>
       </c>
@@ -10362,7 +10519,7 @@
         <v>9.77</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="55" t="s">
         <v>165</v>
       </c>
@@ -10403,7 +10560,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="56" t="s">
         <v>108</v>
       </c>
@@ -10444,10 +10601,10 @@
         <v>6.5500000000000007</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="52"/>
     </row>
-    <row r="223" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="54" t="s">
         <v>143</v>
       </c>
@@ -10488,7 +10645,7 @@
         <v>7.9350000000000005</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="55" t="s">
         <v>142</v>
       </c>
@@ -10529,7 +10686,7 @@
         <v>7.59</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="55" t="s">
         <v>141</v>
       </c>
@@ -10570,7 +10727,7 @@
         <v>7.1300000000000008</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="55" t="s">
         <v>140</v>
       </c>
@@ -10611,7 +10768,7 @@
         <v>5.6349999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="56" t="s">
         <v>139</v>
       </c>
@@ -10652,10 +10809,10 @@
         <v>7.3599999999999994</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="52"/>
     </row>
-    <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="54" t="s">
         <v>138</v>
       </c>
@@ -10696,7 +10853,7 @@
         <v>7.9350000000000005</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="55" t="s">
         <v>137</v>
       </c>
@@ -10737,7 +10894,7 @@
         <v>7.1300000000000008</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="55" t="s">
         <v>136</v>
       </c>
@@ -10778,7 +10935,7 @@
         <v>7.1300000000000008</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="55" t="s">
         <v>166</v>
       </c>
@@ -10819,7 +10976,7 @@
         <v>5.6349999999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="56" t="s">
         <v>135</v>
       </c>
@@ -10860,10 +11017,10 @@
         <v>7.3599999999999994</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="52"/>
     </row>
-    <row r="235" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="54" t="s">
         <v>107</v>
       </c>
@@ -10904,7 +11061,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="55" t="s">
         <v>106</v>
       </c>
@@ -10945,7 +11102,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="55" t="s">
         <v>105</v>
       </c>
@@ -10986,7 +11143,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="55" t="s">
         <v>104</v>
       </c>
@@ -11027,7 +11184,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="55" t="s">
         <v>167</v>
       </c>
@@ -11068,7 +11225,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="56" t="s">
         <v>103</v>
       </c>
@@ -11109,10 +11266,10 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="52"/>
     </row>
-    <row r="242" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="54" t="s">
         <v>102</v>
       </c>
@@ -11153,7 +11310,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="55" t="s">
         <v>101</v>
       </c>
@@ -11194,7 +11351,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="55" t="s">
         <v>100</v>
       </c>
@@ -11235,7 +11392,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="55" t="s">
         <v>99</v>
       </c>
@@ -11276,7 +11433,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="55" t="s">
         <v>167</v>
       </c>
@@ -11317,7 +11474,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="56" t="s">
         <v>98</v>
       </c>
@@ -11358,10 +11515,10 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="52"/>
     </row>
-    <row r="249" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="54" t="s">
         <v>134</v>
       </c>
@@ -11402,7 +11559,7 @@
         <v>7.1349999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="55" t="s">
         <v>133</v>
       </c>
@@ -11443,7 +11600,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="55" t="s">
         <v>132</v>
       </c>
@@ -11484,7 +11641,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="55" t="s">
         <v>168</v>
       </c>
@@ -11525,7 +11682,7 @@
         <v>4.835</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="56" t="s">
         <v>131</v>
       </c>
@@ -11566,10 +11723,10 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="52"/>
     </row>
-    <row r="255" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="54" t="s">
         <v>130</v>
       </c>
@@ -11610,7 +11767,7 @@
         <v>7.1349999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="55" t="s">
         <v>129</v>
       </c>
@@ -11651,7 +11808,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="55" t="s">
         <v>128</v>
       </c>
@@ -11692,7 +11849,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="55" t="s">
         <v>169</v>
       </c>
@@ -11733,7 +11890,7 @@
         <v>4.835</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="56" t="s">
         <v>97</v>
       </c>
@@ -11774,10 +11931,10 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="52"/>
     </row>
-    <row r="261" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="54" t="s">
         <v>96</v>
       </c>
@@ -11818,7 +11975,7 @@
         <v>6.1000000000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="55" t="s">
         <v>95</v>
       </c>
@@ -11859,7 +12016,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263" s="55" t="s">
         <v>94</v>
       </c>
@@ -11900,7 +12057,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="55" t="s">
         <v>93</v>
       </c>
@@ -11941,7 +12098,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="55" t="s">
         <v>170</v>
       </c>
@@ -11982,7 +12139,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266" s="56" t="s">
         <v>92</v>
       </c>
@@ -12023,10 +12180,10 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="52"/>
     </row>
-    <row r="268" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="54" t="s">
         <v>91</v>
       </c>
@@ -12067,7 +12224,7 @@
         <v>6.1000000000000005</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="55" t="s">
         <v>90</v>
       </c>
@@ -12108,7 +12265,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="55" t="s">
         <v>89</v>
       </c>
@@ -12149,7 +12306,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="55" t="s">
         <v>88</v>
       </c>
@@ -12190,7 +12347,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="55" t="s">
         <v>170</v>
       </c>
@@ -12231,7 +12388,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="56" t="s">
         <v>87</v>
       </c>
@@ -12272,11 +12429,11 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" s="52"/>
     </row>
-    <row r="275" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="276" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="276" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" s="54" t="s">
         <v>77</v>
       </c>
@@ -12317,7 +12474,7 @@
         <v>4.835</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277" s="56" t="s">
         <v>78</v>
       </c>
@@ -12358,8 +12515,8 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="280" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="280" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280" s="80" t="s">
         <v>79</v>
       </c>
@@ -12374,7 +12531,7 @@
       <c r="H280" s="199"/>
       <c r="I280" s="200"/>
     </row>
-    <row r="281" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="81" t="s">
         <v>83</v>
       </c>
@@ -12397,7 +12554,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" s="79" t="s">
         <v>80</v>
       </c>
@@ -12426,7 +12583,7 @@
         <v>2.8019999999999996</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="78" t="s">
         <v>81</v>
       </c>
@@ -12455,7 +12612,7 @@
         <v>4.2000000000000028</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="78" t="s">
         <v>82</v>
       </c>
@@ -12484,16 +12641,16 @@
         <v>19.460000000000008</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="287" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="287" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C287" s="114" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D287" s="114" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" s="114" t="s">
         <v>172</v>
       </c>
@@ -12506,7 +12663,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C289" s="83" t="s">
         <v>171</v>
       </c>
@@ -12514,36 +12671,36 @@
         <v>171</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="291" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="291" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A291" s="114" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" s="78" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C293" s="128" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C293" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="D293" s="129" t="s">
+      <c r="D293" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="E293" s="129" t="s">
-        <v>231</v>
-      </c>
-      <c r="F293" s="130" t="s">
+      <c r="E293" s="128" t="s">
+        <v>227</v>
+      </c>
+      <c r="F293" s="129" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="125" t="s">
-        <v>232</v>
-      </c>
-      <c r="C294" s="131">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A294" s="124" t="s">
+        <v>228</v>
+      </c>
+      <c r="C294" s="130">
         <v>40</v>
       </c>
       <c r="D294" s="115">
@@ -12552,102 +12709,102 @@
       <c r="E294" s="115">
         <v>47</v>
       </c>
-      <c r="F294" s="132">
+      <c r="F294" s="131">
         <v>47</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="C295" s="133">
+    <row r="295" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A295" s="125" t="s">
+        <v>229</v>
+      </c>
+      <c r="C295" s="132">
         <v>70</v>
       </c>
-      <c r="D295" s="134">
+      <c r="D295" s="133">
         <v>70</v>
       </c>
-      <c r="E295" s="134">
+      <c r="E295" s="133">
         <v>70</v>
       </c>
-      <c r="F295" s="135">
+      <c r="F295" s="134">
         <v>70</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="297" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="127" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="125" t="s">
-        <v>235</v>
-      </c>
-      <c r="C298" s="136">
+    <row r="296" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="297" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A297" s="126" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A298" s="124" t="s">
+        <v>231</v>
+      </c>
+      <c r="C298" s="135">
         <f>MAX(H167:H273)+C294</f>
         <v>84.808999999999997</v>
       </c>
-      <c r="D298" s="137">
+      <c r="D298" s="136">
         <f>MAX(I167:I273)+D294</f>
         <v>75.03</v>
       </c>
-      <c r="E298" s="137">
+      <c r="E298" s="136">
         <f>MAX(K167:K273)+E294</f>
         <v>96.51</v>
       </c>
-      <c r="F298" s="138">
+      <c r="F298" s="137">
         <f>MAX(M167:M273)+F294</f>
         <v>104.52500000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="126" t="s">
-        <v>236</v>
-      </c>
-      <c r="C299" s="139">
+    <row r="299" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A299" s="125" t="s">
+        <v>232</v>
+      </c>
+      <c r="C299" s="138">
         <f>MIN(H167:H273)+C295</f>
         <v>104.16200000000001</v>
       </c>
-      <c r="D299" s="140">
+      <c r="D299" s="139">
         <f>MIN(I167:I273)+D295</f>
         <v>104.675</v>
       </c>
-      <c r="E299" s="140">
+      <c r="E299" s="139">
         <f>MIN(K167:K273)+E295</f>
         <v>106.358</v>
       </c>
-      <c r="F299" s="141">
+      <c r="F299" s="140">
         <f>MIN(M167:M273)+F295</f>
         <v>105.26300000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="301" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="301" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="C301" s="142">
+        <v>233</v>
+      </c>
+      <c r="C301" s="141">
         <f>0.25*C298+0.75*C299</f>
         <v>99.32374999999999</v>
       </c>
-      <c r="D301" s="143">
+      <c r="D301" s="142">
         <f>0.25*D298+0.75*D299</f>
         <v>97.263749999999987</v>
       </c>
-      <c r="E301" s="137">
+      <c r="E301" s="136">
         <f>0.25*E298+0.75*E299</f>
         <v>103.896</v>
       </c>
-      <c r="F301" s="138">
+      <c r="F301" s="137">
         <f>0.25*F298+0.75*F299</f>
         <v>105.07849999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="C302" s="147">
+        <v>234</v>
+      </c>
+      <c r="C302" s="146">
         <v>100</v>
       </c>
       <c r="D302" s="21">
@@ -12656,44 +12813,44 @@
       <c r="E302" s="21">
         <v>104</v>
       </c>
-      <c r="F302" s="148">
+      <c r="F302" s="147">
         <v>105</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A303" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="C303" s="176" t="s">
+        <v>237</v>
+      </c>
+      <c r="D303" s="177" t="s">
+        <v>238</v>
+      </c>
+      <c r="E303" s="177" t="s">
         <v>239</v>
       </c>
-      <c r="C303" s="177" t="s">
-        <v>241</v>
-      </c>
-      <c r="D303" s="178" t="s">
-        <v>242</v>
-      </c>
-      <c r="E303" s="178" t="s">
-        <v>243</v>
-      </c>
-      <c r="F303" s="179" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="127" t="s">
-        <v>288</v>
+      <c r="F303" s="178" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A306" s="126" t="s">
+        <v>286</v>
       </c>
       <c r="C306" s="114" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D306" s="104" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="125" t="s">
-        <v>286</v>
-      </c>
-      <c r="C307" s="180">
+    <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A307" s="124" t="s">
+        <v>284</v>
+      </c>
+      <c r="C307" s="179">
         <f>E302-MAX(G277:K277)</f>
         <v>54.489999999999995</v>
       </c>
@@ -12702,9 +12859,9 @@
         <v>47.474999999999994</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="126" t="s">
-        <v>287</v>
+    <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A308" s="125" t="s">
+        <v>285</v>
       </c>
       <c r="C308" s="60">
         <f>E302-MIN(G276:K276)</f>
@@ -12730,21 +12887,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="76" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="15" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
         <v>47</v>
       </c>
@@ -12762,10 +12919,10 @@
         <v>54</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K1" s="42" t="s">
         <v>66</v>
@@ -12776,14 +12933,14 @@
       <c r="M1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="123" t="s">
+      <c r="N1" s="122" t="s">
         <v>69</v>
       </c>
       <c r="O1" s="45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="44" t="s">
         <v>48</v>
       </c>
@@ -12815,24 +12972,24 @@
       <c r="M2" s="44">
         <v>650</v>
       </c>
-      <c r="N2" s="124">
+      <c r="N2" s="123">
         <v>674</v>
       </c>
       <c r="O2" s="46">
         <v>2150</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="70" t="s">
         <v>53</v>
       </c>
@@ -12866,17 +13023,19 @@
       <c r="O5" s="2">
         <v>0.23</v>
       </c>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P5" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="32"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="70" t="s">
         <v>71</v>
       </c>
@@ -12884,7 +13043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -12892,7 +13051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>73</v>
       </c>
@@ -12918,7 +13077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>203</v>
       </c>
@@ -12926,7 +13085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>204</v>
       </c>
@@ -12934,16 +13093,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="101" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>174</v>
       </c>
@@ -12978,10 +13137,10 @@
         <v>50</v>
       </c>
       <c r="Q16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>175</v>
       </c>
@@ -13016,7 +13175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>176</v>
       </c>
@@ -13051,7 +13210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>177</v>
       </c>
@@ -13086,7 +13245,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>178</v>
       </c>
@@ -13121,13 +13280,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="101" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>174</v>
       </c>
@@ -13153,7 +13312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>175</v>
       </c>
@@ -13179,7 +13338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>176</v>
       </c>
@@ -13205,7 +13364,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>180</v>
       </c>
@@ -13231,7 +13390,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>178</v>
       </c>
@@ -13257,13 +13416,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="105" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="107" t="s">
         <v>182</v>
       </c>
@@ -13295,7 +13454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="107" t="s">
         <v>183</v>
       </c>
@@ -13326,10 +13485,10 @@
       <c r="N33" s="106">
         <v>15</v>
       </c>
-      <c r="O33" s="182"/>
-      <c r="P33" s="186"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O33" s="181"/>
+      <c r="P33" s="187"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="107" t="s">
         <v>184</v>
       </c>
@@ -13370,7 +13529,7 @@
         <v>60.0331979307064</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="107" t="s">
         <v>185</v>
       </c>
@@ -13402,7 +13561,7 @@
         <v>60.73</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="109" t="s">
         <v>186</v>
       </c>
@@ -13434,73 +13593,73 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="128" t="s">
-        <v>249</v>
-      </c>
-      <c r="D39" s="130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="127" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="125" t="s">
+    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="127" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="F41" s="160">
+    </row>
+    <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="126" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" s="159">
         <f>Network!C302</f>
         <v>100</v>
       </c>
-      <c r="G41" s="161">
+      <c r="G41" s="160">
         <f>Network!D302</f>
         <v>98</v>
       </c>
-      <c r="H41" s="162">
+      <c r="H41" s="161">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="I41" s="162">
+      <c r="I41" s="161">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="J41" s="162">
+      <c r="J41" s="161">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="K41" s="162">
+      <c r="K41" s="161">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="L41" s="162">
+      <c r="L41" s="161">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="M41" s="162">
+      <c r="M41" s="161">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="N41" s="162">
+      <c r="N41" s="161">
         <f>Network!E302</f>
         <v>104</v>
       </c>
-      <c r="O41" s="163">
+      <c r="O41" s="162">
         <f>Network!F302</f>
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="150" t="s">
-        <v>247</v>
-      </c>
-      <c r="F42" s="147">
+    <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="149" t="s">
+        <v>243</v>
+      </c>
+      <c r="F42" s="146">
         <v>8</v>
       </c>
-      <c r="G42" s="158">
+      <c r="G42" s="157">
         <v>7</v>
       </c>
       <c r="H42" s="21">
@@ -13524,25 +13683,25 @@
       <c r="N42" s="21">
         <v>0</v>
       </c>
-      <c r="O42" s="148">
+      <c r="O42" s="147">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="150" t="s">
-        <v>248</v>
-      </c>
-      <c r="C43" s="145">
+    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="149" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="144">
         <v>0.3</v>
       </c>
-      <c r="D43" s="146">
+      <c r="D43" s="145">
         <v>0.5</v>
       </c>
-      <c r="F43" s="147">
+      <c r="F43" s="146">
         <f>F42*C43</f>
         <v>2.4</v>
       </c>
-      <c r="G43" s="158">
+      <c r="G43" s="157">
         <f>G42*C43</f>
         <v>2.1</v>
       </c>
@@ -13574,20 +13733,20 @@
         <f>N42*D43</f>
         <v>0</v>
       </c>
-      <c r="O43" s="148">
+      <c r="O43" s="147">
         <f>O42*D43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="156" t="s">
-        <v>251</v>
-      </c>
-      <c r="F44" s="167">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="155" t="s">
+        <v>247</v>
+      </c>
+      <c r="F44" s="166">
         <f t="shared" ref="F44:O44" si="1">F41+F43</f>
         <v>102.4</v>
       </c>
-      <c r="G44" s="168">
+      <c r="G44" s="167">
         <f t="shared" si="1"/>
         <v>100.1</v>
       </c>
@@ -13619,194 +13778,188 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="O44" s="169">
+      <c r="O44" s="168">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="150" t="s">
-        <v>252</v>
-      </c>
-      <c r="F45" s="157">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="149" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="156">
         <f>F19-F87</f>
         <v>99.032015015757835</v>
       </c>
-      <c r="G45" s="159">
+      <c r="G45" s="158">
         <f t="shared" ref="G45:O45" si="2">G19-G87</f>
         <v>101.17931555708239</v>
       </c>
-      <c r="H45" s="152">
+      <c r="H45" s="151">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="I45" s="152">
+      <c r="I45" s="151">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="J45" s="152">
+      <c r="J45" s="151">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K45" s="152">
+      <c r="K45" s="151">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="L45" s="152">
+      <c r="L45" s="151">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="M45" s="152">
+      <c r="M45" s="151">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="N45" s="152">
+      <c r="N45" s="151">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="O45" s="155">
+      <c r="O45" s="154">
         <f t="shared" si="2"/>
         <v>113.03201501575784</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="126" t="s">
-        <v>253</v>
-      </c>
-      <c r="F46" s="164" t="str">
+    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="125" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46" s="163" t="str">
         <f t="shared" ref="F46:O46" si="3">IF(F44&lt;=(F19-F87),"OK","NO")</f>
         <v>NO</v>
       </c>
-      <c r="G46" s="165" t="str">
+      <c r="G46" s="164" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="H46" s="165" t="str">
+      <c r="H46" s="164" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="I46" s="165" t="str">
+      <c r="I46" s="164" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="J46" s="165" t="str">
+      <c r="J46" s="164" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="K46" s="165" t="str">
+      <c r="K46" s="164" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="L46" s="165" t="str">
+      <c r="L46" s="164" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="M46" s="165" t="str">
+      <c r="M46" s="164" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="N46" s="170" t="str">
+      <c r="N46" s="169" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="O46" s="166" t="str">
+      <c r="O46" s="165" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="127" t="s">
-        <v>258</v>
-      </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="149" t="s">
-        <v>259</v>
-      </c>
-      <c r="F49" s="136">
-        <v>20</v>
-      </c>
-      <c r="G49" s="137">
-        <f>18+'Mast + Tower'!B20</f>
-        <v>22</v>
-      </c>
-      <c r="H49" s="137">
-        <f>18+'Mast + Tower'!B18</f>
-        <v>24</v>
-      </c>
-      <c r="I49" s="137">
-        <f>18+'Mast + Tower'!B18</f>
-        <v>24</v>
-      </c>
-      <c r="J49" s="137">
-        <f>18+'Mast + Tower'!B18</f>
-        <v>24</v>
-      </c>
-      <c r="K49" s="137">
-        <f>18+'Mast + Tower'!B18</f>
-        <v>24</v>
-      </c>
-      <c r="L49" s="137">
-        <f>18+'Mast + Tower'!B18</f>
-        <v>24</v>
-      </c>
-      <c r="M49" s="137">
-        <f>18+'Mast + Tower'!B18</f>
-        <v>24</v>
-      </c>
-      <c r="N49" s="138">
-        <f>18+'Mast + Tower'!B18</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="150" t="s">
+    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="126" t="s">
+        <v>254</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F50" s="147">
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="148" t="s">
+        <v>255</v>
+      </c>
+      <c r="F49" s="135">
+        <v>6</v>
+      </c>
+      <c r="G49" s="136">
+        <v>8</v>
+      </c>
+      <c r="H49" s="136">
+        <v>8</v>
+      </c>
+      <c r="I49" s="136">
+        <v>8</v>
+      </c>
+      <c r="J49" s="136">
+        <v>8</v>
+      </c>
+      <c r="K49" s="136">
+        <v>8</v>
+      </c>
+      <c r="L49" s="136">
+        <v>8</v>
+      </c>
+      <c r="M49" s="136">
+        <v>8</v>
+      </c>
+      <c r="N49" s="137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="149" t="s">
+        <v>256</v>
+      </c>
+      <c r="F50" s="146">
         <f>F5*F49</f>
-        <v>1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G50" s="21">
         <f>G5*G49</f>
-        <v>1.3199999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="H50" s="21">
         <f>H5*H49</f>
-        <v>2.4000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="I50" s="21">
         <f t="shared" ref="I50:M50" si="4">I5*I49</f>
-        <v>2.4000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J50" s="21">
         <f t="shared" si="4"/>
-        <v>2.4000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K50" s="21">
         <f t="shared" si="4"/>
-        <v>2.64</v>
+        <v>0.88</v>
       </c>
       <c r="L50" s="21">
         <f t="shared" si="4"/>
-        <v>2.64</v>
+        <v>0.88</v>
       </c>
       <c r="M50" s="21">
         <f t="shared" si="4"/>
-        <v>2.64</v>
-      </c>
-      <c r="N50" s="148">
+        <v>0.88</v>
+      </c>
+      <c r="N50" s="147">
         <f>N5*N49</f>
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="150" t="s">
-        <v>247</v>
-      </c>
-      <c r="F51" s="147">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="149" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" s="146">
         <v>8</v>
       </c>
       <c r="G51" s="21">
@@ -13830,21 +13983,21 @@
       <c r="M51" s="21">
         <v>1</v>
       </c>
-      <c r="N51" s="148">
+      <c r="N51" s="147">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="150" t="s">
-        <v>248</v>
-      </c>
-      <c r="C52" s="145">
+    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="149" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="144">
         <v>0.3</v>
       </c>
-      <c r="D52" s="146">
+      <c r="D52" s="145">
         <v>0.5</v>
       </c>
-      <c r="F52" s="147">
+      <c r="F52" s="146">
         <f>C52*F51</f>
         <v>2.4</v>
       </c>
@@ -13876,238 +14029,238 @@
         <f>D52*M51</f>
         <v>0.5</v>
       </c>
-      <c r="N52" s="148">
+      <c r="N52" s="147">
         <f>D52*N51</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="150" t="s">
-        <v>261</v>
-      </c>
-      <c r="F53" s="147">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" s="149" t="s">
+        <v>257</v>
+      </c>
+      <c r="F53" s="146">
         <f t="shared" ref="F53:N53" si="5">F52+F50</f>
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="G53" s="21">
         <f t="shared" si="5"/>
-        <v>3.42</v>
+        <v>2.58</v>
       </c>
       <c r="H53" s="21">
         <f t="shared" si="5"/>
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="I53" s="21">
         <f t="shared" si="5"/>
-        <v>4.9000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="J53" s="21">
         <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
+        <v>2.8</v>
       </c>
       <c r="K53" s="21">
         <f t="shared" si="5"/>
-        <v>4.1400000000000006</v>
+        <v>2.38</v>
       </c>
       <c r="L53" s="21">
         <f t="shared" si="5"/>
-        <v>3.64</v>
+        <v>1.88</v>
       </c>
       <c r="M53" s="21">
         <f t="shared" si="5"/>
-        <v>3.14</v>
-      </c>
-      <c r="N53" s="148">
+        <v>1.38</v>
+      </c>
+      <c r="N53" s="147">
         <f t="shared" si="5"/>
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="151" t="s">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="150" t="s">
+        <v>258</v>
+      </c>
+      <c r="F54" s="138">
+        <f t="shared" ref="F54:N54" si="6">F32-F53</f>
+        <v>67.3</v>
+      </c>
+      <c r="G54" s="139">
+        <f t="shared" si="6"/>
+        <v>55.42</v>
+      </c>
+      <c r="H54" s="139">
+        <f t="shared" si="6"/>
+        <v>46.2</v>
+      </c>
+      <c r="I54" s="139">
+        <f t="shared" si="6"/>
+        <v>46.7</v>
+      </c>
+      <c r="J54" s="139">
+        <f t="shared" si="6"/>
+        <v>47.2</v>
+      </c>
+      <c r="K54" s="139">
+        <f t="shared" si="6"/>
+        <v>47.62</v>
+      </c>
+      <c r="L54" s="139">
+        <f t="shared" si="6"/>
+        <v>48.12</v>
+      </c>
+      <c r="M54" s="139">
+        <f t="shared" si="6"/>
+        <v>48.62</v>
+      </c>
+      <c r="N54" s="140">
+        <f t="shared" si="6"/>
+        <v>49.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="126" t="s">
         <v>262</v>
       </c>
-      <c r="F54" s="139">
-        <f t="shared" ref="F54:N54" si="6">F32-F53</f>
-        <v>66.599999999999994</v>
-      </c>
-      <c r="G54" s="140">
-        <f t="shared" si="6"/>
-        <v>54.58</v>
-      </c>
-      <c r="H54" s="140">
-        <f t="shared" si="6"/>
-        <v>44.6</v>
-      </c>
-      <c r="I54" s="140">
-        <f t="shared" si="6"/>
-        <v>45.1</v>
-      </c>
-      <c r="J54" s="140">
-        <f t="shared" si="6"/>
-        <v>45.6</v>
-      </c>
-      <c r="K54" s="140">
-        <f t="shared" si="6"/>
-        <v>45.86</v>
-      </c>
-      <c r="L54" s="140">
-        <f t="shared" si="6"/>
-        <v>46.36</v>
-      </c>
-      <c r="M54" s="140">
-        <f t="shared" si="6"/>
-        <v>46.86</v>
-      </c>
-      <c r="N54" s="141">
-        <f t="shared" si="6"/>
-        <v>47.36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="148" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="127" t="s">
+      <c r="F58" s="135">
+        <f>F44-(F32-F53)</f>
+        <v>35.100000000000009</v>
+      </c>
+      <c r="G58" s="136">
+        <f>G44-(G32-G53)</f>
+        <v>44.679999999999993</v>
+      </c>
+      <c r="H58" s="136">
+        <f>H44-(H32-H53)</f>
+        <v>60.8</v>
+      </c>
+      <c r="I58" s="136">
+        <f>I44-(I32-I53)</f>
+        <v>59.8</v>
+      </c>
+      <c r="J58" s="136">
+        <f t="shared" ref="J58:N58" si="7">J44-(J32-J53)</f>
+        <v>58.8</v>
+      </c>
+      <c r="K58" s="136">
+        <f t="shared" si="7"/>
+        <v>57.88</v>
+      </c>
+      <c r="L58" s="136">
+        <f t="shared" si="7"/>
+        <v>56.88</v>
+      </c>
+      <c r="M58" s="136">
+        <f t="shared" si="7"/>
+        <v>55.88</v>
+      </c>
+      <c r="N58" s="137">
+        <f t="shared" si="7"/>
+        <v>54.88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="150" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="149" t="s">
-        <v>265</v>
-      </c>
-      <c r="F58" s="136">
-        <f>F44-(F32-F53)</f>
-        <v>35.800000000000011</v>
-      </c>
-      <c r="G58" s="137">
-        <f>G44-(G32-G53)</f>
-        <v>45.519999999999996</v>
-      </c>
-      <c r="H58" s="137">
-        <f>H44-(H32-H53)</f>
-        <v>62.4</v>
-      </c>
-      <c r="I58" s="137">
-        <f>I44-(I32-I53)</f>
-        <v>61.4</v>
-      </c>
-      <c r="J58" s="137">
-        <f t="shared" ref="J58:N58" si="7">J44-(J32-J53)</f>
-        <v>60.4</v>
-      </c>
-      <c r="K58" s="137">
-        <f t="shared" si="7"/>
-        <v>59.64</v>
-      </c>
-      <c r="L58" s="137">
-        <f t="shared" si="7"/>
-        <v>58.64</v>
-      </c>
-      <c r="M58" s="137">
-        <f t="shared" si="7"/>
-        <v>57.64</v>
-      </c>
-      <c r="N58" s="138">
-        <f t="shared" si="7"/>
-        <v>56.64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="151" t="s">
-        <v>266</v>
-      </c>
-      <c r="F59" s="164" t="str">
+      <c r="F59" s="163" t="str">
         <f>IF(AND(F16&gt;F58,(F16-F17)&lt;F58),"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="G59" s="165" t="str">
+      <c r="G59" s="164" t="str">
         <f t="shared" ref="G59:N59" si="8">IF(AND(G16&gt;G58,(G16-G17)&lt;G58),"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="H59" s="165" t="str">
+      <c r="H59" s="164" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="I59" s="165" t="str">
+      <c r="I59" s="164" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="J59" s="165" t="str">
+      <c r="J59" s="164" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="K59" s="165" t="str">
+      <c r="K59" s="164" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="L59" s="165" t="str">
+      <c r="L59" s="164" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="M59" s="165" t="str">
+      <c r="M59" s="164" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="N59" s="166" t="str">
+      <c r="N59" s="165" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="127" t="s">
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="126" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="F62" s="135">
+        <f>IF(F58-F24&gt;F16-F17,F58-F24,F16-F17)</f>
+        <v>35.100000000000009</v>
+      </c>
+      <c r="G62" s="136">
+        <f t="shared" ref="G62:N62" si="9">IF(G58-G24&gt;G16-G17,G58-G24,G16-G17)</f>
+        <v>44.679999999999993</v>
+      </c>
+      <c r="H62" s="136">
+        <f t="shared" si="9"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I62" s="136">
+        <f>IF(I58-I24&gt;I16-I17,I58-I24,I16-I17)</f>
+        <v>31.799999999999997</v>
+      </c>
+      <c r="J62" s="136">
+        <f t="shared" si="9"/>
+        <v>30.799999999999997</v>
+      </c>
+      <c r="K62" s="136">
+        <f t="shared" si="9"/>
+        <v>29.880000000000003</v>
+      </c>
+      <c r="L62" s="136">
+        <f t="shared" si="9"/>
+        <v>28.880000000000003</v>
+      </c>
+      <c r="M62" s="136">
+        <f t="shared" si="9"/>
+        <v>27.880000000000003</v>
+      </c>
+      <c r="N62" s="137">
+        <f t="shared" si="9"/>
+        <v>26.880000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63" s="149" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="149" t="s">
-        <v>268</v>
-      </c>
-      <c r="F62" s="136">
-        <f>IF(F58-F24&gt;F16-F17,F58-F24,F16-F17)</f>
-        <v>35.800000000000011</v>
-      </c>
-      <c r="G62" s="137">
-        <f t="shared" ref="G62:N62" si="9">IF(G58-G24&gt;G16-G17,G58-G24,G16-G17)</f>
-        <v>45.519999999999996</v>
-      </c>
-      <c r="H62" s="137">
-        <f t="shared" si="9"/>
-        <v>34.4</v>
-      </c>
-      <c r="I62" s="137">
-        <f>IF(I58-I24&gt;I16-I17,I58-I24,I16-I17)</f>
-        <v>33.4</v>
-      </c>
-      <c r="J62" s="137">
-        <f t="shared" si="9"/>
-        <v>32.4</v>
-      </c>
-      <c r="K62" s="137">
-        <f t="shared" si="9"/>
-        <v>31.64</v>
-      </c>
-      <c r="L62" s="137">
-        <f t="shared" si="9"/>
-        <v>30.64</v>
-      </c>
-      <c r="M62" s="137">
-        <f t="shared" si="9"/>
-        <v>29.64</v>
-      </c>
-      <c r="N62" s="138">
-        <f t="shared" si="9"/>
-        <v>28.64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="150" t="s">
-        <v>269</v>
-      </c>
-      <c r="F63" s="147">
+      <c r="F63" s="146">
         <f>F58-F62</f>
         <v>0</v>
       </c>
@@ -14139,96 +14292,96 @@
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="N63" s="148">
+      <c r="N63" s="147">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="151" t="s">
-        <v>270</v>
-      </c>
-      <c r="F64" s="164" t="str">
+    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="150" t="s">
+        <v>268</v>
+      </c>
+      <c r="F64" s="163" t="str">
         <f>IF(AND(F16&gt;F62,(F16-F17)&lt;F62),"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="G64" s="165" t="str">
+      <c r="G64" s="164" t="str">
         <f t="shared" ref="G64:N64" si="11">IF(AND(G16&gt;G62,(G16-G17)&lt;G62),"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="H64" s="165" t="str">
+      <c r="H64" s="164" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="I64" s="165" t="str">
+      <c r="I64" s="164" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="J64" s="165" t="str">
+      <c r="J64" s="164" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="K64" s="165" t="str">
+      <c r="K64" s="164" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="L64" s="165" t="str">
+      <c r="L64" s="164" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="M64" s="165" t="str">
+      <c r="M64" s="164" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
-      <c r="N64" s="166" t="str">
+      <c r="N64" s="165" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="171" t="s">
+    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="170" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A67" s="149" t="s">
+        <v>270</v>
+      </c>
+      <c r="F67" s="135">
+        <v>0.15</v>
+      </c>
+      <c r="G67" s="136">
+        <v>1.536</v>
+      </c>
+      <c r="H67" s="136">
+        <v>8</v>
+      </c>
+      <c r="I67" s="136">
+        <v>8</v>
+      </c>
+      <c r="J67" s="136">
+        <v>8</v>
+      </c>
+      <c r="K67" s="136">
+        <v>8</v>
+      </c>
+      <c r="L67" s="136">
+        <v>8</v>
+      </c>
+      <c r="M67" s="136">
+        <v>8</v>
+      </c>
+      <c r="N67" s="137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A68" s="149" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="150" t="s">
-        <v>272</v>
-      </c>
-      <c r="F67" s="136">
-        <v>0.15</v>
-      </c>
-      <c r="G67" s="137">
-        <v>1.536</v>
-      </c>
-      <c r="H67" s="137">
-        <v>8</v>
-      </c>
-      <c r="I67" s="137">
-        <v>8</v>
-      </c>
-      <c r="J67" s="137">
-        <v>8</v>
-      </c>
-      <c r="K67" s="137">
-        <v>8</v>
-      </c>
-      <c r="L67" s="137">
-        <v>8</v>
-      </c>
-      <c r="M67" s="137">
-        <v>8</v>
-      </c>
-      <c r="N67" s="138">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="150" t="s">
-        <v>273</v>
-      </c>
-      <c r="F68" s="147">
+      <c r="F68" s="146">
         <v>290</v>
       </c>
       <c r="G68" s="21">
@@ -14252,15 +14405,15 @@
       <c r="M68" s="21">
         <v>290</v>
       </c>
-      <c r="N68" s="148">
+      <c r="N68" s="147">
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="150" t="s">
-        <v>274</v>
-      </c>
-      <c r="F69" s="147">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69" s="149" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" s="146">
         <v>-13</v>
       </c>
       <c r="G69" s="21">
@@ -14284,523 +14437,526 @@
       <c r="M69" s="21">
         <v>4</v>
       </c>
-      <c r="N69" s="148">
+      <c r="N69" s="147">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="151" t="s">
+    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="150" t="s">
+        <v>273</v>
+      </c>
+      <c r="F70" s="138">
+        <v>38</v>
+      </c>
+      <c r="G70" s="139">
+        <v>18</v>
+      </c>
+      <c r="H70" s="139">
+        <v>25</v>
+      </c>
+      <c r="I70" s="139">
+        <v>25</v>
+      </c>
+      <c r="J70" s="139">
+        <v>25</v>
+      </c>
+      <c r="K70" s="139">
+        <v>25</v>
+      </c>
+      <c r="L70" s="139">
+        <v>25</v>
+      </c>
+      <c r="M70" s="139">
+        <v>25</v>
+      </c>
+      <c r="N70" s="140">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72" s="171" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="172" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" s="149" t="s">
         <v>275</v>
       </c>
-      <c r="F70" s="139">
-        <v>38</v>
-      </c>
-      <c r="G70" s="140">
-        <v>18</v>
-      </c>
-      <c r="H70" s="140">
-        <v>25</v>
-      </c>
-      <c r="I70" s="140">
-        <v>25</v>
-      </c>
-      <c r="J70" s="140">
-        <v>25</v>
-      </c>
-      <c r="K70" s="140">
-        <v>25</v>
-      </c>
-      <c r="L70" s="140">
-        <v>25</v>
-      </c>
-      <c r="M70" s="140">
-        <v>25</v>
-      </c>
-      <c r="N70" s="141">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="172" t="s">
+      <c r="B74" s="1"/>
+      <c r="F74" s="135">
+        <f>10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
+        <v>16.537205707170102</v>
+      </c>
+      <c r="G74" s="136">
+        <f>10*LOG10(10^((G18+G53)/10)+10^((G53-G58)/10)*(10^((G43+Network!I277)/10)-1))</f>
+        <v>12.448242010510427</v>
+      </c>
+      <c r="H74" s="136">
+        <f>10*LOG10(10^((H18+H53)/10)+10^((H53-H58)/10)*(10^((H43+Network!J277)/10)-1))</f>
+        <v>12.837121168044634</v>
+      </c>
+      <c r="I74" s="136">
+        <f>10*LOG10(10^((I18+I53)/10)+10^((I53-I58)/10)*(10^((I43+Network!J277)/10)-1))</f>
+        <v>12.341628930936814</v>
+      </c>
+      <c r="J74" s="136">
+        <f>10*LOG10(10^((J18+J53)/10)+10^((J53-J58)/10)*(10^((J43+Network!J277)/10)-1))</f>
+        <v>11.846681144362297</v>
+      </c>
+      <c r="K74" s="136">
+        <f>10*LOG10(10^((K18+K53)/10)+10^((K53-K58)/10)*(10^((K43+Network!J277)/10)-1))</f>
+        <v>11.431393079318745</v>
+      </c>
+      <c r="L74" s="136">
+        <f>10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((L43+Network!K277)/10)-1))</f>
+        <v>11.004322432591573</v>
+      </c>
+      <c r="M74" s="136">
+        <f>10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((M43+Network!K277)/10)-1))</f>
+        <v>10.51925115842595</v>
+      </c>
+      <c r="N74" s="137">
+        <f>10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((N43+Network!K277)/10)-1))</f>
+        <v>10.035940560689802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A75" s="149" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="173" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="150" t="s">
-        <v>277</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="F74" s="136">
-        <f>10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>16.779680899642923</v>
-      </c>
-      <c r="G74" s="137">
-        <f>10*LOG10(10^((G18+G53)/10)+10^((G53-G58)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>13.147592929371502</v>
-      </c>
-      <c r="H74" s="137">
-        <f>10*LOG10(10^((H18+H53)/10)+10^((H53-H58)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>14.425715360153408</v>
-      </c>
-      <c r="I74" s="137">
-        <f>10*LOG10(10^((I18+I53)/10)+10^((I53-I58)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>13.928842668311461</v>
-      </c>
-      <c r="J74" s="137">
-        <f>10*LOG10(10^((J18+J53)/10)+10^((J53-J58)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>13.432348875919986</v>
-      </c>
-      <c r="K74" s="137">
-        <f>10*LOG10(10^((K18+K53)/10)+10^((K53-K58)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>13.174336724245999</v>
-      </c>
-      <c r="L74" s="137">
-        <f>10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((L43+Network!K277)/10)-1))</f>
-        <v>12.723293121364554</v>
-      </c>
-      <c r="M74" s="137">
-        <f>10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((M43+Network!K277)/10)-1))</f>
-        <v>12.233347830022003</v>
-      </c>
-      <c r="N74" s="138">
-        <f>10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((N43+Network!K277)/10)-1))</f>
-        <v>11.744601729619896</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="150" t="s">
-        <v>278</v>
-      </c>
-      <c r="F75" s="167">
+      <c r="F75" s="166">
         <f>F32-F69-10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>66.220319100357074</v>
+        <v>66.462794292829898</v>
       </c>
       <c r="G75" s="90">
         <f>G32-G69-10*LOG10(10^((G18+G53)/10)+10^((G53-G58)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>47.852407070628502</v>
+        <v>48.551757989489573</v>
       </c>
       <c r="H75" s="90">
         <f>H32-H69-10*LOG10(10^((H18+H53)/10)+10^((H53-H58)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>31.574284639846592</v>
+        <v>33.162878831955368</v>
       </c>
       <c r="I75" s="90">
         <f>I32-I69-10*LOG10(10^((I18+I53)/10)+10^((I53-I58)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>32.071157331688539</v>
+        <v>33.658371069063186</v>
       </c>
       <c r="J75" s="90">
         <f>J32-J69-10*LOG10(10^((J18+J53)/10)+10^((J53-J58)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>32.567651124080015</v>
+        <v>34.153318855637707</v>
       </c>
       <c r="K75" s="90">
         <f>K32-K69-10*LOG10(10^((K18+K53)/10)+10^((K53-K58)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>32.825663275754003</v>
+        <v>34.568606920681255</v>
       </c>
       <c r="L75" s="90">
         <f>L32-L69-10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((J43+Network!O277)/10)-1))</f>
-        <v>33.35998649882147</v>
+        <v>35.119979752503028</v>
       </c>
       <c r="M75" s="90">
         <f>M32-M69-10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((J43+Network!P277)/10)-1))</f>
-        <v>33.859999449368757</v>
-      </c>
-      <c r="N75" s="169">
+        <v>35.619999174226699</v>
+      </c>
+      <c r="N75" s="168">
         <f>N32-N69-10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((J43+Network!Q277)/10)-1))</f>
-        <v>34.35999930679634</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="151" t="s">
-        <v>279</v>
-      </c>
-      <c r="F76" s="164" t="str">
+        <v>36.119998960413028</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="150" t="s">
+        <v>277</v>
+      </c>
+      <c r="F76" s="163" t="str">
         <f>IF(F75&gt;=F70,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="G76" s="165" t="str">
+      <c r="G76" s="164" t="str">
         <f t="shared" ref="G76:N76" si="12">IF(G75&gt;=G70,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="H76" s="165" t="str">
+      <c r="H76" s="164" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="I76" s="165" t="str">
+      <c r="I76" s="164" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="J76" s="165" t="str">
+      <c r="J76" s="164" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="K76" s="165" t="str">
+      <c r="K76" s="164" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="L76" s="165" t="str">
+      <c r="L76" s="164" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="M76" s="165" t="str">
+      <c r="M76" s="164" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
-      <c r="N76" s="166" t="str">
+      <c r="N76" s="165" t="str">
         <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="171" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="150" t="s">
-        <v>277</v>
-      </c>
-      <c r="F79" s="136">
+    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="170" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="149" t="s">
+        <v>275</v>
+      </c>
+      <c r="F79" s="135">
         <f>10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>16.779680899642923</v>
-      </c>
-      <c r="G79" s="137">
+        <v>16.537205707170102</v>
+      </c>
+      <c r="G79" s="136">
         <f>10*LOG10(10^(G26/10)+(10^(G53/10)-1)/10^(G63/10)+(10^(G18/10)-1)*10^(G53/10)/10^(G63/10)+10^((G53-G62-G63)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>13.147592929371502</v>
-      </c>
-      <c r="H79" s="137">
+        <v>12.448242010510429</v>
+      </c>
+      <c r="H79" s="136">
         <f>10*LOG10(10^(H26/10)+(10^(H53/10)-1)/10^(H63/10)+(10^(H18/10)-1)*10^(H53/10)/10^(H63/10)+10^((H53-H62-H63)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>6.6954645101141157</v>
-      </c>
-      <c r="I79" s="137">
+        <v>6.6829431135643471</v>
+      </c>
+      <c r="I79" s="136">
         <f>10*LOG10(10^(I26/10)+(10^(I53/10)-1)/10^(I63/10)+(10^(I18/10)-1)*10^(I53/10)/10^(I63/10)+10^((I53-I62-I63)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>6.6910497575131398</v>
-      </c>
-      <c r="J79" s="137">
+        <v>6.6798804391014315</v>
+      </c>
+      <c r="J79" s="136">
         <f>10*LOG10(10^(J26/10)+(10^(J53/10)-1)/10^(J63/10)+(10^(J18/10)-1)*10^(J53/10)/10^(J63/10)+10^((J53-J62-J63)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>6.6871112669985608</v>
-      </c>
-      <c r="K79" s="137">
+        <v>6.6771489537078939</v>
+      </c>
+      <c r="K79" s="136">
         <f>10*LOG10(10^(K26/10)+(10^(K53/10)-1)/10^(K63/10)+(10^(K18/10)-1)*10^(K53/10)/10^(K63/10)+10^((K53-K62-K63)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>6.6852341688357919</v>
-      </c>
-      <c r="L79" s="137">
+        <v>6.6750842057365247</v>
+      </c>
+      <c r="L79" s="136">
         <f>10*LOG10(10^(L26/10)+(10^(L53/10)-1)/10^(L63/10)+(10^(L18/10)-1)*10^(L53/10)/10^(L63/10)+10^((L53-L62-L63)/10)*(10^((L43+Network!K277)/10)-1))</f>
-        <v>6.8574051682622006</v>
-      </c>
-      <c r="M79" s="137">
+        <v>6.8487120708452345</v>
+      </c>
+      <c r="M79" s="136">
         <f>10*LOG10(10^(M26/10)+(10^(M53/10)-1)/10^(M63/10)+(10^(M18/10)-1)*10^(M53/10)/10^(M63/10)+10^((M53-M62-M63)/10)*(10^((M43+Network!K277)/10)-1))</f>
-        <v>6.8545694438043423</v>
-      </c>
-      <c r="N79" s="138">
+        <v>6.8468174917760871</v>
+      </c>
+      <c r="N79" s="137">
         <f>10*LOG10(10^(N26/10)+(10^(N53/10)-1)/10^(N63/10)+(10^(N18/10)-1)*10^(N53/10)/10^(N63/10)+10^((N53-N62-N63)/10)*(10^((N43+Network!K277)/10)-1))</f>
-        <v>6.8520404604457941</v>
+        <v>6.8451281695987118</v>
       </c>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="150" t="s">
-        <v>278</v>
-      </c>
-      <c r="F80" s="167">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="F80" s="166">
         <f>F32-F69-10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>66.220319100357074</v>
+        <v>66.462794292829898</v>
       </c>
       <c r="G80" s="90">
         <f>G32-G69-10*LOG10(10^(G26/10)+(10^(G53/10)-1)/10^(G63/10)+(10^(G18/10)-1)*10^(G53/10)/10^(G63/10)+10^((G53-G62-G63)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>47.852407070628502</v>
+        <v>48.551757989489573</v>
       </c>
       <c r="H80" s="90">
         <f>H32-H69-10*LOG10(10^(H26/10)+(10^(H53/10)-1)/10^(H63/10)+(10^(H18/10)-1)*10^(H53/10)/10^(H63/10)+10^((H53-H62-H63)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>39.304535489885886</v>
+        <v>39.317056886435651</v>
       </c>
       <c r="I80" s="90">
         <f>I32-I69-10*LOG10(10^(I26/10)+(10^(I53/10)-1)/10^(I63/10)+(10^(I18/10)-1)*10^(I53/10)/10^(I63/10)+10^((I53-I62-I63)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>39.308950242486858</v>
+        <v>39.320119560898569</v>
       </c>
       <c r="J80" s="90">
         <f>J32-J69-10*LOG10(10^(J26/10)+(10^(J53/10)-1)/10^(J63/10)+(10^(J18/10)-1)*10^(J53/10)/10^(J63/10)+10^((J53-J62-J63)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>39.312888733001436</v>
+        <v>39.322851046292108</v>
       </c>
       <c r="K80" s="90">
         <f>K32-K69-10*LOG10(10^(K26/10)+(10^(K53/10)-1)/10^(K63/10)+(10^(K18/10)-1)*10^(K53/10)/10^(K63/10)+10^((K53-K62-K63)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>39.314765831164209</v>
+        <v>39.324915794263475</v>
       </c>
       <c r="L80" s="90">
         <f>L32-L69-10*LOG10(10^(L26/10)+(10^(L53/10)-1)/10^(L63/10)+(10^(L18/10)-1)*10^(L53/10)/10^(L63/10)+10^((L53-L62-L63)/10)*(10^((L43+Network!K277)/10)-1))</f>
-        <v>39.142594831737796</v>
+        <v>39.151287929154762</v>
       </c>
       <c r="M80" s="90">
         <f>M32-M69-10*LOG10(10^(M26/10)+(10^(M53/10)-1)/10^(M63/10)+(10^(M18/10)-1)*10^(M53/10)/10^(M63/10)+10^((M53-M62-M63)/10)*(10^((M43+Network!K277)/10)-1))</f>
-        <v>39.145430556195656</v>
-      </c>
-      <c r="N80" s="169">
+        <v>39.153182508223914</v>
+      </c>
+      <c r="N80" s="168">
         <f>N32-N69-10*LOG10(10^(N26/10)+(10^(N53/10)-1)/10^(N63/10)+(10^(N18/10)-1)*10^(N53/10)/10^(N63/10)+10^((N53-N62-N63)/10)*(10^((N43+Network!K277)/10)-1))</f>
-        <v>39.147959539554208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="151" t="s">
-        <v>280</v>
-      </c>
-      <c r="F81" s="164" t="str">
+        <v>39.154871830401291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="150" t="s">
+        <v>278</v>
+      </c>
+      <c r="F81" s="163" t="str">
         <f>IF(F80&gt;=F70,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="G81" s="165" t="str">
+      <c r="G81" s="164" t="str">
         <f t="shared" ref="G81:N81" si="13">IF(G80&gt;=G70,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="H81" s="165" t="str">
+      <c r="H81" s="164" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="I81" s="165" t="str">
+      <c r="I81" s="164" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="J81" s="165" t="str">
+      <c r="J81" s="164" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="K81" s="165" t="str">
+      <c r="K81" s="164" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="L81" s="165" t="str">
+      <c r="L81" s="164" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="M81" s="165" t="str">
+      <c r="M81" s="164" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
-      <c r="N81" s="166" t="str">
+      <c r="N81" s="165" t="str">
         <f t="shared" si="13"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="127" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="149" t="s">
-        <v>255</v>
-      </c>
-      <c r="F86" s="136">
+    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="126" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A86" s="148" t="s">
+        <v>251</v>
+      </c>
+      <c r="F86" s="135">
         <v>30</v>
       </c>
-      <c r="G86" s="137">
+      <c r="G86" s="136">
         <v>16</v>
       </c>
-      <c r="H86" s="137">
+      <c r="H86" s="136">
         <v>1</v>
       </c>
-      <c r="I86" s="137">
+      <c r="I86" s="136">
         <v>2</v>
       </c>
-      <c r="J86" s="137">
+      <c r="J86" s="136">
         <v>1</v>
       </c>
-      <c r="K86" s="137">
+      <c r="K86" s="136">
         <v>1</v>
       </c>
-      <c r="L86" s="137">
+      <c r="L86" s="136">
         <v>1</v>
       </c>
-      <c r="M86" s="137">
+      <c r="M86" s="136">
         <v>1</v>
       </c>
-      <c r="N86" s="137">
+      <c r="N86" s="136">
         <v>1</v>
       </c>
-      <c r="O86" s="138">
+      <c r="O86" s="137">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="150" t="s">
-        <v>256</v>
-      </c>
-      <c r="F87" s="153">
+    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="149" t="s">
+        <v>252</v>
+      </c>
+      <c r="F87" s="152">
         <f>7.5*LOG10((F86-1))</f>
         <v>10.96798498424217</v>
       </c>
-      <c r="G87" s="154">
+      <c r="G87" s="153">
         <f>7.5*LOG10(G86-1)</f>
         <v>8.8206844429176101</v>
       </c>
-      <c r="H87" s="144">
+      <c r="H87" s="143">
         <v>0</v>
       </c>
-      <c r="I87" s="144">
+      <c r="I87" s="143">
         <f>7.5*LOG10(I86-1)</f>
         <v>0</v>
       </c>
-      <c r="J87" s="144">
+      <c r="J87" s="143">
         <v>0</v>
       </c>
-      <c r="K87" s="144">
+      <c r="K87" s="143">
         <v>0</v>
       </c>
-      <c r="L87" s="144">
+      <c r="L87" s="143">
         <v>0</v>
       </c>
-      <c r="M87" s="144">
+      <c r="M87" s="143">
         <v>0</v>
       </c>
-      <c r="N87" s="144">
+      <c r="N87" s="143">
         <v>0</v>
       </c>
-      <c r="O87" s="155">
+      <c r="O87" s="154">
         <f>7.5*LOG10(O86-1)</f>
         <v>10.96798498424217</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="151" t="s">
-        <v>257</v>
-      </c>
-      <c r="H88" s="139">
+    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="150" t="s">
+        <v>253</v>
+      </c>
+      <c r="H88" s="138">
         <v>30</v>
       </c>
-      <c r="I88" s="140">
+      <c r="I88" s="139">
         <v>30</v>
       </c>
-      <c r="J88" s="140">
+      <c r="J88" s="139">
         <v>30</v>
       </c>
-      <c r="K88" s="140">
+      <c r="K88" s="139">
         <v>30</v>
       </c>
-      <c r="L88" s="140">
+      <c r="L88" s="139">
         <v>30</v>
       </c>
-      <c r="M88" s="140">
+      <c r="M88" s="139">
         <v>30</v>
       </c>
-      <c r="N88" s="140">
+      <c r="N88" s="139">
         <v>30</v>
       </c>
-      <c r="O88" s="141">
+      <c r="O88" s="140">
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="171" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="156" t="s">
-        <v>281</v>
-      </c>
-      <c r="H91" s="160">
+    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="170" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A91" s="155" t="s">
+        <v>279</v>
+      </c>
+      <c r="H91" s="159">
         <f>H28+2*(H27-H87-H44)</f>
         <v>33</v>
       </c>
-      <c r="I91" s="162">
+      <c r="I91" s="161">
         <f t="shared" ref="I91" si="14">I28+2*(I27-H87-I44)</f>
         <v>34</v>
       </c>
-      <c r="J91" s="162">
+      <c r="J91" s="161">
         <f>J28+2*(J27-J87-J44)</f>
         <v>35</v>
       </c>
-      <c r="K91" s="162">
+      <c r="K91" s="161">
         <f>K28+2*(K27-K87-K44)</f>
         <v>36</v>
       </c>
-      <c r="L91" s="162">
+      <c r="L91" s="161">
         <f>L28+2*(L27-L87-L44)</f>
         <v>37</v>
       </c>
-      <c r="M91" s="162">
+      <c r="M91" s="161">
         <f>M28+2*(M27-M87-M44)</f>
         <v>38</v>
       </c>
-      <c r="N91" s="181">
+      <c r="N91" s="180">
         <f>N28+2*(N27-N87-N44)</f>
         <v>39</v>
       </c>
-      <c r="O91" s="163">
+      <c r="O91" s="162">
         <f>O20+2*(O19-O87-O44)</f>
         <v>51.064030031515671</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="126" t="s">
-        <v>282</v>
-      </c>
-      <c r="H92" s="164" t="str">
+    <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="125" t="s">
+        <v>280</v>
+      </c>
+      <c r="H92" s="163" t="str">
         <f>IF(H91&gt;=H88,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="I92" s="165" t="str">
+      <c r="I92" s="164" t="str">
         <f t="shared" ref="I92:N92" si="15">IF(I91&gt;=I88,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="J92" s="165" t="str">
+      <c r="J92" s="164" t="str">
         <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="K92" s="165" t="str">
+      <c r="K92" s="164" t="str">
         <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="L92" s="165" t="str">
+      <c r="L92" s="164" t="str">
         <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="M92" s="165" t="str">
+      <c r="M92" s="164" t="str">
         <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="N92" s="170" t="str">
+      <c r="N92" s="169" t="str">
         <f t="shared" si="15"/>
         <v>OK</v>
       </c>
-      <c r="O92" s="166" t="str">
+      <c r="O92" s="165" t="str">
         <f>IF(O91&gt;=O88,"OK","NO")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="171" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="150" t="s">
-        <v>283</v>
-      </c>
-      <c r="H95" s="136">
+    <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O93" s="182"/>
+    </row>
+    <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="170" t="s">
+        <v>265</v>
+      </c>
+      <c r="O94" s="182"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A95" s="149" t="s">
+        <v>281</v>
+      </c>
+      <c r="H95" s="135">
         <f>H32+H63</f>
         <v>78</v>
       </c>
-      <c r="I95" s="137">
+      <c r="I95" s="136">
         <f t="shared" ref="I95:L95" si="16">I32+I63</f>
         <v>78</v>
       </c>
-      <c r="J95" s="137">
+      <c r="J95" s="136">
         <f t="shared" si="16"/>
         <v>78</v>
       </c>
-      <c r="K95" s="137">
+      <c r="K95" s="136">
         <f t="shared" si="16"/>
         <v>78</v>
       </c>
-      <c r="L95" s="137">
+      <c r="L95" s="136">
         <f t="shared" si="16"/>
         <v>78</v>
       </c>
@@ -14808,32 +14964,33 @@
         <f>M32+M63</f>
         <v>78</v>
       </c>
-      <c r="N95" s="138">
+      <c r="N95" s="137">
         <f>N32+N63</f>
         <v>78</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="156" t="s">
-        <v>284</v>
-      </c>
-      <c r="H96" s="175">
+      <c r="O95" s="185"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A96" s="155" t="s">
+        <v>282</v>
+      </c>
+      <c r="H96" s="174">
         <f>-20*LOG10(10^(-H91/20)+10^(-(H28+2*(H27-7.5*LOG10(SUM(H86:N86)-1)-H32-H63))/20))</f>
         <v>32.953068544611554</v>
       </c>
-      <c r="I96" s="174">
+      <c r="I96" s="173">
         <f>-20*LOG10(10^(-I91/20)+10^(-(I28+2*(I27-7.5*LOG10(SUM(H86:N86)-1)-I32-I63))/20))</f>
         <v>33.947359360533518</v>
       </c>
-      <c r="J96" s="174">
-        <f>-20*LOG10(10^(-J91/20)+10^(-(J28+2*(J27-7.5*LOG10(SUM(H86:N86)-1)-J32-J63))/20))</f>
-        <v>34.940958014846672</v>
-      </c>
-      <c r="K96" s="174">
+      <c r="J96" s="173">
+        <f>-20*LOG10(10^(-J91/20)+10^(-(J28+2*(J27-7.5*LOG10(SUM(I86:O86)-1)-J32-J63))/20))</f>
+        <v>34.799999274861314</v>
+      </c>
+      <c r="K96" s="173">
         <f>-20*LOG10(10^(-K91/20)+10^(-(K28+2*(K27-7.5*LOG10(SUM(H86:N86)-1)-K32-K63))/20))</f>
         <v>35.933781198644489</v>
       </c>
-      <c r="L96" s="174">
+      <c r="L96" s="173">
         <f>-20*LOG10(10^(-L91/20)+10^(-(L28+2*(L27-7.5*LOG10(SUM(H86:N86)-1)-L32-L63))/20))</f>
         <v>36.925735731532804</v>
       </c>
@@ -14841,41 +14998,41 @@
         <f>-20*LOG10(10^(-M91/20)+10^(-(M28+2*(M27-7.5*LOG10(SUM(H86:N86)-1)-M32-M63))/20))</f>
         <v>37.916717431794545</v>
       </c>
-      <c r="N96" s="176">
+      <c r="N96" s="175">
         <f>-20*LOG10(10^(-N91/20)+10^(-(N28+2*(N27-7.5*LOG10(SUM(H86:N86)-1)-N32-N63))/20))</f>
         <v>38.906609867464191</v>
       </c>
-      <c r="O96" s="185"/>
-    </row>
-    <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="126" t="s">
-        <v>285</v>
-      </c>
-      <c r="H97" s="164" t="str">
+      <c r="O96" s="186"/>
+    </row>
+    <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="125" t="s">
+        <v>283</v>
+      </c>
+      <c r="H97" s="163" t="str">
         <f>IF(H96&gt;=H88,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="I97" s="165" t="str">
+      <c r="I97" s="164" t="str">
         <f t="shared" ref="I97:N97" si="17">IF(I96&gt;=I88,"OK","NO")</f>
         <v>OK</v>
       </c>
-      <c r="J97" s="165" t="str">
+      <c r="J97" s="164" t="str">
         <f t="shared" si="17"/>
         <v>OK</v>
       </c>
-      <c r="K97" s="165" t="str">
+      <c r="K97" s="164" t="str">
         <f t="shared" si="17"/>
         <v>OK</v>
       </c>
-      <c r="L97" s="165" t="str">
+      <c r="L97" s="164" t="str">
         <f t="shared" si="17"/>
         <v>OK</v>
       </c>
-      <c r="M97" s="170" t="str">
+      <c r="M97" s="169" t="str">
         <f t="shared" si="17"/>
         <v>OK</v>
       </c>
-      <c r="N97" s="166" t="str">
+      <c r="N97" s="165" t="str">
         <f t="shared" si="17"/>
         <v>OK</v>
       </c>
@@ -14887,161 +15044,161 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A26" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="32"/>
       <c r="B2" s="201" t="s">
         <v>205</v>
       </c>
       <c r="C2" s="202"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="118"/>
-      <c r="B3" s="190" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="191"/>
+      <c r="B3" s="192" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="190" t="s">
+      <c r="C3" s="192" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="119" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="191">
+      <c r="B4" s="193">
         <v>39.49</v>
       </c>
-      <c r="C4" s="191">
+      <c r="C4" s="193">
         <v>39.49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="191">
+      <c r="B5" s="193">
         <v>30</v>
       </c>
-      <c r="C5" s="191">
+      <c r="C5" s="193">
         <v>19.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="119" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="191">
+        <v>294</v>
+      </c>
+      <c r="B6" s="193">
         <f>30-0.36</f>
         <v>29.64</v>
       </c>
-      <c r="C6" s="191">
+      <c r="C6" s="193">
         <f>-C5-0.36</f>
         <v>-19.559999999999999</v>
       </c>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="119" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="192">
+        <v>288</v>
+      </c>
+      <c r="B7" s="194">
         <f>DEGREES(ACOS(COS(RADIANS(B6))*COS(RADIANS(B4))))</f>
         <v>47.874722541842957</v>
       </c>
-      <c r="C7" s="192">
+      <c r="C7" s="194">
         <f>DEGREES(ACOS(COS(RADIANS(C6))*COS(RADIANS(C4))))</f>
         <v>43.347844323707463</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="119" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="193">
+        <v>6378.16</v>
+      </c>
+      <c r="C8" s="193">
+        <v>6378.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="119" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="193">
+        <v>35786.300000000003</v>
+      </c>
+      <c r="C9" s="193">
+        <v>35786.300000000003</v>
+      </c>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="119" t="s">
         <v>291</v>
       </c>
-      <c r="B8" s="191">
-        <v>6378.16</v>
-      </c>
-      <c r="C8" s="191">
-        <v>6378.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="119" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" s="191">
-        <v>35786.300000000003</v>
-      </c>
-      <c r="C9" s="191">
-        <v>35786.300000000003</v>
-      </c>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="193">
+      <c r="B10" s="195">
         <f>DEGREES(ATAN((COS(RADIANS(B7))-B8/(B9+B8))/SIN(RADIANS(B7))))</f>
         <v>35.008051729265496</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="195">
         <f>DEGREES(ATAN((COS(RADIANS(C7))-B8/(B9+B8))/SIN(RADIANS(C7))))</f>
         <v>39.997625557419383</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="119" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" s="192">
+        <v>292</v>
+      </c>
+      <c r="B11" s="194">
         <f>180 + DEGREES(ATAN(TAN(RADIANS(B6))/SIN(RADIANS(B4))))</f>
         <v>221.82020731856079</v>
       </c>
-      <c r="C11" s="192">
+      <c r="C11" s="194">
         <f>180 + DEGREES(ATAN(TAN(RADIANS(C6))/SIN(RADIANS(C4))))</f>
         <v>150.80819109153012</v>
       </c>
-      <c r="F11" s="187"/>
-      <c r="G11" s="188"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="188"/>
+      <c r="G11" s="189"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="119" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="192">
+        <v>293</v>
+      </c>
+      <c r="B12" s="194">
         <f>B9*SQRT(1+((2*B8*(B8+B9))/POWER(B9,2)*(1-COS(RADIANS(B7)))))</f>
         <v>38180.475101277909</v>
       </c>
-      <c r="C12" s="194">
+      <c r="C12" s="196">
         <f>C9*SQRT(1+((2*C8*(C8+C9))/POWER(C9,2)*(1-COS(RADIANS(C7)))))</f>
         <v>37780.795202936883</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="118"/>
       <c r="B13" s="118"/>
       <c r="C13" s="118"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="119" t="s">
-        <v>217</v>
+        <v>338</v>
       </c>
       <c r="B15" s="120">
         <v>54</v>
@@ -15050,7 +15207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="119" t="s">
         <v>210</v>
       </c>
@@ -15061,9 +15218,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="119" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="B17" s="120">
         <v>50</v>
@@ -15072,9 +15229,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="119" t="s">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c r="B18" s="120">
         <v>3</v>
@@ -15083,7 +15240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="119" t="s">
         <v>211</v>
       </c>
@@ -15094,7 +15251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="119" t="s">
         <v>212</v>
       </c>
@@ -15105,7 +15262,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="119" t="s">
         <v>213</v>
       </c>
@@ -15116,22 +15273,22 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="119" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" s="120">
+        <v>215</v>
+      </c>
+      <c r="B22" s="204">
         <f>92.44+20*LOG10(B21)+20*LOG10(B12)</f>
         <v>206.18703026066953</v>
       </c>
-      <c r="C22" s="120">
+      <c r="C22" s="204">
         <f>92.44+20*LOG10(C21)+20*LOG10(C12)</f>
         <v>206.09562558798024</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="119" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B23" s="120">
         <v>5.0999999999999996</v>
@@ -15140,9 +15297,9 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="119" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B24" s="121">
         <v>1.3800000000000001E-23</v>
@@ -15151,24 +15308,24 @@
         <v>1.3800000000000001E-23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="119" t="s">
-        <v>220</v>
-      </c>
-      <c r="B25" s="120">
+        <v>217</v>
+      </c>
+      <c r="B25" s="204">
         <f>B17+290*(POWER(10,B20/10)-1)</f>
         <v>100.72029093246357</v>
       </c>
-      <c r="C25" s="120">
+      <c r="C25" s="204">
         <f>C17+290*(POWER(10,C20/10)-1)</f>
         <v>100.72029093246357</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="119" t="s">
-        <v>221</v>
-      </c>
-      <c r="B26" s="122">
+        <v>218</v>
+      </c>
+      <c r="B26" s="120">
         <f>11+B18</f>
         <v>14</v>
       </c>
@@ -15177,164 +15334,150 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="119" t="s">
         <v>214</v>
       </c>
-      <c r="B27" s="121">
+      <c r="B27" s="204">
         <f>10*LOG10(B24*B25*B19*1000000)</f>
         <v>-134.25640177870341</v>
       </c>
-      <c r="C27" s="121">
+      <c r="C27" s="204">
         <f>10*LOG10(C24*C25*C19*1000000)</f>
         <v>-134.25640177870341</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28" s="121">
+        <v>335</v>
+      </c>
+      <c r="B28" s="204">
         <f>B26-B15+B22+B23+B27</f>
         <v>37.030628481966119</v>
       </c>
-      <c r="C28" s="121">
+      <c r="C28" s="204">
         <f>C26-C15+C22+C23+C27</f>
         <v>39.939223809276825</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="B29" s="120">
+        <v>219</v>
+      </c>
+      <c r="B29" s="203">
         <f>300000000/(B21*1000000000)</f>
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="C29" s="120">
+      <c r="C29" s="203">
         <f>300000000/(C21*1000000000)</f>
         <v>2.3529411764705882E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="119"/>
-      <c r="B31" s="121">
-        <f>B29*POWER(10,(B28/20))</f>
-        <v>1.6716389969050396</v>
-      </c>
-      <c r="C31" s="121">
-        <f>C29*POWER(10,(C28/20))</f>
-        <v>2.3365348359815972</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="119" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" s="204">
+        <f>B29*POWER(10,(B28/20))/(PI()*SQRT(B16))</f>
+        <v>0.63598020936830035</v>
+      </c>
+      <c r="C31" s="204">
+        <f>C29*POWER(10,(C28/20))/(PI()*SQRT(C16))</f>
+        <v>0.88894188095344961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="119" t="s">
-        <v>339</v>
-      </c>
-      <c r="B32" s="121">
-        <f>B31/(PI()*SQRT(B16))</f>
-        <v>0.63598020936830035</v>
-      </c>
-      <c r="C32" s="121">
-        <f>C31/(PI()*SQRT(C16))</f>
-        <v>0.88894188095344961</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="119" t="s">
-        <v>224</v>
-      </c>
-      <c r="B33" s="121">
+        <v>220</v>
+      </c>
+      <c r="B32" s="204">
         <f>B28-10*LOG10(B25)</f>
         <v>16.999458766271765</v>
       </c>
-      <c r="C33" s="121">
+      <c r="C32" s="204">
         <f>C28-10*LOG10(C25)</f>
         <v>19.908054093582471</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="196" t="s">
-        <v>341</v>
-      </c>
-      <c r="B34" s="197">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="119" t="s">
+        <v>327</v>
+      </c>
+      <c r="B33" s="204">
         <f>B15-B23-B22+B28</f>
         <v>-120.25640177870341</v>
       </c>
-      <c r="C34" s="197">
+      <c r="C33" s="204">
         <f>C15-C23-C22+C28</f>
         <v>-120.25640177870341</v>
       </c>
-      <c r="D34" s="195"/>
-      <c r="E34" s="195"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="195">
-        <f>(G13-G21-G22+G30)-G29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>340</v>
-      </c>
-      <c r="B35" s="195">
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="119" t="s">
+        <v>328</v>
+      </c>
+      <c r="B34" s="204">
         <f>(B15-B23-B22+B28)-B27</f>
         <v>14</v>
       </c>
-      <c r="C35" s="195">
+      <c r="C34" s="204">
         <f>(C15-C23-C22+C28)-C27</f>
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>335</v>
-      </c>
-      <c r="B36">
-        <f>B34+60-(29.6*0.2)</f>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="119" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" s="204">
+        <f>B33+60-(29.6*0.2)</f>
         <v>-66.176401778703408</v>
       </c>
-      <c r="C36">
-        <f>C34+60-(29.6*0.2)</f>
+      <c r="C35" s="204">
+        <f>C33+60-(29.6*0.2)</f>
         <v>-66.176401778703408</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>336</v>
-      </c>
-      <c r="B37">
-        <f>SQRT(POWER(10,(B36/10))*75)*1000000</f>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="119" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" s="204">
+        <f>SQRT(POWER(10,(B35/10))*75)*1000000</f>
         <v>4253.1484633272221</v>
       </c>
-      <c r="C37">
-        <f>SQRT(POWER(10,(C36/10))*75)*1000000</f>
+      <c r="C36" s="204">
+        <f>SQRT(POWER(10,(C35/10))*75)*1000000</f>
         <v>4253.1484633272221</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>337</v>
-      </c>
-      <c r="B38">
-        <f>20*LOG10(B37)</f>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="119" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="204">
+        <f>20*LOG10(B36)</f>
         <v>72.574210855213593</v>
       </c>
-      <c r="C38">
-        <f>20*LOG10(C37)</f>
+      <c r="C37" s="204">
+        <f>20*LOG10(C36)</f>
         <v>72.574210855213593</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>338</v>
-      </c>
-      <c r="B40">
-        <f>123-B38</f>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="119" t="s">
+        <v>329</v>
+      </c>
+      <c r="B38" s="204">
+        <f>123-B37</f>
         <v>50.425789144786407</v>
       </c>
-      <c r="C40">
-        <f>123-C38</f>
+      <c r="C38" s="204">
+        <f>123-C37</f>
         <v>50.425789144786407</v>
       </c>
     </row>
@@ -15348,422 +15491,655 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="126" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="E21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="38.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="69" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="5" max="5" width="34.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" style="182" customWidth="1"/>
+    <col min="10" max="10" width="18.90625" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="222"/>
+      <c r="B1" s="119" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="206"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="119" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="206">
         <f>B3*B6</f>
         <v>523.20000000000005</v>
       </c>
-      <c r="E2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2">
+      <c r="C2" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="206">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="206">
         <f>((B4)^2/16)*B5</f>
         <v>799.52256944444457</v>
       </c>
-      <c r="E3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3">
+      <c r="C3" s="119" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="206">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="119" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="209">
         <f>130*(1000/3600)</f>
         <v>36.111111111111114</v>
       </c>
-      <c r="E4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4">
+      <c r="C4" s="119" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="206">
         <v>0.27200000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5">
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="221" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="206">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6">
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="221" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="206">
         <f>523.2/B3</f>
         <v>0.65439053254437862</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9">
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="223" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="224"/>
+      <c r="C8" s="223" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="224"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="119" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="206">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E9">
+      <c r="C9" s="207">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D9" s="208"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="119" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="206">
+        <v>6</v>
+      </c>
+      <c r="C10" s="207">
+        <v>3</v>
+      </c>
+      <c r="D10" s="208"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="119" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="206">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="207">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="208"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="119" t="s">
         <v>302</v>
       </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11">
-        <v>0.7</v>
-      </c>
-      <c r="E11">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12">
+      <c r="B12" s="206">
         <f>B9*B10*B11</f>
         <v>0.189</v>
       </c>
-      <c r="E12">
-        <f>E9*E10*E11</f>
+      <c r="C12" s="207">
+        <f>C9*C10*C11</f>
         <v>9.4500000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13">
+      <c r="D12" s="208"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="119" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" s="206">
         <f>800*B12</f>
         <v>151.19999999999999</v>
       </c>
-      <c r="E13">
-        <f>800*E12</f>
+      <c r="C13" s="207">
+        <f>800*C12</f>
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F16" t="s">
-        <v>326</v>
-      </c>
-      <c r="H16" t="s">
-        <v>331</v>
-      </c>
-      <c r="K16" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>307</v>
-      </c>
-      <c r="B17">
+      <c r="D13" s="208"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="223" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" s="224"/>
+      <c r="C16" s="119" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="119" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="119" t="s">
+        <v>318</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="119" t="s">
+        <v>347</v>
+      </c>
+      <c r="I16" s="227"/>
+      <c r="J16" s="119" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="119" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="206">
         <v>93</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="206">
         <f>B17*B18</f>
         <v>558</v>
       </c>
-      <c r="E17">
+      <c r="D17" s="32"/>
+      <c r="E17" s="206">
         <v>93</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="206">
         <f>E17*E18</f>
         <v>558</v>
       </c>
-      <c r="H17">
+      <c r="G17" s="32"/>
+      <c r="H17" s="206">
         <v>93</v>
       </c>
-      <c r="K17">
+      <c r="J17" s="206">
         <f>2*B5</f>
         <v>19.62</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>308</v>
-      </c>
-      <c r="B18">
+      <c r="L17" s="119" t="s">
+        <v>340</v>
+      </c>
+      <c r="M17" s="206">
+        <f>-SUM(H17,H19,H21,H23,H24)</f>
+        <v>-755.30000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="119" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="206">
         <v>6</v>
       </c>
-      <c r="E18">
+      <c r="C18" s="206"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="206">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>309</v>
-      </c>
-      <c r="B19">
+      <c r="F18" s="206"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="L18" s="119" t="s">
+        <v>341</v>
+      </c>
+      <c r="M18" s="206">
+        <f>-SUM(J24,J25,J23,J21,J19,J17)</f>
+        <v>-139.30200000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="119" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="206">
         <v>36.5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="206">
         <f t="shared" ref="C19" si="0">B19*B20</f>
         <v>146</v>
       </c>
-      <c r="E19">
+      <c r="D19" s="32"/>
+      <c r="E19" s="206">
         <v>36.5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="206">
         <f>E19*E20</f>
         <v>146</v>
       </c>
-      <c r="H19">
+      <c r="G19" s="32"/>
+      <c r="H19" s="206">
         <v>36.5</v>
       </c>
-      <c r="K19">
+      <c r="J19" s="206">
         <f>1.5*B5</f>
         <v>14.715</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>310</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="119" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="206">
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="C20" s="206"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="206">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>314</v>
-      </c>
-      <c r="B21">
+      <c r="F20" s="206"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="206"/>
+      <c r="J20" s="206"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="119" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="206">
         <v>27</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="206">
         <f>B21*B22</f>
         <v>54</v>
       </c>
-      <c r="E21">
+      <c r="D21" s="32"/>
+      <c r="E21" s="206">
         <v>27</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="206">
         <f>E21*E22</f>
         <v>54</v>
       </c>
-      <c r="H21">
+      <c r="G21" s="32"/>
+      <c r="H21" s="206">
         <v>27</v>
       </c>
-      <c r="K21">
+      <c r="J21" s="206">
         <f>1.2*B5</f>
         <v>11.772</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>311</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="119" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="206">
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="C22" s="206"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="206">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>312</v>
-      </c>
-      <c r="B23">
+      <c r="F22" s="206"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="206"/>
+      <c r="J22" s="206"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="119" t="s">
+        <v>309</v>
+      </c>
+      <c r="B23" s="206">
         <v>523.20000000000005</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="206">
         <f>B23*B24</f>
         <v>261.60000000000002</v>
       </c>
-      <c r="E23">
+      <c r="D23" s="32"/>
+      <c r="E23" s="206">
         <v>523.20000000000005</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="206">
         <f>E23*E24</f>
         <v>261.60000000000002</v>
       </c>
-      <c r="H23">
+      <c r="G23" s="32"/>
+      <c r="H23" s="206">
         <v>523.20000000000005</v>
       </c>
-      <c r="K23">
+      <c r="J23" s="206">
         <f>5*9.81</f>
         <v>49.050000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>313</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="225" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="209">
         <v>0.5</v>
       </c>
-      <c r="E24">
+      <c r="C24" s="209"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="209">
         <v>0.5</v>
       </c>
-      <c r="H24">
-        <f>E13</f>
+      <c r="F24" s="209"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="209">
+        <f>C13</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="I24" t="s">
-        <v>333</v>
-      </c>
-      <c r="K24">
+      <c r="J24" s="206">
         <f>2*B5</f>
         <v>19.62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="210"/>
+      <c r="B25" s="210"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="210"/>
+      <c r="J25" s="206">
         <f>2.5*B5</f>
         <v>24.525000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="229" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26" s="182"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="206">
+        <v>2.9</v>
+      </c>
+      <c r="G26" s="32"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="226" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27" s="206">
         <f>SUM(C17,C19,C21,C23)</f>
         <v>1019.6</v>
       </c>
-      <c r="E26">
-        <f>SUM(F17,F21,F19,F23)</f>
-        <v>1019.6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>332</v>
-      </c>
-      <c r="I26">
-        <f>-SUM(H17,H19,H21,H23,H24)</f>
-        <v>-755.30000000000007</v>
-      </c>
-      <c r="K26">
-        <f>-SUM(K24,K25,K23,K21,K19,K17)</f>
-        <v>-139.30200000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>316</v>
-      </c>
-      <c r="B27">
+      <c r="C27" s="212"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="228">
+        <f>SUM(F17*(E26-E24),F19*(E26-E22),F21*(E20-E26),F23*(E18-E26))</f>
+        <v>2340.96</v>
+      </c>
+      <c r="F27" s="212"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="214"/>
+      <c r="J27" s="182"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="119" t="s">
+        <v>344</v>
+      </c>
+      <c r="B28" s="213">
         <f>0.045*280*((B10)^2-(3)^2)</f>
         <v>340.2</v>
       </c>
-      <c r="E27">
-        <f>(0.045*280*((E10)^2))*6</f>
+      <c r="C28" s="212"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="213">
+        <f>(0.045*280*((C10)^2))*6</f>
         <v>680.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>317</v>
-      </c>
-      <c r="B28">
-        <f>B26+B27</f>
+      <c r="F28" s="212"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="214"/>
+      <c r="J28" s="182"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="B29" s="213">
+        <f>B27+B28</f>
         <v>1359.8</v>
       </c>
-      <c r="E28">
-        <f>E26+E27</f>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>318</v>
-      </c>
-      <c r="B29">
-        <f>B28-355</f>
+      <c r="C29" s="211"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="213">
+        <f>E27+E28</f>
+        <v>3021.36</v>
+      </c>
+      <c r="F29" s="211"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="214"/>
+      <c r="J29" s="182"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="225" t="s">
+        <v>346</v>
+      </c>
+      <c r="B30" s="215">
+        <f>B29-355</f>
         <v>1004.8</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" s="220" t="s">
+        <v>331</v>
+      </c>
+      <c r="D30" s="216"/>
+      <c r="E30" s="217">
+        <f>E29-355</f>
+        <v>2666.36</v>
+      </c>
+      <c r="F30" s="219" t="s">
+        <v>332</v>
+      </c>
+      <c r="H30" s="182"/>
+      <c r="J30" s="182"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="205"/>
+      <c r="B31" s="205"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>322</v>
+      </c>
+      <c r="D33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
         <v>321</v>
       </c>
-      <c r="E29">
-        <f>E28-355</f>
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E34" t="s">
-        <v>329</v>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>523.20000000000005</v>
+      </c>
+      <c r="C42">
+        <f>B42*B43</f>
+        <v>261.60000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <f>SUM(C42)</f>
+        <v>261.60000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <f>0.045*280*((B10)^2-(3)^2)</f>
+        <v>340.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <f>B45+B46</f>
+        <v>601.79999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <f>B47-355</f>
+        <v>246.79999999999995</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Máster UPV\2º curso\ITSIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/6-1/ITSIT/Trabajo/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="39" documentId="14_{9F4157DC-F50C-4A01-87BD-49BE01D9B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5A21A05-D4ED-4A22-A868-FD9A65EB3215}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="2760" activeTab="1"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Satellite" sheetId="3" r:id="rId3"/>
     <sheet name="Mast + Tower" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="351">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -817,12 +818,6 @@
     <t>Amplificador input level, Sin (dBuV)</t>
   </si>
   <si>
-    <t>Preguntar que tipo de cable es este para buscar los valores que corresponden</t>
-  </si>
-  <si>
-    <t>Preguntar si los valores de Outdoor cable length son estos (Me tienen que decir Josepe estos valores a que altura estan las antenas estas)</t>
-  </si>
-  <si>
     <t>AMPLIFIER GAIN</t>
   </si>
   <si>
@@ -1085,15 +1080,27 @@
   </si>
   <si>
     <t>Fuerzas verticales (N)</t>
+  </si>
+  <si>
+    <t>CALCULATION OF AMPLITUDE-FREQUENCY RESPONSE AND RIPPLE</t>
+  </si>
+  <si>
+    <t>Planicity of the dispersion + interior network (worst outlet)</t>
+  </si>
+  <si>
+    <t>Planicity of the distribution network (worst outlet)</t>
+  </si>
+  <si>
+    <t>Total cable ripple (dB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2070,7 +2077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2404,8 +2411,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2472,19 +2479,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2497,26 +2499,11 @@
     <xf numFmtId="1" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2529,9 +2516,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2542,12 +2526,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2574,9 +2552,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2586,11 +2561,35 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2615,10 +2614,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2917,25 +2912,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O308"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O314"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G308" sqref="G308"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A315" sqref="A315"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.90625" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="59.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2967,7 +2962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2976,13 +2971,13 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
@@ -3017,7 +3012,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3052,7 +3047,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3087,7 +3082,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -3122,8 +3117,8 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
@@ -3134,7 +3129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -3168,7 +3163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>74</v>
       </c>
@@ -3202,7 +3197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
@@ -3234,7 +3229,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>65</v>
       </c>
@@ -3266,16 +3261,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
         <v>58</v>
       </c>
@@ -3307,7 +3302,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="54" t="s">
         <v>159</v>
       </c>
@@ -3354,7 +3349,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55" t="s">
         <v>158</v>
       </c>
@@ -3398,7 +3393,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="55" t="s">
         <v>157</v>
       </c>
@@ -3442,7 +3437,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="55" t="s">
         <v>187</v>
       </c>
@@ -3486,7 +3481,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="56" t="s">
         <v>156</v>
       </c>
@@ -3530,12 +3525,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="52"/>
       <c r="N24" s="91"/>
       <c r="O24" s="91"/>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="54" t="s">
         <v>155</v>
       </c>
@@ -3582,7 +3577,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="55" t="s">
         <v>154</v>
       </c>
@@ -3626,7 +3621,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="55" t="s">
         <v>153</v>
       </c>
@@ -3670,7 +3665,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="55" t="s">
         <v>188</v>
       </c>
@@ -3714,7 +3709,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
         <v>152</v>
       </c>
@@ -3758,12 +3753,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="52"/>
       <c r="N30" s="91"/>
       <c r="O30" s="91"/>
     </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="54" t="s">
         <v>127</v>
       </c>
@@ -3810,7 +3805,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55" t="s">
         <v>126</v>
       </c>
@@ -3854,7 +3849,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="55" t="s">
         <v>125</v>
       </c>
@@ -3899,7 +3894,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="55" t="s">
         <v>124</v>
       </c>
@@ -3943,7 +3938,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="55" t="s">
         <v>194</v>
       </c>
@@ -3987,7 +3982,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="56" t="s">
         <v>123</v>
       </c>
@@ -4031,12 +4026,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="52"/>
       <c r="N37" s="91"/>
       <c r="O37" s="91"/>
     </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="54" t="s">
         <v>122</v>
       </c>
@@ -4083,7 +4078,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="55" t="s">
         <v>121</v>
       </c>
@@ -4127,7 +4122,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="55" t="s">
         <v>120</v>
       </c>
@@ -4171,7 +4166,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="55" t="s">
         <v>119</v>
       </c>
@@ -4215,7 +4210,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="55" t="s">
         <v>194</v>
       </c>
@@ -4259,7 +4254,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="56" t="s">
         <v>118</v>
       </c>
@@ -4303,12 +4298,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="52"/>
       <c r="N44" s="91"/>
       <c r="O44" s="91"/>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="54" t="s">
         <v>151</v>
       </c>
@@ -4355,7 +4350,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="55" t="s">
         <v>150</v>
       </c>
@@ -4399,7 +4394,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="55" t="s">
         <v>149</v>
       </c>
@@ -4443,7 +4438,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="55" t="s">
         <v>189</v>
       </c>
@@ -4487,7 +4482,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="56" t="s">
         <v>148</v>
       </c>
@@ -4531,12 +4526,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="52"/>
       <c r="N50" s="91"/>
       <c r="O50" s="91"/>
     </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="54" t="s">
         <v>147</v>
       </c>
@@ -4583,7 +4578,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="55" t="s">
         <v>146</v>
       </c>
@@ -4627,7 +4622,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="55" t="s">
         <v>145</v>
       </c>
@@ -4671,7 +4666,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
         <v>190</v>
       </c>
@@ -4715,7 +4710,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="56" t="s">
         <v>144</v>
       </c>
@@ -4759,12 +4754,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="52"/>
       <c r="N56" s="91"/>
       <c r="O56" s="91"/>
     </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="54" t="s">
         <v>117</v>
       </c>
@@ -4811,7 +4806,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
         <v>116</v>
       </c>
@@ -4855,7 +4850,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="55" t="s">
         <v>115</v>
       </c>
@@ -4899,7 +4894,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="55" t="s">
         <v>114</v>
       </c>
@@ -4943,7 +4938,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="55" t="s">
         <v>195</v>
       </c>
@@ -4987,7 +4982,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="56" t="s">
         <v>113</v>
       </c>
@@ -5031,12 +5026,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="52"/>
       <c r="N63" s="91"/>
       <c r="O63" s="91"/>
     </row>
-    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="54" t="s">
         <v>112</v>
       </c>
@@ -5083,7 +5078,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
         <v>111</v>
       </c>
@@ -5127,7 +5122,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="55" t="s">
         <v>110</v>
       </c>
@@ -5171,7 +5166,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="55" t="s">
         <v>109</v>
       </c>
@@ -5215,7 +5210,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="55" t="s">
         <v>194</v>
       </c>
@@ -5259,7 +5254,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
         <v>108</v>
       </c>
@@ -5303,12 +5298,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="52"/>
       <c r="N70" s="91"/>
       <c r="O70" s="91"/>
     </row>
-    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="54" t="s">
         <v>143</v>
       </c>
@@ -5355,7 +5350,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="55" t="s">
         <v>142</v>
       </c>
@@ -5399,7 +5394,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="55" t="s">
         <v>141</v>
       </c>
@@ -5443,7 +5438,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="55" t="s">
         <v>140</v>
       </c>
@@ -5487,7 +5482,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
         <v>139</v>
       </c>
@@ -5531,12 +5526,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="52"/>
       <c r="N76" s="91"/>
       <c r="O76" s="91"/>
     </row>
-    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="54" t="s">
         <v>138</v>
       </c>
@@ -5583,7 +5578,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="55" t="s">
         <v>137</v>
       </c>
@@ -5627,7 +5622,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="55" t="s">
         <v>136</v>
       </c>
@@ -5671,7 +5666,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="55" t="s">
         <v>191</v>
       </c>
@@ -5715,7 +5710,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="56" t="s">
         <v>135</v>
       </c>
@@ -5759,12 +5754,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="52"/>
       <c r="N82" s="91"/>
       <c r="O82" s="91"/>
     </row>
-    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="54" t="s">
         <v>107</v>
       </c>
@@ -5811,7 +5806,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="55" t="s">
         <v>106</v>
       </c>
@@ -5855,7 +5850,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="55" t="s">
         <v>105</v>
       </c>
@@ -5903,7 +5898,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="55" t="s">
         <v>104</v>
       </c>
@@ -5951,7 +5946,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="55" t="s">
         <v>196</v>
       </c>
@@ -5999,7 +5994,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="56" t="s">
         <v>103</v>
       </c>
@@ -6047,7 +6042,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="52"/>
       <c r="B89" s="52"/>
       <c r="C89" s="52"/>
@@ -6063,7 +6058,7 @@
       <c r="N89" s="91"/>
       <c r="O89" s="91"/>
     </row>
-    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="54" t="s">
         <v>102</v>
       </c>
@@ -6113,7 +6108,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="55" t="s">
         <v>101</v>
       </c>
@@ -6161,7 +6156,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="55" t="s">
         <v>100</v>
       </c>
@@ -6205,7 +6200,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="55" t="s">
         <v>99</v>
       </c>
@@ -6249,7 +6244,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="55" t="s">
         <v>196</v>
       </c>
@@ -6293,7 +6288,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="56" t="s">
         <v>98</v>
       </c>
@@ -6337,11 +6332,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N96" s="92"/>
       <c r="O96" s="92"/>
     </row>
-    <row r="97" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="54" t="s">
         <v>134</v>
       </c>
@@ -6388,7 +6383,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="55" t="s">
         <v>133</v>
       </c>
@@ -6432,7 +6427,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="55" t="s">
         <v>132</v>
       </c>
@@ -6476,7 +6471,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="55" t="s">
         <v>192</v>
       </c>
@@ -6520,7 +6515,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="56" t="s">
         <v>131</v>
       </c>
@@ -6564,11 +6559,11 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N102" s="92"/>
       <c r="O102" s="92"/>
     </row>
-    <row r="103" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="54" t="s">
         <v>130</v>
       </c>
@@ -6615,7 +6610,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="55" t="s">
         <v>129</v>
       </c>
@@ -6659,7 +6654,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="55" t="s">
         <v>128</v>
       </c>
@@ -6703,7 +6698,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="55" t="s">
         <v>193</v>
       </c>
@@ -6747,7 +6742,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="56" t="s">
         <v>97</v>
       </c>
@@ -6791,11 +6786,11 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N108" s="92"/>
       <c r="O108" s="92"/>
     </row>
-    <row r="109" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="54" t="s">
         <v>96</v>
       </c>
@@ -6842,7 +6837,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="55" t="s">
         <v>95</v>
       </c>
@@ -6886,7 +6881,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="55" t="s">
         <v>94</v>
       </c>
@@ -6930,7 +6925,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="55" t="s">
         <v>93</v>
       </c>
@@ -6974,7 +6969,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="55" t="s">
         <v>197</v>
       </c>
@@ -7018,7 +7013,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="56" t="s">
         <v>92</v>
       </c>
@@ -7062,11 +7057,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="115" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N115" s="92"/>
       <c r="O115" s="92"/>
     </row>
-    <row r="116" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="54" t="s">
         <v>91</v>
       </c>
@@ -7113,7 +7108,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="117" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="55" t="s">
         <v>90</v>
       </c>
@@ -7157,7 +7152,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="55" t="s">
         <v>89</v>
       </c>
@@ -7201,7 +7196,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="55" t="s">
         <v>88</v>
       </c>
@@ -7245,7 +7240,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="55" t="s">
         <v>197</v>
       </c>
@@ -7289,7 +7284,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="56" t="s">
         <v>87</v>
       </c>
@@ -7333,11 +7328,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N122" s="92"/>
       <c r="O122" s="92"/>
     </row>
-    <row r="123" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="54" t="s">
         <v>62</v>
       </c>
@@ -7384,7 +7379,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="55" t="s">
         <v>63</v>
       </c>
@@ -7431,7 +7426,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="56" t="s">
         <v>64</v>
       </c>
@@ -7476,7 +7471,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="126" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -7489,7 +7484,7 @@
       <c r="K126"/>
       <c r="L126"/>
     </row>
-    <row r="127" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -7502,7 +7497,7 @@
       <c r="K127"/>
       <c r="L127"/>
     </row>
-    <row r="128" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -7515,7 +7510,7 @@
       <c r="K128"/>
       <c r="L128"/>
     </row>
-    <row r="129" spans="1:13" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:13" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="64" t="s">
         <v>10</v>
       </c>
@@ -7535,7 +7530,7 @@
       <c r="K129"/>
       <c r="L129"/>
     </row>
-    <row r="130" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="26" t="s">
         <v>13</v>
       </c>
@@ -7570,7 +7565,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="27" t="s">
         <v>20</v>
       </c>
@@ -7607,7 +7602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="24"/>
       <c r="B132" s="22" t="s">
         <v>36</v>
@@ -7642,7 +7637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="36" t="s">
         <v>34</v>
       </c>
@@ -7677,7 +7672,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="37"/>
       <c r="B134" s="35" t="s">
         <v>38</v>
@@ -7710,7 +7705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="38" t="s">
         <v>39</v>
       </c>
@@ -7745,7 +7740,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="39"/>
       <c r="B136" s="35" t="s">
         <v>41</v>
@@ -7778,7 +7773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="38" t="s">
         <v>42</v>
       </c>
@@ -7813,7 +7808,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="39"/>
       <c r="B138" s="35" t="s">
         <v>44</v>
@@ -7846,7 +7841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="38" t="s">
         <v>24</v>
       </c>
@@ -7881,7 +7876,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="39"/>
       <c r="B140" s="35" t="s">
         <v>14</v>
@@ -7914,7 +7909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="38" t="s">
         <v>27</v>
       </c>
@@ -7949,7 +7944,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="39"/>
       <c r="B142" s="35" t="s">
         <v>26</v>
@@ -7982,8 +7977,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="145" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="145" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
         <v>15</v>
       </c>
@@ -7991,7 +7986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="33" t="s">
         <v>29</v>
       </c>
@@ -8007,7 +8002,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="47" t="s">
         <v>56</v>
       </c>
@@ -8045,7 +8040,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="48"/>
       <c r="B148" s="35" t="s">
         <v>36</v>
@@ -8078,7 +8073,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="33" t="s">
         <v>29</v>
       </c>
@@ -8122,7 +8117,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="47" t="s">
         <v>34</v>
       </c>
@@ -8160,7 +8155,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="25"/>
       <c r="B151" s="35" t="s">
         <v>38</v>
@@ -8193,7 +8188,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="33" t="s">
         <v>29</v>
       </c>
@@ -8237,7 +8232,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="47" t="s">
         <v>34</v>
       </c>
@@ -8275,7 +8270,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="48"/>
       <c r="B154" s="35" t="s">
         <v>38</v>
@@ -8309,7 +8304,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="33" t="s">
         <v>29</v>
       </c>
@@ -8353,7 +8348,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="47" t="s">
         <v>39</v>
       </c>
@@ -8391,7 +8386,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="34"/>
       <c r="B157" s="35" t="s">
         <v>41</v>
@@ -8425,7 +8420,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="33" t="s">
         <v>29</v>
       </c>
@@ -8469,7 +8464,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="47" t="s">
         <v>27</v>
       </c>
@@ -8507,7 +8502,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="48"/>
       <c r="B160" s="35" t="s">
         <v>26</v>
@@ -8541,7 +8536,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="33" t="s">
         <v>17</v>
       </c>
@@ -8585,7 +8580,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="74" t="s">
         <v>16</v>
       </c>
@@ -8619,8 +8614,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="166" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="166" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="13" t="s">
         <v>19</v>
       </c>
@@ -8652,7 +8647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="54" t="s">
         <v>86</v>
       </c>
@@ -8693,7 +8688,7 @@
         <v>9.625</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="55" t="s">
         <v>85</v>
       </c>
@@ -8734,7 +8729,7 @@
         <v>9.2850000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="56" t="s">
         <v>84</v>
       </c>
@@ -8775,8 +8770,8 @@
         <v>10.129999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="171" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="171" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="54" t="s">
         <v>159</v>
       </c>
@@ -8817,7 +8812,7 @@
         <v>9.5350000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="55" t="s">
         <v>158</v>
       </c>
@@ -8858,7 +8853,7 @@
         <v>9.1900000000000013</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="55" t="s">
         <v>157</v>
       </c>
@@ -8899,7 +8894,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="55" t="s">
         <v>160</v>
       </c>
@@ -8940,7 +8935,7 @@
         <v>7.2350000000000003</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="56" t="s">
         <v>156</v>
       </c>
@@ -8981,10 +8976,10 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="52"/>
     </row>
-    <row r="177" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="54" t="s">
         <v>155</v>
       </c>
@@ -9025,7 +9020,7 @@
         <v>9.5350000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="55" t="s">
         <v>154</v>
       </c>
@@ -9066,7 +9061,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="55" t="s">
         <v>153</v>
       </c>
@@ -9107,7 +9102,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="55" t="s">
         <v>161</v>
       </c>
@@ -9148,7 +9143,7 @@
         <v>7.2350000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="56" t="s">
         <v>152</v>
       </c>
@@ -9189,10 +9184,10 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="52"/>
     </row>
-    <row r="183" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="54" t="s">
         <v>127</v>
       </c>
@@ -9233,7 +9228,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="55" t="s">
         <v>126</v>
       </c>
@@ -9274,7 +9269,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="55" t="s">
         <v>125</v>
       </c>
@@ -9315,7 +9310,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="55" t="s">
         <v>124</v>
       </c>
@@ -9356,7 +9351,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="55" t="s">
         <v>162</v>
       </c>
@@ -9397,7 +9392,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="56" t="s">
         <v>123</v>
       </c>
@@ -9438,10 +9433,10 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="52"/>
     </row>
-    <row r="190" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="54" t="s">
         <v>122</v>
       </c>
@@ -9482,7 +9477,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="55" t="s">
         <v>121</v>
       </c>
@@ -9523,7 +9518,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="55" t="s">
         <v>120</v>
       </c>
@@ -9564,7 +9559,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="55" t="s">
         <v>119</v>
       </c>
@@ -9605,7 +9600,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="55" t="s">
         <v>162</v>
       </c>
@@ -9646,7 +9641,7 @@
         <v>8.3850000000000016</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="56" t="s">
         <v>118</v>
       </c>
@@ -9687,10 +9682,10 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="52"/>
     </row>
-    <row r="197" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="54" t="s">
         <v>151</v>
       </c>
@@ -9731,7 +9726,7 @@
         <v>8.7349999999999994</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="55" t="s">
         <v>150</v>
       </c>
@@ -9772,7 +9767,7 @@
         <v>8.39</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="55" t="s">
         <v>149</v>
       </c>
@@ -9813,7 +9808,7 @@
         <v>7.9300000000000006</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="55" t="s">
         <v>163</v>
       </c>
@@ -9854,7 +9849,7 @@
         <v>6.4350000000000005</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="56" t="s">
         <v>148</v>
       </c>
@@ -9895,10 +9890,10 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="52"/>
     </row>
-    <row r="203" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="54" t="s">
         <v>147</v>
       </c>
@@ -9939,7 +9934,7 @@
         <v>8.7349999999999994</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="55" t="s">
         <v>146</v>
       </c>
@@ -9980,7 +9975,7 @@
         <v>7.9300000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="55" t="s">
         <v>145</v>
       </c>
@@ -10021,7 +10016,7 @@
         <v>7.9300000000000006</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="55" t="s">
         <v>164</v>
       </c>
@@ -10062,7 +10057,7 @@
         <v>6.4350000000000005</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="56" t="s">
         <v>144</v>
       </c>
@@ -10103,10 +10098,10 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="52"/>
     </row>
-    <row r="209" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="54" t="s">
         <v>117</v>
       </c>
@@ -10147,7 +10142,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="55" t="s">
         <v>116</v>
       </c>
@@ -10188,7 +10183,7 @@
         <v>9.77</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="55" t="s">
         <v>115</v>
       </c>
@@ -10229,7 +10224,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="55" t="s">
         <v>114</v>
       </c>
@@ -10270,7 +10265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="55" t="s">
         <v>165</v>
       </c>
@@ -10311,7 +10306,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="56" t="s">
         <v>113</v>
       </c>
@@ -10352,10 +10347,10 @@
         <v>6.5500000000000007</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="52"/>
     </row>
-    <row r="216" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="54" t="s">
         <v>112</v>
       </c>
@@ -10396,7 +10391,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="55" t="s">
         <v>111</v>
       </c>
@@ -10437,7 +10432,7 @@
         <v>9.77</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="55" t="s">
         <v>110</v>
       </c>
@@ -10478,7 +10473,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="55" t="s">
         <v>109</v>
       </c>
@@ -10519,7 +10514,7 @@
         <v>9.77</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="55" t="s">
         <v>165</v>
       </c>
@@ -10560,7 +10555,7 @@
         <v>7.5850000000000009</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="56" t="s">
         <v>108</v>
       </c>
@@ -10601,10 +10596,10 @@
         <v>6.5500000000000007</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="52"/>
     </row>
-    <row r="223" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="54" t="s">
         <v>143</v>
       </c>
@@ -10645,7 +10640,7 @@
         <v>7.9350000000000005</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="55" t="s">
         <v>142</v>
       </c>
@@ -10686,7 +10681,7 @@
         <v>7.59</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="55" t="s">
         <v>141</v>
       </c>
@@ -10727,7 +10722,7 @@
         <v>7.1300000000000008</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="55" t="s">
         <v>140</v>
       </c>
@@ -10768,7 +10763,7 @@
         <v>5.6349999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="56" t="s">
         <v>139</v>
       </c>
@@ -10809,10 +10804,10 @@
         <v>7.3599999999999994</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="52"/>
     </row>
-    <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="54" t="s">
         <v>138</v>
       </c>
@@ -10853,7 +10848,7 @@
         <v>7.9350000000000005</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="55" t="s">
         <v>137</v>
       </c>
@@ -10894,7 +10889,7 @@
         <v>7.1300000000000008</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="55" t="s">
         <v>136</v>
       </c>
@@ -10935,7 +10930,7 @@
         <v>7.1300000000000008</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="55" t="s">
         <v>166</v>
       </c>
@@ -10976,7 +10971,7 @@
         <v>5.6349999999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="56" t="s">
         <v>135</v>
       </c>
@@ -11017,10 +11012,10 @@
         <v>7.3599999999999994</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="52"/>
     </row>
-    <row r="235" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="54" t="s">
         <v>107</v>
       </c>
@@ -11061,7 +11056,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="55" t="s">
         <v>106</v>
       </c>
@@ -11102,7 +11097,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="55" t="s">
         <v>105</v>
       </c>
@@ -11143,7 +11138,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="55" t="s">
         <v>104</v>
       </c>
@@ -11184,7 +11179,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="55" t="s">
         <v>167</v>
       </c>
@@ -11225,7 +11220,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="56" t="s">
         <v>103</v>
       </c>
@@ -11266,10 +11261,10 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="52"/>
     </row>
-    <row r="242" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="54" t="s">
         <v>102</v>
       </c>
@@ -11310,7 +11305,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="55" t="s">
         <v>101</v>
       </c>
@@ -11351,7 +11346,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="55" t="s">
         <v>100</v>
       </c>
@@ -11392,7 +11387,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="55" t="s">
         <v>99</v>
       </c>
@@ -11433,7 +11428,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="55" t="s">
         <v>167</v>
       </c>
@@ -11474,7 +11469,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="56" t="s">
         <v>98</v>
       </c>
@@ -11515,10 +11510,10 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="52"/>
     </row>
-    <row r="249" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="54" t="s">
         <v>134</v>
       </c>
@@ -11559,7 +11554,7 @@
         <v>7.1349999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="55" t="s">
         <v>133</v>
       </c>
@@ -11600,7 +11595,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="55" t="s">
         <v>132</v>
       </c>
@@ -11641,7 +11636,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="55" t="s">
         <v>168</v>
       </c>
@@ -11682,7 +11677,7 @@
         <v>4.835</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="56" t="s">
         <v>131</v>
       </c>
@@ -11723,10 +11718,10 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="52"/>
     </row>
-    <row r="255" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="54" t="s">
         <v>130</v>
       </c>
@@ -11767,7 +11762,7 @@
         <v>7.1349999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="55" t="s">
         <v>129</v>
       </c>
@@ -11808,7 +11803,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="55" t="s">
         <v>128</v>
       </c>
@@ -11849,7 +11844,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="55" t="s">
         <v>169</v>
       </c>
@@ -11890,7 +11885,7 @@
         <v>4.835</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="56" t="s">
         <v>97</v>
       </c>
@@ -11931,10 +11926,10 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="52"/>
     </row>
-    <row r="261" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="54" t="s">
         <v>96</v>
       </c>
@@ -11975,7 +11970,7 @@
         <v>6.1000000000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="55" t="s">
         <v>95</v>
       </c>
@@ -12016,7 +12011,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="55" t="s">
         <v>94</v>
       </c>
@@ -12057,7 +12052,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="55" t="s">
         <v>93</v>
       </c>
@@ -12098,7 +12093,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="55" t="s">
         <v>170</v>
       </c>
@@ -12139,7 +12134,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="56" t="s">
         <v>92</v>
       </c>
@@ -12180,10 +12175,10 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="52"/>
     </row>
-    <row r="268" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="54" t="s">
         <v>91</v>
       </c>
@@ -12224,7 +12219,7 @@
         <v>6.1000000000000005</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="55" t="s">
         <v>90</v>
       </c>
@@ -12265,7 +12260,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="55" t="s">
         <v>89</v>
       </c>
@@ -12306,7 +12301,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="55" t="s">
         <v>88</v>
       </c>
@@ -12347,7 +12342,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="55" t="s">
         <v>170</v>
       </c>
@@ -12388,7 +12383,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="56" t="s">
         <v>87</v>
       </c>
@@ -12429,11 +12424,11 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="52"/>
     </row>
-    <row r="275" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="276" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="276" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="54" t="s">
         <v>77</v>
       </c>
@@ -12474,7 +12469,7 @@
         <v>4.835</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="56" t="s">
         <v>78</v>
       </c>
@@ -12515,23 +12510,23 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="280" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="280" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C280" s="198" t="s">
+      <c r="C280" s="217" t="s">
         <v>198</v>
       </c>
-      <c r="D280" s="199"/>
-      <c r="E280" s="200"/>
-      <c r="G280" s="198" t="s">
+      <c r="D280" s="218"/>
+      <c r="E280" s="219"/>
+      <c r="G280" s="217" t="s">
         <v>199</v>
       </c>
-      <c r="H280" s="199"/>
-      <c r="I280" s="200"/>
-    </row>
-    <row r="281" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H280" s="218"/>
+      <c r="I280" s="219"/>
+    </row>
+    <row r="281" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="81" t="s">
         <v>83</v>
       </c>
@@ -12554,7 +12549,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="79" t="s">
         <v>80</v>
       </c>
@@ -12583,7 +12578,7 @@
         <v>2.8019999999999996</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="78" t="s">
         <v>81</v>
       </c>
@@ -12612,7 +12607,7 @@
         <v>4.2000000000000028</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="78" t="s">
         <v>82</v>
       </c>
@@ -12641,8 +12636,8 @@
         <v>19.460000000000008</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="287" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="287" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C287" s="114" t="s">
         <v>224</v>
       </c>
@@ -12650,7 +12645,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="114" t="s">
         <v>172</v>
       </c>
@@ -12663,7 +12658,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C289" s="83" t="s">
         <v>171</v>
       </c>
@@ -12671,18 +12666,18 @@
         <v>171</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="291" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="291" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="114" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="78" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C293" s="127" t="s">
         <v>49</v>
       </c>
@@ -12696,7 +12691,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="124" t="s">
         <v>228</v>
       </c>
@@ -12713,7 +12708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="125" t="s">
         <v>229</v>
       </c>
@@ -12730,13 +12725,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="297" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="297" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="126" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="124" t="s">
         <v>231</v>
       </c>
@@ -12757,7 +12752,7 @@
         <v>104.52500000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="125" t="s">
         <v>232</v>
       </c>
@@ -12778,8 +12773,8 @@
         <v>105.26300000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="301" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="301" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="78" t="s">
         <v>233</v>
       </c>
@@ -12800,7 +12795,7 @@
         <v>105.07849999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="78" t="s">
         <v>234</v>
       </c>
@@ -12817,7 +12812,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="78" t="s">
         <v>235</v>
       </c>
@@ -12834,10 +12829,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="126" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C306" s="114" t="s">
         <v>227</v>
@@ -12846,9 +12841,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="124" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C307" s="179">
         <f>E302-MAX(G277:K277)</f>
@@ -12859,9 +12854,9 @@
         <v>47.474999999999994</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="125" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C308" s="60">
         <f>E302-MIN(G276:K276)</f>
@@ -12870,6 +12865,39 @@
       <c r="D308" s="63">
         <f>F302-MIN(L277:M277)</f>
         <v>51.674999999999997</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="126" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="B312" s="21">
+        <f>N161+N158+N155</f>
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="B313" s="21">
+        <f>E31*N6+D34*N5</f>
+        <v>5.879999999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="B314" s="90">
+        <f>B312+B313</f>
+        <v>7.0409999999999986</v>
       </c>
     </row>
   </sheetData>
@@ -12887,21 +12915,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="O91" sqref="O91"/>
+    <sheetView topLeftCell="A68" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="15" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>47</v>
       </c>
@@ -12919,7 +12947,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J1" s="42" t="s">
         <v>236</v>
@@ -12940,7 +12968,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>48</v>
       </c>
@@ -12979,17 +13007,17 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
         <v>53</v>
       </c>
@@ -13023,19 +13051,17 @@
       <c r="O5" s="2">
         <v>0.23</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
         <v>71</v>
       </c>
@@ -13043,7 +13069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -13051,7 +13077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>73</v>
       </c>
@@ -13077,7 +13103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>203</v>
       </c>
@@ -13085,7 +13111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>204</v>
       </c>
@@ -13093,16 +13119,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="101" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>174</v>
       </c>
@@ -13140,7 +13166,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>175</v>
       </c>
@@ -13175,7 +13201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>176</v>
       </c>
@@ -13210,7 +13236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>177</v>
       </c>
@@ -13245,7 +13271,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>178</v>
       </c>
@@ -13280,13 +13306,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="101" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>174</v>
       </c>
@@ -13312,7 +13338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>175</v>
       </c>
@@ -13338,7 +13364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>176</v>
       </c>
@@ -13364,7 +13390,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>180</v>
       </c>
@@ -13390,7 +13416,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>178</v>
       </c>
@@ -13416,13 +13442,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="105" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="107" t="s">
         <v>182</v>
       </c>
@@ -13454,7 +13480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="107" t="s">
         <v>183</v>
       </c>
@@ -13486,9 +13512,9 @@
         <v>15</v>
       </c>
       <c r="O33" s="181"/>
-      <c r="P33" s="187"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P33" s="185"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="107" t="s">
         <v>184</v>
       </c>
@@ -13529,7 +13555,7 @@
         <v>60.0331979307064</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="107" t="s">
         <v>185</v>
       </c>
@@ -13561,7 +13587,7 @@
         <v>60.73</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="109" t="s">
         <v>186</v>
       </c>
@@ -13593,8 +13619,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="127" t="s">
         <v>245</v>
       </c>
@@ -13602,12 +13628,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="126" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="124" t="s">
         <v>242</v>
       </c>
@@ -13652,7 +13678,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="149" t="s">
         <v>243</v>
       </c>
@@ -13687,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="149" t="s">
         <v>244</v>
       </c>
@@ -13738,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="155" t="s">
         <v>247</v>
       </c>
@@ -13783,7 +13809,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="149" t="s">
         <v>248</v>
       </c>
@@ -13828,7 +13854,7 @@
         <v>113.03201501575784</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="125" t="s">
         <v>249</v>
       </c>
@@ -13873,89 +13899,96 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="126" t="s">
         <v>254</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="148" t="s">
         <v>255</v>
       </c>
       <c r="F49" s="135">
-        <v>6</v>
+        <f>18+'Mast + Tower'!B22</f>
+        <v>20</v>
       </c>
       <c r="G49" s="136">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B20</f>
+        <v>22</v>
       </c>
       <c r="H49" s="136">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
       </c>
       <c r="I49" s="136">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
       </c>
       <c r="J49" s="136">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
       </c>
       <c r="K49" s="136">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
       </c>
       <c r="L49" s="136">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
       </c>
       <c r="M49" s="136">
-        <v>8</v>
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
       </c>
       <c r="N49" s="137">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+        <f>18+'Mast + Tower'!B18</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="149" t="s">
         <v>256</v>
       </c>
       <c r="F50" s="146">
         <f>F5*F49</f>
-        <v>0.30000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G50" s="21">
         <f>G5*G49</f>
-        <v>0.48</v>
+        <v>1.3199999999999998</v>
       </c>
       <c r="H50" s="21">
         <f>H5*H49</f>
-        <v>0.8</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="I50" s="21">
         <f t="shared" ref="I50:M50" si="4">I5*I49</f>
-        <v>0.8</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="J50" s="21">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K50" s="21">
         <f t="shared" si="4"/>
-        <v>0.88</v>
+        <v>2.64</v>
       </c>
       <c r="L50" s="21">
         <f t="shared" si="4"/>
-        <v>0.88</v>
+        <v>2.64</v>
       </c>
       <c r="M50" s="21">
         <f t="shared" si="4"/>
-        <v>0.88</v>
+        <v>2.64</v>
       </c>
       <c r="N50" s="147">
         <f>N5*N49</f>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="149" t="s">
         <v>243</v>
       </c>
@@ -13987,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="149" t="s">
         <v>244</v>
       </c>
@@ -14034,143 +14067,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="149" t="s">
         <v>257</v>
       </c>
       <c r="F53" s="146">
         <f t="shared" ref="F53:N53" si="5">F52+F50</f>
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="G53" s="21">
         <f t="shared" si="5"/>
-        <v>2.58</v>
+        <v>3.42</v>
       </c>
       <c r="H53" s="21">
         <f t="shared" si="5"/>
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="I53" s="21">
         <f t="shared" si="5"/>
-        <v>3.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J53" s="21">
         <f t="shared" si="5"/>
-        <v>2.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K53" s="21">
         <f t="shared" si="5"/>
-        <v>2.38</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="L53" s="21">
         <f t="shared" si="5"/>
-        <v>1.88</v>
+        <v>3.64</v>
       </c>
       <c r="M53" s="21">
         <f t="shared" si="5"/>
-        <v>1.38</v>
+        <v>3.14</v>
       </c>
       <c r="N53" s="147">
         <f t="shared" si="5"/>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="150" t="s">
         <v>258</v>
       </c>
       <c r="F54" s="138">
         <f t="shared" ref="F54:N54" si="6">F32-F53</f>
-        <v>67.3</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="G54" s="139">
         <f t="shared" si="6"/>
-        <v>55.42</v>
+        <v>54.58</v>
       </c>
       <c r="H54" s="139">
         <f t="shared" si="6"/>
-        <v>46.2</v>
+        <v>44.6</v>
       </c>
       <c r="I54" s="139">
         <f t="shared" si="6"/>
-        <v>46.7</v>
+        <v>45.1</v>
       </c>
       <c r="J54" s="139">
         <f t="shared" si="6"/>
-        <v>47.2</v>
+        <v>45.6</v>
       </c>
       <c r="K54" s="139">
         <f t="shared" si="6"/>
-        <v>47.62</v>
+        <v>45.86</v>
       </c>
       <c r="L54" s="139">
         <f t="shared" si="6"/>
-        <v>48.12</v>
+        <v>46.36</v>
       </c>
       <c r="M54" s="139">
         <f t="shared" si="6"/>
-        <v>48.62</v>
+        <v>46.86</v>
       </c>
       <c r="N54" s="140">
         <f t="shared" si="6"/>
-        <v>49.12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>47.36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="148" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="126" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="148" t="s">
-        <v>263</v>
       </c>
       <c r="F58" s="135">
         <f>F44-(F32-F53)</f>
-        <v>35.100000000000009</v>
+        <v>35.800000000000011</v>
       </c>
       <c r="G58" s="136">
         <f>G44-(G32-G53)</f>
-        <v>44.679999999999993</v>
+        <v>45.519999999999996</v>
       </c>
       <c r="H58" s="136">
         <f>H44-(H32-H53)</f>
-        <v>60.8</v>
+        <v>62.4</v>
       </c>
       <c r="I58" s="136">
         <f>I44-(I32-I53)</f>
-        <v>59.8</v>
+        <v>61.4</v>
       </c>
       <c r="J58" s="136">
         <f t="shared" ref="J58:N58" si="7">J44-(J32-J53)</f>
-        <v>58.8</v>
+        <v>60.4</v>
       </c>
       <c r="K58" s="136">
         <f t="shared" si="7"/>
-        <v>57.88</v>
+        <v>59.64</v>
       </c>
       <c r="L58" s="136">
         <f t="shared" si="7"/>
-        <v>56.88</v>
+        <v>58.64</v>
       </c>
       <c r="M58" s="136">
         <f t="shared" si="7"/>
-        <v>55.88</v>
+        <v>57.64</v>
       </c>
       <c r="N58" s="137">
         <f t="shared" si="7"/>
-        <v>54.88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>56.64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="150" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F59" s="163" t="str">
         <f>IF(AND(F16&gt;F58,(F16-F17)&lt;F58),"OK","NO")</f>
@@ -14209,56 +14242,56 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="126" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="148" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F62" s="135">
         <f>IF(F58-F24&gt;F16-F17,F58-F24,F16-F17)</f>
-        <v>35.100000000000009</v>
+        <v>35.800000000000011</v>
       </c>
       <c r="G62" s="136">
         <f t="shared" ref="G62:N62" si="9">IF(G58-G24&gt;G16-G17,G58-G24,G16-G17)</f>
-        <v>44.679999999999993</v>
+        <v>45.519999999999996</v>
       </c>
       <c r="H62" s="136">
         <f t="shared" si="9"/>
-        <v>32.799999999999997</v>
+        <v>34.4</v>
       </c>
       <c r="I62" s="136">
         <f>IF(I58-I24&gt;I16-I17,I58-I24,I16-I17)</f>
-        <v>31.799999999999997</v>
+        <v>33.4</v>
       </c>
       <c r="J62" s="136">
         <f t="shared" si="9"/>
-        <v>30.799999999999997</v>
+        <v>32.4</v>
       </c>
       <c r="K62" s="136">
         <f t="shared" si="9"/>
-        <v>29.880000000000003</v>
+        <v>31.64</v>
       </c>
       <c r="L62" s="136">
         <f t="shared" si="9"/>
-        <v>28.880000000000003</v>
+        <v>30.64</v>
       </c>
       <c r="M62" s="136">
         <f t="shared" si="9"/>
-        <v>27.880000000000003</v>
+        <v>29.64</v>
       </c>
       <c r="N62" s="137">
         <f t="shared" si="9"/>
-        <v>26.880000000000003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+        <v>28.64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="149" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F63" s="146">
         <f>F58-F62</f>
@@ -14298,9 +14331,9 @@
       </c>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="150" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F64" s="163" t="str">
         <f>IF(AND(F16&gt;F62,(F16-F17)&lt;F62),"OK","NO")</f>
@@ -14339,15 +14372,15 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="170" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="149" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F67" s="135">
         <v>0.15</v>
@@ -14377,9 +14410,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="149" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F68" s="146">
         <v>290</v>
@@ -14409,9 +14442,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="149" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F69" s="146">
         <v>-13</v>
@@ -14441,9 +14474,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="150" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F70" s="138">
         <v>38</v>
@@ -14473,103 +14506,103 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="171" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="172" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="149" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B74" s="1"/>
       <c r="F74" s="135">
         <f>10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>16.537205707170102</v>
+        <v>16.779680899642923</v>
       </c>
       <c r="G74" s="136">
         <f>10*LOG10(10^((G18+G53)/10)+10^((G53-G58)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>12.448242010510427</v>
+        <v>13.147592929371502</v>
       </c>
       <c r="H74" s="136">
         <f>10*LOG10(10^((H18+H53)/10)+10^((H53-H58)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>12.837121168044634</v>
+        <v>14.425715360153408</v>
       </c>
       <c r="I74" s="136">
         <f>10*LOG10(10^((I18+I53)/10)+10^((I53-I58)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>12.341628930936814</v>
+        <v>13.928842668311461</v>
       </c>
       <c r="J74" s="136">
         <f>10*LOG10(10^((J18+J53)/10)+10^((J53-J58)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>11.846681144362297</v>
+        <v>13.432348875919986</v>
       </c>
       <c r="K74" s="136">
         <f>10*LOG10(10^((K18+K53)/10)+10^((K53-K58)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>11.431393079318745</v>
+        <v>13.174336724245999</v>
       </c>
       <c r="L74" s="136">
         <f>10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((L43+Network!K277)/10)-1))</f>
-        <v>11.004322432591573</v>
+        <v>12.723293121364554</v>
       </c>
       <c r="M74" s="136">
         <f>10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((M43+Network!K277)/10)-1))</f>
-        <v>10.51925115842595</v>
+        <v>12.233347830022003</v>
       </c>
       <c r="N74" s="137">
         <f>10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((N43+Network!K277)/10)-1))</f>
-        <v>10.035940560689802</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11.744601729619896</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="149" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F75" s="166">
         <f>F32-F69-10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>66.462794292829898</v>
+        <v>66.220319100357074</v>
       </c>
       <c r="G75" s="90">
         <f>G32-G69-10*LOG10(10^((G18+G53)/10)+10^((G53-G58)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>48.551757989489573</v>
+        <v>47.852407070628502</v>
       </c>
       <c r="H75" s="90">
         <f>H32-H69-10*LOG10(10^((H18+H53)/10)+10^((H53-H58)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>33.162878831955368</v>
+        <v>31.574284639846592</v>
       </c>
       <c r="I75" s="90">
         <f>I32-I69-10*LOG10(10^((I18+I53)/10)+10^((I53-I58)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>33.658371069063186</v>
+        <v>32.071157331688539</v>
       </c>
       <c r="J75" s="90">
         <f>J32-J69-10*LOG10(10^((J18+J53)/10)+10^((J53-J58)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>34.153318855637707</v>
+        <v>32.567651124080015</v>
       </c>
       <c r="K75" s="90">
         <f>K32-K69-10*LOG10(10^((K18+K53)/10)+10^((K53-K58)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>34.568606920681255</v>
+        <v>32.825663275754003</v>
       </c>
       <c r="L75" s="90">
         <f>L32-L69-10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((J43+Network!O277)/10)-1))</f>
-        <v>35.119979752503028</v>
+        <v>33.35998649882147</v>
       </c>
       <c r="M75" s="90">
         <f>M32-M69-10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((J43+Network!P277)/10)-1))</f>
-        <v>35.619999174226699</v>
+        <v>33.859999449368757</v>
       </c>
       <c r="N75" s="168">
         <f>N32-N69-10*LOG10(10^((N18+N53)/10)+10^((N53-N58)/10)*(10^((J43+Network!Q277)/10)-1))</f>
-        <v>36.119998960413028</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>34.35999930679634</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="150" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F76" s="163" t="str">
         <f>IF(F75&gt;=F70,"OK","NO")</f>
@@ -14608,98 +14641,98 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="170" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="149" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F79" s="135">
         <f>10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>16.537205707170102</v>
+        <v>16.779680899642923</v>
       </c>
       <c r="G79" s="136">
         <f>10*LOG10(10^(G26/10)+(10^(G53/10)-1)/10^(G63/10)+(10^(G18/10)-1)*10^(G53/10)/10^(G63/10)+10^((G53-G62-G63)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>12.448242010510429</v>
+        <v>13.147592929371502</v>
       </c>
       <c r="H79" s="136">
         <f>10*LOG10(10^(H26/10)+(10^(H53/10)-1)/10^(H63/10)+(10^(H18/10)-1)*10^(H53/10)/10^(H63/10)+10^((H53-H62-H63)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>6.6829431135643471</v>
+        <v>6.6954645101141157</v>
       </c>
       <c r="I79" s="136">
         <f>10*LOG10(10^(I26/10)+(10^(I53/10)-1)/10^(I63/10)+(10^(I18/10)-1)*10^(I53/10)/10^(I63/10)+10^((I53-I62-I63)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>6.6798804391014315</v>
+        <v>6.6910497575131398</v>
       </c>
       <c r="J79" s="136">
         <f>10*LOG10(10^(J26/10)+(10^(J53/10)-1)/10^(J63/10)+(10^(J18/10)-1)*10^(J53/10)/10^(J63/10)+10^((J53-J62-J63)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>6.6771489537078939</v>
+        <v>6.6871112669985608</v>
       </c>
       <c r="K79" s="136">
         <f>10*LOG10(10^(K26/10)+(10^(K53/10)-1)/10^(K63/10)+(10^(K18/10)-1)*10^(K53/10)/10^(K63/10)+10^((K53-K62-K63)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>6.6750842057365247</v>
+        <v>6.6852341688357919</v>
       </c>
       <c r="L79" s="136">
         <f>10*LOG10(10^(L26/10)+(10^(L53/10)-1)/10^(L63/10)+(10^(L18/10)-1)*10^(L53/10)/10^(L63/10)+10^((L53-L62-L63)/10)*(10^((L43+Network!K277)/10)-1))</f>
-        <v>6.8487120708452345</v>
+        <v>6.8574051682622006</v>
       </c>
       <c r="M79" s="136">
         <f>10*LOG10(10^(M26/10)+(10^(M53/10)-1)/10^(M63/10)+(10^(M18/10)-1)*10^(M53/10)/10^(M63/10)+10^((M53-M62-M63)/10)*(10^((M43+Network!K277)/10)-1))</f>
-        <v>6.8468174917760871</v>
+        <v>6.8545694438043423</v>
       </c>
       <c r="N79" s="137">
         <f>10*LOG10(10^(N26/10)+(10^(N53/10)-1)/10^(N63/10)+(10^(N18/10)-1)*10^(N53/10)/10^(N63/10)+10^((N53-N62-N63)/10)*(10^((N43+Network!K277)/10)-1))</f>
-        <v>6.8451281695987118</v>
+        <v>6.8520404604457941</v>
       </c>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="149" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F80" s="166">
         <f>F32-F69-10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
-        <v>66.462794292829898</v>
+        <v>66.220319100357074</v>
       </c>
       <c r="G80" s="90">
         <f>G32-G69-10*LOG10(10^(G26/10)+(10^(G53/10)-1)/10^(G63/10)+(10^(G18/10)-1)*10^(G53/10)/10^(G63/10)+10^((G53-G62-G63)/10)*(10^((G43+Network!I277)/10)-1))</f>
-        <v>48.551757989489573</v>
+        <v>47.852407070628502</v>
       </c>
       <c r="H80" s="90">
         <f>H32-H69-10*LOG10(10^(H26/10)+(10^(H53/10)-1)/10^(H63/10)+(10^(H18/10)-1)*10^(H53/10)/10^(H63/10)+10^((H53-H62-H63)/10)*(10^((H43+Network!J277)/10)-1))</f>
-        <v>39.317056886435651</v>
+        <v>39.304535489885886</v>
       </c>
       <c r="I80" s="90">
         <f>I32-I69-10*LOG10(10^(I26/10)+(10^(I53/10)-1)/10^(I63/10)+(10^(I18/10)-1)*10^(I53/10)/10^(I63/10)+10^((I53-I62-I63)/10)*(10^((I43+Network!J277)/10)-1))</f>
-        <v>39.320119560898569</v>
+        <v>39.308950242486858</v>
       </c>
       <c r="J80" s="90">
         <f>J32-J69-10*LOG10(10^(J26/10)+(10^(J53/10)-1)/10^(J63/10)+(10^(J18/10)-1)*10^(J53/10)/10^(J63/10)+10^((J53-J62-J63)/10)*(10^((J43+Network!J277)/10)-1))</f>
-        <v>39.322851046292108</v>
+        <v>39.312888733001436</v>
       </c>
       <c r="K80" s="90">
         <f>K32-K69-10*LOG10(10^(K26/10)+(10^(K53/10)-1)/10^(K63/10)+(10^(K18/10)-1)*10^(K53/10)/10^(K63/10)+10^((K53-K62-K63)/10)*(10^((K43+Network!J277)/10)-1))</f>
-        <v>39.324915794263475</v>
+        <v>39.314765831164209</v>
       </c>
       <c r="L80" s="90">
         <f>L32-L69-10*LOG10(10^(L26/10)+(10^(L53/10)-1)/10^(L63/10)+(10^(L18/10)-1)*10^(L53/10)/10^(L63/10)+10^((L53-L62-L63)/10)*(10^((L43+Network!K277)/10)-1))</f>
-        <v>39.151287929154762</v>
+        <v>39.142594831737796</v>
       </c>
       <c r="M80" s="90">
         <f>M32-M69-10*LOG10(10^(M26/10)+(10^(M53/10)-1)/10^(M63/10)+(10^(M18/10)-1)*10^(M53/10)/10^(M63/10)+10^((M53-M62-M63)/10)*(10^((M43+Network!K277)/10)-1))</f>
-        <v>39.153182508223914</v>
+        <v>39.145430556195656</v>
       </c>
       <c r="N80" s="168">
         <f>N32-N69-10*LOG10(10^(N26/10)+(10^(N53/10)-1)/10^(N63/10)+(10^(N18/10)-1)*10^(N53/10)/10^(N63/10)+10^((N53-N62-N63)/10)*(10^((N43+Network!K277)/10)-1))</f>
-        <v>39.154871830401291</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>39.147959539554208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="150" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F81" s="163" t="str">
         <f>IF(F80&gt;=F70,"OK","NO")</f>
@@ -14738,13 +14771,13 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="126" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="148" t="s">
         <v>251</v>
       </c>
@@ -14779,7 +14812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="149" t="s">
         <v>252</v>
       </c>
@@ -14818,7 +14851,7 @@
         <v>10.96798498424217</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="150" t="s">
         <v>253</v>
       </c>
@@ -14847,15 +14880,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="170" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="155" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H91" s="159">
         <f>H28+2*(H27-H87-H44)</f>
@@ -14890,9 +14923,9 @@
         <v>51.064030031515671</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="125" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H92" s="163" t="str">
         <f>IF(H91&gt;=H88,"OK","NO")</f>
@@ -14927,18 +14960,15 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O93" s="182"/>
-    </row>
-    <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="170" t="s">
-        <v>265</v>
-      </c>
-      <c r="O94" s="182"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="149" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H95" s="135">
         <f>H32+H63</f>
@@ -14960,7 +14990,7 @@
         <f t="shared" si="16"/>
         <v>78</v>
       </c>
-      <c r="M95" s="183">
+      <c r="M95" s="182">
         <f>M32+M63</f>
         <v>78</v>
       </c>
@@ -14968,11 +14998,10 @@
         <f>N32+N63</f>
         <v>78</v>
       </c>
-      <c r="O95" s="185"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="155" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H96" s="174">
         <f>-20*LOG10(10^(-H91/20)+10^(-(H28+2*(H27-7.5*LOG10(SUM(H86:N86)-1)-H32-H63))/20))</f>
@@ -14994,7 +15023,7 @@
         <f>-20*LOG10(10^(-L91/20)+10^(-(L28+2*(L27-7.5*LOG10(SUM(H86:N86)-1)-L32-L63))/20))</f>
         <v>36.925735731532804</v>
       </c>
-      <c r="M96" s="184">
+      <c r="M96" s="183">
         <f>-20*LOG10(10^(-M91/20)+10^(-(M28+2*(M27-7.5*LOG10(SUM(H86:N86)-1)-M32-M63))/20))</f>
         <v>37.916717431794545</v>
       </c>
@@ -15002,11 +15031,11 @@
         <f>-20*LOG10(10^(-N91/20)+10^(-(N28+2*(N27-7.5*LOG10(SUM(H86:N86)-1)-N32-N63))/20))</f>
         <v>38.906609867464191</v>
       </c>
-      <c r="O96" s="186"/>
-    </row>
-    <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O96" s="184"/>
+    </row>
+    <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="125" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H97" s="163" t="str">
         <f>IF(H96&gt;=H88,"OK","NO")</f>
@@ -15044,161 +15073,161 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="220" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="202"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="191"/>
-      <c r="B3" s="192" t="s">
+      <c r="C2" s="221"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="118"/>
+      <c r="B3" s="189" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="189" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="119" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="193">
+      <c r="B4" s="190">
         <v>39.49</v>
       </c>
-      <c r="C4" s="193">
+      <c r="C4" s="190">
         <v>39.49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="193">
+      <c r="B5" s="190">
         <v>30</v>
       </c>
-      <c r="C5" s="193">
+      <c r="C5" s="190">
         <v>19.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="119" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="193">
+        <v>292</v>
+      </c>
+      <c r="B6" s="190">
         <f>30-0.36</f>
         <v>29.64</v>
       </c>
-      <c r="C6" s="193">
+      <c r="C6" s="190">
         <f>-C5-0.36</f>
         <v>-19.559999999999999</v>
       </c>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="119" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="194">
+        <v>286</v>
+      </c>
+      <c r="B7" s="191">
         <f>DEGREES(ACOS(COS(RADIANS(B6))*COS(RADIANS(B4))))</f>
         <v>47.874722541842957</v>
       </c>
-      <c r="C7" s="194">
+      <c r="C7" s="191">
         <f>DEGREES(ACOS(COS(RADIANS(C6))*COS(RADIANS(C4))))</f>
         <v>43.347844323707463</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="119" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="190">
+        <v>6378.16</v>
+      </c>
+      <c r="C8" s="190">
+        <v>6378.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="119" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="190">
+        <v>35786.300000000003</v>
+      </c>
+      <c r="C9" s="190">
+        <v>35786.300000000003</v>
+      </c>
+      <c r="F9" s="188"/>
+      <c r="G9" s="188"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="193">
-        <v>6378.16</v>
-      </c>
-      <c r="C8" s="193">
-        <v>6378.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="119" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="193">
-        <v>35786.300000000003</v>
-      </c>
-      <c r="C9" s="193">
-        <v>35786.300000000003</v>
-      </c>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="119" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="195">
+      <c r="B10" s="192">
         <f>DEGREES(ATAN((COS(RADIANS(B7))-B8/(B9+B8))/SIN(RADIANS(B7))))</f>
         <v>35.008051729265496</v>
       </c>
-      <c r="C10" s="195">
+      <c r="C10" s="192">
         <f>DEGREES(ATAN((COS(RADIANS(C7))-B8/(B9+B8))/SIN(RADIANS(C7))))</f>
         <v>39.997625557419383</v>
       </c>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="119" t="s">
-        <v>292</v>
-      </c>
-      <c r="B11" s="194">
+        <v>290</v>
+      </c>
+      <c r="B11" s="191">
         <f>180 + DEGREES(ATAN(TAN(RADIANS(B6))/SIN(RADIANS(B4))))</f>
         <v>221.82020731856079</v>
       </c>
-      <c r="C11" s="194">
+      <c r="C11" s="191">
         <f>180 + DEGREES(ATAN(TAN(RADIANS(C6))/SIN(RADIANS(C4))))</f>
         <v>150.80819109153012</v>
       </c>
-      <c r="F11" s="188"/>
-      <c r="G11" s="189"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" s="186"/>
+      <c r="G11" s="187"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="119" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" s="194">
+        <v>291</v>
+      </c>
+      <c r="B12" s="191">
         <f>B9*SQRT(1+((2*B8*(B8+B9))/POWER(B9,2)*(1-COS(RADIANS(B7)))))</f>
         <v>38180.475101277909</v>
       </c>
-      <c r="C12" s="196">
+      <c r="C12" s="193">
         <f>C9*SQRT(1+((2*C8*(C8+C9))/POWER(C9,2)*(1-COS(RADIANS(C7)))))</f>
         <v>37780.795202936883</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
       <c r="B13" s="118"/>
       <c r="C13" s="118"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="119" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B15" s="120">
         <v>54</v>
@@ -15207,7 +15236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="119" t="s">
         <v>210</v>
       </c>
@@ -15218,9 +15247,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="119" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B17" s="120">
         <v>50</v>
@@ -15229,9 +15258,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="119" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B18" s="120">
         <v>3</v>
@@ -15240,7 +15269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="119" t="s">
         <v>211</v>
       </c>
@@ -15251,7 +15280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="119" t="s">
         <v>212</v>
       </c>
@@ -15262,7 +15291,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="119" t="s">
         <v>213</v>
       </c>
@@ -15273,20 +15302,20 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="204">
+      <c r="B22" s="196">
         <f>92.44+20*LOG10(B21)+20*LOG10(B12)</f>
         <v>206.18703026066953</v>
       </c>
-      <c r="C22" s="204">
+      <c r="C22" s="196">
         <f>92.44+20*LOG10(C21)+20*LOG10(C12)</f>
         <v>206.09562558798024</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="119" t="s">
         <v>216</v>
       </c>
@@ -15297,7 +15326,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="119" t="s">
         <v>221</v>
       </c>
@@ -15308,20 +15337,20 @@
         <v>1.3800000000000001E-23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="B25" s="204">
+      <c r="B25" s="196">
         <f>B17+290*(POWER(10,B20/10)-1)</f>
         <v>100.72029093246357</v>
       </c>
-      <c r="C25" s="204">
+      <c r="C25" s="196">
         <f>C17+290*(POWER(10,C20/10)-1)</f>
         <v>100.72029093246357</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="119" t="s">
         <v>218</v>
       </c>
@@ -15334,149 +15363,149 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="119" t="s">
         <v>214</v>
       </c>
-      <c r="B27" s="204">
+      <c r="B27" s="196">
         <f>10*LOG10(B24*B25*B19*1000000)</f>
         <v>-134.25640177870341</v>
       </c>
-      <c r="C27" s="204">
+      <c r="C27" s="196">
         <f>10*LOG10(C24*C25*C19*1000000)</f>
         <v>-134.25640177870341</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="119" t="s">
-        <v>335</v>
-      </c>
-      <c r="B28" s="204">
+        <v>333</v>
+      </c>
+      <c r="B28" s="196">
         <f>B26-B15+B22+B23+B27</f>
         <v>37.030628481966119</v>
       </c>
-      <c r="C28" s="204">
+      <c r="C28" s="196">
         <f>C26-C15+C22+C23+C27</f>
         <v>39.939223809276825</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="119" t="s">
         <v>219</v>
       </c>
-      <c r="B29" s="203">
+      <c r="B29" s="195">
         <f>300000000/(B21*1000000000)</f>
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="C29" s="203">
+      <c r="C29" s="195">
         <f>300000000/(C21*1000000000)</f>
         <v>2.3529411764705882E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="119" t="s">
-        <v>326</v>
-      </c>
-      <c r="B31" s="204">
+        <v>324</v>
+      </c>
+      <c r="B31" s="196">
         <f>B29*POWER(10,(B28/20))/(PI()*SQRT(B16))</f>
         <v>0.63598020936830035</v>
       </c>
-      <c r="C31" s="204">
+      <c r="C31" s="196">
         <f>C29*POWER(10,(C28/20))/(PI()*SQRT(C16))</f>
         <v>0.88894188095344961</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="204">
+      <c r="B32" s="196">
         <f>B28-10*LOG10(B25)</f>
         <v>16.999458766271765</v>
       </c>
-      <c r="C32" s="204">
+      <c r="C32" s="196">
         <f>C28-10*LOG10(C25)</f>
         <v>19.908054093582471</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="119" t="s">
-        <v>327</v>
-      </c>
-      <c r="B33" s="204">
+        <v>325</v>
+      </c>
+      <c r="B33" s="196">
         <f>B15-B23-B22+B28</f>
         <v>-120.25640177870341</v>
       </c>
-      <c r="C33" s="204">
+      <c r="C33" s="196">
         <f>C15-C23-C22+C28</f>
         <v>-120.25640177870341</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="197"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="119" t="s">
-        <v>328</v>
-      </c>
-      <c r="B34" s="204">
+        <v>326</v>
+      </c>
+      <c r="B34" s="196">
         <f>(B15-B23-B22+B28)-B27</f>
         <v>14</v>
       </c>
-      <c r="C34" s="204">
+      <c r="C34" s="196">
         <f>(C15-C23-C22+C28)-C27</f>
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="119" t="s">
-        <v>323</v>
-      </c>
-      <c r="B35" s="204">
+        <v>321</v>
+      </c>
+      <c r="B35" s="196">
         <f>B33+60-(29.6*0.2)</f>
         <v>-66.176401778703408</v>
       </c>
-      <c r="C35" s="204">
+      <c r="C35" s="196">
         <f>C33+60-(29.6*0.2)</f>
         <v>-66.176401778703408</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="119" t="s">
-        <v>324</v>
-      </c>
-      <c r="B36" s="204">
+        <v>322</v>
+      </c>
+      <c r="B36" s="196">
         <f>SQRT(POWER(10,(B35/10))*75)*1000000</f>
         <v>4253.1484633272221</v>
       </c>
-      <c r="C36" s="204">
+      <c r="C36" s="196">
         <f>SQRT(POWER(10,(C35/10))*75)*1000000</f>
         <v>4253.1484633272221</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="119" t="s">
-        <v>325</v>
-      </c>
-      <c r="B37" s="204">
+        <v>323</v>
+      </c>
+      <c r="B37" s="196">
         <f>20*LOG10(B36)</f>
         <v>72.574210855213593</v>
       </c>
-      <c r="C37" s="204">
+      <c r="C37" s="196">
         <f>20*LOG10(C36)</f>
         <v>72.574210855213593</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="119" t="s">
-        <v>329</v>
-      </c>
-      <c r="B38" s="204">
+        <v>327</v>
+      </c>
+      <c r="B38" s="196">
         <f>123-B37</f>
         <v>50.425789144786407</v>
       </c>
-      <c r="C38" s="204">
+      <c r="C38" s="196">
         <f>123-C37</f>
         <v>50.425789144786407</v>
       </c>
@@ -15491,53 +15520,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="E21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
-    <col min="5" max="5" width="34.90625" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
-    <col min="9" max="9" width="5.6328125" style="182" customWidth="1"/>
-    <col min="10" max="10" width="18.90625" customWidth="1"/>
-    <col min="12" max="12" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="222"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="211"/>
       <c r="B1" s="119" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>312</v>
-      </c>
-      <c r="D1" s="206"/>
+        <v>310</v>
+      </c>
+      <c r="D1" s="198"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="119" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="206">
+        <v>297</v>
+      </c>
+      <c r="B2" s="198">
         <f>B3*B6</f>
         <v>523.20000000000005</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>313</v>
-      </c>
-      <c r="D2" s="206">
+        <v>311</v>
+      </c>
+      <c r="D2" s="198">
         <v>3</v>
       </c>
       <c r="E2" s="32"/>
@@ -15545,18 +15574,18 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="119" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="206">
+        <v>296</v>
+      </c>
+      <c r="B3" s="198">
         <f>((B4)^2/16)*B5</f>
         <v>799.52256944444457</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>314</v>
-      </c>
-      <c r="D3" s="206">
+        <v>312</v>
+      </c>
+      <c r="D3" s="198">
         <v>3</v>
       </c>
       <c r="E3" s="32"/>
@@ -15564,18 +15593,18 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="119" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4" s="209">
+        <v>293</v>
+      </c>
+      <c r="B4" s="200">
         <f>130*(1000/3600)</f>
         <v>36.111111111111114</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="206">
+        <v>315</v>
+      </c>
+      <c r="D4" s="198">
         <v>0.27200000000000002</v>
       </c>
       <c r="E4" s="32"/>
@@ -15583,36 +15612,36 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="221" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="206">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="210" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="198">
         <v>9.81</v>
       </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="221" t="s">
-        <v>297</v>
-      </c>
-      <c r="B6" s="206">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="210" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="198">
         <f>523.2/B3</f>
         <v>0.65439053254437862</v>
       </c>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -15622,105 +15651,105 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="223" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="224"/>
-      <c r="C8" s="223" t="s">
-        <v>334</v>
-      </c>
-      <c r="D8" s="224"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="222" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="223"/>
+      <c r="C8" s="222" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="223"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="119" t="s">
-        <v>316</v>
-      </c>
-      <c r="B9" s="206">
+        <v>314</v>
+      </c>
+      <c r="B9" s="198">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C9" s="207">
+      <c r="C9" s="224">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D9" s="208"/>
+      <c r="D9" s="225"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="119" t="s">
-        <v>300</v>
-      </c>
-      <c r="B10" s="206">
+        <v>298</v>
+      </c>
+      <c r="B10" s="198">
         <v>6</v>
       </c>
-      <c r="C10" s="207">
+      <c r="C10" s="224">
         <v>3</v>
       </c>
-      <c r="D10" s="208"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="119" t="s">
-        <v>301</v>
-      </c>
-      <c r="B11" s="206">
+        <v>299</v>
+      </c>
+      <c r="B11" s="198">
         <v>0.7</v>
       </c>
-      <c r="C11" s="207">
+      <c r="C11" s="224">
         <v>0.7</v>
       </c>
-      <c r="D11" s="208"/>
+      <c r="D11" s="225"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="119" t="s">
-        <v>302</v>
-      </c>
-      <c r="B12" s="206">
+        <v>300</v>
+      </c>
+      <c r="B12" s="198">
         <f>B9*B10*B11</f>
         <v>0.189</v>
       </c>
-      <c r="C12" s="207">
+      <c r="C12" s="224">
         <f>C9*C10*C11</f>
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="D12" s="208"/>
+      <c r="D12" s="225"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="119" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" s="206">
+        <v>317</v>
+      </c>
+      <c r="B13" s="198">
         <f>800*B12</f>
         <v>151.19999999999999</v>
       </c>
-      <c r="C13" s="207">
+      <c r="C13" s="224">
         <f>800*C12</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="D13" s="208"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -15730,7 +15759,7 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -15740,357 +15769,348 @@
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="223" t="s">
-        <v>333</v>
-      </c>
-      <c r="B16" s="224"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="222" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" s="223"/>
       <c r="C16" s="119" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="119" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="119" t="s">
-        <v>347</v>
-      </c>
-      <c r="I16" s="227"/>
+        <v>345</v>
+      </c>
+      <c r="I16" s="215"/>
       <c r="J16" s="119" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="119" t="s">
-        <v>304</v>
-      </c>
-      <c r="B17" s="206">
+        <v>302</v>
+      </c>
+      <c r="B17" s="198">
         <v>93</v>
       </c>
-      <c r="C17" s="206">
+      <c r="C17" s="198">
         <f>B17*B18</f>
         <v>558</v>
       </c>
       <c r="D17" s="32"/>
-      <c r="E17" s="206">
+      <c r="E17" s="198">
         <v>93</v>
       </c>
-      <c r="F17" s="206">
+      <c r="F17" s="198">
         <f>E17*E18</f>
         <v>558</v>
       </c>
       <c r="G17" s="32"/>
-      <c r="H17" s="206">
+      <c r="H17" s="198">
         <v>93</v>
       </c>
-      <c r="J17" s="206">
+      <c r="J17" s="198">
         <f>2*B5</f>
         <v>19.62</v>
       </c>
       <c r="L17" s="119" t="s">
-        <v>340</v>
-      </c>
-      <c r="M17" s="206">
+        <v>338</v>
+      </c>
+      <c r="M17" s="198">
         <f>-SUM(H17,H19,H21,H23,H24)</f>
         <v>-755.30000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="119" t="s">
-        <v>305</v>
-      </c>
-      <c r="B18" s="206">
+        <v>303</v>
+      </c>
+      <c r="B18" s="198">
         <v>6</v>
       </c>
-      <c r="C18" s="206"/>
+      <c r="C18" s="198"/>
       <c r="D18" s="32"/>
-      <c r="E18" s="206">
+      <c r="E18" s="198">
         <v>6</v>
       </c>
-      <c r="F18" s="206"/>
+      <c r="F18" s="198"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="206"/>
-      <c r="J18" s="206"/>
+      <c r="H18" s="198"/>
+      <c r="J18" s="198"/>
       <c r="L18" s="119" t="s">
-        <v>341</v>
-      </c>
-      <c r="M18" s="206">
+        <v>339</v>
+      </c>
+      <c r="M18" s="198">
         <f>-SUM(J24,J25,J23,J21,J19,J17)</f>
         <v>-139.30200000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="119" t="s">
-        <v>306</v>
-      </c>
-      <c r="B19" s="206">
+        <v>304</v>
+      </c>
+      <c r="B19" s="198">
         <v>36.5</v>
       </c>
-      <c r="C19" s="206">
+      <c r="C19" s="198">
         <f t="shared" ref="C19" si="0">B19*B20</f>
         <v>146</v>
       </c>
       <c r="D19" s="32"/>
-      <c r="E19" s="206">
+      <c r="E19" s="198">
         <v>36.5</v>
       </c>
-      <c r="F19" s="206">
+      <c r="F19" s="198">
         <f>E19*E20</f>
         <v>146</v>
       </c>
       <c r="G19" s="32"/>
-      <c r="H19" s="206">
+      <c r="H19" s="198">
         <v>36.5</v>
       </c>
-      <c r="J19" s="206">
+      <c r="J19" s="198">
         <f>1.5*B5</f>
         <v>14.715</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="119" t="s">
-        <v>307</v>
-      </c>
-      <c r="B20" s="206">
+        <v>305</v>
+      </c>
+      <c r="B20" s="198">
         <v>4</v>
       </c>
-      <c r="C20" s="206"/>
+      <c r="C20" s="198"/>
       <c r="D20" s="32"/>
-      <c r="E20" s="206">
+      <c r="E20" s="198">
         <v>4</v>
       </c>
-      <c r="F20" s="206"/>
+      <c r="F20" s="198"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="206"/>
-      <c r="J20" s="206"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H20" s="198"/>
+      <c r="J20" s="198"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="119" t="s">
-        <v>311</v>
-      </c>
-      <c r="B21" s="206">
+        <v>309</v>
+      </c>
+      <c r="B21" s="198">
         <v>27</v>
       </c>
-      <c r="C21" s="206">
+      <c r="C21" s="198">
         <f>B21*B22</f>
         <v>54</v>
       </c>
       <c r="D21" s="32"/>
-      <c r="E21" s="206">
+      <c r="E21" s="198">
         <v>27</v>
       </c>
-      <c r="F21" s="206">
+      <c r="F21" s="198">
         <f>E21*E22</f>
         <v>54</v>
       </c>
       <c r="G21" s="32"/>
-      <c r="H21" s="206">
+      <c r="H21" s="198">
         <v>27</v>
       </c>
-      <c r="J21" s="206">
+      <c r="J21" s="198">
         <f>1.2*B5</f>
         <v>11.772</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="119" t="s">
-        <v>308</v>
-      </c>
-      <c r="B22" s="206">
+        <v>306</v>
+      </c>
+      <c r="B22" s="198">
         <v>2</v>
       </c>
-      <c r="C22" s="206"/>
+      <c r="C22" s="198"/>
       <c r="D22" s="32"/>
-      <c r="E22" s="206">
+      <c r="E22" s="198">
         <v>2</v>
       </c>
-      <c r="F22" s="206"/>
+      <c r="F22" s="198"/>
       <c r="G22" s="32"/>
-      <c r="H22" s="206"/>
-      <c r="J22" s="206"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H22" s="198"/>
+      <c r="J22" s="198"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="119" t="s">
-        <v>309</v>
-      </c>
-      <c r="B23" s="206">
+        <v>307</v>
+      </c>
+      <c r="B23" s="198">
         <v>523.20000000000005</v>
       </c>
-      <c r="C23" s="206">
+      <c r="C23" s="198">
         <f>B23*B24</f>
         <v>261.60000000000002</v>
       </c>
       <c r="D23" s="32"/>
-      <c r="E23" s="206">
+      <c r="E23" s="198">
         <v>523.20000000000005</v>
       </c>
-      <c r="F23" s="206">
+      <c r="F23" s="198">
         <f>E23*E24</f>
         <v>261.60000000000002</v>
       </c>
       <c r="G23" s="32"/>
-      <c r="H23" s="206">
+      <c r="H23" s="198">
         <v>523.20000000000005</v>
       </c>
-      <c r="J23" s="206">
+      <c r="J23" s="198">
         <f>5*9.81</f>
         <v>49.050000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="225" t="s">
-        <v>310</v>
-      </c>
-      <c r="B24" s="209">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="213" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="200">
         <v>0.5</v>
       </c>
-      <c r="C24" s="209"/>
+      <c r="C24" s="200"/>
       <c r="D24" s="32"/>
-      <c r="E24" s="209">
+      <c r="E24" s="200">
         <v>0.5</v>
       </c>
-      <c r="F24" s="209"/>
+      <c r="F24" s="200"/>
       <c r="G24" s="32"/>
-      <c r="H24" s="209">
+      <c r="H24" s="200">
         <f>C13</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="J24" s="206">
+      <c r="J24" s="198">
         <f>2*B5</f>
         <v>19.62</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="210"/>
-      <c r="B25" s="210"/>
-      <c r="C25" s="210"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="201"/>
+      <c r="B25" s="201"/>
+      <c r="C25" s="201"/>
       <c r="D25" s="32"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="210"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="201"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="210"/>
-      <c r="J25" s="206">
+      <c r="H25" s="201"/>
+      <c r="J25" s="198">
         <f>2.5*B5</f>
         <v>24.525000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="229" t="s">
-        <v>342</v>
-      </c>
-      <c r="B26" s="182"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="206">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="212" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" s="198">
         <v>2.9</v>
       </c>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="226" t="s">
-        <v>343</v>
-      </c>
-      <c r="B27" s="206">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="214" t="s">
+        <v>341</v>
+      </c>
+      <c r="B27" s="198">
         <f>SUM(C17,C19,C21,C23)</f>
         <v>1019.6</v>
       </c>
-      <c r="C27" s="212"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="228">
+      <c r="C27" s="203"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="216">
         <f>SUM(F17*(E26-E24),F19*(E26-E22),F21*(E20-E26),F23*(E18-E26))</f>
         <v>2340.96</v>
       </c>
-      <c r="F27" s="212"/>
+      <c r="F27" s="203"/>
       <c r="G27" s="32"/>
-      <c r="H27" s="214"/>
-      <c r="J27" s="182"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="119" t="s">
-        <v>344</v>
-      </c>
-      <c r="B28" s="213">
+        <v>342</v>
+      </c>
+      <c r="B28" s="199">
         <f>0.045*280*((B10)^2-(3)^2)</f>
         <v>340.2</v>
       </c>
-      <c r="C28" s="212"/>
+      <c r="C28" s="203"/>
       <c r="D28" s="32"/>
-      <c r="E28" s="213">
+      <c r="E28" s="199">
         <f>(0.045*280*((C10)^2))*6</f>
         <v>680.4</v>
       </c>
-      <c r="F28" s="212"/>
+      <c r="F28" s="203"/>
       <c r="G28" s="32"/>
-      <c r="H28" s="214"/>
-      <c r="J28" s="182"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="119" t="s">
-        <v>345</v>
-      </c>
-      <c r="B29" s="213">
+        <v>343</v>
+      </c>
+      <c r="B29" s="199">
         <f>B27+B28</f>
         <v>1359.8</v>
       </c>
-      <c r="C29" s="211"/>
+      <c r="C29" s="202"/>
       <c r="D29" s="32"/>
-      <c r="E29" s="213">
+      <c r="E29" s="199">
         <f>E27+E28</f>
         <v>3021.36</v>
       </c>
-      <c r="F29" s="211"/>
+      <c r="F29" s="202"/>
       <c r="G29" s="32"/>
-      <c r="H29" s="214"/>
-      <c r="J29" s="182"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="225" t="s">
-        <v>346</v>
-      </c>
-      <c r="B30" s="215">
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="213" t="s">
+        <v>344</v>
+      </c>
+      <c r="B30" s="204">
         <f>B29-355</f>
         <v>1004.8</v>
       </c>
-      <c r="C30" s="220" t="s">
-        <v>331</v>
-      </c>
-      <c r="D30" s="216"/>
-      <c r="E30" s="217">
+      <c r="C30" s="209" t="s">
+        <v>329</v>
+      </c>
+      <c r="D30" s="205"/>
+      <c r="E30" s="206">
         <f>E29-355</f>
         <v>2666.36</v>
       </c>
-      <c r="F30" s="219" t="s">
-        <v>332</v>
-      </c>
-      <c r="H30" s="182"/>
-      <c r="J30" s="182"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="205"/>
-      <c r="B31" s="205"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="205"/>
-      <c r="F31" s="205"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F30" s="208" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="197"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="197"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="197"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D33" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>523.20000000000005</v>
       </c>
@@ -16099,30 +16119,30 @@
         <v>261.60000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45">
         <f>SUM(C42)</f>
         <v>261.60000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46">
         <f>0.045*280*((B10)^2-(3)^2)</f>
         <v>340.2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47">
         <f>B45+B46</f>
         <v>601.79999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48">
         <f>B47-355</f>
         <v>246.79999999999995</v>

--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/6-1/ITSIT/Trabajo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="14_{9F4157DC-F50C-4A01-87BD-49BE01D9B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5A21A05-D4ED-4A22-A868-FD9A65EB3215}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="14_{9F4157DC-F50C-4A01-87BD-49BE01D9B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36147AFD-1CB8-4147-8EFD-93898C4A032D}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="339">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -227,15 +227,6 @@
     <t>PAU-BAT Length</t>
   </si>
   <si>
-    <t>Recepción floor 1</t>
-  </si>
-  <si>
-    <t>Gimnasio 1 floor1</t>
-  </si>
-  <si>
-    <t>Gimnasio 2 floor1</t>
-  </si>
-  <si>
     <t>PAU 2 outputs</t>
   </si>
   <si>
@@ -305,12 +296,6 @@
     <t>Kitchen apartment down CD floor5</t>
   </si>
   <si>
-    <t>Dormitorio 2 apartment down CD floor5</t>
-  </si>
-  <si>
-    <t>Dormitorio 1 apartment down CD floor5</t>
-  </si>
-  <si>
     <t>Main bedroom apartment down CD floor5</t>
   </si>
   <si>
@@ -320,12 +305,6 @@
     <t>Kitchen apartment up CD floor5</t>
   </si>
   <si>
-    <t>Dormitorio 2 apartment up CD floor5</t>
-  </si>
-  <si>
-    <t>Dormitorio 1 apartment up CD floor5</t>
-  </si>
-  <si>
     <t>Main bedroom apartment up CD floor5</t>
   </si>
   <si>
@@ -338,12 +317,6 @@
     <t>Kitchen apartment down CD floor4</t>
   </si>
   <si>
-    <t>Dormitorio 2 apartment down CD floor4</t>
-  </si>
-  <si>
-    <t>Dormitorio 1 apartment down CD floor4</t>
-  </si>
-  <si>
     <t>Main bedroom apartment down CD floor4</t>
   </si>
   <si>
@@ -353,12 +326,6 @@
     <t>Kitchen apartment up CD floor4</t>
   </si>
   <si>
-    <t>Dormitorio 2 apartment up CD floor4</t>
-  </si>
-  <si>
-    <t>Dormitorio 1 apartment up CD floor4</t>
-  </si>
-  <si>
     <t>Main bedroom apartment up CD floor4</t>
   </si>
   <si>
@@ -425,9 +392,6 @@
     <t>Living room apartment up CD floor2</t>
   </si>
   <si>
-    <t>Dormitorio 2 apartment down AB floor5</t>
-  </si>
-  <si>
     <t>Main bedroom apartment down AB floor5</t>
   </si>
   <si>
@@ -437,9 +401,6 @@
     <t>Kitchen apartment up AB floor5</t>
   </si>
   <si>
-    <t>Dormitorio 2 apartment up AB floor5</t>
-  </si>
-  <si>
     <t>Main bedroom apartment up AB floor5</t>
   </si>
   <si>
@@ -449,9 +410,6 @@
     <t>Kitchen apartment down AB floor4</t>
   </si>
   <si>
-    <t>Dormitorio 2 apartment down AB floor4</t>
-  </si>
-  <si>
     <t>Main bedroom apartment down AB floor4</t>
   </si>
   <si>
@@ -461,12 +419,6 @@
     <t>Kitchen apartment up AB floor4</t>
   </si>
   <si>
-    <t>Cuarto del servicio apartment up AB floor4</t>
-  </si>
-  <si>
-    <t>Dormitorio 2 apartment up AB floor4</t>
-  </si>
-  <si>
     <t>Main bedroom apartment up AB floor4</t>
   </si>
   <si>
@@ -602,39 +554,6 @@
     <t>Distribuited?</t>
   </si>
   <si>
-    <t>Cuarto del servicio apartment up AB floor2</t>
-  </si>
-  <si>
-    <t>Cuarto del servicio apartment down AB floor2</t>
-  </si>
-  <si>
-    <t>Cuarto del servicio apartment up AB floor3</t>
-  </si>
-  <si>
-    <t>Cuarto del servicio apartment down AB floor3</t>
-  </si>
-  <si>
-    <t>Cuarto del servicio apartment down AB floor4</t>
-  </si>
-  <si>
-    <t>Cuarto del servicio apartment up AB floor5</t>
-  </si>
-  <si>
-    <t>Cuarto del servicio apartment down AB floor5</t>
-  </si>
-  <si>
-    <t>Cuarto del servicio apartment up CD floor2</t>
-  </si>
-  <si>
-    <t>Cuarto del servicio apartment up CD floor3</t>
-  </si>
-  <si>
-    <t>Cuarto del servicio apartment up CD floor4</t>
-  </si>
-  <si>
-    <t>Cuarto del servicio apartment up CD floor5</t>
-  </si>
-  <si>
     <t>MATV (margin of 23 dB)</t>
   </si>
   <si>
@@ -1092,6 +1011,51 @@
   </si>
   <si>
     <t>Total cable ripple (dB)</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment up AB floor4</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment down AB floor4</t>
+  </si>
+  <si>
+    <t>Bedroom 1 apartment up CD floor4</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment up CD floor4</t>
+  </si>
+  <si>
+    <t>Bedroom 1 apartment down CD floor4</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment down CD floor4</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment up AB floor5</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment down AB floor5</t>
+  </si>
+  <si>
+    <t>Bedroom 1 apartment up CD floor5</t>
+  </si>
+  <si>
+    <t>Bedroom 1 apartment down CD floor5</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment down CD floor5</t>
+  </si>
+  <si>
+    <t>Bedroom 2 apartment up CD floor5</t>
+  </si>
+  <si>
+    <t>Service room apartment down AB floor2</t>
+  </si>
+  <si>
+    <t>Service room apartment up CD floor2</t>
+  </si>
+  <si>
+    <t>Service room apartment up AB floor4</t>
   </si>
 </sst>
 </file>
@@ -2915,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A315" sqref="A315"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D317" sqref="D317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3165,7 +3129,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="51">
         <v>0.5</v>
@@ -3231,7 +3195,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" s="10">
         <v>0.5</v>
@@ -3284,27 +3248,27 @@
         <v>59</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="K18" s="84" t="s">
         <v>60</v>
       </c>
       <c r="L18" s="86" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M18" s="87" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="54" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D19" s="58">
         <v>22</v>
@@ -3351,7 +3315,7 @@
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D20" s="59">
         <v>19</v>
@@ -3395,7 +3359,7 @@
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="55" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D21" s="59">
         <v>15</v>
@@ -3439,7 +3403,7 @@
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="55" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="D22" s="59">
         <v>2</v>
@@ -3483,7 +3447,7 @@
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="56" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D23" s="60">
         <v>17</v>
@@ -3532,7 +3496,7 @@
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="54" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D25" s="58">
         <v>22</v>
@@ -3579,7 +3543,7 @@
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="55" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D26" s="59">
         <v>15</v>
@@ -3623,7 +3587,7 @@
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="55" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D27" s="59">
         <v>15</v>
@@ -3667,7 +3631,7 @@
     </row>
     <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="55" t="s">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="D28" s="59">
         <v>2</v>
@@ -3711,7 +3675,7 @@
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D29" s="60">
         <v>17</v>
@@ -3760,7 +3724,7 @@
     </row>
     <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="54" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D31" s="58">
         <v>14</v>
@@ -3807,7 +3771,7 @@
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D32" s="59">
         <v>32</v>
@@ -3851,7 +3815,7 @@
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="55" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D33" s="59">
         <v>13</v>
@@ -3896,7 +3860,7 @@
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="55" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D34" s="59">
         <v>34</v>
@@ -3940,7 +3904,7 @@
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="55" t="s">
-        <v>194</v>
+        <v>337</v>
       </c>
       <c r="D35" s="61">
         <v>13</v>
@@ -3984,7 +3948,7 @@
     </row>
     <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="56" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D36" s="60">
         <v>4</v>
@@ -4033,7 +3997,7 @@
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="54" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D38" s="58">
         <v>14</v>
@@ -4080,7 +4044,7 @@
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="55" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D39" s="59">
         <v>32</v>
@@ -4124,7 +4088,7 @@
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="55" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D40" s="59">
         <v>13</v>
@@ -4168,7 +4132,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="55" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D41" s="59">
         <v>34</v>
@@ -4212,7 +4176,7 @@
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="55" t="s">
-        <v>194</v>
+        <v>337</v>
       </c>
       <c r="D42" s="61">
         <v>13</v>
@@ -4256,7 +4220,7 @@
     </row>
     <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="56" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D43" s="60">
         <v>4</v>
@@ -4305,7 +4269,7 @@
     </row>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="54" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D45" s="58">
         <v>22</v>
@@ -4352,7 +4316,7 @@
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="55" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D46" s="59">
         <v>19</v>
@@ -4396,7 +4360,7 @@
     </row>
     <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="55" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D47" s="59">
         <v>15</v>
@@ -4440,7 +4404,7 @@
     </row>
     <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="55" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="D48" s="59">
         <v>2</v>
@@ -4484,7 +4448,7 @@
     </row>
     <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="56" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D49" s="60">
         <v>17</v>
@@ -4533,7 +4497,7 @@
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="54" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D51" s="58">
         <v>22</v>
@@ -4580,7 +4544,7 @@
     </row>
     <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="55" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D52" s="59">
         <v>15</v>
@@ -4624,7 +4588,7 @@
     </row>
     <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="55" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D53" s="59">
         <v>15</v>
@@ -4668,7 +4632,7 @@
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="D54" s="59">
         <v>2</v>
@@ -4712,7 +4676,7 @@
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="56" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D55" s="60">
         <v>17</v>
@@ -4761,7 +4725,7 @@
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="54" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D57" s="58">
         <v>14</v>
@@ -4808,7 +4772,7 @@
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D58" s="59">
         <v>32</v>
@@ -4852,7 +4816,7 @@
     </row>
     <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="55" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D59" s="59">
         <v>13</v>
@@ -4896,7 +4860,7 @@
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="55" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D60" s="59">
         <v>34</v>
@@ -4940,7 +4904,7 @@
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="55" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="D61" s="61">
         <v>13</v>
@@ -4984,7 +4948,7 @@
     </row>
     <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="56" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D62" s="60">
         <v>4</v>
@@ -5033,7 +4997,7 @@
     </row>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="54" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D64" s="58">
         <v>14</v>
@@ -5080,7 +5044,7 @@
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D65" s="59">
         <v>32</v>
@@ -5124,7 +5088,7 @@
     </row>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="55" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D66" s="59">
         <v>13</v>
@@ -5168,7 +5132,7 @@
     </row>
     <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="55" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D67" s="59">
         <v>32</v>
@@ -5212,7 +5176,7 @@
     </row>
     <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="55" t="s">
-        <v>194</v>
+        <v>337</v>
       </c>
       <c r="D68" s="61">
         <v>13</v>
@@ -5256,7 +5220,7 @@
     </row>
     <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D69" s="60">
         <v>4</v>
@@ -5305,7 +5269,7 @@
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="54" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D71" s="58">
         <v>22</v>
@@ -5352,7 +5316,7 @@
     </row>
     <row r="72" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="55" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D72" s="59">
         <v>19</v>
@@ -5396,7 +5360,7 @@
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="55" t="s">
-        <v>141</v>
+        <v>324</v>
       </c>
       <c r="D73" s="59">
         <v>15</v>
@@ -5440,7 +5404,7 @@
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="55" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="D74" s="59">
         <v>2</v>
@@ -5484,7 +5448,7 @@
     </row>
     <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D75" s="60">
         <v>17</v>
@@ -5533,7 +5497,7 @@
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="54" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D77" s="58">
         <v>22</v>
@@ -5580,7 +5544,7 @@
     </row>
     <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="55" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D78" s="59">
         <v>15</v>
@@ -5624,7 +5588,7 @@
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="55" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="D79" s="59">
         <v>15</v>
@@ -5668,7 +5632,7 @@
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="55" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D80" s="59">
         <v>2</v>
@@ -5712,7 +5676,7 @@
     </row>
     <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="56" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D81" s="60">
         <v>17</v>
@@ -5761,7 +5725,7 @@
     </row>
     <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="54" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D83" s="58">
         <v>14</v>
@@ -5808,7 +5772,7 @@
     </row>
     <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="55" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D84" s="59">
         <v>32</v>
@@ -5852,7 +5816,7 @@
     </row>
     <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="55" t="s">
-        <v>105</v>
+        <v>326</v>
       </c>
       <c r="B85" s="52"/>
       <c r="C85" s="52"/>
@@ -5900,7 +5864,7 @@
     </row>
     <row r="86" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="55" t="s">
-        <v>104</v>
+        <v>327</v>
       </c>
       <c r="B86" s="52"/>
       <c r="C86" s="52"/>
@@ -5948,7 +5912,7 @@
     </row>
     <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="55" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="B87" s="52"/>
       <c r="C87" s="52"/>
@@ -5996,7 +5960,7 @@
     </row>
     <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="56" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B88" s="52"/>
       <c r="C88" s="52"/>
@@ -6060,7 +6024,7 @@
     </row>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="54" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B90" s="52"/>
       <c r="C90" s="52"/>
@@ -6110,7 +6074,7 @@
     </row>
     <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="55" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B91" s="52"/>
       <c r="C91" s="52"/>
@@ -6158,7 +6122,7 @@
     </row>
     <row r="92" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="55" t="s">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="D92" s="59">
         <v>13</v>
@@ -6202,7 +6166,7 @@
     </row>
     <row r="93" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="55" t="s">
-        <v>99</v>
+        <v>329</v>
       </c>
       <c r="D93" s="59">
         <v>32</v>
@@ -6246,7 +6210,7 @@
     </row>
     <row r="94" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="55" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="D94" s="61">
         <v>13</v>
@@ -6290,7 +6254,7 @@
     </row>
     <row r="95" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="56" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D95" s="60">
         <v>4</v>
@@ -6338,7 +6302,7 @@
     </row>
     <row r="97" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="54" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D97" s="58">
         <v>22</v>
@@ -6385,7 +6349,7 @@
     </row>
     <row r="98" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="55" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D98" s="59">
         <v>15</v>
@@ -6429,7 +6393,7 @@
     </row>
     <row r="99" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="55" t="s">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="D99" s="59">
         <v>15</v>
@@ -6473,7 +6437,7 @@
     </row>
     <row r="100" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="55" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="D100" s="59">
         <v>2</v>
@@ -6517,7 +6481,7 @@
     </row>
     <row r="101" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="56" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D101" s="60">
         <v>17</v>
@@ -6565,7 +6529,7 @@
     </row>
     <row r="103" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="54" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D103" s="58">
         <v>22</v>
@@ -6612,7 +6576,7 @@
     </row>
     <row r="104" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="55" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D104" s="59">
         <v>15</v>
@@ -6656,7 +6620,7 @@
     </row>
     <row r="105" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="55" t="s">
-        <v>128</v>
+        <v>331</v>
       </c>
       <c r="D105" s="59">
         <v>15</v>
@@ -6700,7 +6664,7 @@
     </row>
     <row r="106" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="55" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="D106" s="59">
         <v>2</v>
@@ -6744,7 +6708,7 @@
     </row>
     <row r="107" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D107" s="60">
         <v>17</v>
@@ -6792,7 +6756,7 @@
     </row>
     <row r="109" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="54" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D109" s="58">
         <v>14</v>
@@ -6839,7 +6803,7 @@
     </row>
     <row r="110" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="55" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D110" s="59">
         <v>32</v>
@@ -6883,7 +6847,7 @@
     </row>
     <row r="111" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="55" t="s">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="D111" s="59">
         <v>13</v>
@@ -6927,7 +6891,7 @@
     </row>
     <row r="112" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="55" t="s">
-        <v>93</v>
+        <v>335</v>
       </c>
       <c r="D112" s="59">
         <v>34</v>
@@ -6971,7 +6935,7 @@
     </row>
     <row r="113" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="55" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="D113" s="61">
         <v>13</v>
@@ -7015,7 +6979,7 @@
     </row>
     <row r="114" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="56" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D114" s="68">
         <v>4</v>
@@ -7063,7 +7027,7 @@
     </row>
     <row r="116" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="54" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D116" s="58">
         <v>14</v>
@@ -7110,7 +7074,7 @@
     </row>
     <row r="117" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="55" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D117" s="59">
         <v>32</v>
@@ -7154,7 +7118,7 @@
     </row>
     <row r="118" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="55" t="s">
-        <v>89</v>
+        <v>333</v>
       </c>
       <c r="D118" s="59">
         <v>13</v>
@@ -7198,7 +7162,7 @@
     </row>
     <row r="119" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="55" t="s">
-        <v>88</v>
+        <v>334</v>
       </c>
       <c r="D119" s="59">
         <v>34</v>
@@ -7242,7 +7206,7 @@
     </row>
     <row r="120" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="55" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="D120" s="61">
         <v>13</v>
@@ -7286,7 +7250,7 @@
     </row>
     <row r="121" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D121" s="60">
         <v>4</v>
@@ -7334,7 +7298,7 @@
     </row>
     <row r="123" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="54" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D123" s="65">
         <v>2</v>
@@ -7381,7 +7345,7 @@
     </row>
     <row r="124" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="55" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D124" s="67">
         <v>14</v>
@@ -7428,7 +7392,7 @@
     </row>
     <row r="125" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="56" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D125" s="68">
         <v>17</v>
@@ -8623,22 +8587,22 @@
         <v>59</v>
       </c>
       <c r="H166" s="77" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="I166" s="77" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="J166" s="77" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="K166" s="8" t="s">
         <v>60</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M166" s="85" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N166" s="18" t="s">
         <v>8</v>
@@ -8649,7 +8613,7 @@
     </row>
     <row r="167" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="54" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G167" s="111">
         <f>SUM(G161:G162)+G160+G123</f>
@@ -8680,17 +8644,17 @@
         <v>52.2</v>
       </c>
       <c r="N167" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$156+$N158+$N160+$N123</f>
-        <v>9.24</v>
+        <f>SUM(N$161:N$162)+N$160+N123</f>
+        <v>5.6920000000000002</v>
       </c>
       <c r="O167" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$156+$O158+$O160+$O123</f>
-        <v>9.625</v>
+        <f t="shared" ref="N167:O167" si="132">SUM(O$161:O$162)+O$160+O123</f>
+        <v>6.4250000000000007</v>
       </c>
     </row>
     <row r="168" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="55" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G168" s="111">
         <f>SUM(G162,G161)+G160+G124</f>
@@ -8709,36 +8673,36 @@
         <v>45.716999999999999</v>
       </c>
       <c r="K168" s="111">
-        <f t="shared" ref="K168:M169" si="132">SUM(K$161:K$162)+K$160+K124</f>
+        <f t="shared" ref="K168:O169" si="133">SUM(K$161:K$162)+K$160+K124</f>
         <v>48.921999999999997</v>
       </c>
       <c r="L168" s="111">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>52.695</v>
       </c>
       <c r="M168" s="113">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>56.1</v>
       </c>
       <c r="N168" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$156+$N159+$N161+$N124</f>
-        <v>9.2279999999999998</v>
+        <f t="shared" si="133"/>
+        <v>6.2799999999999994</v>
       </c>
       <c r="O168" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$156+$O159+$O161+$O124</f>
-        <v>9.2850000000000001</v>
+        <f t="shared" si="133"/>
+        <v>6.8850000000000007</v>
       </c>
     </row>
     <row r="169" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="56" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G169" s="112">
         <f>SUM(G161:G162)+G160+G125</f>
         <v>43.888999999999996</v>
       </c>
       <c r="H169" s="112">
-        <f t="shared" ref="H169" si="133">SUM(H$161:H$162)+H$160+H$123</f>
+        <f t="shared" ref="H169" si="134">SUM(H$161:H$162)+H$160+H$123</f>
         <v>44.809000000000005</v>
       </c>
       <c r="I169" s="112">
@@ -8750,46 +8714,46 @@
         <v>46.137</v>
       </c>
       <c r="K169" s="112">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>49.510000000000005</v>
       </c>
       <c r="L169" s="112">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>53.325000000000003</v>
       </c>
       <c r="M169" s="110">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>57.075000000000003</v>
       </c>
       <c r="N169" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$156+$N160+$N125</f>
-        <v>9.8819999999999997</v>
+        <f t="shared" si="133"/>
+        <v>6.7210000000000001</v>
       </c>
       <c r="O169" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$156+$O160+$O125</f>
-        <v>10.129999999999999</v>
+        <f t="shared" si="133"/>
+        <v>7.23</v>
       </c>
     </row>
     <row r="170" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="171" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="54" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G171" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+$G19</f>
         <v>36.242999999999995</v>
       </c>
       <c r="H171" s="58">
-        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$G19</f>
-        <v>36.338999999999999</v>
+        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$H19</f>
+        <v>36.802999999999997</v>
       </c>
       <c r="I171" s="58">
         <f>SUM(I$161:I$162)+I$159+I$158+I$157+$I19</f>
         <v>37.835000000000001</v>
       </c>
       <c r="J171" s="58">
-        <f>SUM(J$161:J$162)+J$159+J$158+J$157+$I19</f>
-        <v>38.069000000000003</v>
+        <f>SUM(J$161:J$162)+J$159+J$158+J$157+$J19</f>
+        <v>39.374000000000002</v>
       </c>
       <c r="K171" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$157+$K19</f>
@@ -8800,29 +8764,29 @@
         <v>44.239999999999995</v>
       </c>
       <c r="M171" s="58">
-        <f>SUM(G$161:G$162)+G$159+G$158+G$157+$G19</f>
-        <v>36.242999999999995</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M19</f>
+        <v>48.174999999999997</v>
       </c>
       <c r="N171" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N19</f>
-        <v>9.9109999999999996</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N19</f>
+        <v>8.036999999999999</v>
       </c>
       <c r="O171" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O19</f>
-        <v>9.5350000000000001</v>
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O19</f>
+        <v>8.0350000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="55" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G172" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+$G20</f>
         <v>36.096000000000004</v>
       </c>
       <c r="H172" s="58">
-        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$G20</f>
-        <v>36.192</v>
+        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$H20</f>
+        <v>36.607999999999997</v>
       </c>
       <c r="I172" s="58">
         <f>SUM(I$161:I$162)+I$159+I$158+I$157+$I20</f>
@@ -8837,123 +8801,123 @@
         <v>40.692</v>
       </c>
       <c r="L172" s="58">
-        <f t="shared" ref="L172:L174" si="134">SUM(L$161:L$162)+L$159+L$158+L$157+$L20</f>
+        <f t="shared" ref="L172:L174" si="135">SUM(L$161:L$162)+L$159+L$158+L$157+$L20</f>
         <v>43.61</v>
       </c>
       <c r="M172" s="58">
-        <f t="shared" ref="M172:M175" si="135">SUM(G$161:G$162)+G$159+G$158+G$157+$G20</f>
-        <v>36.096000000000004</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M20</f>
+        <v>47.2</v>
       </c>
       <c r="N172" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N20</f>
-        <v>9.4699999999999989</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N20</f>
+        <v>7.5959999999999992</v>
       </c>
       <c r="O172" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O20</f>
-        <v>9.1900000000000013</v>
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O20</f>
+        <v>7.69</v>
       </c>
     </row>
     <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="55" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G173" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+$G21</f>
         <v>35.9</v>
       </c>
       <c r="H173" s="58">
-        <f t="shared" ref="H173:J175" si="136">SUM(H$161:H$162)+H$159+H$158+H$157+$G21</f>
-        <v>35.995999999999995</v>
+        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$H21</f>
+        <v>36.347999999999999</v>
       </c>
       <c r="I173" s="58">
-        <f t="shared" si="136"/>
-        <v>36.158000000000001</v>
+        <f>SUM(I$161:I$162)+I$159+I$158+I$157+$I21</f>
+        <v>37.17</v>
       </c>
       <c r="J173" s="58">
-        <f t="shared" si="136"/>
-        <v>36.391999999999996</v>
+        <f>SUM(J$161:J$162)+J$159+J$158+J$157+$J21</f>
+        <v>37.414000000000001</v>
       </c>
       <c r="K173" s="58">
-        <f t="shared" ref="K173:K174" si="137">SUM(K$161:K$162)+K$159+K$158+K$157+$K21</f>
+        <f t="shared" ref="K173:K174" si="136">SUM(K$161:K$162)+K$159+K$158+K$157+$K21</f>
         <v>39.908000000000001</v>
       </c>
       <c r="L173" s="58">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>42.769999999999996</v>
       </c>
       <c r="M173" s="58">
-        <f t="shared" si="135"/>
-        <v>35.9</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+M$21</f>
+        <v>45.9</v>
       </c>
       <c r="N173" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N21</f>
-        <v>8.8819999999999997</v>
+        <f t="shared" ref="N173:O173" si="137">SUM(N$161:N$162)+N$159+N$158+N$157+N$21</f>
+        <v>7.008</v>
       </c>
       <c r="O173" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O21</f>
-        <v>8.73</v>
+        <f t="shared" si="137"/>
+        <v>7.23</v>
       </c>
     </row>
     <row r="174" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="55" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G174" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+$G22</f>
         <v>35.262999999999998</v>
       </c>
       <c r="H174" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$H22</f>
+        <v>35.503</v>
+      </c>
+      <c r="I174" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$157+$I22</f>
+        <v>35.935000000000002</v>
+      </c>
+      <c r="J174" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$157+$J22</f>
+        <v>35.594000000000001</v>
+      </c>
+      <c r="K174" s="58">
         <f t="shared" si="136"/>
-        <v>35.359000000000002</v>
-      </c>
-      <c r="I174" s="58">
-        <f t="shared" si="136"/>
-        <v>35.521000000000001</v>
-      </c>
-      <c r="J174" s="58">
-        <f t="shared" si="136"/>
-        <v>35.755000000000003</v>
-      </c>
-      <c r="K174" s="58">
-        <f t="shared" si="137"/>
         <v>37.36</v>
       </c>
       <c r="L174" s="58">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>40.04</v>
       </c>
       <c r="M174" s="58">
-        <f t="shared" si="135"/>
-        <v>35.262999999999998</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+M$22</f>
+        <v>41.674999999999997</v>
       </c>
       <c r="N174" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N22</f>
-        <v>6.9710000000000001</v>
+        <f t="shared" ref="N174:O174" si="138">SUM(N$161:N$162)+N$159+N$158+N$157+N$22</f>
+        <v>5.0969999999999995</v>
       </c>
       <c r="O174" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O22</f>
-        <v>7.2350000000000003</v>
+        <f t="shared" si="138"/>
+        <v>5.7350000000000003</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="56" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="G175" s="63">
-        <f t="shared" ref="G175" si="138">SUM(G$161:G$162)+G$159+G$158+G$157+$G23</f>
+        <f t="shared" ref="G175" si="139">SUM(G$161:G$162)+G$159+G$158+G$157+$G23</f>
         <v>35.997999999999998</v>
       </c>
       <c r="H175" s="63">
-        <f t="shared" si="136"/>
-        <v>36.094000000000001</v>
+        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$H23</f>
+        <v>36.478000000000002</v>
       </c>
       <c r="I175" s="63">
         <f>SUM(I$161:I$162)+I$159+I$158+I$157+$I23</f>
         <v>37.36</v>
       </c>
       <c r="J175" s="63">
-        <f t="shared" si="136"/>
-        <v>36.49</v>
+        <f>SUM(J$161:J$162)+J$159+J$158+J$157+$J23</f>
+        <v>37.694000000000003</v>
       </c>
       <c r="K175" s="63">
         <f>SUM(K$161:K$162)+K$159+K$158+K$157+$K23</f>
@@ -8964,16 +8928,16 @@
         <v>43.19</v>
       </c>
       <c r="M175" s="63">
-        <f t="shared" si="135"/>
-        <v>35.997999999999998</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+M$23</f>
+        <v>46.55</v>
       </c>
       <c r="N175" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N23</f>
-        <v>9.1759999999999984</v>
+        <f t="shared" ref="N175:O175" si="140">SUM(N$161:N$162)+N$159+N$158+N$157+N$23</f>
+        <v>7.3019999999999996</v>
       </c>
       <c r="O175" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O23</f>
-        <v>8.9600000000000009</v>
+        <f t="shared" si="140"/>
+        <v>7.46</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8981,7 +8945,7 @@
     </row>
     <row r="177" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="54" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G177" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+G25</f>
@@ -9008,21 +8972,21 @@
         <v>44.239999999999995</v>
       </c>
       <c r="M177" s="58">
-        <f>SUM(L$161:L$162)+L$159+L$158+L$157+$L25</f>
-        <v>44.239999999999995</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M25</f>
+        <v>48.174999999999997</v>
       </c>
       <c r="N177" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N25</f>
-        <v>9.9109999999999996</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N25</f>
+        <v>8.036999999999999</v>
       </c>
       <c r="O177" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O25</f>
-        <v>9.5350000000000001</v>
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O25</f>
+        <v>8.0350000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="55" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G178" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+G26</f>
@@ -9033,37 +8997,37 @@
         <v>36.347999999999999</v>
       </c>
       <c r="I178" s="58">
-        <f t="shared" ref="I178:I181" si="139">SUM(I$161:I$162)+I$159+I$158+I$157+$I26</f>
+        <f t="shared" ref="I178:I181" si="141">SUM(I$161:I$162)+I$159+I$158+I$157+$I26</f>
         <v>37.17</v>
       </c>
       <c r="J178" s="58">
-        <f t="shared" ref="J178:J181" si="140">SUM(J$161:J$162)+J$159+J$158+J$157+$J26</f>
+        <f t="shared" ref="J178:J181" si="142">SUM(J$161:J$162)+J$159+J$158+J$157+$J26</f>
         <v>38.393999999999998</v>
       </c>
       <c r="K178" s="58">
-        <f t="shared" ref="K178:K181" si="141">SUM(K$161:K$162)+K$159+K$158+K$157+$K26</f>
+        <f t="shared" ref="K178:K181" si="143">SUM(K$161:K$162)+K$159+K$158+K$157+$K26</f>
         <v>39.908000000000001</v>
       </c>
       <c r="L178" s="58">
-        <f t="shared" ref="L178:L181" si="142">SUM(L$161:L$162)+L$159+L$158+L$157+$L26</f>
+        <f t="shared" ref="L178:L181" si="144">SUM(L$161:L$162)+L$159+L$158+L$157+$L26</f>
         <v>42.769999999999996</v>
       </c>
       <c r="M178" s="58">
-        <f t="shared" ref="M178:M181" si="143">SUM(L$161:L$162)+L$159+L$158+L$157+$L26</f>
-        <v>42.769999999999996</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M26</f>
+        <v>45.9</v>
       </c>
       <c r="N178" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N26</f>
-        <v>8.8819999999999997</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N26</f>
+        <v>7.008</v>
       </c>
       <c r="O178" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O26</f>
-        <v>8.73</v>
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O26</f>
+        <v>7.23</v>
       </c>
     </row>
     <row r="179" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="55" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G179" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+G27</f>
@@ -9074,44 +9038,44 @@
         <v>36.347999999999999</v>
       </c>
       <c r="I179" s="58">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>37.17</v>
       </c>
       <c r="J179" s="58">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>38.393999999999998</v>
       </c>
       <c r="K179" s="58">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>39.908000000000001</v>
       </c>
       <c r="L179" s="58">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>42.769999999999996</v>
       </c>
       <c r="M179" s="58">
-        <f t="shared" si="143"/>
-        <v>42.769999999999996</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M27</f>
+        <v>45.9</v>
       </c>
       <c r="N179" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N27</f>
-        <v>8.8819999999999997</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N27</f>
+        <v>7.008</v>
       </c>
       <c r="O179" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O27</f>
-        <v>8.73</v>
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O27</f>
+        <v>7.23</v>
       </c>
     </row>
     <row r="180" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="55" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G180" s="58">
-        <f t="shared" ref="G180:G181" si="144">SUM(G$161:G$162)+G$159+G$158+G$157+G28</f>
+        <f t="shared" ref="G180:G181" si="145">SUM(G$161:G$162)+G$159+G$158+G$157+G28</f>
         <v>35.262999999999998</v>
       </c>
       <c r="H180" s="58">
-        <f t="shared" ref="H180:H181" si="145">SUM(H$161:H$162)+H$159+H$158+H$157+$H28</f>
+        <f t="shared" ref="H180:H181" si="146">SUM(H$161:H$162)+H$159+H$158+H$157+$H28</f>
         <v>35.503</v>
       </c>
       <c r="I180" s="58">
@@ -9119,69 +9083,69 @@
         <v>35.935000000000002</v>
       </c>
       <c r="J180" s="58">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>36.573999999999998</v>
       </c>
       <c r="K180" s="58">
+        <f t="shared" si="143"/>
+        <v>37.36</v>
+      </c>
+      <c r="L180" s="58">
+        <f t="shared" si="144"/>
+        <v>40.04</v>
+      </c>
+      <c r="M180" s="58">
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M28</f>
+        <v>41.674999999999997</v>
+      </c>
+      <c r="N180" s="100">
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N28</f>
+        <v>5.0969999999999995</v>
+      </c>
+      <c r="O180" s="100">
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O28</f>
+        <v>5.7350000000000003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="G181" s="63">
+        <f t="shared" si="145"/>
+        <v>35.997999999999998</v>
+      </c>
+      <c r="H181" s="63">
+        <f t="shared" si="146"/>
+        <v>36.478000000000002</v>
+      </c>
+      <c r="I181" s="63">
         <f t="shared" si="141"/>
         <v>37.36</v>
       </c>
-      <c r="L180" s="58">
+      <c r="J181" s="63">
         <f t="shared" si="142"/>
-        <v>40.04</v>
-      </c>
-      <c r="M180" s="58">
+        <v>38.673999999999999</v>
+      </c>
+      <c r="K181" s="63">
         <f t="shared" si="143"/>
-        <v>40.04</v>
-      </c>
-      <c r="N180" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N28</f>
-        <v>6.9710000000000001</v>
-      </c>
-      <c r="O180" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O28</f>
-        <v>7.2350000000000003</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="G181" s="63">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="L181" s="63">
         <f t="shared" si="144"/>
-        <v>35.997999999999998</v>
-      </c>
-      <c r="H181" s="63">
-        <f t="shared" si="145"/>
-        <v>36.478000000000002</v>
-      </c>
-      <c r="I181" s="63">
-        <f t="shared" si="139"/>
-        <v>37.36</v>
-      </c>
-      <c r="J181" s="63">
-        <f t="shared" si="140"/>
-        <v>38.673999999999999</v>
-      </c>
-      <c r="K181" s="63">
-        <f t="shared" si="141"/>
-        <v>40.299999999999997</v>
-      </c>
-      <c r="L181" s="63">
-        <f t="shared" si="142"/>
         <v>43.19</v>
       </c>
       <c r="M181" s="63">
-        <f t="shared" si="143"/>
-        <v>43.19</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M29</f>
+        <v>46.55</v>
       </c>
       <c r="N181" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N29</f>
-        <v>9.1759999999999984</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N29</f>
+        <v>7.3019999999999996</v>
       </c>
       <c r="O181" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O29</f>
-        <v>8.9600000000000009</v>
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O29</f>
+        <v>7.46</v>
       </c>
     </row>
     <row r="182" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9189,7 +9153,7 @@
     </row>
     <row r="183" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="54" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G183" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+G31</f>
@@ -9216,221 +9180,221 @@
         <v>45.35</v>
       </c>
       <c r="M183" s="58">
-        <f>SUM(L$161:L$162)+L$159+L$158+L$157+$L31</f>
-        <v>45.35</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M31</f>
+        <v>48.25</v>
       </c>
       <c r="N183" s="100">
-        <f t="shared" ref="N183:N188" si="146">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N31</f>
-        <v>8.5879999999999992</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N31</f>
+        <v>6.7139999999999995</v>
       </c>
       <c r="O183" s="100">
-        <f t="shared" ref="O183:O188" si="147">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O31</f>
-        <v>8.5</v>
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O31</f>
+        <v>7.0000000000000009</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="55" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G184" s="58">
-        <f t="shared" ref="G184:G188" si="148">SUM(G$161:G$162)+G$159+G$158+G$157+G32</f>
+        <f t="shared" ref="G184:G188" si="147">SUM(G$161:G$162)+G$159+G$158+G$157+G32</f>
         <v>38.683999999999997</v>
       </c>
       <c r="H184" s="58">
-        <f t="shared" ref="H184:H188" si="149">SUM(H$161:H$162)+H$159+H$158+H$157+$H32</f>
+        <f t="shared" ref="H184:H188" si="148">SUM(H$161:H$162)+H$159+H$158+H$157+$H32</f>
         <v>39.387999999999998</v>
       </c>
       <c r="I184" s="58">
-        <f t="shared" ref="I184:I188" si="150">SUM(I$161:I$162)+I$159+I$158+I$157+$I32</f>
+        <f t="shared" ref="I184:I188" si="149">SUM(I$161:I$162)+I$159+I$158+I$157+$I32</f>
         <v>40.69</v>
       </c>
       <c r="J184" s="58">
-        <f t="shared" ref="J184:J188" si="151">SUM(J$161:J$162)+J$159+J$158+J$157+$J32</f>
+        <f t="shared" ref="J184:J188" si="150">SUM(J$161:J$162)+J$159+J$158+J$157+$J32</f>
         <v>42.634</v>
       </c>
       <c r="K184" s="58">
-        <f t="shared" ref="K184:K188" si="152">SUM(K$161:K$162)+K$159+K$158+K$157+$K32</f>
+        <f t="shared" ref="K184:K188" si="151">SUM(K$161:K$162)+K$159+K$158+K$157+$K32</f>
         <v>45.043999999999997</v>
       </c>
       <c r="L184" s="58">
-        <f t="shared" ref="L184:L188" si="153">SUM(L$161:L$162)+L$159+L$158+L$157+$L32</f>
+        <f t="shared" ref="L184:L188" si="152">SUM(L$161:L$162)+L$159+L$158+L$157+$L32</f>
         <v>49.129999999999995</v>
       </c>
       <c r="M184" s="58">
-        <f t="shared" ref="M184:M188" si="154">SUM(L$161:L$162)+L$159+L$158+L$157+$L32</f>
-        <v>49.129999999999995</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M32</f>
+        <v>54.099999999999994</v>
       </c>
       <c r="N184" s="100">
-        <f t="shared" si="146"/>
-        <v>11.233999999999998</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N32</f>
+        <v>9.36</v>
       </c>
       <c r="O184" s="100">
-        <f t="shared" si="147"/>
-        <v>10.57</v>
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O32</f>
+        <v>9.07</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="55" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G185" s="58">
+        <f t="shared" si="147"/>
+        <v>37.753</v>
+      </c>
+      <c r="H185" s="58">
         <f t="shared" si="148"/>
-        <v>37.753</v>
-      </c>
-      <c r="H185" s="58">
+        <v>38.152999999999999</v>
+      </c>
+      <c r="I185" s="58">
         <f t="shared" si="149"/>
-        <v>38.152999999999999</v>
-      </c>
-      <c r="I185" s="58">
+        <v>38.885000000000005</v>
+      </c>
+      <c r="J185" s="58">
         <f t="shared" si="150"/>
-        <v>38.885000000000005</v>
-      </c>
-      <c r="J185" s="58">
+        <v>39.974000000000004</v>
+      </c>
+      <c r="K185" s="58">
         <f t="shared" si="151"/>
-        <v>39.974000000000004</v>
-      </c>
-      <c r="K185" s="58">
+        <v>41.32</v>
+      </c>
+      <c r="L185" s="58">
         <f t="shared" si="152"/>
-        <v>41.32</v>
-      </c>
-      <c r="L185" s="58">
-        <f t="shared" si="153"/>
         <v>45.14</v>
       </c>
       <c r="M185" s="58">
-        <f t="shared" si="154"/>
-        <v>45.14</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M33</f>
+        <v>47.924999999999997</v>
       </c>
       <c r="N185" s="100">
-        <f t="shared" si="146"/>
-        <v>8.4409999999999989</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N33</f>
+        <v>6.5669999999999993</v>
       </c>
       <c r="O185" s="100">
-        <f t="shared" si="147"/>
-        <v>8.3850000000000016</v>
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O33</f>
+        <v>6.8850000000000007</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="55" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G186" s="58">
+        <f t="shared" si="147"/>
+        <v>38.781999999999996</v>
+      </c>
+      <c r="H186" s="58">
         <f t="shared" si="148"/>
-        <v>38.781999999999996</v>
-      </c>
-      <c r="H186" s="58">
+        <v>39.518000000000001</v>
+      </c>
+      <c r="I186" s="58">
         <f t="shared" si="149"/>
-        <v>39.518000000000001</v>
-      </c>
-      <c r="I186" s="58">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="J186" s="58">
         <f t="shared" si="150"/>
-        <v>40.880000000000003</v>
-      </c>
-      <c r="J186" s="58">
+        <v>42.914000000000001</v>
+      </c>
+      <c r="K186" s="58">
         <f t="shared" si="151"/>
-        <v>42.914000000000001</v>
-      </c>
-      <c r="K186" s="58">
+        <v>45.436000000000007</v>
+      </c>
+      <c r="L186" s="58">
         <f t="shared" si="152"/>
-        <v>45.436000000000007</v>
-      </c>
-      <c r="L186" s="58">
-        <f t="shared" si="153"/>
         <v>49.55</v>
       </c>
       <c r="M186" s="58">
-        <f t="shared" si="154"/>
-        <v>49.55</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M34</f>
+        <v>54.75</v>
       </c>
       <c r="N186" s="100">
-        <f t="shared" si="146"/>
-        <v>11.527999999999999</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N34</f>
+        <v>9.6539999999999999</v>
       </c>
       <c r="O186" s="100">
-        <f t="shared" si="147"/>
-        <v>10.8</v>
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O34</f>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="55" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G187" s="58">
+        <f t="shared" si="147"/>
+        <v>37.753</v>
+      </c>
+      <c r="H187" s="58">
         <f t="shared" si="148"/>
-        <v>37.753</v>
-      </c>
-      <c r="H187" s="58">
+        <v>38.152999999999999</v>
+      </c>
+      <c r="I187" s="58">
         <f t="shared" si="149"/>
-        <v>38.152999999999999</v>
-      </c>
-      <c r="I187" s="58">
+        <v>38.885000000000005</v>
+      </c>
+      <c r="J187" s="58">
         <f t="shared" si="150"/>
-        <v>38.885000000000005</v>
-      </c>
-      <c r="J187" s="58">
+        <v>39.974000000000004</v>
+      </c>
+      <c r="K187" s="58">
         <f t="shared" si="151"/>
-        <v>39.974000000000004</v>
-      </c>
-      <c r="K187" s="58">
+        <v>41.32</v>
+      </c>
+      <c r="L187" s="58">
         <f t="shared" si="152"/>
-        <v>41.32</v>
-      </c>
-      <c r="L187" s="58">
-        <f t="shared" si="153"/>
         <v>45.14</v>
       </c>
       <c r="M187" s="58">
-        <f t="shared" si="154"/>
-        <v>45.14</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M35</f>
+        <v>47.924999999999997</v>
       </c>
       <c r="N187" s="100">
-        <f t="shared" si="146"/>
-        <v>8.4409999999999989</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N35</f>
+        <v>6.5669999999999993</v>
       </c>
       <c r="O187" s="100">
-        <f t="shared" si="147"/>
-        <v>8.3850000000000016</v>
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O35</f>
+        <v>6.8850000000000007</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="56" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G188" s="63">
+        <f t="shared" si="147"/>
+        <v>37.311999999999998</v>
+      </c>
+      <c r="H188" s="63">
         <f t="shared" si="148"/>
-        <v>37.311999999999998</v>
-      </c>
-      <c r="H188" s="63">
+        <v>37.567999999999998</v>
+      </c>
+      <c r="I188" s="63">
         <f t="shared" si="149"/>
-        <v>37.567999999999998</v>
-      </c>
-      <c r="I188" s="63">
+        <v>38.03</v>
+      </c>
+      <c r="J188" s="63">
         <f t="shared" si="150"/>
-        <v>38.03</v>
-      </c>
-      <c r="J188" s="63">
+        <v>38.713999999999999</v>
+      </c>
+      <c r="K188" s="63">
         <f t="shared" si="151"/>
-        <v>38.713999999999999</v>
-      </c>
-      <c r="K188" s="63">
+        <v>39.555999999999997</v>
+      </c>
+      <c r="L188" s="63">
         <f t="shared" si="152"/>
-        <v>39.555999999999997</v>
-      </c>
-      <c r="L188" s="63">
-        <f t="shared" si="153"/>
         <v>43.25</v>
       </c>
       <c r="M188" s="63">
-        <f t="shared" si="154"/>
-        <v>43.25</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M36</f>
+        <v>45</v>
       </c>
       <c r="N188" s="100">
-        <f t="shared" si="146"/>
-        <v>7.1179999999999994</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N36</f>
+        <v>5.2439999999999998</v>
       </c>
       <c r="O188" s="100">
-        <f t="shared" si="147"/>
-        <v>7.35</v>
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O36</f>
+        <v>5.85</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9438,7 +9402,7 @@
     </row>
     <row r="190" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="54" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G190" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+G38</f>
@@ -9461,225 +9425,225 @@
         <v>41.516000000000005</v>
       </c>
       <c r="L190" s="58">
-        <f>SUM(K$161:K$162)+K$159+K$158+K$157+$K38</f>
-        <v>41.516000000000005</v>
+        <f>SUM(L$161:L$162)+L$159+L$158+L$157+$L38</f>
+        <v>45.35</v>
       </c>
       <c r="M190" s="58">
-        <f>SUM(K$161:K$162)+K$159+K$158+K$157+$K38</f>
-        <v>41.516000000000005</v>
+        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M38</f>
+        <v>48.25</v>
       </c>
       <c r="N190" s="100">
-        <f t="shared" ref="N190:N195" si="155">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N38</f>
-        <v>8.5879999999999992</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N38</f>
+        <v>6.7139999999999995</v>
       </c>
       <c r="O190" s="100">
-        <f t="shared" ref="O190:O195" si="156">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O38</f>
-        <v>8.5</v>
+        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O38</f>
+        <v>7.0000000000000009</v>
       </c>
     </row>
     <row r="191" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="55" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G191" s="58">
-        <f t="shared" ref="G191:G195" si="157">SUM(G$161:G$162)+G$159+G$158+G$157+G39</f>
+        <f t="shared" ref="G191:G195" si="153">SUM(G$161:G$162)+G$159+G$158+G$157+G39</f>
         <v>38.683999999999997</v>
       </c>
       <c r="H191" s="58">
-        <f t="shared" ref="H191:H195" si="158">SUM(H$161:H$162)+H$159+H$158+H$157+$H39</f>
+        <f t="shared" ref="H191:H195" si="154">SUM(H$161:H$162)+H$159+H$158+H$157+$H39</f>
         <v>39.387999999999998</v>
       </c>
       <c r="I191" s="58">
-        <f t="shared" ref="I191:I195" si="159">SUM(I$161:I$162)+I$159+I$158+I$157+$I39</f>
+        <f t="shared" ref="I191:I195" si="155">SUM(I$161:I$162)+I$159+I$158+I$157+$I39</f>
         <v>38.408100000000005</v>
       </c>
       <c r="J191" s="58">
-        <f t="shared" ref="J191:J195" si="160">SUM(J$161:J$162)+J$159+J$158+J$157+$J39</f>
+        <f t="shared" ref="J191:J195" si="156">SUM(J$161:J$162)+J$159+J$158+J$157+$J39</f>
         <v>41.396680000000003</v>
       </c>
       <c r="K191" s="58">
-        <f t="shared" ref="K191:K195" si="161">SUM(K$161:K$162)+K$159+K$158+K$157+$K39</f>
+        <f>SUM(K$161:K$162)+K$159+K$158+K$157+K$39</f>
         <v>45.043999999999997</v>
       </c>
       <c r="L191" s="58">
-        <f t="shared" ref="L191:L195" si="162">SUM(K$161:K$162)+K$159+K$158+K$157+$K39</f>
-        <v>45.043999999999997</v>
+        <f t="shared" ref="L191:O191" si="157">SUM(L$161:L$162)+L$159+L$158+L$157+L$39</f>
+        <v>49.129999999999995</v>
       </c>
       <c r="M191" s="58">
-        <f t="shared" ref="M191:M195" si="163">SUM(K$161:K$162)+K$159+K$158+K$157+$K39</f>
-        <v>45.043999999999997</v>
+        <f t="shared" si="157"/>
+        <v>54.099999999999994</v>
       </c>
       <c r="N191" s="100">
-        <f t="shared" si="155"/>
-        <v>11.233999999999998</v>
+        <f t="shared" si="157"/>
+        <v>9.36</v>
       </c>
       <c r="O191" s="100">
-        <f t="shared" si="156"/>
-        <v>10.57</v>
+        <f t="shared" si="157"/>
+        <v>9.07</v>
       </c>
     </row>
     <row r="192" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="55" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G192" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="153"/>
         <v>37.753</v>
       </c>
       <c r="H192" s="58">
+        <f t="shared" si="154"/>
+        <v>38.152999999999999</v>
+      </c>
+      <c r="I192" s="58">
+        <f t="shared" si="155"/>
+        <v>38.408100000000005</v>
+      </c>
+      <c r="J192" s="58">
+        <f t="shared" si="156"/>
+        <v>41.26634</v>
+      </c>
+      <c r="K192" s="58">
+        <f>SUM(K$161:K$162)+K$159+K$158+K$157+K$40</f>
+        <v>41.32</v>
+      </c>
+      <c r="L192" s="58">
+        <f t="shared" ref="L192:O192" si="158">SUM(L$161:L$162)+L$159+L$158+L$157+L$40</f>
+        <v>45.14</v>
+      </c>
+      <c r="M192" s="58">
         <f t="shared" si="158"/>
-        <v>38.152999999999999</v>
-      </c>
-      <c r="I192" s="58">
-        <f t="shared" si="159"/>
-        <v>38.408100000000005</v>
-      </c>
-      <c r="J192" s="58">
-        <f t="shared" si="160"/>
-        <v>41.26634</v>
-      </c>
-      <c r="K192" s="58">
-        <f t="shared" si="161"/>
-        <v>41.32</v>
-      </c>
-      <c r="L192" s="58">
-        <f t="shared" si="162"/>
-        <v>41.32</v>
-      </c>
-      <c r="M192" s="58">
-        <f t="shared" si="163"/>
-        <v>41.32</v>
+        <v>47.924999999999997</v>
       </c>
       <c r="N192" s="100">
-        <f t="shared" si="155"/>
-        <v>8.4409999999999989</v>
+        <f t="shared" si="158"/>
+        <v>6.5669999999999993</v>
       </c>
       <c r="O192" s="100">
-        <f t="shared" si="156"/>
-        <v>8.3850000000000016</v>
+        <f t="shared" si="158"/>
+        <v>6.8850000000000007</v>
       </c>
     </row>
     <row r="193" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="55" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G193" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="153"/>
         <v>38.781999999999996</v>
       </c>
       <c r="H193" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="154"/>
         <v>39.518000000000001</v>
       </c>
       <c r="I193" s="58">
+        <f t="shared" si="155"/>
+        <v>38.408100000000005</v>
+      </c>
+      <c r="J193" s="58">
+        <f t="shared" si="156"/>
+        <v>41.410399999999996</v>
+      </c>
+      <c r="K193" s="58">
+        <f>SUM(K$161:K$162)+K$159+K$158+K$157+K$41</f>
+        <v>45.436000000000007</v>
+      </c>
+      <c r="L193" s="58">
+        <f t="shared" ref="L193:O193" si="159">SUM(L$161:L$162)+L$159+L$158+L$157+L$41</f>
+        <v>49.55</v>
+      </c>
+      <c r="M193" s="58">
         <f t="shared" si="159"/>
-        <v>38.408100000000005</v>
-      </c>
-      <c r="J193" s="58">
-        <f t="shared" si="160"/>
-        <v>41.410399999999996</v>
-      </c>
-      <c r="K193" s="58">
-        <f t="shared" si="161"/>
-        <v>45.436000000000007</v>
-      </c>
-      <c r="L193" s="58">
-        <f t="shared" si="162"/>
-        <v>45.436000000000007</v>
-      </c>
-      <c r="M193" s="58">
-        <f t="shared" si="163"/>
-        <v>45.436000000000007</v>
+        <v>54.75</v>
       </c>
       <c r="N193" s="100">
-        <f t="shared" si="155"/>
-        <v>11.527999999999999</v>
+        <f t="shared" si="159"/>
+        <v>9.6539999999999999</v>
       </c>
       <c r="O193" s="100">
-        <f t="shared" si="156"/>
-        <v>10.8</v>
+        <f t="shared" si="159"/>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="194" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="55" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G194" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="153"/>
         <v>37.753</v>
       </c>
       <c r="H194" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="154"/>
         <v>38.152999999999999</v>
       </c>
       <c r="I194" s="58">
-        <f t="shared" si="159"/>
+        <f t="shared" si="155"/>
         <v>38.408100000000005</v>
       </c>
       <c r="J194" s="58">
+        <f t="shared" si="156"/>
+        <v>41.26634</v>
+      </c>
+      <c r="K194" s="58">
+        <f>SUM(K$161:K$162)+K$159+K$158+K$157+K$42</f>
+        <v>41.32</v>
+      </c>
+      <c r="L194" s="58">
+        <f t="shared" ref="L194:O194" si="160">SUM(L$161:L$162)+L$159+L$158+L$157+L$42</f>
+        <v>45.14</v>
+      </c>
+      <c r="M194" s="58">
         <f t="shared" si="160"/>
-        <v>41.26634</v>
-      </c>
-      <c r="K194" s="58">
-        <f t="shared" si="161"/>
-        <v>41.32</v>
-      </c>
-      <c r="L194" s="58">
-        <f t="shared" si="162"/>
-        <v>41.32</v>
-      </c>
-      <c r="M194" s="58">
-        <f t="shared" si="163"/>
-        <v>41.32</v>
+        <v>47.924999999999997</v>
       </c>
       <c r="N194" s="100">
-        <f t="shared" si="155"/>
-        <v>8.4409999999999989</v>
+        <f t="shared" si="160"/>
+        <v>6.5669999999999993</v>
       </c>
       <c r="O194" s="100">
-        <f t="shared" si="156"/>
-        <v>8.3850000000000016</v>
+        <f t="shared" si="160"/>
+        <v>6.8850000000000007</v>
       </c>
     </row>
     <row r="195" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="56" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G195" s="63">
-        <f t="shared" si="157"/>
+        <f t="shared" si="153"/>
         <v>37.311999999999998</v>
       </c>
       <c r="H195" s="63">
-        <f t="shared" si="158"/>
+        <f t="shared" si="154"/>
         <v>37.567999999999998</v>
       </c>
       <c r="I195" s="63">
-        <f t="shared" si="159"/>
+        <f t="shared" si="155"/>
         <v>38.408100000000005</v>
       </c>
       <c r="J195" s="63">
-        <f t="shared" si="160"/>
+        <f t="shared" si="156"/>
         <v>41.204599999999999</v>
       </c>
       <c r="K195" s="63">
+        <f>SUM(K$161:K$162)+K$159+K$158+K$157+K$43</f>
+        <v>39.555999999999997</v>
+      </c>
+      <c r="L195" s="63">
+        <f t="shared" ref="L195:O195" si="161">SUM(L$161:L$162)+L$159+L$158+L$157+L$43</f>
+        <v>43.25</v>
+      </c>
+      <c r="M195" s="63">
         <f t="shared" si="161"/>
-        <v>39.555999999999997</v>
-      </c>
-      <c r="L195" s="63">
-        <f t="shared" si="162"/>
-        <v>39.555999999999997</v>
-      </c>
-      <c r="M195" s="63">
-        <f t="shared" si="163"/>
-        <v>39.555999999999997</v>
+        <v>45</v>
       </c>
       <c r="N195" s="100">
-        <f t="shared" si="155"/>
-        <v>7.1179999999999994</v>
+        <f t="shared" si="161"/>
+        <v>5.2439999999999998</v>
       </c>
       <c r="O195" s="100">
-        <f t="shared" si="156"/>
-        <v>7.35</v>
+        <f t="shared" si="161"/>
+        <v>5.85</v>
       </c>
     </row>
     <row r="196" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9687,7 +9651,7 @@
     </row>
     <row r="197" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="54" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G197" s="63">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G45</f>
@@ -9718,176 +9682,176 @@
         <v>46.5</v>
       </c>
       <c r="N197" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N45</f>
-        <v>9.0240000000000009</v>
+        <f t="shared" ref="N197:O197" si="162">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$154+N45</f>
+        <v>8.9239999999999995</v>
       </c>
       <c r="O197" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O45</f>
-        <v>8.7349999999999994</v>
+        <f t="shared" si="162"/>
+        <v>8.8350000000000009</v>
       </c>
     </row>
     <row r="198" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="55" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G198" s="63">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G46</f>
         <v>34.707000000000001</v>
       </c>
       <c r="H198" s="63">
-        <f t="shared" ref="H198:H201" si="164">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H46</f>
+        <f t="shared" ref="H198:H201" si="163">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H46</f>
         <v>35.266999999999996</v>
       </c>
       <c r="I198" s="63">
-        <f t="shared" ref="I198:I201" si="165">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I46</f>
+        <f t="shared" ref="I198:I201" si="164">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I46</f>
         <v>36.29</v>
       </c>
       <c r="J198" s="63">
-        <f t="shared" ref="J198:J201" si="166">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J46</f>
+        <f t="shared" ref="J198:J201" si="165">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J46</f>
         <v>37.811</v>
       </c>
       <c r="K198" s="58">
-        <f t="shared" ref="K198:M201" si="167">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K46</f>
+        <f t="shared" ref="K198:O201" si="166">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K46</f>
         <v>39.69</v>
       </c>
       <c r="L198" s="58">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>41.635000000000005</v>
       </c>
       <c r="M198" s="58">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>45.525000000000006</v>
       </c>
       <c r="N198" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N46</f>
-        <v>8.5829999999999984</v>
+        <f t="shared" si="166"/>
+        <v>8.4829999999999988</v>
       </c>
       <c r="O198" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O46</f>
-        <v>8.39</v>
+        <f t="shared" si="166"/>
+        <v>8.49</v>
       </c>
     </row>
     <row r="199" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="55" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="G199" s="63">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G47</f>
         <v>34.510999999999996</v>
       </c>
       <c r="H199" s="63">
+        <f t="shared" si="163"/>
+        <v>35.006999999999998</v>
+      </c>
+      <c r="I199" s="63">
         <f t="shared" si="164"/>
-        <v>35.006999999999998</v>
-      </c>
-      <c r="I199" s="63">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="J199" s="63">
         <f t="shared" si="165"/>
-        <v>35.909999999999997</v>
-      </c>
-      <c r="J199" s="63">
+        <v>37.250999999999998</v>
+      </c>
+      <c r="K199" s="58">
         <f t="shared" si="166"/>
-        <v>37.250999999999998</v>
-      </c>
-      <c r="K199" s="58">
-        <f t="shared" si="167"/>
         <v>38.905999999999999</v>
       </c>
       <c r="L199" s="58">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>40.795000000000002</v>
       </c>
       <c r="M199" s="58">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N199" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N47</f>
-        <v>7.9950000000000001</v>
+        <f t="shared" si="166"/>
+        <v>7.8949999999999996</v>
       </c>
       <c r="O199" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O47</f>
-        <v>7.9300000000000006</v>
+        <f t="shared" si="166"/>
+        <v>8.0300000000000011</v>
       </c>
     </row>
     <row r="200" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="55" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G200" s="63">
-        <f t="shared" ref="G200:G201" si="168">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G48</f>
+        <f t="shared" ref="G200:G201" si="167">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G48</f>
         <v>33.874000000000002</v>
       </c>
       <c r="H200" s="63">
+        <f t="shared" si="163"/>
+        <v>34.161999999999999</v>
+      </c>
+      <c r="I200" s="63">
         <f t="shared" si="164"/>
-        <v>34.161999999999999</v>
-      </c>
-      <c r="I200" s="63">
+        <v>34.674999999999997</v>
+      </c>
+      <c r="J200" s="63">
         <f t="shared" si="165"/>
-        <v>34.674999999999997</v>
-      </c>
-      <c r="J200" s="63">
+        <v>35.430999999999997</v>
+      </c>
+      <c r="K200" s="58">
         <f t="shared" si="166"/>
-        <v>35.430999999999997</v>
-      </c>
-      <c r="K200" s="58">
-        <f t="shared" si="167"/>
         <v>36.358000000000004</v>
       </c>
       <c r="L200" s="58">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>38.064999999999998</v>
       </c>
       <c r="M200" s="58">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>40</v>
       </c>
       <c r="N200" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N48</f>
-        <v>6.0839999999999996</v>
+        <f t="shared" si="166"/>
+        <v>5.984</v>
       </c>
       <c r="O200" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O48</f>
-        <v>6.4350000000000005</v>
+        <f t="shared" si="166"/>
+        <v>6.5350000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="56" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G201" s="63">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>34.609000000000002</v>
       </c>
       <c r="H201" s="63">
+        <f t="shared" si="163"/>
+        <v>35.137</v>
+      </c>
+      <c r="I201" s="63">
         <f t="shared" si="164"/>
-        <v>35.137</v>
-      </c>
-      <c r="I201" s="63">
+        <v>36.1</v>
+      </c>
+      <c r="J201" s="63">
         <f t="shared" si="165"/>
-        <v>36.1</v>
-      </c>
-      <c r="J201" s="63">
+        <v>37.530999999999999</v>
+      </c>
+      <c r="K201" s="63">
         <f t="shared" si="166"/>
-        <v>37.530999999999999</v>
-      </c>
-      <c r="K201" s="63">
-        <f t="shared" si="167"/>
         <v>39.298000000000002</v>
       </c>
       <c r="L201" s="63">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>41.215000000000003</v>
       </c>
       <c r="M201" s="63">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>44.875</v>
       </c>
       <c r="N201" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N49</f>
-        <v>8.2889999999999997</v>
+        <f t="shared" si="166"/>
+        <v>8.1890000000000001</v>
       </c>
       <c r="O201" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O49</f>
-        <v>8.16</v>
+        <f t="shared" si="166"/>
+        <v>8.26</v>
       </c>
     </row>
     <row r="202" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9895,7 +9859,7 @@
     </row>
     <row r="203" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="54" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G203" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G51</f>
@@ -9926,17 +9890,17 @@
         <v>46.5</v>
       </c>
       <c r="N203" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N51</f>
-        <v>9.0240000000000009</v>
+        <f t="shared" ref="N203:O203" si="168">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$154+N51</f>
+        <v>8.9239999999999995</v>
       </c>
       <c r="O203" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O51</f>
-        <v>8.7349999999999994</v>
+        <f t="shared" si="168"/>
+        <v>8.8350000000000009</v>
       </c>
     </row>
     <row r="204" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="55" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G204" s="58">
         <f t="shared" ref="G204:G207" si="169">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G52</f>
@@ -9955,7 +9919,7 @@
         <v>37.250999999999998</v>
       </c>
       <c r="K204" s="58">
-        <f t="shared" ref="K204:M207" si="173">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K52</f>
+        <f t="shared" ref="K204:O207" si="173">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K52</f>
         <v>38.905999999999999</v>
       </c>
       <c r="L204" s="58">
@@ -9967,17 +9931,17 @@
         <v>44.225000000000001</v>
       </c>
       <c r="N204" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N52</f>
-        <v>7.9950000000000001</v>
+        <f t="shared" si="173"/>
+        <v>7.8949999999999996</v>
       </c>
       <c r="O204" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O52</f>
-        <v>7.9300000000000006</v>
+        <f t="shared" si="173"/>
+        <v>8.0300000000000011</v>
       </c>
     </row>
     <row r="205" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="55" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G205" s="58">
         <f t="shared" si="169"/>
@@ -10008,17 +9972,17 @@
         <v>44.225000000000001</v>
       </c>
       <c r="N205" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N53</f>
-        <v>7.9950000000000001</v>
+        <f t="shared" si="173"/>
+        <v>7.8949999999999996</v>
       </c>
       <c r="O205" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O53</f>
-        <v>7.9300000000000006</v>
+        <f t="shared" si="173"/>
+        <v>8.0300000000000011</v>
       </c>
     </row>
     <row r="206" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="55" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G206" s="58">
         <f t="shared" si="169"/>
@@ -10049,17 +10013,17 @@
         <v>40</v>
       </c>
       <c r="N206" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N54</f>
-        <v>6.0839999999999996</v>
+        <f t="shared" si="173"/>
+        <v>5.984</v>
       </c>
       <c r="O206" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O54</f>
-        <v>6.4350000000000005</v>
+        <f t="shared" si="173"/>
+        <v>6.5350000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="56" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G207" s="63">
         <f t="shared" si="169"/>
@@ -10090,12 +10054,12 @@
         <v>44.875</v>
       </c>
       <c r="N207" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N55</f>
-        <v>8.2889999999999997</v>
+        <f t="shared" si="173"/>
+        <v>8.1890000000000001</v>
       </c>
       <c r="O207" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O55</f>
-        <v>8.16</v>
+        <f t="shared" si="173"/>
+        <v>8.26</v>
       </c>
     </row>
     <row r="208" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10103,7 +10067,7 @@
     </row>
     <row r="209" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="54" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G209" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G57</f>
@@ -10134,217 +10098,217 @@
         <v>46.575000000000003</v>
       </c>
       <c r="N209" s="100">
-        <f t="shared" ref="N209:N214" si="174">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N57</f>
-        <v>7.7009999999999996</v>
+        <f t="shared" ref="N209:O209" si="174">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$154+N57</f>
+        <v>7.6009999999999991</v>
       </c>
       <c r="O209" s="100">
-        <f t="shared" ref="O209:O214" si="175">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O57</f>
-        <v>7.7000000000000011</v>
+        <f t="shared" si="174"/>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="210" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="55" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G210" s="58">
-        <f t="shared" ref="G210:G214" si="176">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G58</f>
+        <f t="shared" ref="G210:G214" si="175">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G58</f>
         <v>37.295000000000002</v>
       </c>
       <c r="H210" s="58">
-        <f t="shared" ref="H210:H214" si="177">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H58</f>
+        <f t="shared" ref="H210:H214" si="176">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H58</f>
         <v>38.046999999999997</v>
       </c>
       <c r="I210" s="58">
-        <f t="shared" ref="I210:I214" si="178">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I58</f>
+        <f t="shared" ref="I210:I214" si="177">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I58</f>
         <v>39.43</v>
       </c>
       <c r="J210" s="58">
-        <f t="shared" ref="J210:J214" si="179">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J58</f>
+        <f t="shared" ref="J210:J214" si="178">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J58</f>
         <v>41.491</v>
       </c>
       <c r="K210" s="58">
-        <f t="shared" ref="K210:M214" si="180">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K58</f>
+        <f t="shared" ref="K210:O214" si="179">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K58</f>
         <v>44.042000000000002</v>
       </c>
       <c r="L210" s="58">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>47.155000000000001</v>
       </c>
       <c r="M210" s="58">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>52.424999999999997</v>
       </c>
       <c r="N210" s="100">
-        <f t="shared" si="174"/>
-        <v>10.347</v>
+        <f t="shared" si="179"/>
+        <v>10.247</v>
       </c>
       <c r="O210" s="100">
-        <f t="shared" si="175"/>
-        <v>9.77</v>
+        <f t="shared" si="179"/>
+        <v>9.870000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="55" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G211" s="58">
+        <f t="shared" si="175"/>
+        <v>36.364000000000004</v>
+      </c>
+      <c r="H211" s="58">
         <f t="shared" si="176"/>
-        <v>36.364000000000004</v>
-      </c>
-      <c r="H211" s="58">
+        <v>36.811999999999998</v>
+      </c>
+      <c r="I211" s="58">
         <f t="shared" si="177"/>
-        <v>36.811999999999998</v>
-      </c>
-      <c r="I211" s="58">
+        <v>37.625</v>
+      </c>
+      <c r="J211" s="58">
         <f t="shared" si="178"/>
-        <v>37.625</v>
-      </c>
-      <c r="J211" s="58">
+        <v>38.831000000000003</v>
+      </c>
+      <c r="K211" s="58">
         <f t="shared" si="179"/>
-        <v>38.831000000000003</v>
-      </c>
-      <c r="K211" s="58">
-        <f t="shared" si="180"/>
         <v>40.317999999999998</v>
       </c>
       <c r="L211" s="58">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>43.165000000000006</v>
       </c>
       <c r="M211" s="58">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>46.25</v>
       </c>
       <c r="N211" s="100">
-        <f t="shared" si="174"/>
-        <v>7.5539999999999994</v>
+        <f t="shared" si="179"/>
+        <v>7.4539999999999988</v>
       </c>
       <c r="O211" s="100">
-        <f t="shared" si="175"/>
-        <v>7.5850000000000009</v>
+        <f t="shared" si="179"/>
+        <v>7.6850000000000005</v>
       </c>
     </row>
     <row r="212" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="55" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G212" s="58">
+        <f t="shared" si="175"/>
+        <v>37.393000000000001</v>
+      </c>
+      <c r="H212" s="58">
         <f t="shared" si="176"/>
-        <v>37.393000000000001</v>
-      </c>
-      <c r="H212" s="58">
+        <v>38.177</v>
+      </c>
+      <c r="I212" s="58">
         <f t="shared" si="177"/>
-        <v>38.177</v>
-      </c>
-      <c r="I212" s="58">
+        <v>39.620000000000005</v>
+      </c>
+      <c r="J212" s="58">
         <f t="shared" si="178"/>
-        <v>39.620000000000005</v>
-      </c>
-      <c r="J212" s="58">
+        <v>41.771000000000001</v>
+      </c>
+      <c r="K212" s="58">
         <f t="shared" si="179"/>
-        <v>41.771000000000001</v>
-      </c>
-      <c r="K212" s="58">
-        <f t="shared" si="180"/>
         <v>44.434000000000005</v>
       </c>
       <c r="L212" s="58">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>47.575000000000003</v>
       </c>
       <c r="M212" s="58">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>53.075000000000003</v>
       </c>
       <c r="N212" s="100">
-        <f t="shared" si="174"/>
-        <v>10.640999999999998</v>
+        <f t="shared" si="179"/>
+        <v>10.540999999999999</v>
       </c>
       <c r="O212" s="100">
-        <f t="shared" si="175"/>
-        <v>10</v>
+        <f t="shared" si="179"/>
+        <v>10.100000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="55" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G213" s="58">
+        <f t="shared" si="175"/>
+        <v>36.364000000000004</v>
+      </c>
+      <c r="H213" s="58">
         <f t="shared" si="176"/>
-        <v>36.364000000000004</v>
-      </c>
-      <c r="H213" s="58">
+        <v>36.811999999999998</v>
+      </c>
+      <c r="I213" s="58">
         <f t="shared" si="177"/>
-        <v>36.811999999999998</v>
-      </c>
-      <c r="I213" s="58">
+        <v>37.625</v>
+      </c>
+      <c r="J213" s="58">
         <f t="shared" si="178"/>
-        <v>37.625</v>
-      </c>
-      <c r="J213" s="58">
+        <v>38.831000000000003</v>
+      </c>
+      <c r="K213" s="58">
         <f t="shared" si="179"/>
-        <v>38.831000000000003</v>
-      </c>
-      <c r="K213" s="58">
-        <f t="shared" si="180"/>
         <v>40.317999999999998</v>
       </c>
       <c r="L213" s="58">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>43.165000000000006</v>
       </c>
       <c r="M213" s="58">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>46.25</v>
       </c>
       <c r="N213" s="100">
-        <f t="shared" si="174"/>
-        <v>7.5539999999999994</v>
+        <f>SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$154+N61</f>
+        <v>7.4539999999999988</v>
       </c>
       <c r="O213" s="100">
-        <f t="shared" si="175"/>
-        <v>7.5850000000000009</v>
+        <f t="shared" si="179"/>
+        <v>7.6850000000000005</v>
       </c>
     </row>
     <row r="214" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="56" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G214" s="63">
+        <f t="shared" si="175"/>
+        <v>35.923000000000002</v>
+      </c>
+      <c r="H214" s="63">
         <f t="shared" si="176"/>
-        <v>35.923000000000002</v>
-      </c>
-      <c r="H214" s="63">
+        <v>36.226999999999997</v>
+      </c>
+      <c r="I214" s="63">
         <f t="shared" si="177"/>
-        <v>36.226999999999997</v>
-      </c>
-      <c r="I214" s="63">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="J214" s="63">
         <f t="shared" si="178"/>
-        <v>36.770000000000003</v>
-      </c>
-      <c r="J214" s="63">
+        <v>37.570999999999998</v>
+      </c>
+      <c r="K214" s="63">
         <f t="shared" si="179"/>
-        <v>37.570999999999998</v>
-      </c>
-      <c r="K214" s="63">
-        <f t="shared" si="180"/>
         <v>38.554000000000002</v>
       </c>
       <c r="L214" s="63">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>41.275000000000006</v>
       </c>
       <c r="M214" s="63">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>43.325000000000003</v>
       </c>
       <c r="N214" s="100">
-        <f t="shared" si="174"/>
-        <v>6.2309999999999999</v>
+        <f t="shared" si="179"/>
+        <v>6.1310000000000002</v>
       </c>
       <c r="O214" s="100">
-        <f t="shared" si="175"/>
-        <v>6.5500000000000007</v>
+        <f t="shared" si="179"/>
+        <v>6.65</v>
       </c>
     </row>
     <row r="215" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10352,7 +10316,7 @@
     </row>
     <row r="216" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="54" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G216" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G64</f>
@@ -10383,217 +10347,217 @@
         <v>46.575000000000003</v>
       </c>
       <c r="N216" s="100">
-        <f t="shared" ref="N216:N221" si="181">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N64</f>
-        <v>7.7009999999999996</v>
+        <f t="shared" ref="N216:O216" si="180">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$154+N64</f>
+        <v>7.6009999999999991</v>
       </c>
       <c r="O216" s="100">
-        <f t="shared" ref="O216:O221" si="182">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O64</f>
-        <v>7.7000000000000011</v>
+        <f t="shared" si="180"/>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="55" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G217" s="58">
-        <f t="shared" ref="G217:G221" si="183">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G65</f>
+        <f t="shared" ref="G217:G221" si="181">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G65</f>
         <v>37.295000000000002</v>
       </c>
       <c r="H217" s="58">
-        <f t="shared" ref="H217:H221" si="184">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H65</f>
+        <f t="shared" ref="H217:H221" si="182">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H65</f>
         <v>38.046999999999997</v>
       </c>
       <c r="I217" s="58">
-        <f t="shared" ref="I217:I221" si="185">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I65</f>
+        <f t="shared" ref="I217:I221" si="183">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I65</f>
         <v>39.43</v>
       </c>
       <c r="J217" s="58">
-        <f t="shared" ref="J217:J221" si="186">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J65</f>
+        <f t="shared" ref="J217:J221" si="184">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J65</f>
         <v>41.491</v>
       </c>
       <c r="K217" s="58">
-        <f t="shared" ref="K217:M221" si="187">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K65</f>
+        <f t="shared" ref="K217:O221" si="185">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K65</f>
         <v>44.042000000000002</v>
       </c>
       <c r="L217" s="58">
-        <f t="shared" si="187"/>
+        <f t="shared" si="185"/>
         <v>47.155000000000001</v>
       </c>
       <c r="M217" s="58">
-        <f t="shared" si="187"/>
+        <f t="shared" si="185"/>
         <v>52.424999999999997</v>
       </c>
       <c r="N217" s="100">
-        <f t="shared" si="181"/>
-        <v>10.347</v>
+        <f t="shared" si="185"/>
+        <v>10.247</v>
       </c>
       <c r="O217" s="100">
-        <f t="shared" si="182"/>
-        <v>9.77</v>
+        <f t="shared" si="185"/>
+        <v>9.870000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="55" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G218" s="58">
+        <f t="shared" si="181"/>
+        <v>36.364000000000004</v>
+      </c>
+      <c r="H218" s="58">
+        <f t="shared" si="182"/>
+        <v>36.811999999999998</v>
+      </c>
+      <c r="I218" s="58">
         <f t="shared" si="183"/>
-        <v>36.364000000000004</v>
-      </c>
-      <c r="H218" s="58">
+        <v>37.625</v>
+      </c>
+      <c r="J218" s="58">
         <f t="shared" si="184"/>
-        <v>36.811999999999998</v>
-      </c>
-      <c r="I218" s="58">
+        <v>38.831000000000003</v>
+      </c>
+      <c r="K218" s="58">
         <f t="shared" si="185"/>
-        <v>37.625</v>
-      </c>
-      <c r="J218" s="58">
-        <f t="shared" si="186"/>
-        <v>38.831000000000003</v>
-      </c>
-      <c r="K218" s="58">
-        <f t="shared" si="187"/>
         <v>40.317999999999998</v>
       </c>
       <c r="L218" s="58">
-        <f t="shared" si="187"/>
+        <f t="shared" si="185"/>
         <v>43.165000000000006</v>
       </c>
       <c r="M218" s="58">
-        <f t="shared" si="187"/>
+        <f t="shared" si="185"/>
         <v>46.25</v>
       </c>
       <c r="N218" s="100">
-        <f t="shared" si="181"/>
-        <v>7.5539999999999994</v>
+        <f t="shared" si="185"/>
+        <v>7.4539999999999988</v>
       </c>
       <c r="O218" s="100">
-        <f t="shared" si="182"/>
-        <v>7.5850000000000009</v>
+        <f t="shared" si="185"/>
+        <v>7.6850000000000005</v>
       </c>
     </row>
     <row r="219" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="55" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G219" s="58">
+        <f t="shared" si="181"/>
+        <v>37.295000000000002</v>
+      </c>
+      <c r="H219" s="58">
+        <f t="shared" si="182"/>
+        <v>38.046999999999997</v>
+      </c>
+      <c r="I219" s="58">
         <f t="shared" si="183"/>
-        <v>37.295000000000002</v>
-      </c>
-      <c r="H219" s="58">
+        <v>39.43</v>
+      </c>
+      <c r="J219" s="58">
         <f t="shared" si="184"/>
-        <v>38.046999999999997</v>
-      </c>
-      <c r="I219" s="58">
+        <v>41.491</v>
+      </c>
+      <c r="K219" s="58">
         <f t="shared" si="185"/>
-        <v>39.43</v>
-      </c>
-      <c r="J219" s="58">
-        <f t="shared" si="186"/>
-        <v>41.491</v>
-      </c>
-      <c r="K219" s="58">
-        <f t="shared" si="187"/>
         <v>44.042000000000002</v>
       </c>
       <c r="L219" s="58">
-        <f t="shared" si="187"/>
+        <f t="shared" si="185"/>
         <v>47.155000000000001</v>
       </c>
       <c r="M219" s="58">
-        <f t="shared" si="187"/>
+        <f t="shared" si="185"/>
         <v>52.424999999999997</v>
       </c>
       <c r="N219" s="100">
-        <f t="shared" si="181"/>
-        <v>10.347</v>
+        <f t="shared" si="185"/>
+        <v>10.247</v>
       </c>
       <c r="O219" s="100">
-        <f t="shared" si="182"/>
-        <v>9.77</v>
+        <f t="shared" si="185"/>
+        <v>9.870000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="55" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G220" s="58">
+        <f t="shared" si="181"/>
+        <v>36.364000000000004</v>
+      </c>
+      <c r="H220" s="58">
+        <f t="shared" si="182"/>
+        <v>36.811999999999998</v>
+      </c>
+      <c r="I220" s="58">
         <f t="shared" si="183"/>
-        <v>36.364000000000004</v>
-      </c>
-      <c r="H220" s="58">
+        <v>37.625</v>
+      </c>
+      <c r="J220" s="58">
         <f t="shared" si="184"/>
-        <v>36.811999999999998</v>
-      </c>
-      <c r="I220" s="58">
+        <v>38.831000000000003</v>
+      </c>
+      <c r="K220" s="58">
         <f t="shared" si="185"/>
-        <v>37.625</v>
-      </c>
-      <c r="J220" s="58">
-        <f t="shared" si="186"/>
-        <v>38.831000000000003</v>
-      </c>
-      <c r="K220" s="58">
-        <f t="shared" si="187"/>
         <v>40.317999999999998</v>
       </c>
       <c r="L220" s="58">
-        <f t="shared" si="187"/>
+        <f t="shared" si="185"/>
         <v>43.165000000000006</v>
       </c>
       <c r="M220" s="58">
-        <f t="shared" si="187"/>
+        <f t="shared" si="185"/>
         <v>46.25</v>
       </c>
       <c r="N220" s="100">
-        <f t="shared" si="181"/>
-        <v>7.5539999999999994</v>
+        <f t="shared" si="185"/>
+        <v>7.4539999999999988</v>
       </c>
       <c r="O220" s="100">
-        <f t="shared" si="182"/>
-        <v>7.5850000000000009</v>
+        <f t="shared" si="185"/>
+        <v>7.6850000000000005</v>
       </c>
     </row>
     <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="56" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G221" s="63">
+        <f t="shared" si="181"/>
+        <v>35.923000000000002</v>
+      </c>
+      <c r="H221" s="63">
+        <f t="shared" si="182"/>
+        <v>36.226999999999997</v>
+      </c>
+      <c r="I221" s="63">
         <f t="shared" si="183"/>
-        <v>35.923000000000002</v>
-      </c>
-      <c r="H221" s="63">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="J221" s="63">
         <f t="shared" si="184"/>
-        <v>36.226999999999997</v>
-      </c>
-      <c r="I221" s="63">
+        <v>37.570999999999998</v>
+      </c>
+      <c r="K221" s="63">
         <f t="shared" si="185"/>
-        <v>36.770000000000003</v>
-      </c>
-      <c r="J221" s="63">
-        <f t="shared" si="186"/>
-        <v>37.570999999999998</v>
-      </c>
-      <c r="K221" s="63">
-        <f t="shared" si="187"/>
         <v>38.554000000000002</v>
       </c>
       <c r="L221" s="63">
-        <f t="shared" si="187"/>
+        <f t="shared" si="185"/>
         <v>41.275000000000006</v>
       </c>
       <c r="M221" s="63">
-        <f t="shared" si="187"/>
+        <f t="shared" si="185"/>
         <v>43.325000000000003</v>
       </c>
       <c r="N221" s="100">
-        <f t="shared" si="181"/>
-        <v>6.2309999999999999</v>
+        <f t="shared" si="185"/>
+        <v>6.1310000000000002</v>
       </c>
       <c r="O221" s="100">
-        <f t="shared" si="182"/>
-        <v>6.5500000000000007</v>
+        <f t="shared" si="185"/>
+        <v>6.65</v>
       </c>
     </row>
     <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10601,7 +10565,7 @@
     </row>
     <row r="223" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="54" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G223" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G71</f>
@@ -10632,176 +10596,176 @@
         <v>50.724999999999994</v>
       </c>
       <c r="N223" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N71</f>
-        <v>8.1370000000000005</v>
+        <f t="shared" ref="N223:O223" si="186">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$151+N71</f>
+        <v>9.8109999999999999</v>
       </c>
       <c r="O223" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O71</f>
-        <v>7.9350000000000005</v>
+        <f t="shared" si="186"/>
+        <v>9.6349999999999998</v>
       </c>
     </row>
     <row r="224" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="55" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G224" s="58">
-        <f t="shared" ref="G224:G227" si="188">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G72</f>
+        <f t="shared" ref="G224:G227" si="187">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G72</f>
         <v>37.118000000000002</v>
       </c>
       <c r="H224" s="58">
-        <f t="shared" ref="H224:H227" si="189">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H72</f>
+        <f t="shared" ref="H224:H227" si="188">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H72</f>
         <v>37.725999999999999</v>
       </c>
       <c r="I224" s="58">
-        <f t="shared" ref="I224:I227" si="190">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I72</f>
+        <f t="shared" ref="I224:I227" si="189">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I72</f>
         <v>38.83</v>
       </c>
       <c r="J224" s="58">
-        <f t="shared" ref="J224:J227" si="191">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J72</f>
+        <f t="shared" ref="J224:J227" si="190">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J72</f>
         <v>40.468000000000004</v>
       </c>
       <c r="K224" s="58">
-        <f t="shared" ref="K224:M227" si="192">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K72</f>
+        <f t="shared" ref="K224:O227" si="191">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K72</f>
         <v>42.488</v>
       </c>
       <c r="L224" s="58">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>45.56</v>
       </c>
       <c r="M224" s="58">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>49.75</v>
       </c>
       <c r="N224" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N72</f>
-        <v>7.6959999999999997</v>
+        <f t="shared" si="191"/>
+        <v>9.3699999999999992</v>
       </c>
       <c r="O224" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O72</f>
-        <v>7.59</v>
+        <f t="shared" si="191"/>
+        <v>9.2899999999999991</v>
       </c>
     </row>
     <row r="225" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="55" t="s">
-        <v>141</v>
+        <v>324</v>
       </c>
       <c r="G225" s="58">
+        <f t="shared" si="187"/>
+        <v>36.921999999999997</v>
+      </c>
+      <c r="H225" s="58">
         <f t="shared" si="188"/>
-        <v>36.921999999999997</v>
-      </c>
-      <c r="H225" s="58">
+        <v>37.466000000000001</v>
+      </c>
+      <c r="I225" s="58">
         <f t="shared" si="189"/>
-        <v>37.466000000000001</v>
-      </c>
-      <c r="I225" s="58">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="J225" s="58">
         <f t="shared" si="190"/>
-        <v>38.450000000000003</v>
-      </c>
-      <c r="J225" s="58">
+        <v>39.908000000000001</v>
+      </c>
+      <c r="K225" s="58">
         <f t="shared" si="191"/>
-        <v>39.908000000000001</v>
-      </c>
-      <c r="K225" s="58">
-        <f t="shared" si="192"/>
         <v>41.704000000000001</v>
       </c>
       <c r="L225" s="58">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>44.72</v>
       </c>
       <c r="M225" s="58">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>48.45</v>
       </c>
       <c r="N225" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N73</f>
-        <v>7.1080000000000005</v>
+        <f t="shared" si="191"/>
+        <v>8.782</v>
       </c>
       <c r="O225" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O73</f>
-        <v>7.1300000000000008</v>
+        <f t="shared" si="191"/>
+        <v>8.83</v>
       </c>
     </row>
     <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="55" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="G226" s="58">
+        <f t="shared" si="187"/>
+        <v>36.285000000000004</v>
+      </c>
+      <c r="H226" s="58">
         <f t="shared" si="188"/>
-        <v>36.285000000000004</v>
-      </c>
-      <c r="H226" s="58">
+        <v>36.621000000000002</v>
+      </c>
+      <c r="I226" s="58">
         <f t="shared" si="189"/>
-        <v>36.621000000000002</v>
-      </c>
-      <c r="I226" s="58">
+        <v>37.215000000000003</v>
+      </c>
+      <c r="J226" s="58">
         <f t="shared" si="190"/>
-        <v>37.215000000000003</v>
-      </c>
-      <c r="J226" s="58">
+        <v>38.088000000000001</v>
+      </c>
+      <c r="K226" s="58">
         <f t="shared" si="191"/>
-        <v>38.088000000000001</v>
-      </c>
-      <c r="K226" s="58">
-        <f t="shared" si="192"/>
         <v>39.156000000000006</v>
       </c>
       <c r="L226" s="58">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>41.99</v>
       </c>
       <c r="M226" s="58">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N226" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N74</f>
-        <v>5.1970000000000001</v>
+        <f t="shared" si="191"/>
+        <v>6.8710000000000004</v>
       </c>
       <c r="O226" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O74</f>
-        <v>5.6349999999999998</v>
+        <f t="shared" si="191"/>
+        <v>7.335</v>
       </c>
     </row>
     <row r="227" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="56" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G227" s="63">
+        <f t="shared" si="187"/>
+        <v>37.020000000000003</v>
+      </c>
+      <c r="H227" s="63">
         <f t="shared" si="188"/>
-        <v>37.020000000000003</v>
-      </c>
-      <c r="H227" s="63">
+        <v>37.596000000000004</v>
+      </c>
+      <c r="I227" s="63">
         <f t="shared" si="189"/>
-        <v>37.596000000000004</v>
-      </c>
-      <c r="I227" s="63">
+        <v>38.64</v>
+      </c>
+      <c r="J227" s="63">
         <f t="shared" si="190"/>
-        <v>38.64</v>
-      </c>
-      <c r="J227" s="63">
+        <v>40.188000000000002</v>
+      </c>
+      <c r="K227" s="63">
         <f t="shared" si="191"/>
-        <v>40.188000000000002</v>
-      </c>
-      <c r="K227" s="63">
-        <f t="shared" si="192"/>
         <v>42.096000000000004</v>
       </c>
       <c r="L227" s="63">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>45.14</v>
       </c>
       <c r="M227" s="63">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>49.099999999999994</v>
       </c>
       <c r="N227" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N75</f>
-        <v>7.4019999999999992</v>
+        <f t="shared" si="191"/>
+        <v>9.0760000000000005</v>
       </c>
       <c r="O227" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O75</f>
-        <v>7.3599999999999994</v>
+        <f t="shared" si="191"/>
+        <v>9.0599999999999987</v>
       </c>
     </row>
     <row r="228" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10809,7 +10773,7 @@
     </row>
     <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="54" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G229" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G77</f>
@@ -10836,21 +10800,21 @@
         <v>46.19</v>
       </c>
       <c r="M229" s="58">
-        <f>SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$151+L77</f>
-        <v>46.19</v>
+        <f t="shared" ref="M229:O229" si="192">SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$151+M77</f>
+        <v>50.724999999999994</v>
       </c>
       <c r="N229" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N77</f>
-        <v>8.1370000000000005</v>
+        <f t="shared" si="192"/>
+        <v>9.8109999999999999</v>
       </c>
       <c r="O229" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O77</f>
-        <v>7.9350000000000005</v>
+        <f t="shared" si="192"/>
+        <v>9.6349999999999998</v>
       </c>
     </row>
     <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="55" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G230" s="58">
         <f t="shared" ref="G230:G233" si="193">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G78</f>
@@ -10869,7 +10833,7 @@
         <v>39.908000000000001</v>
       </c>
       <c r="K230" s="58">
-        <f t="shared" ref="K230:L233" si="197">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K78</f>
+        <f t="shared" ref="K230:O233" si="197">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K78</f>
         <v>41.704000000000001</v>
       </c>
       <c r="L230" s="58">
@@ -10877,21 +10841,21 @@
         <v>44.72</v>
       </c>
       <c r="M230" s="58">
-        <f t="shared" ref="M230:M233" si="198">SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$151+L78</f>
-        <v>44.72</v>
+        <f t="shared" si="197"/>
+        <v>48.45</v>
       </c>
       <c r="N230" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N78</f>
-        <v>7.1080000000000005</v>
+        <f t="shared" si="197"/>
+        <v>8.782</v>
       </c>
       <c r="O230" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O78</f>
-        <v>7.1300000000000008</v>
+        <f t="shared" si="197"/>
+        <v>8.83</v>
       </c>
     </row>
     <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="55" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="G231" s="58">
         <f t="shared" si="193"/>
@@ -10918,21 +10882,21 @@
         <v>44.72</v>
       </c>
       <c r="M231" s="58">
-        <f t="shared" si="198"/>
-        <v>44.72</v>
+        <f t="shared" si="197"/>
+        <v>48.45</v>
       </c>
       <c r="N231" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N79</f>
-        <v>7.1080000000000005</v>
+        <f t="shared" si="197"/>
+        <v>8.782</v>
       </c>
       <c r="O231" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O79</f>
-        <v>7.1300000000000008</v>
+        <f t="shared" si="197"/>
+        <v>8.83</v>
       </c>
     </row>
     <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="55" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G232" s="58">
         <f t="shared" si="193"/>
@@ -10959,21 +10923,21 @@
         <v>41.99</v>
       </c>
       <c r="M232" s="58">
-        <f t="shared" si="198"/>
-        <v>41.99</v>
+        <f t="shared" si="197"/>
+        <v>44.225000000000001</v>
       </c>
       <c r="N232" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N80</f>
-        <v>5.1970000000000001</v>
+        <f t="shared" si="197"/>
+        <v>6.8710000000000004</v>
       </c>
       <c r="O232" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O80</f>
-        <v>5.6349999999999998</v>
+        <f t="shared" si="197"/>
+        <v>7.335</v>
       </c>
     </row>
     <row r="233" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="56" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G233" s="63">
         <f t="shared" si="193"/>
@@ -11000,16 +10964,16 @@
         <v>45.14</v>
       </c>
       <c r="M233" s="63">
-        <f t="shared" si="198"/>
-        <v>45.14</v>
+        <f t="shared" si="197"/>
+        <v>49.099999999999994</v>
       </c>
       <c r="N233" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N81</f>
-        <v>7.4019999999999992</v>
+        <f t="shared" si="197"/>
+        <v>9.0760000000000005</v>
       </c>
       <c r="O233" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O81</f>
-        <v>7.3599999999999994</v>
+        <f t="shared" si="197"/>
+        <v>9.0599999999999987</v>
       </c>
     </row>
     <row r="234" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11017,7 +10981,7 @@
     </row>
     <row r="235" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="54" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G235" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G83</f>
@@ -11048,217 +11012,217 @@
         <v>50.8</v>
       </c>
       <c r="N235" s="100">
-        <f t="shared" ref="N235:N240" si="199">SUM(N$161:N$162)+N$147+N$149+N$151+$N83</f>
-        <v>6.8140000000000001</v>
+        <f t="shared" ref="N235:O235" si="198">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$151+N83</f>
+        <v>8.4879999999999995</v>
       </c>
       <c r="O235" s="100">
-        <f t="shared" ref="O235:O240" si="200">SUM(O$161:O$162)+O$147+O$149+O$151+$O83</f>
-        <v>6.9</v>
+        <f t="shared" si="198"/>
+        <v>8.6000000000000014</v>
       </c>
     </row>
     <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="55" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G236" s="58">
-        <f t="shared" ref="G236:G240" si="201">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G84</f>
+        <f t="shared" ref="G236:G240" si="199">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G84</f>
         <v>39.706000000000003</v>
       </c>
       <c r="H236" s="58">
-        <f t="shared" ref="H236:H240" si="202">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H84</f>
+        <f t="shared" ref="H236:H240" si="200">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H84</f>
         <v>40.506</v>
       </c>
       <c r="I236" s="58">
-        <f t="shared" ref="I236:I240" si="203">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I84</f>
+        <f t="shared" ref="I236:I240" si="201">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I84</f>
         <v>41.97</v>
       </c>
       <c r="J236" s="58">
-        <f t="shared" ref="J236:J240" si="204">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J84</f>
+        <f t="shared" ref="J236:J240" si="202">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J84</f>
         <v>44.147999999999996</v>
       </c>
       <c r="K236" s="58">
-        <f t="shared" ref="K236:K240" si="205">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K84</f>
+        <f t="shared" ref="K236:K240" si="203">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K84</f>
         <v>46.84</v>
       </c>
       <c r="L236" s="58">
-        <f t="shared" ref="L236:L240" si="206">SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$151+L84</f>
+        <f t="shared" ref="L236:O240" si="204">SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$151+L84</f>
         <v>51.08</v>
       </c>
       <c r="M236" s="58">
-        <f t="shared" ref="M236:M240" si="207">SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$151+M84</f>
+        <f t="shared" ref="M236:O240" si="205">SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$151+M84</f>
         <v>56.65</v>
       </c>
       <c r="N236" s="100">
-        <f t="shared" si="199"/>
-        <v>9.4599999999999991</v>
+        <f t="shared" si="205"/>
+        <v>11.134</v>
       </c>
       <c r="O236" s="100">
-        <f t="shared" si="200"/>
-        <v>8.9700000000000006</v>
+        <f t="shared" si="205"/>
+        <v>10.67</v>
       </c>
     </row>
     <row r="237" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="55" t="s">
-        <v>105</v>
+        <v>326</v>
       </c>
       <c r="G237" s="58">
+        <f t="shared" si="199"/>
+        <v>38.775000000000006</v>
+      </c>
+      <c r="H237" s="58">
+        <f t="shared" si="200"/>
+        <v>39.271000000000001</v>
+      </c>
+      <c r="I237" s="58">
         <f t="shared" si="201"/>
-        <v>38.775000000000006</v>
-      </c>
-      <c r="H237" s="58">
+        <v>40.164999999999999</v>
+      </c>
+      <c r="J237" s="58">
         <f t="shared" si="202"/>
-        <v>39.271000000000001</v>
-      </c>
-      <c r="I237" s="58">
+        <v>41.488</v>
+      </c>
+      <c r="K237" s="58">
         <f t="shared" si="203"/>
-        <v>40.164999999999999</v>
-      </c>
-      <c r="J237" s="58">
+        <v>43.116</v>
+      </c>
+      <c r="L237" s="58">
         <f t="shared" si="204"/>
-        <v>41.488</v>
-      </c>
-      <c r="K237" s="58">
+        <v>47.09</v>
+      </c>
+      <c r="M237" s="58">
         <f t="shared" si="205"/>
-        <v>43.116</v>
-      </c>
-      <c r="L237" s="58">
-        <f t="shared" si="206"/>
-        <v>47.09</v>
-      </c>
-      <c r="M237" s="58">
-        <f t="shared" si="207"/>
         <v>50.475000000000001</v>
       </c>
       <c r="N237" s="100">
-        <f t="shared" si="199"/>
-        <v>6.6669999999999998</v>
+        <f t="shared" si="205"/>
+        <v>8.3409999999999993</v>
       </c>
       <c r="O237" s="100">
-        <f t="shared" si="200"/>
-        <v>6.7850000000000001</v>
+        <f t="shared" si="205"/>
+        <v>8.4849999999999994</v>
       </c>
     </row>
     <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="55" t="s">
-        <v>104</v>
+        <v>327</v>
       </c>
       <c r="G238" s="58">
+        <f t="shared" si="199"/>
+        <v>39.804000000000002</v>
+      </c>
+      <c r="H238" s="58">
+        <f t="shared" si="200"/>
+        <v>40.636000000000003</v>
+      </c>
+      <c r="I238" s="58">
         <f t="shared" si="201"/>
-        <v>39.804000000000002</v>
-      </c>
-      <c r="H238" s="58">
+        <v>42.16</v>
+      </c>
+      <c r="J238" s="58">
         <f t="shared" si="202"/>
-        <v>40.636000000000003</v>
-      </c>
-      <c r="I238" s="58">
+        <v>44.427999999999997</v>
+      </c>
+      <c r="K238" s="58">
         <f t="shared" si="203"/>
-        <v>42.16</v>
-      </c>
-      <c r="J238" s="58">
+        <v>47.232000000000006</v>
+      </c>
+      <c r="L238" s="58">
         <f t="shared" si="204"/>
-        <v>44.427999999999997</v>
-      </c>
-      <c r="K238" s="58">
-        <f t="shared" si="205"/>
-        <v>47.232000000000006</v>
-      </c>
-      <c r="L238" s="58">
-        <f t="shared" si="206"/>
         <v>51.5</v>
       </c>
       <c r="M238" s="58">
-        <f t="shared" si="207"/>
+        <f t="shared" si="204"/>
         <v>57.3</v>
       </c>
       <c r="N238" s="100">
-        <f t="shared" si="199"/>
-        <v>9.7539999999999996</v>
+        <f t="shared" si="204"/>
+        <v>11.427999999999999</v>
       </c>
       <c r="O238" s="100">
-        <f t="shared" si="200"/>
-        <v>9.2000000000000011</v>
+        <f t="shared" si="204"/>
+        <v>10.9</v>
       </c>
     </row>
     <row r="239" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="55" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G239" s="58">
+        <f t="shared" si="199"/>
+        <v>38.775000000000006</v>
+      </c>
+      <c r="H239" s="58">
+        <f t="shared" si="200"/>
+        <v>39.271000000000001</v>
+      </c>
+      <c r="I239" s="58">
         <f t="shared" si="201"/>
-        <v>38.775000000000006</v>
-      </c>
-      <c r="H239" s="58">
+        <v>40.164999999999999</v>
+      </c>
+      <c r="J239" s="58">
         <f t="shared" si="202"/>
-        <v>39.271000000000001</v>
-      </c>
-      <c r="I239" s="58">
+        <v>41.488</v>
+      </c>
+      <c r="K239" s="58">
         <f t="shared" si="203"/>
-        <v>40.164999999999999</v>
-      </c>
-      <c r="J239" s="58">
+        <v>43.116</v>
+      </c>
+      <c r="L239" s="58">
         <f t="shared" si="204"/>
-        <v>41.488</v>
-      </c>
-      <c r="K239" s="58">
-        <f t="shared" si="205"/>
-        <v>43.116</v>
-      </c>
-      <c r="L239" s="58">
-        <f t="shared" si="206"/>
         <v>47.09</v>
       </c>
       <c r="M239" s="58">
-        <f t="shared" si="207"/>
+        <f t="shared" si="204"/>
         <v>50.475000000000001</v>
       </c>
       <c r="N239" s="100">
-        <f t="shared" si="199"/>
-        <v>6.6669999999999998</v>
+        <f t="shared" si="204"/>
+        <v>8.3409999999999993</v>
       </c>
       <c r="O239" s="100">
-        <f t="shared" si="200"/>
-        <v>6.7850000000000001</v>
+        <f t="shared" si="204"/>
+        <v>8.4849999999999994</v>
       </c>
     </row>
     <row r="240" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="56" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G240" s="63">
+        <f t="shared" si="199"/>
+        <v>38.334000000000003</v>
+      </c>
+      <c r="H240" s="63">
+        <f t="shared" si="200"/>
+        <v>38.686</v>
+      </c>
+      <c r="I240" s="63">
         <f t="shared" si="201"/>
-        <v>38.334000000000003</v>
-      </c>
-      <c r="H240" s="63">
+        <v>39.31</v>
+      </c>
+      <c r="J240" s="63">
         <f t="shared" si="202"/>
-        <v>38.686</v>
-      </c>
-      <c r="I240" s="63">
+        <v>40.228000000000002</v>
+      </c>
+      <c r="K240" s="63">
         <f t="shared" si="203"/>
-        <v>39.31</v>
-      </c>
-      <c r="J240" s="63">
+        <v>41.352000000000004</v>
+      </c>
+      <c r="L240" s="63">
         <f t="shared" si="204"/>
-        <v>40.228000000000002</v>
-      </c>
-      <c r="K240" s="63">
-        <f t="shared" si="205"/>
-        <v>41.352000000000004</v>
-      </c>
-      <c r="L240" s="63">
-        <f t="shared" si="206"/>
         <v>45.2</v>
       </c>
       <c r="M240" s="63">
-        <f t="shared" si="207"/>
+        <f t="shared" si="204"/>
         <v>47.55</v>
       </c>
       <c r="N240" s="100">
-        <f t="shared" si="199"/>
-        <v>5.3439999999999994</v>
+        <f t="shared" si="204"/>
+        <v>7.0179999999999998</v>
       </c>
       <c r="O240" s="100">
-        <f t="shared" si="200"/>
-        <v>5.75</v>
+        <f t="shared" si="204"/>
+        <v>7.4499999999999993</v>
       </c>
     </row>
     <row r="241" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11266,7 +11230,7 @@
     </row>
     <row r="242" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="54" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G242" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G90</f>
@@ -11297,20 +11261,20 @@
         <v>50.8</v>
       </c>
       <c r="N242" s="100">
-        <f t="shared" ref="N242:N247" si="208">SUM(N$161:N$162)+N$147+N$149+N$151+$N90</f>
-        <v>6.8140000000000001</v>
+        <f t="shared" ref="N242:O242" si="206">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$151+N90</f>
+        <v>8.4879999999999995</v>
       </c>
       <c r="O242" s="100">
-        <f t="shared" ref="O242:O247" si="209">SUM(O$161:O$162)+O$147+O$149+O$151+$O90</f>
-        <v>6.9</v>
+        <f t="shared" si="206"/>
+        <v>8.6000000000000014</v>
       </c>
     </row>
     <row r="243" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="55" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G243" s="58">
-        <f t="shared" ref="G243:G247" si="210">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G91</f>
+        <f t="shared" ref="G243:G247" si="207">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G91</f>
         <v>39.706000000000003</v>
       </c>
       <c r="H243" s="58">
@@ -11318,196 +11282,196 @@
         <v>40.506</v>
       </c>
       <c r="I243" s="58">
-        <f t="shared" ref="I243:I247" si="211">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I91</f>
+        <f t="shared" ref="I243:I247" si="208">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I91</f>
         <v>41.97</v>
       </c>
       <c r="J243" s="58">
-        <f t="shared" ref="J243:J247" si="212">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J91</f>
+        <f t="shared" ref="J243:J247" si="209">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J91</f>
         <v>44.147999999999996</v>
       </c>
       <c r="K243" s="58">
-        <f t="shared" ref="K243:M247" si="213">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K91</f>
+        <f t="shared" ref="K243:O247" si="210">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K91</f>
         <v>46.84</v>
       </c>
       <c r="L243" s="58">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>51.08</v>
       </c>
       <c r="M243" s="58">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>56.65</v>
       </c>
       <c r="N243" s="100">
-        <f t="shared" si="208"/>
-        <v>9.4599999999999991</v>
+        <f t="shared" si="210"/>
+        <v>11.134</v>
       </c>
       <c r="O243" s="100">
-        <f t="shared" si="209"/>
-        <v>8.9700000000000006</v>
+        <f t="shared" si="210"/>
+        <v>10.67</v>
       </c>
     </row>
     <row r="244" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="55" t="s">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="G244" s="58">
+        <f t="shared" si="207"/>
+        <v>38.775000000000006</v>
+      </c>
+      <c r="H244" s="58">
+        <f t="shared" ref="H244:H247" si="211">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H92</f>
+        <v>39.271000000000001</v>
+      </c>
+      <c r="I244" s="58">
+        <f t="shared" si="208"/>
+        <v>40.164999999999999</v>
+      </c>
+      <c r="J244" s="58">
+        <f t="shared" si="209"/>
+        <v>41.488</v>
+      </c>
+      <c r="K244" s="58">
         <f t="shared" si="210"/>
-        <v>38.775000000000006</v>
-      </c>
-      <c r="H244" s="58">
-        <f t="shared" ref="H244:H247" si="214">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H92</f>
-        <v>39.271000000000001</v>
-      </c>
-      <c r="I244" s="58">
-        <f t="shared" si="211"/>
-        <v>40.164999999999999</v>
-      </c>
-      <c r="J244" s="58">
-        <f t="shared" si="212"/>
-        <v>41.488</v>
-      </c>
-      <c r="K244" s="58">
-        <f t="shared" si="213"/>
         <v>43.116</v>
       </c>
       <c r="L244" s="58">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>47.09</v>
       </c>
       <c r="M244" s="58">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>50.475000000000001</v>
       </c>
       <c r="N244" s="100">
-        <f t="shared" si="208"/>
-        <v>6.6669999999999998</v>
+        <f t="shared" si="210"/>
+        <v>8.3409999999999993</v>
       </c>
       <c r="O244" s="100">
-        <f t="shared" si="209"/>
-        <v>6.7850000000000001</v>
+        <f t="shared" si="210"/>
+        <v>8.4849999999999994</v>
       </c>
     </row>
     <row r="245" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="55" t="s">
-        <v>99</v>
+        <v>329</v>
       </c>
       <c r="G245" s="58">
+        <f t="shared" si="207"/>
+        <v>39.706000000000003</v>
+      </c>
+      <c r="H245" s="58">
+        <f t="shared" si="211"/>
+        <v>40.506</v>
+      </c>
+      <c r="I245" s="58">
+        <f t="shared" si="208"/>
+        <v>41.97</v>
+      </c>
+      <c r="J245" s="58">
+        <f t="shared" si="209"/>
+        <v>44.147999999999996</v>
+      </c>
+      <c r="K245" s="58">
         <f t="shared" si="210"/>
-        <v>39.706000000000003</v>
-      </c>
-      <c r="H245" s="58">
-        <f t="shared" si="214"/>
-        <v>40.506</v>
-      </c>
-      <c r="I245" s="58">
-        <f t="shared" si="211"/>
-        <v>41.97</v>
-      </c>
-      <c r="J245" s="58">
-        <f t="shared" si="212"/>
-        <v>44.147999999999996</v>
-      </c>
-      <c r="K245" s="58">
-        <f t="shared" si="213"/>
         <v>46.84</v>
       </c>
       <c r="L245" s="58">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>51.08</v>
       </c>
       <c r="M245" s="58">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>56.65</v>
       </c>
       <c r="N245" s="100">
-        <f t="shared" si="208"/>
-        <v>9.4599999999999991</v>
+        <f t="shared" si="210"/>
+        <v>11.134</v>
       </c>
       <c r="O245" s="100">
-        <f t="shared" si="209"/>
-        <v>8.9700000000000006</v>
+        <f t="shared" si="210"/>
+        <v>10.67</v>
       </c>
     </row>
     <row r="246" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="55" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G246" s="58">
+        <f t="shared" si="207"/>
+        <v>38.775000000000006</v>
+      </c>
+      <c r="H246" s="58">
+        <f t="shared" si="211"/>
+        <v>39.271000000000001</v>
+      </c>
+      <c r="I246" s="58">
+        <f t="shared" si="208"/>
+        <v>40.164999999999999</v>
+      </c>
+      <c r="J246" s="58">
+        <f t="shared" si="209"/>
+        <v>41.488</v>
+      </c>
+      <c r="K246" s="58">
         <f t="shared" si="210"/>
-        <v>38.775000000000006</v>
-      </c>
-      <c r="H246" s="58">
-        <f t="shared" si="214"/>
-        <v>39.271000000000001</v>
-      </c>
-      <c r="I246" s="58">
-        <f t="shared" si="211"/>
-        <v>40.164999999999999</v>
-      </c>
-      <c r="J246" s="58">
-        <f t="shared" si="212"/>
-        <v>41.488</v>
-      </c>
-      <c r="K246" s="58">
-        <f t="shared" si="213"/>
         <v>43.116</v>
       </c>
       <c r="L246" s="58">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>47.09</v>
       </c>
       <c r="M246" s="58">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>50.475000000000001</v>
       </c>
       <c r="N246" s="100">
-        <f t="shared" si="208"/>
-        <v>6.6669999999999998</v>
+        <f t="shared" si="210"/>
+        <v>8.3409999999999993</v>
       </c>
       <c r="O246" s="100">
-        <f t="shared" si="209"/>
-        <v>6.7850000000000001</v>
+        <f t="shared" si="210"/>
+        <v>8.4849999999999994</v>
       </c>
     </row>
     <row r="247" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="56" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G247" s="63">
+        <f t="shared" si="207"/>
+        <v>38.334000000000003</v>
+      </c>
+      <c r="H247" s="63">
+        <f t="shared" si="211"/>
+        <v>38.686</v>
+      </c>
+      <c r="I247" s="63">
+        <f t="shared" si="208"/>
+        <v>39.31</v>
+      </c>
+      <c r="J247" s="63">
+        <f t="shared" si="209"/>
+        <v>40.228000000000002</v>
+      </c>
+      <c r="K247" s="63">
         <f t="shared" si="210"/>
-        <v>38.334000000000003</v>
-      </c>
-      <c r="H247" s="63">
-        <f t="shared" si="214"/>
-        <v>38.686</v>
-      </c>
-      <c r="I247" s="63">
-        <f t="shared" si="211"/>
-        <v>39.31</v>
-      </c>
-      <c r="J247" s="63">
-        <f t="shared" si="212"/>
-        <v>40.228000000000002</v>
-      </c>
-      <c r="K247" s="63">
-        <f t="shared" si="213"/>
         <v>41.352000000000004</v>
       </c>
       <c r="L247" s="63">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>45.2</v>
       </c>
       <c r="M247" s="63">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>47.55</v>
       </c>
       <c r="N247" s="100">
-        <f t="shared" si="208"/>
-        <v>5.3439999999999994</v>
+        <f t="shared" si="210"/>
+        <v>7.0179999999999998</v>
       </c>
       <c r="O247" s="100">
-        <f t="shared" si="209"/>
-        <v>5.75</v>
+        <f t="shared" si="210"/>
+        <v>7.4499999999999993</v>
       </c>
     </row>
     <row r="248" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11515,7 +11479,7 @@
     </row>
     <row r="249" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="54" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G249" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G97</f>
@@ -11546,176 +11510,176 @@
         <v>50.724999999999994</v>
       </c>
       <c r="N249" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N97</f>
-        <v>7.25</v>
+        <f t="shared" ref="N249:O249" si="212">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$151+N97</f>
+        <v>9.8109999999999999</v>
       </c>
       <c r="O249" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O97</f>
-        <v>7.1349999999999998</v>
+        <f t="shared" si="212"/>
+        <v>9.6349999999999998</v>
       </c>
     </row>
     <row r="250" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="55" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G250" s="58">
-        <f t="shared" ref="G250:G253" si="215">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G98</f>
+        <f t="shared" ref="G250:G253" si="213">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G98</f>
         <v>35.332999999999998</v>
       </c>
       <c r="H250" s="58">
-        <f t="shared" ref="H250:H253" si="216">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H98</f>
+        <f t="shared" ref="H250:H253" si="214">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H98</f>
         <v>35.924999999999997</v>
       </c>
       <c r="I250" s="58">
-        <f t="shared" ref="I250:I253" si="217">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I98</f>
+        <f t="shared" ref="I250:I253" si="215">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I98</f>
         <v>36.989999999999995</v>
       </c>
       <c r="J250" s="58">
-        <f t="shared" ref="J250:J253" si="218">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J98</f>
+        <f t="shared" ref="J250:J253" si="216">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J98</f>
         <v>38.564999999999998</v>
       </c>
       <c r="K250" s="58">
-        <f t="shared" ref="K250:M253" si="219">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K98</f>
+        <f t="shared" ref="K250:O253" si="217">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K98</f>
         <v>41.704000000000001</v>
       </c>
       <c r="L250" s="58">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>44.72</v>
       </c>
       <c r="M250" s="58">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>48.45</v>
       </c>
       <c r="N250" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N98</f>
-        <v>6.2210000000000001</v>
+        <f t="shared" si="217"/>
+        <v>8.782</v>
       </c>
       <c r="O250" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O98</f>
-        <v>6.33</v>
+        <f t="shared" si="217"/>
+        <v>8.83</v>
       </c>
     </row>
     <row r="251" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="55" t="s">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="G251" s="58">
+        <f t="shared" si="213"/>
+        <v>35.332999999999998</v>
+      </c>
+      <c r="H251" s="58">
+        <f t="shared" si="214"/>
+        <v>35.924999999999997</v>
+      </c>
+      <c r="I251" s="58">
         <f t="shared" si="215"/>
-        <v>35.332999999999998</v>
-      </c>
-      <c r="H251" s="58">
+        <v>36.989999999999995</v>
+      </c>
+      <c r="J251" s="58">
         <f t="shared" si="216"/>
-        <v>35.924999999999997</v>
-      </c>
-      <c r="I251" s="58">
+        <v>38.564999999999998</v>
+      </c>
+      <c r="K251" s="58">
         <f t="shared" si="217"/>
-        <v>36.989999999999995</v>
-      </c>
-      <c r="J251" s="58">
-        <f t="shared" si="218"/>
-        <v>38.564999999999998</v>
-      </c>
-      <c r="K251" s="58">
-        <f t="shared" si="219"/>
         <v>41.704000000000001</v>
       </c>
       <c r="L251" s="58">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>44.72</v>
       </c>
       <c r="M251" s="58">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>48.45</v>
       </c>
       <c r="N251" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N99</f>
-        <v>6.2210000000000001</v>
+        <f t="shared" si="217"/>
+        <v>8.782</v>
       </c>
       <c r="O251" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O99</f>
-        <v>6.33</v>
+        <f t="shared" si="217"/>
+        <v>8.83</v>
       </c>
     </row>
     <row r="252" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="55" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G252" s="58">
+        <f t="shared" si="213"/>
+        <v>34.696000000000005</v>
+      </c>
+      <c r="H252" s="58">
+        <f t="shared" si="214"/>
+        <v>35.08</v>
+      </c>
+      <c r="I252" s="58">
         <f t="shared" si="215"/>
-        <v>34.696000000000005</v>
-      </c>
-      <c r="H252" s="58">
+        <v>35.754999999999995</v>
+      </c>
+      <c r="J252" s="58">
         <f t="shared" si="216"/>
-        <v>35.08</v>
-      </c>
-      <c r="I252" s="58">
+        <v>36.744999999999997</v>
+      </c>
+      <c r="K252" s="58">
         <f t="shared" si="217"/>
-        <v>35.754999999999995</v>
-      </c>
-      <c r="J252" s="58">
-        <f t="shared" si="218"/>
-        <v>36.744999999999997</v>
-      </c>
-      <c r="K252" s="58">
-        <f t="shared" si="219"/>
         <v>39.156000000000006</v>
       </c>
       <c r="L252" s="58">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>41.99</v>
       </c>
       <c r="M252" s="58">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N252" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N100</f>
-        <v>4.3100000000000005</v>
+        <f t="shared" si="217"/>
+        <v>6.8710000000000004</v>
       </c>
       <c r="O252" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O100</f>
-        <v>4.835</v>
+        <f t="shared" si="217"/>
+        <v>7.335</v>
       </c>
     </row>
     <row r="253" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="56" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G253" s="63">
+        <f t="shared" si="213"/>
+        <v>35.431000000000004</v>
+      </c>
+      <c r="H253" s="63">
+        <f t="shared" si="214"/>
+        <v>36.055</v>
+      </c>
+      <c r="I253" s="63">
         <f t="shared" si="215"/>
-        <v>35.431000000000004</v>
-      </c>
-      <c r="H253" s="63">
+        <v>37.18</v>
+      </c>
+      <c r="J253" s="63">
         <f t="shared" si="216"/>
-        <v>36.055</v>
-      </c>
-      <c r="I253" s="63">
+        <v>38.844999999999999</v>
+      </c>
+      <c r="K253" s="63">
         <f t="shared" si="217"/>
-        <v>37.18</v>
-      </c>
-      <c r="J253" s="63">
-        <f t="shared" si="218"/>
-        <v>38.844999999999999</v>
-      </c>
-      <c r="K253" s="63">
-        <f t="shared" si="219"/>
         <v>42.096000000000004</v>
       </c>
       <c r="L253" s="63">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>45.14</v>
       </c>
       <c r="M253" s="63">
-        <f t="shared" si="219"/>
+        <f t="shared" si="217"/>
         <v>49.099999999999994</v>
       </c>
       <c r="N253" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N101</f>
-        <v>6.5149999999999997</v>
+        <f t="shared" si="217"/>
+        <v>9.0760000000000005</v>
       </c>
       <c r="O253" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O101</f>
-        <v>6.56</v>
+        <f t="shared" si="217"/>
+        <v>9.0599999999999987</v>
       </c>
     </row>
     <row r="254" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11723,7 +11687,7 @@
     </row>
     <row r="255" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="54" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G255" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G103</f>
@@ -11754,40 +11718,40 @@
         <v>50.95</v>
       </c>
       <c r="N255" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N103</f>
-        <v>7.25</v>
+        <f t="shared" ref="N255:O255" si="218">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N103</f>
+        <v>10.698</v>
       </c>
       <c r="O255" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O103</f>
-        <v>7.1349999999999998</v>
+        <f t="shared" si="218"/>
+        <v>10.434999999999999</v>
       </c>
     </row>
     <row r="256" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="55" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G256" s="58">
-        <f t="shared" ref="G256:G259" si="220">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G104</f>
+        <f t="shared" ref="G256:G259" si="219">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G104</f>
         <v>35.332999999999998</v>
       </c>
       <c r="H256" s="58">
-        <f t="shared" ref="H256:H259" si="221">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H104</f>
+        <f t="shared" ref="H256:H259" si="220">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H104</f>
         <v>35.924999999999997</v>
       </c>
       <c r="I256" s="58">
-        <f t="shared" ref="I256:I259" si="222">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I104</f>
+        <f t="shared" ref="I256:I259" si="221">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I104</f>
         <v>36.989999999999995</v>
       </c>
       <c r="J256" s="58">
-        <f t="shared" ref="J256:J259" si="223">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J104</f>
+        <f t="shared" ref="J256:J259" si="222">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J104</f>
         <v>38.564999999999998</v>
       </c>
       <c r="K256" s="58">
-        <f t="shared" ref="K256:L259" si="224">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K104</f>
+        <f t="shared" ref="K256:L259" si="223">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K104</f>
         <v>40.501999999999995</v>
       </c>
       <c r="L256" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>44.645000000000003</v>
       </c>
       <c r="M256" s="58">
@@ -11795,40 +11759,40 @@
         <v>48.674999999999997</v>
       </c>
       <c r="N256" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N104</f>
-        <v>6.2210000000000001</v>
+        <f t="shared" ref="N256:O256" si="224">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N104</f>
+        <v>9.6690000000000005</v>
       </c>
       <c r="O256" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O104</f>
-        <v>6.33</v>
+        <f t="shared" si="224"/>
+        <v>9.629999999999999</v>
       </c>
     </row>
     <row r="257" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="55" t="s">
-        <v>128</v>
+        <v>331</v>
       </c>
       <c r="G257" s="58">
+        <f t="shared" si="219"/>
+        <v>35.332999999999998</v>
+      </c>
+      <c r="H257" s="58">
         <f t="shared" si="220"/>
-        <v>35.332999999999998</v>
-      </c>
-      <c r="H257" s="58">
+        <v>35.924999999999997</v>
+      </c>
+      <c r="I257" s="58">
         <f t="shared" si="221"/>
-        <v>35.924999999999997</v>
-      </c>
-      <c r="I257" s="58">
+        <v>36.989999999999995</v>
+      </c>
+      <c r="J257" s="58">
         <f t="shared" si="222"/>
-        <v>36.989999999999995</v>
-      </c>
-      <c r="J257" s="58">
+        <v>38.564999999999998</v>
+      </c>
+      <c r="K257" s="58">
         <f t="shared" si="223"/>
-        <v>38.564999999999998</v>
-      </c>
-      <c r="K257" s="58">
-        <f t="shared" si="224"/>
         <v>40.501999999999995</v>
       </c>
       <c r="L257" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>44.645000000000003</v>
       </c>
       <c r="M257" s="58">
@@ -11836,40 +11800,40 @@
         <v>48.674999999999997</v>
       </c>
       <c r="N257" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N105</f>
-        <v>6.2210000000000001</v>
+        <f t="shared" ref="N257:O257" si="225">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N105</f>
+        <v>9.6690000000000005</v>
       </c>
       <c r="O257" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O105</f>
-        <v>6.33</v>
+        <f t="shared" si="225"/>
+        <v>9.629999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="55" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="G258" s="58">
+        <f t="shared" si="219"/>
+        <v>34.696000000000005</v>
+      </c>
+      <c r="H258" s="58">
         <f t="shared" si="220"/>
-        <v>34.696000000000005</v>
-      </c>
-      <c r="H258" s="58">
+        <v>35.08</v>
+      </c>
+      <c r="I258" s="58">
         <f t="shared" si="221"/>
-        <v>35.08</v>
-      </c>
-      <c r="I258" s="58">
+        <v>35.754999999999995</v>
+      </c>
+      <c r="J258" s="58">
         <f t="shared" si="222"/>
-        <v>35.754999999999995</v>
-      </c>
-      <c r="J258" s="58">
+        <v>36.744999999999997</v>
+      </c>
+      <c r="K258" s="58">
         <f t="shared" si="223"/>
-        <v>36.744999999999997</v>
-      </c>
-      <c r="K258" s="58">
-        <f t="shared" si="224"/>
         <v>37.953999999999994</v>
       </c>
       <c r="L258" s="58">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>41.915000000000006</v>
       </c>
       <c r="M258" s="58">
@@ -11877,40 +11841,40 @@
         <v>44.45</v>
       </c>
       <c r="N258" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N106</f>
-        <v>4.3100000000000005</v>
+        <f t="shared" ref="N258:O258" si="226">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N106</f>
+        <v>7.7580000000000009</v>
       </c>
       <c r="O258" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O106</f>
-        <v>4.835</v>
+        <f t="shared" si="226"/>
+        <v>8.1349999999999998</v>
       </c>
     </row>
     <row r="259" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G259" s="63">
+        <f t="shared" si="219"/>
+        <v>35.431000000000004</v>
+      </c>
+      <c r="H259" s="63">
         <f t="shared" si="220"/>
-        <v>35.431000000000004</v>
-      </c>
-      <c r="H259" s="63">
+        <v>36.055</v>
+      </c>
+      <c r="I259" s="63">
         <f t="shared" si="221"/>
-        <v>36.055</v>
-      </c>
-      <c r="I259" s="63">
+        <v>37.18</v>
+      </c>
+      <c r="J259" s="63">
         <f t="shared" si="222"/>
-        <v>37.18</v>
-      </c>
-      <c r="J259" s="63">
+        <v>38.844999999999999</v>
+      </c>
+      <c r="K259" s="63">
         <f t="shared" si="223"/>
-        <v>38.844999999999999</v>
-      </c>
-      <c r="K259" s="63">
-        <f t="shared" si="224"/>
         <v>40.893999999999998</v>
       </c>
       <c r="L259" s="63">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>45.064999999999998</v>
       </c>
       <c r="M259" s="63">
@@ -11918,12 +11882,12 @@
         <v>49.325000000000003</v>
       </c>
       <c r="N259" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N107</f>
-        <v>6.5149999999999997</v>
+        <f t="shared" ref="N259:O259" si="227">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N107</f>
+        <v>9.963000000000001</v>
       </c>
       <c r="O259" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O107</f>
-        <v>6.56</v>
+        <f t="shared" si="227"/>
+        <v>9.86</v>
       </c>
     </row>
     <row r="260" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11931,7 +11895,7 @@
     </row>
     <row r="261" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="54" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G261" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G109</f>
@@ -11962,77 +11926,77 @@
         <v>51.025000000000006</v>
       </c>
       <c r="N261" s="100">
-        <f t="shared" ref="N261:N266" si="225">SUM(N$161:N$162)+N$148+$N109</f>
-        <v>5.9269999999999996</v>
+        <f t="shared" ref="N261:O261" si="228">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N109</f>
+        <v>9.375</v>
       </c>
       <c r="O261" s="100">
-        <f t="shared" ref="O261:O266" si="226">SUM(O$161:O$162)+O$148+$O109</f>
-        <v>6.1000000000000005</v>
+        <f t="shared" si="228"/>
+        <v>9.4</v>
       </c>
     </row>
     <row r="262" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="55" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G262" s="58">
-        <f t="shared" ref="G262:G266" si="227">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G110</f>
+        <f t="shared" ref="G262:G266" si="229">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G110</f>
         <v>38.117000000000004</v>
       </c>
       <c r="H262" s="58">
-        <f t="shared" ref="H262:H266" si="228">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H110</f>
+        <f t="shared" ref="H262:H266" si="230">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H110</f>
         <v>38.964999999999996</v>
       </c>
       <c r="I262" s="58">
-        <f t="shared" ref="I262:I266" si="229">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I110</f>
+        <f t="shared" ref="I262:I266" si="231">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I110</f>
         <v>40.51</v>
       </c>
       <c r="J262" s="58">
-        <f t="shared" ref="J262:J266" si="230">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J110</f>
+        <f t="shared" ref="J262:J266" si="232">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J110</f>
         <v>42.805</v>
       </c>
       <c r="K262" s="58">
-        <f t="shared" ref="K262:M266" si="231">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K110</f>
+        <f t="shared" ref="K262:O266" si="233">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K110</f>
         <v>45.637999999999998</v>
       </c>
       <c r="L262" s="58">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>51.005000000000003</v>
       </c>
       <c r="M262" s="58">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>56.875</v>
       </c>
       <c r="N262" s="100">
-        <f t="shared" si="225"/>
-        <v>8.5730000000000004</v>
+        <f t="shared" si="233"/>
+        <v>12.021000000000001</v>
       </c>
       <c r="O262" s="100">
-        <f t="shared" si="226"/>
-        <v>8.17</v>
+        <f t="shared" si="233"/>
+        <v>11.469999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="55" t="s">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="G263" s="58">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>37.186000000000007</v>
       </c>
       <c r="H263" s="58">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>37.729999999999997</v>
       </c>
       <c r="I263" s="58">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>38.704999999999998</v>
       </c>
       <c r="J263" s="58">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>40.144999999999996</v>
       </c>
       <c r="K263" s="58">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>41.914000000000001</v>
       </c>
       <c r="L263" s="58">
@@ -12044,81 +12008,81 @@
         <v>50.7</v>
       </c>
       <c r="N263" s="100">
-        <f t="shared" si="225"/>
-        <v>5.7799999999999994</v>
+        <f t="shared" ref="N263:O263" si="234">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N111</f>
+        <v>9.2279999999999998</v>
       </c>
       <c r="O263" s="100">
-        <f t="shared" si="226"/>
-        <v>5.9850000000000003</v>
+        <f t="shared" si="234"/>
+        <v>9.2850000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="55" t="s">
-        <v>93</v>
+        <v>335</v>
       </c>
       <c r="G264" s="58">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>38.215000000000003</v>
       </c>
       <c r="H264" s="58">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>39.094999999999999</v>
       </c>
       <c r="I264" s="58">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>40.700000000000003</v>
       </c>
       <c r="J264" s="58">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>43.085000000000001</v>
       </c>
       <c r="K264" s="58">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>46.03</v>
       </c>
       <c r="L264" s="58">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>51.425000000000004</v>
       </c>
       <c r="M264" s="58">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>57.525000000000006</v>
       </c>
       <c r="N264" s="100">
-        <f t="shared" si="225"/>
-        <v>8.8669999999999991</v>
+        <f t="shared" si="233"/>
+        <v>12.315</v>
       </c>
       <c r="O264" s="100">
-        <f t="shared" si="226"/>
-        <v>8.4</v>
+        <f t="shared" si="233"/>
+        <v>11.7</v>
       </c>
     </row>
     <row r="265" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="55" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G265" s="58">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>37.186000000000007</v>
       </c>
       <c r="H265" s="58">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>37.729999999999997</v>
       </c>
       <c r="I265" s="58">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>38.704999999999998</v>
       </c>
       <c r="J265" s="58">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>40.144999999999996</v>
       </c>
       <c r="K265" s="58">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>41.914000000000001</v>
       </c>
       <c r="L265" s="58">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>47.015000000000001</v>
       </c>
       <c r="M265" s="58">
@@ -12126,36 +12090,36 @@
         <v>50.7</v>
       </c>
       <c r="N265" s="100">
-        <f t="shared" si="225"/>
-        <v>5.7799999999999994</v>
+        <f t="shared" ref="N265:O265" si="235">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N113</f>
+        <v>9.2279999999999998</v>
       </c>
       <c r="O265" s="100">
-        <f t="shared" si="226"/>
-        <v>5.9850000000000003</v>
+        <f t="shared" si="235"/>
+        <v>9.2850000000000001</v>
       </c>
     </row>
     <row r="266" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="56" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G266" s="63">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>36.745000000000005</v>
       </c>
       <c r="H266" s="63">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>37.144999999999996</v>
       </c>
       <c r="I266" s="63">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>37.85</v>
       </c>
       <c r="J266" s="63">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>38.884999999999998</v>
       </c>
       <c r="K266" s="63">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>40.15</v>
       </c>
       <c r="L266" s="63">
@@ -12167,12 +12131,12 @@
         <v>47.775000000000006</v>
       </c>
       <c r="N266" s="100">
-        <f t="shared" si="225"/>
-        <v>4.4569999999999999</v>
+        <f t="shared" ref="N266:O266" si="236">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N114</f>
+        <v>7.9050000000000002</v>
       </c>
       <c r="O266" s="100">
-        <f t="shared" si="226"/>
-        <v>4.95</v>
+        <f t="shared" si="236"/>
+        <v>8.25</v>
       </c>
     </row>
     <row r="267" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12180,7 +12144,7 @@
     </row>
     <row r="268" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="54" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G268" s="58">
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G116</f>
@@ -12199,229 +12163,229 @@
         <v>40.284999999999997</v>
       </c>
       <c r="K268" s="58">
-        <f t="shared" ref="K268:M273" si="232">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K116</f>
+        <f t="shared" ref="K268:O273" si="237">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K116</f>
         <v>42.11</v>
       </c>
       <c r="L268" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>47.225000000000009</v>
       </c>
       <c r="M268" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>51.025000000000006</v>
       </c>
       <c r="N268" s="100">
-        <f t="shared" ref="N268:N273" si="233">SUM(N$161:N$162)+N$148+$N116</f>
-        <v>5.9269999999999996</v>
+        <f t="shared" si="237"/>
+        <v>9.375</v>
       </c>
       <c r="O268" s="100">
-        <f t="shared" ref="O268:O273" si="234">SUM(O$161:O$162)+O$148+$O116</f>
-        <v>6.1000000000000005</v>
+        <f t="shared" si="237"/>
+        <v>9.4</v>
       </c>
     </row>
     <row r="269" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="55" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G269" s="58">
-        <f t="shared" ref="G269:G273" si="235">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G117</f>
+        <f t="shared" ref="G269:G273" si="238">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G117</f>
         <v>38.117000000000004</v>
       </c>
       <c r="H269" s="58">
-        <f t="shared" ref="H269:H273" si="236">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H117</f>
+        <f t="shared" ref="H269:H273" si="239">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H117</f>
         <v>38.964999999999996</v>
       </c>
       <c r="I269" s="58">
-        <f t="shared" ref="I269:I273" si="237">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I117</f>
+        <f t="shared" ref="I269:I273" si="240">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I117</f>
         <v>40.51</v>
       </c>
       <c r="J269" s="58">
-        <f t="shared" ref="J269:J273" si="238">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J117</f>
+        <f t="shared" ref="J269:J273" si="241">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J117</f>
         <v>42.805</v>
       </c>
       <c r="K269" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>45.637999999999998</v>
       </c>
       <c r="L269" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>51.005000000000003</v>
       </c>
       <c r="M269" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>56.875</v>
       </c>
       <c r="N269" s="100">
-        <f t="shared" si="233"/>
-        <v>8.5730000000000004</v>
+        <f t="shared" si="237"/>
+        <v>12.021000000000001</v>
       </c>
       <c r="O269" s="100">
-        <f t="shared" si="234"/>
-        <v>8.17</v>
+        <f t="shared" si="237"/>
+        <v>11.469999999999999</v>
       </c>
     </row>
     <row r="270" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="55" t="s">
-        <v>89</v>
+        <v>333</v>
       </c>
       <c r="G270" s="58">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>37.186000000000007</v>
       </c>
       <c r="H270" s="58">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>37.729999999999997</v>
       </c>
       <c r="I270" s="58">
+        <f t="shared" si="240"/>
+        <v>38.704999999999998</v>
+      </c>
+      <c r="J270" s="58">
+        <f t="shared" si="241"/>
+        <v>40.144999999999996</v>
+      </c>
+      <c r="K270" s="58">
         <f t="shared" si="237"/>
-        <v>38.704999999999998</v>
-      </c>
-      <c r="J270" s="58">
-        <f t="shared" si="238"/>
-        <v>40.144999999999996</v>
-      </c>
-      <c r="K270" s="58">
-        <f t="shared" si="232"/>
         <v>41.914000000000001</v>
       </c>
       <c r="L270" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>47.015000000000001</v>
       </c>
       <c r="M270" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>50.7</v>
       </c>
       <c r="N270" s="100">
-        <f t="shared" si="233"/>
-        <v>5.7799999999999994</v>
+        <f t="shared" si="237"/>
+        <v>9.2279999999999998</v>
       </c>
       <c r="O270" s="100">
-        <f t="shared" si="234"/>
-        <v>5.9850000000000003</v>
+        <f t="shared" si="237"/>
+        <v>9.2850000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="55" t="s">
-        <v>88</v>
+        <v>334</v>
       </c>
       <c r="G271" s="58">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>38.215000000000003</v>
       </c>
       <c r="H271" s="58">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>39.094999999999999</v>
       </c>
       <c r="I271" s="58">
+        <f t="shared" si="240"/>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="J271" s="58">
+        <f t="shared" si="241"/>
+        <v>43.085000000000001</v>
+      </c>
+      <c r="K271" s="58">
         <f t="shared" si="237"/>
-        <v>40.700000000000003</v>
-      </c>
-      <c r="J271" s="58">
-        <f t="shared" si="238"/>
-        <v>43.085000000000001</v>
-      </c>
-      <c r="K271" s="58">
-        <f t="shared" si="232"/>
         <v>46.03</v>
       </c>
       <c r="L271" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>51.425000000000004</v>
       </c>
       <c r="M271" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>57.525000000000006</v>
       </c>
       <c r="N271" s="100">
-        <f t="shared" si="233"/>
-        <v>8.8669999999999991</v>
+        <f t="shared" si="237"/>
+        <v>12.315</v>
       </c>
       <c r="O271" s="100">
-        <f t="shared" si="234"/>
-        <v>8.4</v>
+        <f t="shared" si="237"/>
+        <v>11.7</v>
       </c>
     </row>
     <row r="272" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="55" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G272" s="58">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>37.186000000000007</v>
       </c>
       <c r="H272" s="58">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>37.729999999999997</v>
       </c>
       <c r="I272" s="58">
+        <f t="shared" si="240"/>
+        <v>38.704999999999998</v>
+      </c>
+      <c r="J272" s="58">
+        <f t="shared" si="241"/>
+        <v>40.144999999999996</v>
+      </c>
+      <c r="K272" s="58">
         <f t="shared" si="237"/>
-        <v>38.704999999999998</v>
-      </c>
-      <c r="J272" s="58">
-        <f t="shared" si="238"/>
-        <v>40.144999999999996</v>
-      </c>
-      <c r="K272" s="58">
-        <f t="shared" si="232"/>
         <v>41.914000000000001</v>
       </c>
       <c r="L272" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>47.015000000000001</v>
       </c>
       <c r="M272" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>50.7</v>
       </c>
       <c r="N272" s="100">
-        <f t="shared" si="233"/>
-        <v>5.7799999999999994</v>
+        <f t="shared" si="237"/>
+        <v>9.2279999999999998</v>
       </c>
       <c r="O272" s="100">
-        <f t="shared" si="234"/>
-        <v>5.9850000000000003</v>
+        <f t="shared" si="237"/>
+        <v>9.2850000000000001</v>
       </c>
     </row>
     <row r="273" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G273" s="63">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>36.745000000000005</v>
       </c>
       <c r="H273" s="63">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>37.144999999999996</v>
       </c>
       <c r="I273" s="63">
+        <f t="shared" si="240"/>
+        <v>37.85</v>
+      </c>
+      <c r="J273" s="63">
+        <f t="shared" si="241"/>
+        <v>38.884999999999998</v>
+      </c>
+      <c r="K273" s="63">
         <f t="shared" si="237"/>
-        <v>37.85</v>
-      </c>
-      <c r="J273" s="63">
-        <f t="shared" si="238"/>
-        <v>38.884999999999998</v>
-      </c>
-      <c r="K273" s="63">
-        <f t="shared" si="232"/>
         <v>40.15</v>
       </c>
       <c r="L273" s="63">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>45.125</v>
       </c>
       <c r="M273" s="63">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>47.775000000000006</v>
       </c>
       <c r="N273" s="100">
-        <f t="shared" si="233"/>
-        <v>4.4569999999999999</v>
+        <f t="shared" si="237"/>
+        <v>7.9050000000000002</v>
       </c>
       <c r="O273" s="100">
-        <f t="shared" si="234"/>
-        <v>4.95</v>
+        <f t="shared" si="237"/>
+        <v>8.25</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.3">
@@ -12430,7 +12394,7 @@
     <row r="275" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="276" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G276" s="78">
         <f>MIN(G167:G273)</f>
@@ -12441,11 +12405,11 @@
         <v>34.161999999999999</v>
       </c>
       <c r="I276" s="78">
-        <f t="shared" ref="I276:J276" si="239">MIN(I167:I273)</f>
+        <f t="shared" ref="I276:J276" si="242">MIN(I167:I273)</f>
         <v>34.674999999999997</v>
       </c>
       <c r="J276" s="78">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>35.430999999999997</v>
       </c>
       <c r="K276" s="78">
@@ -12458,35 +12422,35 @@
       </c>
       <c r="M276" s="78">
         <f>MIN(M167:M273)</f>
-        <v>35.262999999999998</v>
+        <v>40</v>
       </c>
       <c r="N276" s="18">
         <f>MIN(N171:N274)</f>
-        <v>4.3100000000000005</v>
+        <v>5.0969999999999995</v>
       </c>
       <c r="O276" s="18">
         <f>MIN(O171:O274)</f>
-        <v>4.835</v>
+        <v>5.7350000000000003</v>
       </c>
     </row>
     <row r="277" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G277" s="78">
         <f>MAX(G167:G273)</f>
         <v>43.888999999999996</v>
       </c>
       <c r="H277" s="78">
-        <f t="shared" ref="H277:J277" si="240">MAX(H167:H273)</f>
+        <f t="shared" ref="H277:J277" si="243">MAX(H167:H273)</f>
         <v>44.809000000000005</v>
       </c>
       <c r="I277" s="78">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>45.03</v>
       </c>
       <c r="J277" s="78">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>46.137</v>
       </c>
       <c r="K277" s="78">
@@ -12503,32 +12467,32 @@
       </c>
       <c r="N277" s="18">
         <f>MAX(N171:N274)</f>
-        <v>11.527999999999999</v>
+        <v>12.315</v>
       </c>
       <c r="O277" s="18">
         <f>MAX(O171:O274)</f>
-        <v>10.8</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="279" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="280" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C280" s="217" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D280" s="218"/>
       <c r="E280" s="219"/>
       <c r="G280" s="217" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="H280" s="218"/>
       <c r="I280" s="219"/>
     </row>
     <row r="281" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C281" s="117">
         <v>47</v>
@@ -12537,7 +12501,7 @@
         <v>862</v>
       </c>
       <c r="E281" s="116" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G281" s="103">
         <v>950</v>
@@ -12546,12 +12510,12 @@
         <v>2150</v>
       </c>
       <c r="I281" s="114" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="282" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C282" s="115">
         <f>G276</f>
@@ -12571,16 +12535,16 @@
       </c>
       <c r="H282" s="102">
         <f>M276</f>
-        <v>35.262999999999998</v>
+        <v>40</v>
       </c>
       <c r="I282" s="102">
         <f>G282-H282</f>
-        <v>2.8019999999999996</v>
+        <v>-1.9350000000000023</v>
       </c>
     </row>
     <row r="283" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="78" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C283" s="82">
         <f>G277</f>
@@ -12609,7 +12573,7 @@
     </row>
     <row r="284" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="78" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C284" s="82">
         <f>C283-C282</f>
@@ -12629,7 +12593,7 @@
       </c>
       <c r="H284" s="21">
         <f>H283-H282</f>
-        <v>22.262000000000008</v>
+        <v>17.525000000000006</v>
       </c>
       <c r="I284" s="90">
         <f>H283-G282</f>
@@ -12639,42 +12603,42 @@
     <row r="286" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="287" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C287" s="114" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D287" s="114" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="288" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="114" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C288" s="115">
         <f>N277</f>
-        <v>11.527999999999999</v>
+        <v>12.315</v>
       </c>
       <c r="D288" s="115">
         <f>O277</f>
-        <v>10.8</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C289" s="83" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D289" s="83" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="291" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="114" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="78" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12685,7 +12649,7 @@
         <v>50</v>
       </c>
       <c r="E293" s="128" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="F293" s="129" t="s">
         <v>51</v>
@@ -12693,7 +12657,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="124" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C294" s="130">
         <v>40</v>
@@ -12710,7 +12674,7 @@
     </row>
     <row r="295" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="125" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="C295" s="132">
         <v>70</v>
@@ -12728,12 +12692,12 @@
     <row r="296" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="297" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="126" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="124" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C298" s="135">
         <f>MAX(H167:H273)+C294</f>
@@ -12754,7 +12718,7 @@
     </row>
     <row r="299" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="125" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="C299" s="138">
         <f>MIN(H167:H273)+C295</f>
@@ -12770,13 +12734,13 @@
       </c>
       <c r="F299" s="140">
         <f>MIN(M167:M273)+F295</f>
-        <v>105.26300000000001</v>
+        <v>110</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="301" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="78" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="C301" s="141">
         <f>0.25*C298+0.75*C299</f>
@@ -12792,12 +12756,12 @@
       </c>
       <c r="F301" s="137">
         <f>0.25*F298+0.75*F299</f>
-        <v>105.07849999999999</v>
+        <v>108.63124999999999</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="78" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="C302" s="146">
         <v>100</v>
@@ -12814,28 +12778,28 @@
     </row>
     <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="78" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="C303" s="176" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D303" s="177" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E303" s="177" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="F303" s="178" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="126" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="C306" s="114" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="D306" s="104" t="s">
         <v>51</v>
@@ -12843,7 +12807,7 @@
     </row>
     <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="124" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="C307" s="179">
         <f>E302-MAX(G277:K277)</f>
@@ -12856,7 +12820,7 @@
     </row>
     <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="125" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C308" s="60">
         <f>E302-MIN(G276:K276)</f>
@@ -12870,34 +12834,34 @@
     <row r="310" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="126" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="82" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="B312" s="21">
-        <f>N161+N158+N155</f>
-        <v>1.161</v>
+        <f>N161+N158+N155+N152+N149+N146</f>
+        <v>2.3220000000000001</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="82" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="B313" s="21">
-        <f>E31*N6+D34*N5</f>
+        <f>E116*N6+D119*N5</f>
         <v>5.879999999999999</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="83" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="B314" s="90">
         <f>B312+B313</f>
-        <v>7.0409999999999986</v>
+        <v>8.2019999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -12947,22 +12911,22 @@
         <v>54</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="K1" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="122" t="s">
         <v>66</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="122" t="s">
-        <v>69</v>
       </c>
       <c r="O1" s="45" t="s">
         <v>51</v>
@@ -13058,12 +13022,12 @@
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="73" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -13071,7 +13035,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -13079,7 +13043,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2">
         <v>15</v>
@@ -13105,7 +13069,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="O11" s="2">
         <v>42</v>
@@ -13113,7 +13077,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="O12" s="2">
         <v>37</v>
@@ -13125,12 +13089,12 @@
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="101" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F16" s="2">
         <v>40</v>
@@ -13163,12 +13127,12 @@
         <v>50</v>
       </c>
       <c r="Q16" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F17" s="2">
         <v>35</v>
@@ -13203,7 +13167,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F18" s="2">
         <v>9</v>
@@ -13238,7 +13202,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F19" s="2">
         <v>110</v>
@@ -13273,7 +13237,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F20" s="2">
         <v>35</v>
@@ -13309,12 +13273,12 @@
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="101" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H24" s="2">
         <v>28</v>
@@ -13340,7 +13304,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H25" s="2">
         <v>20</v>
@@ -13366,7 +13330,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H26" s="2">
         <v>6.5</v>
@@ -13392,7 +13356,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H27" s="2">
         <v>106</v>
@@ -13418,7 +13382,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H28" s="2">
         <v>35</v>
@@ -13445,12 +13409,12 @@
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="105" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="107" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F32" s="106">
         <v>70</v>
@@ -13482,7 +13446,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="107" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F33" s="106">
         <v>1</v>
@@ -13516,7 +13480,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="107" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="F34" s="106">
         <f t="shared" ref="F34:N34" si="0">F32-F33-31.54+20*LOG(F2)</f>
@@ -13557,7 +13521,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="107" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F35" s="106">
         <v>66</v>
@@ -13589,53 +13553,53 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="109" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F36" s="109" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G36" s="109" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H36" s="109" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="I36" s="109" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="J36" s="109" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="K36" s="109" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="L36" s="109" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="M36" s="109" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="N36" s="109" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="127" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="D39" s="129" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="126" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="124" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="F41" s="159">
         <f>Network!C302</f>
@@ -13680,7 +13644,7 @@
     </row>
     <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="149" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="F42" s="146">
         <v>8</v>
@@ -13715,7 +13679,7 @@
     </row>
     <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="149" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="C43" s="144">
         <v>0.3</v>
@@ -13766,7 +13730,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="155" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="F44" s="166">
         <f t="shared" ref="F44:O44" si="1">F41+F43</f>
@@ -13811,7 +13775,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="149" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="F45" s="156">
         <f>F19-F87</f>
@@ -13856,7 +13820,7 @@
     </row>
     <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="125" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="F46" s="163" t="str">
         <f t="shared" ref="F46:O46" si="3">IF(F44&lt;=(F19-F87),"OK","NO")</f>
@@ -13902,13 +13866,13 @@
     <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="126" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="148" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="F49" s="135">
         <f>18+'Mast + Tower'!B22</f>
@@ -13949,7 +13913,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="149" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="F50" s="146">
         <f>F5*F49</f>
@@ -13990,7 +13954,7 @@
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="149" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="F51" s="146">
         <v>8</v>
@@ -14022,7 +13986,7 @@
     </row>
     <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="149" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="C52" s="144">
         <v>0.3</v>
@@ -14069,7 +14033,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="149" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="F53" s="146">
         <f t="shared" ref="F53:N53" si="5">F52+F50</f>
@@ -14110,7 +14074,7 @@
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="150" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="F54" s="138">
         <f t="shared" ref="F54:N54" si="6">F32-F53</f>
@@ -14152,17 +14116,17 @@
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="126" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="148" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="F58" s="135">
         <f>F44-(F32-F53)</f>
@@ -14203,7 +14167,7 @@
     </row>
     <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="150" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="F59" s="163" t="str">
         <f>IF(AND(F16&gt;F58,(F16-F17)&lt;F58),"OK","NO")</f>
@@ -14245,12 +14209,12 @@
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="126" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="148" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="F62" s="135">
         <f>IF(F58-F24&gt;F16-F17,F58-F24,F16-F17)</f>
@@ -14291,7 +14255,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="149" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="F63" s="146">
         <f>F58-F62</f>
@@ -14333,7 +14297,7 @@
     </row>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="150" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="F64" s="163" t="str">
         <f>IF(AND(F16&gt;F62,(F16-F17)&lt;F62),"OK","NO")</f>
@@ -14375,12 +14339,12 @@
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="170" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="149" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="F67" s="135">
         <v>0.15</v>
@@ -14412,7 +14376,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="149" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="F68" s="146">
         <v>290</v>
@@ -14444,7 +14408,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="149" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="F69" s="146">
         <v>-13</v>
@@ -14476,7 +14440,7 @@
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="150" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="F70" s="138">
         <v>38</v>
@@ -14509,17 +14473,17 @@
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="171" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="172" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="149" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B74" s="1"/>
       <c r="F74" s="135">
@@ -14561,7 +14525,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="149" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="F75" s="166">
         <f>F32-F69-10*LOG10(10^((F18+F53)/10)+10^((F53-F58)/10)*(10^((F43+Network!H277)/10)-1))</f>
@@ -14589,7 +14553,7 @@
       </c>
       <c r="L75" s="90">
         <f>L32-L69-10*LOG10(10^((L18+L53)/10)+10^((L53-L58)/10)*(10^((J43+Network!O277)/10)-1))</f>
-        <v>33.35998649882147</v>
+        <v>33.359983217733763</v>
       </c>
       <c r="M75" s="90">
         <f>M32-M69-10*LOG10(10^((M18+M53)/10)+10^((M53-M58)/10)*(10^((J43+Network!P277)/10)-1))</f>
@@ -14602,7 +14566,7 @@
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="150" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="F76" s="163" t="str">
         <f>IF(F75&gt;=F70,"OK","NO")</f>
@@ -14644,12 +14608,12 @@
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="170" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="149" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="F79" s="135">
         <f>10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
@@ -14691,7 +14655,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="149" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="F80" s="166">
         <f>F32-F69-10*LOG10(10^(F26/10)+(10^(F53/10)-1)/10^(F63/10)+(10^(F18/10)-1)*10^(F53/10)/10^(F63/10)+10^((F53-F62-F63)/10)*(10^((F43+Network!H277)/10)-1))</f>
@@ -14732,7 +14696,7 @@
     </row>
     <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="150" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="F81" s="163" t="str">
         <f>IF(F80&gt;=F70,"OK","NO")</f>
@@ -14774,12 +14738,12 @@
     <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="126" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="148" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="F86" s="135">
         <v>30</v>
@@ -14814,7 +14778,7 @@
     </row>
     <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="149" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="F87" s="152">
         <f>7.5*LOG10((F86-1))</f>
@@ -14853,7 +14817,7 @@
     </row>
     <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="150" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="H88" s="138">
         <v>30</v>
@@ -14883,12 +14847,12 @@
     <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="170" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="155" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="H91" s="159">
         <f>H28+2*(H27-H87-H44)</f>
@@ -14925,7 +14889,7 @@
     </row>
     <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="125" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="H92" s="163" t="str">
         <f>IF(H91&gt;=H88,"OK","NO")</f>
@@ -14963,12 +14927,12 @@
     <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="170" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="149" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="H95" s="135">
         <f>H32+H63</f>
@@ -15001,7 +14965,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="155" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="H96" s="174">
         <f>-20*LOG10(10^(-H91/20)+10^(-(H28+2*(H27-7.5*LOG10(SUM(H86:N86)-1)-H32-H63))/20))</f>
@@ -15035,7 +14999,7 @@
     </row>
     <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="125" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="H97" s="163" t="str">
         <f>IF(H96&gt;=H88,"OK","NO")</f>
@@ -15090,22 +15054,22 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="220" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C2" s="221"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="118"/>
       <c r="B3" s="189" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C3" s="189" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="119" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B4" s="190">
         <v>39.49</v>
@@ -15116,7 +15080,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="119" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="B5" s="190">
         <v>30</v>
@@ -15127,7 +15091,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="119" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="B6" s="190">
         <f>30-0.36</f>
@@ -15142,7 +15106,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="119" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B7" s="191">
         <f>DEGREES(ACOS(COS(RADIANS(B6))*COS(RADIANS(B4))))</f>
@@ -15155,7 +15119,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="119" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="B8" s="190">
         <v>6378.16</v>
@@ -15166,7 +15130,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="119" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="B9" s="190">
         <v>35786.300000000003</v>
@@ -15179,7 +15143,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="119" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B10" s="192">
         <f>DEGREES(ATAN((COS(RADIANS(B7))-B8/(B9+B8))/SIN(RADIANS(B7))))</f>
@@ -15194,7 +15158,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="119" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="B11" s="191">
         <f>180 + DEGREES(ATAN(TAN(RADIANS(B6))/SIN(RADIANS(B4))))</f>
@@ -15209,7 +15173,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="119" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B12" s="191">
         <f>B9*SQRT(1+((2*B8*(B8+B9))/POWER(B9,2)*(1-COS(RADIANS(B7)))))</f>
@@ -15227,7 +15191,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="119" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="B15" s="120">
         <v>54</v>
@@ -15238,7 +15202,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="119" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="B16" s="120">
         <v>0.7</v>
@@ -15249,7 +15213,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="119" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="B17" s="120">
         <v>50</v>
@@ -15260,7 +15224,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="119" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="B18" s="120">
         <v>3</v>
@@ -15271,7 +15235,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="119" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="B19" s="120">
         <v>27</v>
@@ -15282,7 +15246,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="119" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="B20" s="120">
         <v>0.7</v>
@@ -15293,7 +15257,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="119" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="B21" s="120">
         <v>12.75</v>
@@ -15304,7 +15268,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="119" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="B22" s="196">
         <f>92.44+20*LOG10(B21)+20*LOG10(B12)</f>
@@ -15317,7 +15281,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="119" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="B23" s="120">
         <v>5.0999999999999996</v>
@@ -15328,7 +15292,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="119" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="B24" s="121">
         <v>1.3800000000000001E-23</v>
@@ -15339,7 +15303,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="119" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="B25" s="196">
         <f>B17+290*(POWER(10,B20/10)-1)</f>
@@ -15352,7 +15316,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="119" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="B26" s="120">
         <f>11+B18</f>
@@ -15365,7 +15329,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="119" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="B27" s="196">
         <f>10*LOG10(B24*B25*B19*1000000)</f>
@@ -15378,7 +15342,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="119" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="B28" s="196">
         <f>B26-B15+B22+B23+B27</f>
@@ -15391,7 +15355,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="119" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="B29" s="195">
         <f>300000000/(B21*1000000000)</f>
@@ -15404,7 +15368,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="119" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="B31" s="196">
         <f>B29*POWER(10,(B28/20))/(PI()*SQRT(B16))</f>
@@ -15417,7 +15381,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="119" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="B32" s="196">
         <f>B28-10*LOG10(B25)</f>
@@ -15430,7 +15394,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="119" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="B33" s="196">
         <f>B15-B23-B22+B28</f>
@@ -15447,7 +15411,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="119" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B34" s="196">
         <f>(B15-B23-B22+B28)-B27</f>
@@ -15460,7 +15424,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="119" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="B35" s="196">
         <f>B33+60-(29.6*0.2)</f>
@@ -15473,7 +15437,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="119" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="B36" s="196">
         <f>SQRT(POWER(10,(B35/10))*75)*1000000</f>
@@ -15486,7 +15450,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="119" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="B37" s="196">
         <f>20*LOG10(B36)</f>
@@ -15499,7 +15463,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="119" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="B38" s="196">
         <f>123-B37</f>
@@ -15544,10 +15508,10 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="211"/>
       <c r="B1" s="119" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D1" s="198"/>
       <c r="E1" s="32"/>
@@ -15557,14 +15521,14 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="119" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="B2" s="198">
         <f>B3*B6</f>
         <v>523.20000000000005</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="D2" s="198">
         <v>3</v>
@@ -15576,14 +15540,14 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="119" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B3" s="198">
         <f>((B4)^2/16)*B5</f>
         <v>799.52256944444457</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="D3" s="198">
         <v>3</v>
@@ -15595,14 +15559,14 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="119" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B4" s="200">
         <f>130*(1000/3600)</f>
         <v>36.111111111111114</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="D4" s="198">
         <v>0.27200000000000002</v>
@@ -15614,7 +15578,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="210" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B5" s="198">
         <v>9.81</v>
@@ -15628,7 +15592,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="210" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B6" s="198">
         <f>523.2/B3</f>
@@ -15653,11 +15617,11 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="222" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="B8" s="223"/>
       <c r="C8" s="222" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="D8" s="223"/>
       <c r="E8" s="32"/>
@@ -15667,7 +15631,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="119" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="B9" s="198">
         <v>4.4999999999999998E-2</v>
@@ -15683,7 +15647,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="119" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B10" s="198">
         <v>6</v>
@@ -15699,7 +15663,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="119" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="B11" s="198">
         <v>0.7</v>
@@ -15715,7 +15679,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="119" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B12" s="198">
         <f>B9*B10*B11</f>
@@ -15733,7 +15697,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="119" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="B13" s="198">
         <f>800*B12</f>
@@ -15771,31 +15735,31 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="222" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="B16" s="223"/>
       <c r="C16" s="119" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="119" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="119" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="I16" s="215"/>
       <c r="J16" s="119" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="119" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B17" s="198">
         <v>93</v>
@@ -15821,7 +15785,7 @@
         <v>19.62</v>
       </c>
       <c r="L17" s="119" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="M17" s="198">
         <f>-SUM(H17,H19,H21,H23,H24)</f>
@@ -15830,7 +15794,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="119" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="B18" s="198">
         <v>6</v>
@@ -15845,7 +15809,7 @@
       <c r="H18" s="198"/>
       <c r="J18" s="198"/>
       <c r="L18" s="119" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="M18" s="198">
         <f>-SUM(J24,J25,J23,J21,J19,J17)</f>
@@ -15854,7 +15818,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="119" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B19" s="198">
         <v>36.5</v>
@@ -15882,7 +15846,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="119" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="B20" s="198">
         <v>4</v>
@@ -15899,7 +15863,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="119" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B21" s="198">
         <v>27</v>
@@ -15927,7 +15891,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="119" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="B22" s="198">
         <v>2</v>
@@ -15944,7 +15908,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="119" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="B23" s="198">
         <v>523.20000000000005</v>
@@ -15972,7 +15936,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="213" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="B24" s="200">
         <v>0.5</v>
@@ -16009,7 +15973,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="212" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="E26" s="198">
         <v>2.9</v>
@@ -16018,7 +15982,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="214" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B27" s="198">
         <f>SUM(C17,C19,C21,C23)</f>
@@ -16036,7 +16000,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="119" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="B28" s="199">
         <f>0.045*280*((B10)^2-(3)^2)</f>
@@ -16054,7 +16018,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="119" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="B29" s="199">
         <f>B27+B28</f>
@@ -16072,14 +16036,14 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="213" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="B30" s="204">
         <f>B29-355</f>
         <v>1004.8</v>
       </c>
       <c r="C30" s="209" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="D30" s="205"/>
       <c r="E30" s="206">
@@ -16087,7 +16051,7 @@
         <v>2666.36</v>
       </c>
       <c r="F30" s="208" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -16099,15 +16063,15 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="D33" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">

--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/6-1/ITSIT/Trabajo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="14_{9F4157DC-F50C-4A01-87BD-49BE01D9B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36147AFD-1CB8-4147-8EFD-93898C4A032D}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="14_{9F4157DC-F50C-4A01-87BD-49BE01D9B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE77D37A-44EC-474A-ADD5-BF697E65C8EA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2879,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D317" sqref="D317"/>
+    <sheetView tabSelected="1" topLeftCell="A287" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O262" sqref="O262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8648,7 +8648,7 @@
         <v>5.6920000000000002</v>
       </c>
       <c r="O167" s="100">
-        <f t="shared" ref="N167:O167" si="132">SUM(O$161:O$162)+O$160+O123</f>
+        <f t="shared" ref="O167" si="132">SUM(O$161:O$162)+O$160+O123</f>
         <v>6.4250000000000007</v>
       </c>
     </row>
@@ -9180,15 +9180,15 @@
         <v>45.35</v>
       </c>
       <c r="M183" s="58">
-        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M31</f>
+        <f t="shared" ref="M183:M188" si="147">SUM(M$161:M$162)+M$159+M$158+M$157+$M31</f>
         <v>48.25</v>
       </c>
       <c r="N183" s="100">
-        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N31</f>
+        <f t="shared" ref="N183:N188" si="148">SUM(N$161:N$162)+N$159+N$158+N$157+$N31</f>
         <v>6.7139999999999995</v>
       </c>
       <c r="O183" s="100">
-        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O31</f>
+        <f t="shared" ref="O183:O188" si="149">SUM(O$161:O$162)+O$159+O$158+O$157+$O31</f>
         <v>7.0000000000000009</v>
       </c>
     </row>
@@ -9197,39 +9197,39 @@
         <v>115</v>
       </c>
       <c r="G184" s="58">
-        <f t="shared" ref="G184:G188" si="147">SUM(G$161:G$162)+G$159+G$158+G$157+G32</f>
+        <f t="shared" ref="G184:G188" si="150">SUM(G$161:G$162)+G$159+G$158+G$157+G32</f>
         <v>38.683999999999997</v>
       </c>
       <c r="H184" s="58">
-        <f t="shared" ref="H184:H188" si="148">SUM(H$161:H$162)+H$159+H$158+H$157+$H32</f>
+        <f t="shared" ref="H184:H188" si="151">SUM(H$161:H$162)+H$159+H$158+H$157+$H32</f>
         <v>39.387999999999998</v>
       </c>
       <c r="I184" s="58">
-        <f t="shared" ref="I184:I188" si="149">SUM(I$161:I$162)+I$159+I$158+I$157+$I32</f>
+        <f t="shared" ref="I184:I188" si="152">SUM(I$161:I$162)+I$159+I$158+I$157+$I32</f>
         <v>40.69</v>
       </c>
       <c r="J184" s="58">
-        <f t="shared" ref="J184:J188" si="150">SUM(J$161:J$162)+J$159+J$158+J$157+$J32</f>
+        <f t="shared" ref="J184:J188" si="153">SUM(J$161:J$162)+J$159+J$158+J$157+$J32</f>
         <v>42.634</v>
       </c>
       <c r="K184" s="58">
-        <f t="shared" ref="K184:K188" si="151">SUM(K$161:K$162)+K$159+K$158+K$157+$K32</f>
+        <f t="shared" ref="K184:K188" si="154">SUM(K$161:K$162)+K$159+K$158+K$157+$K32</f>
         <v>45.043999999999997</v>
       </c>
       <c r="L184" s="58">
-        <f t="shared" ref="L184:L188" si="152">SUM(L$161:L$162)+L$159+L$158+L$157+$L32</f>
+        <f t="shared" ref="L184:L188" si="155">SUM(L$161:L$162)+L$159+L$158+L$157+$L32</f>
         <v>49.129999999999995</v>
       </c>
       <c r="M184" s="58">
-        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M32</f>
+        <f t="shared" si="147"/>
         <v>54.099999999999994</v>
       </c>
       <c r="N184" s="100">
-        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N32</f>
+        <f t="shared" si="148"/>
         <v>9.36</v>
       </c>
       <c r="O184" s="100">
-        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O32</f>
+        <f t="shared" si="149"/>
         <v>9.07</v>
       </c>
     </row>
@@ -9238,39 +9238,39 @@
         <v>114</v>
       </c>
       <c r="G185" s="58">
+        <f t="shared" si="150"/>
+        <v>37.753</v>
+      </c>
+      <c r="H185" s="58">
+        <f t="shared" si="151"/>
+        <v>38.152999999999999</v>
+      </c>
+      <c r="I185" s="58">
+        <f t="shared" si="152"/>
+        <v>38.885000000000005</v>
+      </c>
+      <c r="J185" s="58">
+        <f t="shared" si="153"/>
+        <v>39.974000000000004</v>
+      </c>
+      <c r="K185" s="58">
+        <f t="shared" si="154"/>
+        <v>41.32</v>
+      </c>
+      <c r="L185" s="58">
+        <f t="shared" si="155"/>
+        <v>45.14</v>
+      </c>
+      <c r="M185" s="58">
         <f t="shared" si="147"/>
-        <v>37.753</v>
-      </c>
-      <c r="H185" s="58">
+        <v>47.924999999999997</v>
+      </c>
+      <c r="N185" s="100">
         <f t="shared" si="148"/>
-        <v>38.152999999999999</v>
-      </c>
-      <c r="I185" s="58">
+        <v>6.5669999999999993</v>
+      </c>
+      <c r="O185" s="100">
         <f t="shared" si="149"/>
-        <v>38.885000000000005</v>
-      </c>
-      <c r="J185" s="58">
-        <f t="shared" si="150"/>
-        <v>39.974000000000004</v>
-      </c>
-      <c r="K185" s="58">
-        <f t="shared" si="151"/>
-        <v>41.32</v>
-      </c>
-      <c r="L185" s="58">
-        <f t="shared" si="152"/>
-        <v>45.14</v>
-      </c>
-      <c r="M185" s="58">
-        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M33</f>
-        <v>47.924999999999997</v>
-      </c>
-      <c r="N185" s="100">
-        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N33</f>
-        <v>6.5669999999999993</v>
-      </c>
-      <c r="O185" s="100">
-        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O33</f>
         <v>6.8850000000000007</v>
       </c>
     </row>
@@ -9279,39 +9279,39 @@
         <v>113</v>
       </c>
       <c r="G186" s="58">
+        <f t="shared" si="150"/>
+        <v>38.781999999999996</v>
+      </c>
+      <c r="H186" s="58">
+        <f t="shared" si="151"/>
+        <v>39.518000000000001</v>
+      </c>
+      <c r="I186" s="58">
+        <f t="shared" si="152"/>
+        <v>40.880000000000003</v>
+      </c>
+      <c r="J186" s="58">
+        <f t="shared" si="153"/>
+        <v>42.914000000000001</v>
+      </c>
+      <c r="K186" s="58">
+        <f t="shared" si="154"/>
+        <v>45.436000000000007</v>
+      </c>
+      <c r="L186" s="58">
+        <f t="shared" si="155"/>
+        <v>49.55</v>
+      </c>
+      <c r="M186" s="58">
         <f t="shared" si="147"/>
-        <v>38.781999999999996</v>
-      </c>
-      <c r="H186" s="58">
+        <v>54.75</v>
+      </c>
+      <c r="N186" s="100">
         <f t="shared" si="148"/>
-        <v>39.518000000000001</v>
-      </c>
-      <c r="I186" s="58">
+        <v>9.6539999999999999</v>
+      </c>
+      <c r="O186" s="100">
         <f t="shared" si="149"/>
-        <v>40.880000000000003</v>
-      </c>
-      <c r="J186" s="58">
-        <f t="shared" si="150"/>
-        <v>42.914000000000001</v>
-      </c>
-      <c r="K186" s="58">
-        <f t="shared" si="151"/>
-        <v>45.436000000000007</v>
-      </c>
-      <c r="L186" s="58">
-        <f t="shared" si="152"/>
-        <v>49.55</v>
-      </c>
-      <c r="M186" s="58">
-        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M34</f>
-        <v>54.75</v>
-      </c>
-      <c r="N186" s="100">
-        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N34</f>
-        <v>9.6539999999999999</v>
-      </c>
-      <c r="O186" s="100">
-        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O34</f>
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -9320,39 +9320,39 @@
         <v>146</v>
       </c>
       <c r="G187" s="58">
+        <f t="shared" si="150"/>
+        <v>37.753</v>
+      </c>
+      <c r="H187" s="58">
+        <f t="shared" si="151"/>
+        <v>38.152999999999999</v>
+      </c>
+      <c r="I187" s="58">
+        <f t="shared" si="152"/>
+        <v>38.885000000000005</v>
+      </c>
+      <c r="J187" s="58">
+        <f t="shared" si="153"/>
+        <v>39.974000000000004</v>
+      </c>
+      <c r="K187" s="58">
+        <f t="shared" si="154"/>
+        <v>41.32</v>
+      </c>
+      <c r="L187" s="58">
+        <f t="shared" si="155"/>
+        <v>45.14</v>
+      </c>
+      <c r="M187" s="58">
         <f t="shared" si="147"/>
-        <v>37.753</v>
-      </c>
-      <c r="H187" s="58">
+        <v>47.924999999999997</v>
+      </c>
+      <c r="N187" s="100">
         <f t="shared" si="148"/>
-        <v>38.152999999999999</v>
-      </c>
-      <c r="I187" s="58">
+        <v>6.5669999999999993</v>
+      </c>
+      <c r="O187" s="100">
         <f t="shared" si="149"/>
-        <v>38.885000000000005</v>
-      </c>
-      <c r="J187" s="58">
-        <f t="shared" si="150"/>
-        <v>39.974000000000004</v>
-      </c>
-      <c r="K187" s="58">
-        <f t="shared" si="151"/>
-        <v>41.32</v>
-      </c>
-      <c r="L187" s="58">
-        <f t="shared" si="152"/>
-        <v>45.14</v>
-      </c>
-      <c r="M187" s="58">
-        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M35</f>
-        <v>47.924999999999997</v>
-      </c>
-      <c r="N187" s="100">
-        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N35</f>
-        <v>6.5669999999999993</v>
-      </c>
-      <c r="O187" s="100">
-        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O35</f>
         <v>6.8850000000000007</v>
       </c>
     </row>
@@ -9361,39 +9361,39 @@
         <v>112</v>
       </c>
       <c r="G188" s="63">
+        <f t="shared" si="150"/>
+        <v>37.311999999999998</v>
+      </c>
+      <c r="H188" s="63">
+        <f t="shared" si="151"/>
+        <v>37.567999999999998</v>
+      </c>
+      <c r="I188" s="63">
+        <f t="shared" si="152"/>
+        <v>38.03</v>
+      </c>
+      <c r="J188" s="63">
+        <f t="shared" si="153"/>
+        <v>38.713999999999999</v>
+      </c>
+      <c r="K188" s="63">
+        <f t="shared" si="154"/>
+        <v>39.555999999999997</v>
+      </c>
+      <c r="L188" s="63">
+        <f t="shared" si="155"/>
+        <v>43.25</v>
+      </c>
+      <c r="M188" s="63">
         <f t="shared" si="147"/>
-        <v>37.311999999999998</v>
-      </c>
-      <c r="H188" s="63">
+        <v>45</v>
+      </c>
+      <c r="N188" s="100">
         <f t="shared" si="148"/>
-        <v>37.567999999999998</v>
-      </c>
-      <c r="I188" s="63">
+        <v>5.2439999999999998</v>
+      </c>
+      <c r="O188" s="100">
         <f t="shared" si="149"/>
-        <v>38.03</v>
-      </c>
-      <c r="J188" s="63">
-        <f t="shared" si="150"/>
-        <v>38.713999999999999</v>
-      </c>
-      <c r="K188" s="63">
-        <f t="shared" si="151"/>
-        <v>39.555999999999997</v>
-      </c>
-      <c r="L188" s="63">
-        <f t="shared" si="152"/>
-        <v>43.25</v>
-      </c>
-      <c r="M188" s="63">
-        <f>SUM(M$161:M$162)+M$159+M$158+M$157+$M36</f>
-        <v>45</v>
-      </c>
-      <c r="N188" s="100">
-        <f>SUM(N$161:N$162)+N$159+N$158+N$157+$N36</f>
-        <v>5.2439999999999998</v>
-      </c>
-      <c r="O188" s="100">
-        <f>SUM(O$161:O$162)+O$159+O$158+O$157+$O36</f>
         <v>5.85</v>
       </c>
     </row>
@@ -9446,19 +9446,19 @@
         <v>110</v>
       </c>
       <c r="G191" s="58">
-        <f t="shared" ref="G191:G195" si="153">SUM(G$161:G$162)+G$159+G$158+G$157+G39</f>
+        <f t="shared" ref="G191:G195" si="156">SUM(G$161:G$162)+G$159+G$158+G$157+G39</f>
         <v>38.683999999999997</v>
       </c>
       <c r="H191" s="58">
-        <f t="shared" ref="H191:H195" si="154">SUM(H$161:H$162)+H$159+H$158+H$157+$H39</f>
+        <f t="shared" ref="H191:H195" si="157">SUM(H$161:H$162)+H$159+H$158+H$157+$H39</f>
         <v>39.387999999999998</v>
       </c>
       <c r="I191" s="58">
-        <f t="shared" ref="I191:I195" si="155">SUM(I$161:I$162)+I$159+I$158+I$157+$I39</f>
+        <f t="shared" ref="I191:I195" si="158">SUM(I$161:I$162)+I$159+I$158+I$157+$I39</f>
         <v>38.408100000000005</v>
       </c>
       <c r="J191" s="58">
-        <f t="shared" ref="J191:J195" si="156">SUM(J$161:J$162)+J$159+J$158+J$157+$J39</f>
+        <f t="shared" ref="J191:J195" si="159">SUM(J$161:J$162)+J$159+J$158+J$157+$J39</f>
         <v>41.396680000000003</v>
       </c>
       <c r="K191" s="58">
@@ -9466,19 +9466,19 @@
         <v>45.043999999999997</v>
       </c>
       <c r="L191" s="58">
-        <f t="shared" ref="L191:O191" si="157">SUM(L$161:L$162)+L$159+L$158+L$157+L$39</f>
+        <f t="shared" ref="L191:O191" si="160">SUM(L$161:L$162)+L$159+L$158+L$157+L$39</f>
         <v>49.129999999999995</v>
       </c>
       <c r="M191" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>54.099999999999994</v>
       </c>
       <c r="N191" s="100">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>9.36</v>
       </c>
       <c r="O191" s="100">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>9.07</v>
       </c>
     </row>
@@ -9487,19 +9487,19 @@
         <v>109</v>
       </c>
       <c r="G192" s="58">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>37.753</v>
       </c>
       <c r="H192" s="58">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>38.152999999999999</v>
       </c>
       <c r="I192" s="58">
-        <f t="shared" si="155"/>
+        <f t="shared" si="158"/>
         <v>38.408100000000005</v>
       </c>
       <c r="J192" s="58">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>41.26634</v>
       </c>
       <c r="K192" s="58">
@@ -9507,19 +9507,19 @@
         <v>41.32</v>
       </c>
       <c r="L192" s="58">
-        <f t="shared" ref="L192:O192" si="158">SUM(L$161:L$162)+L$159+L$158+L$157+L$40</f>
+        <f t="shared" ref="L192:O192" si="161">SUM(L$161:L$162)+L$159+L$158+L$157+L$40</f>
         <v>45.14</v>
       </c>
       <c r="M192" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>47.924999999999997</v>
       </c>
       <c r="N192" s="100">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>6.5669999999999993</v>
       </c>
       <c r="O192" s="100">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>6.8850000000000007</v>
       </c>
     </row>
@@ -9528,19 +9528,19 @@
         <v>108</v>
       </c>
       <c r="G193" s="58">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>38.781999999999996</v>
       </c>
       <c r="H193" s="58">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>39.518000000000001</v>
       </c>
       <c r="I193" s="58">
-        <f t="shared" si="155"/>
+        <f t="shared" si="158"/>
         <v>38.408100000000005</v>
       </c>
       <c r="J193" s="58">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>41.410399999999996</v>
       </c>
       <c r="K193" s="58">
@@ -9548,19 +9548,19 @@
         <v>45.436000000000007</v>
       </c>
       <c r="L193" s="58">
-        <f t="shared" ref="L193:O193" si="159">SUM(L$161:L$162)+L$159+L$158+L$157+L$41</f>
+        <f t="shared" ref="L193:O193" si="162">SUM(L$161:L$162)+L$159+L$158+L$157+L$41</f>
         <v>49.55</v>
       </c>
       <c r="M193" s="58">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>54.75</v>
       </c>
       <c r="N193" s="100">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>9.6539999999999999</v>
       </c>
       <c r="O193" s="100">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -9569,19 +9569,19 @@
         <v>146</v>
       </c>
       <c r="G194" s="58">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>37.753</v>
       </c>
       <c r="H194" s="58">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>38.152999999999999</v>
       </c>
       <c r="I194" s="58">
-        <f t="shared" si="155"/>
+        <f t="shared" si="158"/>
         <v>38.408100000000005</v>
       </c>
       <c r="J194" s="58">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>41.26634</v>
       </c>
       <c r="K194" s="58">
@@ -9589,19 +9589,19 @@
         <v>41.32</v>
       </c>
       <c r="L194" s="58">
-        <f t="shared" ref="L194:O194" si="160">SUM(L$161:L$162)+L$159+L$158+L$157+L$42</f>
+        <f t="shared" ref="L194:O194" si="163">SUM(L$161:L$162)+L$159+L$158+L$157+L$42</f>
         <v>45.14</v>
       </c>
       <c r="M194" s="58">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>47.924999999999997</v>
       </c>
       <c r="N194" s="100">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>6.5669999999999993</v>
       </c>
       <c r="O194" s="100">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>6.8850000000000007</v>
       </c>
     </row>
@@ -9610,19 +9610,19 @@
         <v>107</v>
       </c>
       <c r="G195" s="63">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>37.311999999999998</v>
       </c>
       <c r="H195" s="63">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>37.567999999999998</v>
       </c>
       <c r="I195" s="63">
-        <f t="shared" si="155"/>
+        <f t="shared" si="158"/>
         <v>38.408100000000005</v>
       </c>
       <c r="J195" s="63">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>41.204599999999999</v>
       </c>
       <c r="K195" s="63">
@@ -9630,19 +9630,19 @@
         <v>39.555999999999997</v>
       </c>
       <c r="L195" s="63">
-        <f t="shared" ref="L195:O195" si="161">SUM(L$161:L$162)+L$159+L$158+L$157+L$43</f>
+        <f t="shared" ref="L195:O195" si="164">SUM(L$161:L$162)+L$159+L$158+L$157+L$43</f>
         <v>43.25</v>
       </c>
       <c r="M195" s="63">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>45</v>
       </c>
       <c r="N195" s="100">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>5.2439999999999998</v>
       </c>
       <c r="O195" s="100">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>5.85</v>
       </c>
     </row>
@@ -9682,11 +9682,11 @@
         <v>46.5</v>
       </c>
       <c r="N197" s="100">
-        <f t="shared" ref="N197:O197" si="162">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$154+N45</f>
+        <f t="shared" ref="N197:O197" si="165">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$154+N45</f>
         <v>8.9239999999999995</v>
       </c>
       <c r="O197" s="100">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>8.8350000000000009</v>
       </c>
     </row>
@@ -9699,35 +9699,35 @@
         <v>34.707000000000001</v>
       </c>
       <c r="H198" s="63">
-        <f t="shared" ref="H198:H201" si="163">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H46</f>
+        <f t="shared" ref="H198:H201" si="166">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H46</f>
         <v>35.266999999999996</v>
       </c>
       <c r="I198" s="63">
-        <f t="shared" ref="I198:I201" si="164">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I46</f>
+        <f t="shared" ref="I198:I201" si="167">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I46</f>
         <v>36.29</v>
       </c>
       <c r="J198" s="63">
-        <f t="shared" ref="J198:J201" si="165">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J46</f>
+        <f t="shared" ref="J198:J201" si="168">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J46</f>
         <v>37.811</v>
       </c>
       <c r="K198" s="58">
-        <f t="shared" ref="K198:O201" si="166">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K46</f>
+        <f t="shared" ref="K198:O201" si="169">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K46</f>
         <v>39.69</v>
       </c>
       <c r="L198" s="58">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>41.635000000000005</v>
       </c>
       <c r="M198" s="58">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>45.525000000000006</v>
       </c>
       <c r="N198" s="100">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>8.4829999999999988</v>
       </c>
       <c r="O198" s="100">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>8.49</v>
       </c>
     </row>
@@ -9740,35 +9740,35 @@
         <v>34.510999999999996</v>
       </c>
       <c r="H199" s="63">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>35.006999999999998</v>
       </c>
       <c r="I199" s="63">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>35.909999999999997</v>
       </c>
       <c r="J199" s="63">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>37.250999999999998</v>
       </c>
       <c r="K199" s="58">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>38.905999999999999</v>
       </c>
       <c r="L199" s="58">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>40.795000000000002</v>
       </c>
       <c r="M199" s="58">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N199" s="100">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>7.8949999999999996</v>
       </c>
       <c r="O199" s="100">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>8.0300000000000011</v>
       </c>
     </row>
@@ -9777,39 +9777,39 @@
         <v>147</v>
       </c>
       <c r="G200" s="63">
-        <f t="shared" ref="G200:G201" si="167">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G48</f>
+        <f t="shared" ref="G200:G201" si="170">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G48</f>
         <v>33.874000000000002</v>
       </c>
       <c r="H200" s="63">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>34.161999999999999</v>
       </c>
       <c r="I200" s="63">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>34.674999999999997</v>
       </c>
       <c r="J200" s="63">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>35.430999999999997</v>
       </c>
       <c r="K200" s="58">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>36.358000000000004</v>
       </c>
       <c r="L200" s="58">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>38.064999999999998</v>
       </c>
       <c r="M200" s="58">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>40</v>
       </c>
       <c r="N200" s="100">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>5.984</v>
       </c>
       <c r="O200" s="100">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>6.5350000000000001</v>
       </c>
     </row>
@@ -9818,39 +9818,39 @@
         <v>132</v>
       </c>
       <c r="G201" s="63">
+        <f t="shared" si="170"/>
+        <v>34.609000000000002</v>
+      </c>
+      <c r="H201" s="63">
+        <f t="shared" si="166"/>
+        <v>35.137</v>
+      </c>
+      <c r="I201" s="63">
         <f t="shared" si="167"/>
-        <v>34.609000000000002</v>
-      </c>
-      <c r="H201" s="63">
-        <f t="shared" si="163"/>
-        <v>35.137</v>
-      </c>
-      <c r="I201" s="63">
-        <f t="shared" si="164"/>
         <v>36.1</v>
       </c>
       <c r="J201" s="63">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>37.530999999999999</v>
       </c>
       <c r="K201" s="63">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>39.298000000000002</v>
       </c>
       <c r="L201" s="63">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>41.215000000000003</v>
       </c>
       <c r="M201" s="63">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>44.875</v>
       </c>
       <c r="N201" s="100">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>8.1890000000000001</v>
       </c>
       <c r="O201" s="100">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>8.26</v>
       </c>
     </row>
@@ -9890,11 +9890,11 @@
         <v>46.5</v>
       </c>
       <c r="N203" s="100">
-        <f t="shared" ref="N203:O203" si="168">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$154+N51</f>
+        <f t="shared" ref="N203:O203" si="171">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$154+N51</f>
         <v>8.9239999999999995</v>
       </c>
       <c r="O203" s="100">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>8.8350000000000009</v>
       </c>
     </row>
@@ -9903,39 +9903,39 @@
         <v>130</v>
       </c>
       <c r="G204" s="58">
-        <f t="shared" ref="G204:G207" si="169">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G52</f>
+        <f t="shared" ref="G204:G207" si="172">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G52</f>
         <v>34.510999999999996</v>
       </c>
       <c r="H204" s="58">
-        <f t="shared" ref="H204:H207" si="170">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H52</f>
+        <f t="shared" ref="H204:H207" si="173">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H52</f>
         <v>35.006999999999998</v>
       </c>
       <c r="I204" s="58">
-        <f t="shared" ref="I204:I207" si="171">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I52</f>
+        <f t="shared" ref="I204:I207" si="174">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I52</f>
         <v>35.909999999999997</v>
       </c>
       <c r="J204" s="58">
-        <f t="shared" ref="J204:J207" si="172">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J52</f>
+        <f t="shared" ref="J204:J207" si="175">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J52</f>
         <v>37.250999999999998</v>
       </c>
       <c r="K204" s="58">
-        <f t="shared" ref="K204:O207" si="173">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K52</f>
+        <f t="shared" ref="K204:O207" si="176">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K52</f>
         <v>38.905999999999999</v>
       </c>
       <c r="L204" s="58">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>40.795000000000002</v>
       </c>
       <c r="M204" s="58">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N204" s="100">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>7.8949999999999996</v>
       </c>
       <c r="O204" s="100">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>8.0300000000000011</v>
       </c>
     </row>
@@ -9944,39 +9944,39 @@
         <v>129</v>
       </c>
       <c r="G205" s="58">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>34.510999999999996</v>
       </c>
       <c r="H205" s="58">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>35.006999999999998</v>
       </c>
       <c r="I205" s="58">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>35.909999999999997</v>
       </c>
       <c r="J205" s="58">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>37.250999999999998</v>
       </c>
       <c r="K205" s="58">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>38.905999999999999</v>
       </c>
       <c r="L205" s="58">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>40.795000000000002</v>
       </c>
       <c r="M205" s="58">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N205" s="100">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>7.8949999999999996</v>
       </c>
       <c r="O205" s="100">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>8.0300000000000011</v>
       </c>
     </row>
@@ -9985,39 +9985,39 @@
         <v>148</v>
       </c>
       <c r="G206" s="58">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>33.874000000000002</v>
       </c>
       <c r="H206" s="58">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>34.161999999999999</v>
       </c>
       <c r="I206" s="58">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>34.674999999999997</v>
       </c>
       <c r="J206" s="58">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>35.430999999999997</v>
       </c>
       <c r="K206" s="58">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>36.358000000000004</v>
       </c>
       <c r="L206" s="58">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>38.064999999999998</v>
       </c>
       <c r="M206" s="58">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>40</v>
       </c>
       <c r="N206" s="100">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>5.984</v>
       </c>
       <c r="O206" s="100">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>6.5350000000000001</v>
       </c>
     </row>
@@ -10026,39 +10026,39 @@
         <v>128</v>
       </c>
       <c r="G207" s="63">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>34.609000000000002</v>
       </c>
       <c r="H207" s="63">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>35.137</v>
       </c>
       <c r="I207" s="63">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>36.1</v>
       </c>
       <c r="J207" s="63">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>37.530999999999999</v>
       </c>
       <c r="K207" s="63">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>39.298000000000002</v>
       </c>
       <c r="L207" s="63">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>41.215000000000003</v>
       </c>
       <c r="M207" s="63">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>44.875</v>
       </c>
       <c r="N207" s="100">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>8.1890000000000001</v>
       </c>
       <c r="O207" s="100">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>8.26</v>
       </c>
     </row>
@@ -10098,11 +10098,11 @@
         <v>46.575000000000003</v>
       </c>
       <c r="N209" s="100">
-        <f t="shared" ref="N209:O209" si="174">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$154+N57</f>
+        <f t="shared" ref="N209:O209" si="177">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$154+N57</f>
         <v>7.6009999999999991</v>
       </c>
       <c r="O209" s="100">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>7.8000000000000007</v>
       </c>
     </row>
@@ -10111,39 +10111,39 @@
         <v>105</v>
       </c>
       <c r="G210" s="58">
-        <f t="shared" ref="G210:G214" si="175">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G58</f>
+        <f t="shared" ref="G210:G214" si="178">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G58</f>
         <v>37.295000000000002</v>
       </c>
       <c r="H210" s="58">
-        <f t="shared" ref="H210:H214" si="176">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H58</f>
+        <f t="shared" ref="H210:H214" si="179">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H58</f>
         <v>38.046999999999997</v>
       </c>
       <c r="I210" s="58">
-        <f t="shared" ref="I210:I214" si="177">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I58</f>
+        <f t="shared" ref="I210:I214" si="180">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I58</f>
         <v>39.43</v>
       </c>
       <c r="J210" s="58">
-        <f t="shared" ref="J210:J214" si="178">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J58</f>
+        <f t="shared" ref="J210:J214" si="181">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J58</f>
         <v>41.491</v>
       </c>
       <c r="K210" s="58">
-        <f t="shared" ref="K210:O214" si="179">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K58</f>
+        <f t="shared" ref="K210:O214" si="182">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K58</f>
         <v>44.042000000000002</v>
       </c>
       <c r="L210" s="58">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>47.155000000000001</v>
       </c>
       <c r="M210" s="58">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>52.424999999999997</v>
       </c>
       <c r="N210" s="100">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>10.247</v>
       </c>
       <c r="O210" s="100">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>9.870000000000001</v>
       </c>
     </row>
@@ -10152,39 +10152,39 @@
         <v>104</v>
       </c>
       <c r="G211" s="58">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>36.364000000000004</v>
       </c>
       <c r="H211" s="58">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>36.811999999999998</v>
       </c>
       <c r="I211" s="58">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>37.625</v>
       </c>
       <c r="J211" s="58">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>38.831000000000003</v>
       </c>
       <c r="K211" s="58">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>40.317999999999998</v>
       </c>
       <c r="L211" s="58">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>43.165000000000006</v>
       </c>
       <c r="M211" s="58">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>46.25</v>
       </c>
       <c r="N211" s="100">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>7.4539999999999988</v>
       </c>
       <c r="O211" s="100">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>7.6850000000000005</v>
       </c>
     </row>
@@ -10193,39 +10193,39 @@
         <v>103</v>
       </c>
       <c r="G212" s="58">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>37.393000000000001</v>
       </c>
       <c r="H212" s="58">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>38.177</v>
       </c>
       <c r="I212" s="58">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>39.620000000000005</v>
       </c>
       <c r="J212" s="58">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>41.771000000000001</v>
       </c>
       <c r="K212" s="58">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>44.434000000000005</v>
       </c>
       <c r="L212" s="58">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>47.575000000000003</v>
       </c>
       <c r="M212" s="58">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>53.075000000000003</v>
       </c>
       <c r="N212" s="100">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>10.540999999999999</v>
       </c>
       <c r="O212" s="100">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>10.100000000000001</v>
       </c>
     </row>
@@ -10234,31 +10234,31 @@
         <v>149</v>
       </c>
       <c r="G213" s="58">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>36.364000000000004</v>
       </c>
       <c r="H213" s="58">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>36.811999999999998</v>
       </c>
       <c r="I213" s="58">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>37.625</v>
       </c>
       <c r="J213" s="58">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>38.831000000000003</v>
       </c>
       <c r="K213" s="58">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>40.317999999999998</v>
       </c>
       <c r="L213" s="58">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>43.165000000000006</v>
       </c>
       <c r="M213" s="58">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>46.25</v>
       </c>
       <c r="N213" s="100">
@@ -10266,7 +10266,7 @@
         <v>7.4539999999999988</v>
       </c>
       <c r="O213" s="100">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>7.6850000000000005</v>
       </c>
     </row>
@@ -10275,39 +10275,39 @@
         <v>102</v>
       </c>
       <c r="G214" s="63">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>35.923000000000002</v>
       </c>
       <c r="H214" s="63">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>36.226999999999997</v>
       </c>
       <c r="I214" s="63">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>36.770000000000003</v>
       </c>
       <c r="J214" s="63">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>37.570999999999998</v>
       </c>
       <c r="K214" s="63">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>38.554000000000002</v>
       </c>
       <c r="L214" s="63">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>41.275000000000006</v>
       </c>
       <c r="M214" s="63">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>43.325000000000003</v>
       </c>
       <c r="N214" s="100">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>6.1310000000000002</v>
       </c>
       <c r="O214" s="100">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>6.65</v>
       </c>
     </row>
@@ -10347,11 +10347,11 @@
         <v>46.575000000000003</v>
       </c>
       <c r="N216" s="100">
-        <f t="shared" ref="N216:O216" si="180">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$154+N64</f>
+        <f t="shared" ref="N216:O216" si="183">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$154+N64</f>
         <v>7.6009999999999991</v>
       </c>
       <c r="O216" s="100">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>7.8000000000000007</v>
       </c>
     </row>
@@ -10360,39 +10360,39 @@
         <v>100</v>
       </c>
       <c r="G217" s="58">
-        <f t="shared" ref="G217:G221" si="181">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G65</f>
+        <f t="shared" ref="G217:G221" si="184">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G65</f>
         <v>37.295000000000002</v>
       </c>
       <c r="H217" s="58">
-        <f t="shared" ref="H217:H221" si="182">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H65</f>
+        <f t="shared" ref="H217:H221" si="185">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H65</f>
         <v>38.046999999999997</v>
       </c>
       <c r="I217" s="58">
-        <f t="shared" ref="I217:I221" si="183">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I65</f>
+        <f t="shared" ref="I217:I221" si="186">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I65</f>
         <v>39.43</v>
       </c>
       <c r="J217" s="58">
-        <f t="shared" ref="J217:J221" si="184">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J65</f>
+        <f t="shared" ref="J217:J221" si="187">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J65</f>
         <v>41.491</v>
       </c>
       <c r="K217" s="58">
-        <f t="shared" ref="K217:O221" si="185">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K65</f>
+        <f t="shared" ref="K217:O221" si="188">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K65</f>
         <v>44.042000000000002</v>
       </c>
       <c r="L217" s="58">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>47.155000000000001</v>
       </c>
       <c r="M217" s="58">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>52.424999999999997</v>
       </c>
       <c r="N217" s="100">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>10.247</v>
       </c>
       <c r="O217" s="100">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>9.870000000000001</v>
       </c>
     </row>
@@ -10401,39 +10401,39 @@
         <v>99</v>
       </c>
       <c r="G218" s="58">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>36.364000000000004</v>
       </c>
       <c r="H218" s="58">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>36.811999999999998</v>
       </c>
       <c r="I218" s="58">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>37.625</v>
       </c>
       <c r="J218" s="58">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>38.831000000000003</v>
       </c>
       <c r="K218" s="58">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>40.317999999999998</v>
       </c>
       <c r="L218" s="58">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>43.165000000000006</v>
       </c>
       <c r="M218" s="58">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>46.25</v>
       </c>
       <c r="N218" s="100">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>7.4539999999999988</v>
       </c>
       <c r="O218" s="100">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>7.6850000000000005</v>
       </c>
     </row>
@@ -10442,39 +10442,39 @@
         <v>98</v>
       </c>
       <c r="G219" s="58">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>37.295000000000002</v>
       </c>
       <c r="H219" s="58">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>38.046999999999997</v>
       </c>
       <c r="I219" s="58">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>39.43</v>
       </c>
       <c r="J219" s="58">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>41.491</v>
       </c>
       <c r="K219" s="58">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>44.042000000000002</v>
       </c>
       <c r="L219" s="58">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>47.155000000000001</v>
       </c>
       <c r="M219" s="58">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>52.424999999999997</v>
       </c>
       <c r="N219" s="100">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>10.247</v>
       </c>
       <c r="O219" s="100">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>9.870000000000001</v>
       </c>
     </row>
@@ -10483,39 +10483,39 @@
         <v>149</v>
       </c>
       <c r="G220" s="58">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>36.364000000000004</v>
       </c>
       <c r="H220" s="58">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>36.811999999999998</v>
       </c>
       <c r="I220" s="58">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>37.625</v>
       </c>
       <c r="J220" s="58">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>38.831000000000003</v>
       </c>
       <c r="K220" s="58">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>40.317999999999998</v>
       </c>
       <c r="L220" s="58">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>43.165000000000006</v>
       </c>
       <c r="M220" s="58">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>46.25</v>
       </c>
       <c r="N220" s="100">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>7.4539999999999988</v>
       </c>
       <c r="O220" s="100">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>7.6850000000000005</v>
       </c>
     </row>
@@ -10524,39 +10524,39 @@
         <v>97</v>
       </c>
       <c r="G221" s="63">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>35.923000000000002</v>
       </c>
       <c r="H221" s="63">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>36.226999999999997</v>
       </c>
       <c r="I221" s="63">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>36.770000000000003</v>
       </c>
       <c r="J221" s="63">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>37.570999999999998</v>
       </c>
       <c r="K221" s="63">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>38.554000000000002</v>
       </c>
       <c r="L221" s="63">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>41.275000000000006</v>
       </c>
       <c r="M221" s="63">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>43.325000000000003</v>
       </c>
       <c r="N221" s="100">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>6.1310000000000002</v>
       </c>
       <c r="O221" s="100">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>6.65</v>
       </c>
     </row>
@@ -10596,11 +10596,11 @@
         <v>50.724999999999994</v>
       </c>
       <c r="N223" s="100">
-        <f t="shared" ref="N223:O223" si="186">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$151+N71</f>
+        <f t="shared" ref="N223:O223" si="189">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$151+N71</f>
         <v>9.8109999999999999</v>
       </c>
       <c r="O223" s="100">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>9.6349999999999998</v>
       </c>
     </row>
@@ -10609,39 +10609,39 @@
         <v>126</v>
       </c>
       <c r="G224" s="58">
-        <f t="shared" ref="G224:G227" si="187">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G72</f>
+        <f t="shared" ref="G224:G227" si="190">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G72</f>
         <v>37.118000000000002</v>
       </c>
       <c r="H224" s="58">
-        <f t="shared" ref="H224:H227" si="188">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H72</f>
+        <f t="shared" ref="H224:H227" si="191">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H72</f>
         <v>37.725999999999999</v>
       </c>
       <c r="I224" s="58">
-        <f t="shared" ref="I224:I227" si="189">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I72</f>
+        <f t="shared" ref="I224:I227" si="192">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I72</f>
         <v>38.83</v>
       </c>
       <c r="J224" s="58">
-        <f t="shared" ref="J224:J227" si="190">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J72</f>
+        <f t="shared" ref="J224:J227" si="193">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J72</f>
         <v>40.468000000000004</v>
       </c>
       <c r="K224" s="58">
-        <f t="shared" ref="K224:O227" si="191">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K72</f>
+        <f t="shared" ref="K224:O227" si="194">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K72</f>
         <v>42.488</v>
       </c>
       <c r="L224" s="58">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>45.56</v>
       </c>
       <c r="M224" s="58">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>49.75</v>
       </c>
       <c r="N224" s="100">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>9.3699999999999992</v>
       </c>
       <c r="O224" s="100">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>9.2899999999999991</v>
       </c>
     </row>
@@ -10650,39 +10650,39 @@
         <v>324</v>
       </c>
       <c r="G225" s="58">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>36.921999999999997</v>
       </c>
       <c r="H225" s="58">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>37.466000000000001</v>
       </c>
       <c r="I225" s="58">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>38.450000000000003</v>
       </c>
       <c r="J225" s="58">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>39.908000000000001</v>
       </c>
       <c r="K225" s="58">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>41.704000000000001</v>
       </c>
       <c r="L225" s="58">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>44.72</v>
       </c>
       <c r="M225" s="58">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>48.45</v>
       </c>
       <c r="N225" s="100">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>8.782</v>
       </c>
       <c r="O225" s="100">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>8.83</v>
       </c>
     </row>
@@ -10691,39 +10691,39 @@
         <v>338</v>
       </c>
       <c r="G226" s="58">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>36.285000000000004</v>
       </c>
       <c r="H226" s="58">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>36.621000000000002</v>
       </c>
       <c r="I226" s="58">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>37.215000000000003</v>
       </c>
       <c r="J226" s="58">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>38.088000000000001</v>
       </c>
       <c r="K226" s="58">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>39.156000000000006</v>
       </c>
       <c r="L226" s="58">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>41.99</v>
       </c>
       <c r="M226" s="58">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N226" s="100">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>6.8710000000000004</v>
       </c>
       <c r="O226" s="100">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>7.335</v>
       </c>
     </row>
@@ -10732,39 +10732,39 @@
         <v>125</v>
       </c>
       <c r="G227" s="63">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>37.020000000000003</v>
       </c>
       <c r="H227" s="63">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>37.596000000000004</v>
       </c>
       <c r="I227" s="63">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>38.64</v>
       </c>
       <c r="J227" s="63">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>40.188000000000002</v>
       </c>
       <c r="K227" s="63">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>42.096000000000004</v>
       </c>
       <c r="L227" s="63">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>45.14</v>
       </c>
       <c r="M227" s="63">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>49.099999999999994</v>
       </c>
       <c r="N227" s="100">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>9.0760000000000005</v>
       </c>
       <c r="O227" s="100">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>9.0599999999999987</v>
       </c>
     </row>
@@ -10800,15 +10800,15 @@
         <v>46.19</v>
       </c>
       <c r="M229" s="58">
-        <f t="shared" ref="M229:O229" si="192">SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$151+M77</f>
+        <f t="shared" ref="M229:O229" si="195">SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$151+M77</f>
         <v>50.724999999999994</v>
       </c>
       <c r="N229" s="100">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>9.8109999999999999</v>
       </c>
       <c r="O229" s="100">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>9.6349999999999998</v>
       </c>
     </row>
@@ -10817,39 +10817,39 @@
         <v>123</v>
       </c>
       <c r="G230" s="58">
-        <f t="shared" ref="G230:G233" si="193">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G78</f>
+        <f t="shared" ref="G230:G233" si="196">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G78</f>
         <v>36.921999999999997</v>
       </c>
       <c r="H230" s="58">
-        <f t="shared" ref="H230:H233" si="194">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H78</f>
+        <f t="shared" ref="H230:H233" si="197">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H78</f>
         <v>37.466000000000001</v>
       </c>
       <c r="I230" s="58">
-        <f t="shared" ref="I230:I233" si="195">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I78</f>
+        <f t="shared" ref="I230:I233" si="198">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I78</f>
         <v>38.450000000000003</v>
       </c>
       <c r="J230" s="58">
-        <f t="shared" ref="J230:J233" si="196">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J78</f>
+        <f t="shared" ref="J230:J233" si="199">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J78</f>
         <v>39.908000000000001</v>
       </c>
       <c r="K230" s="58">
-        <f t="shared" ref="K230:O233" si="197">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K78</f>
+        <f t="shared" ref="K230:O233" si="200">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K78</f>
         <v>41.704000000000001</v>
       </c>
       <c r="L230" s="58">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>44.72</v>
       </c>
       <c r="M230" s="58">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>48.45</v>
       </c>
       <c r="N230" s="100">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>8.782</v>
       </c>
       <c r="O230" s="100">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>8.83</v>
       </c>
     </row>
@@ -10858,39 +10858,39 @@
         <v>325</v>
       </c>
       <c r="G231" s="58">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>36.921999999999997</v>
       </c>
       <c r="H231" s="58">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>37.466000000000001</v>
       </c>
       <c r="I231" s="58">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>38.450000000000003</v>
       </c>
       <c r="J231" s="58">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>39.908000000000001</v>
       </c>
       <c r="K231" s="58">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>41.704000000000001</v>
       </c>
       <c r="L231" s="58">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>44.72</v>
       </c>
       <c r="M231" s="58">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>48.45</v>
       </c>
       <c r="N231" s="100">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>8.782</v>
       </c>
       <c r="O231" s="100">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>8.83</v>
       </c>
     </row>
@@ -10899,39 +10899,39 @@
         <v>150</v>
       </c>
       <c r="G232" s="58">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>36.285000000000004</v>
       </c>
       <c r="H232" s="58">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>36.621000000000002</v>
       </c>
       <c r="I232" s="58">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>37.215000000000003</v>
       </c>
       <c r="J232" s="58">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>38.088000000000001</v>
       </c>
       <c r="K232" s="58">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>39.156000000000006</v>
       </c>
       <c r="L232" s="58">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>41.99</v>
       </c>
       <c r="M232" s="58">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N232" s="100">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>6.8710000000000004</v>
       </c>
       <c r="O232" s="100">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>7.335</v>
       </c>
     </row>
@@ -10940,39 +10940,39 @@
         <v>122</v>
       </c>
       <c r="G233" s="63">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>37.020000000000003</v>
       </c>
       <c r="H233" s="63">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>37.596000000000004</v>
       </c>
       <c r="I233" s="63">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>38.64</v>
       </c>
       <c r="J233" s="63">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>40.188000000000002</v>
       </c>
       <c r="K233" s="63">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>42.096000000000004</v>
       </c>
       <c r="L233" s="63">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>45.14</v>
       </c>
       <c r="M233" s="63">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>49.099999999999994</v>
       </c>
       <c r="N233" s="100">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>9.0760000000000005</v>
       </c>
       <c r="O233" s="100">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>9.0599999999999987</v>
       </c>
     </row>
@@ -11012,11 +11012,11 @@
         <v>50.8</v>
       </c>
       <c r="N235" s="100">
-        <f t="shared" ref="N235:O235" si="198">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$151+N83</f>
+        <f t="shared" ref="N235:O235" si="201">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$151+N83</f>
         <v>8.4879999999999995</v>
       </c>
       <c r="O235" s="100">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>8.6000000000000014</v>
       </c>
     </row>
@@ -11025,39 +11025,39 @@
         <v>95</v>
       </c>
       <c r="G236" s="58">
-        <f t="shared" ref="G236:G240" si="199">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G84</f>
+        <f t="shared" ref="G236:G240" si="202">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G84</f>
         <v>39.706000000000003</v>
       </c>
       <c r="H236" s="58">
-        <f t="shared" ref="H236:H240" si="200">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H84</f>
+        <f t="shared" ref="H236:H240" si="203">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H84</f>
         <v>40.506</v>
       </c>
       <c r="I236" s="58">
-        <f t="shared" ref="I236:I240" si="201">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I84</f>
+        <f t="shared" ref="I236:I240" si="204">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I84</f>
         <v>41.97</v>
       </c>
       <c r="J236" s="58">
-        <f t="shared" ref="J236:J240" si="202">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J84</f>
+        <f t="shared" ref="J236:J240" si="205">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J84</f>
         <v>44.147999999999996</v>
       </c>
       <c r="K236" s="58">
-        <f t="shared" ref="K236:K240" si="203">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K84</f>
+        <f t="shared" ref="K236:K240" si="206">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K84</f>
         <v>46.84</v>
       </c>
       <c r="L236" s="58">
-        <f t="shared" ref="L236:O240" si="204">SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$151+L84</f>
+        <f t="shared" ref="L236:O240" si="207">SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$151+L84</f>
         <v>51.08</v>
       </c>
       <c r="M236" s="58">
-        <f t="shared" ref="M236:O240" si="205">SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$151+M84</f>
+        <f t="shared" ref="M236:O237" si="208">SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$151+M84</f>
         <v>56.65</v>
       </c>
       <c r="N236" s="100">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>11.134</v>
       </c>
       <c r="O236" s="100">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>10.67</v>
       </c>
     </row>
@@ -11066,39 +11066,39 @@
         <v>326</v>
       </c>
       <c r="G237" s="58">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>38.775000000000006</v>
       </c>
       <c r="H237" s="58">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>39.271000000000001</v>
       </c>
       <c r="I237" s="58">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>40.164999999999999</v>
       </c>
       <c r="J237" s="58">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>41.488</v>
       </c>
       <c r="K237" s="58">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>43.116</v>
       </c>
       <c r="L237" s="58">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>47.09</v>
       </c>
       <c r="M237" s="58">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>50.475000000000001</v>
       </c>
       <c r="N237" s="100">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>8.3409999999999993</v>
       </c>
       <c r="O237" s="100">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>8.4849999999999994</v>
       </c>
     </row>
@@ -11107,39 +11107,39 @@
         <v>327</v>
       </c>
       <c r="G238" s="58">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>39.804000000000002</v>
       </c>
       <c r="H238" s="58">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>40.636000000000003</v>
       </c>
       <c r="I238" s="58">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>42.16</v>
       </c>
       <c r="J238" s="58">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>44.427999999999997</v>
       </c>
       <c r="K238" s="58">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>47.232000000000006</v>
       </c>
       <c r="L238" s="58">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>51.5</v>
       </c>
       <c r="M238" s="58">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>57.3</v>
       </c>
       <c r="N238" s="100">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>11.427999999999999</v>
       </c>
       <c r="O238" s="100">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>10.9</v>
       </c>
     </row>
@@ -11148,39 +11148,39 @@
         <v>151</v>
       </c>
       <c r="G239" s="58">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>38.775000000000006</v>
       </c>
       <c r="H239" s="58">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>39.271000000000001</v>
       </c>
       <c r="I239" s="58">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>40.164999999999999</v>
       </c>
       <c r="J239" s="58">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>41.488</v>
       </c>
       <c r="K239" s="58">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>43.116</v>
       </c>
       <c r="L239" s="58">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>47.09</v>
       </c>
       <c r="M239" s="58">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>50.475000000000001</v>
       </c>
       <c r="N239" s="100">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>8.3409999999999993</v>
       </c>
       <c r="O239" s="100">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>8.4849999999999994</v>
       </c>
     </row>
@@ -11189,39 +11189,39 @@
         <v>94</v>
       </c>
       <c r="G240" s="63">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>38.334000000000003</v>
       </c>
       <c r="H240" s="63">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>38.686</v>
       </c>
       <c r="I240" s="63">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>39.31</v>
       </c>
       <c r="J240" s="63">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>40.228000000000002</v>
       </c>
       <c r="K240" s="63">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>41.352000000000004</v>
       </c>
       <c r="L240" s="63">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>45.2</v>
       </c>
       <c r="M240" s="63">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>47.55</v>
       </c>
       <c r="N240" s="100">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>7.0179999999999998</v>
       </c>
       <c r="O240" s="100">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>7.4499999999999993</v>
       </c>
     </row>
@@ -11261,11 +11261,11 @@
         <v>50.8</v>
       </c>
       <c r="N242" s="100">
-        <f t="shared" ref="N242:O242" si="206">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$151+N90</f>
+        <f t="shared" ref="N242:O242" si="209">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$151+N90</f>
         <v>8.4879999999999995</v>
       </c>
       <c r="O242" s="100">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>8.6000000000000014</v>
       </c>
     </row>
@@ -11274,7 +11274,7 @@
         <v>92</v>
       </c>
       <c r="G243" s="58">
-        <f t="shared" ref="G243:G247" si="207">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G91</f>
+        <f t="shared" ref="G243:G247" si="210">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G91</f>
         <v>39.706000000000003</v>
       </c>
       <c r="H243" s="58">
@@ -11282,31 +11282,31 @@
         <v>40.506</v>
       </c>
       <c r="I243" s="58">
-        <f t="shared" ref="I243:I247" si="208">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I91</f>
+        <f t="shared" ref="I243:I247" si="211">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I91</f>
         <v>41.97</v>
       </c>
       <c r="J243" s="58">
-        <f t="shared" ref="J243:J247" si="209">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J91</f>
+        <f t="shared" ref="J243:J247" si="212">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J91</f>
         <v>44.147999999999996</v>
       </c>
       <c r="K243" s="58">
-        <f t="shared" ref="K243:O247" si="210">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K91</f>
+        <f t="shared" ref="K243:O247" si="213">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K91</f>
         <v>46.84</v>
       </c>
       <c r="L243" s="58">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>51.08</v>
       </c>
       <c r="M243" s="58">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>56.65</v>
       </c>
       <c r="N243" s="100">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>11.134</v>
       </c>
       <c r="O243" s="100">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>10.67</v>
       </c>
     </row>
@@ -11315,39 +11315,39 @@
         <v>328</v>
       </c>
       <c r="G244" s="58">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>38.775000000000006</v>
       </c>
       <c r="H244" s="58">
-        <f t="shared" ref="H244:H247" si="211">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H92</f>
+        <f t="shared" ref="H244:H247" si="214">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H92</f>
         <v>39.271000000000001</v>
       </c>
       <c r="I244" s="58">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>40.164999999999999</v>
       </c>
       <c r="J244" s="58">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>41.488</v>
       </c>
       <c r="K244" s="58">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>43.116</v>
       </c>
       <c r="L244" s="58">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>47.09</v>
       </c>
       <c r="M244" s="58">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>50.475000000000001</v>
       </c>
       <c r="N244" s="100">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>8.3409999999999993</v>
       </c>
       <c r="O244" s="100">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>8.4849999999999994</v>
       </c>
     </row>
@@ -11356,39 +11356,39 @@
         <v>329</v>
       </c>
       <c r="G245" s="58">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>39.706000000000003</v>
       </c>
       <c r="H245" s="58">
+        <f t="shared" si="214"/>
+        <v>40.506</v>
+      </c>
+      <c r="I245" s="58">
         <f t="shared" si="211"/>
-        <v>40.506</v>
-      </c>
-      <c r="I245" s="58">
-        <f t="shared" si="208"/>
         <v>41.97</v>
       </c>
       <c r="J245" s="58">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>44.147999999999996</v>
       </c>
       <c r="K245" s="58">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>46.84</v>
       </c>
       <c r="L245" s="58">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>51.08</v>
       </c>
       <c r="M245" s="58">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>56.65</v>
       </c>
       <c r="N245" s="100">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>11.134</v>
       </c>
       <c r="O245" s="100">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>10.67</v>
       </c>
     </row>
@@ -11397,39 +11397,39 @@
         <v>151</v>
       </c>
       <c r="G246" s="58">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>38.775000000000006</v>
       </c>
       <c r="H246" s="58">
+        <f t="shared" si="214"/>
+        <v>39.271000000000001</v>
+      </c>
+      <c r="I246" s="58">
         <f t="shared" si="211"/>
-        <v>39.271000000000001</v>
-      </c>
-      <c r="I246" s="58">
-        <f t="shared" si="208"/>
         <v>40.164999999999999</v>
       </c>
       <c r="J246" s="58">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>41.488</v>
       </c>
       <c r="K246" s="58">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>43.116</v>
       </c>
       <c r="L246" s="58">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>47.09</v>
       </c>
       <c r="M246" s="58">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>50.475000000000001</v>
       </c>
       <c r="N246" s="100">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>8.3409999999999993</v>
       </c>
       <c r="O246" s="100">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>8.4849999999999994</v>
       </c>
     </row>
@@ -11438,39 +11438,39 @@
         <v>91</v>
       </c>
       <c r="G247" s="63">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>38.334000000000003</v>
       </c>
       <c r="H247" s="63">
+        <f t="shared" si="214"/>
+        <v>38.686</v>
+      </c>
+      <c r="I247" s="63">
         <f t="shared" si="211"/>
-        <v>38.686</v>
-      </c>
-      <c r="I247" s="63">
-        <f t="shared" si="208"/>
         <v>39.31</v>
       </c>
       <c r="J247" s="63">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>40.228000000000002</v>
       </c>
       <c r="K247" s="63">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>41.352000000000004</v>
       </c>
       <c r="L247" s="63">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>45.2</v>
       </c>
       <c r="M247" s="63">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>47.55</v>
       </c>
       <c r="N247" s="100">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>7.0179999999999998</v>
       </c>
       <c r="O247" s="100">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>7.4499999999999993</v>
       </c>
     </row>
@@ -11510,11 +11510,11 @@
         <v>50.724999999999994</v>
       </c>
       <c r="N249" s="100">
-        <f t="shared" ref="N249:O249" si="212">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$151+N97</f>
+        <f t="shared" ref="N249:O249" si="215">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$151+N97</f>
         <v>9.8109999999999999</v>
       </c>
       <c r="O249" s="100">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>9.6349999999999998</v>
       </c>
     </row>
@@ -11523,39 +11523,39 @@
         <v>120</v>
       </c>
       <c r="G250" s="58">
-        <f t="shared" ref="G250:G253" si="213">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G98</f>
+        <f t="shared" ref="G250:G253" si="216">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G98</f>
         <v>35.332999999999998</v>
       </c>
       <c r="H250" s="58">
-        <f t="shared" ref="H250:H253" si="214">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H98</f>
+        <f t="shared" ref="H250:H253" si="217">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H98</f>
         <v>35.924999999999997</v>
       </c>
       <c r="I250" s="58">
-        <f t="shared" ref="I250:I253" si="215">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I98</f>
+        <f t="shared" ref="I250:I253" si="218">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I98</f>
         <v>36.989999999999995</v>
       </c>
       <c r="J250" s="58">
-        <f t="shared" ref="J250:J253" si="216">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J98</f>
+        <f t="shared" ref="J250:J253" si="219">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J98</f>
         <v>38.564999999999998</v>
       </c>
       <c r="K250" s="58">
-        <f t="shared" ref="K250:O253" si="217">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K98</f>
+        <f t="shared" ref="K250:O253" si="220">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K98</f>
         <v>41.704000000000001</v>
       </c>
       <c r="L250" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>44.72</v>
       </c>
       <c r="M250" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>48.45</v>
       </c>
       <c r="N250" s="100">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>8.782</v>
       </c>
       <c r="O250" s="100">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>8.83</v>
       </c>
     </row>
@@ -11564,39 +11564,39 @@
         <v>330</v>
       </c>
       <c r="G251" s="58">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>35.332999999999998</v>
       </c>
       <c r="H251" s="58">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>35.924999999999997</v>
       </c>
       <c r="I251" s="58">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>36.989999999999995</v>
       </c>
       <c r="J251" s="58">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>38.564999999999998</v>
       </c>
       <c r="K251" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>41.704000000000001</v>
       </c>
       <c r="L251" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>44.72</v>
       </c>
       <c r="M251" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>48.45</v>
       </c>
       <c r="N251" s="100">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>8.782</v>
       </c>
       <c r="O251" s="100">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>8.83</v>
       </c>
     </row>
@@ -11605,39 +11605,39 @@
         <v>152</v>
       </c>
       <c r="G252" s="58">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>34.696000000000005</v>
       </c>
       <c r="H252" s="58">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>35.08</v>
       </c>
       <c r="I252" s="58">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>35.754999999999995</v>
       </c>
       <c r="J252" s="58">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>36.744999999999997</v>
       </c>
       <c r="K252" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>39.156000000000006</v>
       </c>
       <c r="L252" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>41.99</v>
       </c>
       <c r="M252" s="58">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N252" s="100">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>6.8710000000000004</v>
       </c>
       <c r="O252" s="100">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>7.335</v>
       </c>
     </row>
@@ -11646,39 +11646,39 @@
         <v>119</v>
       </c>
       <c r="G253" s="63">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>35.431000000000004</v>
       </c>
       <c r="H253" s="63">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>36.055</v>
       </c>
       <c r="I253" s="63">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>37.18</v>
       </c>
       <c r="J253" s="63">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>38.844999999999999</v>
       </c>
       <c r="K253" s="63">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>42.096000000000004</v>
       </c>
       <c r="L253" s="63">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>45.14</v>
       </c>
       <c r="M253" s="63">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>49.099999999999994</v>
       </c>
       <c r="N253" s="100">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>9.0760000000000005</v>
       </c>
       <c r="O253" s="100">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>9.0599999999999987</v>
       </c>
     </row>
@@ -11718,11 +11718,11 @@
         <v>50.95</v>
       </c>
       <c r="N255" s="100">
-        <f t="shared" ref="N255:O255" si="218">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N103</f>
+        <f t="shared" ref="N255:O255" si="221">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N103</f>
         <v>10.698</v>
       </c>
       <c r="O255" s="100">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>10.434999999999999</v>
       </c>
     </row>
@@ -11731,27 +11731,27 @@
         <v>117</v>
       </c>
       <c r="G256" s="58">
-        <f t="shared" ref="G256:G259" si="219">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G104</f>
+        <f t="shared" ref="G256:G259" si="222">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G104</f>
         <v>35.332999999999998</v>
       </c>
       <c r="H256" s="58">
-        <f t="shared" ref="H256:H259" si="220">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H104</f>
+        <f t="shared" ref="H256:H259" si="223">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H104</f>
         <v>35.924999999999997</v>
       </c>
       <c r="I256" s="58">
-        <f t="shared" ref="I256:I259" si="221">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I104</f>
+        <f t="shared" ref="I256:I259" si="224">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I104</f>
         <v>36.989999999999995</v>
       </c>
       <c r="J256" s="58">
-        <f t="shared" ref="J256:J259" si="222">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J104</f>
+        <f t="shared" ref="J256:J259" si="225">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J104</f>
         <v>38.564999999999998</v>
       </c>
       <c r="K256" s="58">
-        <f t="shared" ref="K256:L259" si="223">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K104</f>
+        <f t="shared" ref="K256:L259" si="226">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K104</f>
         <v>40.501999999999995</v>
       </c>
       <c r="L256" s="58">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>44.645000000000003</v>
       </c>
       <c r="M256" s="58">
@@ -11759,11 +11759,11 @@
         <v>48.674999999999997</v>
       </c>
       <c r="N256" s="100">
-        <f t="shared" ref="N256:O256" si="224">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N104</f>
+        <f t="shared" ref="N256:O256" si="227">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N104</f>
         <v>9.6690000000000005</v>
       </c>
       <c r="O256" s="100">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>9.629999999999999</v>
       </c>
     </row>
@@ -11772,27 +11772,27 @@
         <v>331</v>
       </c>
       <c r="G257" s="58">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>35.332999999999998</v>
       </c>
       <c r="H257" s="58">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>35.924999999999997</v>
       </c>
       <c r="I257" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>36.989999999999995</v>
       </c>
       <c r="J257" s="58">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>38.564999999999998</v>
       </c>
       <c r="K257" s="58">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>40.501999999999995</v>
       </c>
       <c r="L257" s="58">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>44.645000000000003</v>
       </c>
       <c r="M257" s="58">
@@ -11800,11 +11800,11 @@
         <v>48.674999999999997</v>
       </c>
       <c r="N257" s="100">
-        <f t="shared" ref="N257:O257" si="225">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N105</f>
+        <f t="shared" ref="N257:O257" si="228">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N105</f>
         <v>9.6690000000000005</v>
       </c>
       <c r="O257" s="100">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>9.629999999999999</v>
       </c>
     </row>
@@ -11813,27 +11813,27 @@
         <v>153</v>
       </c>
       <c r="G258" s="58">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>34.696000000000005</v>
       </c>
       <c r="H258" s="58">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>35.08</v>
       </c>
       <c r="I258" s="58">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>35.754999999999995</v>
       </c>
       <c r="J258" s="58">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>36.744999999999997</v>
       </c>
       <c r="K258" s="58">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>37.953999999999994</v>
       </c>
       <c r="L258" s="58">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>41.915000000000006</v>
       </c>
       <c r="M258" s="58">
@@ -11841,11 +11841,11 @@
         <v>44.45</v>
       </c>
       <c r="N258" s="100">
-        <f t="shared" ref="N258:O258" si="226">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N106</f>
+        <f t="shared" ref="N258:O258" si="229">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N106</f>
         <v>7.7580000000000009</v>
       </c>
       <c r="O258" s="100">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>8.1349999999999998</v>
       </c>
     </row>
@@ -11854,27 +11854,27 @@
         <v>90</v>
       </c>
       <c r="G259" s="63">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>35.431000000000004</v>
       </c>
       <c r="H259" s="63">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>36.055</v>
       </c>
       <c r="I259" s="63">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>37.18</v>
       </c>
       <c r="J259" s="63">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>38.844999999999999</v>
       </c>
       <c r="K259" s="63">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>40.893999999999998</v>
       </c>
       <c r="L259" s="63">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>45.064999999999998</v>
       </c>
       <c r="M259" s="63">
@@ -11882,11 +11882,11 @@
         <v>49.325000000000003</v>
       </c>
       <c r="N259" s="100">
-        <f t="shared" ref="N259:O259" si="227">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N107</f>
+        <f t="shared" ref="N259:O259" si="230">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N107</f>
         <v>9.963000000000001</v>
       </c>
       <c r="O259" s="100">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>9.86</v>
       </c>
     </row>
@@ -11926,11 +11926,11 @@
         <v>51.025000000000006</v>
       </c>
       <c r="N261" s="100">
-        <f t="shared" ref="N261:O261" si="228">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N109</f>
+        <f t="shared" ref="N261:O262" si="231">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N109</f>
         <v>9.375</v>
       </c>
       <c r="O261" s="100">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>9.4</v>
       </c>
     </row>
@@ -11939,39 +11939,39 @@
         <v>88</v>
       </c>
       <c r="G262" s="58">
-        <f t="shared" ref="G262:G266" si="229">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G110</f>
+        <f t="shared" ref="G262:G266" si="232">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G110</f>
         <v>38.117000000000004</v>
       </c>
       <c r="H262" s="58">
-        <f t="shared" ref="H262:H266" si="230">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H110</f>
+        <f t="shared" ref="H262:H266" si="233">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H110</f>
         <v>38.964999999999996</v>
       </c>
       <c r="I262" s="58">
-        <f t="shared" ref="I262:I266" si="231">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I110</f>
+        <f t="shared" ref="I262:I266" si="234">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I110</f>
         <v>40.51</v>
       </c>
       <c r="J262" s="58">
-        <f t="shared" ref="J262:J266" si="232">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J110</f>
+        <f t="shared" ref="J262:J266" si="235">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J110</f>
         <v>42.805</v>
       </c>
       <c r="K262" s="58">
-        <f t="shared" ref="K262:O266" si="233">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K110</f>
+        <f t="shared" ref="K262:O266" si="236">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K110</f>
         <v>45.637999999999998</v>
       </c>
       <c r="L262" s="58">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>51.005000000000003</v>
       </c>
       <c r="M262" s="58">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>56.875</v>
       </c>
       <c r="N262" s="100">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>12.021000000000001</v>
       </c>
       <c r="O262" s="100">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>11.469999999999999</v>
       </c>
     </row>
@@ -11980,23 +11980,23 @@
         <v>332</v>
       </c>
       <c r="G263" s="58">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>37.186000000000007</v>
       </c>
       <c r="H263" s="58">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>37.729999999999997</v>
       </c>
       <c r="I263" s="58">
-        <f t="shared" si="231"/>
+        <f t="shared" si="234"/>
         <v>38.704999999999998</v>
       </c>
       <c r="J263" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>40.144999999999996</v>
       </c>
       <c r="K263" s="58">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>41.914000000000001</v>
       </c>
       <c r="L263" s="58">
@@ -12008,11 +12008,11 @@
         <v>50.7</v>
       </c>
       <c r="N263" s="100">
-        <f t="shared" ref="N263:O263" si="234">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N111</f>
+        <f t="shared" ref="N263:O263" si="237">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N111</f>
         <v>9.2279999999999998</v>
       </c>
       <c r="O263" s="100">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>9.2850000000000001</v>
       </c>
     </row>
@@ -12021,39 +12021,39 @@
         <v>335</v>
       </c>
       <c r="G264" s="58">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>38.215000000000003</v>
       </c>
       <c r="H264" s="58">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>39.094999999999999</v>
       </c>
       <c r="I264" s="58">
-        <f t="shared" si="231"/>
+        <f t="shared" si="234"/>
         <v>40.700000000000003</v>
       </c>
       <c r="J264" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>43.085000000000001</v>
       </c>
       <c r="K264" s="58">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>46.03</v>
       </c>
       <c r="L264" s="58">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>51.425000000000004</v>
       </c>
       <c r="M264" s="58">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>57.525000000000006</v>
       </c>
       <c r="N264" s="100">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>12.315</v>
       </c>
       <c r="O264" s="100">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>11.7</v>
       </c>
     </row>
@@ -12062,27 +12062,27 @@
         <v>154</v>
       </c>
       <c r="G265" s="58">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>37.186000000000007</v>
       </c>
       <c r="H265" s="58">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>37.729999999999997</v>
       </c>
       <c r="I265" s="58">
-        <f t="shared" si="231"/>
+        <f t="shared" si="234"/>
         <v>38.704999999999998</v>
       </c>
       <c r="J265" s="58">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>40.144999999999996</v>
       </c>
       <c r="K265" s="58">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>41.914000000000001</v>
       </c>
       <c r="L265" s="58">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>47.015000000000001</v>
       </c>
       <c r="M265" s="58">
@@ -12090,11 +12090,11 @@
         <v>50.7</v>
       </c>
       <c r="N265" s="100">
-        <f t="shared" ref="N265:O265" si="235">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N113</f>
+        <f t="shared" ref="N265:O265" si="238">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N113</f>
         <v>9.2279999999999998</v>
       </c>
       <c r="O265" s="100">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>9.2850000000000001</v>
       </c>
     </row>
@@ -12103,23 +12103,23 @@
         <v>87</v>
       </c>
       <c r="G266" s="63">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>36.745000000000005</v>
       </c>
       <c r="H266" s="63">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>37.144999999999996</v>
       </c>
       <c r="I266" s="63">
-        <f t="shared" si="231"/>
+        <f t="shared" si="234"/>
         <v>37.85</v>
       </c>
       <c r="J266" s="63">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>38.884999999999998</v>
       </c>
       <c r="K266" s="63">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>40.15</v>
       </c>
       <c r="L266" s="63">
@@ -12131,11 +12131,11 @@
         <v>47.775000000000006</v>
       </c>
       <c r="N266" s="100">
-        <f t="shared" ref="N266:O266" si="236">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N114</f>
+        <f t="shared" ref="N266:O266" si="239">SUM(N$161:N$162)+N$159+N$158+N$156+N$155+N$153+N$152+N$150+N$149+N$148+N114</f>
         <v>7.9050000000000002</v>
       </c>
       <c r="O266" s="100">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>8.25</v>
       </c>
     </row>
@@ -12163,23 +12163,23 @@
         <v>40.284999999999997</v>
       </c>
       <c r="K268" s="58">
-        <f t="shared" ref="K268:O273" si="237">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K116</f>
+        <f t="shared" ref="K268:O273" si="240">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K116</f>
         <v>42.11</v>
       </c>
       <c r="L268" s="58">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>47.225000000000009</v>
       </c>
       <c r="M268" s="58">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>51.025000000000006</v>
       </c>
       <c r="N268" s="100">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>9.375</v>
       </c>
       <c r="O268" s="100">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>9.4</v>
       </c>
     </row>
@@ -12188,39 +12188,39 @@
         <v>85</v>
       </c>
       <c r="G269" s="58">
-        <f t="shared" ref="G269:G273" si="238">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G117</f>
+        <f t="shared" ref="G269:G273" si="241">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G117</f>
         <v>38.117000000000004</v>
       </c>
       <c r="H269" s="58">
-        <f t="shared" ref="H269:H273" si="239">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H117</f>
+        <f t="shared" ref="H269:H273" si="242">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H117</f>
         <v>38.964999999999996</v>
       </c>
       <c r="I269" s="58">
-        <f t="shared" ref="I269:I273" si="240">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I117</f>
+        <f t="shared" ref="I269:I273" si="243">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I117</f>
         <v>40.51</v>
       </c>
       <c r="J269" s="58">
-        <f t="shared" ref="J269:J273" si="241">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J117</f>
+        <f t="shared" ref="J269:J273" si="244">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J117</f>
         <v>42.805</v>
       </c>
       <c r="K269" s="58">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>45.637999999999998</v>
       </c>
       <c r="L269" s="58">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>51.005000000000003</v>
       </c>
       <c r="M269" s="58">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>56.875</v>
       </c>
       <c r="N269" s="100">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>12.021000000000001</v>
       </c>
       <c r="O269" s="100">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>11.469999999999999</v>
       </c>
     </row>
@@ -12229,39 +12229,39 @@
         <v>333</v>
       </c>
       <c r="G270" s="58">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>37.186000000000007</v>
       </c>
       <c r="H270" s="58">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>37.729999999999997</v>
       </c>
       <c r="I270" s="58">
+        <f t="shared" si="243"/>
+        <v>38.704999999999998</v>
+      </c>
+      <c r="J270" s="58">
+        <f t="shared" si="244"/>
+        <v>40.144999999999996</v>
+      </c>
+      <c r="K270" s="58">
         <f t="shared" si="240"/>
-        <v>38.704999999999998</v>
-      </c>
-      <c r="J270" s="58">
-        <f t="shared" si="241"/>
-        <v>40.144999999999996</v>
-      </c>
-      <c r="K270" s="58">
-        <f t="shared" si="237"/>
         <v>41.914000000000001</v>
       </c>
       <c r="L270" s="58">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>47.015000000000001</v>
       </c>
       <c r="M270" s="58">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>50.7</v>
       </c>
       <c r="N270" s="100">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>9.2279999999999998</v>
       </c>
       <c r="O270" s="100">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>9.2850000000000001</v>
       </c>
     </row>
@@ -12270,39 +12270,39 @@
         <v>334</v>
       </c>
       <c r="G271" s="58">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>38.215000000000003</v>
       </c>
       <c r="H271" s="58">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>39.094999999999999</v>
       </c>
       <c r="I271" s="58">
+        <f t="shared" si="243"/>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="J271" s="58">
+        <f t="shared" si="244"/>
+        <v>43.085000000000001</v>
+      </c>
+      <c r="K271" s="58">
         <f t="shared" si="240"/>
-        <v>40.700000000000003</v>
-      </c>
-      <c r="J271" s="58">
-        <f t="shared" si="241"/>
-        <v>43.085000000000001</v>
-      </c>
-      <c r="K271" s="58">
-        <f t="shared" si="237"/>
         <v>46.03</v>
       </c>
       <c r="L271" s="58">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>51.425000000000004</v>
       </c>
       <c r="M271" s="58">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>57.525000000000006</v>
       </c>
       <c r="N271" s="100">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>12.315</v>
       </c>
       <c r="O271" s="100">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>11.7</v>
       </c>
     </row>
@@ -12311,39 +12311,39 @@
         <v>154</v>
       </c>
       <c r="G272" s="58">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>37.186000000000007</v>
       </c>
       <c r="H272" s="58">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>37.729999999999997</v>
       </c>
       <c r="I272" s="58">
+        <f t="shared" si="243"/>
+        <v>38.704999999999998</v>
+      </c>
+      <c r="J272" s="58">
+        <f t="shared" si="244"/>
+        <v>40.144999999999996</v>
+      </c>
+      <c r="K272" s="58">
         <f t="shared" si="240"/>
-        <v>38.704999999999998</v>
-      </c>
-      <c r="J272" s="58">
-        <f t="shared" si="241"/>
-        <v>40.144999999999996</v>
-      </c>
-      <c r="K272" s="58">
-        <f t="shared" si="237"/>
         <v>41.914000000000001</v>
       </c>
       <c r="L272" s="58">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>47.015000000000001</v>
       </c>
       <c r="M272" s="58">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>50.7</v>
       </c>
       <c r="N272" s="100">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>9.2279999999999998</v>
       </c>
       <c r="O272" s="100">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>9.2850000000000001</v>
       </c>
     </row>
@@ -12352,39 +12352,39 @@
         <v>84</v>
       </c>
       <c r="G273" s="63">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>36.745000000000005</v>
       </c>
       <c r="H273" s="63">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>37.144999999999996</v>
       </c>
       <c r="I273" s="63">
+        <f t="shared" si="243"/>
+        <v>37.85</v>
+      </c>
+      <c r="J273" s="63">
+        <f t="shared" si="244"/>
+        <v>38.884999999999998</v>
+      </c>
+      <c r="K273" s="63">
         <f t="shared" si="240"/>
-        <v>37.85</v>
-      </c>
-      <c r="J273" s="63">
-        <f t="shared" si="241"/>
-        <v>38.884999999999998</v>
-      </c>
-      <c r="K273" s="63">
-        <f t="shared" si="237"/>
         <v>40.15</v>
       </c>
       <c r="L273" s="63">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>45.125</v>
       </c>
       <c r="M273" s="63">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>47.775000000000006</v>
       </c>
       <c r="N273" s="100">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>7.9050000000000002</v>
       </c>
       <c r="O273" s="100">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>8.25</v>
       </c>
     </row>
@@ -12405,11 +12405,11 @@
         <v>34.161999999999999</v>
       </c>
       <c r="I276" s="78">
-        <f t="shared" ref="I276:J276" si="242">MIN(I167:I273)</f>
+        <f t="shared" ref="I276:J276" si="245">MIN(I167:I273)</f>
         <v>34.674999999999997</v>
       </c>
       <c r="J276" s="78">
-        <f t="shared" si="242"/>
+        <f t="shared" si="245"/>
         <v>35.430999999999997</v>
       </c>
       <c r="K276" s="78">
@@ -12442,15 +12442,15 @@
         <v>43.888999999999996</v>
       </c>
       <c r="H277" s="78">
-        <f t="shared" ref="H277:J277" si="243">MAX(H167:H273)</f>
+        <f t="shared" ref="H277:J277" si="246">MAX(H167:H273)</f>
         <v>44.809000000000005</v>
       </c>
       <c r="I277" s="78">
-        <f t="shared" si="243"/>
+        <f t="shared" si="246"/>
         <v>45.03</v>
       </c>
       <c r="J277" s="78">
-        <f t="shared" si="243"/>
+        <f t="shared" si="246"/>
         <v>46.137</v>
       </c>
       <c r="K277" s="78">
@@ -12538,8 +12538,8 @@
         <v>40</v>
       </c>
       <c r="I282" s="102">
-        <f>G282-H282</f>
-        <v>-1.9350000000000023</v>
+        <f>H282-G282</f>
+        <v>1.9350000000000023</v>
       </c>
     </row>
     <row r="283" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/6-1/ITSIT/Trabajo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="14_{9F4157DC-F50C-4A01-87BD-49BE01D9B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE77D37A-44EC-474A-ADD5-BF697E65C8EA}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="14_{9F4157DC-F50C-4A01-87BD-49BE01D9B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5D279DC-60F2-4BD3-9BBD-156AB107B084}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="341">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -1056,6 +1056,12 @@
   </si>
   <si>
     <t>Service room apartment up AB floor4</t>
+  </si>
+  <si>
+    <t>Planicity of the distribution network (Best outlet)</t>
+  </si>
+  <si>
+    <t>Planicity of the dispersion + interior network (Best outlet)</t>
   </si>
 </sst>
 </file>
@@ -2580,6 +2586,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2877,24 +2887,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O314"/>
+  <dimension ref="A1:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O262" sqref="O262"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2926,7 +2936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2935,13 +2945,13 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
@@ -2976,7 +2986,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3011,7 +3021,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3046,7 +3056,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -3081,8 +3091,8 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
@@ -3093,7 +3103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -3127,7 +3137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>71</v>
       </c>
@@ -3161,7 +3171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
@@ -3193,7 +3203,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>62</v>
       </c>
@@ -3225,16 +3235,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
         <v>58</v>
       </c>
@@ -3266,7 +3276,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="54" t="s">
         <v>143</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
         <v>142</v>
       </c>
@@ -3357,7 +3367,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
         <v>141</v>
       </c>
@@ -3401,7 +3411,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
         <v>144</v>
       </c>
@@ -3445,7 +3455,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>140</v>
       </c>
@@ -3489,12 +3499,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="N24" s="91"/>
       <c r="O24" s="91"/>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="54" t="s">
         <v>139</v>
       </c>
@@ -3541,7 +3551,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
         <v>138</v>
       </c>
@@ -3585,7 +3595,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="55" t="s">
         <v>137</v>
       </c>
@@ -3629,7 +3639,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
         <v>336</v>
       </c>
@@ -3673,7 +3683,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56" t="s">
         <v>136</v>
       </c>
@@ -3717,12 +3727,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="52"/>
       <c r="N30" s="91"/>
       <c r="O30" s="91"/>
     </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="54" t="s">
         <v>116</v>
       </c>
@@ -3769,7 +3779,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
         <v>115</v>
       </c>
@@ -3813,7 +3823,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="55" t="s">
         <v>114</v>
       </c>
@@ -3858,7 +3868,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55" t="s">
         <v>113</v>
       </c>
@@ -3902,7 +3912,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="55" t="s">
         <v>337</v>
       </c>
@@ -3946,7 +3956,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56" t="s">
         <v>112</v>
       </c>
@@ -3990,12 +4000,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="52"/>
       <c r="N37" s="91"/>
       <c r="O37" s="91"/>
     </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="54" t="s">
         <v>111</v>
       </c>
@@ -4042,7 +4052,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="55" t="s">
         <v>110</v>
       </c>
@@ -4086,7 +4096,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="55" t="s">
         <v>109</v>
       </c>
@@ -4130,7 +4140,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55" t="s">
         <v>108</v>
       </c>
@@ -4174,7 +4184,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="55" t="s">
         <v>337</v>
       </c>
@@ -4218,7 +4228,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56" t="s">
         <v>107</v>
       </c>
@@ -4262,12 +4272,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="52"/>
       <c r="N44" s="91"/>
       <c r="O44" s="91"/>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="54" t="s">
         <v>135</v>
       </c>
@@ -4314,7 +4324,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="55" t="s">
         <v>134</v>
       </c>
@@ -4358,7 +4368,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="55" t="s">
         <v>133</v>
       </c>
@@ -4402,7 +4412,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="55" t="s">
         <v>147</v>
       </c>
@@ -4446,7 +4456,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="56" t="s">
         <v>132</v>
       </c>
@@ -4490,12 +4500,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="52"/>
       <c r="N50" s="91"/>
       <c r="O50" s="91"/>
     </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="54" t="s">
         <v>131</v>
       </c>
@@ -4542,7 +4552,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="55" t="s">
         <v>130</v>
       </c>
@@ -4586,7 +4596,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="55" t="s">
         <v>129</v>
       </c>
@@ -4630,7 +4640,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="55" t="s">
         <v>148</v>
       </c>
@@ -4674,7 +4684,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="56" t="s">
         <v>128</v>
       </c>
@@ -4718,12 +4728,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="52"/>
       <c r="N56" s="91"/>
       <c r="O56" s="91"/>
     </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="54" t="s">
         <v>106</v>
       </c>
@@ -4770,7 +4780,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="55" t="s">
         <v>105</v>
       </c>
@@ -4814,7 +4824,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="55" t="s">
         <v>104</v>
       </c>
@@ -4858,7 +4868,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="55" t="s">
         <v>103</v>
       </c>
@@ -4902,7 +4912,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="55" t="s">
         <v>149</v>
       </c>
@@ -4946,7 +4956,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="56" t="s">
         <v>102</v>
       </c>
@@ -4990,12 +5000,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="52"/>
       <c r="N63" s="91"/>
       <c r="O63" s="91"/>
     </row>
-    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="54" t="s">
         <v>101</v>
       </c>
@@ -5042,7 +5052,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="55" t="s">
         <v>100</v>
       </c>
@@ -5086,7 +5096,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55" t="s">
         <v>99</v>
       </c>
@@ -5130,7 +5140,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="55" t="s">
         <v>98</v>
       </c>
@@ -5174,7 +5184,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="55" t="s">
         <v>337</v>
       </c>
@@ -5218,7 +5228,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="56" t="s">
         <v>97</v>
       </c>
@@ -5262,12 +5272,12 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="52"/>
       <c r="N70" s="91"/>
       <c r="O70" s="91"/>
     </row>
-    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="54" t="s">
         <v>127</v>
       </c>
@@ -5314,7 +5324,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="55" t="s">
         <v>126</v>
       </c>
@@ -5358,7 +5368,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="55" t="s">
         <v>324</v>
       </c>
@@ -5402,7 +5412,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="55" t="s">
         <v>338</v>
       </c>
@@ -5446,7 +5456,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="56" t="s">
         <v>125</v>
       </c>
@@ -5490,12 +5500,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="52"/>
       <c r="N76" s="91"/>
       <c r="O76" s="91"/>
     </row>
-    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="54" t="s">
         <v>124</v>
       </c>
@@ -5542,7 +5552,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="55" t="s">
         <v>123</v>
       </c>
@@ -5586,7 +5596,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55" t="s">
         <v>325</v>
       </c>
@@ -5630,7 +5640,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="55" t="s">
         <v>150</v>
       </c>
@@ -5674,7 +5684,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="56" t="s">
         <v>122</v>
       </c>
@@ -5718,12 +5728,12 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="52"/>
       <c r="N82" s="91"/>
       <c r="O82" s="91"/>
     </row>
-    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="54" t="s">
         <v>96</v>
       </c>
@@ -5770,7 +5780,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="55" t="s">
         <v>95</v>
       </c>
@@ -5814,7 +5824,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="55" t="s">
         <v>326</v>
       </c>
@@ -5862,7 +5872,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="55" t="s">
         <v>327</v>
       </c>
@@ -5910,7 +5920,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="55" t="s">
         <v>151</v>
       </c>
@@ -5958,7 +5968,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="56" t="s">
         <v>94</v>
       </c>
@@ -6006,7 +6016,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="52"/>
       <c r="B89" s="52"/>
       <c r="C89" s="52"/>
@@ -6022,7 +6032,7 @@
       <c r="N89" s="91"/>
       <c r="O89" s="91"/>
     </row>
-    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="54" t="s">
         <v>93</v>
       </c>
@@ -6072,7 +6082,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="55" t="s">
         <v>92</v>
       </c>
@@ -6120,7 +6130,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="55" t="s">
         <v>328</v>
       </c>
@@ -6164,7 +6174,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="55" t="s">
         <v>329</v>
       </c>
@@ -6208,7 +6218,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="55" t="s">
         <v>151</v>
       </c>
@@ -6252,7 +6262,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="56" t="s">
         <v>91</v>
       </c>
@@ -6296,11 +6306,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N96" s="92"/>
       <c r="O96" s="92"/>
     </row>
-    <row r="97" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="54" t="s">
         <v>121</v>
       </c>
@@ -6347,7 +6357,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55" t="s">
         <v>120</v>
       </c>
@@ -6391,7 +6401,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="55" t="s">
         <v>330</v>
       </c>
@@ -6435,7 +6445,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="55" t="s">
         <v>152</v>
       </c>
@@ -6479,7 +6489,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="56" t="s">
         <v>119</v>
       </c>
@@ -6523,11 +6533,11 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N102" s="92"/>
       <c r="O102" s="92"/>
     </row>
-    <row r="103" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="54" t="s">
         <v>118</v>
       </c>
@@ -6574,7 +6584,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="55" t="s">
         <v>117</v>
       </c>
@@ -6618,7 +6628,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="55" t="s">
         <v>331</v>
       </c>
@@ -6662,7 +6672,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="55" t="s">
         <v>153</v>
       </c>
@@ -6706,7 +6716,7 @@
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="56" t="s">
         <v>90</v>
       </c>
@@ -6750,11 +6760,11 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N108" s="92"/>
       <c r="O108" s="92"/>
     </row>
-    <row r="109" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="54" t="s">
         <v>89</v>
       </c>
@@ -6801,7 +6811,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="55" t="s">
         <v>88</v>
       </c>
@@ -6845,7 +6855,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="55" t="s">
         <v>332</v>
       </c>
@@ -6889,7 +6899,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="55" t="s">
         <v>335</v>
       </c>
@@ -6933,7 +6943,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="55" t="s">
         <v>154</v>
       </c>
@@ -6977,7 +6987,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="56" t="s">
         <v>87</v>
       </c>
@@ -7021,11 +7031,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="115" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N115" s="92"/>
       <c r="O115" s="92"/>
     </row>
-    <row r="116" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="54" t="s">
         <v>86</v>
       </c>
@@ -7072,7 +7082,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="117" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="55" t="s">
         <v>85</v>
       </c>
@@ -7116,7 +7126,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="55" t="s">
         <v>333</v>
       </c>
@@ -7160,7 +7170,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="55" t="s">
         <v>334</v>
       </c>
@@ -7204,7 +7214,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="55" t="s">
         <v>154</v>
       </c>
@@ -7248,7 +7258,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="56" t="s">
         <v>84</v>
       </c>
@@ -7292,11 +7302,11 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N122" s="92"/>
       <c r="O122" s="92"/>
     </row>
-    <row r="123" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="54" t="s">
         <v>83</v>
       </c>
@@ -7343,7 +7353,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="55" t="s">
         <v>82</v>
       </c>
@@ -7390,7 +7400,7 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="56" t="s">
         <v>81</v>
       </c>
@@ -7435,7 +7445,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="126" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -7448,7 +7458,7 @@
       <c r="K126"/>
       <c r="L126"/>
     </row>
-    <row r="127" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -7461,7 +7471,7 @@
       <c r="K127"/>
       <c r="L127"/>
     </row>
-    <row r="128" spans="1:15" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -7474,7 +7484,7 @@
       <c r="K128"/>
       <c r="L128"/>
     </row>
-    <row r="129" spans="1:13" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="64" t="s">
         <v>10</v>
       </c>
@@ -7494,7 +7504,7 @@
       <c r="K129"/>
       <c r="L129"/>
     </row>
-    <row r="130" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="26" t="s">
         <v>13</v>
       </c>
@@ -7529,7 +7539,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>20</v>
       </c>
@@ -7566,7 +7576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="24"/>
       <c r="B132" s="22" t="s">
         <v>36</v>
@@ -7601,7 +7611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
         <v>34</v>
       </c>
@@ -7636,7 +7646,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="37"/>
       <c r="B134" s="35" t="s">
         <v>38</v>
@@ -7669,7 +7679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="38" t="s">
         <v>39</v>
       </c>
@@ -7704,7 +7714,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="39"/>
       <c r="B136" s="35" t="s">
         <v>41</v>
@@ -7737,7 +7747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="38" t="s">
         <v>42</v>
       </c>
@@ -7772,7 +7782,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="39"/>
       <c r="B138" s="35" t="s">
         <v>44</v>
@@ -7805,7 +7815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="38" t="s">
         <v>24</v>
       </c>
@@ -7840,7 +7850,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="35" t="s">
         <v>14</v>
@@ -7873,7 +7883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="38" t="s">
         <v>27</v>
       </c>
@@ -7908,7 +7918,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="39"/>
       <c r="B142" s="35" t="s">
         <v>26</v>
@@ -7941,8 +7951,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="145" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
         <v>15</v>
       </c>
@@ -7950,7 +7960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="33" t="s">
         <v>29</v>
       </c>
@@ -7966,7 +7976,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="47" t="s">
         <v>56</v>
       </c>
@@ -8004,7 +8014,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="48"/>
       <c r="B148" s="35" t="s">
         <v>36</v>
@@ -8037,7 +8047,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="33" t="s">
         <v>29</v>
       </c>
@@ -8081,7 +8091,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="47" t="s">
         <v>34</v>
       </c>
@@ -8119,7 +8129,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="25"/>
       <c r="B151" s="35" t="s">
         <v>38</v>
@@ -8152,7 +8162,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="33" t="s">
         <v>29</v>
       </c>
@@ -8196,7 +8206,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="47" t="s">
         <v>34</v>
       </c>
@@ -8234,7 +8244,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="48"/>
       <c r="B154" s="35" t="s">
         <v>38</v>
@@ -8268,7 +8278,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
         <v>29</v>
       </c>
@@ -8312,7 +8322,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="47" t="s">
         <v>39</v>
       </c>
@@ -8350,7 +8360,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="34"/>
       <c r="B157" s="35" t="s">
         <v>41</v>
@@ -8384,7 +8394,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="33" t="s">
         <v>29</v>
       </c>
@@ -8428,7 +8438,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
         <v>27</v>
       </c>
@@ -8466,7 +8476,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="48"/>
       <c r="B160" s="35" t="s">
         <v>26</v>
@@ -8500,7 +8510,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="33" t="s">
         <v>17</v>
       </c>
@@ -8544,7 +8554,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="74" t="s">
         <v>16</v>
       </c>
@@ -8578,8 +8588,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="166" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="13" t="s">
         <v>19</v>
       </c>
@@ -8611,7 +8621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="54" t="s">
         <v>83</v>
       </c>
@@ -8652,7 +8662,7 @@
         <v>6.4250000000000007</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="55" t="s">
         <v>82</v>
       </c>
@@ -8693,7 +8703,7 @@
         <v>6.8850000000000007</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="56" t="s">
         <v>81</v>
       </c>
@@ -8734,8 +8744,8 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="171" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="54" t="s">
         <v>143</v>
       </c>
@@ -8776,7 +8786,7 @@
         <v>8.0350000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="55" t="s">
         <v>142</v>
       </c>
@@ -8817,7 +8827,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="55" t="s">
         <v>141</v>
       </c>
@@ -8858,7 +8868,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="55" t="s">
         <v>144</v>
       </c>
@@ -8899,7 +8909,7 @@
         <v>5.7350000000000003</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="56" t="s">
         <v>140</v>
       </c>
@@ -8940,10 +8950,10 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="52"/>
     </row>
-    <row r="177" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="54" t="s">
         <v>139</v>
       </c>
@@ -8984,7 +8994,7 @@
         <v>8.0350000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="55" t="s">
         <v>138</v>
       </c>
@@ -9025,7 +9035,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="55" t="s">
         <v>137</v>
       </c>
@@ -9066,7 +9076,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="55" t="s">
         <v>145</v>
       </c>
@@ -9107,7 +9117,7 @@
         <v>5.7350000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="56" t="s">
         <v>136</v>
       </c>
@@ -9148,10 +9158,10 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="52"/>
     </row>
-    <row r="183" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="54" t="s">
         <v>116</v>
       </c>
@@ -9192,7 +9202,7 @@
         <v>7.0000000000000009</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="55" t="s">
         <v>115</v>
       </c>
@@ -9233,7 +9243,7 @@
         <v>9.07</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="55" t="s">
         <v>114</v>
       </c>
@@ -9274,7 +9284,7 @@
         <v>6.8850000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="55" t="s">
         <v>113</v>
       </c>
@@ -9315,7 +9325,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="55" t="s">
         <v>146</v>
       </c>
@@ -9356,7 +9366,7 @@
         <v>6.8850000000000007</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="56" t="s">
         <v>112</v>
       </c>
@@ -9397,10 +9407,10 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="52"/>
     </row>
-    <row r="190" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="54" t="s">
         <v>111</v>
       </c>
@@ -9441,7 +9451,7 @@
         <v>7.0000000000000009</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="55" t="s">
         <v>110</v>
       </c>
@@ -9482,7 +9492,7 @@
         <v>9.07</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="55" t="s">
         <v>109</v>
       </c>
@@ -9523,7 +9533,7 @@
         <v>6.8850000000000007</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="55" t="s">
         <v>108</v>
       </c>
@@ -9564,7 +9574,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="55" t="s">
         <v>146</v>
       </c>
@@ -9605,7 +9615,7 @@
         <v>6.8850000000000007</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="56" t="s">
         <v>107</v>
       </c>
@@ -9646,10 +9656,10 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="52"/>
     </row>
-    <row r="197" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="54" t="s">
         <v>135</v>
       </c>
@@ -9690,7 +9700,7 @@
         <v>8.8350000000000009</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="55" t="s">
         <v>134</v>
       </c>
@@ -9731,7 +9741,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="55" t="s">
         <v>133</v>
       </c>
@@ -9772,7 +9782,7 @@
         <v>8.0300000000000011</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="55" t="s">
         <v>147</v>
       </c>
@@ -9813,7 +9823,7 @@
         <v>6.5350000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="56" t="s">
         <v>132</v>
       </c>
@@ -9854,10 +9864,10 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="52"/>
     </row>
-    <row r="203" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="54" t="s">
         <v>131</v>
       </c>
@@ -9898,7 +9908,7 @@
         <v>8.8350000000000009</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="55" t="s">
         <v>130</v>
       </c>
@@ -9939,7 +9949,7 @@
         <v>8.0300000000000011</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="55" t="s">
         <v>129</v>
       </c>
@@ -9980,7 +9990,7 @@
         <v>8.0300000000000011</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="55" t="s">
         <v>148</v>
       </c>
@@ -10021,7 +10031,7 @@
         <v>6.5350000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="56" t="s">
         <v>128</v>
       </c>
@@ -10062,10 +10072,10 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="52"/>
     </row>
-    <row r="209" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="54" t="s">
         <v>106</v>
       </c>
@@ -10106,7 +10116,7 @@
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="55" t="s">
         <v>105</v>
       </c>
@@ -10147,7 +10157,7 @@
         <v>9.870000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="55" t="s">
         <v>104</v>
       </c>
@@ -10188,7 +10198,7 @@
         <v>7.6850000000000005</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="55" t="s">
         <v>103</v>
       </c>
@@ -10229,7 +10239,7 @@
         <v>10.100000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="55" t="s">
         <v>149</v>
       </c>
@@ -10270,7 +10280,7 @@
         <v>7.6850000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="56" t="s">
         <v>102</v>
       </c>
@@ -10311,10 +10321,10 @@
         <v>6.65</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="52"/>
     </row>
-    <row r="216" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="54" t="s">
         <v>101</v>
       </c>
@@ -10355,7 +10365,7 @@
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="55" t="s">
         <v>100</v>
       </c>
@@ -10396,7 +10406,7 @@
         <v>9.870000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="55" t="s">
         <v>99</v>
       </c>
@@ -10437,7 +10447,7 @@
         <v>7.6850000000000005</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="55" t="s">
         <v>98</v>
       </c>
@@ -10478,7 +10488,7 @@
         <v>9.870000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="55" t="s">
         <v>149</v>
       </c>
@@ -10519,7 +10529,7 @@
         <v>7.6850000000000005</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="56" t="s">
         <v>97</v>
       </c>
@@ -10560,10 +10570,10 @@
         <v>6.65</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="52"/>
     </row>
-    <row r="223" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="54" t="s">
         <v>127</v>
       </c>
@@ -10604,7 +10614,7 @@
         <v>9.6349999999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="55" t="s">
         <v>126</v>
       </c>
@@ -10645,7 +10655,7 @@
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="55" t="s">
         <v>324</v>
       </c>
@@ -10686,7 +10696,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="55" t="s">
         <v>338</v>
       </c>
@@ -10727,7 +10737,7 @@
         <v>7.335</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="56" t="s">
         <v>125</v>
       </c>
@@ -10768,10 +10778,10 @@
         <v>9.0599999999999987</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="52"/>
     </row>
-    <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="54" t="s">
         <v>124</v>
       </c>
@@ -10812,7 +10822,7 @@
         <v>9.6349999999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="55" t="s">
         <v>123</v>
       </c>
@@ -10853,7 +10863,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="55" t="s">
         <v>325</v>
       </c>
@@ -10894,7 +10904,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="55" t="s">
         <v>150</v>
       </c>
@@ -10935,7 +10945,7 @@
         <v>7.335</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="56" t="s">
         <v>122</v>
       </c>
@@ -10976,10 +10986,10 @@
         <v>9.0599999999999987</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="52"/>
     </row>
-    <row r="235" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="54" t="s">
         <v>96</v>
       </c>
@@ -11020,7 +11030,7 @@
         <v>8.6000000000000014</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="55" t="s">
         <v>95</v>
       </c>
@@ -11061,7 +11071,7 @@
         <v>10.67</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="55" t="s">
         <v>326</v>
       </c>
@@ -11102,7 +11112,7 @@
         <v>8.4849999999999994</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="55" t="s">
         <v>327</v>
       </c>
@@ -11143,7 +11153,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="55" t="s">
         <v>151</v>
       </c>
@@ -11184,7 +11194,7 @@
         <v>8.4849999999999994</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="56" t="s">
         <v>94</v>
       </c>
@@ -11225,10 +11235,10 @@
         <v>7.4499999999999993</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="52"/>
     </row>
-    <row r="242" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="54" t="s">
         <v>93</v>
       </c>
@@ -11269,7 +11279,7 @@
         <v>8.6000000000000014</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="55" t="s">
         <v>92</v>
       </c>
@@ -11310,7 +11320,7 @@
         <v>10.67</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="55" t="s">
         <v>328</v>
       </c>
@@ -11351,7 +11361,7 @@
         <v>8.4849999999999994</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="55" t="s">
         <v>329</v>
       </c>
@@ -11392,7 +11402,7 @@
         <v>10.67</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="55" t="s">
         <v>151</v>
       </c>
@@ -11433,7 +11443,7 @@
         <v>8.4849999999999994</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="56" t="s">
         <v>91</v>
       </c>
@@ -11474,10 +11484,10 @@
         <v>7.4499999999999993</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="52"/>
     </row>
-    <row r="249" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="54" t="s">
         <v>121</v>
       </c>
@@ -11518,7 +11528,7 @@
         <v>9.6349999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="55" t="s">
         <v>120</v>
       </c>
@@ -11559,7 +11569,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="55" t="s">
         <v>330</v>
       </c>
@@ -11600,7 +11610,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="55" t="s">
         <v>152</v>
       </c>
@@ -11641,7 +11651,7 @@
         <v>7.335</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="56" t="s">
         <v>119</v>
       </c>
@@ -11682,10 +11692,10 @@
         <v>9.0599999999999987</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="52"/>
     </row>
-    <row r="255" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="54" t="s">
         <v>118</v>
       </c>
@@ -11726,7 +11736,7 @@
         <v>10.434999999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="55" t="s">
         <v>117</v>
       </c>
@@ -11767,7 +11777,7 @@
         <v>9.629999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="55" t="s">
         <v>331</v>
       </c>
@@ -11808,7 +11818,7 @@
         <v>9.629999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="55" t="s">
         <v>153</v>
       </c>
@@ -11849,7 +11859,7 @@
         <v>8.1349999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="56" t="s">
         <v>90</v>
       </c>
@@ -11890,10 +11900,10 @@
         <v>9.86</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="52"/>
     </row>
-    <row r="261" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="54" t="s">
         <v>89</v>
       </c>
@@ -11934,7 +11944,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="55" t="s">
         <v>88</v>
       </c>
@@ -11975,7 +11985,7 @@
         <v>11.469999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="55" t="s">
         <v>332</v>
       </c>
@@ -12016,7 +12026,7 @@
         <v>9.2850000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="55" t="s">
         <v>335</v>
       </c>
@@ -12057,7 +12067,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="55" t="s">
         <v>154</v>
       </c>
@@ -12098,7 +12108,7 @@
         <v>9.2850000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="56" t="s">
         <v>87</v>
       </c>
@@ -12139,10 +12149,10 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="52"/>
     </row>
-    <row r="268" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="54" t="s">
         <v>86</v>
       </c>
@@ -12183,7 +12193,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="55" t="s">
         <v>85</v>
       </c>
@@ -12224,7 +12234,7 @@
         <v>11.469999999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="55" t="s">
         <v>333</v>
       </c>
@@ -12265,7 +12275,7 @@
         <v>9.2850000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="55" t="s">
         <v>334</v>
       </c>
@@ -12306,7 +12316,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="55" t="s">
         <v>154</v>
       </c>
@@ -12347,7 +12357,7 @@
         <v>9.2850000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="56" t="s">
         <v>84</v>
       </c>
@@ -12388,11 +12398,11 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="52"/>
     </row>
-    <row r="275" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="276" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="276" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="54" t="s">
         <v>74</v>
       </c>
@@ -12433,7 +12443,7 @@
         <v>5.7350000000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="56" t="s">
         <v>75</v>
       </c>
@@ -12474,8 +12484,8 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="280" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="280" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="80" t="s">
         <v>76</v>
       </c>
@@ -12490,7 +12500,7 @@
       <c r="H280" s="218"/>
       <c r="I280" s="219"/>
     </row>
-    <row r="281" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="81" t="s">
         <v>80</v>
       </c>
@@ -12513,7 +12523,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="79" t="s">
         <v>77</v>
       </c>
@@ -12542,7 +12552,7 @@
         <v>1.9350000000000023</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="78" t="s">
         <v>78</v>
       </c>
@@ -12571,7 +12581,7 @@
         <v>4.2000000000000028</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="78" t="s">
         <v>79</v>
       </c>
@@ -12600,8 +12610,8 @@
         <v>19.460000000000008</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="287" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="287" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C287" s="114" t="s">
         <v>197</v>
       </c>
@@ -12609,7 +12619,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="114" t="s">
         <v>156</v>
       </c>
@@ -12622,7 +12632,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C289" s="83" t="s">
         <v>155</v>
       </c>
@@ -12630,18 +12640,18 @@
         <v>155</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="291" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="291" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="114" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="78" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C293" s="127" t="s">
         <v>49</v>
       </c>
@@ -12655,7 +12665,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="124" t="s">
         <v>201</v>
       </c>
@@ -12672,7 +12682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="125" t="s">
         <v>202</v>
       </c>
@@ -12689,13 +12699,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="297" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="297" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="126" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="124" t="s">
         <v>204</v>
       </c>
@@ -12716,7 +12726,7 @@
         <v>104.52500000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="125" t="s">
         <v>205</v>
       </c>
@@ -12737,8 +12747,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="301" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="301" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="78" t="s">
         <v>206</v>
       </c>
@@ -12759,7 +12769,7 @@
         <v>108.63124999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="78" t="s">
         <v>207</v>
       </c>
@@ -12776,7 +12786,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="78" t="s">
         <v>208</v>
       </c>
@@ -12793,8 +12803,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="306" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="126" t="s">
         <v>257</v>
       </c>
@@ -12805,7 +12815,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="124" t="s">
         <v>255</v>
       </c>
@@ -12818,7 +12828,7 @@
         <v>47.474999999999994</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="125" t="s">
         <v>256</v>
       </c>
@@ -12831,13 +12841,13 @@
         <v>51.674999999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="126" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="82" t="s">
         <v>322</v>
       </c>
@@ -12846,7 +12856,7 @@
         <v>2.3220000000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="82" t="s">
         <v>321</v>
       </c>
@@ -12855,13 +12865,46 @@
         <v>5.879999999999999</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="83" t="s">
         <v>323</v>
       </c>
       <c r="B314" s="90">
         <f>B312+B313</f>
         <v>8.2019999999999982</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="126" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="B317" s="21">
+        <f>N161+N158+N155</f>
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="82" t="s">
+        <v>340</v>
+      </c>
+      <c r="B318" s="21">
+        <f>(E25*N6)+(D28*N5)</f>
+        <v>1.323</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="83" t="s">
+        <v>323</v>
+      </c>
+      <c r="B319" s="90">
+        <f>B317+B318</f>
+        <v>2.484</v>
       </c>
     </row>
   </sheetData>
@@ -12882,18 +12925,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>47</v>
       </c>
@@ -12932,7 +12975,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>48</v>
       </c>
@@ -12971,17 +13014,17 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>53</v>
       </c>
@@ -13017,15 +13060,15 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>68</v>
       </c>
@@ -13033,7 +13076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>69</v>
       </c>
@@ -13041,7 +13084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>70</v>
       </c>
@@ -13067,7 +13110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>176</v>
       </c>
@@ -13075,7 +13118,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>177</v>
       </c>
@@ -13083,16 +13126,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="101" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>158</v>
       </c>
@@ -13130,7 +13173,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>159</v>
       </c>
@@ -13165,7 +13208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>160</v>
       </c>
@@ -13200,7 +13243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>161</v>
       </c>
@@ -13235,7 +13278,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>162</v>
       </c>
@@ -13270,13 +13313,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="101" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>158</v>
       </c>
@@ -13302,7 +13345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>159</v>
       </c>
@@ -13328,7 +13371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>160</v>
       </c>
@@ -13354,7 +13397,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>164</v>
       </c>
@@ -13380,7 +13423,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>162</v>
       </c>
@@ -13406,13 +13449,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="105" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="107" t="s">
         <v>166</v>
       </c>
@@ -13444,7 +13487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="107" t="s">
         <v>167</v>
       </c>
@@ -13478,7 +13521,7 @@
       <c r="O33" s="181"/>
       <c r="P33" s="185"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="107" t="s">
         <v>168</v>
       </c>
@@ -13519,7 +13562,7 @@
         <v>60.0331979307064</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="107" t="s">
         <v>169</v>
       </c>
@@ -13551,7 +13594,7 @@
         <v>60.73</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
         <v>170</v>
       </c>
@@ -13583,8 +13626,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="127" t="s">
         <v>218</v>
       </c>
@@ -13592,12 +13635,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="126" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="124" t="s">
         <v>215</v>
       </c>
@@ -13642,7 +13685,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="149" t="s">
         <v>216</v>
       </c>
@@ -13677,7 +13720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="149" t="s">
         <v>217</v>
       </c>
@@ -13728,7 +13771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="155" t="s">
         <v>220</v>
       </c>
@@ -13773,7 +13816,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="149" t="s">
         <v>221</v>
       </c>
@@ -13818,7 +13861,7 @@
         <v>113.03201501575784</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="125" t="s">
         <v>222</v>
       </c>
@@ -13863,14 +13906,14 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="126" t="s">
         <v>227</v>
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="148" t="s">
         <v>228</v>
       </c>
@@ -13911,7 +13954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="149" t="s">
         <v>229</v>
       </c>
@@ -13952,7 +13995,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="149" t="s">
         <v>216</v>
       </c>
@@ -13984,7 +14027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="149" t="s">
         <v>217</v>
       </c>
@@ -14031,7 +14074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="149" t="s">
         <v>230</v>
       </c>
@@ -14072,7 +14115,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="150" t="s">
         <v>231</v>
       </c>
@@ -14113,18 +14156,18 @@
         <v>47.36</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="126" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="148" t="s">
         <v>234</v>
       </c>
@@ -14165,7 +14208,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="150" t="s">
         <v>235</v>
       </c>
@@ -14206,13 +14249,13 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="126" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="148" t="s">
         <v>237</v>
       </c>
@@ -14253,7 +14296,7 @@
         <v>28.64</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="149" t="s">
         <v>238</v>
       </c>
@@ -14295,7 +14338,7 @@
       </c>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="150" t="s">
         <v>239</v>
       </c>
@@ -14336,13 +14379,13 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="170" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="149" t="s">
         <v>241</v>
       </c>
@@ -14374,7 +14417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="149" t="s">
         <v>242</v>
       </c>
@@ -14406,7 +14449,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="149" t="s">
         <v>243</v>
       </c>
@@ -14438,7 +14481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="150" t="s">
         <v>244</v>
       </c>
@@ -14470,18 +14513,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="171" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="172" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="149" t="s">
         <v>246</v>
       </c>
@@ -14523,7 +14566,7 @@
         <v>11.744601729619896</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="149" t="s">
         <v>247</v>
       </c>
@@ -14564,7 +14607,7 @@
         <v>34.35999930679634</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="150" t="s">
         <v>248</v>
       </c>
@@ -14605,13 +14648,13 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="170" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="149" t="s">
         <v>246</v>
       </c>
@@ -14653,7 +14696,7 @@
       </c>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="149" t="s">
         <v>247</v>
       </c>
@@ -14694,7 +14737,7 @@
         <v>39.147959539554208</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="150" t="s">
         <v>249</v>
       </c>
@@ -14735,13 +14778,13 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="126" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="148" t="s">
         <v>224</v>
       </c>
@@ -14776,7 +14819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="149" t="s">
         <v>225</v>
       </c>
@@ -14815,7 +14858,7 @@
         <v>10.96798498424217</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="150" t="s">
         <v>226</v>
       </c>
@@ -14844,13 +14887,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="170" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="155" t="s">
         <v>250</v>
       </c>
@@ -14887,7 +14930,7 @@
         <v>51.064030031515671</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="125" t="s">
         <v>251</v>
       </c>
@@ -14924,13 +14967,13 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="170" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="149" t="s">
         <v>252</v>
       </c>
@@ -14963,7 +15006,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="155" t="s">
         <v>253</v>
       </c>
@@ -14997,7 +15040,7 @@
       </c>
       <c r="O96" s="184"/>
     </row>
-    <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="125" t="s">
         <v>254</v>
       </c>
@@ -15044,21 +15087,21 @@
       <selection activeCell="A44" sqref="A44:A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="220" t="s">
         <v>178</v>
       </c>
       <c r="C2" s="221"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="118"/>
       <c r="B3" s="189" t="s">
         <v>179</v>
@@ -15067,7 +15110,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="119" t="s">
         <v>181</v>
       </c>
@@ -15078,7 +15121,7 @@
         <v>39.49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="119" t="s">
         <v>182</v>
       </c>
@@ -15089,7 +15132,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="119" t="s">
         <v>265</v>
       </c>
@@ -15104,7 +15147,7 @@
       <c r="F6" s="186"/>
       <c r="G6" s="186"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="119" t="s">
         <v>259</v>
       </c>
@@ -15117,7 +15160,7 @@
         <v>43.347844323707463</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="119" t="s">
         <v>260</v>
       </c>
@@ -15128,7 +15171,7 @@
         <v>6378.16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="119" t="s">
         <v>261</v>
       </c>
@@ -15141,7 +15184,7 @@
       <c r="F9" s="188"/>
       <c r="G9" s="188"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="119" t="s">
         <v>262</v>
       </c>
@@ -15156,7 +15199,7 @@
       <c r="F10" s="186"/>
       <c r="G10" s="186"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="119" t="s">
         <v>263</v>
       </c>
@@ -15171,7 +15214,7 @@
       <c r="F11" s="186"/>
       <c r="G11" s="187"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="119" t="s">
         <v>264</v>
       </c>
@@ -15184,12 +15227,12 @@
         <v>37780.795202936883</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="118"/>
       <c r="B13" s="118"/>
       <c r="C13" s="118"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="119" t="s">
         <v>309</v>
       </c>
@@ -15200,7 +15243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="119" t="s">
         <v>183</v>
       </c>
@@ -15211,7 +15254,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>307</v>
       </c>
@@ -15222,7 +15265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="119" t="s">
         <v>308</v>
       </c>
@@ -15233,7 +15276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="119" t="s">
         <v>184</v>
       </c>
@@ -15244,7 +15287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="119" t="s">
         <v>185</v>
       </c>
@@ -15255,7 +15298,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="119" t="s">
         <v>186</v>
       </c>
@@ -15266,7 +15309,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="119" t="s">
         <v>188</v>
       </c>
@@ -15279,7 +15322,7 @@
         <v>206.09562558798024</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="119" t="s">
         <v>189</v>
       </c>
@@ -15290,7 +15333,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="119" t="s">
         <v>194</v>
       </c>
@@ -15301,7 +15344,7 @@
         <v>1.3800000000000001E-23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="119" t="s">
         <v>190</v>
       </c>
@@ -15314,7 +15357,7 @@
         <v>100.72029093246357</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="119" t="s">
         <v>191</v>
       </c>
@@ -15327,7 +15370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="119" t="s">
         <v>187</v>
       </c>
@@ -15340,7 +15383,7 @@
         <v>-134.25640177870341</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="119" t="s">
         <v>306</v>
       </c>
@@ -15353,7 +15396,7 @@
         <v>39.939223809276825</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="119" t="s">
         <v>192</v>
       </c>
@@ -15366,7 +15409,7 @@
         <v>2.3529411764705882E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="119" t="s">
         <v>297</v>
       </c>
@@ -15379,7 +15422,7 @@
         <v>0.88894188095344961</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="119" t="s">
         <v>193</v>
       </c>
@@ -15392,7 +15435,7 @@
         <v>19.908054093582471</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="119" t="s">
         <v>298</v>
       </c>
@@ -15409,7 +15452,7 @@
       <c r="F33" s="194"/>
       <c r="G33" s="194"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="119" t="s">
         <v>299</v>
       </c>
@@ -15422,7 +15465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="119" t="s">
         <v>294</v>
       </c>
@@ -15435,7 +15478,7 @@
         <v>-66.176401778703408</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="119" t="s">
         <v>295</v>
       </c>
@@ -15448,7 +15491,7 @@
         <v>4253.1484633272221</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="119" t="s">
         <v>296</v>
       </c>
@@ -15461,7 +15504,7 @@
         <v>72.574210855213593</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="119" t="s">
         <v>300</v>
       </c>
@@ -15491,21 +15534,21 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="211"/>
       <c r="B1" s="119" t="s">
         <v>286</v>
@@ -15519,7 +15562,7 @@
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="119" t="s">
         <v>270</v>
       </c>
@@ -15538,7 +15581,7 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="119" t="s">
         <v>269</v>
       </c>
@@ -15557,7 +15600,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="119" t="s">
         <v>266</v>
       </c>
@@ -15576,7 +15619,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="210" t="s">
         <v>267</v>
       </c>
@@ -15590,7 +15633,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="210" t="s">
         <v>268</v>
       </c>
@@ -15605,7 +15648,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -15615,7 +15658,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="222" t="s">
         <v>274</v>
       </c>
@@ -15629,7 +15672,7 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="119" t="s">
         <v>287</v>
       </c>
@@ -15645,7 +15688,7 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="119" t="s">
         <v>271</v>
       </c>
@@ -15661,7 +15704,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="119" t="s">
         <v>272</v>
       </c>
@@ -15677,7 +15720,7 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="119" t="s">
         <v>273</v>
       </c>
@@ -15695,7 +15738,7 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="119" t="s">
         <v>290</v>
       </c>
@@ -15713,7 +15756,7 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -15723,7 +15766,7 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -15733,7 +15776,7 @@
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="222" t="s">
         <v>304</v>
       </c>
@@ -15757,7 +15800,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>275</v>
       </c>
@@ -15792,7 +15835,7 @@
         <v>-755.30000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="119" t="s">
         <v>276</v>
       </c>
@@ -15816,7 +15859,7 @@
         <v>-139.30200000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="119" t="s">
         <v>277</v>
       </c>
@@ -15844,7 +15887,7 @@
         <v>14.715</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="119" t="s">
         <v>278</v>
       </c>
@@ -15861,7 +15904,7 @@
       <c r="H20" s="198"/>
       <c r="J20" s="198"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="119" t="s">
         <v>282</v>
       </c>
@@ -15889,7 +15932,7 @@
         <v>11.772</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="119" t="s">
         <v>279</v>
       </c>
@@ -15906,7 +15949,7 @@
       <c r="H22" s="198"/>
       <c r="J22" s="198"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="119" t="s">
         <v>280</v>
       </c>
@@ -15934,7 +15977,7 @@
         <v>49.050000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="213" t="s">
         <v>281</v>
       </c>
@@ -15957,7 +16000,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="201"/>
       <c r="B25" s="201"/>
       <c r="C25" s="201"/>
@@ -15971,7 +16014,7 @@
         <v>24.525000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="212" t="s">
         <v>313</v>
       </c>
@@ -15980,7 +16023,7 @@
       </c>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="214" t="s">
         <v>314</v>
       </c>
@@ -15998,7 +16041,7 @@
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="119" t="s">
         <v>315</v>
       </c>
@@ -16016,7 +16059,7 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="119" t="s">
         <v>316</v>
       </c>
@@ -16034,7 +16077,7 @@
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="213" t="s">
         <v>317</v>
       </c>
@@ -16054,14 +16097,14 @@
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="197"/>
       <c r="B31" s="197"/>
       <c r="C31" s="197"/>
       <c r="E31" s="197"/>
       <c r="F31" s="197"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>293</v>
       </c>
@@ -16069,12 +16112,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>523.20000000000005</v>
       </c>
@@ -16083,30 +16126,30 @@
         <v>261.60000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45">
         <f>SUM(C42)</f>
         <v>261.60000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46">
         <f>0.045*280*((B10)^2-(3)^2)</f>
         <v>340.2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47">
         <f>B45+B46</f>
         <v>601.79999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48">
         <f>B47-355</f>
         <v>246.79999999999995</v>

--- a/3C/ITSIT/CTI3.xlsx
+++ b/3C/ITSIT/CTI3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/6-1/ITSIT/Trabajo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="14_{9F4157DC-F50C-4A01-87BD-49BE01D9B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5D279DC-60F2-4BD3-9BBD-156AB107B084}"/>
+  <xr:revisionPtr revIDLastSave="392" documentId="14_{9F4157DC-F50C-4A01-87BD-49BE01D9B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA9D8DF4-D63A-49E6-8243-E34B163B0567}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="345">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -125,9 +125,6 @@
     <t>2-output tap 25dB</t>
   </si>
   <si>
-    <t>ATTENUATION OF DISPERSION+INTERIOR. BEST AND WORST OUTLET ON EACH FLOOR(dB)</t>
-  </si>
-  <si>
     <t>RS-RS floors cable</t>
   </si>
   <si>
@@ -1062,6 +1059,21 @@
   </si>
   <si>
     <t>Planicity of the dispersion + interior network (Best outlet)</t>
+  </si>
+  <si>
+    <t>Service room apartment down CD floor5</t>
+  </si>
+  <si>
+    <t>B.O</t>
+  </si>
+  <si>
+    <t>W.O</t>
+  </si>
+  <si>
+    <t>Planicidad</t>
+  </si>
+  <si>
+    <t>ATTENUATION OF DISPERSION+INTERIOR. BEST AND WORST OUTLET ON EACH FLOOR (dB)</t>
   </si>
 </sst>
 </file>
@@ -2047,7 +2059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2562,6 +2574,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2887,24 +2902,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O319"/>
+  <dimension ref="A1:Q319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A326" sqref="A326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2936,7 +2951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2945,13 +2960,13 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
@@ -2986,7 +3001,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3021,7 +3036,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3056,7 +3071,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -3091,8 +3106,8 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
@@ -3103,9 +3118,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="49">
         <v>0.5</v>
@@ -3137,9 +3152,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="51">
         <v>0.5</v>
@@ -3171,7 +3186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
@@ -3203,9 +3218,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="10">
         <v>0.5</v>
@@ -3235,50 +3250,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
-        <v>28</v>
+        <v>344</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="K18" s="84" t="s">
-        <v>60</v>
-      </c>
       <c r="L18" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="87" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="58">
         <v>22</v>
@@ -3322,10 +3337,13 @@
         <f>($D19*O$6)+D$11+(E$19*O$5)+D$13</f>
         <v>5.335</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P19" s="226" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="59">
         <v>19</v>
@@ -3366,10 +3384,11 @@
         <f>($D20*O$6)+D$11+(E$19*O$5)+D$13</f>
         <v>4.99</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="226"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" s="59">
         <v>15</v>
@@ -3410,10 +3429,11 @@
         <f>($D21*O$6)+D$11+(E$19*O$5)+D$13</f>
         <v>4.53</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P21" s="226"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="59">
         <v>2</v>
@@ -3454,10 +3474,13 @@
         <f t="shared" ref="O22:O23" si="4">($D22*O$6)+D$11+(E$19*O$5)+D$13</f>
         <v>3.0350000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="226" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="60">
         <v>17</v>
@@ -3498,15 +3521,17 @@
         <f t="shared" si="4"/>
         <v>4.76</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P23" s="226"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="52"/>
       <c r="N24" s="91"/>
       <c r="O24" s="91"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P24" s="226"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="58">
         <v>22</v>
@@ -3550,10 +3575,13 @@
         <f>($D25*O$6)+D$11+(E$25*O$5)+D$13</f>
         <v>5.335</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P25" s="226" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" s="59">
         <v>15</v>
@@ -3594,10 +3622,11 @@
         <f t="shared" ref="O26:O29" si="9">($D26*O$6)+D$11+(E$25*O$5)+D$13</f>
         <v>4.53</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P26" s="226"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D27" s="59">
         <v>15</v>
@@ -3638,10 +3667,11 @@
         <f t="shared" si="9"/>
         <v>4.53</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P27" s="226"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D28" s="59">
         <v>2</v>
@@ -3682,10 +3712,13 @@
         <f t="shared" si="9"/>
         <v>3.0350000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P28" s="226" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" s="60">
         <v>17</v>
@@ -3726,15 +3759,17 @@
         <f t="shared" si="9"/>
         <v>4.76</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P29" s="226"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="52"/>
       <c r="N30" s="91"/>
       <c r="O30" s="91"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P30" s="226"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" s="58">
         <v>14</v>
@@ -3778,10 +3813,11 @@
         <f>($D31*O$6)+D$12+(E$31*O$5)+D$13</f>
         <v>4.3000000000000007</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="226"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" s="59">
         <v>32</v>
@@ -3822,10 +3858,11 @@
         <f>($D32*O$6)+D$12+(E$31*O$5)+D$13</f>
         <v>6.37</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="226"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" s="59">
         <v>13</v>
@@ -3867,10 +3904,11 @@
         <f t="shared" ref="O33:O36" si="18">($D33*O$6)+D$12+(E$31*O$5)+D$13</f>
         <v>4.1850000000000005</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="226"/>
+    </row>
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" s="59">
         <v>34</v>
@@ -3911,10 +3949,13 @@
         <f t="shared" si="18"/>
         <v>6.6000000000000005</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="226" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D35" s="61">
         <v>13</v>
@@ -3955,10 +3996,11 @@
         <f t="shared" si="18"/>
         <v>4.1850000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P35" s="226"/>
+    </row>
+    <row r="36" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="60">
         <v>4</v>
@@ -3999,15 +4041,19 @@
         <f t="shared" si="18"/>
         <v>3.15</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P36" s="226" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="52"/>
       <c r="N37" s="91"/>
       <c r="O37" s="91"/>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P37" s="226"/>
+    </row>
+    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="58">
         <v>14</v>
@@ -4051,10 +4097,11 @@
         <f>($D38*O$6)+D$12+(E$38*O$5)+D$13</f>
         <v>4.3000000000000007</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P38" s="226"/>
+    </row>
+    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="59">
         <v>32</v>
@@ -4095,10 +4142,11 @@
         <f t="shared" ref="O39:O43" si="26">($D39*O$6)+D$12+(E$38*O$5)+D$13</f>
         <v>6.37</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P39" s="226"/>
+    </row>
+    <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D40" s="59">
         <v>13</v>
@@ -4139,10 +4187,11 @@
         <f t="shared" si="26"/>
         <v>4.1850000000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P40" s="226"/>
+    </row>
+    <row r="41" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" s="59">
         <v>34</v>
@@ -4183,10 +4232,13 @@
         <f t="shared" si="26"/>
         <v>6.6000000000000005</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P41" s="226" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D42" s="61">
         <v>13</v>
@@ -4227,10 +4279,11 @@
         <f t="shared" si="26"/>
         <v>4.1850000000000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P42" s="226"/>
+    </row>
+    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" s="60">
         <v>4</v>
@@ -4271,15 +4324,19 @@
         <f t="shared" si="26"/>
         <v>3.15</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P43" s="226" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="52"/>
       <c r="N44" s="91"/>
       <c r="O44" s="91"/>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P44" s="226"/>
+    </row>
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="58">
         <v>22</v>
@@ -4323,10 +4380,13 @@
         <f>($D45*O$6)+D$11+(E$45*O$5)+D$13</f>
         <v>5.335</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P45" s="226" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="59">
         <v>19</v>
@@ -4367,10 +4427,11 @@
         <f t="shared" ref="O46:O49" si="35">($D46*O$6)+D$11+(E$45*O$5)+D$13</f>
         <v>4.99</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P46" s="226"/>
+    </row>
+    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" s="59">
         <v>15</v>
@@ -4411,10 +4472,11 @@
         <f t="shared" si="35"/>
         <v>4.53</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P47" s="226"/>
+    </row>
+    <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="59">
         <v>2</v>
@@ -4455,10 +4517,13 @@
         <f t="shared" si="35"/>
         <v>3.0350000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P48" s="226" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" s="60">
         <v>17</v>
@@ -4499,15 +4564,17 @@
         <f t="shared" si="35"/>
         <v>4.76</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P49" s="226"/>
+    </row>
+    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="52"/>
       <c r="N50" s="91"/>
       <c r="O50" s="91"/>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P50" s="226"/>
+    </row>
+    <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51" s="58">
         <v>22</v>
@@ -4551,10 +4618,13 @@
         <f>($D51*O$6)+D$11+(E$51*O$5)+D$13</f>
         <v>5.335</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P51" s="226" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D52" s="59">
         <v>15</v>
@@ -4595,10 +4665,11 @@
         <f t="shared" ref="O52:O55" si="42">($D52*O$6)+D$11+(E$51*O$5)+D$13</f>
         <v>4.53</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P52" s="226"/>
+    </row>
+    <row r="53" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D53" s="59">
         <v>15</v>
@@ -4639,10 +4710,14 @@
         <f t="shared" si="42"/>
         <v>4.53</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P53" s="226"/>
+      <c r="Q53" s="226" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" s="59">
         <v>2</v>
@@ -4683,10 +4758,17 @@
         <f t="shared" si="42"/>
         <v>3.0350000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P54" s="226" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q54">
+        <f>(D54*N6)+(E51*N5)</f>
+        <v>1.323</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D55" s="60">
         <v>17</v>
@@ -4727,15 +4809,17 @@
         <f t="shared" si="42"/>
         <v>4.76</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P55" s="226"/>
+    </row>
+    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="52"/>
       <c r="N56" s="91"/>
       <c r="O56" s="91"/>
-    </row>
-    <row r="57" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P56" s="226"/>
+    </row>
+    <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57" s="58">
         <v>14</v>
@@ -4779,10 +4863,11 @@
         <f>($D57*O$6)+D$12+(E$57*O$5)+D$13</f>
         <v>4.3000000000000007</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P57" s="226"/>
+    </row>
+    <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" s="59">
         <v>32</v>
@@ -4823,10 +4908,11 @@
         <f t="shared" ref="O58:O62" si="51">($D58*O$6)+D$12+(E$57*O$5)+D$13</f>
         <v>6.37</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P58" s="226"/>
+    </row>
+    <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D59" s="59">
         <v>13</v>
@@ -4867,10 +4953,14 @@
         <f t="shared" si="51"/>
         <v>4.1850000000000005</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P59" s="226"/>
+      <c r="Q59" s="226" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D60" s="59">
         <v>34</v>
@@ -4911,10 +5001,17 @@
         <f>($D60*O$6)+D$12+(E$57*O$5)+D$13</f>
         <v>6.6000000000000005</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P60" s="226" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q60">
+        <f>(D60*N5)+(E57*N6)</f>
+        <v>5.879999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D61" s="61">
         <v>13</v>
@@ -4955,10 +5052,11 @@
         <f t="shared" si="51"/>
         <v>4.1850000000000005</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P61" s="226"/>
+    </row>
+    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D62" s="60">
         <v>4</v>
@@ -4999,15 +5097,19 @@
         <f t="shared" si="51"/>
         <v>3.15</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P62" s="226" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="52"/>
       <c r="N63" s="91"/>
       <c r="O63" s="91"/>
-    </row>
-    <row r="64" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P63" s="226"/>
+    </row>
+    <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D64" s="58">
         <v>14</v>
@@ -5051,10 +5153,11 @@
         <f>($D64*O$6)+D$12+(E$64*O$5)+D$13</f>
         <v>4.3000000000000007</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P64" s="226"/>
+    </row>
+    <row r="65" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D65" s="59">
         <v>32</v>
@@ -5095,10 +5198,11 @@
         <f t="shared" ref="O65:O69" si="60">($D65*O$6)+D$12+(E$64*O$5)+D$13</f>
         <v>6.37</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P65" s="226"/>
+    </row>
+    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D66" s="59">
         <v>13</v>
@@ -5139,10 +5243,11 @@
         <f t="shared" si="60"/>
         <v>4.1850000000000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P66" s="226"/>
+    </row>
+    <row r="67" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D67" s="59">
         <v>32</v>
@@ -5183,10 +5288,13 @@
         <f t="shared" si="60"/>
         <v>6.37</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P67" s="226" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D68" s="61">
         <v>13</v>
@@ -5227,10 +5335,11 @@
         <f t="shared" si="60"/>
         <v>4.1850000000000005</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P68" s="226"/>
+    </row>
+    <row r="69" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D69" s="60">
         <v>4</v>
@@ -5271,15 +5380,19 @@
         <f t="shared" si="60"/>
         <v>3.15</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P69" s="226" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="52"/>
       <c r="N70" s="91"/>
       <c r="O70" s="91"/>
-    </row>
-    <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P70" s="226"/>
+    </row>
+    <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D71" s="58">
         <v>22</v>
@@ -5323,10 +5436,13 @@
         <f>($D71*O$6)+D$11+(E$71*O$5)+D$13</f>
         <v>5.335</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P71" s="226" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D72" s="59">
         <v>19</v>
@@ -5367,10 +5483,11 @@
         <f t="shared" ref="O72:O75" si="67">($D72*O$6)+D$11+(E$71*O$5)+D$13</f>
         <v>4.99</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P72" s="226"/>
+    </row>
+    <row r="73" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D73" s="59">
         <v>15</v>
@@ -5411,10 +5528,11 @@
         <f t="shared" si="67"/>
         <v>4.53</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P73" s="226"/>
+    </row>
+    <row r="74" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D74" s="59">
         <v>2</v>
@@ -5455,10 +5573,13 @@
         <f t="shared" si="67"/>
         <v>3.0350000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P74" s="226" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" s="60">
         <v>17</v>
@@ -5499,15 +5620,17 @@
         <f t="shared" si="67"/>
         <v>4.76</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P75" s="226"/>
+    </row>
+    <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="52"/>
       <c r="N76" s="91"/>
       <c r="O76" s="91"/>
-    </row>
-    <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P76" s="226"/>
+    </row>
+    <row r="77" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D77" s="58">
         <v>22</v>
@@ -5551,10 +5674,13 @@
         <f>($D77*O$6)+D$11+(E$77*O$5)+D$13</f>
         <v>5.335</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P77" s="226" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D78" s="59">
         <v>15</v>
@@ -5595,10 +5721,11 @@
         <f t="shared" ref="O78:O81" si="74">($D78*O$6)+D$11+(E$77*O$5)+D$13</f>
         <v>4.53</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P78" s="226"/>
+    </row>
+    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D79" s="59">
         <v>15</v>
@@ -5639,10 +5766,11 @@
         <f t="shared" si="74"/>
         <v>4.53</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P79" s="226"/>
+    </row>
+    <row r="80" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D80" s="59">
         <v>2</v>
@@ -5683,10 +5811,13 @@
         <f t="shared" si="74"/>
         <v>3.0350000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P80" s="226" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D81" s="60">
         <v>17</v>
@@ -5727,15 +5858,17 @@
         <f t="shared" si="74"/>
         <v>4.76</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P81" s="226"/>
+    </row>
+    <row r="82" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="52"/>
       <c r="N82" s="91"/>
       <c r="O82" s="91"/>
-    </row>
-    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P82" s="226"/>
+    </row>
+    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D83" s="58">
         <v>14</v>
@@ -5779,10 +5912,11 @@
         <f>($D83*O$6)+D$12+(E$83*O$5)+D$13</f>
         <v>4.3000000000000007</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P83" s="226"/>
+    </row>
+    <row r="84" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D84" s="59">
         <v>32</v>
@@ -5823,10 +5957,11 @@
         <f t="shared" ref="O84:O87" si="83">($D84*O$6)+D$12+(E$83*O$5)+D$13</f>
         <v>6.37</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P84" s="226"/>
+    </row>
+    <row r="85" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B85" s="52"/>
       <c r="C85" s="52"/>
@@ -5871,10 +6006,11 @@
         <f t="shared" si="83"/>
         <v>4.1850000000000005</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P85" s="226"/>
+    </row>
+    <row r="86" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B86" s="52"/>
       <c r="C86" s="52"/>
@@ -5919,10 +6055,13 @@
         <f t="shared" si="83"/>
         <v>6.6000000000000005</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P86" s="226" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B87" s="52"/>
       <c r="C87" s="52"/>
@@ -5967,10 +6106,11 @@
         <f t="shared" si="83"/>
         <v>4.1850000000000005</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P87" s="226"/>
+    </row>
+    <row r="88" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" s="52"/>
       <c r="C88" s="52"/>
@@ -6015,8 +6155,11 @@
         <f>($D88*O$6)+D$12+(E$83*O$5)+D$13</f>
         <v>3.15</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P88" s="226" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="52"/>
       <c r="B89" s="52"/>
       <c r="C89" s="52"/>
@@ -6032,9 +6175,9 @@
       <c r="N89" s="91"/>
       <c r="O89" s="91"/>
     </row>
-    <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="52"/>
       <c r="C90" s="52"/>
@@ -6082,9 +6225,9 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="52"/>
       <c r="C91" s="52"/>
@@ -6130,9 +6273,9 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D92" s="59">
         <v>13</v>
@@ -6174,9 +6317,9 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D93" s="59">
         <v>32</v>
@@ -6217,10 +6360,13 @@
         <f t="shared" si="92"/>
         <v>6.37</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P93" s="52" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D94" s="61">
         <v>13</v>
@@ -6262,9 +6408,9 @@
         <v>4.1850000000000005</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="60">
         <v>4</v>
@@ -6305,14 +6451,17 @@
         <f t="shared" si="92"/>
         <v>3.15</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P95" s="52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N96" s="92"/>
       <c r="O96" s="92"/>
     </row>
-    <row r="97" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D97" s="58">
         <v>22</v>
@@ -6356,10 +6505,13 @@
         <f>($D97*O$6)+D$11+(E$97*O$5)+D$13</f>
         <v>5.335</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P97" s="52" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D98" s="59">
         <v>15</v>
@@ -6401,9 +6553,9 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D99" s="59">
         <v>15</v>
@@ -6445,9 +6597,9 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D100" s="59">
         <v>2</v>
@@ -6488,10 +6640,13 @@
         <f t="shared" si="99"/>
         <v>3.0350000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P100" s="52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D101" s="60">
         <v>17</v>
@@ -6533,13 +6688,13 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N102" s="92"/>
       <c r="O102" s="92"/>
     </row>
-    <row r="103" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D103" s="58">
         <v>22</v>
@@ -6583,10 +6738,13 @@
         <f>($D103*O$6)+D$11+(E$103*O$5)+D$13</f>
         <v>5.335</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P103" s="52" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D104" s="59">
         <v>15</v>
@@ -6628,9 +6786,9 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D105" s="59">
         <v>15</v>
@@ -6672,9 +6830,9 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D106" s="59">
         <v>2</v>
@@ -6715,10 +6873,13 @@
         <f t="shared" si="106"/>
         <v>3.0350000000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P106" s="52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D107" s="60">
         <v>17</v>
@@ -6760,13 +6921,13 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N108" s="92"/>
       <c r="O108" s="92"/>
     </row>
-    <row r="109" spans="1:15" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D109" s="58">
         <v>14</v>
@@ -6811,9 +6972,9 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    